--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6148" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6152" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -552,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC1227"/>
+  <dimension ref="A1:AC1228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23255,7 +23255,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>3785608</v>
+        <v>3785604</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23267,28 +23267,28 @@
         <v>44436.5625</v>
       </c>
       <c r="F256" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G256" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H256">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K256">
-        <v>1.444</v>
+        <v>1.2</v>
       </c>
       <c r="L256">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="M256">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N256">
         <v>1.285</v>
@@ -23303,40 +23303,40 @@
         <v>-1.75</v>
       </c>
       <c r="R256">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S256">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="T256">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U256">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V256">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="W256">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y256">
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB256">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC256">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23344,7 +23344,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>3785604</v>
+        <v>3785608</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23356,28 +23356,28 @@
         <v>44436.5625</v>
       </c>
       <c r="F257" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G257" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K257">
-        <v>1.2</v>
+        <v>1.444</v>
       </c>
       <c r="L257">
+        <v>4.333</v>
+      </c>
+      <c r="M257">
         <v>7</v>
-      </c>
-      <c r="M257">
-        <v>11</v>
       </c>
       <c r="N257">
         <v>1.285</v>
@@ -23392,40 +23392,40 @@
         <v>-1.75</v>
       </c>
       <c r="R257">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S257">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T257">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U257">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V257">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="W257">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X257">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA257">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC257">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -27082,7 +27082,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>3785647</v>
+        <v>3785645</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27094,76 +27094,76 @@
         <v>44465.41666666666</v>
       </c>
       <c r="F299" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G299" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J299" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K299">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L299">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M299">
         <v>2.625</v>
       </c>
       <c r="N299">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O299">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P299">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="Q299">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R299">
-        <v>1.79</v>
+        <v>2.01</v>
       </c>
       <c r="S299">
-        <v>2.11</v>
+        <v>1.89</v>
       </c>
       <c r="T299">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U299">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="V299">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="W299">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X299">
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AA299">
-        <v>1.11</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AC299">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27171,7 +27171,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>3785645</v>
+        <v>3785647</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27183,76 +27183,76 @@
         <v>44465.41666666666</v>
       </c>
       <c r="F300" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G300" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H300">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K300">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L300">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M300">
         <v>2.625</v>
       </c>
       <c r="N300">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="O300">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P300">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="Q300">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R300">
-        <v>2.01</v>
+        <v>1.79</v>
       </c>
       <c r="S300">
-        <v>1.89</v>
+        <v>2.11</v>
       </c>
       <c r="T300">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U300">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="V300">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="W300">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X300">
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z300">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>1.11</v>
       </c>
       <c r="AB300">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC300">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -38207,7 +38207,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>3785778</v>
+        <v>3785775</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38219,76 +38219,76 @@
         <v>44551.69791666666</v>
       </c>
       <c r="F424" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G424" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424">
         <v>0</v>
       </c>
       <c r="J424" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K424">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="L424">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M424">
-        <v>11</v>
+        <v>1.444</v>
       </c>
       <c r="N424">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="O424">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P424">
-        <v>15</v>
+        <v>1.45</v>
       </c>
       <c r="Q424">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="R424">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="S424">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="T424">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U424">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="V424">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="W424">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X424">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y424">
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>0.475</v>
+        <v>1.04</v>
       </c>
       <c r="AA424">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB424">
         <v>-1</v>
       </c>
       <c r="AC424">
-        <v>1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38296,7 +38296,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>3785775</v>
+        <v>3785778</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38308,76 +38308,76 @@
         <v>44551.69791666666</v>
       </c>
       <c r="F425" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G425" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425">
         <v>0</v>
       </c>
       <c r="J425" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K425">
+        <v>1.2</v>
+      </c>
+      <c r="L425">
+        <v>7</v>
+      </c>
+      <c r="M425">
+        <v>11</v>
+      </c>
+      <c r="N425">
+        <v>1.2</v>
+      </c>
+      <c r="O425">
         <v>6.5</v>
       </c>
-      <c r="L425">
-        <v>4.5</v>
-      </c>
-      <c r="M425">
-        <v>1.444</v>
-      </c>
-      <c r="N425">
-        <v>6.5</v>
-      </c>
-      <c r="O425">
-        <v>4.75</v>
-      </c>
       <c r="P425">
-        <v>1.45</v>
+        <v>15</v>
       </c>
       <c r="Q425">
+        <v>-1.75</v>
+      </c>
+      <c r="R425">
+        <v>1.95</v>
+      </c>
+      <c r="S425">
+        <v>1.95</v>
+      </c>
+      <c r="T425">
+        <v>2.75</v>
+      </c>
+      <c r="U425">
+        <v>1.9</v>
+      </c>
+      <c r="V425">
+        <v>2</v>
+      </c>
+      <c r="W425">
+        <v>0.2</v>
+      </c>
+      <c r="X425">
+        <v>-1</v>
+      </c>
+      <c r="Y425">
+        <v>-1</v>
+      </c>
+      <c r="Z425">
+        <v>0.475</v>
+      </c>
+      <c r="AA425">
+        <v>-0.5</v>
+      </c>
+      <c r="AB425">
+        <v>-1</v>
+      </c>
+      <c r="AC425">
         <v>1</v>
-      </c>
-      <c r="R425">
-        <v>2.04</v>
-      </c>
-      <c r="S425">
-        <v>1.86</v>
-      </c>
-      <c r="T425">
-        <v>3</v>
-      </c>
-      <c r="U425">
-        <v>2.04</v>
-      </c>
-      <c r="V425">
-        <v>1.86</v>
-      </c>
-      <c r="W425">
-        <v>-1</v>
-      </c>
-      <c r="X425">
-        <v>3.75</v>
-      </c>
-      <c r="Y425">
-        <v>-1</v>
-      </c>
-      <c r="Z425">
-        <v>1.04</v>
-      </c>
-      <c r="AA425">
-        <v>-1</v>
-      </c>
-      <c r="AB425">
-        <v>-1</v>
-      </c>
-      <c r="AC425">
-        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38563,7 +38563,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>3785777</v>
+        <v>3785780</v>
       </c>
       <c r="C428" t="s">
         <v>28</v>
@@ -38575,61 +38575,61 @@
         <v>44552.60416666666</v>
       </c>
       <c r="F428" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G428" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H428">
         <v>1</v>
       </c>
       <c r="I428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J428" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K428">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="L428">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M428">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="N428">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="O428">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P428">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q428">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R428">
-        <v>2.03</v>
+        <v>1.82</v>
       </c>
       <c r="S428">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="T428">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U428">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="V428">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="W428">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X428">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y428">
         <v>-1</v>
@@ -38638,13 +38638,13 @@
         <v>-1</v>
       </c>
       <c r="AA428">
-        <v>0.8700000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AB428">
         <v>-1</v>
       </c>
       <c r="AC428">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="429" spans="1:29">
@@ -38652,7 +38652,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>3785780</v>
+        <v>3785776</v>
       </c>
       <c r="C429" t="s">
         <v>28</v>
@@ -38664,10 +38664,10 @@
         <v>44552.60416666666</v>
       </c>
       <c r="F429" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G429" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H429">
         <v>1</v>
@@ -38679,61 +38679,61 @@
         <v>58</v>
       </c>
       <c r="K429">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L429">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M429">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="N429">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O429">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P429">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="Q429">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R429">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S429">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="T429">
         <v>2.75</v>
       </c>
       <c r="U429">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="V429">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="W429">
         <v>-1</v>
       </c>
       <c r="X429">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y429">
         <v>-1</v>
       </c>
       <c r="Z429">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA429">
-        <v>1.08</v>
+        <v>-0.5</v>
       </c>
       <c r="AB429">
         <v>-1</v>
       </c>
       <c r="AC429">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="430" spans="1:29">
@@ -38741,7 +38741,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>3785776</v>
+        <v>3785777</v>
       </c>
       <c r="C430" t="s">
         <v>28</v>
@@ -38753,76 +38753,76 @@
         <v>44552.60416666666</v>
       </c>
       <c r="F430" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G430" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H430">
         <v>1</v>
       </c>
       <c r="I430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J430" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K430">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="L430">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M430">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N430">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="O430">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P430">
-        <v>2.375</v>
+        <v>10</v>
       </c>
       <c r="Q430">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R430">
-        <v>1.75</v>
+        <v>2.03</v>
       </c>
       <c r="S430">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="T430">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U430">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V430">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="W430">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X430">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y430">
         <v>-1</v>
       </c>
       <c r="Z430">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA430">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB430">
         <v>-1</v>
       </c>
       <c r="AC430">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="431" spans="1:29">
@@ -38830,7 +38830,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>3785779</v>
+        <v>3785774</v>
       </c>
       <c r="C431" t="s">
         <v>28</v>
@@ -38842,55 +38842,55 @@
         <v>44552.69791666666</v>
       </c>
       <c r="F431" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G431" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J431" t="s">
         <v>57</v>
       </c>
       <c r="K431">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="L431">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M431">
-        <v>10</v>
+        <v>1.727</v>
       </c>
       <c r="N431">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="O431">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P431">
-        <v>11</v>
+        <v>1.833</v>
       </c>
       <c r="Q431">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R431">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S431">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T431">
         <v>3</v>
       </c>
       <c r="U431">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="V431">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="W431">
         <v>-1</v>
@@ -38899,19 +38899,19 @@
         <v>-1</v>
       </c>
       <c r="Y431">
-        <v>10</v>
+        <v>0.833</v>
       </c>
       <c r="Z431">
         <v>-1</v>
       </c>
       <c r="AA431">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB431">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC431">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432" spans="1:29">
@@ -38919,7 +38919,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>3785774</v>
+        <v>3785779</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -38931,55 +38931,55 @@
         <v>44552.69791666666</v>
       </c>
       <c r="F432" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G432" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J432" t="s">
         <v>57</v>
       </c>
       <c r="K432">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="L432">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M432">
-        <v>1.727</v>
+        <v>10</v>
       </c>
       <c r="N432">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="O432">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P432">
-        <v>1.833</v>
+        <v>11</v>
       </c>
       <c r="Q432">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R432">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S432">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T432">
         <v>3</v>
       </c>
       <c r="U432">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="V432">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="W432">
         <v>-1</v>
@@ -38988,19 +38988,19 @@
         <v>-1</v>
       </c>
       <c r="Y432">
-        <v>0.833</v>
+        <v>10</v>
       </c>
       <c r="Z432">
         <v>-1</v>
       </c>
       <c r="AA432">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AB432">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC432">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="433" spans="1:29">
@@ -46217,7 +46217,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>3785873</v>
+        <v>3785866</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -46229,76 +46229,76 @@
         <v>44626.45833333334</v>
       </c>
       <c r="F514" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G514" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H514">
         <v>1</v>
       </c>
       <c r="I514">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J514" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K514">
+        <v>1.833</v>
+      </c>
+      <c r="L514">
         <v>3.5</v>
       </c>
-      <c r="L514">
-        <v>3.2</v>
-      </c>
       <c r="M514">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N514">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O514">
+        <v>3.5</v>
+      </c>
+      <c r="P514">
         <v>3.8</v>
       </c>
-      <c r="P514">
-        <v>2.05</v>
-      </c>
       <c r="Q514">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R514">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="S514">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="T514">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U514">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V514">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="W514">
         <v>-1</v>
       </c>
       <c r="X514">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y514">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z514">
         <v>-1</v>
       </c>
       <c r="AA514">
-        <v>1.07</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB514">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC514">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="515" spans="1:29">
@@ -46306,7 +46306,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>3785866</v>
+        <v>3785873</v>
       </c>
       <c r="C515" t="s">
         <v>28</v>
@@ -46318,76 +46318,76 @@
         <v>44626.45833333334</v>
       </c>
       <c r="F515" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G515" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H515">
         <v>1</v>
       </c>
       <c r="I515">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J515" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K515">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="L515">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M515">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N515">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O515">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P515">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q515">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R515">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="S515">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="T515">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U515">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V515">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="W515">
         <v>-1</v>
       </c>
       <c r="X515">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y515">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z515">
         <v>-1</v>
       </c>
       <c r="AA515">
-        <v>0.8899999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AB515">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC515">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="516" spans="1:29">
@@ -56363,7 +56363,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>5207125</v>
+        <v>5207128</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56375,58 +56375,58 @@
         <v>44787.5625</v>
       </c>
       <c r="F628" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G628" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H628">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I628">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J628" t="s">
         <v>56</v>
       </c>
       <c r="K628">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="L628">
+        <v>4</v>
+      </c>
+      <c r="M628">
         <v>5</v>
       </c>
-      <c r="M628">
-        <v>7.5</v>
-      </c>
       <c r="N628">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O628">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P628">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q628">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R628">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="S628">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="T628">
         <v>2.75</v>
       </c>
       <c r="U628">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="V628">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="W628">
-        <v>0.6000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X628">
         <v>-1</v>
@@ -56435,16 +56435,16 @@
         <v>-1</v>
       </c>
       <c r="Z628">
-        <v>0</v>
+        <v>0.455</v>
       </c>
       <c r="AA628">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB628">
-        <v>1.03</v>
+        <v>0.415</v>
       </c>
       <c r="AC628">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -56452,7 +56452,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>5207128</v>
+        <v>5207125</v>
       </c>
       <c r="C629" t="s">
         <v>28</v>
@@ -56464,58 +56464,58 @@
         <v>44787.5625</v>
       </c>
       <c r="F629" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G629" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H629">
+        <v>3</v>
+      </c>
+      <c r="I629">
         <v>2</v>
-      </c>
-      <c r="I629">
-        <v>1</v>
       </c>
       <c r="J629" t="s">
         <v>56</v>
       </c>
       <c r="K629">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="L629">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M629">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N629">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O629">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P629">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q629">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R629">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="S629">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="T629">
         <v>2.75</v>
       </c>
       <c r="U629">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="V629">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="W629">
-        <v>0.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X629">
         <v>-1</v>
@@ -56524,16 +56524,16 @@
         <v>-1</v>
       </c>
       <c r="Z629">
-        <v>0.455</v>
+        <v>0</v>
       </c>
       <c r="AA629">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB629">
-        <v>0.415</v>
+        <v>1.03</v>
       </c>
       <c r="AC629">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="630" spans="1:29">
@@ -58944,7 +58944,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>5208169</v>
+        <v>5208164</v>
       </c>
       <c r="C657" t="s">
         <v>28</v>
@@ -58956,76 +58956,76 @@
         <v>44804.5625</v>
       </c>
       <c r="F657" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G657" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H657">
         <v>1</v>
       </c>
       <c r="I657">
+        <v>1</v>
+      </c>
+      <c r="J657" t="s">
+        <v>58</v>
+      </c>
+      <c r="K657">
+        <v>2.7</v>
+      </c>
+      <c r="L657">
+        <v>3.3</v>
+      </c>
+      <c r="M657">
+        <v>2.6</v>
+      </c>
+      <c r="N657">
+        <v>2.7</v>
+      </c>
+      <c r="O657">
+        <v>3.3</v>
+      </c>
+      <c r="P657">
+        <v>2.6</v>
+      </c>
+      <c r="Q657">
         <v>0</v>
       </c>
-      <c r="J657" t="s">
-        <v>56</v>
-      </c>
-      <c r="K657">
-        <v>3.1</v>
-      </c>
-      <c r="L657">
-        <v>3.5</v>
-      </c>
-      <c r="M657">
-        <v>2.25</v>
-      </c>
-      <c r="N657">
+      <c r="R657">
+        <v>1.97</v>
+      </c>
+      <c r="S657">
+        <v>1.93</v>
+      </c>
+      <c r="T657">
+        <v>2.5</v>
+      </c>
+      <c r="U657">
+        <v>2</v>
+      </c>
+      <c r="V657">
+        <v>1.9</v>
+      </c>
+      <c r="W657">
+        <v>-1</v>
+      </c>
+      <c r="X657">
         <v>2.3</v>
       </c>
-      <c r="O657">
-        <v>3.4</v>
-      </c>
-      <c r="P657">
-        <v>3</v>
-      </c>
-      <c r="Q657">
-        <v>-0.25</v>
-      </c>
-      <c r="R657">
-        <v>2.01</v>
-      </c>
-      <c r="S657">
-        <v>1.89</v>
-      </c>
-      <c r="T657">
-        <v>2.75</v>
-      </c>
-      <c r="U657">
-        <v>2.03</v>
-      </c>
-      <c r="V657">
-        <v>1.87</v>
-      </c>
-      <c r="W657">
-        <v>1.3</v>
-      </c>
-      <c r="X657">
-        <v>-1</v>
-      </c>
       <c r="Y657">
         <v>-1</v>
       </c>
       <c r="Z657">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AA657">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB657">
         <v>-1</v>
       </c>
       <c r="AC657">
-        <v>0.8700000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="658" spans="1:29">
@@ -59122,7 +59122,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>5208164</v>
+        <v>5208169</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59134,76 +59134,76 @@
         <v>44804.5625</v>
       </c>
       <c r="F659" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G659" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H659">
         <v>1</v>
       </c>
       <c r="I659">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J659" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K659">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="L659">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M659">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N659">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O659">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P659">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q659">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R659">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="S659">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="T659">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U659">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="V659">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W659">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X659">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y659">
         <v>-1</v>
       </c>
       <c r="Z659">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA659">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB659">
         <v>-1</v>
       </c>
       <c r="AC659">
-        <v>0.8999999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="660" spans="1:29">
@@ -59389,7 +59389,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>5208163</v>
+        <v>5208162</v>
       </c>
       <c r="C662" t="s">
         <v>28</v>
@@ -59401,76 +59401,76 @@
         <v>44805.65625</v>
       </c>
       <c r="F662" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G662" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I662">
         <v>1</v>
       </c>
       <c r="J662" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K662">
+        <v>1.571</v>
+      </c>
+      <c r="L662">
+        <v>4</v>
+      </c>
+      <c r="M662">
+        <v>5.75</v>
+      </c>
+      <c r="N662">
         <v>1.85</v>
       </c>
-      <c r="L662">
-        <v>3.5</v>
-      </c>
-      <c r="M662">
+      <c r="O662">
+        <v>3.6</v>
+      </c>
+      <c r="P662">
         <v>4.2</v>
       </c>
-      <c r="N662">
-        <v>2.15</v>
-      </c>
-      <c r="O662">
-        <v>3.25</v>
-      </c>
-      <c r="P662">
-        <v>3.5</v>
-      </c>
       <c r="Q662">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R662">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S662">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="T662">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U662">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V662">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W662">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X662">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y662">
         <v>-1</v>
       </c>
       <c r="Z662">
-        <v>-0.5</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA662">
-        <v>0.54</v>
+        <v>-1</v>
       </c>
       <c r="AB662">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC662">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="663" spans="1:29">
@@ -59478,7 +59478,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5208162</v>
+        <v>5208163</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59490,76 +59490,76 @@
         <v>44805.65625</v>
       </c>
       <c r="F663" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G663" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H663">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I663">
         <v>1</v>
       </c>
       <c r="J663" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K663">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L663">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M663">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="N663">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O663">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P663">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q663">
+        <v>-0.25</v>
+      </c>
+      <c r="R663">
+        <v>1.82</v>
+      </c>
+      <c r="S663">
+        <v>2.08</v>
+      </c>
+      <c r="T663">
+        <v>2.5</v>
+      </c>
+      <c r="U663">
+        <v>1.95</v>
+      </c>
+      <c r="V663">
+        <v>1.95</v>
+      </c>
+      <c r="W663">
+        <v>-1</v>
+      </c>
+      <c r="X663">
+        <v>2.25</v>
+      </c>
+      <c r="Y663">
+        <v>-1</v>
+      </c>
+      <c r="Z663">
         <v>-0.5</v>
       </c>
-      <c r="R663">
-        <v>1.88</v>
-      </c>
-      <c r="S663">
-        <v>2.02</v>
-      </c>
-      <c r="T663">
-        <v>2.75</v>
-      </c>
-      <c r="U663">
-        <v>2.02</v>
-      </c>
-      <c r="V663">
-        <v>1.88</v>
-      </c>
-      <c r="W663">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X663">
-        <v>-1</v>
-      </c>
-      <c r="Y663">
-        <v>-1</v>
-      </c>
-      <c r="Z663">
-        <v>0.8799999999999999</v>
-      </c>
       <c r="AA663">
-        <v>-1</v>
+        <v>0.54</v>
       </c>
       <c r="AB663">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AC663">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -60190,7 +60190,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>5209955</v>
+        <v>5208178</v>
       </c>
       <c r="C671" t="s">
         <v>28</v>
@@ -60202,76 +60202,76 @@
         <v>44809.5625</v>
       </c>
       <c r="F671" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G671" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671">
         <v>2</v>
       </c>
       <c r="J671" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K671">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="L671">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M671">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N671">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O671">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P671">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q671">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R671">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S671">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="T671">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U671">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V671">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="W671">
         <v>-1</v>
       </c>
       <c r="X671">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y671">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z671">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA671">
-        <v>0.8799999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="AB671">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC671">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="672" spans="1:29">
@@ -60279,7 +60279,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>5208178</v>
+        <v>5209955</v>
       </c>
       <c r="C672" t="s">
         <v>28</v>
@@ -60291,76 +60291,76 @@
         <v>44809.5625</v>
       </c>
       <c r="F672" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G672" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672">
         <v>2</v>
       </c>
       <c r="J672" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K672">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="L672">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M672">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N672">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O672">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P672">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q672">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R672">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S672">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="T672">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U672">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V672">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="W672">
         <v>-1</v>
       </c>
       <c r="X672">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y672">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z672">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA672">
-        <v>0.43</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB672">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC672">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="673" spans="1:29">
@@ -69357,7 +69357,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>5208267</v>
+        <v>5208268</v>
       </c>
       <c r="C774" t="s">
         <v>28</v>
@@ -69369,10 +69369,10 @@
         <v>44930.35416666666</v>
       </c>
       <c r="F774" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G774" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H774">
         <v>1</v>
@@ -69384,40 +69384,40 @@
         <v>57</v>
       </c>
       <c r="K774">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="L774">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="M774">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="N774">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="O774">
+        <v>3.8</v>
+      </c>
+      <c r="P774">
         <v>5</v>
       </c>
-      <c r="P774">
-        <v>1.363</v>
-      </c>
       <c r="Q774">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R774">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S774">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="T774">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U774">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V774">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W774">
         <v>-1</v>
@@ -69426,19 +69426,19 @@
         <v>-1</v>
       </c>
       <c r="Y774">
-        <v>0.363</v>
+        <v>4</v>
       </c>
       <c r="Z774">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA774">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB774">
-        <v>0.42</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC774">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="775" spans="1:29">
@@ -69446,7 +69446,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>5208268</v>
+        <v>5208267</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69458,10 +69458,10 @@
         <v>44930.35416666666</v>
       </c>
       <c r="F775" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G775" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H775">
         <v>1</v>
@@ -69473,40 +69473,40 @@
         <v>57</v>
       </c>
       <c r="K775">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="L775">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="M775">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N775">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="O775">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P775">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="Q775">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R775">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S775">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="T775">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U775">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="V775">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="W775">
         <v>-1</v>
@@ -69515,19 +69515,19 @@
         <v>-1</v>
       </c>
       <c r="Y775">
-        <v>4</v>
+        <v>0.363</v>
       </c>
       <c r="Z775">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA775">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB775">
-        <v>0.9099999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="AC775">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="776" spans="1:29">
@@ -69713,7 +69713,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>5208266</v>
+        <v>5208265</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69725,58 +69725,58 @@
         <v>44930.52083333334</v>
       </c>
       <c r="F778" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G778" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H778">
+        <v>2</v>
+      </c>
+      <c r="I778">
         <v>1</v>
-      </c>
-      <c r="I778">
-        <v>0</v>
       </c>
       <c r="J778" t="s">
         <v>56</v>
       </c>
       <c r="K778">
-        <v>1.55</v>
+        <v>4.1</v>
       </c>
       <c r="L778">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M778">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="N778">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="O778">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P778">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q778">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R778">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="S778">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="T778">
         <v>2.25</v>
       </c>
       <c r="U778">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V778">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W778">
-        <v>0.6659999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="X778">
         <v>-1</v>
@@ -69785,16 +69785,16 @@
         <v>-1</v>
       </c>
       <c r="Z778">
-        <v>0.485</v>
+        <v>1.08</v>
       </c>
       <c r="AA778">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB778">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC778">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -69802,7 +69802,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>5208265</v>
+        <v>5208266</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69814,58 +69814,58 @@
         <v>44930.52083333334</v>
       </c>
       <c r="F779" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G779" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I779">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J779" t="s">
         <v>56</v>
       </c>
       <c r="K779">
-        <v>4.1</v>
+        <v>1.55</v>
       </c>
       <c r="L779">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M779">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="N779">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="O779">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P779">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q779">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R779">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="S779">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="T779">
         <v>2.25</v>
       </c>
       <c r="U779">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V779">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W779">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X779">
         <v>-1</v>
@@ -69874,16 +69874,16 @@
         <v>-1</v>
       </c>
       <c r="Z779">
-        <v>1.08</v>
+        <v>0.485</v>
       </c>
       <c r="AA779">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB779">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC779">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="780" spans="1:29">
@@ -70069,7 +70069,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>5208264</v>
+        <v>5208271</v>
       </c>
       <c r="C782" t="s">
         <v>28</v>
@@ -70081,76 +70081,76 @@
         <v>44930.69791666666</v>
       </c>
       <c r="F782" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G782" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H782">
         <v>1</v>
       </c>
       <c r="I782">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J782" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K782">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L782">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M782">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="N782">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O782">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P782">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q782">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R782">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="S782">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T782">
         <v>2.75</v>
       </c>
       <c r="U782">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V782">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W782">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X782">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y782">
         <v>-1</v>
       </c>
       <c r="Z782">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA782">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB782">
         <v>-1</v>
       </c>
       <c r="AC782">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="783" spans="1:29">
@@ -70158,7 +70158,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>5208271</v>
+        <v>5208264</v>
       </c>
       <c r="C783" t="s">
         <v>28</v>
@@ -70170,76 +70170,76 @@
         <v>44930.69791666666</v>
       </c>
       <c r="F783" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G783" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H783">
         <v>1</v>
       </c>
       <c r="I783">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J783" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K783">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L783">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M783">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="N783">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O783">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P783">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q783">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R783">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="S783">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T783">
         <v>2.75</v>
       </c>
       <c r="U783">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V783">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W783">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X783">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y783">
         <v>-1</v>
       </c>
       <c r="Z783">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA783">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB783">
         <v>-1</v>
       </c>
       <c r="AC783">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="784" spans="1:29">
@@ -71582,7 +71582,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>5208288</v>
+        <v>5208289</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71594,55 +71594,55 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F799" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G799" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I799">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J799" t="s">
         <v>57</v>
       </c>
       <c r="K799">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L799">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M799">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N799">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O799">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P799">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q799">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R799">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S799">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T799">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U799">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="V799">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="W799">
         <v>-1</v>
@@ -71651,19 +71651,19 @@
         <v>-1</v>
       </c>
       <c r="Y799">
-        <v>4</v>
+        <v>3.333</v>
       </c>
       <c r="Z799">
         <v>-1</v>
       </c>
       <c r="AA799">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="AB799">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC799">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -71671,7 +71671,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>5208289</v>
+        <v>5208288</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -71683,56 +71683,56 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F800" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G800" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H800">
+        <v>0</v>
+      </c>
+      <c r="I800">
         <v>1</v>
-      </c>
-      <c r="I800">
-        <v>2</v>
       </c>
       <c r="J800" t="s">
         <v>57</v>
       </c>
       <c r="K800">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L800">
+        <v>3.8</v>
+      </c>
+      <c r="M800">
+        <v>4.75</v>
+      </c>
+      <c r="N800">
+        <v>1.7</v>
+      </c>
+      <c r="O800">
         <v>3.5</v>
       </c>
-      <c r="M800">
-        <v>4.2</v>
-      </c>
-      <c r="N800">
-        <v>1.85</v>
-      </c>
-      <c r="O800">
-        <v>3.3</v>
-      </c>
       <c r="P800">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q800">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R800">
+        <v>1.95</v>
+      </c>
+      <c r="S800">
+        <v>1.95</v>
+      </c>
+      <c r="T800">
+        <v>2.25</v>
+      </c>
+      <c r="U800">
         <v>1.93</v>
       </c>
-      <c r="S800">
+      <c r="V800">
         <v>1.97</v>
       </c>
-      <c r="T800">
-        <v>2.5</v>
-      </c>
-      <c r="U800">
-        <v>2.06</v>
-      </c>
-      <c r="V800">
-        <v>1.84</v>
-      </c>
       <c r="W800">
         <v>-1</v>
       </c>
@@ -71740,19 +71740,19 @@
         <v>-1</v>
       </c>
       <c r="Y800">
-        <v>3.333</v>
+        <v>4</v>
       </c>
       <c r="Z800">
         <v>-1</v>
       </c>
       <c r="AA800">
+        <v>0.95</v>
+      </c>
+      <c r="AB800">
+        <v>-1</v>
+      </c>
+      <c r="AC800">
         <v>0.97</v>
-      </c>
-      <c r="AB800">
-        <v>1.06</v>
-      </c>
-      <c r="AC800">
-        <v>-1</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -80393,7 +80393,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>5208373</v>
+        <v>5209911</v>
       </c>
       <c r="C898" t="s">
         <v>28</v>
@@ -80405,40 +80405,40 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F898" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G898" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I898">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J898" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K898">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L898">
         <v>3.3</v>
       </c>
       <c r="M898">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N898">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O898">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P898">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q898">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R898">
         <v>2.05</v>
@@ -80450,31 +80450,31 @@
         <v>2.25</v>
       </c>
       <c r="U898">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="V898">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="W898">
         <v>-1</v>
       </c>
       <c r="X898">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y898">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z898">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA898">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB898">
         <v>-0.5</v>
       </c>
       <c r="AC898">
-        <v>0.4399999999999999</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="899" spans="1:29">
@@ -80482,7 +80482,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>5209911</v>
+        <v>5208373</v>
       </c>
       <c r="C899" t="s">
         <v>28</v>
@@ -80494,40 +80494,40 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F899" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G899" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I899">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J899" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K899">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L899">
         <v>3.3</v>
       </c>
       <c r="M899">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N899">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="O899">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P899">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q899">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R899">
         <v>2.05</v>
@@ -80539,31 +80539,31 @@
         <v>2.25</v>
       </c>
       <c r="U899">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="V899">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="W899">
         <v>-1</v>
       </c>
       <c r="X899">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y899">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z899">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA899">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB899">
         <v>-0.5</v>
       </c>
       <c r="AC899">
-        <v>0.415</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="900" spans="1:29">
@@ -84042,7 +84042,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>5499235</v>
+        <v>5499736</v>
       </c>
       <c r="C939" t="s">
         <v>28</v>
@@ -84054,76 +84054,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F939" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G939" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I939">
         <v>1</v>
       </c>
       <c r="J939" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K939">
-        <v>1.75</v>
+        <v>1.222</v>
       </c>
       <c r="L939">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M939">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="N939">
-        <v>2.1</v>
+        <v>1.181</v>
       </c>
       <c r="O939">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P939">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="Q939">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R939">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S939">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="T939">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U939">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V939">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W939">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X939">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y939">
         <v>-1</v>
       </c>
       <c r="Z939">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA939">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB939">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC939">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="940" spans="1:29">
@@ -84220,7 +84220,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>5499736</v>
+        <v>5499235</v>
       </c>
       <c r="C941" t="s">
         <v>28</v>
@@ -84232,76 +84232,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F941" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G941" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H941">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I941">
         <v>1</v>
       </c>
       <c r="J941" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K941">
-        <v>1.222</v>
+        <v>1.75</v>
       </c>
       <c r="L941">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M941">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="N941">
-        <v>1.181</v>
+        <v>2.1</v>
       </c>
       <c r="O941">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P941">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="Q941">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R941">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S941">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="T941">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U941">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V941">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W941">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X941">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y941">
         <v>-1</v>
       </c>
       <c r="Z941">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA941">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB941">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC941">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="942" spans="1:29">
@@ -84487,7 +84487,7 @@
         <v>942</v>
       </c>
       <c r="B944">
-        <v>5559355</v>
+        <v>5545303</v>
       </c>
       <c r="C944" t="s">
         <v>28</v>
@@ -84499,76 +84499,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F944" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G944" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H944">
+        <v>2</v>
+      </c>
+      <c r="I944">
+        <v>1</v>
+      </c>
+      <c r="J944" t="s">
+        <v>56</v>
+      </c>
+      <c r="K944">
+        <v>1.55</v>
+      </c>
+      <c r="L944">
+        <v>4</v>
+      </c>
+      <c r="M944">
+        <v>6</v>
+      </c>
+      <c r="N944">
+        <v>1.55</v>
+      </c>
+      <c r="O944">
+        <v>3.8</v>
+      </c>
+      <c r="P944">
+        <v>6.5</v>
+      </c>
+      <c r="Q944">
+        <v>-1</v>
+      </c>
+      <c r="R944">
+        <v>2.11</v>
+      </c>
+      <c r="S944">
+        <v>1.82</v>
+      </c>
+      <c r="T944">
+        <v>2</v>
+      </c>
+      <c r="U944">
+        <v>1.9</v>
+      </c>
+      <c r="V944">
+        <v>2</v>
+      </c>
+      <c r="W944">
+        <v>0.55</v>
+      </c>
+      <c r="X944">
+        <v>-1</v>
+      </c>
+      <c r="Y944">
+        <v>-1</v>
+      </c>
+      <c r="Z944">
         <v>0</v>
       </c>
-      <c r="I944">
-        <v>2</v>
-      </c>
-      <c r="J944" t="s">
-        <v>57</v>
-      </c>
-      <c r="K944">
-        <v>3.8</v>
-      </c>
-      <c r="L944">
-        <v>3.3</v>
-      </c>
-      <c r="M944">
-        <v>1.95</v>
-      </c>
-      <c r="N944">
-        <v>4.75</v>
-      </c>
-      <c r="O944">
-        <v>3.5</v>
-      </c>
-      <c r="P944">
-        <v>1.8</v>
-      </c>
-      <c r="Q944">
-        <v>0.75</v>
-      </c>
-      <c r="R944">
-        <v>1.83</v>
-      </c>
-      <c r="S944">
-        <v>2.07</v>
-      </c>
-      <c r="T944">
-        <v>2.25</v>
-      </c>
-      <c r="U944">
-        <v>2.03</v>
-      </c>
-      <c r="V944">
-        <v>1.87</v>
-      </c>
-      <c r="W944">
-        <v>-1</v>
-      </c>
-      <c r="X944">
-        <v>-1</v>
-      </c>
-      <c r="Y944">
-        <v>0.8</v>
-      </c>
-      <c r="Z944">
-        <v>-1</v>
-      </c>
       <c r="AA944">
-        <v>1.07</v>
+        <v>-0</v>
       </c>
       <c r="AB944">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC944">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="945" spans="1:29">
@@ -84576,7 +84576,7 @@
         <v>943</v>
       </c>
       <c r="B945">
-        <v>5545303</v>
+        <v>5559355</v>
       </c>
       <c r="C945" t="s">
         <v>28</v>
@@ -84588,76 +84588,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F945" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G945" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H945">
+        <v>0</v>
+      </c>
+      <c r="I945">
         <v>2</v>
       </c>
-      <c r="I945">
-        <v>1</v>
-      </c>
       <c r="J945" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K945">
-        <v>1.55</v>
+        <v>3.8</v>
       </c>
       <c r="L945">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M945">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="N945">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="O945">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P945">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q945">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R945">
-        <v>2.11</v>
+        <v>1.83</v>
       </c>
       <c r="S945">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="T945">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U945">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="V945">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W945">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X945">
         <v>-1</v>
       </c>
       <c r="Y945">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z945">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA945">
-        <v>-0</v>
+        <v>1.07</v>
       </c>
       <c r="AB945">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC945">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="946" spans="1:29">
@@ -84843,7 +84843,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>5554079</v>
+        <v>5535044</v>
       </c>
       <c r="C948" t="s">
         <v>28</v>
@@ -84855,49 +84855,49 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F948" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G948" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H948">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I948">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J948" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K948">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="L948">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M948">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N948">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O948">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P948">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q948">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R948">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="S948">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="T948">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U948">
         <v>1.85</v>
@@ -84906,25 +84906,25 @@
         <v>2.05</v>
       </c>
       <c r="W948">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X948">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y948">
         <v>-1</v>
       </c>
       <c r="Z948">
-        <v>0.8400000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA948">
         <v>-1</v>
       </c>
       <c r="AB948">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC948">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="949" spans="1:29">
@@ -84932,7 +84932,7 @@
         <v>947</v>
       </c>
       <c r="B949">
-        <v>5535044</v>
+        <v>5545302</v>
       </c>
       <c r="C949" t="s">
         <v>28</v>
@@ -84944,76 +84944,76 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F949" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G949" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J949" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K949">
+        <v>5</v>
+      </c>
+      <c r="L949">
+        <v>3.6</v>
+      </c>
+      <c r="M949">
         <v>1.7</v>
       </c>
-      <c r="L949">
-        <v>3.75</v>
-      </c>
-      <c r="M949">
-        <v>5</v>
-      </c>
       <c r="N949">
-        <v>1.666</v>
+        <v>5.75</v>
       </c>
       <c r="O949">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P949">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="Q949">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R949">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="S949">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="T949">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U949">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V949">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W949">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X949">
         <v>-1</v>
       </c>
       <c r="Y949">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z949">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA949">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AB949">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC949">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="950" spans="1:29">
@@ -85021,7 +85021,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>5545302</v>
+        <v>5554079</v>
       </c>
       <c r="C950" t="s">
         <v>28</v>
@@ -85033,76 +85033,76 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F950" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G950" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H950">
+        <v>1</v>
+      </c>
+      <c r="I950">
+        <v>1</v>
+      </c>
+      <c r="J950" t="s">
+        <v>58</v>
+      </c>
+      <c r="K950">
+        <v>3.8</v>
+      </c>
+      <c r="L950">
+        <v>3.2</v>
+      </c>
+      <c r="M950">
+        <v>2.05</v>
+      </c>
+      <c r="N950">
+        <v>4</v>
+      </c>
+      <c r="O950">
+        <v>3.2</v>
+      </c>
+      <c r="P950">
+        <v>2.05</v>
+      </c>
+      <c r="Q950">
+        <v>0.5</v>
+      </c>
+      <c r="R950">
+        <v>1.84</v>
+      </c>
+      <c r="S950">
+        <v>2.06</v>
+      </c>
+      <c r="T950">
+        <v>2</v>
+      </c>
+      <c r="U950">
+        <v>1.85</v>
+      </c>
+      <c r="V950">
+        <v>2.05</v>
+      </c>
+      <c r="W950">
+        <v>-1</v>
+      </c>
+      <c r="X950">
+        <v>2.2</v>
+      </c>
+      <c r="Y950">
+        <v>-1</v>
+      </c>
+      <c r="Z950">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AA950">
+        <v>-1</v>
+      </c>
+      <c r="AB950">
         <v>0</v>
       </c>
-      <c r="I950">
-        <v>6</v>
-      </c>
-      <c r="J950" t="s">
-        <v>57</v>
-      </c>
-      <c r="K950">
-        <v>5</v>
-      </c>
-      <c r="L950">
-        <v>3.6</v>
-      </c>
-      <c r="M950">
-        <v>1.7</v>
-      </c>
-      <c r="N950">
-        <v>5.75</v>
-      </c>
-      <c r="O950">
-        <v>4</v>
-      </c>
-      <c r="P950">
-        <v>1.6</v>
-      </c>
-      <c r="Q950">
-        <v>1</v>
-      </c>
-      <c r="R950">
-        <v>1.81</v>
-      </c>
-      <c r="S950">
-        <v>2.09</v>
-      </c>
-      <c r="T950">
-        <v>2.5</v>
-      </c>
-      <c r="U950">
-        <v>1.92</v>
-      </c>
-      <c r="V950">
-        <v>1.98</v>
-      </c>
-      <c r="W950">
-        <v>-1</v>
-      </c>
-      <c r="X950">
-        <v>-1</v>
-      </c>
-      <c r="Y950">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="Z950">
-        <v>-1</v>
-      </c>
-      <c r="AA950">
-        <v>1.09</v>
-      </c>
-      <c r="AB950">
-        <v>0.9199999999999999</v>
-      </c>
       <c r="AC950">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="951" spans="1:29">
@@ -85199,7 +85199,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>5559356</v>
+        <v>5545301</v>
       </c>
       <c r="C952" t="s">
         <v>28</v>
@@ -85211,76 +85211,76 @@
         <v>45050.65625</v>
       </c>
       <c r="F952" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G952" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H952">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I952">
         <v>1</v>
       </c>
       <c r="J952" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K952">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="L952">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M952">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N952">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="O952">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P952">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q952">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R952">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="S952">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="T952">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U952">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V952">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W952">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X952">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y952">
         <v>-1</v>
       </c>
       <c r="Z952">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="AA952">
         <v>-1</v>
       </c>
       <c r="AB952">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC952">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="953" spans="1:29">
@@ -85288,7 +85288,7 @@
         <v>951</v>
       </c>
       <c r="B953">
-        <v>5545301</v>
+        <v>5559356</v>
       </c>
       <c r="C953" t="s">
         <v>28</v>
@@ -85300,76 +85300,76 @@
         <v>45050.65625</v>
       </c>
       <c r="F953" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G953" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H953">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I953">
         <v>1</v>
       </c>
       <c r="J953" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K953">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="L953">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M953">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N953">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="O953">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P953">
+        <v>1.6</v>
+      </c>
+      <c r="Q953">
+        <v>0.75</v>
+      </c>
+      <c r="R953">
+        <v>2.09</v>
+      </c>
+      <c r="S953">
+        <v>1.81</v>
+      </c>
+      <c r="T953">
+        <v>2.5</v>
+      </c>
+      <c r="U953">
+        <v>1.95</v>
+      </c>
+      <c r="V953">
+        <v>1.95</v>
+      </c>
+      <c r="W953">
+        <v>-1</v>
+      </c>
+      <c r="X953">
         <v>2.8</v>
       </c>
-      <c r="Q953">
-        <v>0</v>
-      </c>
-      <c r="R953">
-        <v>1.95</v>
-      </c>
-      <c r="S953">
-        <v>1.95</v>
-      </c>
-      <c r="T953">
-        <v>2.25</v>
-      </c>
-      <c r="U953">
-        <v>2.04</v>
-      </c>
-      <c r="V953">
-        <v>1.86</v>
-      </c>
-      <c r="W953">
-        <v>1.75</v>
-      </c>
-      <c r="X953">
-        <v>-1</v>
-      </c>
       <c r="Y953">
         <v>-1</v>
       </c>
       <c r="Z953">
+        <v>1.09</v>
+      </c>
+      <c r="AA953">
+        <v>-1</v>
+      </c>
+      <c r="AB953">
+        <v>-1</v>
+      </c>
+      <c r="AC953">
         <v>0.95</v>
-      </c>
-      <c r="AA953">
-        <v>-1</v>
-      </c>
-      <c r="AB953">
-        <v>1.04</v>
-      </c>
-      <c r="AC953">
-        <v>-1</v>
       </c>
     </row>
     <row r="954" spans="1:29">
@@ -93921,7 +93921,7 @@
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>6868621</v>
+        <v>6868612</v>
       </c>
       <c r="C1050" t="s">
         <v>28</v>
@@ -93933,76 +93933,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F1050" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G1050" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1050">
+        <v>2</v>
+      </c>
+      <c r="I1050">
         <v>0</v>
       </c>
-      <c r="I1050">
-        <v>2</v>
-      </c>
       <c r="J1050" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1050">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="L1050">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M1050">
-        <v>2.25</v>
+        <v>10</v>
       </c>
       <c r="N1050">
-        <v>3.2</v>
+        <v>1.444</v>
       </c>
       <c r="O1050">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P1050">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q1050">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R1050">
+        <v>2.01</v>
+      </c>
+      <c r="S1050">
         <v>1.89</v>
       </c>
-      <c r="S1050">
-        <v>2.01</v>
-      </c>
       <c r="T1050">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1050">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V1050">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W1050">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X1050">
         <v>-1</v>
       </c>
       <c r="Y1050">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z1050">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AA1050">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB1050">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1050">
-        <v>0.5149999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="1051" spans="1:29">
@@ -94010,7 +94010,7 @@
         <v>1049</v>
       </c>
       <c r="B1051">
-        <v>6868612</v>
+        <v>6868621</v>
       </c>
       <c r="C1051" t="s">
         <v>28</v>
@@ -94022,76 +94022,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F1051" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G1051" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1051">
+        <v>0</v>
+      </c>
+      <c r="I1051">
         <v>2</v>
       </c>
-      <c r="I1051">
-        <v>0</v>
-      </c>
       <c r="J1051" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1051">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="L1051">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M1051">
-        <v>10</v>
+        <v>2.25</v>
       </c>
       <c r="N1051">
-        <v>1.444</v>
+        <v>3.2</v>
       </c>
       <c r="O1051">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P1051">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q1051">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1051">
+        <v>1.89</v>
+      </c>
+      <c r="S1051">
         <v>2.01</v>
       </c>
-      <c r="S1051">
-        <v>1.89</v>
-      </c>
       <c r="T1051">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1051">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="V1051">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="W1051">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X1051">
         <v>-1</v>
       </c>
       <c r="Y1051">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z1051">
+        <v>-1</v>
+      </c>
+      <c r="AA1051">
         <v>1.01</v>
       </c>
-      <c r="AA1051">
-        <v>-1</v>
-      </c>
       <c r="AB1051">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1051">
-        <v>0.9299999999999999</v>
+        <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="1052" spans="1:29">
@@ -94633,7 +94633,7 @@
         <v>1056</v>
       </c>
       <c r="B1058">
-        <v>6868629</v>
+        <v>6868627</v>
       </c>
       <c r="C1058" t="s">
         <v>28</v>
@@ -94645,76 +94645,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F1058" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G1058" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H1058">
+        <v>1</v>
+      </c>
+      <c r="I1058">
         <v>2</v>
       </c>
-      <c r="I1058">
-        <v>0</v>
-      </c>
       <c r="J1058" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1058">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="L1058">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M1058">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="N1058">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="O1058">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P1058">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q1058">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R1058">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="S1058">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="T1058">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U1058">
+        <v>1.85</v>
+      </c>
+      <c r="V1058">
         <v>2.05</v>
       </c>
-      <c r="V1058">
-        <v>1.85</v>
-      </c>
       <c r="W1058">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X1058">
         <v>-1</v>
       </c>
       <c r="Y1058">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z1058">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA1058">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB1058">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1058">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1059" spans="1:29">
@@ -94722,7 +94722,7 @@
         <v>1057</v>
       </c>
       <c r="B1059">
-        <v>6868627</v>
+        <v>6868631</v>
       </c>
       <c r="C1059" t="s">
         <v>28</v>
@@ -94734,76 +94734,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F1059" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G1059" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H1059">
+        <v>4</v>
+      </c>
+      <c r="I1059">
         <v>1</v>
       </c>
-      <c r="I1059">
-        <v>2</v>
-      </c>
       <c r="J1059" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1059">
         <v>1.333</v>
       </c>
       <c r="L1059">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M1059">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="N1059">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="O1059">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="P1059">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Q1059">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R1059">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S1059">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="T1059">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U1059">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="V1059">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W1059">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X1059">
         <v>-1</v>
       </c>
       <c r="Y1059">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1059">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA1059">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB1059">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC1059">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1060" spans="1:29">
@@ -94811,7 +94811,7 @@
         <v>1058</v>
       </c>
       <c r="B1060">
-        <v>6868631</v>
+        <v>6868629</v>
       </c>
       <c r="C1060" t="s">
         <v>28</v>
@@ -94823,58 +94823,58 @@
         <v>45196.65625</v>
       </c>
       <c r="F1060" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G1060" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H1060">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I1060">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1060" t="s">
         <v>56</v>
       </c>
       <c r="K1060">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="L1060">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M1060">
-        <v>8.5</v>
+        <v>4.333</v>
       </c>
       <c r="N1060">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O1060">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P1060">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q1060">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R1060">
+        <v>1.97</v>
+      </c>
+      <c r="S1060">
         <v>1.93</v>
       </c>
-      <c r="S1060">
-        <v>1.97</v>
-      </c>
       <c r="T1060">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U1060">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="V1060">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="W1060">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X1060">
         <v>-1</v>
@@ -94883,16 +94883,16 @@
         <v>-1</v>
       </c>
       <c r="Z1060">
-        <v>0.9299999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AA1060">
         <v>-1</v>
       </c>
       <c r="AB1060">
-        <v>0.99</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1060">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="1061" spans="1:29">
@@ -101753,7 +101753,7 @@
         <v>1136</v>
       </c>
       <c r="B1138">
-        <v>6868716</v>
+        <v>6868707</v>
       </c>
       <c r="C1138" t="s">
         <v>28</v>
@@ -101765,76 +101765,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F1138" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G1138" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1138">
         <v>3</v>
       </c>
       <c r="I1138">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1138" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K1138">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L1138">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M1138">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="N1138">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O1138">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P1138">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q1138">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R1138">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S1138">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T1138">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1138">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V1138">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W1138">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X1138">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y1138">
         <v>-1</v>
       </c>
       <c r="Z1138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA1138">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB1138">
-        <v>1.04</v>
+        <v>0.51</v>
       </c>
       <c r="AC1138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1139" spans="1:29">
@@ -101842,7 +101842,7 @@
         <v>1137</v>
       </c>
       <c r="B1139">
-        <v>6868707</v>
+        <v>6868716</v>
       </c>
       <c r="C1139" t="s">
         <v>28</v>
@@ -101854,76 +101854,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F1139" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G1139" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H1139">
         <v>3</v>
       </c>
       <c r="I1139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J1139" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1139">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L1139">
+        <v>3.3</v>
+      </c>
+      <c r="M1139">
+        <v>4.25</v>
+      </c>
+      <c r="N1139">
+        <v>1.8</v>
+      </c>
+      <c r="O1139">
+        <v>3.6</v>
+      </c>
+      <c r="P1139">
         <v>4.5</v>
       </c>
-      <c r="M1139">
-        <v>6.5</v>
-      </c>
-      <c r="N1139">
-        <v>1.4</v>
-      </c>
-      <c r="O1139">
-        <v>4.75</v>
-      </c>
-      <c r="P1139">
-        <v>7.5</v>
-      </c>
       <c r="Q1139">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1139">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="S1139">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="T1139">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1139">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V1139">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W1139">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X1139">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y1139">
         <v>-1</v>
       </c>
       <c r="Z1139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA1139">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB1139">
-        <v>0.51</v>
+        <v>1.04</v>
       </c>
       <c r="AC1139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1140" spans="1:29">
@@ -103978,7 +103978,7 @@
         <v>1161</v>
       </c>
       <c r="B1163">
-        <v>6868738</v>
+        <v>6868745</v>
       </c>
       <c r="C1163" t="s">
         <v>28</v>
@@ -103990,13 +103990,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F1163" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G1163" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1163">
         <v>2</v>
@@ -104005,40 +104005,40 @@
         <v>57</v>
       </c>
       <c r="K1163">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L1163">
         <v>3.4</v>
       </c>
       <c r="M1163">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="N1163">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O1163">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P1163">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q1163">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R1163">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="S1163">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="T1163">
         <v>2.25</v>
       </c>
       <c r="U1163">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V1163">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W1163">
         <v>-1</v>
@@ -104047,19 +104047,19 @@
         <v>-1</v>
       </c>
       <c r="Y1163">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z1163">
         <v>-1</v>
       </c>
       <c r="AA1163">
-        <v>0.9199999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AB1163">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="AC1163">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1164" spans="1:29">
@@ -104067,7 +104067,7 @@
         <v>1162</v>
       </c>
       <c r="B1164">
-        <v>6868745</v>
+        <v>6868738</v>
       </c>
       <c r="C1164" t="s">
         <v>28</v>
@@ -104079,13 +104079,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F1164" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G1164" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H1164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1164">
         <v>2</v>
@@ -104094,40 +104094,40 @@
         <v>57</v>
       </c>
       <c r="K1164">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L1164">
         <v>3.4</v>
       </c>
       <c r="M1164">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="N1164">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O1164">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P1164">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q1164">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R1164">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="S1164">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="T1164">
         <v>2.25</v>
       </c>
       <c r="U1164">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V1164">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="W1164">
         <v>-1</v>
@@ -104136,19 +104136,19 @@
         <v>-1</v>
       </c>
       <c r="Y1164">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z1164">
         <v>-1</v>
       </c>
       <c r="AA1164">
-        <v>1.11</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB1164">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1164">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="1165" spans="1:29">
@@ -105046,7 +105046,7 @@
         <v>1173</v>
       </c>
       <c r="B1175">
-        <v>6868753</v>
+        <v>6868750</v>
       </c>
       <c r="C1175" t="s">
         <v>28</v>
@@ -105058,76 +105058,76 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F1175" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G1175" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H1175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1175">
         <v>1</v>
       </c>
       <c r="J1175" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1175">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="L1175">
         <v>4</v>
       </c>
       <c r="M1175">
+        <v>1.533</v>
+      </c>
+      <c r="N1175">
         <v>5.5</v>
       </c>
-      <c r="N1175">
-        <v>1.571</v>
-      </c>
       <c r="O1175">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P1175">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="Q1175">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R1175">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="S1175">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="T1175">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1175">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="V1175">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="W1175">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X1175">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y1175">
         <v>-1</v>
       </c>
       <c r="Z1175">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AA1175">
         <v>-1</v>
       </c>
       <c r="AB1175">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1175">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="1176" spans="1:29">
@@ -105135,7 +105135,7 @@
         <v>1174</v>
       </c>
       <c r="B1176">
-        <v>6868750</v>
+        <v>6868753</v>
       </c>
       <c r="C1176" t="s">
         <v>28</v>
@@ -105147,76 +105147,76 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F1176" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G1176" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="H1176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1176">
         <v>1</v>
       </c>
       <c r="J1176" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K1176">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="L1176">
         <v>4</v>
       </c>
       <c r="M1176">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N1176">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="O1176">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P1176">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="Q1176">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R1176">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="S1176">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="T1176">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1176">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V1176">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="W1176">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X1176">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y1176">
         <v>-1</v>
       </c>
       <c r="Z1176">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AA1176">
         <v>-1</v>
       </c>
       <c r="AB1176">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC1176">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1177" spans="1:29">
@@ -106648,7 +106648,7 @@
         <v>1191</v>
       </c>
       <c r="B1193">
-        <v>6868770</v>
+        <v>6868776</v>
       </c>
       <c r="C1193" t="s">
         <v>28</v>
@@ -106660,76 +106660,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F1193" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G1193" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1193" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K1193">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="L1193">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M1193">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="N1193">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O1193">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="P1193">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q1193">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R1193">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="S1193">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="T1193">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U1193">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V1193">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W1193">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X1193">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y1193">
         <v>-1</v>
       </c>
       <c r="Z1193">
-        <v>0.385</v>
+        <v>-1</v>
       </c>
       <c r="AA1193">
+        <v>0.97</v>
+      </c>
+      <c r="AB1193">
+        <v>0.46</v>
+      </c>
+      <c r="AC1193">
         <v>-0.5</v>
-      </c>
-      <c r="AB1193">
-        <v>-1</v>
-      </c>
-      <c r="AC1193">
-        <v>1.05</v>
       </c>
     </row>
     <row r="1194" spans="1:29">
@@ -106737,7 +106737,7 @@
         <v>1192</v>
       </c>
       <c r="B1194">
-        <v>6868776</v>
+        <v>6868770</v>
       </c>
       <c r="C1194" t="s">
         <v>28</v>
@@ -106749,76 +106749,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F1194" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G1194" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H1194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1194" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1194">
-        <v>1.285</v>
+        <v>2.625</v>
       </c>
       <c r="L1194">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M1194">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="N1194">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="O1194">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P1194">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q1194">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R1194">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="S1194">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="T1194">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U1194">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="V1194">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="W1194">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X1194">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y1194">
         <v>-1</v>
       </c>
       <c r="Z1194">
-        <v>-1</v>
+        <v>0.385</v>
       </c>
       <c r="AA1194">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1194">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AC1194">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1195" spans="1:29">
@@ -108517,7 +108517,7 @@
         <v>1212</v>
       </c>
       <c r="B1214">
-        <v>6868795</v>
+        <v>6868791</v>
       </c>
       <c r="C1214" t="s">
         <v>28</v>
@@ -108529,76 +108529,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F1214" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G1214" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H1214">
         <v>1</v>
       </c>
       <c r="I1214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1214" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1214">
+        <v>2.1</v>
+      </c>
+      <c r="L1214">
+        <v>3.25</v>
+      </c>
+      <c r="M1214">
+        <v>3.7</v>
+      </c>
+      <c r="N1214">
         <v>2.15</v>
-      </c>
-      <c r="L1214">
-        <v>3.4</v>
-      </c>
-      <c r="M1214">
-        <v>3.4</v>
-      </c>
-      <c r="N1214">
-        <v>2.2</v>
       </c>
       <c r="O1214">
         <v>3.3</v>
       </c>
       <c r="P1214">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q1214">
         <v>-0.25</v>
       </c>
       <c r="R1214">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S1214">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T1214">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1214">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="V1214">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W1214">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X1214">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y1214">
         <v>-1</v>
       </c>
       <c r="Z1214">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1214">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AB1214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1214">
-        <v>0.9099999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1215" spans="1:29">
@@ -108606,7 +108606,7 @@
         <v>1213</v>
       </c>
       <c r="B1215">
-        <v>6868791</v>
+        <v>6868795</v>
       </c>
       <c r="C1215" t="s">
         <v>28</v>
@@ -108618,76 +108618,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F1215" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G1215" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H1215">
         <v>1</v>
       </c>
       <c r="I1215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1215" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K1215">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L1215">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M1215">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="N1215">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O1215">
         <v>3.3</v>
       </c>
       <c r="P1215">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q1215">
         <v>-0.25</v>
       </c>
       <c r="R1215">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S1215">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="T1215">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1215">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="V1215">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W1215">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X1215">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1215">
         <v>-1</v>
       </c>
       <c r="Z1215">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA1215">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AB1215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1215">
-        <v>0.5</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="1216" spans="1:29">
@@ -108900,31 +108900,31 @@
         <v>1.7</v>
       </c>
       <c r="N1218">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O1218">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P1218">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="Q1218">
         <v>0.75</v>
       </c>
       <c r="R1218">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="S1218">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="T1218">
         <v>2.25</v>
       </c>
       <c r="U1218">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="V1218">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="W1218">
         <v>0</v>
@@ -108974,31 +108974,31 @@
         <v>2.25</v>
       </c>
       <c r="N1219">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O1219">
         <v>3.2</v>
       </c>
       <c r="P1219">
+        <v>2.05</v>
+      </c>
+      <c r="Q1219">
+        <v>0.5</v>
+      </c>
+      <c r="R1219">
+        <v>1.8</v>
+      </c>
+      <c r="S1219">
         <v>2.1</v>
-      </c>
-      <c r="Q1219">
-        <v>0.25</v>
-      </c>
-      <c r="R1219">
-        <v>2.08</v>
-      </c>
-      <c r="S1219">
-        <v>1.82</v>
       </c>
       <c r="T1219">
         <v>2.25</v>
       </c>
       <c r="U1219">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="V1219">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="W1219">
         <v>0</v>
@@ -109122,10 +109122,10 @@
         <v>3.25</v>
       </c>
       <c r="N1221">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O1221">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P1221">
         <v>3.1</v>
@@ -109134,10 +109134,10 @@
         <v>-0.25</v>
       </c>
       <c r="R1221">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="S1221">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="T1221">
         <v>2.5</v>
@@ -109208,10 +109208,10 @@
         <v>0.75</v>
       </c>
       <c r="R1222">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S1222">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T1222">
         <v>2.75</v>
@@ -109282,10 +109282,10 @@
         <v>-0.75</v>
       </c>
       <c r="R1223">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S1223">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T1223">
         <v>2.5</v>
@@ -109430,10 +109430,10 @@
         <v>-1.25</v>
       </c>
       <c r="R1225">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="S1225">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="T1225">
         <v>2.5</v>
@@ -109504,10 +109504,10 @@
         <v>-0.5</v>
       </c>
       <c r="R1226">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="S1226">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="T1226">
         <v>2.25</v>
@@ -109578,19 +109578,19 @@
         <v>-0.5</v>
       </c>
       <c r="R1227">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S1227">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T1227">
         <v>2.25</v>
       </c>
       <c r="U1227">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V1227">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W1227">
         <v>0</v>
@@ -109605,6 +109605,80 @@
         <v>0</v>
       </c>
       <c r="AA1227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:29">
+      <c r="A1228" s="1">
+        <v>1226</v>
+      </c>
+      <c r="B1228">
+        <v>6868804</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1228" s="2">
+        <v>45327.69791666666</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1228" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1228">
+        <v>1.5</v>
+      </c>
+      <c r="L1228">
+        <v>4</v>
+      </c>
+      <c r="M1228">
+        <v>7.5</v>
+      </c>
+      <c r="N1228">
+        <v>1.45</v>
+      </c>
+      <c r="O1228">
+        <v>4</v>
+      </c>
+      <c r="P1228">
+        <v>7.5</v>
+      </c>
+      <c r="Q1228">
+        <v>-1</v>
+      </c>
+      <c r="R1228">
+        <v>1.86</v>
+      </c>
+      <c r="S1228">
+        <v>2.04</v>
+      </c>
+      <c r="T1228">
+        <v>2.5</v>
+      </c>
+      <c r="U1228">
+        <v>2.06</v>
+      </c>
+      <c r="V1228">
+        <v>1.84</v>
+      </c>
+      <c r="W1228">
+        <v>0</v>
+      </c>
+      <c r="X1228">
+        <v>0</v>
+      </c>
+      <c r="Y1228">
+        <v>0</v>
+      </c>
+      <c r="Z1228">
+        <v>0</v>
+      </c>
+      <c r="AA1228">
         <v>0</v>
       </c>
     </row>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -69357,7 +69357,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>5208268</v>
+        <v>5208267</v>
       </c>
       <c r="C774" t="s">
         <v>28</v>
@@ -69369,10 +69369,10 @@
         <v>44930.35416666666</v>
       </c>
       <c r="F774" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G774" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H774">
         <v>1</v>
@@ -69384,40 +69384,40 @@
         <v>57</v>
       </c>
       <c r="K774">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="L774">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="M774">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N774">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="O774">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P774">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="Q774">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R774">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S774">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="T774">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U774">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="V774">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="W774">
         <v>-1</v>
@@ -69426,19 +69426,19 @@
         <v>-1</v>
       </c>
       <c r="Y774">
-        <v>4</v>
+        <v>0.363</v>
       </c>
       <c r="Z774">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA774">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB774">
-        <v>0.9099999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="AC774">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="775" spans="1:29">
@@ -69446,7 +69446,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>5208267</v>
+        <v>5208268</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69458,10 +69458,10 @@
         <v>44930.35416666666</v>
       </c>
       <c r="F775" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G775" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H775">
         <v>1</v>
@@ -69473,40 +69473,40 @@
         <v>57</v>
       </c>
       <c r="K775">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="L775">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="M775">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="N775">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="O775">
+        <v>3.8</v>
+      </c>
+      <c r="P775">
         <v>5</v>
       </c>
-      <c r="P775">
-        <v>1.363</v>
-      </c>
       <c r="Q775">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R775">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S775">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="T775">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U775">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V775">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W775">
         <v>-1</v>
@@ -69515,19 +69515,19 @@
         <v>-1</v>
       </c>
       <c r="Y775">
-        <v>0.363</v>
+        <v>4</v>
       </c>
       <c r="Z775">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA775">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB775">
-        <v>0.42</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC775">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="776" spans="1:29">
@@ -70069,7 +70069,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>5208271</v>
+        <v>5208264</v>
       </c>
       <c r="C782" t="s">
         <v>28</v>
@@ -70081,76 +70081,76 @@
         <v>44930.69791666666</v>
       </c>
       <c r="F782" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G782" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H782">
         <v>1</v>
       </c>
       <c r="I782">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J782" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K782">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L782">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M782">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="N782">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O782">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P782">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q782">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R782">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="S782">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T782">
         <v>2.75</v>
       </c>
       <c r="U782">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V782">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W782">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X782">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y782">
         <v>-1</v>
       </c>
       <c r="Z782">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA782">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB782">
         <v>-1</v>
       </c>
       <c r="AC782">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="783" spans="1:29">
@@ -70158,7 +70158,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>5208264</v>
+        <v>5208271</v>
       </c>
       <c r="C783" t="s">
         <v>28</v>
@@ -70170,76 +70170,76 @@
         <v>44930.69791666666</v>
       </c>
       <c r="F783" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G783" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H783">
         <v>1</v>
       </c>
       <c r="I783">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J783" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K783">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L783">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M783">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="N783">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O783">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P783">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q783">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R783">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="S783">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T783">
         <v>2.75</v>
       </c>
       <c r="U783">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V783">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W783">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X783">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y783">
         <v>-1</v>
       </c>
       <c r="Z783">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA783">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB783">
         <v>-1</v>
       </c>
       <c r="AC783">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="784" spans="1:29">
@@ -76032,7 +76032,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>5208326</v>
+        <v>5208323</v>
       </c>
       <c r="C849" t="s">
         <v>28</v>
@@ -76044,76 +76044,76 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F849" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G849" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I849">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J849" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K849">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="L849">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M849">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="N849">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O849">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P849">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="Q849">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R849">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="S849">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="T849">
         <v>2.5</v>
       </c>
       <c r="U849">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="V849">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="W849">
         <v>-1</v>
       </c>
       <c r="X849">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y849">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z849">
         <v>-1</v>
       </c>
       <c r="AA849">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
       <c r="AB849">
         <v>-1</v>
       </c>
       <c r="AC849">
-        <v>0.8400000000000001</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="850" spans="1:29">
@@ -76121,7 +76121,7 @@
         <v>848</v>
       </c>
       <c r="B850">
-        <v>5208323</v>
+        <v>5208326</v>
       </c>
       <c r="C850" t="s">
         <v>28</v>
@@ -76133,76 +76133,76 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F850" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G850" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I850">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J850" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K850">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="L850">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M850">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="N850">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O850">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P850">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q850">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R850">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="S850">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="T850">
         <v>2.5</v>
       </c>
       <c r="U850">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="V850">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="W850">
         <v>-1</v>
       </c>
       <c r="X850">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y850">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z850">
         <v>-1</v>
       </c>
       <c r="AA850">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
       <c r="AB850">
         <v>-1</v>
       </c>
       <c r="AC850">
-        <v>0.9299999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="851" spans="1:29">
@@ -80393,7 +80393,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>5209911</v>
+        <v>5208373</v>
       </c>
       <c r="C898" t="s">
         <v>28</v>
@@ -80405,40 +80405,40 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F898" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G898" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I898">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J898" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K898">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L898">
         <v>3.3</v>
       </c>
       <c r="M898">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N898">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="O898">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P898">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q898">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R898">
         <v>2.05</v>
@@ -80450,31 +80450,31 @@
         <v>2.25</v>
       </c>
       <c r="U898">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="V898">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="W898">
         <v>-1</v>
       </c>
       <c r="X898">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y898">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z898">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA898">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB898">
         <v>-0.5</v>
       </c>
       <c r="AC898">
-        <v>0.415</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="899" spans="1:29">
@@ -80482,7 +80482,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>5208373</v>
+        <v>5209911</v>
       </c>
       <c r="C899" t="s">
         <v>28</v>
@@ -80494,40 +80494,40 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F899" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G899" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I899">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J899" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K899">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L899">
         <v>3.3</v>
       </c>
       <c r="M899">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N899">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O899">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P899">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q899">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R899">
         <v>2.05</v>
@@ -80539,31 +80539,31 @@
         <v>2.25</v>
       </c>
       <c r="U899">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="V899">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="W899">
         <v>-1</v>
       </c>
       <c r="X899">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y899">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z899">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA899">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB899">
         <v>-0.5</v>
       </c>
       <c r="AC899">
-        <v>0.4399999999999999</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="900" spans="1:29">
@@ -84042,7 +84042,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>5499736</v>
+        <v>5499235</v>
       </c>
       <c r="C939" t="s">
         <v>28</v>
@@ -84054,76 +84054,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F939" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G939" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H939">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I939">
         <v>1</v>
       </c>
       <c r="J939" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K939">
-        <v>1.222</v>
+        <v>1.75</v>
       </c>
       <c r="L939">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M939">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="N939">
-        <v>1.181</v>
+        <v>2.1</v>
       </c>
       <c r="O939">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P939">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="Q939">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R939">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S939">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="T939">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U939">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V939">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W939">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X939">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y939">
         <v>-1</v>
       </c>
       <c r="Z939">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA939">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB939">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC939">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="940" spans="1:29">
@@ -84131,7 +84131,7 @@
         <v>938</v>
       </c>
       <c r="B940">
-        <v>5505897</v>
+        <v>5499736</v>
       </c>
       <c r="C940" t="s">
         <v>28</v>
@@ -84143,10 +84143,10 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F940" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G940" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H940">
         <v>1</v>
@@ -84158,61 +84158,61 @@
         <v>58</v>
       </c>
       <c r="K940">
-        <v>2.625</v>
+        <v>1.222</v>
       </c>
       <c r="L940">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M940">
-        <v>2.625</v>
+        <v>11</v>
       </c>
       <c r="N940">
-        <v>3.2</v>
+        <v>1.181</v>
       </c>
       <c r="O940">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="P940">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q940">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R940">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S940">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="T940">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U940">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V940">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W940">
         <v>-1</v>
       </c>
       <c r="X940">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Y940">
         <v>-1</v>
       </c>
       <c r="Z940">
-        <v>0.4399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA940">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB940">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC940">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="941" spans="1:29">
@@ -84220,7 +84220,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>5499235</v>
+        <v>5505897</v>
       </c>
       <c r="C941" t="s">
         <v>28</v>
@@ -84232,76 +84232,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F941" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G941" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I941">
         <v>1</v>
       </c>
       <c r="J941" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K941">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="L941">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M941">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N941">
+        <v>3.2</v>
+      </c>
+      <c r="O941">
+        <v>3.1</v>
+      </c>
+      <c r="P941">
+        <v>2.375</v>
+      </c>
+      <c r="Q941">
+        <v>0.25</v>
+      </c>
+      <c r="R941">
+        <v>1.88</v>
+      </c>
+      <c r="S941">
+        <v>2.02</v>
+      </c>
+      <c r="T941">
+        <v>2.25</v>
+      </c>
+      <c r="U941">
         <v>2.1</v>
       </c>
-      <c r="O941">
-        <v>3.5</v>
-      </c>
-      <c r="P941">
-        <v>3.4</v>
-      </c>
-      <c r="Q941">
-        <v>-0.25</v>
-      </c>
-      <c r="R941">
-        <v>1.83</v>
-      </c>
-      <c r="S941">
-        <v>2.07</v>
-      </c>
-      <c r="T941">
-        <v>2.5</v>
-      </c>
-      <c r="U941">
-        <v>1.95</v>
-      </c>
       <c r="V941">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W941">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X941">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y941">
         <v>-1</v>
       </c>
       <c r="Z941">
-        <v>0.8300000000000001</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA941">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB941">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC941">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="942" spans="1:29">
@@ -84487,7 +84487,7 @@
         <v>942</v>
       </c>
       <c r="B944">
-        <v>5545303</v>
+        <v>5559355</v>
       </c>
       <c r="C944" t="s">
         <v>28</v>
@@ -84499,76 +84499,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F944" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G944" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H944">
+        <v>0</v>
+      </c>
+      <c r="I944">
         <v>2</v>
       </c>
-      <c r="I944">
-        <v>1</v>
-      </c>
       <c r="J944" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K944">
-        <v>1.55</v>
+        <v>3.8</v>
       </c>
       <c r="L944">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M944">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="N944">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="O944">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P944">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q944">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R944">
-        <v>2.11</v>
+        <v>1.83</v>
       </c>
       <c r="S944">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="T944">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U944">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="V944">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W944">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X944">
         <v>-1</v>
       </c>
       <c r="Y944">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z944">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA944">
-        <v>-0</v>
+        <v>1.07</v>
       </c>
       <c r="AB944">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC944">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="945" spans="1:29">
@@ -84576,7 +84576,7 @@
         <v>943</v>
       </c>
       <c r="B945">
-        <v>5559355</v>
+        <v>5545303</v>
       </c>
       <c r="C945" t="s">
         <v>28</v>
@@ -84588,76 +84588,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F945" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G945" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H945">
+        <v>2</v>
+      </c>
+      <c r="I945">
+        <v>1</v>
+      </c>
+      <c r="J945" t="s">
+        <v>56</v>
+      </c>
+      <c r="K945">
+        <v>1.55</v>
+      </c>
+      <c r="L945">
+        <v>4</v>
+      </c>
+      <c r="M945">
+        <v>6</v>
+      </c>
+      <c r="N945">
+        <v>1.55</v>
+      </c>
+      <c r="O945">
+        <v>3.8</v>
+      </c>
+      <c r="P945">
+        <v>6.5</v>
+      </c>
+      <c r="Q945">
+        <v>-1</v>
+      </c>
+      <c r="R945">
+        <v>2.11</v>
+      </c>
+      <c r="S945">
+        <v>1.82</v>
+      </c>
+      <c r="T945">
+        <v>2</v>
+      </c>
+      <c r="U945">
+        <v>1.9</v>
+      </c>
+      <c r="V945">
+        <v>2</v>
+      </c>
+      <c r="W945">
+        <v>0.55</v>
+      </c>
+      <c r="X945">
+        <v>-1</v>
+      </c>
+      <c r="Y945">
+        <v>-1</v>
+      </c>
+      <c r="Z945">
         <v>0</v>
       </c>
-      <c r="I945">
-        <v>2</v>
-      </c>
-      <c r="J945" t="s">
-        <v>57</v>
-      </c>
-      <c r="K945">
-        <v>3.8</v>
-      </c>
-      <c r="L945">
-        <v>3.3</v>
-      </c>
-      <c r="M945">
-        <v>1.95</v>
-      </c>
-      <c r="N945">
-        <v>4.75</v>
-      </c>
-      <c r="O945">
-        <v>3.5</v>
-      </c>
-      <c r="P945">
-        <v>1.8</v>
-      </c>
-      <c r="Q945">
-        <v>0.75</v>
-      </c>
-      <c r="R945">
-        <v>1.83</v>
-      </c>
-      <c r="S945">
-        <v>2.07</v>
-      </c>
-      <c r="T945">
-        <v>2.25</v>
-      </c>
-      <c r="U945">
-        <v>2.03</v>
-      </c>
-      <c r="V945">
-        <v>1.87</v>
-      </c>
-      <c r="W945">
-        <v>-1</v>
-      </c>
-      <c r="X945">
-        <v>-1</v>
-      </c>
-      <c r="Y945">
-        <v>0.8</v>
-      </c>
-      <c r="Z945">
-        <v>-1</v>
-      </c>
       <c r="AA945">
-        <v>1.07</v>
+        <v>-0</v>
       </c>
       <c r="AB945">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC945">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="946" spans="1:29">
@@ -84843,7 +84843,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>5535044</v>
+        <v>5554079</v>
       </c>
       <c r="C948" t="s">
         <v>28</v>
@@ -84855,49 +84855,49 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F948" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G948" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H948">
+        <v>1</v>
+      </c>
+      <c r="I948">
+        <v>1</v>
+      </c>
+      <c r="J948" t="s">
+        <v>58</v>
+      </c>
+      <c r="K948">
+        <v>3.8</v>
+      </c>
+      <c r="L948">
+        <v>3.2</v>
+      </c>
+      <c r="M948">
+        <v>2.05</v>
+      </c>
+      <c r="N948">
+        <v>4</v>
+      </c>
+      <c r="O948">
+        <v>3.2</v>
+      </c>
+      <c r="P948">
+        <v>2.05</v>
+      </c>
+      <c r="Q948">
+        <v>0.5</v>
+      </c>
+      <c r="R948">
+        <v>1.84</v>
+      </c>
+      <c r="S948">
+        <v>2.06</v>
+      </c>
+      <c r="T948">
         <v>2</v>
-      </c>
-      <c r="I948">
-        <v>0</v>
-      </c>
-      <c r="J948" t="s">
-        <v>56</v>
-      </c>
-      <c r="K948">
-        <v>1.7</v>
-      </c>
-      <c r="L948">
-        <v>3.75</v>
-      </c>
-      <c r="M948">
-        <v>5</v>
-      </c>
-      <c r="N948">
-        <v>1.666</v>
-      </c>
-      <c r="O948">
-        <v>4.2</v>
-      </c>
-      <c r="P948">
-        <v>5</v>
-      </c>
-      <c r="Q948">
-        <v>-0.75</v>
-      </c>
-      <c r="R948">
-        <v>1.87</v>
-      </c>
-      <c r="S948">
-        <v>2.03</v>
-      </c>
-      <c r="T948">
-        <v>2.75</v>
       </c>
       <c r="U948">
         <v>1.85</v>
@@ -84906,25 +84906,25 @@
         <v>2.05</v>
       </c>
       <c r="W948">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X948">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y948">
         <v>-1</v>
       </c>
       <c r="Z948">
-        <v>0.8700000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA948">
         <v>-1</v>
       </c>
       <c r="AB948">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC948">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="949" spans="1:29">
@@ -85021,7 +85021,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>5554079</v>
+        <v>5535044</v>
       </c>
       <c r="C950" t="s">
         <v>28</v>
@@ -85033,49 +85033,49 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F950" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G950" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H950">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I950">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J950" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K950">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="L950">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M950">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N950">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O950">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P950">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q950">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R950">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="S950">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="T950">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U950">
         <v>1.85</v>
@@ -85084,25 +85084,25 @@
         <v>2.05</v>
       </c>
       <c r="W950">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X950">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y950">
         <v>-1</v>
       </c>
       <c r="Z950">
-        <v>0.8400000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA950">
         <v>-1</v>
       </c>
       <c r="AB950">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC950">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="951" spans="1:29">
@@ -108517,7 +108517,7 @@
         <v>1212</v>
       </c>
       <c r="B1214">
-        <v>6868791</v>
+        <v>6868795</v>
       </c>
       <c r="C1214" t="s">
         <v>28</v>
@@ -108529,76 +108529,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F1214" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G1214" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H1214">
         <v>1</v>
       </c>
       <c r="I1214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1214" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K1214">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L1214">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M1214">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="N1214">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O1214">
         <v>3.3</v>
       </c>
       <c r="P1214">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q1214">
         <v>-0.25</v>
       </c>
       <c r="R1214">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S1214">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="T1214">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1214">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="V1214">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W1214">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X1214">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1214">
         <v>-1</v>
       </c>
       <c r="Z1214">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA1214">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AB1214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1214">
-        <v>0.5</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="1215" spans="1:29">
@@ -108606,7 +108606,7 @@
         <v>1213</v>
       </c>
       <c r="B1215">
-        <v>6868795</v>
+        <v>6868791</v>
       </c>
       <c r="C1215" t="s">
         <v>28</v>
@@ -108618,76 +108618,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F1215" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G1215" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H1215">
         <v>1</v>
       </c>
       <c r="I1215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1215" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1215">
+        <v>2.1</v>
+      </c>
+      <c r="L1215">
+        <v>3.25</v>
+      </c>
+      <c r="M1215">
+        <v>3.7</v>
+      </c>
+      <c r="N1215">
         <v>2.15</v>
-      </c>
-      <c r="L1215">
-        <v>3.4</v>
-      </c>
-      <c r="M1215">
-        <v>3.4</v>
-      </c>
-      <c r="N1215">
-        <v>2.2</v>
       </c>
       <c r="O1215">
         <v>3.3</v>
       </c>
       <c r="P1215">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q1215">
         <v>-0.25</v>
       </c>
       <c r="R1215">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S1215">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T1215">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1215">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="V1215">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W1215">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X1215">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y1215">
         <v>-1</v>
       </c>
       <c r="Z1215">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1215">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AB1215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1215">
-        <v>0.9099999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1216" spans="1:29">
@@ -108900,31 +108900,31 @@
         <v>1.7</v>
       </c>
       <c r="N1218">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="O1218">
         <v>3.75</v>
       </c>
       <c r="P1218">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q1218">
         <v>0.75</v>
       </c>
       <c r="R1218">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="S1218">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T1218">
         <v>2.25</v>
       </c>
       <c r="U1218">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V1218">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W1218">
         <v>0</v>
@@ -108986,19 +108986,19 @@
         <v>0.5</v>
       </c>
       <c r="R1219">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S1219">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="T1219">
         <v>2.25</v>
       </c>
       <c r="U1219">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="V1219">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="W1219">
         <v>0</v>
@@ -109134,19 +109134,19 @@
         <v>-0.25</v>
       </c>
       <c r="R1221">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="S1221">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T1221">
         <v>2.5</v>
       </c>
       <c r="U1221">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="V1221">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W1221">
         <v>0</v>
@@ -109208,10 +109208,10 @@
         <v>0.75</v>
       </c>
       <c r="R1222">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S1222">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T1222">
         <v>2.75</v>
@@ -109282,10 +109282,10 @@
         <v>-0.75</v>
       </c>
       <c r="R1223">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S1223">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T1223">
         <v>2.5</v>
@@ -109513,10 +109513,10 @@
         <v>2.25</v>
       </c>
       <c r="U1226">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V1226">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W1226">
         <v>0</v>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6152" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6148" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -552,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC1228"/>
+  <dimension ref="A1:AC1227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -58321,7 +58321,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>5208155</v>
+        <v>5208160</v>
       </c>
       <c r="C650" t="s">
         <v>28</v>
@@ -58333,76 +58333,76 @@
         <v>44801.5625</v>
       </c>
       <c r="F650" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G650" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H650">
+        <v>4</v>
+      </c>
+      <c r="I650">
         <v>0</v>
       </c>
-      <c r="I650">
-        <v>1</v>
-      </c>
       <c r="J650" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K650">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="L650">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M650">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N650">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="O650">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P650">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q650">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R650">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S650">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T650">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U650">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="V650">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="W650">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X650">
         <v>-1</v>
       </c>
       <c r="Y650">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z650">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA650">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB650">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC650">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="651" spans="1:29">
@@ -58410,7 +58410,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>5208160</v>
+        <v>5208155</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58422,76 +58422,76 @@
         <v>44801.5625</v>
       </c>
       <c r="F651" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G651" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H651">
+        <v>0</v>
+      </c>
+      <c r="I651">
+        <v>1</v>
+      </c>
+      <c r="J651" t="s">
+        <v>57</v>
+      </c>
+      <c r="K651">
+        <v>3.75</v>
+      </c>
+      <c r="L651">
+        <v>3.6</v>
+      </c>
+      <c r="M651">
+        <v>1.909</v>
+      </c>
+      <c r="N651">
+        <v>3.75</v>
+      </c>
+      <c r="O651">
         <v>4</v>
       </c>
-      <c r="I651">
-        <v>0</v>
-      </c>
-      <c r="J651" t="s">
-        <v>56</v>
-      </c>
-      <c r="K651">
-        <v>2.4</v>
-      </c>
-      <c r="L651">
-        <v>3.25</v>
-      </c>
-      <c r="M651">
+      <c r="P651">
+        <v>1.909</v>
+      </c>
+      <c r="Q651">
+        <v>0.5</v>
+      </c>
+      <c r="R651">
+        <v>1.95</v>
+      </c>
+      <c r="S651">
+        <v>1.95</v>
+      </c>
+      <c r="T651">
         <v>3</v>
       </c>
-      <c r="N651">
-        <v>2.4</v>
-      </c>
-      <c r="O651">
-        <v>3.1</v>
-      </c>
-      <c r="P651">
-        <v>3.1</v>
-      </c>
-      <c r="Q651">
-        <v>-0.25</v>
-      </c>
-      <c r="R651">
-        <v>2.05</v>
-      </c>
-      <c r="S651">
-        <v>1.85</v>
-      </c>
-      <c r="T651">
-        <v>2.25</v>
-      </c>
       <c r="U651">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="V651">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="W651">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X651">
         <v>-1</v>
       </c>
       <c r="Y651">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z651">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA651">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB651">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC651">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="652" spans="1:29">
@@ -58499,7 +58499,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>5208158</v>
+        <v>5208154</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58511,76 +58511,76 @@
         <v>44801.65625</v>
       </c>
       <c r="F652" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G652" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J652" t="s">
         <v>58</v>
       </c>
       <c r="K652">
+        <v>2.8</v>
+      </c>
+      <c r="L652">
+        <v>3.4</v>
+      </c>
+      <c r="M652">
+        <v>2.45</v>
+      </c>
+      <c r="N652">
+        <v>3.2</v>
+      </c>
+      <c r="O652">
+        <v>3.5</v>
+      </c>
+      <c r="P652">
+        <v>2.2</v>
+      </c>
+      <c r="Q652">
+        <v>0.25</v>
+      </c>
+      <c r="R652">
+        <v>1.95</v>
+      </c>
+      <c r="S652">
+        <v>1.95</v>
+      </c>
+      <c r="T652">
+        <v>2.75</v>
+      </c>
+      <c r="U652">
+        <v>1.93</v>
+      </c>
+      <c r="V652">
+        <v>1.97</v>
+      </c>
+      <c r="W652">
+        <v>-1</v>
+      </c>
+      <c r="X652">
         <v>2.5</v>
       </c>
-      <c r="L652">
-        <v>3.25</v>
-      </c>
-      <c r="M652">
-        <v>2.875</v>
-      </c>
-      <c r="N652">
-        <v>2.2</v>
-      </c>
-      <c r="O652">
-        <v>3.4</v>
-      </c>
-      <c r="P652">
-        <v>3.2</v>
-      </c>
-      <c r="Q652">
-        <v>-0.25</v>
-      </c>
-      <c r="R652">
-        <v>1.98</v>
-      </c>
-      <c r="S652">
-        <v>1.92</v>
-      </c>
-      <c r="T652">
-        <v>2.5</v>
-      </c>
-      <c r="U652">
-        <v>1.99</v>
-      </c>
-      <c r="V652">
-        <v>1.91</v>
-      </c>
-      <c r="W652">
-        <v>-1</v>
-      </c>
-      <c r="X652">
-        <v>2.4</v>
-      </c>
       <c r="Y652">
         <v>-1</v>
       </c>
       <c r="Z652">
+        <v>0.475</v>
+      </c>
+      <c r="AA652">
         <v>-0.5</v>
       </c>
-      <c r="AA652">
-        <v>0.46</v>
-      </c>
       <c r="AB652">
         <v>-1</v>
       </c>
       <c r="AC652">
-        <v>0.9099999999999999</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="653" spans="1:29">
@@ -58588,7 +58588,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>5208154</v>
+        <v>5208158</v>
       </c>
       <c r="C653" t="s">
         <v>28</v>
@@ -58600,76 +58600,76 @@
         <v>44801.65625</v>
       </c>
       <c r="F653" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G653" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I653">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J653" t="s">
         <v>58</v>
       </c>
       <c r="K653">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L653">
+        <v>3.25</v>
+      </c>
+      <c r="M653">
+        <v>2.875</v>
+      </c>
+      <c r="N653">
+        <v>2.2</v>
+      </c>
+      <c r="O653">
         <v>3.4</v>
       </c>
-      <c r="M653">
-        <v>2.45</v>
-      </c>
-      <c r="N653">
+      <c r="P653">
         <v>3.2</v>
       </c>
-      <c r="O653">
-        <v>3.5</v>
-      </c>
-      <c r="P653">
-        <v>2.2</v>
-      </c>
       <c r="Q653">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R653">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S653">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T653">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U653">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="V653">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="W653">
         <v>-1</v>
       </c>
       <c r="X653">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y653">
         <v>-1</v>
       </c>
       <c r="Z653">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA653">
-        <v>-0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AB653">
         <v>-1</v>
       </c>
       <c r="AC653">
-        <v>0.97</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="654" spans="1:29">
@@ -59389,7 +59389,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>5208162</v>
+        <v>5208163</v>
       </c>
       <c r="C662" t="s">
         <v>28</v>
@@ -59401,76 +59401,76 @@
         <v>44805.65625</v>
       </c>
       <c r="F662" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G662" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H662">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I662">
         <v>1</v>
       </c>
       <c r="J662" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K662">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L662">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M662">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="N662">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O662">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P662">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q662">
+        <v>-0.25</v>
+      </c>
+      <c r="R662">
+        <v>1.82</v>
+      </c>
+      <c r="S662">
+        <v>2.08</v>
+      </c>
+      <c r="T662">
+        <v>2.5</v>
+      </c>
+      <c r="U662">
+        <v>1.95</v>
+      </c>
+      <c r="V662">
+        <v>1.95</v>
+      </c>
+      <c r="W662">
+        <v>-1</v>
+      </c>
+      <c r="X662">
+        <v>2.25</v>
+      </c>
+      <c r="Y662">
+        <v>-1</v>
+      </c>
+      <c r="Z662">
         <v>-0.5</v>
       </c>
-      <c r="R662">
-        <v>1.88</v>
-      </c>
-      <c r="S662">
-        <v>2.02</v>
-      </c>
-      <c r="T662">
-        <v>2.75</v>
-      </c>
-      <c r="U662">
-        <v>2.02</v>
-      </c>
-      <c r="V662">
-        <v>1.88</v>
-      </c>
-      <c r="W662">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X662">
-        <v>-1</v>
-      </c>
-      <c r="Y662">
-        <v>-1</v>
-      </c>
-      <c r="Z662">
-        <v>0.8799999999999999</v>
-      </c>
       <c r="AA662">
-        <v>-1</v>
+        <v>0.54</v>
       </c>
       <c r="AB662">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AC662">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="663" spans="1:29">
@@ -59478,7 +59478,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5208163</v>
+        <v>5208162</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59490,76 +59490,76 @@
         <v>44805.65625</v>
       </c>
       <c r="F663" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G663" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I663">
         <v>1</v>
       </c>
       <c r="J663" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K663">
+        <v>1.571</v>
+      </c>
+      <c r="L663">
+        <v>4</v>
+      </c>
+      <c r="M663">
+        <v>5.75</v>
+      </c>
+      <c r="N663">
         <v>1.85</v>
       </c>
-      <c r="L663">
-        <v>3.5</v>
-      </c>
-      <c r="M663">
+      <c r="O663">
+        <v>3.6</v>
+      </c>
+      <c r="P663">
         <v>4.2</v>
       </c>
-      <c r="N663">
-        <v>2.15</v>
-      </c>
-      <c r="O663">
-        <v>3.25</v>
-      </c>
-      <c r="P663">
-        <v>3.5</v>
-      </c>
       <c r="Q663">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R663">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S663">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="T663">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U663">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V663">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W663">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X663">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y663">
         <v>-1</v>
       </c>
       <c r="Z663">
-        <v>-0.5</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA663">
-        <v>0.54</v>
+        <v>-1</v>
       </c>
       <c r="AB663">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC663">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -69357,7 +69357,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>5208267</v>
+        <v>5208268</v>
       </c>
       <c r="C774" t="s">
         <v>28</v>
@@ -69369,10 +69369,10 @@
         <v>44930.35416666666</v>
       </c>
       <c r="F774" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G774" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H774">
         <v>1</v>
@@ -69384,40 +69384,40 @@
         <v>57</v>
       </c>
       <c r="K774">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="L774">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="M774">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="N774">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="O774">
+        <v>3.8</v>
+      </c>
+      <c r="P774">
         <v>5</v>
       </c>
-      <c r="P774">
-        <v>1.363</v>
-      </c>
       <c r="Q774">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R774">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S774">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="T774">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U774">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V774">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W774">
         <v>-1</v>
@@ -69426,19 +69426,19 @@
         <v>-1</v>
       </c>
       <c r="Y774">
-        <v>0.363</v>
+        <v>4</v>
       </c>
       <c r="Z774">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA774">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB774">
-        <v>0.42</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC774">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="775" spans="1:29">
@@ -69446,7 +69446,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>5208268</v>
+        <v>5208267</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69458,10 +69458,10 @@
         <v>44930.35416666666</v>
       </c>
       <c r="F775" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G775" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H775">
         <v>1</v>
@@ -69473,40 +69473,40 @@
         <v>57</v>
       </c>
       <c r="K775">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="L775">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="M775">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N775">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="O775">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P775">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="Q775">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R775">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S775">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="T775">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U775">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="V775">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="W775">
         <v>-1</v>
@@ -69515,19 +69515,19 @@
         <v>-1</v>
       </c>
       <c r="Y775">
-        <v>4</v>
+        <v>0.363</v>
       </c>
       <c r="Z775">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA775">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB775">
-        <v>0.9099999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="AC775">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="776" spans="1:29">
@@ -70069,7 +70069,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>5208264</v>
+        <v>5208271</v>
       </c>
       <c r="C782" t="s">
         <v>28</v>
@@ -70081,76 +70081,76 @@
         <v>44930.69791666666</v>
       </c>
       <c r="F782" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G782" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H782">
         <v>1</v>
       </c>
       <c r="I782">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J782" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K782">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L782">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M782">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="N782">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O782">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P782">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q782">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R782">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="S782">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T782">
         <v>2.75</v>
       </c>
       <c r="U782">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V782">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W782">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X782">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y782">
         <v>-1</v>
       </c>
       <c r="Z782">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA782">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB782">
         <v>-1</v>
       </c>
       <c r="AC782">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="783" spans="1:29">
@@ -70158,7 +70158,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>5208271</v>
+        <v>5208264</v>
       </c>
       <c r="C783" t="s">
         <v>28</v>
@@ -70170,76 +70170,76 @@
         <v>44930.69791666666</v>
       </c>
       <c r="F783" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G783" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H783">
         <v>1</v>
       </c>
       <c r="I783">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J783" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K783">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L783">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M783">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="N783">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O783">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P783">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q783">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R783">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="S783">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T783">
         <v>2.75</v>
       </c>
       <c r="U783">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V783">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W783">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X783">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y783">
         <v>-1</v>
       </c>
       <c r="Z783">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA783">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB783">
         <v>-1</v>
       </c>
       <c r="AC783">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="784" spans="1:29">
@@ -76032,7 +76032,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>5208323</v>
+        <v>5208326</v>
       </c>
       <c r="C849" t="s">
         <v>28</v>
@@ -76044,76 +76044,76 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F849" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G849" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I849">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J849" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K849">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="L849">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M849">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="N849">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O849">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P849">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q849">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R849">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="S849">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="T849">
         <v>2.5</v>
       </c>
       <c r="U849">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="V849">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="W849">
         <v>-1</v>
       </c>
       <c r="X849">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y849">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z849">
         <v>-1</v>
       </c>
       <c r="AA849">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
       <c r="AB849">
         <v>-1</v>
       </c>
       <c r="AC849">
-        <v>0.9299999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="850" spans="1:29">
@@ -76121,7 +76121,7 @@
         <v>848</v>
       </c>
       <c r="B850">
-        <v>5208326</v>
+        <v>5208323</v>
       </c>
       <c r="C850" t="s">
         <v>28</v>
@@ -76133,76 +76133,76 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F850" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G850" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I850">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J850" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K850">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="L850">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M850">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="N850">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O850">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P850">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="Q850">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R850">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="S850">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="T850">
         <v>2.5</v>
       </c>
       <c r="U850">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="V850">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="W850">
         <v>-1</v>
       </c>
       <c r="X850">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y850">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z850">
         <v>-1</v>
       </c>
       <c r="AA850">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
       <c r="AB850">
         <v>-1</v>
       </c>
       <c r="AC850">
-        <v>0.8400000000000001</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="851" spans="1:29">
@@ -84487,7 +84487,7 @@
         <v>942</v>
       </c>
       <c r="B944">
-        <v>5559355</v>
+        <v>5545303</v>
       </c>
       <c r="C944" t="s">
         <v>28</v>
@@ -84499,76 +84499,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F944" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G944" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H944">
+        <v>2</v>
+      </c>
+      <c r="I944">
+        <v>1</v>
+      </c>
+      <c r="J944" t="s">
+        <v>56</v>
+      </c>
+      <c r="K944">
+        <v>1.55</v>
+      </c>
+      <c r="L944">
+        <v>4</v>
+      </c>
+      <c r="M944">
+        <v>6</v>
+      </c>
+      <c r="N944">
+        <v>1.55</v>
+      </c>
+      <c r="O944">
+        <v>3.8</v>
+      </c>
+      <c r="P944">
+        <v>6.5</v>
+      </c>
+      <c r="Q944">
+        <v>-1</v>
+      </c>
+      <c r="R944">
+        <v>2.11</v>
+      </c>
+      <c r="S944">
+        <v>1.82</v>
+      </c>
+      <c r="T944">
+        <v>2</v>
+      </c>
+      <c r="U944">
+        <v>1.9</v>
+      </c>
+      <c r="V944">
+        <v>2</v>
+      </c>
+      <c r="W944">
+        <v>0.55</v>
+      </c>
+      <c r="X944">
+        <v>-1</v>
+      </c>
+      <c r="Y944">
+        <v>-1</v>
+      </c>
+      <c r="Z944">
         <v>0</v>
       </c>
-      <c r="I944">
-        <v>2</v>
-      </c>
-      <c r="J944" t="s">
-        <v>57</v>
-      </c>
-      <c r="K944">
-        <v>3.8</v>
-      </c>
-      <c r="L944">
-        <v>3.3</v>
-      </c>
-      <c r="M944">
-        <v>1.95</v>
-      </c>
-      <c r="N944">
-        <v>4.75</v>
-      </c>
-      <c r="O944">
-        <v>3.5</v>
-      </c>
-      <c r="P944">
-        <v>1.8</v>
-      </c>
-      <c r="Q944">
-        <v>0.75</v>
-      </c>
-      <c r="R944">
-        <v>1.83</v>
-      </c>
-      <c r="S944">
-        <v>2.07</v>
-      </c>
-      <c r="T944">
-        <v>2.25</v>
-      </c>
-      <c r="U944">
-        <v>2.03</v>
-      </c>
-      <c r="V944">
-        <v>1.87</v>
-      </c>
-      <c r="W944">
-        <v>-1</v>
-      </c>
-      <c r="X944">
-        <v>-1</v>
-      </c>
-      <c r="Y944">
-        <v>0.8</v>
-      </c>
-      <c r="Z944">
-        <v>-1</v>
-      </c>
       <c r="AA944">
-        <v>1.07</v>
+        <v>-0</v>
       </c>
       <c r="AB944">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC944">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="945" spans="1:29">
@@ -84576,7 +84576,7 @@
         <v>943</v>
       </c>
       <c r="B945">
-        <v>5545303</v>
+        <v>5559355</v>
       </c>
       <c r="C945" t="s">
         <v>28</v>
@@ -84588,76 +84588,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F945" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G945" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H945">
+        <v>0</v>
+      </c>
+      <c r="I945">
         <v>2</v>
       </c>
-      <c r="I945">
-        <v>1</v>
-      </c>
       <c r="J945" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K945">
-        <v>1.55</v>
+        <v>3.8</v>
       </c>
       <c r="L945">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M945">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="N945">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="O945">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P945">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q945">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R945">
-        <v>2.11</v>
+        <v>1.83</v>
       </c>
       <c r="S945">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="T945">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U945">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="V945">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W945">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X945">
         <v>-1</v>
       </c>
       <c r="Y945">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z945">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA945">
-        <v>-0</v>
+        <v>1.07</v>
       </c>
       <c r="AB945">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC945">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="946" spans="1:29">
@@ -84843,7 +84843,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>5554079</v>
+        <v>5535044</v>
       </c>
       <c r="C948" t="s">
         <v>28</v>
@@ -84855,49 +84855,49 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F948" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G948" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H948">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I948">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J948" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K948">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="L948">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M948">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N948">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O948">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P948">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q948">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R948">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="S948">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="T948">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U948">
         <v>1.85</v>
@@ -84906,25 +84906,25 @@
         <v>2.05</v>
       </c>
       <c r="W948">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X948">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y948">
         <v>-1</v>
       </c>
       <c r="Z948">
-        <v>0.8400000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA948">
         <v>-1</v>
       </c>
       <c r="AB948">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC948">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="949" spans="1:29">
@@ -85021,7 +85021,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>5535044</v>
+        <v>5554079</v>
       </c>
       <c r="C950" t="s">
         <v>28</v>
@@ -85033,49 +85033,49 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F950" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G950" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H950">
+        <v>1</v>
+      </c>
+      <c r="I950">
+        <v>1</v>
+      </c>
+      <c r="J950" t="s">
+        <v>58</v>
+      </c>
+      <c r="K950">
+        <v>3.8</v>
+      </c>
+      <c r="L950">
+        <v>3.2</v>
+      </c>
+      <c r="M950">
+        <v>2.05</v>
+      </c>
+      <c r="N950">
+        <v>4</v>
+      </c>
+      <c r="O950">
+        <v>3.2</v>
+      </c>
+      <c r="P950">
+        <v>2.05</v>
+      </c>
+      <c r="Q950">
+        <v>0.5</v>
+      </c>
+      <c r="R950">
+        <v>1.84</v>
+      </c>
+      <c r="S950">
+        <v>2.06</v>
+      </c>
+      <c r="T950">
         <v>2</v>
-      </c>
-      <c r="I950">
-        <v>0</v>
-      </c>
-      <c r="J950" t="s">
-        <v>56</v>
-      </c>
-      <c r="K950">
-        <v>1.7</v>
-      </c>
-      <c r="L950">
-        <v>3.75</v>
-      </c>
-      <c r="M950">
-        <v>5</v>
-      </c>
-      <c r="N950">
-        <v>1.666</v>
-      </c>
-      <c r="O950">
-        <v>4.2</v>
-      </c>
-      <c r="P950">
-        <v>5</v>
-      </c>
-      <c r="Q950">
-        <v>-0.75</v>
-      </c>
-      <c r="R950">
-        <v>1.87</v>
-      </c>
-      <c r="S950">
-        <v>2.03</v>
-      </c>
-      <c r="T950">
-        <v>2.75</v>
       </c>
       <c r="U950">
         <v>1.85</v>
@@ -85084,25 +85084,25 @@
         <v>2.05</v>
       </c>
       <c r="W950">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X950">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y950">
         <v>-1</v>
       </c>
       <c r="Z950">
-        <v>0.8700000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA950">
         <v>-1</v>
       </c>
       <c r="AB950">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC950">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="951" spans="1:29">
@@ -104156,7 +104156,7 @@
         <v>1163</v>
       </c>
       <c r="B1165">
-        <v>6868744</v>
+        <v>6868742</v>
       </c>
       <c r="C1165" t="s">
         <v>28</v>
@@ -104168,76 +104168,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F1165" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1165" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H1165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1165" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1165">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="L1165">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M1165">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N1165">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O1165">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P1165">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q1165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1165">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="S1165">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T1165">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1165">
-        <v>1.89</v>
+        <v>2.025</v>
       </c>
       <c r="V1165">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="W1165">
         <v>-1</v>
       </c>
       <c r="X1165">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y1165">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z1165">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA1165">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB1165">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC1165">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="1166" spans="1:29">
@@ -104245,7 +104245,7 @@
         <v>1164</v>
       </c>
       <c r="B1166">
-        <v>6868742</v>
+        <v>6868744</v>
       </c>
       <c r="C1166" t="s">
         <v>28</v>
@@ -104257,76 +104257,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F1166" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G1166" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1166">
+        <v>2</v>
+      </c>
+      <c r="J1166" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1166">
+        <v>5.75</v>
+      </c>
+      <c r="L1166">
+        <v>4</v>
+      </c>
+      <c r="M1166">
+        <v>1.533</v>
+      </c>
+      <c r="N1166">
+        <v>6.5</v>
+      </c>
+      <c r="O1166">
+        <v>4</v>
+      </c>
+      <c r="P1166">
+        <v>1.5</v>
+      </c>
+      <c r="Q1166">
         <v>1</v>
       </c>
-      <c r="J1166" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1166">
-        <v>2.8</v>
-      </c>
-      <c r="L1166">
-        <v>3.5</v>
-      </c>
-      <c r="M1166">
-        <v>2.375</v>
-      </c>
-      <c r="N1166">
-        <v>2.8</v>
-      </c>
-      <c r="O1166">
-        <v>3.25</v>
-      </c>
-      <c r="P1166">
-        <v>2.6</v>
-      </c>
-      <c r="Q1166">
-        <v>0</v>
-      </c>
       <c r="R1166">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S1166">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T1166">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1166">
-        <v>2.025</v>
+        <v>1.89</v>
       </c>
       <c r="V1166">
-        <v>1.775</v>
+        <v>2.01</v>
       </c>
       <c r="W1166">
         <v>-1</v>
       </c>
       <c r="X1166">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y1166">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z1166">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA1166">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB1166">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC1166">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1167" spans="1:29">
@@ -104601,7 +104601,7 @@
         <v>1168</v>
       </c>
       <c r="B1170">
-        <v>6868741</v>
+        <v>6868740</v>
       </c>
       <c r="C1170" t="s">
         <v>28</v>
@@ -104613,10 +104613,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F1170" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G1170" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H1170">
         <v>2</v>
@@ -104628,43 +104628,43 @@
         <v>56</v>
       </c>
       <c r="K1170">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="L1170">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M1170">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="N1170">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O1170">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P1170">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q1170">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1170">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S1170">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T1170">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1170">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V1170">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W1170">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X1170">
         <v>-1</v>
@@ -104673,16 +104673,16 @@
         <v>-1</v>
       </c>
       <c r="Z1170">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="AA1170">
         <v>-1</v>
       </c>
       <c r="AB1170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1170">
-        <v>1.04</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="1171" spans="1:29">
@@ -104690,7 +104690,7 @@
         <v>1169</v>
       </c>
       <c r="B1171">
-        <v>6868740</v>
+        <v>6868741</v>
       </c>
       <c r="C1171" t="s">
         <v>28</v>
@@ -104702,10 +104702,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F1171" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G1171" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H1171">
         <v>2</v>
@@ -104717,43 +104717,43 @@
         <v>56</v>
       </c>
       <c r="K1171">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="L1171">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M1171">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="N1171">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O1171">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P1171">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="Q1171">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R1171">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="S1171">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="T1171">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1171">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V1171">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W1171">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X1171">
         <v>-1</v>
@@ -104762,16 +104762,16 @@
         <v>-1</v>
       </c>
       <c r="Z1171">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="AA1171">
         <v>-1</v>
       </c>
       <c r="AB1171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1171">
-        <v>0.475</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="1172" spans="1:29">
@@ -106648,7 +106648,7 @@
         <v>1191</v>
       </c>
       <c r="B1193">
-        <v>6868776</v>
+        <v>6868770</v>
       </c>
       <c r="C1193" t="s">
         <v>28</v>
@@ -106660,76 +106660,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F1193" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G1193" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H1193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1193" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1193">
-        <v>1.285</v>
+        <v>2.625</v>
       </c>
       <c r="L1193">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M1193">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="N1193">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="O1193">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P1193">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q1193">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R1193">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="S1193">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="T1193">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U1193">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="V1193">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="W1193">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X1193">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y1193">
         <v>-1</v>
       </c>
       <c r="Z1193">
-        <v>-1</v>
+        <v>0.385</v>
       </c>
       <c r="AA1193">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1193">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AC1193">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1194" spans="1:29">
@@ -106737,7 +106737,7 @@
         <v>1192</v>
       </c>
       <c r="B1194">
-        <v>6868770</v>
+        <v>6868776</v>
       </c>
       <c r="C1194" t="s">
         <v>28</v>
@@ -106749,76 +106749,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F1194" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G1194" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1194" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K1194">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="L1194">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M1194">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="N1194">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O1194">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="P1194">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q1194">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R1194">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="S1194">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="T1194">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U1194">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V1194">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W1194">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X1194">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y1194">
         <v>-1</v>
       </c>
       <c r="Z1194">
-        <v>0.385</v>
+        <v>-1</v>
       </c>
       <c r="AA1194">
+        <v>0.97</v>
+      </c>
+      <c r="AB1194">
+        <v>0.46</v>
+      </c>
+      <c r="AC1194">
         <v>-0.5</v>
-      </c>
-      <c r="AB1194">
-        <v>-1</v>
-      </c>
-      <c r="AC1194">
-        <v>1.05</v>
       </c>
     </row>
     <row r="1195" spans="1:29">
@@ -108873,7 +108873,7 @@
         <v>1216</v>
       </c>
       <c r="B1218">
-        <v>6868796</v>
+        <v>6868802</v>
       </c>
       <c r="C1218" t="s">
         <v>28</v>
@@ -108882,49 +108882,49 @@
         <v>28</v>
       </c>
       <c r="E1218" s="2">
-        <v>45320.69791666666</v>
+        <v>45324.69791666666</v>
       </c>
       <c r="F1218" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G1218" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K1218">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L1218">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M1218">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="N1218">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="O1218">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P1218">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="Q1218">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R1218">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="S1218">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T1218">
         <v>2.25</v>
       </c>
       <c r="U1218">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="V1218">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="W1218">
         <v>0</v>
@@ -108947,7 +108947,7 @@
         <v>1217</v>
       </c>
       <c r="B1219">
-        <v>6868802</v>
+        <v>6868799</v>
       </c>
       <c r="C1219" t="s">
         <v>28</v>
@@ -108956,49 +108956,49 @@
         <v>28</v>
       </c>
       <c r="E1219" s="2">
-        <v>45324.69791666666</v>
+        <v>45325.45833333334</v>
       </c>
       <c r="F1219" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G1219" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1219">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="L1219">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M1219">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="N1219">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="O1219">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P1219">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q1219">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R1219">
+        <v>2.09</v>
+      </c>
+      <c r="S1219">
         <v>1.81</v>
       </c>
-      <c r="S1219">
-        <v>2.09</v>
-      </c>
       <c r="T1219">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1219">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="V1219">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="W1219">
         <v>0</v>
@@ -109021,7 +109021,7 @@
         <v>1218</v>
       </c>
       <c r="B1220">
-        <v>6868799</v>
+        <v>6868806</v>
       </c>
       <c r="C1220" t="s">
         <v>28</v>
@@ -109033,46 +109033,46 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F1220" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G1220" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K1220">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L1220">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M1220">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N1220">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="O1220">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P1220">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q1220">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1220">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="S1220">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="T1220">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U1220">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="V1220">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W1220">
         <v>0</v>
@@ -109095,7 +109095,7 @@
         <v>1219</v>
       </c>
       <c r="B1221">
-        <v>6868806</v>
+        <v>6868800</v>
       </c>
       <c r="C1221" t="s">
         <v>28</v>
@@ -109104,49 +109104,49 @@
         <v>28</v>
       </c>
       <c r="E1221" s="2">
-        <v>45325.45833333334</v>
+        <v>45325.58333333334</v>
       </c>
       <c r="F1221" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G1221" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K1221">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="L1221">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M1221">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="N1221">
-        <v>2.35</v>
+        <v>4.5</v>
       </c>
       <c r="O1221">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P1221">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q1221">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R1221">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S1221">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="T1221">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1221">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="V1221">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="W1221">
         <v>0</v>
@@ -109169,7 +109169,7 @@
         <v>1220</v>
       </c>
       <c r="B1222">
-        <v>6868800</v>
+        <v>6868798</v>
       </c>
       <c r="C1222" t="s">
         <v>28</v>
@@ -109178,49 +109178,49 @@
         <v>28</v>
       </c>
       <c r="E1222" s="2">
-        <v>45325.58333333334</v>
+        <v>45325.69791666666</v>
       </c>
       <c r="F1222" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G1222" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K1222">
+        <v>1.833</v>
+      </c>
+      <c r="L1222">
+        <v>3.8</v>
+      </c>
+      <c r="M1222">
+        <v>4</v>
+      </c>
+      <c r="N1222">
+        <v>1.75</v>
+      </c>
+      <c r="O1222">
+        <v>3.75</v>
+      </c>
+      <c r="P1222">
         <v>4.333</v>
       </c>
-      <c r="L1222">
-        <v>4</v>
-      </c>
-      <c r="M1222">
-        <v>1.727</v>
-      </c>
-      <c r="N1222">
-        <v>4.333</v>
-      </c>
-      <c r="O1222">
-        <v>4</v>
-      </c>
-      <c r="P1222">
-        <v>1.727</v>
-      </c>
       <c r="Q1222">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R1222">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S1222">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T1222">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1222">
+        <v>2.03</v>
+      </c>
+      <c r="V1222">
         <v>1.87</v>
-      </c>
-      <c r="V1222">
-        <v>2.03</v>
       </c>
       <c r="W1222">
         <v>0</v>
@@ -109243,7 +109243,7 @@
         <v>1221</v>
       </c>
       <c r="B1223">
-        <v>6868798</v>
+        <v>6868805</v>
       </c>
       <c r="C1223" t="s">
         <v>28</v>
@@ -109252,49 +109252,49 @@
         <v>28</v>
       </c>
       <c r="E1223" s="2">
-        <v>45325.69791666666</v>
+        <v>45326.35416666666</v>
       </c>
       <c r="F1223" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1223" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K1223">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="L1223">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M1223">
+        <v>7.5</v>
+      </c>
+      <c r="N1223">
+        <v>1.5</v>
+      </c>
+      <c r="O1223">
         <v>4</v>
       </c>
-      <c r="N1223">
-        <v>1.75</v>
-      </c>
-      <c r="O1223">
-        <v>3.75</v>
-      </c>
       <c r="P1223">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q1223">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R1223">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="S1223">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="T1223">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1223">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="V1223">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="W1223">
         <v>0</v>
@@ -109317,7 +109317,7 @@
         <v>1222</v>
       </c>
       <c r="B1224">
-        <v>6868805</v>
+        <v>6868803</v>
       </c>
       <c r="C1224" t="s">
         <v>28</v>
@@ -109326,49 +109326,49 @@
         <v>28</v>
       </c>
       <c r="E1224" s="2">
-        <v>45326.35416666666</v>
+        <v>45326.45833333334</v>
       </c>
       <c r="F1224" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G1224" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K1224">
+        <v>1.4</v>
+      </c>
+      <c r="L1224">
+        <v>4.75</v>
+      </c>
+      <c r="M1224">
+        <v>7</v>
+      </c>
+      <c r="N1224">
         <v>1.444</v>
       </c>
-      <c r="L1224">
+      <c r="O1224">
         <v>4.333</v>
       </c>
-      <c r="M1224">
+      <c r="P1224">
         <v>7.5</v>
       </c>
-      <c r="N1224">
-        <v>1.5</v>
-      </c>
-      <c r="O1224">
-        <v>4</v>
-      </c>
-      <c r="P1224">
-        <v>7</v>
-      </c>
       <c r="Q1224">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R1224">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="S1224">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="T1224">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1224">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V1224">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W1224">
         <v>0</v>
@@ -109391,7 +109391,7 @@
         <v>1223</v>
       </c>
       <c r="B1225">
-        <v>6868803</v>
+        <v>6868797</v>
       </c>
       <c r="C1225" t="s">
         <v>28</v>
@@ -109400,49 +109400,49 @@
         <v>28</v>
       </c>
       <c r="E1225" s="2">
-        <v>45326.45833333334</v>
+        <v>45326.58333333334</v>
       </c>
       <c r="F1225" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G1225" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K1225">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="L1225">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M1225">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N1225">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O1225">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P1225">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q1225">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1225">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="S1225">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="T1225">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1225">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V1225">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W1225">
         <v>0</v>
@@ -109465,7 +109465,7 @@
         <v>1224</v>
       </c>
       <c r="B1226">
-        <v>6868797</v>
+        <v>6868801</v>
       </c>
       <c r="C1226" t="s">
         <v>28</v>
@@ -109474,49 +109474,49 @@
         <v>28</v>
       </c>
       <c r="E1226" s="2">
-        <v>45326.58333333334</v>
+        <v>45326.69791666666</v>
       </c>
       <c r="F1226" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1226" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K1226">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L1226">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1226">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N1226">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O1226">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P1226">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q1226">
         <v>-0.5</v>
       </c>
       <c r="R1226">
-        <v>2.09</v>
+        <v>1.88</v>
       </c>
       <c r="S1226">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="T1226">
         <v>2.25</v>
       </c>
       <c r="U1226">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V1226">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="W1226">
         <v>0</v>
@@ -109539,7 +109539,7 @@
         <v>1225</v>
       </c>
       <c r="B1227">
-        <v>6868801</v>
+        <v>6868804</v>
       </c>
       <c r="C1227" t="s">
         <v>28</v>
@@ -109548,49 +109548,49 @@
         <v>28</v>
       </c>
       <c r="E1227" s="2">
-        <v>45326.69791666666</v>
+        <v>45327.69791666666</v>
       </c>
       <c r="F1227" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1227" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K1227">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L1227">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M1227">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N1227">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O1227">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P1227">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q1227">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R1227">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="S1227">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T1227">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1227">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V1227">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="W1227">
         <v>0</v>
@@ -109605,80 +109605,6 @@
         <v>0</v>
       </c>
       <c r="AA1227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:29">
-      <c r="A1228" s="1">
-        <v>1226</v>
-      </c>
-      <c r="B1228">
-        <v>6868804</v>
-      </c>
-      <c r="C1228" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1228" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1228" s="2">
-        <v>45327.69791666666</v>
-      </c>
-      <c r="F1228" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1228" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1228">
-        <v>1.5</v>
-      </c>
-      <c r="L1228">
-        <v>4</v>
-      </c>
-      <c r="M1228">
-        <v>7.5</v>
-      </c>
-      <c r="N1228">
-        <v>1.45</v>
-      </c>
-      <c r="O1228">
-        <v>4</v>
-      </c>
-      <c r="P1228">
-        <v>7.5</v>
-      </c>
-      <c r="Q1228">
-        <v>-1</v>
-      </c>
-      <c r="R1228">
-        <v>1.86</v>
-      </c>
-      <c r="S1228">
-        <v>2.04</v>
-      </c>
-      <c r="T1228">
-        <v>2.5</v>
-      </c>
-      <c r="U1228">
-        <v>2.06</v>
-      </c>
-      <c r="V1228">
-        <v>1.84</v>
-      </c>
-      <c r="W1228">
-        <v>0</v>
-      </c>
-      <c r="X1228">
-        <v>0</v>
-      </c>
-      <c r="Y1228">
-        <v>0</v>
-      </c>
-      <c r="Z1228">
-        <v>0</v>
-      </c>
-      <c r="AA1228">
         <v>0</v>
       </c>
     </row>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -56363,7 +56363,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>5207128</v>
+        <v>5207125</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56375,58 +56375,58 @@
         <v>44787.5625</v>
       </c>
       <c r="F628" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G628" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H628">
+        <v>3</v>
+      </c>
+      <c r="I628">
         <v>2</v>
-      </c>
-      <c r="I628">
-        <v>1</v>
       </c>
       <c r="J628" t="s">
         <v>56</v>
       </c>
       <c r="K628">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="L628">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M628">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N628">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O628">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P628">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q628">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R628">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="S628">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="T628">
         <v>2.75</v>
       </c>
       <c r="U628">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="V628">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="W628">
-        <v>0.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X628">
         <v>-1</v>
@@ -56435,16 +56435,16 @@
         <v>-1</v>
       </c>
       <c r="Z628">
-        <v>0.455</v>
+        <v>0</v>
       </c>
       <c r="AA628">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB628">
-        <v>0.415</v>
+        <v>1.03</v>
       </c>
       <c r="AC628">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="629" spans="1:29">
@@ -56452,7 +56452,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>5207125</v>
+        <v>5207128</v>
       </c>
       <c r="C629" t="s">
         <v>28</v>
@@ -56464,58 +56464,58 @@
         <v>44787.5625</v>
       </c>
       <c r="F629" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G629" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H629">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I629">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J629" t="s">
         <v>56</v>
       </c>
       <c r="K629">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="L629">
+        <v>4</v>
+      </c>
+      <c r="M629">
         <v>5</v>
       </c>
-      <c r="M629">
-        <v>7.5</v>
-      </c>
       <c r="N629">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O629">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P629">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q629">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R629">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="S629">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="T629">
         <v>2.75</v>
       </c>
       <c r="U629">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="V629">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="W629">
-        <v>0.6000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X629">
         <v>-1</v>
@@ -56524,16 +56524,16 @@
         <v>-1</v>
       </c>
       <c r="Z629">
-        <v>0</v>
+        <v>0.455</v>
       </c>
       <c r="AA629">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB629">
-        <v>1.03</v>
+        <v>0.415</v>
       </c>
       <c r="AC629">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="630" spans="1:29">
@@ -56541,7 +56541,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>5207131</v>
+        <v>5207133</v>
       </c>
       <c r="C630" t="s">
         <v>28</v>
@@ -56553,76 +56553,76 @@
         <v>44787.65625</v>
       </c>
       <c r="F630" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G630" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H630">
+        <v>1</v>
+      </c>
+      <c r="I630">
         <v>0</v>
       </c>
-      <c r="I630">
-        <v>1</v>
-      </c>
       <c r="J630" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K630">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="L630">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M630">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="N630">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="O630">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P630">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q630">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R630">
-        <v>2.06</v>
+        <v>2.125</v>
       </c>
       <c r="S630">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="T630">
         <v>2.75</v>
       </c>
       <c r="U630">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="V630">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W630">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X630">
         <v>-1</v>
       </c>
       <c r="Y630">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z630">
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="AA630">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB630">
         <v>-1</v>
       </c>
       <c r="AC630">
-        <v>0.9099999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="631" spans="1:29">
@@ -56630,7 +56630,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>5207133</v>
+        <v>5207131</v>
       </c>
       <c r="C631" t="s">
         <v>28</v>
@@ -56642,76 +56642,76 @@
         <v>44787.65625</v>
       </c>
       <c r="F631" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G631" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H631">
+        <v>0</v>
+      </c>
+      <c r="I631">
         <v>1</v>
       </c>
-      <c r="I631">
-        <v>0</v>
-      </c>
       <c r="J631" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K631">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="L631">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M631">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="N631">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="O631">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P631">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="Q631">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R631">
-        <v>2.125</v>
+        <v>2.06</v>
       </c>
       <c r="S631">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="T631">
         <v>2.75</v>
       </c>
       <c r="U631">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="V631">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W631">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X631">
         <v>-1</v>
       </c>
       <c r="Y631">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z631">
-        <v>1.125</v>
+        <v>0</v>
       </c>
       <c r="AA631">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB631">
         <v>-1</v>
       </c>
       <c r="AC631">
-        <v>0.8700000000000001</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="632" spans="1:29">
@@ -58321,7 +58321,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>5208160</v>
+        <v>5208155</v>
       </c>
       <c r="C650" t="s">
         <v>28</v>
@@ -58333,76 +58333,76 @@
         <v>44801.5625</v>
       </c>
       <c r="F650" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G650" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H650">
+        <v>0</v>
+      </c>
+      <c r="I650">
+        <v>1</v>
+      </c>
+      <c r="J650" t="s">
+        <v>57</v>
+      </c>
+      <c r="K650">
+        <v>3.75</v>
+      </c>
+      <c r="L650">
+        <v>3.6</v>
+      </c>
+      <c r="M650">
+        <v>1.909</v>
+      </c>
+      <c r="N650">
+        <v>3.75</v>
+      </c>
+      <c r="O650">
         <v>4</v>
       </c>
-      <c r="I650">
-        <v>0</v>
-      </c>
-      <c r="J650" t="s">
-        <v>56</v>
-      </c>
-      <c r="K650">
-        <v>2.4</v>
-      </c>
-      <c r="L650">
-        <v>3.25</v>
-      </c>
-      <c r="M650">
+      <c r="P650">
+        <v>1.909</v>
+      </c>
+      <c r="Q650">
+        <v>0.5</v>
+      </c>
+      <c r="R650">
+        <v>1.95</v>
+      </c>
+      <c r="S650">
+        <v>1.95</v>
+      </c>
+      <c r="T650">
         <v>3</v>
       </c>
-      <c r="N650">
-        <v>2.4</v>
-      </c>
-      <c r="O650">
-        <v>3.1</v>
-      </c>
-      <c r="P650">
-        <v>3.1</v>
-      </c>
-      <c r="Q650">
-        <v>-0.25</v>
-      </c>
-      <c r="R650">
-        <v>2.05</v>
-      </c>
-      <c r="S650">
-        <v>1.85</v>
-      </c>
-      <c r="T650">
-        <v>2.25</v>
-      </c>
       <c r="U650">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="V650">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="W650">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X650">
         <v>-1</v>
       </c>
       <c r="Y650">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z650">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA650">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB650">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC650">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="651" spans="1:29">
@@ -58410,7 +58410,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>5208155</v>
+        <v>5208160</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -58422,76 +58422,76 @@
         <v>44801.5625</v>
       </c>
       <c r="F651" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G651" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H651">
+        <v>4</v>
+      </c>
+      <c r="I651">
         <v>0</v>
       </c>
-      <c r="I651">
-        <v>1</v>
-      </c>
       <c r="J651" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K651">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="L651">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M651">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N651">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="O651">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P651">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q651">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R651">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S651">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T651">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U651">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="V651">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="W651">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X651">
         <v>-1</v>
       </c>
       <c r="Y651">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z651">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA651">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB651">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC651">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="652" spans="1:29">
@@ -58499,7 +58499,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>5208154</v>
+        <v>5208158</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58511,76 +58511,76 @@
         <v>44801.65625</v>
       </c>
       <c r="F652" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G652" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I652">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J652" t="s">
         <v>58</v>
       </c>
       <c r="K652">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L652">
+        <v>3.25</v>
+      </c>
+      <c r="M652">
+        <v>2.875</v>
+      </c>
+      <c r="N652">
+        <v>2.2</v>
+      </c>
+      <c r="O652">
         <v>3.4</v>
       </c>
-      <c r="M652">
-        <v>2.45</v>
-      </c>
-      <c r="N652">
+      <c r="P652">
         <v>3.2</v>
       </c>
-      <c r="O652">
-        <v>3.5</v>
-      </c>
-      <c r="P652">
-        <v>2.2</v>
-      </c>
       <c r="Q652">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R652">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S652">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T652">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U652">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="V652">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="W652">
         <v>-1</v>
       </c>
       <c r="X652">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y652">
         <v>-1</v>
       </c>
       <c r="Z652">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA652">
-        <v>-0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AB652">
         <v>-1</v>
       </c>
       <c r="AC652">
-        <v>0.97</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="653" spans="1:29">
@@ -58588,7 +58588,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>5208158</v>
+        <v>5208154</v>
       </c>
       <c r="C653" t="s">
         <v>28</v>
@@ -58600,76 +58600,76 @@
         <v>44801.65625</v>
       </c>
       <c r="F653" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G653" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I653">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J653" t="s">
         <v>58</v>
       </c>
       <c r="K653">
+        <v>2.8</v>
+      </c>
+      <c r="L653">
+        <v>3.4</v>
+      </c>
+      <c r="M653">
+        <v>2.45</v>
+      </c>
+      <c r="N653">
+        <v>3.2</v>
+      </c>
+      <c r="O653">
+        <v>3.5</v>
+      </c>
+      <c r="P653">
+        <v>2.2</v>
+      </c>
+      <c r="Q653">
+        <v>0.25</v>
+      </c>
+      <c r="R653">
+        <v>1.95</v>
+      </c>
+      <c r="S653">
+        <v>1.95</v>
+      </c>
+      <c r="T653">
+        <v>2.75</v>
+      </c>
+      <c r="U653">
+        <v>1.93</v>
+      </c>
+      <c r="V653">
+        <v>1.97</v>
+      </c>
+      <c r="W653">
+        <v>-1</v>
+      </c>
+      <c r="X653">
         <v>2.5</v>
       </c>
-      <c r="L653">
-        <v>3.25</v>
-      </c>
-      <c r="M653">
-        <v>2.875</v>
-      </c>
-      <c r="N653">
-        <v>2.2</v>
-      </c>
-      <c r="O653">
-        <v>3.4</v>
-      </c>
-      <c r="P653">
-        <v>3.2</v>
-      </c>
-      <c r="Q653">
-        <v>-0.25</v>
-      </c>
-      <c r="R653">
-        <v>1.98</v>
-      </c>
-      <c r="S653">
-        <v>1.92</v>
-      </c>
-      <c r="T653">
-        <v>2.5</v>
-      </c>
-      <c r="U653">
-        <v>1.99</v>
-      </c>
-      <c r="V653">
-        <v>1.91</v>
-      </c>
-      <c r="W653">
-        <v>-1</v>
-      </c>
-      <c r="X653">
-        <v>2.4</v>
-      </c>
       <c r="Y653">
         <v>-1</v>
       </c>
       <c r="Z653">
+        <v>0.475</v>
+      </c>
+      <c r="AA653">
         <v>-0.5</v>
       </c>
-      <c r="AA653">
-        <v>0.46</v>
-      </c>
       <c r="AB653">
         <v>-1</v>
       </c>
       <c r="AC653">
-        <v>0.9099999999999999</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="654" spans="1:29">
@@ -59033,7 +59033,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>5208167</v>
+        <v>5208169</v>
       </c>
       <c r="C658" t="s">
         <v>28</v>
@@ -59045,67 +59045,67 @@
         <v>44804.5625</v>
       </c>
       <c r="F658" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G658" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H658">
         <v>1</v>
       </c>
       <c r="I658">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J658" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K658">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L658">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M658">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="N658">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O658">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P658">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="Q658">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R658">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="S658">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="T658">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U658">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="V658">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="W658">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X658">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y658">
         <v>-1</v>
       </c>
       <c r="Z658">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AA658">
         <v>-1</v>
@@ -59114,7 +59114,7 @@
         <v>-1</v>
       </c>
       <c r="AC658">
-        <v>1.04</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="659" spans="1:29">
@@ -59122,7 +59122,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>5208169</v>
+        <v>5208167</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59134,67 +59134,67 @@
         <v>44804.5625</v>
       </c>
       <c r="F659" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G659" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H659">
         <v>1</v>
       </c>
       <c r="I659">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J659" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K659">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L659">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M659">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N659">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O659">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P659">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q659">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R659">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="S659">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="T659">
+        <v>2.5</v>
+      </c>
+      <c r="U659">
+        <v>1.86</v>
+      </c>
+      <c r="V659">
+        <v>2.04</v>
+      </c>
+      <c r="W659">
+        <v>-1</v>
+      </c>
+      <c r="X659">
         <v>2.75</v>
       </c>
-      <c r="U659">
-        <v>2.03</v>
-      </c>
-      <c r="V659">
-        <v>1.87</v>
-      </c>
-      <c r="W659">
-        <v>1.3</v>
-      </c>
-      <c r="X659">
-        <v>-1</v>
-      </c>
       <c r="Y659">
         <v>-1</v>
       </c>
       <c r="Z659">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AA659">
         <v>-1</v>
@@ -59203,7 +59203,7 @@
         <v>-1</v>
       </c>
       <c r="AC659">
-        <v>0.8700000000000001</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="660" spans="1:29">
@@ -59211,7 +59211,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>5208166</v>
+        <v>5208165</v>
       </c>
       <c r="C660" t="s">
         <v>28</v>
@@ -59223,76 +59223,76 @@
         <v>44804.65625</v>
       </c>
       <c r="F660" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G660" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J660" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K660">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="L660">
         <v>5.5</v>
       </c>
       <c r="M660">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="N660">
-        <v>1.285</v>
+        <v>1.3</v>
       </c>
       <c r="O660">
         <v>5.5</v>
       </c>
       <c r="P660">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q660">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R660">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="S660">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="T660">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U660">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V660">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="W660">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X660">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y660">
         <v>-1</v>
       </c>
       <c r="Z660">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA660">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB660">
         <v>-1</v>
       </c>
       <c r="AC660">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="661" spans="1:29">
@@ -59300,7 +59300,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>5208165</v>
+        <v>5208166</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59312,76 +59312,76 @@
         <v>44804.65625</v>
       </c>
       <c r="F661" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G661" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I661">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J661" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K661">
-        <v>1.285</v>
+        <v>1.3</v>
       </c>
       <c r="L661">
         <v>5.5</v>
       </c>
       <c r="M661">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="N661">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="O661">
         <v>5.5</v>
       </c>
       <c r="P661">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q661">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R661">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="S661">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="T661">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U661">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V661">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="W661">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X661">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y661">
         <v>-1</v>
       </c>
       <c r="Z661">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA661">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB661">
         <v>-1</v>
       </c>
       <c r="AC661">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="662" spans="1:29">
@@ -59389,7 +59389,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>5208163</v>
+        <v>5208162</v>
       </c>
       <c r="C662" t="s">
         <v>28</v>
@@ -59401,76 +59401,76 @@
         <v>44805.65625</v>
       </c>
       <c r="F662" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G662" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I662">
         <v>1</v>
       </c>
       <c r="J662" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K662">
+        <v>1.571</v>
+      </c>
+      <c r="L662">
+        <v>4</v>
+      </c>
+      <c r="M662">
+        <v>5.75</v>
+      </c>
+      <c r="N662">
         <v>1.85</v>
       </c>
-      <c r="L662">
-        <v>3.5</v>
-      </c>
-      <c r="M662">
+      <c r="O662">
+        <v>3.6</v>
+      </c>
+      <c r="P662">
         <v>4.2</v>
       </c>
-      <c r="N662">
-        <v>2.15</v>
-      </c>
-      <c r="O662">
-        <v>3.25</v>
-      </c>
-      <c r="P662">
-        <v>3.5</v>
-      </c>
       <c r="Q662">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R662">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S662">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="T662">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U662">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V662">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W662">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X662">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y662">
         <v>-1</v>
       </c>
       <c r="Z662">
-        <v>-0.5</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA662">
-        <v>0.54</v>
+        <v>-1</v>
       </c>
       <c r="AB662">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC662">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="663" spans="1:29">
@@ -59478,7 +59478,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5208162</v>
+        <v>5208163</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59490,76 +59490,76 @@
         <v>44805.65625</v>
       </c>
       <c r="F663" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G663" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H663">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I663">
         <v>1</v>
       </c>
       <c r="J663" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K663">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L663">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M663">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="N663">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O663">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P663">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q663">
+        <v>-0.25</v>
+      </c>
+      <c r="R663">
+        <v>1.82</v>
+      </c>
+      <c r="S663">
+        <v>2.08</v>
+      </c>
+      <c r="T663">
+        <v>2.5</v>
+      </c>
+      <c r="U663">
+        <v>1.95</v>
+      </c>
+      <c r="V663">
+        <v>1.95</v>
+      </c>
+      <c r="W663">
+        <v>-1</v>
+      </c>
+      <c r="X663">
+        <v>2.25</v>
+      </c>
+      <c r="Y663">
+        <v>-1</v>
+      </c>
+      <c r="Z663">
         <v>-0.5</v>
       </c>
-      <c r="R663">
-        <v>1.88</v>
-      </c>
-      <c r="S663">
-        <v>2.02</v>
-      </c>
-      <c r="T663">
-        <v>2.75</v>
-      </c>
-      <c r="U663">
-        <v>2.02</v>
-      </c>
-      <c r="V663">
-        <v>1.88</v>
-      </c>
-      <c r="W663">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X663">
-        <v>-1</v>
-      </c>
-      <c r="Y663">
-        <v>-1</v>
-      </c>
-      <c r="Z663">
-        <v>0.8799999999999999</v>
-      </c>
       <c r="AA663">
-        <v>-1</v>
+        <v>0.54</v>
       </c>
       <c r="AB663">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AC663">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -60190,7 +60190,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>5208178</v>
+        <v>5209955</v>
       </c>
       <c r="C671" t="s">
         <v>28</v>
@@ -60202,76 +60202,76 @@
         <v>44809.5625</v>
       </c>
       <c r="F671" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G671" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671">
         <v>2</v>
       </c>
       <c r="J671" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K671">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="L671">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M671">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N671">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O671">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P671">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q671">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R671">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S671">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="T671">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U671">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V671">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="W671">
         <v>-1</v>
       </c>
       <c r="X671">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y671">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z671">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA671">
-        <v>0.43</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB671">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC671">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="672" spans="1:29">
@@ -60279,7 +60279,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>5209955</v>
+        <v>5208178</v>
       </c>
       <c r="C672" t="s">
         <v>28</v>
@@ -60291,76 +60291,76 @@
         <v>44809.5625</v>
       </c>
       <c r="F672" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G672" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672">
         <v>2</v>
       </c>
       <c r="J672" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K672">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="L672">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M672">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N672">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O672">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P672">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q672">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R672">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S672">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="T672">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U672">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V672">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="W672">
         <v>-1</v>
       </c>
       <c r="X672">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y672">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z672">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA672">
-        <v>0.8799999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="AB672">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC672">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="673" spans="1:29">
@@ -69357,7 +69357,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>5208268</v>
+        <v>5208267</v>
       </c>
       <c r="C774" t="s">
         <v>28</v>
@@ -69369,10 +69369,10 @@
         <v>44930.35416666666</v>
       </c>
       <c r="F774" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G774" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H774">
         <v>1</v>
@@ -69384,40 +69384,40 @@
         <v>57</v>
       </c>
       <c r="K774">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="L774">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="M774">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N774">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="O774">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P774">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="Q774">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R774">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S774">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="T774">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U774">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="V774">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="W774">
         <v>-1</v>
@@ -69426,19 +69426,19 @@
         <v>-1</v>
       </c>
       <c r="Y774">
-        <v>4</v>
+        <v>0.363</v>
       </c>
       <c r="Z774">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA774">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB774">
-        <v>0.9099999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="AC774">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="775" spans="1:29">
@@ -69446,7 +69446,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>5208267</v>
+        <v>5208268</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69458,10 +69458,10 @@
         <v>44930.35416666666</v>
       </c>
       <c r="F775" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G775" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H775">
         <v>1</v>
@@ -69473,40 +69473,40 @@
         <v>57</v>
       </c>
       <c r="K775">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="L775">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="M775">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="N775">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="O775">
+        <v>3.8</v>
+      </c>
+      <c r="P775">
         <v>5</v>
       </c>
-      <c r="P775">
-        <v>1.363</v>
-      </c>
       <c r="Q775">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R775">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S775">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="T775">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U775">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V775">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W775">
         <v>-1</v>
@@ -69515,19 +69515,19 @@
         <v>-1</v>
       </c>
       <c r="Y775">
-        <v>0.363</v>
+        <v>4</v>
       </c>
       <c r="Z775">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA775">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB775">
-        <v>0.42</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC775">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="776" spans="1:29">
@@ -69713,7 +69713,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>5208265</v>
+        <v>5208266</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69725,58 +69725,58 @@
         <v>44930.52083333334</v>
       </c>
       <c r="F778" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G778" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I778">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J778" t="s">
         <v>56</v>
       </c>
       <c r="K778">
-        <v>4.1</v>
+        <v>1.55</v>
       </c>
       <c r="L778">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M778">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="N778">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="O778">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P778">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q778">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R778">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="S778">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="T778">
         <v>2.25</v>
       </c>
       <c r="U778">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V778">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W778">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X778">
         <v>-1</v>
@@ -69785,16 +69785,16 @@
         <v>-1</v>
       </c>
       <c r="Z778">
-        <v>1.08</v>
+        <v>0.485</v>
       </c>
       <c r="AA778">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB778">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC778">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -69802,7 +69802,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>5208266</v>
+        <v>5208265</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69814,58 +69814,58 @@
         <v>44930.52083333334</v>
       </c>
       <c r="F779" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G779" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H779">
+        <v>2</v>
+      </c>
+      <c r="I779">
         <v>1</v>
-      </c>
-      <c r="I779">
-        <v>0</v>
       </c>
       <c r="J779" t="s">
         <v>56</v>
       </c>
       <c r="K779">
-        <v>1.55</v>
+        <v>4.1</v>
       </c>
       <c r="L779">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M779">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="N779">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="O779">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P779">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q779">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R779">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="S779">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="T779">
         <v>2.25</v>
       </c>
       <c r="U779">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V779">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W779">
-        <v>0.6659999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="X779">
         <v>-1</v>
@@ -69874,16 +69874,16 @@
         <v>-1</v>
       </c>
       <c r="Z779">
-        <v>0.485</v>
+        <v>1.08</v>
       </c>
       <c r="AA779">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB779">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC779">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="780" spans="1:29">
@@ -69891,7 +69891,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>5209934</v>
+        <v>5209933</v>
       </c>
       <c r="C780" t="s">
         <v>28</v>
@@ -69903,76 +69903,76 @@
         <v>44930.60416666666</v>
       </c>
       <c r="F780" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G780" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I780">
         <v>1</v>
       </c>
       <c r="J780" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K780">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="L780">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M780">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="N780">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="O780">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P780">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q780">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R780">
+        <v>1.85</v>
+      </c>
+      <c r="S780">
         <v>2.05</v>
       </c>
-      <c r="S780">
-        <v>1.85</v>
-      </c>
       <c r="T780">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U780">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V780">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="W780">
         <v>-1</v>
       </c>
       <c r="X780">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y780">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z780">
         <v>-1</v>
       </c>
       <c r="AA780">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB780">
         <v>-1</v>
       </c>
       <c r="AC780">
-        <v>1.03</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="781" spans="1:29">
@@ -69980,7 +69980,7 @@
         <v>779</v>
       </c>
       <c r="B781">
-        <v>5209933</v>
+        <v>5209934</v>
       </c>
       <c r="C781" t="s">
         <v>28</v>
@@ -69992,76 +69992,76 @@
         <v>44930.60416666666</v>
       </c>
       <c r="F781" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G781" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I781">
         <v>1</v>
       </c>
       <c r="J781" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K781">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="L781">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M781">
+        <v>1.65</v>
+      </c>
+      <c r="N781">
         <v>4.75</v>
       </c>
-      <c r="N781">
-        <v>1.833</v>
-      </c>
       <c r="O781">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P781">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="Q781">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R781">
+        <v>2.05</v>
+      </c>
+      <c r="S781">
         <v>1.85</v>
       </c>
-      <c r="S781">
-        <v>2.05</v>
-      </c>
       <c r="T781">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U781">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V781">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="W781">
         <v>-1</v>
       </c>
       <c r="X781">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y781">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z781">
         <v>-1</v>
       </c>
       <c r="AA781">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB781">
         <v>-1</v>
       </c>
       <c r="AC781">
-        <v>0.95</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="782" spans="1:29">
@@ -70069,7 +70069,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>5208271</v>
+        <v>5208264</v>
       </c>
       <c r="C782" t="s">
         <v>28</v>
@@ -70081,76 +70081,76 @@
         <v>44930.69791666666</v>
       </c>
       <c r="F782" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G782" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H782">
         <v>1</v>
       </c>
       <c r="I782">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J782" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K782">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L782">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M782">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="N782">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O782">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P782">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q782">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R782">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="S782">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T782">
         <v>2.75</v>
       </c>
       <c r="U782">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V782">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W782">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X782">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y782">
         <v>-1</v>
       </c>
       <c r="Z782">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA782">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB782">
         <v>-1</v>
       </c>
       <c r="AC782">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="783" spans="1:29">
@@ -70158,7 +70158,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>5208264</v>
+        <v>5208271</v>
       </c>
       <c r="C783" t="s">
         <v>28</v>
@@ -70170,76 +70170,76 @@
         <v>44930.69791666666</v>
       </c>
       <c r="F783" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G783" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H783">
         <v>1</v>
       </c>
       <c r="I783">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J783" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K783">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L783">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M783">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="N783">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O783">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P783">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q783">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R783">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="S783">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T783">
         <v>2.75</v>
       </c>
       <c r="U783">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V783">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W783">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X783">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y783">
         <v>-1</v>
       </c>
       <c r="Z783">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA783">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB783">
         <v>-1</v>
       </c>
       <c r="AC783">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="784" spans="1:29">
@@ -81372,7 +81372,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>6462395</v>
+        <v>5209910</v>
       </c>
       <c r="C909" t="s">
         <v>28</v>
@@ -81384,55 +81384,55 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F909" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G909" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J909" t="s">
         <v>57</v>
       </c>
       <c r="K909">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L909">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M909">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N909">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O909">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P909">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q909">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R909">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S909">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T909">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U909">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="V909">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W909">
         <v>-1</v>
@@ -81441,19 +81441,19 @@
         <v>-1</v>
       </c>
       <c r="Y909">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z909">
         <v>-1</v>
       </c>
       <c r="AA909">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB909">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC909">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="910" spans="1:29">
@@ -81461,7 +81461,7 @@
         <v>908</v>
       </c>
       <c r="B910">
-        <v>5209910</v>
+        <v>6462395</v>
       </c>
       <c r="C910" t="s">
         <v>28</v>
@@ -81473,55 +81473,55 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F910" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G910" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H910">
+        <v>0</v>
+      </c>
+      <c r="I910">
         <v>2</v>
-      </c>
-      <c r="I910">
-        <v>3</v>
       </c>
       <c r="J910" t="s">
         <v>57</v>
       </c>
       <c r="K910">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L910">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M910">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N910">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O910">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P910">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q910">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R910">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S910">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T910">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U910">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="V910">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="W910">
         <v>-1</v>
@@ -81530,19 +81530,19 @@
         <v>-1</v>
       </c>
       <c r="Y910">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Z910">
         <v>-1</v>
       </c>
       <c r="AA910">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB910">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AC910">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:29">
@@ -84042,7 +84042,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>5499235</v>
+        <v>5505897</v>
       </c>
       <c r="C939" t="s">
         <v>28</v>
@@ -84054,76 +84054,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F939" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G939" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I939">
         <v>1</v>
       </c>
       <c r="J939" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K939">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="L939">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M939">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N939">
+        <v>3.2</v>
+      </c>
+      <c r="O939">
+        <v>3.1</v>
+      </c>
+      <c r="P939">
+        <v>2.375</v>
+      </c>
+      <c r="Q939">
+        <v>0.25</v>
+      </c>
+      <c r="R939">
+        <v>1.88</v>
+      </c>
+      <c r="S939">
+        <v>2.02</v>
+      </c>
+      <c r="T939">
+        <v>2.25</v>
+      </c>
+      <c r="U939">
         <v>2.1</v>
       </c>
-      <c r="O939">
-        <v>3.5</v>
-      </c>
-      <c r="P939">
-        <v>3.4</v>
-      </c>
-      <c r="Q939">
-        <v>-0.25</v>
-      </c>
-      <c r="R939">
-        <v>1.83</v>
-      </c>
-      <c r="S939">
-        <v>2.07</v>
-      </c>
-      <c r="T939">
-        <v>2.5</v>
-      </c>
-      <c r="U939">
-        <v>1.95</v>
-      </c>
       <c r="V939">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W939">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X939">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y939">
         <v>-1</v>
       </c>
       <c r="Z939">
-        <v>0.8300000000000001</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA939">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB939">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC939">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="940" spans="1:29">
@@ -84220,7 +84220,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>5505897</v>
+        <v>5499235</v>
       </c>
       <c r="C941" t="s">
         <v>28</v>
@@ -84232,76 +84232,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F941" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G941" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H941">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I941">
         <v>1</v>
       </c>
       <c r="J941" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K941">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="L941">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M941">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N941">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="O941">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P941">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q941">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R941">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S941">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="T941">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U941">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V941">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W941">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X941">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y941">
         <v>-1</v>
       </c>
       <c r="Z941">
-        <v>0.4399999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA941">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB941">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC941">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="942" spans="1:29">
@@ -84487,7 +84487,7 @@
         <v>942</v>
       </c>
       <c r="B944">
-        <v>5545303</v>
+        <v>5559355</v>
       </c>
       <c r="C944" t="s">
         <v>28</v>
@@ -84499,76 +84499,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F944" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G944" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H944">
+        <v>0</v>
+      </c>
+      <c r="I944">
         <v>2</v>
       </c>
-      <c r="I944">
-        <v>1</v>
-      </c>
       <c r="J944" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K944">
-        <v>1.55</v>
+        <v>3.8</v>
       </c>
       <c r="L944">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M944">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="N944">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="O944">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P944">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q944">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R944">
-        <v>2.11</v>
+        <v>1.83</v>
       </c>
       <c r="S944">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="T944">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U944">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="V944">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W944">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X944">
         <v>-1</v>
       </c>
       <c r="Y944">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z944">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA944">
-        <v>-0</v>
+        <v>1.07</v>
       </c>
       <c r="AB944">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC944">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="945" spans="1:29">
@@ -84576,7 +84576,7 @@
         <v>943</v>
       </c>
       <c r="B945">
-        <v>5559355</v>
+        <v>5545303</v>
       </c>
       <c r="C945" t="s">
         <v>28</v>
@@ -84588,76 +84588,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F945" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G945" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H945">
+        <v>2</v>
+      </c>
+      <c r="I945">
+        <v>1</v>
+      </c>
+      <c r="J945" t="s">
+        <v>56</v>
+      </c>
+      <c r="K945">
+        <v>1.55</v>
+      </c>
+      <c r="L945">
+        <v>4</v>
+      </c>
+      <c r="M945">
+        <v>6</v>
+      </c>
+      <c r="N945">
+        <v>1.55</v>
+      </c>
+      <c r="O945">
+        <v>3.8</v>
+      </c>
+      <c r="P945">
+        <v>6.5</v>
+      </c>
+      <c r="Q945">
+        <v>-1</v>
+      </c>
+      <c r="R945">
+        <v>2.11</v>
+      </c>
+      <c r="S945">
+        <v>1.82</v>
+      </c>
+      <c r="T945">
+        <v>2</v>
+      </c>
+      <c r="U945">
+        <v>1.9</v>
+      </c>
+      <c r="V945">
+        <v>2</v>
+      </c>
+      <c r="W945">
+        <v>0.55</v>
+      </c>
+      <c r="X945">
+        <v>-1</v>
+      </c>
+      <c r="Y945">
+        <v>-1</v>
+      </c>
+      <c r="Z945">
         <v>0</v>
       </c>
-      <c r="I945">
-        <v>2</v>
-      </c>
-      <c r="J945" t="s">
-        <v>57</v>
-      </c>
-      <c r="K945">
-        <v>3.8</v>
-      </c>
-      <c r="L945">
-        <v>3.3</v>
-      </c>
-      <c r="M945">
-        <v>1.95</v>
-      </c>
-      <c r="N945">
-        <v>4.75</v>
-      </c>
-      <c r="O945">
-        <v>3.5</v>
-      </c>
-      <c r="P945">
-        <v>1.8</v>
-      </c>
-      <c r="Q945">
-        <v>0.75</v>
-      </c>
-      <c r="R945">
-        <v>1.83</v>
-      </c>
-      <c r="S945">
-        <v>2.07</v>
-      </c>
-      <c r="T945">
-        <v>2.25</v>
-      </c>
-      <c r="U945">
-        <v>2.03</v>
-      </c>
-      <c r="V945">
-        <v>1.87</v>
-      </c>
-      <c r="W945">
-        <v>-1</v>
-      </c>
-      <c r="X945">
-        <v>-1</v>
-      </c>
-      <c r="Y945">
-        <v>0.8</v>
-      </c>
-      <c r="Z945">
-        <v>-1</v>
-      </c>
       <c r="AA945">
-        <v>1.07</v>
+        <v>-0</v>
       </c>
       <c r="AB945">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC945">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="946" spans="1:29">
@@ -84843,7 +84843,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>5535044</v>
+        <v>5554079</v>
       </c>
       <c r="C948" t="s">
         <v>28</v>
@@ -84855,49 +84855,49 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F948" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G948" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H948">
+        <v>1</v>
+      </c>
+      <c r="I948">
+        <v>1</v>
+      </c>
+      <c r="J948" t="s">
+        <v>58</v>
+      </c>
+      <c r="K948">
+        <v>3.8</v>
+      </c>
+      <c r="L948">
+        <v>3.2</v>
+      </c>
+      <c r="M948">
+        <v>2.05</v>
+      </c>
+      <c r="N948">
+        <v>4</v>
+      </c>
+      <c r="O948">
+        <v>3.2</v>
+      </c>
+      <c r="P948">
+        <v>2.05</v>
+      </c>
+      <c r="Q948">
+        <v>0.5</v>
+      </c>
+      <c r="R948">
+        <v>1.84</v>
+      </c>
+      <c r="S948">
+        <v>2.06</v>
+      </c>
+      <c r="T948">
         <v>2</v>
-      </c>
-      <c r="I948">
-        <v>0</v>
-      </c>
-      <c r="J948" t="s">
-        <v>56</v>
-      </c>
-      <c r="K948">
-        <v>1.7</v>
-      </c>
-      <c r="L948">
-        <v>3.75</v>
-      </c>
-      <c r="M948">
-        <v>5</v>
-      </c>
-      <c r="N948">
-        <v>1.666</v>
-      </c>
-      <c r="O948">
-        <v>4.2</v>
-      </c>
-      <c r="P948">
-        <v>5</v>
-      </c>
-      <c r="Q948">
-        <v>-0.75</v>
-      </c>
-      <c r="R948">
-        <v>1.87</v>
-      </c>
-      <c r="S948">
-        <v>2.03</v>
-      </c>
-      <c r="T948">
-        <v>2.75</v>
       </c>
       <c r="U948">
         <v>1.85</v>
@@ -84906,25 +84906,25 @@
         <v>2.05</v>
       </c>
       <c r="W948">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X948">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y948">
         <v>-1</v>
       </c>
       <c r="Z948">
-        <v>0.8700000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA948">
         <v>-1</v>
       </c>
       <c r="AB948">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC948">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="949" spans="1:29">
@@ -85021,7 +85021,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>5554079</v>
+        <v>5535044</v>
       </c>
       <c r="C950" t="s">
         <v>28</v>
@@ -85033,49 +85033,49 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F950" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G950" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H950">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I950">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J950" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K950">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="L950">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M950">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N950">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O950">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P950">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q950">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R950">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="S950">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="T950">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U950">
         <v>1.85</v>
@@ -85084,25 +85084,25 @@
         <v>2.05</v>
       </c>
       <c r="W950">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X950">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y950">
         <v>-1</v>
       </c>
       <c r="Z950">
-        <v>0.8400000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA950">
         <v>-1</v>
       </c>
       <c r="AB950">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC950">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="951" spans="1:29">
@@ -92853,7 +92853,7 @@
         <v>1036</v>
       </c>
       <c r="B1038">
-        <v>6868609</v>
+        <v>6868604</v>
       </c>
       <c r="C1038" t="s">
         <v>28</v>
@@ -92865,76 +92865,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F1038" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G1038" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H1038">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I1038">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1038" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K1038">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L1038">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M1038">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N1038">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O1038">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P1038">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q1038">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1038">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="S1038">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="T1038">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1038">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V1038">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W1038">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X1038">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1038">
         <v>-1</v>
       </c>
       <c r="Z1038">
-        <v>-0.5</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA1038">
-        <v>0.415</v>
+        <v>-1</v>
       </c>
       <c r="AB1038">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC1038">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1039" spans="1:29">
@@ -92942,7 +92942,7 @@
         <v>1037</v>
       </c>
       <c r="B1039">
-        <v>6868604</v>
+        <v>6868609</v>
       </c>
       <c r="C1039" t="s">
         <v>28</v>
@@ -92954,76 +92954,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F1039" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1039" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H1039">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I1039">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1039" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1039">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L1039">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M1039">
+        <v>3.5</v>
+      </c>
+      <c r="N1039">
         <v>2.4</v>
       </c>
-      <c r="N1039">
+      <c r="O1039">
+        <v>3.3</v>
+      </c>
+      <c r="P1039">
         <v>2.9</v>
       </c>
-      <c r="O1039">
-        <v>3.6</v>
-      </c>
-      <c r="P1039">
+      <c r="Q1039">
+        <v>-0.25</v>
+      </c>
+      <c r="R1039">
+        <v>2.07</v>
+      </c>
+      <c r="S1039">
+        <v>1.83</v>
+      </c>
+      <c r="T1039">
+        <v>2.25</v>
+      </c>
+      <c r="U1039">
+        <v>1.86</v>
+      </c>
+      <c r="V1039">
+        <v>2.04</v>
+      </c>
+      <c r="W1039">
+        <v>-1</v>
+      </c>
+      <c r="X1039">
         <v>2.3</v>
       </c>
-      <c r="Q1039">
-        <v>0.25</v>
-      </c>
-      <c r="R1039">
-        <v>1.86</v>
-      </c>
-      <c r="S1039">
-        <v>2.04</v>
-      </c>
-      <c r="T1039">
-        <v>2.75</v>
-      </c>
-      <c r="U1039">
-        <v>1.9</v>
-      </c>
-      <c r="V1039">
-        <v>2</v>
-      </c>
-      <c r="W1039">
-        <v>1.9</v>
-      </c>
-      <c r="X1039">
-        <v>-1</v>
-      </c>
       <c r="Y1039">
         <v>-1</v>
       </c>
       <c r="Z1039">
-        <v>0.8600000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1039">
-        <v>-1</v>
+        <v>0.415</v>
       </c>
       <c r="AB1039">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1039">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="1040" spans="1:29">
@@ -103978,7 +103978,7 @@
         <v>1161</v>
       </c>
       <c r="B1163">
-        <v>6868745</v>
+        <v>6868738</v>
       </c>
       <c r="C1163" t="s">
         <v>28</v>
@@ -103990,13 +103990,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F1163" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G1163" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H1163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1163">
         <v>2</v>
@@ -104005,40 +104005,40 @@
         <v>57</v>
       </c>
       <c r="K1163">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L1163">
         <v>3.4</v>
       </c>
       <c r="M1163">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="N1163">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O1163">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P1163">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q1163">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R1163">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="S1163">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="T1163">
         <v>2.25</v>
       </c>
       <c r="U1163">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V1163">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="W1163">
         <v>-1</v>
@@ -104047,19 +104047,19 @@
         <v>-1</v>
       </c>
       <c r="Y1163">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z1163">
         <v>-1</v>
       </c>
       <c r="AA1163">
-        <v>1.11</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB1163">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1163">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="1164" spans="1:29">
@@ -104067,7 +104067,7 @@
         <v>1162</v>
       </c>
       <c r="B1164">
-        <v>6868738</v>
+        <v>6868745</v>
       </c>
       <c r="C1164" t="s">
         <v>28</v>
@@ -104079,13 +104079,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F1164" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G1164" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1164">
         <v>2</v>
@@ -104094,40 +104094,40 @@
         <v>57</v>
       </c>
       <c r="K1164">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L1164">
         <v>3.4</v>
       </c>
       <c r="M1164">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="N1164">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O1164">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P1164">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q1164">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R1164">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="S1164">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="T1164">
         <v>2.25</v>
       </c>
       <c r="U1164">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V1164">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W1164">
         <v>-1</v>
@@ -104136,19 +104136,19 @@
         <v>-1</v>
       </c>
       <c r="Y1164">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z1164">
         <v>-1</v>
       </c>
       <c r="AA1164">
-        <v>0.9199999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AB1164">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="AC1164">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1165" spans="1:29">
@@ -104601,7 +104601,7 @@
         <v>1168</v>
       </c>
       <c r="B1170">
-        <v>6868740</v>
+        <v>6868741</v>
       </c>
       <c r="C1170" t="s">
         <v>28</v>
@@ -104613,10 +104613,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F1170" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G1170" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H1170">
         <v>2</v>
@@ -104628,43 +104628,43 @@
         <v>56</v>
       </c>
       <c r="K1170">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="L1170">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M1170">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="N1170">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O1170">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P1170">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="Q1170">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R1170">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="S1170">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="T1170">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1170">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V1170">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W1170">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X1170">
         <v>-1</v>
@@ -104673,16 +104673,16 @@
         <v>-1</v>
       </c>
       <c r="Z1170">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="AA1170">
         <v>-1</v>
       </c>
       <c r="AB1170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1170">
-        <v>0.475</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="1171" spans="1:29">
@@ -104690,7 +104690,7 @@
         <v>1169</v>
       </c>
       <c r="B1171">
-        <v>6868741</v>
+        <v>6868740</v>
       </c>
       <c r="C1171" t="s">
         <v>28</v>
@@ -104702,10 +104702,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F1171" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G1171" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H1171">
         <v>2</v>
@@ -104717,43 +104717,43 @@
         <v>56</v>
       </c>
       <c r="K1171">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="L1171">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M1171">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="N1171">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O1171">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P1171">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q1171">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1171">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S1171">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T1171">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1171">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V1171">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W1171">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X1171">
         <v>-1</v>
@@ -104762,16 +104762,16 @@
         <v>-1</v>
       </c>
       <c r="Z1171">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="AA1171">
         <v>-1</v>
       </c>
       <c r="AB1171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1171">
-        <v>1.04</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="1172" spans="1:29">
@@ -109217,10 +109217,10 @@
         <v>2.5</v>
       </c>
       <c r="U1222">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="V1222">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W1222">
         <v>0</v>
@@ -109504,19 +109504,19 @@
         <v>-0.5</v>
       </c>
       <c r="R1226">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S1226">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="T1226">
         <v>2.25</v>
       </c>
       <c r="U1226">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="V1226">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W1226">
         <v>0</v>
@@ -109578,19 +109578,19 @@
         <v>-1</v>
       </c>
       <c r="R1227">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S1227">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T1227">
         <v>2.5</v>
       </c>
       <c r="U1227">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="V1227">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="W1227">
         <v>0</v>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -70069,7 +70069,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>5208264</v>
+        <v>5208271</v>
       </c>
       <c r="C782" t="s">
         <v>28</v>
@@ -70081,76 +70081,76 @@
         <v>44930.69791666666</v>
       </c>
       <c r="F782" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G782" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H782">
         <v>1</v>
       </c>
       <c r="I782">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J782" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K782">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L782">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M782">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="N782">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O782">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P782">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q782">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R782">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="S782">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T782">
         <v>2.75</v>
       </c>
       <c r="U782">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V782">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W782">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X782">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y782">
         <v>-1</v>
       </c>
       <c r="Z782">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA782">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB782">
         <v>-1</v>
       </c>
       <c r="AC782">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="783" spans="1:29">
@@ -70158,7 +70158,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>5208271</v>
+        <v>5208264</v>
       </c>
       <c r="C783" t="s">
         <v>28</v>
@@ -70170,76 +70170,76 @@
         <v>44930.69791666666</v>
       </c>
       <c r="F783" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G783" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H783">
         <v>1</v>
       </c>
       <c r="I783">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J783" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K783">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L783">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M783">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="N783">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O783">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P783">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q783">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R783">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="S783">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T783">
         <v>2.75</v>
       </c>
       <c r="U783">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V783">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W783">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X783">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y783">
         <v>-1</v>
       </c>
       <c r="Z783">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA783">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB783">
         <v>-1</v>
       </c>
       <c r="AC783">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="784" spans="1:29">
@@ -84042,7 +84042,7 @@
         <v>937</v>
       </c>
       <c r="B939">
-        <v>5505897</v>
+        <v>5499235</v>
       </c>
       <c r="C939" t="s">
         <v>28</v>
@@ -84054,76 +84054,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F939" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G939" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H939">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I939">
         <v>1</v>
       </c>
       <c r="J939" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K939">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="L939">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M939">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N939">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="O939">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P939">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q939">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R939">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S939">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="T939">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U939">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V939">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W939">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X939">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y939">
         <v>-1</v>
       </c>
       <c r="Z939">
-        <v>0.4399999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA939">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB939">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC939">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="940" spans="1:29">
@@ -84131,7 +84131,7 @@
         <v>938</v>
       </c>
       <c r="B940">
-        <v>5499736</v>
+        <v>5505897</v>
       </c>
       <c r="C940" t="s">
         <v>28</v>
@@ -84143,10 +84143,10 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F940" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G940" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H940">
         <v>1</v>
@@ -84158,61 +84158,61 @@
         <v>58</v>
       </c>
       <c r="K940">
-        <v>1.222</v>
+        <v>2.625</v>
       </c>
       <c r="L940">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M940">
-        <v>11</v>
+        <v>2.625</v>
       </c>
       <c r="N940">
-        <v>1.181</v>
+        <v>3.2</v>
       </c>
       <c r="O940">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="P940">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q940">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R940">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="S940">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="T940">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U940">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V940">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W940">
         <v>-1</v>
       </c>
       <c r="X940">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Y940">
         <v>-1</v>
       </c>
       <c r="Z940">
-        <v>-1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA940">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB940">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC940">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="941" spans="1:29">
@@ -84220,7 +84220,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>5499235</v>
+        <v>5499736</v>
       </c>
       <c r="C941" t="s">
         <v>28</v>
@@ -84232,76 +84232,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F941" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G941" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I941">
         <v>1</v>
       </c>
       <c r="J941" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K941">
-        <v>1.75</v>
+        <v>1.222</v>
       </c>
       <c r="L941">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M941">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="N941">
-        <v>2.1</v>
+        <v>1.181</v>
       </c>
       <c r="O941">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P941">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="Q941">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R941">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S941">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="T941">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U941">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V941">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W941">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X941">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y941">
         <v>-1</v>
       </c>
       <c r="Z941">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA941">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB941">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC941">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="942" spans="1:29">
@@ -84932,7 +84932,7 @@
         <v>947</v>
       </c>
       <c r="B949">
-        <v>5545302</v>
+        <v>5535044</v>
       </c>
       <c r="C949" t="s">
         <v>28</v>
@@ -84944,76 +84944,76 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F949" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G949" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H949">
+        <v>2</v>
+      </c>
+      <c r="I949">
         <v>0</v>
       </c>
-      <c r="I949">
-        <v>6</v>
-      </c>
       <c r="J949" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K949">
+        <v>1.7</v>
+      </c>
+      <c r="L949">
+        <v>3.75</v>
+      </c>
+      <c r="M949">
         <v>5</v>
       </c>
-      <c r="L949">
-        <v>3.6</v>
-      </c>
-      <c r="M949">
-        <v>1.7</v>
-      </c>
       <c r="N949">
-        <v>5.75</v>
+        <v>1.666</v>
       </c>
       <c r="O949">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P949">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q949">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R949">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="S949">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="T949">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U949">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="V949">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="W949">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X949">
         <v>-1</v>
       </c>
       <c r="Y949">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z949">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA949">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AB949">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC949">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="950" spans="1:29">
@@ -85021,7 +85021,7 @@
         <v>948</v>
       </c>
       <c r="B950">
-        <v>5535044</v>
+        <v>5545302</v>
       </c>
       <c r="C950" t="s">
         <v>28</v>
@@ -85033,76 +85033,76 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F950" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G950" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J950" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K950">
+        <v>5</v>
+      </c>
+      <c r="L950">
+        <v>3.6</v>
+      </c>
+      <c r="M950">
         <v>1.7</v>
       </c>
-      <c r="L950">
-        <v>3.75</v>
-      </c>
-      <c r="M950">
-        <v>5</v>
-      </c>
       <c r="N950">
-        <v>1.666</v>
+        <v>5.75</v>
       </c>
       <c r="O950">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P950">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="Q950">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R950">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="S950">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="T950">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U950">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V950">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W950">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X950">
         <v>-1</v>
       </c>
       <c r="Y950">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z950">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA950">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AB950">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC950">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="951" spans="1:29">
@@ -85199,7 +85199,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>5545301</v>
+        <v>5559356</v>
       </c>
       <c r="C952" t="s">
         <v>28</v>
@@ -85211,76 +85211,76 @@
         <v>45050.65625</v>
       </c>
       <c r="F952" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G952" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H952">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I952">
         <v>1</v>
       </c>
       <c r="J952" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K952">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="L952">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M952">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N952">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="O952">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P952">
+        <v>1.6</v>
+      </c>
+      <c r="Q952">
+        <v>0.75</v>
+      </c>
+      <c r="R952">
+        <v>2.09</v>
+      </c>
+      <c r="S952">
+        <v>1.81</v>
+      </c>
+      <c r="T952">
+        <v>2.5</v>
+      </c>
+      <c r="U952">
+        <v>1.95</v>
+      </c>
+      <c r="V952">
+        <v>1.95</v>
+      </c>
+      <c r="W952">
+        <v>-1</v>
+      </c>
+      <c r="X952">
         <v>2.8</v>
       </c>
-      <c r="Q952">
-        <v>0</v>
-      </c>
-      <c r="R952">
-        <v>1.95</v>
-      </c>
-      <c r="S952">
-        <v>1.95</v>
-      </c>
-      <c r="T952">
-        <v>2.25</v>
-      </c>
-      <c r="U952">
-        <v>2.04</v>
-      </c>
-      <c r="V952">
-        <v>1.86</v>
-      </c>
-      <c r="W952">
-        <v>1.75</v>
-      </c>
-      <c r="X952">
-        <v>-1</v>
-      </c>
       <c r="Y952">
         <v>-1</v>
       </c>
       <c r="Z952">
+        <v>1.09</v>
+      </c>
+      <c r="AA952">
+        <v>-1</v>
+      </c>
+      <c r="AB952">
+        <v>-1</v>
+      </c>
+      <c r="AC952">
         <v>0.95</v>
-      </c>
-      <c r="AA952">
-        <v>-1</v>
-      </c>
-      <c r="AB952">
-        <v>1.04</v>
-      </c>
-      <c r="AC952">
-        <v>-1</v>
       </c>
     </row>
     <row r="953" spans="1:29">
@@ -85288,7 +85288,7 @@
         <v>951</v>
       </c>
       <c r="B953">
-        <v>5559356</v>
+        <v>5545301</v>
       </c>
       <c r="C953" t="s">
         <v>28</v>
@@ -85300,76 +85300,76 @@
         <v>45050.65625</v>
       </c>
       <c r="F953" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G953" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H953">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I953">
         <v>1</v>
       </c>
       <c r="J953" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K953">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="L953">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M953">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N953">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="O953">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P953">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q953">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R953">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="S953">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="T953">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U953">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V953">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W953">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X953">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y953">
         <v>-1</v>
       </c>
       <c r="Z953">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="AA953">
         <v>-1</v>
       </c>
       <c r="AB953">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC953">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="954" spans="1:29">
@@ -92853,7 +92853,7 @@
         <v>1036</v>
       </c>
       <c r="B1038">
-        <v>6868604</v>
+        <v>6868609</v>
       </c>
       <c r="C1038" t="s">
         <v>28</v>
@@ -92865,76 +92865,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F1038" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1038" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H1038">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I1038">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1038" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1038">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L1038">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M1038">
+        <v>3.5</v>
+      </c>
+      <c r="N1038">
         <v>2.4</v>
       </c>
-      <c r="N1038">
+      <c r="O1038">
+        <v>3.3</v>
+      </c>
+      <c r="P1038">
         <v>2.9</v>
       </c>
-      <c r="O1038">
-        <v>3.6</v>
-      </c>
-      <c r="P1038">
+      <c r="Q1038">
+        <v>-0.25</v>
+      </c>
+      <c r="R1038">
+        <v>2.07</v>
+      </c>
+      <c r="S1038">
+        <v>1.83</v>
+      </c>
+      <c r="T1038">
+        <v>2.25</v>
+      </c>
+      <c r="U1038">
+        <v>1.86</v>
+      </c>
+      <c r="V1038">
+        <v>2.04</v>
+      </c>
+      <c r="W1038">
+        <v>-1</v>
+      </c>
+      <c r="X1038">
         <v>2.3</v>
       </c>
-      <c r="Q1038">
-        <v>0.25</v>
-      </c>
-      <c r="R1038">
-        <v>1.86</v>
-      </c>
-      <c r="S1038">
-        <v>2.04</v>
-      </c>
-      <c r="T1038">
-        <v>2.75</v>
-      </c>
-      <c r="U1038">
-        <v>1.9</v>
-      </c>
-      <c r="V1038">
-        <v>2</v>
-      </c>
-      <c r="W1038">
-        <v>1.9</v>
-      </c>
-      <c r="X1038">
-        <v>-1</v>
-      </c>
       <c r="Y1038">
         <v>-1</v>
       </c>
       <c r="Z1038">
-        <v>0.8600000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1038">
-        <v>-1</v>
+        <v>0.415</v>
       </c>
       <c r="AB1038">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1038">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="1039" spans="1:29">
@@ -92942,7 +92942,7 @@
         <v>1037</v>
       </c>
       <c r="B1039">
-        <v>6868609</v>
+        <v>6868604</v>
       </c>
       <c r="C1039" t="s">
         <v>28</v>
@@ -92954,76 +92954,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F1039" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G1039" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H1039">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I1039">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1039" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K1039">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L1039">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M1039">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N1039">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O1039">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P1039">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q1039">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1039">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="S1039">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="T1039">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1039">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V1039">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W1039">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X1039">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1039">
         <v>-1</v>
       </c>
       <c r="Z1039">
-        <v>-0.5</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA1039">
-        <v>0.415</v>
+        <v>-1</v>
       </c>
       <c r="AB1039">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC1039">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1040" spans="1:29">
@@ -93921,7 +93921,7 @@
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>6868612</v>
+        <v>6868621</v>
       </c>
       <c r="C1050" t="s">
         <v>28</v>
@@ -93933,76 +93933,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F1050" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G1050" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1050">
+        <v>0</v>
+      </c>
+      <c r="I1050">
         <v>2</v>
       </c>
-      <c r="I1050">
-        <v>0</v>
-      </c>
       <c r="J1050" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1050">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="L1050">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M1050">
-        <v>10</v>
+        <v>2.25</v>
       </c>
       <c r="N1050">
-        <v>1.444</v>
+        <v>3.2</v>
       </c>
       <c r="O1050">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P1050">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q1050">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R1050">
+        <v>1.89</v>
+      </c>
+      <c r="S1050">
         <v>2.01</v>
       </c>
-      <c r="S1050">
-        <v>1.89</v>
-      </c>
       <c r="T1050">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1050">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="V1050">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="W1050">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X1050">
         <v>-1</v>
       </c>
       <c r="Y1050">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z1050">
+        <v>-1</v>
+      </c>
+      <c r="AA1050">
         <v>1.01</v>
       </c>
-      <c r="AA1050">
-        <v>-1</v>
-      </c>
       <c r="AB1050">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1050">
-        <v>0.9299999999999999</v>
+        <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="1051" spans="1:29">
@@ -94010,7 +94010,7 @@
         <v>1049</v>
       </c>
       <c r="B1051">
-        <v>6868621</v>
+        <v>6868612</v>
       </c>
       <c r="C1051" t="s">
         <v>28</v>
@@ -94022,76 +94022,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F1051" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G1051" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1051">
+        <v>2</v>
+      </c>
+      <c r="I1051">
         <v>0</v>
       </c>
-      <c r="I1051">
-        <v>2</v>
-      </c>
       <c r="J1051" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1051">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="L1051">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M1051">
-        <v>2.25</v>
+        <v>10</v>
       </c>
       <c r="N1051">
-        <v>3.2</v>
+        <v>1.444</v>
       </c>
       <c r="O1051">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P1051">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q1051">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R1051">
+        <v>2.01</v>
+      </c>
+      <c r="S1051">
         <v>1.89</v>
       </c>
-      <c r="S1051">
-        <v>2.01</v>
-      </c>
       <c r="T1051">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1051">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V1051">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W1051">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X1051">
         <v>-1</v>
       </c>
       <c r="Y1051">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z1051">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AA1051">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB1051">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1051">
-        <v>0.5149999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="1052" spans="1:29">
@@ -94633,7 +94633,7 @@
         <v>1056</v>
       </c>
       <c r="B1058">
-        <v>6868627</v>
+        <v>6868629</v>
       </c>
       <c r="C1058" t="s">
         <v>28</v>
@@ -94645,76 +94645,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F1058" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G1058" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H1058">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1058">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1058" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1058">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="L1058">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M1058">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="N1058">
+        <v>2.25</v>
+      </c>
+      <c r="O1058">
+        <v>3.2</v>
+      </c>
+      <c r="P1058">
+        <v>3.4</v>
+      </c>
+      <c r="Q1058">
+        <v>-0.25</v>
+      </c>
+      <c r="R1058">
+        <v>1.97</v>
+      </c>
+      <c r="S1058">
+        <v>1.93</v>
+      </c>
+      <c r="T1058">
+        <v>2.25</v>
+      </c>
+      <c r="U1058">
+        <v>2.05</v>
+      </c>
+      <c r="V1058">
+        <v>1.85</v>
+      </c>
+      <c r="W1058">
         <v>1.25</v>
       </c>
-      <c r="O1058">
-        <v>6.5</v>
-      </c>
-      <c r="P1058">
-        <v>8.5</v>
-      </c>
-      <c r="Q1058">
-        <v>-1.75</v>
-      </c>
-      <c r="R1058">
-        <v>1.89</v>
-      </c>
-      <c r="S1058">
-        <v>2.01</v>
-      </c>
-      <c r="T1058">
-        <v>3.75</v>
-      </c>
-      <c r="U1058">
-        <v>1.85</v>
-      </c>
-      <c r="V1058">
-        <v>2.05</v>
-      </c>
-      <c r="W1058">
-        <v>-1</v>
-      </c>
       <c r="X1058">
         <v>-1</v>
       </c>
       <c r="Y1058">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1058">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA1058">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB1058">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1058">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="1059" spans="1:29">
@@ -94722,7 +94722,7 @@
         <v>1057</v>
       </c>
       <c r="B1059">
-        <v>6868631</v>
+        <v>6868627</v>
       </c>
       <c r="C1059" t="s">
         <v>28</v>
@@ -94734,76 +94734,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F1059" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G1059" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H1059">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I1059">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1059" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1059">
         <v>1.333</v>
       </c>
       <c r="L1059">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M1059">
+        <v>7.5</v>
+      </c>
+      <c r="N1059">
+        <v>1.25</v>
+      </c>
+      <c r="O1059">
+        <v>6.5</v>
+      </c>
+      <c r="P1059">
         <v>8.5</v>
       </c>
-      <c r="N1059">
-        <v>1.4</v>
-      </c>
-      <c r="O1059">
-        <v>5</v>
-      </c>
-      <c r="P1059">
-        <v>7</v>
-      </c>
       <c r="Q1059">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R1059">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="S1059">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="T1059">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U1059">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="V1059">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W1059">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X1059">
         <v>-1</v>
       </c>
       <c r="Y1059">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z1059">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1059">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB1059">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AC1059">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1060" spans="1:29">
@@ -94811,7 +94811,7 @@
         <v>1058</v>
       </c>
       <c r="B1060">
-        <v>6868629</v>
+        <v>6868631</v>
       </c>
       <c r="C1060" t="s">
         <v>28</v>
@@ -94823,58 +94823,58 @@
         <v>45196.65625</v>
       </c>
       <c r="F1060" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G1060" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H1060">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I1060">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1060" t="s">
         <v>56</v>
       </c>
       <c r="K1060">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="L1060">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M1060">
-        <v>4.333</v>
+        <v>8.5</v>
       </c>
       <c r="N1060">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O1060">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P1060">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q1060">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R1060">
+        <v>1.93</v>
+      </c>
+      <c r="S1060">
         <v>1.97</v>
       </c>
-      <c r="S1060">
-        <v>1.93</v>
-      </c>
       <c r="T1060">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U1060">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="V1060">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="W1060">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X1060">
         <v>-1</v>
@@ -94883,16 +94883,16 @@
         <v>-1</v>
       </c>
       <c r="Z1060">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA1060">
         <v>-1</v>
       </c>
       <c r="AB1060">
-        <v>-0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AC1060">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1061" spans="1:29">
@@ -103978,7 +103978,7 @@
         <v>1161</v>
       </c>
       <c r="B1163">
-        <v>6868738</v>
+        <v>6868745</v>
       </c>
       <c r="C1163" t="s">
         <v>28</v>
@@ -103990,13 +103990,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F1163" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G1163" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1163">
         <v>2</v>
@@ -104005,40 +104005,40 @@
         <v>57</v>
       </c>
       <c r="K1163">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L1163">
         <v>3.4</v>
       </c>
       <c r="M1163">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="N1163">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O1163">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P1163">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q1163">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R1163">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="S1163">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="T1163">
         <v>2.25</v>
       </c>
       <c r="U1163">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V1163">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W1163">
         <v>-1</v>
@@ -104047,19 +104047,19 @@
         <v>-1</v>
       </c>
       <c r="Y1163">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z1163">
         <v>-1</v>
       </c>
       <c r="AA1163">
-        <v>0.9199999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AB1163">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="AC1163">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1164" spans="1:29">
@@ -104067,7 +104067,7 @@
         <v>1162</v>
       </c>
       <c r="B1164">
-        <v>6868745</v>
+        <v>6868738</v>
       </c>
       <c r="C1164" t="s">
         <v>28</v>
@@ -104079,13 +104079,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F1164" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G1164" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H1164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1164">
         <v>2</v>
@@ -104094,40 +104094,40 @@
         <v>57</v>
       </c>
       <c r="K1164">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L1164">
         <v>3.4</v>
       </c>
       <c r="M1164">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="N1164">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O1164">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P1164">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q1164">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R1164">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="S1164">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="T1164">
         <v>2.25</v>
       </c>
       <c r="U1164">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V1164">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="W1164">
         <v>-1</v>
@@ -104136,19 +104136,19 @@
         <v>-1</v>
       </c>
       <c r="Y1164">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z1164">
         <v>-1</v>
       </c>
       <c r="AA1164">
-        <v>1.11</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB1164">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1164">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="1165" spans="1:29">
@@ -104156,7 +104156,7 @@
         <v>1163</v>
       </c>
       <c r="B1165">
-        <v>6868742</v>
+        <v>6868744</v>
       </c>
       <c r="C1165" t="s">
         <v>28</v>
@@ -104168,76 +104168,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F1165" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G1165" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1165">
+        <v>2</v>
+      </c>
+      <c r="J1165" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1165">
+        <v>5.75</v>
+      </c>
+      <c r="L1165">
+        <v>4</v>
+      </c>
+      <c r="M1165">
+        <v>1.533</v>
+      </c>
+      <c r="N1165">
+        <v>6.5</v>
+      </c>
+      <c r="O1165">
+        <v>4</v>
+      </c>
+      <c r="P1165">
+        <v>1.5</v>
+      </c>
+      <c r="Q1165">
         <v>1</v>
       </c>
-      <c r="J1165" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1165">
-        <v>2.8</v>
-      </c>
-      <c r="L1165">
-        <v>3.5</v>
-      </c>
-      <c r="M1165">
-        <v>2.375</v>
-      </c>
-      <c r="N1165">
-        <v>2.8</v>
-      </c>
-      <c r="O1165">
-        <v>3.25</v>
-      </c>
-      <c r="P1165">
-        <v>2.6</v>
-      </c>
-      <c r="Q1165">
-        <v>0</v>
-      </c>
       <c r="R1165">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S1165">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T1165">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1165">
-        <v>2.025</v>
+        <v>1.89</v>
       </c>
       <c r="V1165">
-        <v>1.775</v>
+        <v>2.01</v>
       </c>
       <c r="W1165">
         <v>-1</v>
       </c>
       <c r="X1165">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y1165">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z1165">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA1165">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB1165">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC1165">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1166" spans="1:29">
@@ -104245,7 +104245,7 @@
         <v>1164</v>
       </c>
       <c r="B1166">
-        <v>6868744</v>
+        <v>6868742</v>
       </c>
       <c r="C1166" t="s">
         <v>28</v>
@@ -104257,76 +104257,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F1166" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1166" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H1166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1166" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1166">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="L1166">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M1166">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N1166">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O1166">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P1166">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q1166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1166">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="S1166">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T1166">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1166">
-        <v>1.89</v>
+        <v>2.025</v>
       </c>
       <c r="V1166">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="W1166">
         <v>-1</v>
       </c>
       <c r="X1166">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y1166">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z1166">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA1166">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB1166">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC1166">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="1167" spans="1:29">
@@ -106648,7 +106648,7 @@
         <v>1191</v>
       </c>
       <c r="B1193">
-        <v>6868770</v>
+        <v>6868776</v>
       </c>
       <c r="C1193" t="s">
         <v>28</v>
@@ -106660,76 +106660,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F1193" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G1193" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1193" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K1193">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="L1193">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M1193">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="N1193">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O1193">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="P1193">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q1193">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R1193">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="S1193">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="T1193">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U1193">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V1193">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W1193">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X1193">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y1193">
         <v>-1</v>
       </c>
       <c r="Z1193">
-        <v>0.385</v>
+        <v>-1</v>
       </c>
       <c r="AA1193">
+        <v>0.97</v>
+      </c>
+      <c r="AB1193">
+        <v>0.46</v>
+      </c>
+      <c r="AC1193">
         <v>-0.5</v>
-      </c>
-      <c r="AB1193">
-        <v>-1</v>
-      </c>
-      <c r="AC1193">
-        <v>1.05</v>
       </c>
     </row>
     <row r="1194" spans="1:29">
@@ -106737,7 +106737,7 @@
         <v>1192</v>
       </c>
       <c r="B1194">
-        <v>6868776</v>
+        <v>6868770</v>
       </c>
       <c r="C1194" t="s">
         <v>28</v>
@@ -106749,76 +106749,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F1194" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G1194" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H1194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1194" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1194">
-        <v>1.285</v>
+        <v>2.625</v>
       </c>
       <c r="L1194">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M1194">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="N1194">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="O1194">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P1194">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q1194">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R1194">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="S1194">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="T1194">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U1194">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="V1194">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="W1194">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X1194">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y1194">
         <v>-1</v>
       </c>
       <c r="Z1194">
-        <v>-1</v>
+        <v>0.385</v>
       </c>
       <c r="AA1194">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1194">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AC1194">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1195" spans="1:29">
@@ -108517,7 +108517,7 @@
         <v>1212</v>
       </c>
       <c r="B1214">
-        <v>6868795</v>
+        <v>6868791</v>
       </c>
       <c r="C1214" t="s">
         <v>28</v>
@@ -108529,76 +108529,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F1214" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G1214" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H1214">
         <v>1</v>
       </c>
       <c r="I1214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1214" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1214">
+        <v>2.1</v>
+      </c>
+      <c r="L1214">
+        <v>3.25</v>
+      </c>
+      <c r="M1214">
+        <v>3.7</v>
+      </c>
+      <c r="N1214">
         <v>2.15</v>
-      </c>
-      <c r="L1214">
-        <v>3.4</v>
-      </c>
-      <c r="M1214">
-        <v>3.4</v>
-      </c>
-      <c r="N1214">
-        <v>2.2</v>
       </c>
       <c r="O1214">
         <v>3.3</v>
       </c>
       <c r="P1214">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q1214">
         <v>-0.25</v>
       </c>
       <c r="R1214">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S1214">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T1214">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1214">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="V1214">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W1214">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X1214">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y1214">
         <v>-1</v>
       </c>
       <c r="Z1214">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1214">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AB1214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1214">
-        <v>0.9099999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1215" spans="1:29">
@@ -108606,7 +108606,7 @@
         <v>1213</v>
       </c>
       <c r="B1215">
-        <v>6868791</v>
+        <v>6868795</v>
       </c>
       <c r="C1215" t="s">
         <v>28</v>
@@ -108618,76 +108618,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F1215" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G1215" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H1215">
         <v>1</v>
       </c>
       <c r="I1215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1215" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K1215">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L1215">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M1215">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="N1215">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O1215">
         <v>3.3</v>
       </c>
       <c r="P1215">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q1215">
         <v>-0.25</v>
       </c>
       <c r="R1215">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S1215">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="T1215">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1215">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="V1215">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W1215">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X1215">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1215">
         <v>-1</v>
       </c>
       <c r="Z1215">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA1215">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AB1215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1215">
-        <v>0.5</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="1216" spans="1:29">
@@ -108947,7 +108947,7 @@
         <v>1217</v>
       </c>
       <c r="B1219">
-        <v>6868799</v>
+        <v>6868806</v>
       </c>
       <c r="C1219" t="s">
         <v>28</v>
@@ -108959,46 +108959,46 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F1219" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G1219" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K1219">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L1219">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M1219">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N1219">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="O1219">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P1219">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q1219">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1219">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="S1219">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="T1219">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U1219">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="V1219">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W1219">
         <v>0</v>
@@ -109021,7 +109021,7 @@
         <v>1218</v>
       </c>
       <c r="B1220">
-        <v>6868806</v>
+        <v>6868799</v>
       </c>
       <c r="C1220" t="s">
         <v>28</v>
@@ -109033,46 +109033,46 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F1220" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1220" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="K1220">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L1220">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M1220">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N1220">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="O1220">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P1220">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q1220">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1220">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="S1220">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="T1220">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U1220">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="V1220">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W1220">
         <v>0</v>
@@ -109356,10 +109356,10 @@
         <v>-1.25</v>
       </c>
       <c r="R1224">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="S1224">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="T1224">
         <v>2.5</v>
@@ -109578,19 +109578,19 @@
         <v>-1</v>
       </c>
       <c r="R1227">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S1227">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="T1227">
         <v>2.5</v>
       </c>
       <c r="U1227">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V1227">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W1227">
         <v>0</v>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -56007,7 +56007,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>5207132</v>
+        <v>5221871</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -56019,76 +56019,76 @@
         <v>44786.5625</v>
       </c>
       <c r="F624" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G624" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I624">
         <v>2</v>
       </c>
       <c r="J624" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K624">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L624">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M624">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N624">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O624">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P624">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="Q624">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R624">
-        <v>2.07</v>
+        <v>1.775</v>
       </c>
       <c r="S624">
-        <v>1.83</v>
+        <v>2.025</v>
       </c>
       <c r="T624">
         <v>2.75</v>
       </c>
       <c r="U624">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V624">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W624">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X624">
         <v>-1</v>
       </c>
       <c r="Y624">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z624">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA624">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB624">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC624">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="625" spans="1:29">
@@ -56096,7 +56096,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>5221871</v>
+        <v>5207132</v>
       </c>
       <c r="C625" t="s">
         <v>28</v>
@@ -56108,76 +56108,76 @@
         <v>44786.5625</v>
       </c>
       <c r="F625" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G625" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H625">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I625">
         <v>2</v>
       </c>
       <c r="J625" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K625">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="L625">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M625">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N625">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O625">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P625">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q625">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R625">
-        <v>1.775</v>
+        <v>2.07</v>
       </c>
       <c r="S625">
-        <v>2.025</v>
+        <v>1.83</v>
       </c>
       <c r="T625">
         <v>2.75</v>
       </c>
       <c r="U625">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V625">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W625">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X625">
         <v>-1</v>
       </c>
       <c r="Y625">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z625">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA625">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB625">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC625">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="626" spans="1:29">
@@ -56541,7 +56541,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>5207131</v>
+        <v>5207133</v>
       </c>
       <c r="C630" t="s">
         <v>28</v>
@@ -56553,76 +56553,76 @@
         <v>44787.65625</v>
       </c>
       <c r="F630" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G630" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H630">
+        <v>1</v>
+      </c>
+      <c r="I630">
         <v>0</v>
       </c>
-      <c r="I630">
-        <v>1</v>
-      </c>
       <c r="J630" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K630">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="L630">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M630">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="N630">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="O630">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P630">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q630">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R630">
-        <v>2.06</v>
+        <v>2.125</v>
       </c>
       <c r="S630">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="T630">
         <v>2.75</v>
       </c>
       <c r="U630">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="V630">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W630">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X630">
         <v>-1</v>
       </c>
       <c r="Y630">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z630">
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="AA630">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB630">
         <v>-1</v>
       </c>
       <c r="AC630">
-        <v>0.9099999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="631" spans="1:29">
@@ -56630,7 +56630,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>5207133</v>
+        <v>5207131</v>
       </c>
       <c r="C631" t="s">
         <v>28</v>
@@ -56642,76 +56642,76 @@
         <v>44787.65625</v>
       </c>
       <c r="F631" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G631" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H631">
+        <v>0</v>
+      </c>
+      <c r="I631">
         <v>1</v>
       </c>
-      <c r="I631">
-        <v>0</v>
-      </c>
       <c r="J631" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K631">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="L631">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M631">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="N631">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="O631">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P631">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="Q631">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R631">
-        <v>2.125</v>
+        <v>2.06</v>
       </c>
       <c r="S631">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="T631">
         <v>2.75</v>
       </c>
       <c r="U631">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="V631">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W631">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X631">
         <v>-1</v>
       </c>
       <c r="Y631">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z631">
-        <v>1.125</v>
+        <v>0</v>
       </c>
       <c r="AA631">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB631">
         <v>-1</v>
       </c>
       <c r="AC631">
-        <v>0.8700000000000001</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="632" spans="1:29">
@@ -60190,7 +60190,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>5209955</v>
+        <v>5208178</v>
       </c>
       <c r="C671" t="s">
         <v>28</v>
@@ -60202,76 +60202,76 @@
         <v>44809.5625</v>
       </c>
       <c r="F671" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G671" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671">
         <v>2</v>
       </c>
       <c r="J671" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K671">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="L671">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M671">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N671">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O671">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P671">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q671">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R671">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S671">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="T671">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U671">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V671">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="W671">
         <v>-1</v>
       </c>
       <c r="X671">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y671">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z671">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA671">
-        <v>0.8799999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="AB671">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC671">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="672" spans="1:29">
@@ -60279,7 +60279,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>5208178</v>
+        <v>5209955</v>
       </c>
       <c r="C672" t="s">
         <v>28</v>
@@ -60291,76 +60291,76 @@
         <v>44809.5625</v>
       </c>
       <c r="F672" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G672" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672">
         <v>2</v>
       </c>
       <c r="J672" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K672">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="L672">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M672">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N672">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O672">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P672">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="Q672">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R672">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S672">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="T672">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U672">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V672">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="W672">
         <v>-1</v>
       </c>
       <c r="X672">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y672">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z672">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA672">
-        <v>0.43</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB672">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC672">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="673" spans="1:29">
@@ -84131,7 +84131,7 @@
         <v>938</v>
       </c>
       <c r="B940">
-        <v>5505897</v>
+        <v>5499736</v>
       </c>
       <c r="C940" t="s">
         <v>28</v>
@@ -84143,10 +84143,10 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F940" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G940" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H940">
         <v>1</v>
@@ -84158,61 +84158,61 @@
         <v>58</v>
       </c>
       <c r="K940">
-        <v>2.625</v>
+        <v>1.222</v>
       </c>
       <c r="L940">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M940">
-        <v>2.625</v>
+        <v>11</v>
       </c>
       <c r="N940">
-        <v>3.2</v>
+        <v>1.181</v>
       </c>
       <c r="O940">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="P940">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q940">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R940">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S940">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="T940">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U940">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V940">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W940">
         <v>-1</v>
       </c>
       <c r="X940">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Y940">
         <v>-1</v>
       </c>
       <c r="Z940">
-        <v>0.4399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA940">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB940">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC940">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="941" spans="1:29">
@@ -84220,7 +84220,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>5499736</v>
+        <v>5505897</v>
       </c>
       <c r="C941" t="s">
         <v>28</v>
@@ -84232,10 +84232,10 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F941" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G941" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H941">
         <v>1</v>
@@ -84247,61 +84247,61 @@
         <v>58</v>
       </c>
       <c r="K941">
-        <v>1.222</v>
+        <v>2.625</v>
       </c>
       <c r="L941">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M941">
-        <v>11</v>
+        <v>2.625</v>
       </c>
       <c r="N941">
-        <v>1.181</v>
+        <v>3.2</v>
       </c>
       <c r="O941">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="P941">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q941">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R941">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="S941">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="T941">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U941">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V941">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W941">
         <v>-1</v>
       </c>
       <c r="X941">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Y941">
         <v>-1</v>
       </c>
       <c r="Z941">
-        <v>-1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA941">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB941">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC941">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="942" spans="1:29">
@@ -94366,7 +94366,7 @@
         <v>1053</v>
       </c>
       <c r="B1055">
-        <v>6868626</v>
+        <v>6868622</v>
       </c>
       <c r="C1055" t="s">
         <v>28</v>
@@ -94378,31 +94378,31 @@
         <v>45196.5625</v>
       </c>
       <c r="F1055" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G1055" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1055">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1055" t="s">
         <v>57</v>
       </c>
       <c r="K1055">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="L1055">
         <v>4</v>
       </c>
       <c r="M1055">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="N1055">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O1055">
         <v>3.5</v>
@@ -94420,13 +94420,13 @@
         <v>1.92</v>
       </c>
       <c r="T1055">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1055">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="V1055">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W1055">
         <v>-1</v>
@@ -94444,10 +94444,10 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="AB1055">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC1055">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1056" spans="1:29">
@@ -94455,7 +94455,7 @@
         <v>1054</v>
       </c>
       <c r="B1056">
-        <v>6868623</v>
+        <v>6868626</v>
       </c>
       <c r="C1056" t="s">
         <v>28</v>
@@ -94467,76 +94467,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F1056" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1056" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H1056">
+        <v>0</v>
+      </c>
+      <c r="I1056">
         <v>1</v>
       </c>
-      <c r="I1056">
-        <v>0</v>
-      </c>
       <c r="J1056" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1056">
-        <v>2.25</v>
+        <v>4.7</v>
       </c>
       <c r="L1056">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M1056">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N1056">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O1056">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P1056">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q1056">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R1056">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S1056">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="T1056">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1056">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="V1056">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="W1056">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X1056">
         <v>-1</v>
       </c>
       <c r="Y1056">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z1056">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1056">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB1056">
         <v>-1</v>
       </c>
       <c r="AC1056">
-        <v>1.02</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="1057" spans="1:29">
@@ -94544,7 +94544,7 @@
         <v>1055</v>
       </c>
       <c r="B1057">
-        <v>6868622</v>
+        <v>6868623</v>
       </c>
       <c r="C1057" t="s">
         <v>28</v>
@@ -94556,76 +94556,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F1057" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G1057" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H1057">
         <v>1</v>
       </c>
       <c r="I1057">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1057" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1057">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L1057">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M1057">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N1057">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="O1057">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P1057">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q1057">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R1057">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S1057">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="T1057">
         <v>2.25</v>
       </c>
       <c r="U1057">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="V1057">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="W1057">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X1057">
         <v>-1</v>
       </c>
       <c r="Y1057">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z1057">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA1057">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1057">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC1057">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="1058" spans="1:29">
@@ -108912,19 +108912,19 @@
         <v>0.25</v>
       </c>
       <c r="R1218">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="S1218">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="T1218">
         <v>2.25</v>
       </c>
       <c r="U1218">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V1218">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W1218">
         <v>0</v>
@@ -108974,7 +108974,7 @@
         <v>3.25</v>
       </c>
       <c r="N1219">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O1219">
         <v>3.3</v>
@@ -108986,19 +108986,19 @@
         <v>-0.25</v>
       </c>
       <c r="R1219">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="S1219">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T1219">
         <v>2.5</v>
       </c>
       <c r="U1219">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="V1219">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W1219">
         <v>0</v>
@@ -109060,10 +109060,10 @@
         <v>0</v>
       </c>
       <c r="R1220">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="S1220">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="T1220">
         <v>2</v>
@@ -109122,31 +109122,31 @@
         <v>1.727</v>
       </c>
       <c r="N1221">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O1221">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P1221">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q1221">
         <v>0.75</v>
       </c>
       <c r="R1221">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S1221">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="T1221">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U1221">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="V1221">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="W1221">
         <v>0</v>
@@ -109282,10 +109282,10 @@
         <v>-1</v>
       </c>
       <c r="R1223">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="S1223">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="T1223">
         <v>2.25</v>
@@ -109578,19 +109578,19 @@
         <v>-1</v>
       </c>
       <c r="R1227">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="S1227">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="T1227">
         <v>2.5</v>
       </c>
       <c r="U1227">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V1227">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="W1227">
         <v>0</v>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -109,16 +109,16 @@
     <t>Sassuolo</t>
   </si>
   <si>
+    <t>Spezia</t>
+  </si>
+  <si>
     <t>Torino</t>
   </si>
   <si>
-    <t>Spezia</t>
+    <t>Lecce</t>
   </si>
   <si>
     <t>Roma</t>
-  </si>
-  <si>
-    <t>Lecce</t>
   </si>
   <si>
     <t>Fiorentina</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC456"/>
+  <dimension ref="A1:AC457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5208270</v>
+        <v>5208269</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -830,73 +830,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>53</v>
       </c>
       <c r="K4">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N4">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="S4">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="V4">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC4">
-        <v>0.5349999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5208269</v>
+        <v>5208270</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -919,73 +919,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>53</v>
       </c>
       <c r="K5">
+        <v>1.8</v>
+      </c>
+      <c r="L5">
+        <v>3.5</v>
+      </c>
+      <c r="M5">
         <v>4.5</v>
       </c>
-      <c r="L5">
-        <v>3.75</v>
-      </c>
-      <c r="M5">
-        <v>1.75</v>
-      </c>
       <c r="N5">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="S5">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="V5">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB5">
-        <v>0.9299999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.5349999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5208266</v>
+        <v>5208265</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1008,55 +1008,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>54</v>
       </c>
       <c r="K6">
-        <v>1.55</v>
+        <v>4.1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="N6">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="S6">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V6">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W6">
-        <v>0.6659999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1065,16 +1065,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.485</v>
+        <v>1.08</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC6">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5208265</v>
+        <v>5208266</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1097,55 +1097,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>54</v>
       </c>
       <c r="K7">
-        <v>4.1</v>
+        <v>1.55</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="N7">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="S7">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V7">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W7">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1154,16 +1154,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>1.08</v>
+        <v>0.485</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1809,7 +1809,7 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5208280</v>
+        <v>5208276</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1895,76 +1895,76 @@
         <v>44934.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>53</v>
       </c>
       <c r="K16">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="L16">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N16">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O16">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P16">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="S16">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.4350000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1972,7 +1972,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5208276</v>
+        <v>5208280</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,76 +1984,76 @@
         <v>44934.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>53</v>
       </c>
       <c r="K17">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N17">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O17">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P17">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="S17">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>1.06</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="AB17">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2165,7 +2165,7 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2607,7 +2607,7 @@
         <v>44940.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
@@ -2862,7 +2862,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5208288</v>
+        <v>5208289</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2874,55 +2874,55 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
         <v>52</v>
       </c>
       <c r="K27">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N27">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="V27">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2931,19 +2931,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>4</v>
+        <v>3.333</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC27">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2951,7 +2951,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5208289</v>
+        <v>5208288</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2963,56 +2963,56 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>1</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>52</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L28">
+        <v>3.8</v>
+      </c>
+      <c r="M28">
+        <v>4.75</v>
+      </c>
+      <c r="N28">
+        <v>1.7</v>
+      </c>
+      <c r="O28">
         <v>3.5</v>
       </c>
-      <c r="M28">
-        <v>4.2</v>
-      </c>
-      <c r="N28">
-        <v>1.85</v>
-      </c>
-      <c r="O28">
-        <v>3.3</v>
-      </c>
       <c r="P28">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
+        <v>1.95</v>
+      </c>
+      <c r="S28">
+        <v>1.95</v>
+      </c>
+      <c r="T28">
+        <v>2.25</v>
+      </c>
+      <c r="U28">
         <v>1.93</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.97</v>
       </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>2.06</v>
-      </c>
-      <c r="V28">
-        <v>1.84</v>
-      </c>
       <c r="W28">
         <v>-1</v>
       </c>
@@ -3020,19 +3020,19 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>3.333</v>
+        <v>4</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
+        <v>0.95</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.97</v>
-      </c>
-      <c r="AB28">
-        <v>1.06</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3141,7 +3141,7 @@
         <v>44941.69791666666</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -3322,7 +3322,7 @@
         <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3500,7 +3500,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3764,10 +3764,10 @@
         <v>44948.58333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>45</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4298,7 +4298,7 @@
         <v>44953.69791666666</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4390,7 +4390,7 @@
         <v>48</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4924,7 +4924,7 @@
         <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>44961.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
         <v>48</v>
@@ -5366,7 +5366,7 @@
         <v>44962.35416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5455,7 +5455,7 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
         <v>37</v>
@@ -5992,7 +5992,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6081,7 +6081,7 @@
         <v>48</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6167,10 +6167,10 @@
         <v>44968.58333333334</v>
       </c>
       <c r="F64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
         <v>34</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7312,7 +7312,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5208323</v>
+        <v>5208326</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7324,76 +7324,76 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K77">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="N77">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P77">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="S77">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="T77">
         <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="V77">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.9299999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5208326</v>
+        <v>5208323</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7413,76 +7413,76 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K78">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="N78">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="S78">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="V78">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y78">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8400000000000001</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7502,7 +7502,7 @@
         <v>44976.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>39</v>
@@ -7591,7 +7591,7 @@
         <v>44976.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>44</v>
@@ -7680,7 +7680,7 @@
         <v>44977.69791666666</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
         <v>36</v>
@@ -7858,7 +7858,7 @@
         <v>44982.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
         <v>30</v>
@@ -8128,7 +8128,7 @@
         <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8484,7 +8484,7 @@
         <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8573,7 +8573,7 @@
         <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>4</v>
@@ -9015,7 +9015,7 @@
         <v>44990.35416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>44</v>
@@ -9196,7 +9196,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9282,7 +9282,7 @@
         <v>44990.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
         <v>39</v>
@@ -9460,7 +9460,7 @@
         <v>44991.69791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>45</v>
@@ -9549,7 +9549,7 @@
         <v>44995.69791666666</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
         <v>38</v>
@@ -9905,10 +9905,10 @@
         <v>44997.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9982,7 +9982,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5209915</v>
+        <v>5209914</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9994,76 +9994,76 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K107">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="L107">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="N107">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="O107">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q107">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>1.89</v>
+        <v>2.125</v>
       </c>
       <c r="S107">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="V107">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>1.01</v>
+        <v>0.39</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>0.9199999999999999</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10071,7 +10071,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5209914</v>
+        <v>5209915</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10083,76 +10083,76 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K108">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="N108">
+        <v>4.75</v>
+      </c>
+      <c r="O108">
+        <v>3.75</v>
+      </c>
+      <c r="P108">
+        <v>1.8</v>
+      </c>
+      <c r="Q108">
+        <v>0.75</v>
+      </c>
+      <c r="R108">
+        <v>1.89</v>
+      </c>
+      <c r="S108">
+        <v>2.01</v>
+      </c>
+      <c r="T108">
         <v>2.5</v>
       </c>
-      <c r="O108">
-        <v>3.2</v>
-      </c>
-      <c r="P108">
-        <v>3</v>
-      </c>
-      <c r="Q108">
-        <v>-0.25</v>
-      </c>
-      <c r="R108">
-        <v>2.125</v>
-      </c>
-      <c r="S108">
-        <v>1.78</v>
-      </c>
-      <c r="T108">
-        <v>2.25</v>
-      </c>
       <c r="U108">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="V108">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.39</v>
+        <v>1.01</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.415</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10172,7 +10172,7 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
         <v>30</v>
@@ -10442,7 +10442,7 @@
         <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10976,7 +10976,7 @@
         <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11062,7 +11062,7 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>46</v>
@@ -11154,7 +11154,7 @@
         <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11774,7 +11774,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
         <v>29</v>
@@ -11863,7 +11863,7 @@
         <v>45018.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
         <v>42</v>
@@ -12044,7 +12044,7 @@
         <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12133,7 +12133,7 @@
         <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12308,7 +12308,7 @@
         <v>45023.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>46</v>
@@ -12578,7 +12578,7 @@
         <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12842,10 +12842,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -13198,7 +13198,7 @@
         <v>45030.65625</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
         <v>41</v>
@@ -13554,7 +13554,7 @@
         <v>45032.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>42</v>
@@ -13643,7 +13643,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
         <v>29</v>
@@ -13821,7 +13821,7 @@
         <v>45032.65625</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
         <v>37</v>
@@ -14180,7 +14180,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14269,7 +14269,7 @@
         <v>42</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14432,7 +14432,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5505896</v>
+        <v>5499734</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14444,58 +14444,58 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>3</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>54</v>
       </c>
       <c r="K157">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M157">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="N157">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O157">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P157">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q157">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V157">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W157">
-        <v>2.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14504,13 +14504,13 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14521,7 +14521,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5499734</v>
+        <v>5505896</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14533,59 +14533,59 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>3</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>54</v>
       </c>
       <c r="K158">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N158">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O158">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P158">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q158">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R158">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S158">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
+        <v>2.25</v>
+      </c>
+      <c r="U158">
+        <v>1.95</v>
+      </c>
+      <c r="V158">
+        <v>1.95</v>
+      </c>
+      <c r="W158">
         <v>2.5</v>
       </c>
-      <c r="U158">
-        <v>1.91</v>
-      </c>
-      <c r="V158">
-        <v>1.99</v>
-      </c>
-      <c r="W158">
-        <v>0.7270000000000001</v>
-      </c>
       <c r="X158">
         <v>-1</v>
       </c>
@@ -14593,13 +14593,13 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.9099999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14625,7 +14625,7 @@
         <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14803,7 +14803,7 @@
         <v>47</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14889,7 +14889,7 @@
         <v>45044.5625</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
         <v>37</v>
@@ -14978,7 +14978,7 @@
         <v>45044.65625</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
         <v>40</v>
@@ -15067,7 +15067,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
         <v>43</v>
@@ -15156,7 +15156,7 @@
         <v>45045.65625</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
         <v>47</v>
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5545300</v>
+        <v>5545304</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,73 +15779,73 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H172">
         <v>3</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K172">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="L172">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M172">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N172">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O172">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P172">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q172">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R172">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="S172">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V172">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="W172">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AA172">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.9099999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15871,7 +15871,7 @@
         <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15945,7 +15945,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5545304</v>
+        <v>5545300</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15957,73 +15957,73 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H174">
         <v>3</v>
       </c>
       <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174" t="s">
+        <v>54</v>
+      </c>
+      <c r="K174">
+        <v>1.363</v>
+      </c>
+      <c r="L174">
+        <v>4.75</v>
+      </c>
+      <c r="M174">
+        <v>8</v>
+      </c>
+      <c r="N174">
+        <v>1.363</v>
+      </c>
+      <c r="O174">
+        <v>5.25</v>
+      </c>
+      <c r="P174">
+        <v>7</v>
+      </c>
+      <c r="Q174">
+        <v>-1.25</v>
+      </c>
+      <c r="R174">
+        <v>1.88</v>
+      </c>
+      <c r="S174">
+        <v>2.02</v>
+      </c>
+      <c r="T174">
         <v>3</v>
       </c>
-      <c r="J174" t="s">
-        <v>53</v>
-      </c>
-      <c r="K174">
-        <v>4.75</v>
-      </c>
-      <c r="L174">
-        <v>3.6</v>
-      </c>
-      <c r="M174">
-        <v>1.727</v>
-      </c>
-      <c r="N174">
-        <v>4.5</v>
-      </c>
-      <c r="O174">
-        <v>3.8</v>
-      </c>
-      <c r="P174">
-        <v>1.75</v>
-      </c>
-      <c r="Q174">
-        <v>0.5</v>
-      </c>
-      <c r="R174">
-        <v>2.07</v>
-      </c>
-      <c r="S174">
-        <v>1.86</v>
-      </c>
-      <c r="T174">
-        <v>2.5</v>
-      </c>
       <c r="U174">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V174">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X174">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>1.07</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AB174">
-        <v>0.9299999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16049,7 +16049,7 @@
         <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16138,7 +16138,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16301,7 +16301,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5554078</v>
+        <v>5535044</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16313,76 +16313,76 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K178">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="L178">
+        <v>3.75</v>
+      </c>
+      <c r="M178">
         <v>5</v>
       </c>
-      <c r="M178">
-        <v>9</v>
-      </c>
       <c r="N178">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O178">
+        <v>4.2</v>
+      </c>
+      <c r="P178">
         <v>5</v>
       </c>
-      <c r="P178">
-        <v>9.5</v>
-      </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S178">
+        <v>2.03</v>
+      </c>
+      <c r="T178">
+        <v>2.75</v>
+      </c>
+      <c r="U178">
+        <v>1.85</v>
+      </c>
+      <c r="V178">
         <v>2.05</v>
       </c>
-      <c r="T178">
-        <v>2.5</v>
-      </c>
-      <c r="U178">
-        <v>1.84</v>
-      </c>
-      <c r="V178">
-        <v>2.06</v>
-      </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X178">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
         <v>1.05</v>
-      </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
-      <c r="AC178">
-        <v>1.06</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5535044</v>
+        <v>5554078</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,76 +16402,76 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K179">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="L179">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M179">
+        <v>9</v>
+      </c>
+      <c r="N179">
+        <v>1.363</v>
+      </c>
+      <c r="O179">
         <v>5</v>
       </c>
-      <c r="N179">
-        <v>1.666</v>
-      </c>
-      <c r="O179">
-        <v>4.2</v>
-      </c>
       <c r="P179">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R179">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S179">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V179">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="W179">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5559356</v>
+        <v>5545301</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,76 +16491,76 @@
         <v>45050.65625</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="L180">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M180">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N180">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="O180">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P180">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q180">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V180">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X180">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5545301</v>
+        <v>5559356</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45050.65625</v>
       </c>
       <c r="F181" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K181">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="L181">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M181">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N181">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="O181">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P181">
+        <v>1.6</v>
+      </c>
+      <c r="Q181">
+        <v>0.75</v>
+      </c>
+      <c r="R181">
+        <v>2.09</v>
+      </c>
+      <c r="S181">
+        <v>1.81</v>
+      </c>
+      <c r="T181">
+        <v>2.5</v>
+      </c>
+      <c r="U181">
+        <v>1.95</v>
+      </c>
+      <c r="V181">
+        <v>1.95</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
         <v>2.8</v>
       </c>
-      <c r="Q181">
-        <v>0</v>
-      </c>
-      <c r="R181">
-        <v>1.95</v>
-      </c>
-      <c r="S181">
-        <v>1.95</v>
-      </c>
-      <c r="T181">
-        <v>2.25</v>
-      </c>
-      <c r="U181">
-        <v>2.04</v>
-      </c>
-      <c r="V181">
-        <v>1.86</v>
-      </c>
-      <c r="W181">
-        <v>1.75</v>
-      </c>
-      <c r="X181">
-        <v>-1</v>
-      </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
+        <v>1.09</v>
+      </c>
+      <c r="AA181">
+        <v>-1</v>
+      </c>
+      <c r="AB181">
+        <v>-1</v>
+      </c>
+      <c r="AC181">
         <v>0.95</v>
-      </c>
-      <c r="AA181">
-        <v>-1</v>
-      </c>
-      <c r="AB181">
-        <v>1.04</v>
-      </c>
-      <c r="AC181">
-        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16758,7 +16758,7 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
         <v>38</v>
@@ -16850,7 +16850,7 @@
         <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17025,7 +17025,7 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
         <v>40</v>
@@ -17203,7 +17203,7 @@
         <v>45053.65625</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
         <v>44</v>
@@ -17280,7 +17280,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>5559357</v>
+        <v>6594274</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17292,58 +17292,58 @@
         <v>45054.5625</v>
       </c>
       <c r="F189" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H189">
         <v>2</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>54</v>
       </c>
       <c r="K189">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L189">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M189">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N189">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O189">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P189">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R189">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="S189">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>2.025</v>
+        <v>2.03</v>
       </c>
       <c r="V189">
-        <v>1.775</v>
+        <v>1.87</v>
       </c>
       <c r="W189">
-        <v>1.2</v>
+        <v>0.45</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17352,16 +17352,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8899999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6594274</v>
+        <v>5559357</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17381,58 +17381,58 @@
         <v>45054.5625</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G190" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H190">
         <v>2</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>54</v>
       </c>
       <c r="K190">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L190">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M190">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N190">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O190">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P190">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q190">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="S190">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>2.03</v>
+        <v>2.025</v>
       </c>
       <c r="V190">
-        <v>1.87</v>
+        <v>1.775</v>
       </c>
       <c r="W190">
-        <v>0.45</v>
+        <v>1.2</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17441,16 +17441,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>1.07</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC190">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17562,7 +17562,7 @@
         <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17737,7 +17737,7 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
         <v>43</v>
@@ -17918,7 +17918,7 @@
         <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18185,7 +18185,7 @@
         <v>45</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18805,10 +18805,10 @@
         <v>45067.3125</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -18894,7 +18894,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G207" t="s">
         <v>35</v>
@@ -19161,7 +19161,7 @@
         <v>45068.5625</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
         <v>29</v>
@@ -19428,10 +19428,10 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F213" t="s">
+        <v>31</v>
+      </c>
+      <c r="G213" t="s">
         <v>32</v>
-      </c>
-      <c r="G213" t="s">
-        <v>31</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -19609,7 +19609,7 @@
         <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19965,7 +19965,7 @@
         <v>40</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20318,7 +20318,7 @@
         <v>45080.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
         <v>38</v>
@@ -20395,7 +20395,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5702696</v>
+        <v>5706212</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20407,40 +20407,40 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G224" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H224">
+        <v>2</v>
+      </c>
+      <c r="I224">
         <v>0</v>
       </c>
-      <c r="I224">
-        <v>2</v>
-      </c>
       <c r="J224" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K224">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="L224">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M224">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N224">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="O224">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P224">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="Q224">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R224">
         <v>1.95</v>
@@ -20452,31 +20452,31 @@
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="V224">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA224">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
         <v>-1</v>
       </c>
       <c r="AC224">
-        <v>1.07</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5706212</v>
+        <v>5702696</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,40 +20496,40 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
         <v>2</v>
       </c>
-      <c r="I225">
-        <v>0</v>
-      </c>
       <c r="J225" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K225">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="L225">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M225">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N225">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="O225">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P225">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R225">
         <v>1.95</v>
@@ -20541,31 +20541,31 @@
         <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V225">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="W225">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z225">
+        <v>-1</v>
+      </c>
+      <c r="AA225">
         <v>0.95</v>
       </c>
-      <c r="AA225">
-        <v>-1</v>
-      </c>
       <c r="AB225">
         <v>-1</v>
       </c>
       <c r="AC225">
-        <v>0.9299999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5706213</v>
+        <v>5737535</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20677,70 +20677,70 @@
         <v>34</v>
       </c>
       <c r="G227" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H227">
         <v>2</v>
       </c>
       <c r="I227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K227">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="L227">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M227">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N227">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O227">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P227">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R227">
+        <v>2.03</v>
+      </c>
+      <c r="S227">
         <v>1.87</v>
       </c>
-      <c r="S227">
-        <v>2.03</v>
-      </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U227">
-        <v>2.07</v>
+        <v>1.84</v>
       </c>
       <c r="V227">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AA227">
-        <v>1.03</v>
+        <v>-0.5</v>
       </c>
       <c r="AB227">
-        <v>1.07</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5713502</v>
+        <v>5737536</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,76 +20852,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229">
         <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K229">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L229">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M229">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="N229">
-        <v>1.666</v>
+        <v>5.25</v>
       </c>
       <c r="O229">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P229">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R229">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="S229">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W229">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z229">
-        <v>0.8799999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.41</v>
       </c>
       <c r="AB229">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5737535</v>
+        <v>5706213</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20944,70 +20944,70 @@
         <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H230">
         <v>2</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K230">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M230">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N230">
+        <v>2.45</v>
+      </c>
+      <c r="O230">
+        <v>3.5</v>
+      </c>
+      <c r="P230">
+        <v>2.75</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>1.87</v>
+      </c>
+      <c r="S230">
+        <v>2.03</v>
+      </c>
+      <c r="T230">
+        <v>2.5</v>
+      </c>
+      <c r="U230">
+        <v>2.07</v>
+      </c>
+      <c r="V230">
+        <v>1.83</v>
+      </c>
+      <c r="W230">
+        <v>-1</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
         <v>1.75</v>
       </c>
-      <c r="O230">
-        <v>3.75</v>
-      </c>
-      <c r="P230">
-        <v>4.75</v>
-      </c>
-      <c r="Q230">
-        <v>-0.75</v>
-      </c>
-      <c r="R230">
-        <v>2.03</v>
-      </c>
-      <c r="S230">
-        <v>1.87</v>
-      </c>
-      <c r="T230">
-        <v>2.25</v>
-      </c>
-      <c r="U230">
-        <v>1.84</v>
-      </c>
-      <c r="V230">
-        <v>2.06</v>
-      </c>
-      <c r="W230">
-        <v>0.75</v>
-      </c>
-      <c r="X230">
-        <v>-1</v>
-      </c>
-      <c r="Y230">
-        <v>-1</v>
-      </c>
       <c r="Z230">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
       <c r="AB230">
-        <v>0.8400000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21018,7 +21018,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>5737536</v>
+        <v>5713502</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21030,76 +21030,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G231" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I231">
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K231">
+        <v>1.727</v>
+      </c>
+      <c r="L231">
+        <v>3.8</v>
+      </c>
+      <c r="M231">
+        <v>4.333</v>
+      </c>
+      <c r="N231">
+        <v>1.666</v>
+      </c>
+      <c r="O231">
         <v>4</v>
       </c>
-      <c r="L231">
-        <v>3.6</v>
-      </c>
-      <c r="M231">
-        <v>1.85</v>
-      </c>
-      <c r="N231">
-        <v>5.25</v>
-      </c>
-      <c r="O231">
-        <v>4.2</v>
-      </c>
       <c r="P231">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q231">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R231">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="S231">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U231">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-0.5</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA231">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC231">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21564,7 +21564,7 @@
         <v>45158.5625</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G237" t="s">
         <v>29</v>
@@ -21653,7 +21653,7 @@
         <v>45158.65625</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
         <v>41</v>
@@ -21831,7 +21831,7 @@
         <v>45159.5625</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G240" t="s">
         <v>51</v>
@@ -22175,7 +22175,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6868585</v>
+        <v>6868588</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22187,13 +22187,13 @@
         <v>45164.65625</v>
       </c>
       <c r="F244" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G244" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I244">
         <v>1</v>
@@ -22202,43 +22202,43 @@
         <v>54</v>
       </c>
       <c r="K244">
+        <v>1.571</v>
+      </c>
+      <c r="L244">
         <v>4</v>
       </c>
-      <c r="L244">
-        <v>3.5</v>
-      </c>
       <c r="M244">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N244">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O244">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P244">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="Q244">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R244">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="S244">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="T244">
         <v>2.25</v>
       </c>
       <c r="U244">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="V244">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="W244">
-        <v>3.5</v>
+        <v>0.75</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22247,13 +22247,13 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="AC244">
         <v>-1</v>
@@ -22264,7 +22264,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6868588</v>
+        <v>6868585</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22276,13 +22276,13 @@
         <v>45164.65625</v>
       </c>
       <c r="F245" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G245" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H245">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I245">
         <v>1</v>
@@ -22291,43 +22291,43 @@
         <v>54</v>
       </c>
       <c r="K245">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M245">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N245">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="O245">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P245">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q245">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R245">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="S245">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T245">
         <v>2.25</v>
       </c>
       <c r="U245">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="V245">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="W245">
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22336,13 +22336,13 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="AC245">
         <v>-1</v>
@@ -22353,7 +22353,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6868586</v>
+        <v>6868583</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22365,16 +22365,16 @@
         <v>45165.5625</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G246" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J246" t="s">
         <v>53</v>
@@ -22389,10 +22389,10 @@
         <v>6</v>
       </c>
       <c r="N246">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O246">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P246">
         <v>5</v>
@@ -22401,25 +22401,25 @@
         <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S246">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="T246">
         <v>2.5</v>
       </c>
       <c r="U246">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="V246">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22428,13 +22428,13 @@
         <v>-1</v>
       </c>
       <c r="AA246">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="AB246">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC246">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22442,7 +22442,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6868583</v>
+        <v>6868586</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22454,16 +22454,16 @@
         <v>45165.5625</v>
       </c>
       <c r="F247" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
         <v>53</v>
@@ -22478,10 +22478,10 @@
         <v>6</v>
       </c>
       <c r="N247">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O247">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P247">
         <v>5</v>
@@ -22490,25 +22490,25 @@
         <v>-0.75</v>
       </c>
       <c r="R247">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S247">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="T247">
         <v>2.5</v>
       </c>
       <c r="U247">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="V247">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W247">
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -22517,13 +22517,13 @@
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="AB247">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22988,7 +22988,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F253" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G253" t="s">
         <v>43</v>
@@ -23421,7 +23421,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6868600</v>
+        <v>6868595</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23433,13 +23433,13 @@
         <v>45172.5625</v>
       </c>
       <c r="F258" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G258" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -23454,37 +23454,37 @@
         <v>3.6</v>
       </c>
       <c r="M258">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N258">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O258">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P258">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q258">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R258">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="S258">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="T258">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U258">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V258">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="W258">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X258">
         <v>-1</v>
@@ -23493,16 +23493,16 @@
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA258">
         <v>-1</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC258">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23510,7 +23510,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6868595</v>
+        <v>6868600</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23522,13 +23522,13 @@
         <v>45172.5625</v>
       </c>
       <c r="F259" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G259" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -23543,37 +23543,37 @@
         <v>3.6</v>
       </c>
       <c r="M259">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N259">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O259">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P259">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q259">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R259">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="S259">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="T259">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U259">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V259">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="W259">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="X259">
         <v>-1</v>
@@ -23582,16 +23582,16 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0.95</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA259">
         <v>-1</v>
       </c>
       <c r="AB259">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC259">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23599,7 +23599,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6868596</v>
+        <v>6868594</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23611,76 +23611,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F260" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G260" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
         <v>2</v>
       </c>
-      <c r="I260">
-        <v>0</v>
-      </c>
       <c r="J260" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K260">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="L260">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M260">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N260">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="O260">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P260">
-        <v>4.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q260">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R260">
+        <v>2.07</v>
+      </c>
+      <c r="S260">
+        <v>1.83</v>
+      </c>
+      <c r="T260">
+        <v>2.5</v>
+      </c>
+      <c r="U260">
+        <v>1.9</v>
+      </c>
+      <c r="V260">
         <v>2</v>
       </c>
-      <c r="S260">
-        <v>1.9</v>
-      </c>
-      <c r="T260">
-        <v>2.25</v>
-      </c>
-      <c r="U260">
-        <v>2.01</v>
-      </c>
-      <c r="V260">
-        <v>1.89</v>
-      </c>
       <c r="W260">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z260">
+        <v>-1</v>
+      </c>
+      <c r="AA260">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="AB260">
+        <v>-1</v>
+      </c>
+      <c r="AC260">
         <v>1</v>
-      </c>
-      <c r="AA260">
-        <v>-1</v>
-      </c>
-      <c r="AB260">
-        <v>-0.5</v>
-      </c>
-      <c r="AC260">
-        <v>0.445</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23688,7 +23688,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6868594</v>
+        <v>6868596</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23700,76 +23700,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F261" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G261" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H261">
+        <v>2</v>
+      </c>
+      <c r="I261">
         <v>0</v>
       </c>
-      <c r="I261">
+      <c r="J261" t="s">
+        <v>54</v>
+      </c>
+      <c r="K261">
+        <v>1.95</v>
+      </c>
+      <c r="L261">
+        <v>3.2</v>
+      </c>
+      <c r="M261">
+        <v>4.2</v>
+      </c>
+      <c r="N261">
+        <v>1.909</v>
+      </c>
+      <c r="O261">
+        <v>3.25</v>
+      </c>
+      <c r="P261">
+        <v>4.333</v>
+      </c>
+      <c r="Q261">
+        <v>-0.5</v>
+      </c>
+      <c r="R261">
         <v>2</v>
       </c>
-      <c r="J261" t="s">
-        <v>52</v>
-      </c>
-      <c r="K261">
-        <v>5</v>
-      </c>
-      <c r="L261">
-        <v>3.75</v>
-      </c>
-      <c r="M261">
-        <v>1.666</v>
-      </c>
-      <c r="N261">
-        <v>5.25</v>
-      </c>
-      <c r="O261">
-        <v>4</v>
-      </c>
-      <c r="P261">
-        <v>1.65</v>
-      </c>
-      <c r="Q261">
-        <v>0.75</v>
-      </c>
-      <c r="R261">
-        <v>2.07</v>
-      </c>
       <c r="S261">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T261">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U261">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="V261">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA261">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC261">
-        <v>1</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -24133,7 +24133,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6868604</v>
+        <v>6868609</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24145,76 +24145,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F266" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G266" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H266">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K266">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L266">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M266">
+        <v>3.5</v>
+      </c>
+      <c r="N266">
         <v>2.4</v>
       </c>
-      <c r="N266">
+      <c r="O266">
+        <v>3.3</v>
+      </c>
+      <c r="P266">
         <v>2.9</v>
       </c>
-      <c r="O266">
-        <v>3.6</v>
-      </c>
-      <c r="P266">
+      <c r="Q266">
+        <v>-0.25</v>
+      </c>
+      <c r="R266">
+        <v>2.07</v>
+      </c>
+      <c r="S266">
+        <v>1.83</v>
+      </c>
+      <c r="T266">
+        <v>2.25</v>
+      </c>
+      <c r="U266">
+        <v>1.86</v>
+      </c>
+      <c r="V266">
+        <v>2.04</v>
+      </c>
+      <c r="W266">
+        <v>-1</v>
+      </c>
+      <c r="X266">
         <v>2.3</v>
       </c>
-      <c r="Q266">
-        <v>0.25</v>
-      </c>
-      <c r="R266">
-        <v>1.86</v>
-      </c>
-      <c r="S266">
-        <v>2.04</v>
-      </c>
-      <c r="T266">
-        <v>2.75</v>
-      </c>
-      <c r="U266">
-        <v>1.9</v>
-      </c>
-      <c r="V266">
-        <v>2</v>
-      </c>
-      <c r="W266">
-        <v>1.9</v>
-      </c>
-      <c r="X266">
-        <v>-1</v>
-      </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.8600000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA266">
-        <v>-1</v>
+        <v>0.415</v>
       </c>
       <c r="AB266">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24222,7 +24222,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6868609</v>
+        <v>6868604</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24234,76 +24234,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F267" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G267" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J267" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K267">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L267">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M267">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N267">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O267">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P267">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q267">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R267">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="S267">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="T267">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U267">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V267">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W267">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X267">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-0.5</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA267">
-        <v>0.415</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC267">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24412,7 +24412,7 @@
         <v>45186.65625</v>
       </c>
       <c r="F269" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G269" t="s">
         <v>48</v>
@@ -24504,7 +24504,7 @@
         <v>29</v>
       </c>
       <c r="G270" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -24768,7 +24768,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F273" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G273" t="s">
         <v>50</v>
@@ -25480,10 +25480,10 @@
         <v>45193.65625</v>
       </c>
       <c r="F281" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G281" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H281">
         <v>1</v>
@@ -25572,7 +25572,7 @@
         <v>39</v>
       </c>
       <c r="G282" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -25735,7 +25735,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6868623</v>
+        <v>6868622</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25747,76 +25747,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F284" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G284" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H284">
         <v>1</v>
       </c>
       <c r="I284">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J284" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K284">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L284">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M284">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="N284">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="O284">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P284">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q284">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R284">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S284">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="T284">
         <v>2.25</v>
       </c>
       <c r="U284">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="V284">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="W284">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z284">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC284">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25824,7 +25824,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6868622</v>
+        <v>6868623</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25836,76 +25836,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F285" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G285" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H285">
         <v>1</v>
       </c>
       <c r="I285">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K285">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L285">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M285">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N285">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="O285">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P285">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q285">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R285">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S285">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="T285">
         <v>2.25</v>
       </c>
       <c r="U285">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="V285">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="W285">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA285">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25913,7 +25913,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6868627</v>
+        <v>6868631</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25925,76 +25925,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F286" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G286" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H286">
+        <v>4</v>
+      </c>
+      <c r="I286">
         <v>1</v>
       </c>
-      <c r="I286">
-        <v>2</v>
-      </c>
       <c r="J286" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K286">
         <v>1.333</v>
       </c>
       <c r="L286">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M286">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="N286">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="O286">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="P286">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Q286">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R286">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S286">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="T286">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U286">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="V286">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W286">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X286">
         <v>-1</v>
       </c>
       <c r="Y286">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z286">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA286">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB286">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC286">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26002,7 +26002,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6868629</v>
+        <v>6868627</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26014,76 +26014,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F287" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G287" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H287">
+        <v>1</v>
+      </c>
+      <c r="I287">
         <v>2</v>
       </c>
-      <c r="I287">
-        <v>0</v>
-      </c>
       <c r="J287" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K287">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="L287">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M287">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="N287">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="O287">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P287">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q287">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R287">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="S287">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="T287">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U287">
+        <v>1.85</v>
+      </c>
+      <c r="V287">
         <v>2.05</v>
       </c>
-      <c r="V287">
-        <v>1.85</v>
-      </c>
       <c r="W287">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X287">
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z287">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB287">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC287">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26091,7 +26091,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6868631</v>
+        <v>6868629</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26103,58 +26103,58 @@
         <v>45196.65625</v>
       </c>
       <c r="F288" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G288" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H288">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J288" t="s">
         <v>54</v>
       </c>
       <c r="K288">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="L288">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M288">
-        <v>8.5</v>
+        <v>4.333</v>
       </c>
       <c r="N288">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O288">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P288">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q288">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R288">
+        <v>1.97</v>
+      </c>
+      <c r="S288">
         <v>1.93</v>
       </c>
-      <c r="S288">
-        <v>1.97</v>
-      </c>
       <c r="T288">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U288">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="V288">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="W288">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X288">
         <v>-1</v>
@@ -26163,16 +26163,16 @@
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0.9299999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AA288">
         <v>-1</v>
       </c>
       <c r="AB288">
-        <v>0.99</v>
+        <v>-0.5</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26284,7 +26284,7 @@
         <v>50</v>
       </c>
       <c r="G290" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H290">
         <v>4</v>
@@ -26370,7 +26370,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F291" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G291" t="s">
         <v>46</v>
@@ -26904,7 +26904,7 @@
         <v>45200.65625</v>
       </c>
       <c r="F297" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G297" t="s">
         <v>49</v>
@@ -26993,7 +26993,7 @@
         <v>45201.5625</v>
       </c>
       <c r="F298" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G298" t="s">
         <v>44</v>
@@ -27349,7 +27349,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F302" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G302" t="s">
         <v>30</v>
@@ -27530,7 +27530,7 @@
         <v>39</v>
       </c>
       <c r="G304" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H304">
         <v>2</v>
@@ -27782,7 +27782,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6868648</v>
+        <v>6868644</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27794,58 +27794,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G307" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H307">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J307" t="s">
         <v>54</v>
       </c>
       <c r="K307">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L307">
         <v>3.4</v>
       </c>
       <c r="M307">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N307">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O307">
+        <v>3.4</v>
+      </c>
+      <c r="P307">
         <v>3.3</v>
       </c>
-      <c r="P307">
-        <v>2.45</v>
-      </c>
       <c r="Q307">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R307">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="S307">
-        <v>2.125</v>
+        <v>2.01</v>
       </c>
       <c r="T307">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U307">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="V307">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="W307">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27854,13 +27854,13 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0.78</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA307">
         <v>-1</v>
       </c>
       <c r="AB307">
-        <v>0.9199999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AC307">
         <v>-1</v>
@@ -27871,7 +27871,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6868644</v>
+        <v>6868648</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27883,58 +27883,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G308" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H308">
+        <v>3</v>
+      </c>
+      <c r="I308">
         <v>2</v>
-      </c>
-      <c r="I308">
-        <v>1</v>
       </c>
       <c r="J308" t="s">
         <v>54</v>
       </c>
       <c r="K308">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L308">
         <v>3.4</v>
       </c>
       <c r="M308">
+        <v>2.625</v>
+      </c>
+      <c r="N308">
+        <v>2.9</v>
+      </c>
+      <c r="O308">
         <v>3.3</v>
       </c>
-      <c r="N308">
-        <v>2.2</v>
-      </c>
-      <c r="O308">
-        <v>3.4</v>
-      </c>
       <c r="P308">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q308">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R308">
+        <v>1.78</v>
+      </c>
+      <c r="S308">
+        <v>2.125</v>
+      </c>
+      <c r="T308">
+        <v>2.25</v>
+      </c>
+      <c r="U308">
         <v>1.92</v>
       </c>
-      <c r="S308">
-        <v>2.01</v>
-      </c>
-      <c r="T308">
-        <v>2.5</v>
-      </c>
-      <c r="U308">
-        <v>1.99</v>
-      </c>
       <c r="V308">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W308">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -27943,13 +27943,13 @@
         <v>-1</v>
       </c>
       <c r="Z308">
+        <v>0.78</v>
+      </c>
+      <c r="AA308">
+        <v>-1</v>
+      </c>
+      <c r="AB308">
         <v>0.9199999999999999</v>
-      </c>
-      <c r="AA308">
-        <v>-1</v>
-      </c>
-      <c r="AB308">
-        <v>0.99</v>
       </c>
       <c r="AC308">
         <v>-1</v>
@@ -27975,7 +27975,7 @@
         <v>51</v>
       </c>
       <c r="G309" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -28239,7 +28239,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F312" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G312" t="s">
         <v>38</v>
@@ -28417,7 +28417,7 @@
         <v>45221.3125</v>
       </c>
       <c r="F314" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G314" t="s">
         <v>40</v>
@@ -28865,7 +28865,7 @@
         <v>37</v>
       </c>
       <c r="G319" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -29218,10 +29218,10 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G323" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H323">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>38</v>
       </c>
       <c r="G327" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -30464,10 +30464,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F337" t="s">
+        <v>34</v>
+      </c>
+      <c r="G337" t="s">
         <v>33</v>
-      </c>
-      <c r="G337" t="s">
-        <v>34</v>
       </c>
       <c r="H337">
         <v>2</v>
@@ -30731,7 +30731,7 @@
         <v>45236.69791666666</v>
       </c>
       <c r="F340" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G340" t="s">
         <v>30</v>
@@ -30998,7 +30998,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F343" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G343" t="s">
         <v>43</v>
@@ -31179,7 +31179,7 @@
         <v>40</v>
       </c>
       <c r="G345" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H345">
         <v>1</v>
@@ -31342,7 +31342,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6868687</v>
+        <v>6868696</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31354,76 +31354,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F347" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G347" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347">
         <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K347">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="L347">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M347">
+        <v>2.2</v>
+      </c>
+      <c r="N347">
         <v>3.4</v>
-      </c>
-      <c r="N347">
-        <v>2</v>
       </c>
       <c r="O347">
         <v>3.4</v>
       </c>
       <c r="P347">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q347">
+        <v>0.25</v>
+      </c>
+      <c r="R347">
+        <v>2.02</v>
+      </c>
+      <c r="S347">
+        <v>1.88</v>
+      </c>
+      <c r="T347">
+        <v>2.5</v>
+      </c>
+      <c r="U347">
+        <v>2</v>
+      </c>
+      <c r="V347">
+        <v>1.9</v>
+      </c>
+      <c r="W347">
+        <v>-1</v>
+      </c>
+      <c r="X347">
+        <v>2.4</v>
+      </c>
+      <c r="Y347">
+        <v>-1</v>
+      </c>
+      <c r="Z347">
+        <v>0.51</v>
+      </c>
+      <c r="AA347">
         <v>-0.5</v>
       </c>
-      <c r="R347">
-        <v>2.04</v>
-      </c>
-      <c r="S347">
-        <v>1.86</v>
-      </c>
-      <c r="T347">
-        <v>2.25</v>
-      </c>
-      <c r="U347">
-        <v>1.89</v>
-      </c>
-      <c r="V347">
-        <v>2.01</v>
-      </c>
-      <c r="W347">
-        <v>1</v>
-      </c>
-      <c r="X347">
-        <v>-1</v>
-      </c>
-      <c r="Y347">
-        <v>-1</v>
-      </c>
-      <c r="Z347">
-        <v>1.04</v>
-      </c>
-      <c r="AA347">
-        <v>-1</v>
-      </c>
       <c r="AB347">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31431,7 +31431,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6868696</v>
+        <v>6868687</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31443,76 +31443,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F348" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G348" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348">
         <v>1</v>
       </c>
       <c r="J348" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K348">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="L348">
+        <v>3.5</v>
+      </c>
+      <c r="M348">
         <v>3.4</v>
       </c>
-      <c r="M348">
-        <v>2.2</v>
-      </c>
       <c r="N348">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O348">
         <v>3.4</v>
       </c>
       <c r="P348">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q348">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R348">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S348">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="T348">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U348">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="V348">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="W348">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X348">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y348">
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.51</v>
+        <v>1.04</v>
       </c>
       <c r="AA348">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB348">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC348">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31535,7 +31535,7 @@
         <v>41</v>
       </c>
       <c r="G349" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H349">
         <v>0</v>
@@ -32054,7 +32054,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6868701</v>
+        <v>6868700</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32066,73 +32066,73 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G355" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I355">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J355" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K355">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L355">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M355">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="N355">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="O355">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P355">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q355">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R355">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="S355">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="T355">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U355">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V355">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W355">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X355">
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z355">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AA355">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB355">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC355">
         <v>-1</v>
@@ -32143,7 +32143,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6868700</v>
+        <v>6868701</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32155,73 +32155,73 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G356" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H356">
+        <v>2</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356" t="s">
+        <v>54</v>
+      </c>
+      <c r="K356">
+        <v>2.4</v>
+      </c>
+      <c r="L356">
+        <v>3.25</v>
+      </c>
+      <c r="M356">
+        <v>2.9</v>
+      </c>
+      <c r="N356">
+        <v>2.375</v>
+      </c>
+      <c r="O356">
+        <v>3.25</v>
+      </c>
+      <c r="P356">
         <v>3</v>
       </c>
-      <c r="I356">
-        <v>4</v>
-      </c>
-      <c r="J356" t="s">
-        <v>52</v>
-      </c>
-      <c r="K356">
-        <v>2.9</v>
-      </c>
-      <c r="L356">
-        <v>3.4</v>
-      </c>
-      <c r="M356">
-        <v>2.375</v>
-      </c>
-      <c r="N356">
-        <v>2.625</v>
-      </c>
-      <c r="O356">
-        <v>3.5</v>
-      </c>
-      <c r="P356">
-        <v>2.6</v>
-      </c>
       <c r="Q356">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R356">
+        <v>2.09</v>
+      </c>
+      <c r="S356">
+        <v>1.81</v>
+      </c>
+      <c r="T356">
+        <v>2.25</v>
+      </c>
+      <c r="U356">
         <v>1.95</v>
       </c>
-      <c r="S356">
+      <c r="V356">
         <v>1.95</v>
       </c>
-      <c r="T356">
-        <v>2.75</v>
-      </c>
-      <c r="U356">
-        <v>1.85</v>
-      </c>
-      <c r="V356">
-        <v>2.05</v>
-      </c>
       <c r="W356">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X356">
         <v>-1</v>
       </c>
       <c r="Y356">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z356">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AA356">
+        <v>-1</v>
+      </c>
+      <c r="AB356">
         <v>0.95</v>
-      </c>
-      <c r="AB356">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC356">
         <v>-1</v>
@@ -32244,7 +32244,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F357" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G357" t="s">
         <v>37</v>
@@ -32425,7 +32425,7 @@
         <v>44</v>
       </c>
       <c r="G359" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H359">
         <v>2</v>
@@ -32514,7 +32514,7 @@
         <v>45</v>
       </c>
       <c r="G360" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H360">
         <v>2</v>
@@ -32956,7 +32956,7 @@
         <v>45263.35416666666</v>
       </c>
       <c r="F365" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G365" t="s">
         <v>45</v>
@@ -33226,7 +33226,7 @@
         <v>30</v>
       </c>
       <c r="G368" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -33401,7 +33401,7 @@
         <v>45264.69791666666</v>
       </c>
       <c r="F370" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G370" t="s">
         <v>47</v>
@@ -33849,7 +33849,7 @@
         <v>49</v>
       </c>
       <c r="G375" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H375">
         <v>0</v>
@@ -34113,7 +34113,7 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F378" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G378" t="s">
         <v>35</v>
@@ -34205,7 +34205,7 @@
         <v>48</v>
       </c>
       <c r="G379" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H379">
         <v>1</v>
@@ -34469,7 +34469,7 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F382" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G382" t="s">
         <v>49</v>
@@ -34647,7 +34647,7 @@
         <v>45276.69791666666</v>
       </c>
       <c r="F384" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G384" t="s">
         <v>48</v>
@@ -34813,7 +34813,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>6868736</v>
+        <v>6868729</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34825,61 +34825,61 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F386" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G386" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I386">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J386" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K386">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L386">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M386">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="N386">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O386">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P386">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q386">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R386">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S386">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T386">
         <v>2.5</v>
       </c>
       <c r="U386">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V386">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W386">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X386">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y386">
         <v>-1</v>
@@ -34891,10 +34891,10 @@
         <v>-0</v>
       </c>
       <c r="AB386">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC386">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -34902,7 +34902,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>6868729</v>
+        <v>6868736</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34914,61 +34914,61 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F387" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G387" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I387">
+        <v>2</v>
+      </c>
+      <c r="J387" t="s">
+        <v>53</v>
+      </c>
+      <c r="K387">
+        <v>2.15</v>
+      </c>
+      <c r="L387">
+        <v>3.2</v>
+      </c>
+      <c r="M387">
+        <v>3.3</v>
+      </c>
+      <c r="N387">
+        <v>2.5</v>
+      </c>
+      <c r="O387">
+        <v>3.3</v>
+      </c>
+      <c r="P387">
+        <v>2.8</v>
+      </c>
+      <c r="Q387">
         <v>0</v>
       </c>
-      <c r="J387" t="s">
-        <v>54</v>
-      </c>
-      <c r="K387">
-        <v>1.5</v>
-      </c>
-      <c r="L387">
-        <v>4.5</v>
-      </c>
-      <c r="M387">
-        <v>5.5</v>
-      </c>
-      <c r="N387">
-        <v>1.45</v>
-      </c>
-      <c r="O387">
-        <v>4.75</v>
-      </c>
-      <c r="P387">
-        <v>6</v>
-      </c>
-      <c r="Q387">
-        <v>-1</v>
-      </c>
       <c r="R387">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S387">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T387">
         <v>2.5</v>
       </c>
       <c r="U387">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V387">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W387">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X387">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y387">
         <v>-1</v>
@@ -34980,10 +34980,10 @@
         <v>-0</v>
       </c>
       <c r="AB387">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC387">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -35006,7 +35006,7 @@
         <v>45</v>
       </c>
       <c r="G388" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H388">
         <v>2</v>
@@ -35258,7 +35258,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>6868738</v>
+        <v>6868745</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35270,13 +35270,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F391" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G391" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I391">
         <v>2</v>
@@ -35285,40 +35285,40 @@
         <v>52</v>
       </c>
       <c r="K391">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L391">
         <v>3.4</v>
       </c>
       <c r="M391">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="N391">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O391">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P391">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q391">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R391">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="S391">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="T391">
         <v>2.25</v>
       </c>
       <c r="U391">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V391">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W391">
         <v>-1</v>
@@ -35327,19 +35327,19 @@
         <v>-1</v>
       </c>
       <c r="Y391">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z391">
         <v>-1</v>
       </c>
       <c r="AA391">
-        <v>0.9199999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AB391">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="AC391">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35347,7 +35347,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>6868745</v>
+        <v>6868738</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35359,13 +35359,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F392" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G392" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392">
         <v>2</v>
@@ -35374,40 +35374,40 @@
         <v>52</v>
       </c>
       <c r="K392">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L392">
         <v>3.4</v>
       </c>
       <c r="M392">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="N392">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O392">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P392">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q392">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R392">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="S392">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="T392">
         <v>2.25</v>
       </c>
       <c r="U392">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V392">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="W392">
         <v>-1</v>
@@ -35416,19 +35416,19 @@
         <v>-1</v>
       </c>
       <c r="Y392">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z392">
         <v>-1</v>
       </c>
       <c r="AA392">
-        <v>1.11</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB392">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AC392">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -35703,7 +35703,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>6868737</v>
+        <v>6868746</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35715,76 +35715,76 @@
         <v>45283.45833333334</v>
       </c>
       <c r="F396" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G396" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H396">
         <v>1</v>
       </c>
       <c r="I396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J396" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K396">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="L396">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M396">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N396">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O396">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P396">
+        <v>5.5</v>
+      </c>
+      <c r="Q396">
+        <v>-0.75</v>
+      </c>
+      <c r="R396">
+        <v>1.85</v>
+      </c>
+      <c r="S396">
+        <v>2.05</v>
+      </c>
+      <c r="T396">
+        <v>2.25</v>
+      </c>
+      <c r="U396">
+        <v>1.99</v>
+      </c>
+      <c r="V396">
+        <v>1.91</v>
+      </c>
+      <c r="W396">
+        <v>-1</v>
+      </c>
+      <c r="X396">
         <v>2.75</v>
       </c>
-      <c r="Q396">
-        <v>0</v>
-      </c>
-      <c r="R396">
-        <v>1.95</v>
-      </c>
-      <c r="S396">
-        <v>1.95</v>
-      </c>
-      <c r="T396">
-        <v>2</v>
-      </c>
-      <c r="U396">
-        <v>1.85</v>
-      </c>
-      <c r="V396">
-        <v>2.05</v>
-      </c>
-      <c r="W396">
-        <v>1.8</v>
-      </c>
-      <c r="X396">
-        <v>-1</v>
-      </c>
       <c r="Y396">
         <v>-1</v>
       </c>
       <c r="Z396">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA396">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB396">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC396">
-        <v>1.05</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -35792,7 +35792,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>6868746</v>
+        <v>6868737</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35804,76 +35804,76 @@
         <v>45283.45833333334</v>
       </c>
       <c r="F397" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G397" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H397">
         <v>1</v>
       </c>
       <c r="I397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J397" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K397">
+        <v>2.7</v>
+      </c>
+      <c r="L397">
+        <v>3.25</v>
+      </c>
+      <c r="M397">
+        <v>2.45</v>
+      </c>
+      <c r="N397">
+        <v>2.8</v>
+      </c>
+      <c r="O397">
+        <v>3</v>
+      </c>
+      <c r="P397">
+        <v>2.75</v>
+      </c>
+      <c r="Q397">
+        <v>0</v>
+      </c>
+      <c r="R397">
+        <v>1.95</v>
+      </c>
+      <c r="S397">
+        <v>1.95</v>
+      </c>
+      <c r="T397">
+        <v>2</v>
+      </c>
+      <c r="U397">
         <v>1.85</v>
       </c>
-      <c r="L397">
-        <v>3.3</v>
-      </c>
-      <c r="M397">
-        <v>4.2</v>
-      </c>
-      <c r="N397">
-        <v>1.65</v>
-      </c>
-      <c r="O397">
-        <v>3.75</v>
-      </c>
-      <c r="P397">
-        <v>5.5</v>
-      </c>
-      <c r="Q397">
-        <v>-0.75</v>
-      </c>
-      <c r="R397">
-        <v>1.85</v>
-      </c>
-      <c r="S397">
+      <c r="V397">
         <v>2.05</v>
       </c>
-      <c r="T397">
-        <v>2.25</v>
-      </c>
-      <c r="U397">
-        <v>1.99</v>
-      </c>
-      <c r="V397">
-        <v>1.91</v>
-      </c>
       <c r="W397">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X397">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y397">
         <v>-1</v>
       </c>
       <c r="Z397">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA397">
+        <v>-1</v>
+      </c>
+      <c r="AB397">
+        <v>-1</v>
+      </c>
+      <c r="AC397">
         <v>1.05</v>
-      </c>
-      <c r="AB397">
-        <v>-0.5</v>
-      </c>
-      <c r="AC397">
-        <v>0.455</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35881,7 +35881,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>6868741</v>
+        <v>6868740</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35893,10 +35893,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F398" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G398" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H398">
         <v>2</v>
@@ -35908,43 +35908,43 @@
         <v>54</v>
       </c>
       <c r="K398">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="L398">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M398">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="N398">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O398">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P398">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q398">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R398">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S398">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T398">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U398">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V398">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W398">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X398">
         <v>-1</v>
@@ -35953,16 +35953,16 @@
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="AA398">
         <v>-1</v>
       </c>
       <c r="AB398">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC398">
-        <v>1.04</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -35970,7 +35970,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>6868740</v>
+        <v>6868741</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35982,10 +35982,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F399" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G399" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H399">
         <v>2</v>
@@ -35997,43 +35997,43 @@
         <v>54</v>
       </c>
       <c r="K399">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="L399">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M399">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="N399">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O399">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P399">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="Q399">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R399">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="S399">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="T399">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U399">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V399">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W399">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X399">
         <v>-1</v>
@@ -36042,16 +36042,16 @@
         <v>-1</v>
       </c>
       <c r="Z399">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="AA399">
         <v>-1</v>
       </c>
       <c r="AB399">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC399">
-        <v>0.475</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -36071,7 +36071,7 @@
         <v>45283.69791666666</v>
       </c>
       <c r="F400" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G400" t="s">
         <v>46</v>
@@ -36252,7 +36252,7 @@
         <v>35</v>
       </c>
       <c r="G402" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H402">
         <v>1</v>
@@ -36326,7 +36326,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>6868753</v>
+        <v>6868750</v>
       </c>
       <c r="C403" t="s">
         <v>28</v>
@@ -36338,76 +36338,76 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F403" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G403" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H403">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I403">
         <v>1</v>
       </c>
       <c r="J403" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K403">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="L403">
         <v>4</v>
       </c>
       <c r="M403">
+        <v>1.533</v>
+      </c>
+      <c r="N403">
         <v>5.5</v>
       </c>
-      <c r="N403">
-        <v>1.571</v>
-      </c>
       <c r="O403">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P403">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="Q403">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R403">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="S403">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="T403">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U403">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="V403">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="W403">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X403">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y403">
         <v>-1</v>
       </c>
       <c r="Z403">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AA403">
         <v>-1</v>
       </c>
       <c r="AB403">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC403">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="404" spans="1:29">
@@ -36415,7 +36415,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>6868750</v>
+        <v>6868753</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36427,76 +36427,76 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F404" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G404" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I404">
         <v>1</v>
       </c>
       <c r="J404" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K404">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="L404">
         <v>4</v>
       </c>
       <c r="M404">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N404">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="O404">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P404">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="Q404">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R404">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="S404">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="T404">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U404">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V404">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="W404">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X404">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y404">
         <v>-1</v>
       </c>
       <c r="Z404">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AA404">
         <v>-1</v>
       </c>
       <c r="AB404">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC404">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36519,7 +36519,7 @@
         <v>47</v>
       </c>
       <c r="G405" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H405">
         <v>1</v>
@@ -36593,7 +36593,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6868756</v>
+        <v>6868748</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36605,76 +36605,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F406" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G406" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H406">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406">
         <v>0</v>
       </c>
       <c r="J406" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K406">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L406">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M406">
+        <v>3.75</v>
+      </c>
+      <c r="N406">
+        <v>2</v>
+      </c>
+      <c r="O406">
+        <v>3.5</v>
+      </c>
+      <c r="P406">
+        <v>3.75</v>
+      </c>
+      <c r="Q406">
+        <v>-0.5</v>
+      </c>
+      <c r="R406">
+        <v>2.05</v>
+      </c>
+      <c r="S406">
+        <v>1.85</v>
+      </c>
+      <c r="T406">
         <v>2.5</v>
       </c>
-      <c r="N406">
-        <v>3.6</v>
-      </c>
-      <c r="O406">
-        <v>3</v>
-      </c>
-      <c r="P406">
-        <v>2.25</v>
-      </c>
-      <c r="Q406">
-        <v>0.25</v>
-      </c>
-      <c r="R406">
-        <v>1.9</v>
-      </c>
-      <c r="S406">
-        <v>2</v>
-      </c>
-      <c r="T406">
-        <v>2</v>
-      </c>
       <c r="U406">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V406">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W406">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X406">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y406">
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA406">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB406">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC406">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36682,7 +36682,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6868748</v>
+        <v>6868756</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36694,76 +36694,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F407" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G407" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I407">
         <v>0</v>
       </c>
       <c r="J407" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K407">
+        <v>2.8</v>
+      </c>
+      <c r="L407">
+        <v>3.2</v>
+      </c>
+      <c r="M407">
+        <v>2.5</v>
+      </c>
+      <c r="N407">
+        <v>3.6</v>
+      </c>
+      <c r="O407">
+        <v>3</v>
+      </c>
+      <c r="P407">
+        <v>2.25</v>
+      </c>
+      <c r="Q407">
+        <v>0.25</v>
+      </c>
+      <c r="R407">
+        <v>1.9</v>
+      </c>
+      <c r="S407">
         <v>2</v>
       </c>
-      <c r="L407">
-        <v>3.4</v>
-      </c>
-      <c r="M407">
-        <v>3.75</v>
-      </c>
-      <c r="N407">
+      <c r="T407">
         <v>2</v>
       </c>
-      <c r="O407">
-        <v>3.5</v>
-      </c>
-      <c r="P407">
-        <v>3.75</v>
-      </c>
-      <c r="Q407">
-        <v>-0.5</v>
-      </c>
-      <c r="R407">
-        <v>2.05</v>
-      </c>
-      <c r="S407">
-        <v>1.85</v>
-      </c>
-      <c r="T407">
-        <v>2.5</v>
-      </c>
       <c r="U407">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V407">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W407">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X407">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y407">
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA407">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB407">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC407">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36964,7 +36964,7 @@
         <v>39</v>
       </c>
       <c r="G410" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H410">
         <v>1</v>
@@ -37317,7 +37317,7 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F414" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G414" t="s">
         <v>51</v>
@@ -37572,7 +37572,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>6868765</v>
+        <v>6868766</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37584,73 +37584,73 @@
         <v>45298.45833333334</v>
       </c>
       <c r="F417" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G417" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H417">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I417">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J417" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K417">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L417">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M417">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N417">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O417">
         <v>3.1</v>
       </c>
       <c r="P417">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q417">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R417">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S417">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="T417">
         <v>2.25</v>
       </c>
       <c r="U417">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="V417">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W417">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X417">
         <v>-1</v>
       </c>
       <c r="Y417">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z417">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA417">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB417">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AC417">
         <v>-1</v>
@@ -37661,7 +37661,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>6868766</v>
+        <v>6868765</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37673,73 +37673,73 @@
         <v>45298.45833333334</v>
       </c>
       <c r="F418" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G418" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I418">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J418" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K418">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="L418">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M418">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="N418">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O418">
         <v>3.1</v>
       </c>
       <c r="P418">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q418">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R418">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S418">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="T418">
         <v>2.25</v>
       </c>
       <c r="U418">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="V418">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W418">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X418">
         <v>-1</v>
       </c>
       <c r="Y418">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z418">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA418">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB418">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AC418">
         <v>-1</v>
@@ -37851,7 +37851,7 @@
         <v>45298.69791666666</v>
       </c>
       <c r="F420" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G420" t="s">
         <v>47</v>
@@ -37943,7 +37943,7 @@
         <v>50</v>
       </c>
       <c r="G421" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H421">
         <v>0</v>
@@ -38299,7 +38299,7 @@
         <v>41</v>
       </c>
       <c r="G425" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H425">
         <v>1</v>
@@ -38566,7 +38566,7 @@
         <v>43</v>
       </c>
       <c r="G428" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H428">
         <v>3</v>
@@ -38830,7 +38830,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F431" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G431" t="s">
         <v>44</v>
@@ -39275,7 +39275,7 @@
         <v>45312.69791666666</v>
       </c>
       <c r="F436" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G436" t="s">
         <v>39</v>
@@ -39367,7 +39367,7 @@
         <v>51</v>
       </c>
       <c r="G437" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H437">
         <v>1</v>
@@ -39723,7 +39723,7 @@
         <v>50</v>
       </c>
       <c r="G441" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H441">
         <v>2</v>
@@ -40168,7 +40168,7 @@
         <v>29</v>
       </c>
       <c r="G446" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H446">
         <v>1</v>
@@ -40254,11 +40254,20 @@
         <v>45324.69791666666</v>
       </c>
       <c r="F447" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G447" t="s">
         <v>35</v>
       </c>
+      <c r="H447">
+        <v>3</v>
+      </c>
+      <c r="I447">
+        <v>2</v>
+      </c>
+      <c r="J447" t="s">
+        <v>54</v>
+      </c>
       <c r="K447">
         <v>3.4</v>
       </c>
@@ -40272,43 +40281,49 @@
         <v>3.6</v>
       </c>
       <c r="O447">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P447">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Q447">
         <v>0.25</v>
       </c>
       <c r="R447">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="S447">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="T447">
         <v>2.25</v>
       </c>
       <c r="U447">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="V447">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="W447">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="X447">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y447">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z447">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AA447">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB447">
+        <v>1.06</v>
+      </c>
+      <c r="AC447">
+        <v>-1</v>
       </c>
     </row>
     <row r="448" spans="1:29">
@@ -40316,7 +40331,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>6868806</v>
+        <v>6868799</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40328,46 +40343,46 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F448" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G448" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K448">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L448">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M448">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N448">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O448">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P448">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="Q448">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R448">
-        <v>1.94</v>
+        <v>2.125</v>
       </c>
       <c r="S448">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="T448">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U448">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="V448">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="W448">
         <v>0</v>
@@ -40390,7 +40405,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>6868799</v>
+        <v>6868806</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40402,46 +40417,46 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F449" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G449" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K449">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L449">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M449">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N449">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="O449">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P449">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q449">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R449">
-        <v>2.125</v>
+        <v>1.94</v>
       </c>
       <c r="S449">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="T449">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U449">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="V449">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="W449">
         <v>0</v>
@@ -40503,19 +40518,19 @@
         <v>0.75</v>
       </c>
       <c r="R450">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="S450">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T450">
         <v>3</v>
       </c>
       <c r="U450">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="V450">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W450">
         <v>0</v>
@@ -40577,19 +40592,19 @@
         <v>-0.75</v>
       </c>
       <c r="R451">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S451">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="T451">
         <v>2.5</v>
       </c>
       <c r="U451">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="V451">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W451">
         <v>0</v>
@@ -40624,7 +40639,7 @@
         <v>45326.35416666666</v>
       </c>
       <c r="F452" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G452" t="s">
         <v>29</v>
@@ -40651,19 +40666,19 @@
         <v>-1</v>
       </c>
       <c r="R452">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S452">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="T452">
         <v>2.25</v>
       </c>
       <c r="U452">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V452">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W452">
         <v>0</v>
@@ -40725,10 +40740,10 @@
         <v>-1.25</v>
       </c>
       <c r="R453">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="S453">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="T453">
         <v>2.5</v>
@@ -40787,7 +40802,7 @@
         <v>4</v>
       </c>
       <c r="N454">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O454">
         <v>3.4</v>
@@ -40796,13 +40811,13 @@
         <v>3.75</v>
       </c>
       <c r="Q454">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R454">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="S454">
-        <v>1.83</v>
+        <v>2.125</v>
       </c>
       <c r="T454">
         <v>2.25</v>
@@ -40861,31 +40876,31 @@
         <v>4.5</v>
       </c>
       <c r="N455">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O455">
         <v>3.5</v>
       </c>
       <c r="P455">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q455">
         <v>-0.5</v>
       </c>
       <c r="R455">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S455">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T455">
         <v>2.25</v>
       </c>
       <c r="U455">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="V455">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W455">
         <v>0</v>
@@ -40920,7 +40935,7 @@
         <v>45327.69791666666</v>
       </c>
       <c r="F456" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G456" t="s">
         <v>51</v>
@@ -40947,19 +40962,19 @@
         <v>-1.25</v>
       </c>
       <c r="R456">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="S456">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T456">
         <v>2.5</v>
       </c>
       <c r="U456">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V456">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="W456">
         <v>0</v>
@@ -40974,6 +40989,80 @@
         <v>0</v>
       </c>
       <c r="AA456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:27">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>6868812</v>
+      </c>
+      <c r="C457" t="s">
+        <v>28</v>
+      </c>
+      <c r="D457" t="s">
+        <v>28</v>
+      </c>
+      <c r="E457" s="2">
+        <v>45331.69791666666</v>
+      </c>
+      <c r="F457" t="s">
+        <v>29</v>
+      </c>
+      <c r="G457" t="s">
+        <v>48</v>
+      </c>
+      <c r="K457">
+        <v>2.15</v>
+      </c>
+      <c r="L457">
+        <v>3.4</v>
+      </c>
+      <c r="M457">
+        <v>3.2</v>
+      </c>
+      <c r="N457">
+        <v>2.45</v>
+      </c>
+      <c r="O457">
+        <v>3.4</v>
+      </c>
+      <c r="P457">
+        <v>2.8</v>
+      </c>
+      <c r="Q457">
+        <v>0</v>
+      </c>
+      <c r="R457">
+        <v>1.82</v>
+      </c>
+      <c r="S457">
+        <v>2.08</v>
+      </c>
+      <c r="T457">
+        <v>2.5</v>
+      </c>
+      <c r="U457">
+        <v>2.08</v>
+      </c>
+      <c r="V457">
+        <v>1.82</v>
+      </c>
+      <c r="W457">
+        <v>0</v>
+      </c>
+      <c r="X457">
+        <v>0</v>
+      </c>
+      <c r="Y457">
+        <v>0</v>
+      </c>
+      <c r="Z457">
+        <v>0</v>
+      </c>
+      <c r="AA457">
         <v>0</v>
       </c>
     </row>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Italy Serie A</t>
   </si>
   <si>
-    <t>Salernitana</t>
+    <t>Sassuolo</t>
   </si>
   <si>
-    <t>Sassuolo</t>
+    <t>Salernitana</t>
   </si>
   <si>
     <t>Spezia</t>
@@ -127,10 +127,10 @@
     <t>Cremonese</t>
   </si>
   <si>
-    <t>Udinese</t>
+    <t>Inter Milan</t>
   </si>
   <si>
-    <t>Inter Milan</t>
+    <t>Udinese</t>
   </si>
   <si>
     <t>Juventus</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC457"/>
+  <dimension ref="A1:AC460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5208267</v>
+        <v>5208268</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -652,7 +652,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -664,40 +664,40 @@
         <v>52</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="L2">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="M2">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="N2">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="O2">
+        <v>3.8</v>
+      </c>
+      <c r="P2">
         <v>5</v>
       </c>
-      <c r="P2">
-        <v>1.363</v>
-      </c>
       <c r="Q2">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V2">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -706,19 +706,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.363</v>
+        <v>4</v>
       </c>
       <c r="Z2">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB2">
-        <v>0.42</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5208268</v>
+        <v>5208267</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -741,7 +741,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -753,40 +753,40 @@
         <v>52</v>
       </c>
       <c r="K3">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="M3">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N3">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>1.363</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="V3">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -795,19 +795,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>4</v>
+        <v>0.363</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.9099999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5208271</v>
+        <v>5208264</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1364,73 +1364,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="N10">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T10">
         <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V10">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5208264</v>
+        <v>5208271</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1453,73 +1453,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="N11">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="S11">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1542,7 +1542,7 @@
         <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1631,7 +1631,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1720,7 +1720,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1806,7 +1806,7 @@
         <v>44934.35416666666</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
         <v>32</v>
@@ -2696,7 +2696,7 @@
         <v>44940.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>44</v>
@@ -2785,7 +2785,7 @@
         <v>44941.35416666666</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>41</v>
@@ -2874,7 +2874,7 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3055,7 +3055,7 @@
         <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>8</v>
@@ -3408,7 +3408,7 @@
         <v>44947.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3589,7 +3589,7 @@
         <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4031,7 +4031,7 @@
         <v>44949.69791666666</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
         <v>48</v>
@@ -4301,7 +4301,7 @@
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -5010,7 +5010,7 @@
         <v>44956.69791666666</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
         <v>44</v>
@@ -5277,7 +5277,7 @@
         <v>44961.69791666666</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
         <v>47</v>
@@ -5458,7 +5458,7 @@
         <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5633,7 +5633,7 @@
         <v>44962.69791666666</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
         <v>43</v>
@@ -5900,7 +5900,7 @@
         <v>44964.69791666666</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -6345,10 +6345,10 @@
         <v>44969.35416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6704,7 +6704,7 @@
         <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6793,7 +6793,7 @@
         <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>44974.69791666666</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
@@ -7146,10 +7146,10 @@
         <v>44975.69791666666</v>
       </c>
       <c r="F75" t="s">
+        <v>37</v>
+      </c>
+      <c r="G75" t="s">
         <v>38</v>
-      </c>
-      <c r="G75" t="s">
-        <v>37</v>
       </c>
       <c r="H75">
         <v>3</v>
@@ -7324,7 +7324,7 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>41</v>
@@ -7861,7 +7861,7 @@
         <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7950,7 +7950,7 @@
         <v>45</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8036,7 +8036,7 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8125,7 +8125,7 @@
         <v>44983.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
         <v>31</v>
@@ -8840,7 +8840,7 @@
         <v>47</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -9107,7 +9107,7 @@
         <v>42</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9193,7 +9193,7 @@
         <v>44990.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
         <v>33</v>
@@ -9371,7 +9371,7 @@
         <v>44991.60416666666</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>36</v>
@@ -9552,7 +9552,7 @@
         <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9641,7 +9641,7 @@
         <v>48</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9982,7 +9982,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5209914</v>
+        <v>5209915</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9994,76 +9994,76 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K107">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="N107">
+        <v>4.75</v>
+      </c>
+      <c r="O107">
+        <v>3.75</v>
+      </c>
+      <c r="P107">
+        <v>1.8</v>
+      </c>
+      <c r="Q107">
+        <v>0.75</v>
+      </c>
+      <c r="R107">
+        <v>1.89</v>
+      </c>
+      <c r="S107">
+        <v>2.01</v>
+      </c>
+      <c r="T107">
         <v>2.5</v>
       </c>
-      <c r="O107">
-        <v>3.2</v>
-      </c>
-      <c r="P107">
-        <v>3</v>
-      </c>
-      <c r="Q107">
-        <v>-0.25</v>
-      </c>
-      <c r="R107">
-        <v>2.125</v>
-      </c>
-      <c r="S107">
-        <v>1.78</v>
-      </c>
-      <c r="T107">
-        <v>2.25</v>
-      </c>
       <c r="U107">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="V107">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.39</v>
+        <v>1.01</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.415</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10071,7 +10071,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5209915</v>
+        <v>5209914</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10083,76 +10083,76 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K108">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="L108">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="N108">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="O108">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.89</v>
+        <v>2.125</v>
       </c>
       <c r="S108">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="V108">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>1.01</v>
+        <v>0.39</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>0.9199999999999999</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10175,7 +10175,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10353,7 +10353,7 @@
         <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10439,7 +10439,7 @@
         <v>45002.60416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10706,7 +10706,7 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
         <v>45</v>
@@ -10795,7 +10795,7 @@
         <v>45003.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
         <v>43</v>
@@ -11240,7 +11240,7 @@
         <v>45004.69791666666</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11418,7 +11418,7 @@
         <v>45017.54166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
         <v>35</v>
@@ -11599,7 +11599,7 @@
         <v>45</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H125">
         <v>3</v>
@@ -11777,7 +11777,7 @@
         <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -12130,7 +12130,7 @@
         <v>45019.65625</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>32</v>
@@ -12219,10 +12219,10 @@
         <v>45023.5</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12486,7 +12486,7 @@
         <v>45024.3125</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
         <v>40</v>
@@ -12934,7 +12934,7 @@
         <v>44</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13465,7 +13465,7 @@
         <v>45031.65625</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
         <v>40</v>
@@ -13646,7 +13646,7 @@
         <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13732,7 +13732,7 @@
         <v>45032.54166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
         <v>39</v>
@@ -13824,7 +13824,7 @@
         <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -14088,10 +14088,10 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F153" t="s">
+        <v>30</v>
+      </c>
+      <c r="G153" t="s">
         <v>29</v>
-      </c>
-      <c r="G153" t="s">
-        <v>30</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14358,7 +14358,7 @@
         <v>48</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14444,7 +14444,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
         <v>36</v>
@@ -14892,7 +14892,7 @@
         <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15245,7 +15245,7 @@
         <v>45046.3125</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G166" t="s">
         <v>41</v>
@@ -15337,7 +15337,7 @@
         <v>46</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15423,7 +15423,7 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
         <v>48</v>
@@ -15779,7 +15779,7 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
         <v>35</v>
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5545303</v>
+        <v>5545300</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,58 +15868,58 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H173">
+        <v>3</v>
+      </c>
+      <c r="I173">
         <v>2</v>
-      </c>
-      <c r="I173">
-        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>54</v>
       </c>
       <c r="K173">
-        <v>1.55</v>
+        <v>1.363</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M173">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N173">
-        <v>1.55</v>
+        <v>1.363</v>
       </c>
       <c r="O173">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P173">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q173">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R173">
-        <v>2.11</v>
+        <v>1.88</v>
       </c>
       <c r="S173">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V173">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="W173">
-        <v>0.55</v>
+        <v>0.363</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15928,13 +15928,13 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA173">
-        <v>-0</v>
+        <v>0.51</v>
       </c>
       <c r="AB173">
-        <v>0.8999999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15945,7 +15945,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5545300</v>
+        <v>5545303</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15957,58 +15957,58 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
         <v>54</v>
       </c>
       <c r="K174">
-        <v>1.363</v>
+        <v>1.55</v>
       </c>
       <c r="L174">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M174">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N174">
-        <v>1.363</v>
+        <v>1.55</v>
       </c>
       <c r="O174">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P174">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q174">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R174">
-        <v>1.88</v>
+        <v>2.11</v>
       </c>
       <c r="S174">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U174">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W174">
-        <v>0.363</v>
+        <v>0.55</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16017,13 +16017,13 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA174">
-        <v>0.51</v>
+        <v>-0</v>
       </c>
       <c r="AB174">
-        <v>0.9099999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16227,7 +16227,7 @@
         <v>44</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16316,7 +16316,7 @@
         <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16580,7 +16580,7 @@
         <v>45050.65625</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
         <v>46</v>
@@ -16761,7 +16761,7 @@
         <v>34</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -17292,7 +17292,7 @@
         <v>45054.5625</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
         <v>42</v>
@@ -17384,7 +17384,7 @@
         <v>48</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17470,7 +17470,7 @@
         <v>45054.65625</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G191" t="s">
         <v>45</v>
@@ -17648,7 +17648,7 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G193" t="s">
         <v>47</v>
@@ -17826,10 +17826,10 @@
         <v>45059.65625</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H195">
         <v>4</v>
@@ -18096,7 +18096,7 @@
         <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -18449,7 +18449,7 @@
         <v>45065.65625</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G202" t="s">
         <v>40</v>
@@ -18986,7 +18986,7 @@
         <v>46</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H208">
         <v>3</v>
@@ -19072,7 +19072,7 @@
         <v>45067.65625</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G209" t="s">
         <v>41</v>
@@ -19164,7 +19164,7 @@
         <v>34</v>
       </c>
       <c r="G210" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H210">
         <v>2</v>
@@ -19342,7 +19342,7 @@
         <v>42</v>
       </c>
       <c r="G212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6682615</v>
+        <v>6682613</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,73 +19428,73 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K213">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L213">
+        <v>3.5</v>
+      </c>
+      <c r="M213">
+        <v>2.5</v>
+      </c>
+      <c r="N213">
+        <v>2.8</v>
+      </c>
+      <c r="O213">
         <v>3.3</v>
       </c>
-      <c r="M213">
-        <v>2.9</v>
-      </c>
-      <c r="N213">
+      <c r="P213">
         <v>2.55</v>
       </c>
-      <c r="O213">
-        <v>3.1</v>
-      </c>
-      <c r="P213">
-        <v>2.9</v>
-      </c>
       <c r="Q213">
         <v>0</v>
       </c>
       <c r="R213">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="S213">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="V213">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA213">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.8799999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6682613</v>
+        <v>6682615</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,73 +19517,73 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214">
+        <v>4</v>
+      </c>
+      <c r="J214" t="s">
+        <v>52</v>
+      </c>
+      <c r="K214">
+        <v>2.45</v>
+      </c>
+      <c r="L214">
+        <v>3.3</v>
+      </c>
+      <c r="M214">
+        <v>2.9</v>
+      </c>
+      <c r="N214">
+        <v>2.55</v>
+      </c>
+      <c r="O214">
+        <v>3.1</v>
+      </c>
+      <c r="P214">
+        <v>2.9</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>1.84</v>
+      </c>
+      <c r="S214">
+        <v>2.06</v>
+      </c>
+      <c r="T214">
         <v>2</v>
       </c>
-      <c r="J214" t="s">
-        <v>54</v>
-      </c>
-      <c r="K214">
-        <v>2.75</v>
-      </c>
-      <c r="L214">
-        <v>3.5</v>
-      </c>
-      <c r="M214">
-        <v>2.5</v>
-      </c>
-      <c r="N214">
-        <v>2.8</v>
-      </c>
-      <c r="O214">
-        <v>3.3</v>
-      </c>
-      <c r="P214">
-        <v>2.55</v>
-      </c>
-      <c r="Q214">
-        <v>0</v>
-      </c>
-      <c r="R214">
-        <v>2.05</v>
-      </c>
-      <c r="S214">
-        <v>1.85</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
       <c r="U214">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="V214">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="W214">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z214">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB214">
-        <v>1.05</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19695,7 +19695,7 @@
         <v>45073.65625</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G216" t="s">
         <v>47</v>
@@ -20229,7 +20229,7 @@
         <v>45079.64583333334</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G222" t="s">
         <v>35</v>
@@ -20321,7 +20321,7 @@
         <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -20410,7 +20410,7 @@
         <v>36</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5706211</v>
+        <v>5706213</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,73 +20763,73 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H228">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K228">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L228">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N228">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O228">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P228">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q228">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S228">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="T228">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="V228">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="W228">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z228">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AB228">
-        <v>0.8799999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5737536</v>
+        <v>5706211</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,76 +20852,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G229" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K229">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L229">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M229">
+        <v>5.5</v>
+      </c>
+      <c r="N229">
+        <v>1.5</v>
+      </c>
+      <c r="O229">
+        <v>5</v>
+      </c>
+      <c r="P229">
+        <v>5.75</v>
+      </c>
+      <c r="Q229">
+        <v>-1.25</v>
+      </c>
+      <c r="R229">
+        <v>2.05</v>
+      </c>
+      <c r="S229">
         <v>1.85</v>
       </c>
-      <c r="N229">
-        <v>5.25</v>
-      </c>
-      <c r="O229">
-        <v>4.2</v>
-      </c>
-      <c r="P229">
-        <v>1.615</v>
-      </c>
-      <c r="Q229">
-        <v>0.75</v>
-      </c>
-      <c r="R229">
-        <v>2.08</v>
-      </c>
-      <c r="S229">
-        <v>1.82</v>
-      </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U229">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V229">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA229">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC229">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5706213</v>
+        <v>5737536</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,55 +20941,55 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G230" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
         <v>52</v>
       </c>
       <c r="K230">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L230">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="N230">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O230">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P230">
+        <v>1.615</v>
+      </c>
+      <c r="Q230">
+        <v>0.75</v>
+      </c>
+      <c r="R230">
+        <v>2.08</v>
+      </c>
+      <c r="S230">
+        <v>1.82</v>
+      </c>
+      <c r="T230">
         <v>2.75</v>
       </c>
-      <c r="Q230">
-        <v>0</v>
-      </c>
-      <c r="R230">
-        <v>1.87</v>
-      </c>
-      <c r="S230">
-        <v>2.03</v>
-      </c>
-      <c r="T230">
-        <v>2.5</v>
-      </c>
       <c r="U230">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="V230">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -20998,19 +20998,19 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.75</v>
+        <v>0.615</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA230">
-        <v>1.03</v>
+        <v>0.41</v>
       </c>
       <c r="AB230">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21386,7 +21386,7 @@
         <v>45157.65625</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G235" t="s">
         <v>40</v>
@@ -21463,7 +21463,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6868444</v>
+        <v>6868443</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21475,76 +21475,76 @@
         <v>45158.5625</v>
       </c>
       <c r="F236" t="s">
+        <v>34</v>
+      </c>
+      <c r="G236" t="s">
         <v>30</v>
       </c>
-      <c r="G236" t="s">
-        <v>47</v>
-      </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236">
         <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K236">
+        <v>1.5</v>
+      </c>
+      <c r="L236">
+        <v>4</v>
+      </c>
+      <c r="M236">
+        <v>5.5</v>
+      </c>
+      <c r="N236">
+        <v>1.5</v>
+      </c>
+      <c r="O236">
+        <v>4</v>
+      </c>
+      <c r="P236">
+        <v>7.5</v>
+      </c>
+      <c r="Q236">
+        <v>-1</v>
+      </c>
+      <c r="R236">
+        <v>1.93</v>
+      </c>
+      <c r="S236">
+        <v>1.97</v>
+      </c>
+      <c r="T236">
+        <v>2.25</v>
+      </c>
+      <c r="U236">
+        <v>1.97</v>
+      </c>
+      <c r="V236">
+        <v>1.93</v>
+      </c>
+      <c r="W236">
+        <v>-1</v>
+      </c>
+      <c r="X236">
         <v>3</v>
       </c>
-      <c r="L236">
-        <v>3.3</v>
-      </c>
-      <c r="M236">
-        <v>2.2</v>
-      </c>
-      <c r="N236">
-        <v>3.25</v>
-      </c>
-      <c r="O236">
-        <v>3.5</v>
-      </c>
-      <c r="P236">
-        <v>2.2</v>
-      </c>
-      <c r="Q236">
-        <v>0.25</v>
-      </c>
-      <c r="R236">
-        <v>1.98</v>
-      </c>
-      <c r="S236">
-        <v>1.92</v>
-      </c>
-      <c r="T236">
-        <v>2.75</v>
-      </c>
-      <c r="U236">
-        <v>1.93</v>
-      </c>
-      <c r="V236">
-        <v>1.97</v>
-      </c>
-      <c r="W236">
-        <v>-1</v>
-      </c>
-      <c r="X236">
-        <v>-1</v>
-      </c>
       <c r="Y236">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.9199999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC236">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21552,7 +21552,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6868443</v>
+        <v>6868444</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21564,76 +21564,76 @@
         <v>45158.5625</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G237" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237">
         <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K237">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M237">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N237">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O237">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P237">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q237">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
+        <v>1.98</v>
+      </c>
+      <c r="S237">
+        <v>1.92</v>
+      </c>
+      <c r="T237">
+        <v>2.75</v>
+      </c>
+      <c r="U237">
         <v>1.93</v>
       </c>
-      <c r="S237">
+      <c r="V237">
         <v>1.97</v>
       </c>
-      <c r="T237">
-        <v>2.25</v>
-      </c>
-      <c r="U237">
-        <v>1.97</v>
-      </c>
-      <c r="V237">
-        <v>1.93</v>
-      </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="AB237">
+        <v>-1</v>
+      </c>
+      <c r="AC237">
         <v>0.97</v>
-      </c>
-      <c r="AB237">
-        <v>0.97</v>
-      </c>
-      <c r="AC237">
-        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21742,7 +21742,7 @@
         <v>45158.65625</v>
       </c>
       <c r="F239" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G239" t="s">
         <v>39</v>
@@ -21997,7 +21997,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6868589</v>
+        <v>6868584</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22009,76 +22009,76 @@
         <v>45164.5625</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G242" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H242">
         <v>2</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="s">
         <v>54</v>
       </c>
       <c r="K242">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L242">
         <v>3.6</v>
       </c>
       <c r="M242">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N242">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="O242">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P242">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q242">
+        <v>1</v>
+      </c>
+      <c r="R242">
+        <v>1.84</v>
+      </c>
+      <c r="S242">
+        <v>2.06</v>
+      </c>
+      <c r="T242">
+        <v>2.75</v>
+      </c>
+      <c r="U242">
+        <v>1.92</v>
+      </c>
+      <c r="V242">
+        <v>1.98</v>
+      </c>
+      <c r="W242">
+        <v>4.25</v>
+      </c>
+      <c r="X242">
+        <v>-1</v>
+      </c>
+      <c r="Y242">
+        <v>-1</v>
+      </c>
+      <c r="Z242">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AA242">
+        <v>-1</v>
+      </c>
+      <c r="AB242">
+        <v>0.46</v>
+      </c>
+      <c r="AC242">
         <v>-0.5</v>
-      </c>
-      <c r="R242">
-        <v>1.93</v>
-      </c>
-      <c r="S242">
-        <v>1.97</v>
-      </c>
-      <c r="T242">
-        <v>2.5</v>
-      </c>
-      <c r="U242">
-        <v>1.9</v>
-      </c>
-      <c r="V242">
-        <v>2</v>
-      </c>
-      <c r="W242">
-        <v>0.909</v>
-      </c>
-      <c r="X242">
-        <v>-1</v>
-      </c>
-      <c r="Y242">
-        <v>-1</v>
-      </c>
-      <c r="Z242">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="AA242">
-        <v>-1</v>
-      </c>
-      <c r="AB242">
-        <v>-1</v>
-      </c>
-      <c r="AC242">
-        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22086,7 +22086,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6868584</v>
+        <v>6868589</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22098,76 +22098,76 @@
         <v>45164.5625</v>
       </c>
       <c r="F243" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G243" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H243">
         <v>2</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
         <v>54</v>
       </c>
       <c r="K243">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="L243">
         <v>3.6</v>
       </c>
       <c r="M243">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N243">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="O243">
+        <v>3.6</v>
+      </c>
+      <c r="P243">
         <v>4</v>
       </c>
-      <c r="P243">
-        <v>1.6</v>
-      </c>
       <c r="Q243">
+        <v>-0.5</v>
+      </c>
+      <c r="R243">
+        <v>1.93</v>
+      </c>
+      <c r="S243">
+        <v>1.97</v>
+      </c>
+      <c r="T243">
+        <v>2.5</v>
+      </c>
+      <c r="U243">
+        <v>1.9</v>
+      </c>
+      <c r="V243">
+        <v>2</v>
+      </c>
+      <c r="W243">
+        <v>0.909</v>
+      </c>
+      <c r="X243">
+        <v>-1</v>
+      </c>
+      <c r="Y243">
+        <v>-1</v>
+      </c>
+      <c r="Z243">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AA243">
+        <v>-1</v>
+      </c>
+      <c r="AB243">
+        <v>-1</v>
+      </c>
+      <c r="AC243">
         <v>1</v>
-      </c>
-      <c r="R243">
-        <v>1.84</v>
-      </c>
-      <c r="S243">
-        <v>2.06</v>
-      </c>
-      <c r="T243">
-        <v>2.75</v>
-      </c>
-      <c r="U243">
-        <v>1.92</v>
-      </c>
-      <c r="V243">
-        <v>1.98</v>
-      </c>
-      <c r="W243">
-        <v>4.25</v>
-      </c>
-      <c r="X243">
-        <v>-1</v>
-      </c>
-      <c r="Y243">
-        <v>-1</v>
-      </c>
-      <c r="Z243">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="AA243">
-        <v>-1</v>
-      </c>
-      <c r="AB243">
-        <v>0.46</v>
-      </c>
-      <c r="AC243">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22635,7 +22635,7 @@
         <v>46</v>
       </c>
       <c r="G249" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H249">
         <v>2</v>
@@ -22721,10 +22721,10 @@
         <v>45166.5625</v>
       </c>
       <c r="F250" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G250" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -22813,7 +22813,7 @@
         <v>51</v>
       </c>
       <c r="G251" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -22899,7 +22899,7 @@
         <v>45170.5625</v>
       </c>
       <c r="F252" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G252" t="s">
         <v>44</v>
@@ -23077,7 +23077,7 @@
         <v>45171.5625</v>
       </c>
       <c r="F254" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G254" t="s">
         <v>49</v>
@@ -23433,7 +23433,7 @@
         <v>45172.5625</v>
       </c>
       <c r="F258" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G258" t="s">
         <v>35</v>
@@ -23703,7 +23703,7 @@
         <v>33</v>
       </c>
       <c r="G261" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H261">
         <v>2</v>
@@ -23878,7 +23878,7 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F263" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G263" t="s">
         <v>43</v>
@@ -24059,7 +24059,7 @@
         <v>51</v>
       </c>
       <c r="G265" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -24237,7 +24237,7 @@
         <v>49</v>
       </c>
       <c r="G267" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H267">
         <v>4</v>
@@ -24501,7 +24501,7 @@
         <v>45187.5625</v>
       </c>
       <c r="F270" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G270" t="s">
         <v>32</v>
@@ -24679,7 +24679,7 @@
         <v>45191.5625</v>
       </c>
       <c r="F272" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G272" t="s">
         <v>49</v>
@@ -24946,7 +24946,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F275" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G275" t="s">
         <v>39</v>
@@ -25127,7 +25127,7 @@
         <v>48</v>
       </c>
       <c r="G277" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H277">
         <v>0</v>
@@ -25302,7 +25302,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F279" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G279" t="s">
         <v>35</v>
@@ -25839,7 +25839,7 @@
         <v>48</v>
       </c>
       <c r="G285" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -25928,7 +25928,7 @@
         <v>46</v>
       </c>
       <c r="G286" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H286">
         <v>4</v>
@@ -26002,7 +26002,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6868627</v>
+        <v>6868629</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26014,76 +26014,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F287" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G287" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K287">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="L287">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M287">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="N287">
+        <v>2.25</v>
+      </c>
+      <c r="O287">
+        <v>3.2</v>
+      </c>
+      <c r="P287">
+        <v>3.4</v>
+      </c>
+      <c r="Q287">
+        <v>-0.25</v>
+      </c>
+      <c r="R287">
+        <v>1.97</v>
+      </c>
+      <c r="S287">
+        <v>1.93</v>
+      </c>
+      <c r="T287">
+        <v>2.25</v>
+      </c>
+      <c r="U287">
+        <v>2.05</v>
+      </c>
+      <c r="V287">
+        <v>1.85</v>
+      </c>
+      <c r="W287">
         <v>1.25</v>
       </c>
-      <c r="O287">
-        <v>6.5</v>
-      </c>
-      <c r="P287">
-        <v>8.5</v>
-      </c>
-      <c r="Q287">
-        <v>-1.75</v>
-      </c>
-      <c r="R287">
-        <v>1.89</v>
-      </c>
-      <c r="S287">
-        <v>2.01</v>
-      </c>
-      <c r="T287">
-        <v>3.75</v>
-      </c>
-      <c r="U287">
-        <v>1.85</v>
-      </c>
-      <c r="V287">
-        <v>2.05</v>
-      </c>
-      <c r="W287">
-        <v>-1</v>
-      </c>
       <c r="X287">
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA287">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC287">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26091,7 +26091,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6868629</v>
+        <v>6868627</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26103,76 +26103,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F288" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G288" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288">
         <v>2</v>
       </c>
-      <c r="I288">
-        <v>0</v>
-      </c>
       <c r="J288" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K288">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="L288">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M288">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="N288">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="O288">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P288">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q288">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R288">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="S288">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="T288">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U288">
+        <v>1.85</v>
+      </c>
+      <c r="V288">
         <v>2.05</v>
       </c>
-      <c r="V288">
-        <v>1.85</v>
-      </c>
       <c r="W288">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X288">
         <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z288">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB288">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26548,10 +26548,10 @@
         <v>45199.65625</v>
       </c>
       <c r="F293" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G293" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H293">
         <v>0</v>
@@ -26726,7 +26726,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F295" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G295" t="s">
         <v>50</v>
@@ -26981,7 +26981,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6868640</v>
+        <v>6868639</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26993,76 +26993,76 @@
         <v>45201.5625</v>
       </c>
       <c r="F298" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G298" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H298">
         <v>0</v>
       </c>
       <c r="I298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K298">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L298">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M298">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N298">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O298">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P298">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q298">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R298">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="S298">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="T298">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U298">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="V298">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z298">
         <v>-1</v>
       </c>
       <c r="AA298">
-        <v>0.9099999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AB298">
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.8</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27070,7 +27070,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6868639</v>
+        <v>6868640</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27082,76 +27082,76 @@
         <v>45201.5625</v>
       </c>
       <c r="F299" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G299" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H299">
         <v>0</v>
       </c>
       <c r="I299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K299">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L299">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M299">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N299">
+        <v>1.7</v>
+      </c>
+      <c r="O299">
+        <v>3.5</v>
+      </c>
+      <c r="P299">
+        <v>5.5</v>
+      </c>
+      <c r="Q299">
+        <v>-0.75</v>
+      </c>
+      <c r="R299">
+        <v>1.99</v>
+      </c>
+      <c r="S299">
+        <v>1.91</v>
+      </c>
+      <c r="T299">
+        <v>2.25</v>
+      </c>
+      <c r="U299">
         <v>2.1</v>
       </c>
-      <c r="O299">
-        <v>3.8</v>
-      </c>
-      <c r="P299">
-        <v>3.2</v>
-      </c>
-      <c r="Q299">
-        <v>-0.25</v>
-      </c>
-      <c r="R299">
-        <v>1.88</v>
-      </c>
-      <c r="S299">
-        <v>2.02</v>
-      </c>
-      <c r="T299">
-        <v>3</v>
-      </c>
-      <c r="U299">
-        <v>1.97</v>
-      </c>
       <c r="V299">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="W299">
         <v>-1</v>
       </c>
       <c r="X299">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y299">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z299">
         <v>-1</v>
       </c>
       <c r="AA299">
-        <v>1.02</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB299">
         <v>-1</v>
       </c>
       <c r="AC299">
-        <v>0.9299999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27263,7 +27263,7 @@
         <v>48</v>
       </c>
       <c r="G301" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H301">
         <v>0</v>
@@ -27352,7 +27352,7 @@
         <v>33</v>
       </c>
       <c r="G302" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H302">
         <v>1</v>
@@ -27438,7 +27438,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F303" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G303" t="s">
         <v>45</v>
@@ -27708,7 +27708,7 @@
         <v>40</v>
       </c>
       <c r="G306" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H306">
         <v>3</v>
@@ -28242,7 +28242,7 @@
         <v>32</v>
       </c>
       <c r="G312" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H312">
         <v>0</v>
@@ -28328,7 +28328,7 @@
         <v>45220.65625</v>
       </c>
       <c r="F313" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G313" t="s">
         <v>41</v>
@@ -28506,7 +28506,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F315" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G315" t="s">
         <v>51</v>
@@ -28862,7 +28862,7 @@
         <v>45222.5625</v>
       </c>
       <c r="F319" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G319" t="s">
         <v>33</v>
@@ -29043,7 +29043,7 @@
         <v>50</v>
       </c>
       <c r="G321" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -29129,7 +29129,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F322" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G322" t="s">
         <v>45</v>
@@ -29488,7 +29488,7 @@
         <v>40</v>
       </c>
       <c r="G326" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H326">
         <v>1</v>
@@ -29574,7 +29574,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F327" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G327" t="s">
         <v>34</v>
@@ -30019,7 +30019,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F332" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G332" t="s">
         <v>46</v>
@@ -30111,7 +30111,7 @@
         <v>47</v>
       </c>
       <c r="G333" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H333">
         <v>1</v>
@@ -30200,7 +30200,7 @@
         <v>43</v>
       </c>
       <c r="G334" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H334">
         <v>0</v>
@@ -30734,7 +30734,7 @@
         <v>32</v>
       </c>
       <c r="G340" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H340">
         <v>2</v>
@@ -30820,10 +30820,10 @@
         <v>45240.60416666666</v>
       </c>
       <c r="F341" t="s">
+        <v>29</v>
+      </c>
+      <c r="G341" t="s">
         <v>30</v>
-      </c>
-      <c r="G341" t="s">
-        <v>29</v>
       </c>
       <c r="H341">
         <v>2</v>
@@ -31354,7 +31354,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F347" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G347" t="s">
         <v>47</v>
@@ -31621,7 +31621,7 @@
         <v>45242.69791666666</v>
       </c>
       <c r="F350" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G350" t="s">
         <v>49</v>
@@ -31710,7 +31710,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F351" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G351" t="s">
         <v>41</v>
@@ -32054,7 +32054,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6868700</v>
+        <v>6868701</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32066,73 +32066,73 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G355" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H355">
+        <v>2</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355" t="s">
+        <v>54</v>
+      </c>
+      <c r="K355">
+        <v>2.4</v>
+      </c>
+      <c r="L355">
+        <v>3.25</v>
+      </c>
+      <c r="M355">
+        <v>2.9</v>
+      </c>
+      <c r="N355">
+        <v>2.375</v>
+      </c>
+      <c r="O355">
+        <v>3.25</v>
+      </c>
+      <c r="P355">
         <v>3</v>
       </c>
-      <c r="I355">
-        <v>4</v>
-      </c>
-      <c r="J355" t="s">
-        <v>52</v>
-      </c>
-      <c r="K355">
-        <v>2.9</v>
-      </c>
-      <c r="L355">
-        <v>3.4</v>
-      </c>
-      <c r="M355">
-        <v>2.375</v>
-      </c>
-      <c r="N355">
-        <v>2.625</v>
-      </c>
-      <c r="O355">
-        <v>3.5</v>
-      </c>
-      <c r="P355">
-        <v>2.6</v>
-      </c>
       <c r="Q355">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R355">
+        <v>2.09</v>
+      </c>
+      <c r="S355">
+        <v>1.81</v>
+      </c>
+      <c r="T355">
+        <v>2.25</v>
+      </c>
+      <c r="U355">
         <v>1.95</v>
       </c>
-      <c r="S355">
+      <c r="V355">
         <v>1.95</v>
       </c>
-      <c r="T355">
-        <v>2.75</v>
-      </c>
-      <c r="U355">
-        <v>1.85</v>
-      </c>
-      <c r="V355">
-        <v>2.05</v>
-      </c>
       <c r="W355">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X355">
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z355">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AA355">
+        <v>-1</v>
+      </c>
+      <c r="AB355">
         <v>0.95</v>
-      </c>
-      <c r="AB355">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC355">
         <v>-1</v>
@@ -32143,7 +32143,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6868701</v>
+        <v>6868700</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32155,73 +32155,73 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G356" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I356">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J356" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K356">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L356">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M356">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="N356">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="O356">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P356">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q356">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R356">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="S356">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="T356">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U356">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V356">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W356">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X356">
         <v>-1</v>
       </c>
       <c r="Y356">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z356">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AA356">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB356">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC356">
         <v>-1</v>
@@ -32247,7 +32247,7 @@
         <v>34</v>
       </c>
       <c r="G357" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H357">
         <v>3</v>
@@ -32336,7 +32336,7 @@
         <v>39</v>
       </c>
       <c r="G358" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H358">
         <v>1</v>
@@ -33048,7 +33048,7 @@
         <v>35</v>
       </c>
       <c r="G366" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H366">
         <v>3</v>
@@ -33134,7 +33134,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F367" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G367" t="s">
         <v>44</v>
@@ -33223,7 +33223,7 @@
         <v>45263.58333333334</v>
       </c>
       <c r="F368" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G368" t="s">
         <v>34</v>
@@ -33315,7 +33315,7 @@
         <v>46</v>
       </c>
       <c r="G369" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H369">
         <v>0</v>
@@ -33757,10 +33757,10 @@
         <v>45269.69791666666</v>
       </c>
       <c r="F374" t="s">
+        <v>37</v>
+      </c>
+      <c r="G374" t="s">
         <v>38</v>
-      </c>
-      <c r="G374" t="s">
-        <v>37</v>
       </c>
       <c r="H374">
         <v>4</v>
@@ -34024,7 +34024,7 @@
         <v>45270.58333333334</v>
       </c>
       <c r="F377" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G377" t="s">
         <v>45</v>
@@ -34294,7 +34294,7 @@
         <v>51</v>
       </c>
       <c r="G380" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H380">
         <v>2</v>
@@ -34813,7 +34813,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>6868729</v>
+        <v>6868736</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34825,61 +34825,61 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F386" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G386" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I386">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J386" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K386">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L386">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M386">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N386">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O386">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P386">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q386">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R386">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S386">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T386">
         <v>2.5</v>
       </c>
       <c r="U386">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V386">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W386">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X386">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y386">
         <v>-1</v>
@@ -34891,10 +34891,10 @@
         <v>-0</v>
       </c>
       <c r="AB386">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC386">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -34902,7 +34902,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>6868736</v>
+        <v>6868729</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34914,61 +34914,61 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F387" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G387" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J387" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K387">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L387">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M387">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="N387">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O387">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P387">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q387">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R387">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S387">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T387">
         <v>2.5</v>
       </c>
       <c r="U387">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V387">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W387">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X387">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y387">
         <v>-1</v>
@@ -34980,10 +34980,10 @@
         <v>-0</v>
       </c>
       <c r="AB387">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC387">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -35095,7 +35095,7 @@
         <v>41</v>
       </c>
       <c r="G389" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H389">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>47</v>
       </c>
       <c r="G390" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H390">
         <v>4</v>
@@ -35258,7 +35258,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>6868745</v>
+        <v>6868738</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35270,13 +35270,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F391" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G391" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391">
         <v>2</v>
@@ -35285,40 +35285,40 @@
         <v>52</v>
       </c>
       <c r="K391">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L391">
         <v>3.4</v>
       </c>
       <c r="M391">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="N391">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O391">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P391">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q391">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R391">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="S391">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="T391">
         <v>2.25</v>
       </c>
       <c r="U391">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V391">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="W391">
         <v>-1</v>
@@ -35327,19 +35327,19 @@
         <v>-1</v>
       </c>
       <c r="Y391">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z391">
         <v>-1</v>
       </c>
       <c r="AA391">
-        <v>1.11</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB391">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AC391">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35347,7 +35347,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>6868738</v>
+        <v>6868745</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35359,13 +35359,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F392" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G392" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I392">
         <v>2</v>
@@ -35374,40 +35374,40 @@
         <v>52</v>
       </c>
       <c r="K392">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L392">
         <v>3.4</v>
       </c>
       <c r="M392">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="N392">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O392">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P392">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q392">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R392">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="S392">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="T392">
         <v>2.25</v>
       </c>
       <c r="U392">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V392">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W392">
         <v>-1</v>
@@ -35416,19 +35416,19 @@
         <v>-1</v>
       </c>
       <c r="Y392">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z392">
         <v>-1</v>
       </c>
       <c r="AA392">
-        <v>0.9199999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AB392">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="AC392">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -35448,7 +35448,7 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F393" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G393" t="s">
         <v>43</v>
@@ -35718,7 +35718,7 @@
         <v>32</v>
       </c>
       <c r="G396" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H396">
         <v>1</v>
@@ -35982,7 +35982,7 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F399" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G399" t="s">
         <v>33</v>
@@ -36341,7 +36341,7 @@
         <v>50</v>
       </c>
       <c r="G403" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H403">
         <v>1</v>
@@ -36593,7 +36593,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6868748</v>
+        <v>6868756</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36605,76 +36605,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F406" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G406" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I406">
         <v>0</v>
       </c>
       <c r="J406" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K406">
+        <v>2.8</v>
+      </c>
+      <c r="L406">
+        <v>3.2</v>
+      </c>
+      <c r="M406">
+        <v>2.5</v>
+      </c>
+      <c r="N406">
+        <v>3.6</v>
+      </c>
+      <c r="O406">
+        <v>3</v>
+      </c>
+      <c r="P406">
+        <v>2.25</v>
+      </c>
+      <c r="Q406">
+        <v>0.25</v>
+      </c>
+      <c r="R406">
+        <v>1.9</v>
+      </c>
+      <c r="S406">
         <v>2</v>
       </c>
-      <c r="L406">
-        <v>3.4</v>
-      </c>
-      <c r="M406">
-        <v>3.75</v>
-      </c>
-      <c r="N406">
+      <c r="T406">
         <v>2</v>
       </c>
-      <c r="O406">
-        <v>3.5</v>
-      </c>
-      <c r="P406">
-        <v>3.75</v>
-      </c>
-      <c r="Q406">
-        <v>-0.5</v>
-      </c>
-      <c r="R406">
-        <v>2.05</v>
-      </c>
-      <c r="S406">
-        <v>1.85</v>
-      </c>
-      <c r="T406">
-        <v>2.5</v>
-      </c>
       <c r="U406">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V406">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W406">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X406">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y406">
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA406">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC406">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36682,7 +36682,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6868756</v>
+        <v>6868748</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36694,76 +36694,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F407" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G407" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H407">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407">
         <v>0</v>
       </c>
       <c r="J407" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K407">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L407">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M407">
+        <v>3.75</v>
+      </c>
+      <c r="N407">
+        <v>2</v>
+      </c>
+      <c r="O407">
+        <v>3.5</v>
+      </c>
+      <c r="P407">
+        <v>3.75</v>
+      </c>
+      <c r="Q407">
+        <v>-0.5</v>
+      </c>
+      <c r="R407">
+        <v>2.05</v>
+      </c>
+      <c r="S407">
+        <v>1.85</v>
+      </c>
+      <c r="T407">
         <v>2.5</v>
       </c>
-      <c r="N407">
-        <v>3.6</v>
-      </c>
-      <c r="O407">
-        <v>3</v>
-      </c>
-      <c r="P407">
-        <v>2.25</v>
-      </c>
-      <c r="Q407">
-        <v>0.25</v>
-      </c>
-      <c r="R407">
-        <v>1.9</v>
-      </c>
-      <c r="S407">
-        <v>2</v>
-      </c>
-      <c r="T407">
-        <v>2</v>
-      </c>
       <c r="U407">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V407">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W407">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X407">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y407">
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA407">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB407">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC407">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36771,7 +36771,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>6868751</v>
+        <v>6868754</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36783,76 +36783,76 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F408" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G408" t="s">
         <v>29</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J408" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K408">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L408">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M408">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N408">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O408">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P408">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q408">
+        <v>-1.25</v>
+      </c>
+      <c r="R408">
+        <v>2.09</v>
+      </c>
+      <c r="S408">
+        <v>1.84</v>
+      </c>
+      <c r="T408">
+        <v>3.25</v>
+      </c>
+      <c r="U408">
+        <v>1.95</v>
+      </c>
+      <c r="V408">
+        <v>1.95</v>
+      </c>
+      <c r="W408">
+        <v>0.5</v>
+      </c>
+      <c r="X408">
+        <v>-1</v>
+      </c>
+      <c r="Y408">
+        <v>-1</v>
+      </c>
+      <c r="Z408">
         <v>-0.5</v>
       </c>
-      <c r="R408">
-        <v>1.93</v>
-      </c>
-      <c r="S408">
-        <v>1.97</v>
-      </c>
-      <c r="T408">
-        <v>2.25</v>
-      </c>
-      <c r="U408">
-        <v>1.775</v>
-      </c>
-      <c r="V408">
-        <v>2.025</v>
-      </c>
-      <c r="W408">
-        <v>-1</v>
-      </c>
-      <c r="X408">
-        <v>-1</v>
-      </c>
-      <c r="Y408">
-        <v>3.2</v>
-      </c>
-      <c r="Z408">
-        <v>-1</v>
-      </c>
       <c r="AA408">
-        <v>0.97</v>
+        <v>0.42</v>
       </c>
       <c r="AB408">
         <v>-1</v>
       </c>
       <c r="AC408">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36860,7 +36860,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>6868754</v>
+        <v>6868751</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36872,76 +36872,76 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F409" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G409" t="s">
         <v>30</v>
       </c>
       <c r="H409">
+        <v>0</v>
+      </c>
+      <c r="I409">
         <v>1</v>
       </c>
-      <c r="I409">
-        <v>0</v>
-      </c>
       <c r="J409" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K409">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L409">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M409">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N409">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O409">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P409">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q409">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R409">
-        <v>2.09</v>
+        <v>1.93</v>
       </c>
       <c r="S409">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="T409">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U409">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V409">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W409">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X409">
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z409">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA409">
-        <v>0.42</v>
+        <v>0.97</v>
       </c>
       <c r="AB409">
         <v>-1</v>
       </c>
       <c r="AC409">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -37139,7 +37139,7 @@
         <v>45297.35416666666</v>
       </c>
       <c r="F412" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G412" t="s">
         <v>44</v>
@@ -37406,7 +37406,7 @@
         <v>45297.69791666666</v>
       </c>
       <c r="F415" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G415" t="s">
         <v>35</v>
@@ -37584,7 +37584,7 @@
         <v>45298.45833333334</v>
       </c>
       <c r="F417" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G417" t="s">
         <v>41</v>
@@ -37762,7 +37762,7 @@
         <v>45298.58333333334</v>
       </c>
       <c r="F419" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G419" t="s">
         <v>39</v>
@@ -37928,7 +37928,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>6868770</v>
+        <v>6868776</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37940,76 +37940,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F421" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G421" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K421">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="L421">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M421">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="N421">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O421">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="P421">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q421">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R421">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="S421">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="T421">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U421">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V421">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W421">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X421">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y421">
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>0.385</v>
+        <v>-1</v>
       </c>
       <c r="AA421">
+        <v>0.97</v>
+      </c>
+      <c r="AB421">
+        <v>0.46</v>
+      </c>
+      <c r="AC421">
         <v>-0.5</v>
-      </c>
-      <c r="AB421">
-        <v>-1</v>
-      </c>
-      <c r="AC421">
-        <v>1.05</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38017,7 +38017,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>6868776</v>
+        <v>6868770</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38029,76 +38029,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F422" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G422" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J422" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K422">
-        <v>1.285</v>
+        <v>2.625</v>
       </c>
       <c r="L422">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M422">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="N422">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="O422">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P422">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q422">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R422">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="S422">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="T422">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U422">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="V422">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="W422">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X422">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>-1</v>
+        <v>0.385</v>
       </c>
       <c r="AA422">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AB422">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AC422">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38210,7 +38210,7 @@
         <v>40</v>
       </c>
       <c r="G424" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H424">
         <v>1</v>
@@ -38477,7 +38477,7 @@
         <v>35</v>
       </c>
       <c r="G427" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H427">
         <v>2</v>
@@ -38744,7 +38744,7 @@
         <v>39</v>
       </c>
       <c r="G430" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H430">
         <v>3</v>
@@ -38919,7 +38919,7 @@
         <v>45311.69791666666</v>
       </c>
       <c r="F432" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G432" t="s">
         <v>43</v>
@@ -39186,7 +39186,7 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F435" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G435" t="s">
         <v>50</v>
@@ -39456,7 +39456,7 @@
         <v>47</v>
       </c>
       <c r="G438" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H438">
         <v>2</v>
@@ -39812,7 +39812,7 @@
         <v>40</v>
       </c>
       <c r="G442" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H442">
         <v>1</v>
@@ -40079,7 +40079,7 @@
         <v>35</v>
       </c>
       <c r="G445" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H445">
         <v>0</v>
@@ -40165,7 +40165,7 @@
         <v>45320.69791666666</v>
       </c>
       <c r="F446" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G446" t="s">
         <v>34</v>
@@ -40358,31 +40358,31 @@
         <v>2.6</v>
       </c>
       <c r="N448">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O448">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P448">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q448">
         <v>0</v>
       </c>
       <c r="R448">
-        <v>2.125</v>
+        <v>2.11</v>
       </c>
       <c r="S448">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="T448">
         <v>2</v>
       </c>
       <c r="U448">
+        <v>2.01</v>
+      </c>
+      <c r="V448">
         <v>1.89</v>
-      </c>
-      <c r="V448">
-        <v>2.01</v>
       </c>
       <c r="W448">
         <v>0</v>
@@ -40417,7 +40417,7 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F449" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G449" t="s">
         <v>40</v>
@@ -40432,31 +40432,31 @@
         <v>3.25</v>
       </c>
       <c r="N449">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O449">
         <v>3.3</v>
       </c>
       <c r="P449">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q449">
         <v>-0.25</v>
       </c>
       <c r="R449">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="S449">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="T449">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U449">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="V449">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="W449">
         <v>0</v>
@@ -40506,31 +40506,31 @@
         <v>1.727</v>
       </c>
       <c r="N450">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O450">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P450">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="Q450">
         <v>0.75</v>
       </c>
       <c r="R450">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="S450">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="T450">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U450">
+        <v>1.87</v>
+      </c>
+      <c r="V450">
         <v>2.03</v>
-      </c>
-      <c r="V450">
-        <v>1.87</v>
       </c>
       <c r="W450">
         <v>0</v>
@@ -40568,7 +40568,7 @@
         <v>45</v>
       </c>
       <c r="G451" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K451">
         <v>1.833</v>
@@ -40580,22 +40580,22 @@
         <v>4</v>
       </c>
       <c r="N451">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O451">
         <v>3.75</v>
       </c>
       <c r="P451">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q451">
         <v>-0.75</v>
       </c>
       <c r="R451">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="S451">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="T451">
         <v>2.5</v>
@@ -40642,7 +40642,7 @@
         <v>32</v>
       </c>
       <c r="G452" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K452">
         <v>1.444</v>
@@ -40666,10 +40666,10 @@
         <v>-1</v>
       </c>
       <c r="R452">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S452">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T452">
         <v>2.25</v>
@@ -40740,10 +40740,10 @@
         <v>-1.25</v>
       </c>
       <c r="R453">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S453">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="T453">
         <v>2.5</v>
@@ -40802,7 +40802,7 @@
         <v>4</v>
       </c>
       <c r="N454">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O454">
         <v>3.4</v>
@@ -40811,13 +40811,13 @@
         <v>3.75</v>
       </c>
       <c r="Q454">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R454">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="S454">
-        <v>2.125</v>
+        <v>1.83</v>
       </c>
       <c r="T454">
         <v>2.25</v>
@@ -40861,7 +40861,7 @@
         <v>45326.69791666666</v>
       </c>
       <c r="F455" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G455" t="s">
         <v>39</v>
@@ -40888,19 +40888,19 @@
         <v>-0.5</v>
       </c>
       <c r="R455">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S455">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T455">
         <v>2.25</v>
       </c>
       <c r="U455">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V455">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W455">
         <v>0</v>
@@ -40962,19 +40962,19 @@
         <v>-1.25</v>
       </c>
       <c r="R456">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="S456">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T456">
         <v>2.5</v>
       </c>
       <c r="U456">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V456">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="W456">
         <v>0</v>
@@ -41009,7 +41009,7 @@
         <v>45331.69791666666</v>
       </c>
       <c r="F457" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G457" t="s">
         <v>48</v>
@@ -41063,6 +41063,228 @@
         <v>0</v>
       </c>
       <c r="AA457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:27">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>6868815</v>
+      </c>
+      <c r="C458" t="s">
+        <v>28</v>
+      </c>
+      <c r="D458" t="s">
+        <v>28</v>
+      </c>
+      <c r="E458" s="2">
+        <v>45332.45833333334</v>
+      </c>
+      <c r="F458" t="s">
+        <v>51</v>
+      </c>
+      <c r="G458" t="s">
+        <v>41</v>
+      </c>
+      <c r="K458">
+        <v>3.6</v>
+      </c>
+      <c r="L458">
+        <v>3.4</v>
+      </c>
+      <c r="M458">
+        <v>2</v>
+      </c>
+      <c r="N458">
+        <v>3.5</v>
+      </c>
+      <c r="O458">
+        <v>3.4</v>
+      </c>
+      <c r="P458">
+        <v>2.05</v>
+      </c>
+      <c r="Q458">
+        <v>0.25</v>
+      </c>
+      <c r="R458">
+        <v>2.08</v>
+      </c>
+      <c r="S458">
+        <v>1.82</v>
+      </c>
+      <c r="T458">
+        <v>2.25</v>
+      </c>
+      <c r="U458">
+        <v>2.05</v>
+      </c>
+      <c r="V458">
+        <v>1.85</v>
+      </c>
+      <c r="W458">
+        <v>0</v>
+      </c>
+      <c r="X458">
+        <v>0</v>
+      </c>
+      <c r="Y458">
+        <v>0</v>
+      </c>
+      <c r="Z458">
+        <v>0</v>
+      </c>
+      <c r="AA458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:27">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>6868811</v>
+      </c>
+      <c r="C459" t="s">
+        <v>28</v>
+      </c>
+      <c r="D459" t="s">
+        <v>28</v>
+      </c>
+      <c r="E459" s="2">
+        <v>45332.58333333334</v>
+      </c>
+      <c r="F459" t="s">
+        <v>34</v>
+      </c>
+      <c r="G459" t="s">
+        <v>37</v>
+      </c>
+      <c r="K459">
+        <v>3.6</v>
+      </c>
+      <c r="L459">
+        <v>3.5</v>
+      </c>
+      <c r="M459">
+        <v>1.95</v>
+      </c>
+      <c r="N459">
+        <v>3.5</v>
+      </c>
+      <c r="O459">
+        <v>3.5</v>
+      </c>
+      <c r="P459">
+        <v>2</v>
+      </c>
+      <c r="Q459">
+        <v>0.5</v>
+      </c>
+      <c r="R459">
+        <v>1.88</v>
+      </c>
+      <c r="S459">
+        <v>2.02</v>
+      </c>
+      <c r="T459">
+        <v>2.25</v>
+      </c>
+      <c r="U459">
+        <v>1.95</v>
+      </c>
+      <c r="V459">
+        <v>1.95</v>
+      </c>
+      <c r="W459">
+        <v>0</v>
+      </c>
+      <c r="X459">
+        <v>0</v>
+      </c>
+      <c r="Y459">
+        <v>0</v>
+      </c>
+      <c r="Z459">
+        <v>0</v>
+      </c>
+      <c r="AA459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:27">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>6868813</v>
+      </c>
+      <c r="C460" t="s">
+        <v>28</v>
+      </c>
+      <c r="D460" t="s">
+        <v>28</v>
+      </c>
+      <c r="E460" s="2">
+        <v>45332.69791666666</v>
+      </c>
+      <c r="F460" t="s">
+        <v>29</v>
+      </c>
+      <c r="G460" t="s">
+        <v>32</v>
+      </c>
+      <c r="K460">
+        <v>2.8</v>
+      </c>
+      <c r="L460">
+        <v>3.3</v>
+      </c>
+      <c r="M460">
+        <v>2.4</v>
+      </c>
+      <c r="N460">
+        <v>3</v>
+      </c>
+      <c r="O460">
+        <v>3.3</v>
+      </c>
+      <c r="P460">
+        <v>2.2</v>
+      </c>
+      <c r="Q460">
+        <v>0.25</v>
+      </c>
+      <c r="R460">
+        <v>1.9</v>
+      </c>
+      <c r="S460">
+        <v>2</v>
+      </c>
+      <c r="T460">
+        <v>2.25</v>
+      </c>
+      <c r="U460">
+        <v>1.82</v>
+      </c>
+      <c r="V460">
+        <v>2.08</v>
+      </c>
+      <c r="W460">
+        <v>0</v>
+      </c>
+      <c r="X460">
+        <v>0</v>
+      </c>
+      <c r="Y460">
+        <v>0</v>
+      </c>
+      <c r="Z460">
+        <v>0</v>
+      </c>
+      <c r="AA460">
         <v>0</v>
       </c>
     </row>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>Torino</t>
   </si>
   <si>
-    <t>Lecce</t>
+    <t>Roma</t>
   </si>
   <si>
-    <t>Roma</t>
+    <t>Lecce</t>
   </si>
   <si>
     <t>Fiorentina</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC460"/>
+  <dimension ref="A1:AC467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5208265</v>
+        <v>5208266</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1008,55 +1008,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>54</v>
       </c>
       <c r="K6">
-        <v>4.1</v>
+        <v>1.55</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="N6">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="O6">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="S6">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V6">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W6">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1065,16 +1065,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>1.08</v>
+        <v>0.485</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5208266</v>
+        <v>5208265</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1097,55 +1097,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>54</v>
       </c>
       <c r="K7">
-        <v>1.55</v>
+        <v>4.1</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="N7">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P7">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="S7">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V7">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W7">
-        <v>0.6659999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1154,16 +1154,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.485</v>
+        <v>1.08</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC7">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1883,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5208276</v>
+        <v>5208280</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1895,76 +1895,76 @@
         <v>44934.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>53</v>
       </c>
       <c r="K16">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N16">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O16">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P16">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="S16">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>1.06</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="AB16">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1972,7 +1972,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5208280</v>
+        <v>5208276</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,76 +1984,76 @@
         <v>44934.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>53</v>
       </c>
       <c r="K17">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="L17">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N17">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O17">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P17">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R17">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="S17">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.4350000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2165,7 +2165,7 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2607,7 +2607,7 @@
         <v>44940.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
@@ -3141,7 +3141,7 @@
         <v>44941.69791666666</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -3322,7 +3322,7 @@
         <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3767,7 +3767,7 @@
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4298,7 +4298,7 @@
         <v>44953.69791666666</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
         <v>30</v>
@@ -4924,7 +4924,7 @@
         <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>44961.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
         <v>48</v>
@@ -6167,10 +6167,10 @@
         <v>44968.58333333334</v>
       </c>
       <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
         <v>33</v>
-      </c>
-      <c r="G64" t="s">
-        <v>34</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7312,7 +7312,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5208326</v>
+        <v>5208323</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7324,76 +7324,76 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K77">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="L77">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M77">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="N77">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O77">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="Q77">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
         <v>2.5</v>
       </c>
       <c r="U77">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="V77">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y77">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8400000000000001</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5208323</v>
+        <v>5208326</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7413,76 +7413,76 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K78">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="N78">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O78">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P78">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="V78">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.9299999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7591,7 +7591,7 @@
         <v>44976.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
         <v>44</v>
@@ -7858,7 +7858,7 @@
         <v>44982.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
         <v>29</v>
@@ -8484,7 +8484,7 @@
         <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -9196,7 +9196,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9282,7 +9282,7 @@
         <v>44990.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
         <v>39</v>
@@ -9905,7 +9905,7 @@
         <v>44997.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
         <v>32</v>
@@ -9982,7 +9982,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5209915</v>
+        <v>5209914</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9994,76 +9994,76 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K107">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="L107">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="N107">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="O107">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q107">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>1.89</v>
+        <v>2.125</v>
       </c>
       <c r="S107">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="V107">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y107">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>1.01</v>
+        <v>0.39</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>0.9199999999999999</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10071,7 +10071,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5209914</v>
+        <v>5209915</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10083,76 +10083,76 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K108">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="N108">
+        <v>4.75</v>
+      </c>
+      <c r="O108">
+        <v>3.75</v>
+      </c>
+      <c r="P108">
+        <v>1.8</v>
+      </c>
+      <c r="Q108">
+        <v>0.75</v>
+      </c>
+      <c r="R108">
+        <v>1.89</v>
+      </c>
+      <c r="S108">
+        <v>2.01</v>
+      </c>
+      <c r="T108">
         <v>2.5</v>
       </c>
-      <c r="O108">
-        <v>3.2</v>
-      </c>
-      <c r="P108">
-        <v>3</v>
-      </c>
-      <c r="Q108">
-        <v>-0.25</v>
-      </c>
-      <c r="R108">
-        <v>2.125</v>
-      </c>
-      <c r="S108">
-        <v>1.78</v>
-      </c>
-      <c r="T108">
-        <v>2.25</v>
-      </c>
       <c r="U108">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="V108">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.39</v>
+        <v>1.01</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.415</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10172,7 +10172,7 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -10976,7 +10976,7 @@
         <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11154,7 +11154,7 @@
         <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11673,7 +11673,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5209911</v>
+        <v>5208373</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11685,40 +11685,40 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K126">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L126">
         <v>3.3</v>
       </c>
       <c r="M126">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N126">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="O126">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P126">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
         <v>2.05</v>
@@ -11730,31 +11730,31 @@
         <v>2.25</v>
       </c>
       <c r="U126">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="V126">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y126">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB126">
         <v>-0.5</v>
       </c>
       <c r="AC126">
-        <v>0.415</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11762,7 +11762,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5208373</v>
+        <v>5209911</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11774,40 +11774,40 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K127">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L127">
         <v>3.3</v>
       </c>
       <c r="M127">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N127">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O127">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P127">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
         <v>2.05</v>
@@ -11819,31 +11819,31 @@
         <v>2.25</v>
       </c>
       <c r="U127">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="V127">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
         <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>0.4399999999999999</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11863,7 +11863,7 @@
         <v>45018.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
         <v>42</v>
@@ -12044,7 +12044,7 @@
         <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12308,7 +12308,7 @@
         <v>45023.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
         <v>46</v>
@@ -12845,7 +12845,7 @@
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -13554,7 +13554,7 @@
         <v>45032.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
         <v>42</v>
@@ -13821,7 +13821,7 @@
         <v>45032.65625</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -14432,7 +14432,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5499734</v>
+        <v>5505896</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14444,59 +14444,59 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>3</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>54</v>
       </c>
       <c r="K157">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M157">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N157">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O157">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P157">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R157">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S157">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="T157">
+        <v>2.25</v>
+      </c>
+      <c r="U157">
+        <v>1.95</v>
+      </c>
+      <c r="V157">
+        <v>1.95</v>
+      </c>
+      <c r="W157">
         <v>2.5</v>
       </c>
-      <c r="U157">
-        <v>1.91</v>
-      </c>
-      <c r="V157">
-        <v>1.99</v>
-      </c>
-      <c r="W157">
-        <v>0.7270000000000001</v>
-      </c>
       <c r="X157">
         <v>-1</v>
       </c>
@@ -14504,13 +14504,13 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.9099999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14521,7 +14521,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5505896</v>
+        <v>5499734</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14533,58 +14533,58 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H158">
         <v>3</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>54</v>
       </c>
       <c r="K158">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="L158">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="N158">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O158">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P158">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q158">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S158">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="T158">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V158">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W158">
-        <v>2.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14593,13 +14593,13 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.95</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14625,7 +14625,7 @@
         <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14803,7 +14803,7 @@
         <v>47</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14889,7 +14889,7 @@
         <v>45044.5625</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
         <v>38</v>
@@ -15067,7 +15067,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
         <v>43</v>
@@ -15322,7 +15322,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5499736</v>
+        <v>5505897</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15334,10 +15334,10 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15349,61 +15349,61 @@
         <v>53</v>
       </c>
       <c r="K167">
-        <v>1.222</v>
+        <v>2.625</v>
       </c>
       <c r="L167">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M167">
-        <v>11</v>
+        <v>2.625</v>
       </c>
       <c r="N167">
-        <v>1.181</v>
+        <v>3.2</v>
       </c>
       <c r="O167">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="P167">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q167">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V167">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA167">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC167">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15411,7 +15411,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5499235</v>
+        <v>5499736</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15423,76 +15423,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K168">
-        <v>1.75</v>
+        <v>1.222</v>
       </c>
       <c r="L168">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M168">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="N168">
-        <v>2.1</v>
+        <v>1.181</v>
       </c>
       <c r="O168">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P168">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R168">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S168">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W168">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5505897</v>
+        <v>5499235</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15512,76 +15512,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K169">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="L169">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M169">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N169">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="O169">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P169">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="Q169">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S169">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X169">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.4399999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC169">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5545304</v>
+        <v>5559355</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,76 +15779,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K172">
+        <v>3.8</v>
+      </c>
+      <c r="L172">
+        <v>3.3</v>
+      </c>
+      <c r="M172">
+        <v>1.95</v>
+      </c>
+      <c r="N172">
         <v>4.75</v>
       </c>
-      <c r="L172">
-        <v>3.6</v>
-      </c>
-      <c r="M172">
-        <v>1.727</v>
-      </c>
-      <c r="N172">
-        <v>4.5</v>
-      </c>
       <c r="O172">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P172">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q172">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R172">
+        <v>1.83</v>
+      </c>
+      <c r="S172">
         <v>2.07</v>
       </c>
-      <c r="S172">
-        <v>1.86</v>
-      </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U172">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="V172">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z172">
+        <v>-1</v>
+      </c>
+      <c r="AA172">
         <v>1.07</v>
       </c>
-      <c r="AA172">
-        <v>-1</v>
-      </c>
       <c r="AB172">
-        <v>0.9299999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5545300</v>
+        <v>5545304</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,73 +15868,73 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F173" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H173">
         <v>3</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K173">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="L173">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M173">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N173">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="O173">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P173">
-        <v>7</v>
+        <v>1.75</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R173">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="S173">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V173">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="W173">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AA173">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.9099999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15960,7 +15960,7 @@
         <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16034,7 +16034,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5559355</v>
+        <v>5545300</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16046,76 +16046,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I175">
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K175">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M175">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="N175">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="O175">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P175">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q175">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R175">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S175">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="T175">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="V175">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
-        <v>1.07</v>
+        <v>0.51</v>
       </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC175">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5554079</v>
+        <v>5545302</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,76 +16135,76 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>6</v>
+      </c>
+      <c r="J176" t="s">
+        <v>52</v>
+      </c>
+      <c r="K176">
+        <v>5</v>
+      </c>
+      <c r="L176">
+        <v>3.6</v>
+      </c>
+      <c r="M176">
+        <v>1.7</v>
+      </c>
+      <c r="N176">
+        <v>5.75</v>
+      </c>
+      <c r="O176">
+        <v>4</v>
+      </c>
+      <c r="P176">
+        <v>1.6</v>
+      </c>
+      <c r="Q176">
         <v>1</v>
       </c>
-      <c r="I176">
-        <v>1</v>
-      </c>
-      <c r="J176" t="s">
-        <v>53</v>
-      </c>
-      <c r="K176">
-        <v>3.8</v>
-      </c>
-      <c r="L176">
-        <v>3.2</v>
-      </c>
-      <c r="M176">
-        <v>2.05</v>
-      </c>
-      <c r="N176">
-        <v>4</v>
-      </c>
-      <c r="O176">
-        <v>3.2</v>
-      </c>
-      <c r="P176">
-        <v>2.05</v>
-      </c>
-      <c r="Q176">
-        <v>0.5</v>
-      </c>
       <c r="R176">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="S176">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V176">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z176">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AB176">
-        <v>0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC176">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16212,7 +16212,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5545302</v>
+        <v>5554078</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16224,76 +16224,76 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K177">
+        <v>1.333</v>
+      </c>
+      <c r="L177">
         <v>5</v>
       </c>
-      <c r="L177">
-        <v>3.6</v>
-      </c>
       <c r="M177">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="N177">
-        <v>5.75</v>
+        <v>1.363</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P177">
-        <v>1.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q177">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R177">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="S177">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="T177">
         <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="V177">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y177">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AB177">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16301,7 +16301,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5535044</v>
+        <v>5554079</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16313,49 +16313,49 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" t="s">
+        <v>53</v>
+      </c>
+      <c r="K178">
+        <v>3.8</v>
+      </c>
+      <c r="L178">
+        <v>3.2</v>
+      </c>
+      <c r="M178">
+        <v>2.05</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+      <c r="O178">
+        <v>3.2</v>
+      </c>
+      <c r="P178">
+        <v>2.05</v>
+      </c>
+      <c r="Q178">
+        <v>0.5</v>
+      </c>
+      <c r="R178">
+        <v>1.84</v>
+      </c>
+      <c r="S178">
+        <v>2.06</v>
+      </c>
+      <c r="T178">
         <v>2</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178" t="s">
-        <v>54</v>
-      </c>
-      <c r="K178">
-        <v>1.7</v>
-      </c>
-      <c r="L178">
-        <v>3.75</v>
-      </c>
-      <c r="M178">
-        <v>5</v>
-      </c>
-      <c r="N178">
-        <v>1.666</v>
-      </c>
-      <c r="O178">
-        <v>4.2</v>
-      </c>
-      <c r="P178">
-        <v>5</v>
-      </c>
-      <c r="Q178">
-        <v>-0.75</v>
-      </c>
-      <c r="R178">
-        <v>1.87</v>
-      </c>
-      <c r="S178">
-        <v>2.03</v>
-      </c>
-      <c r="T178">
-        <v>2.75</v>
       </c>
       <c r="U178">
         <v>1.85</v>
@@ -16364,25 +16364,25 @@
         <v>2.05</v>
       </c>
       <c r="W178">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8700000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC178">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5554078</v>
+        <v>5535044</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,76 +16402,76 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K179">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="L179">
+        <v>3.75</v>
+      </c>
+      <c r="M179">
         <v>5</v>
       </c>
-      <c r="M179">
-        <v>9</v>
-      </c>
       <c r="N179">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O179">
+        <v>4.2</v>
+      </c>
+      <c r="P179">
         <v>5</v>
       </c>
-      <c r="P179">
-        <v>9.5</v>
-      </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S179">
+        <v>2.03</v>
+      </c>
+      <c r="T179">
+        <v>2.75</v>
+      </c>
+      <c r="U179">
+        <v>1.85</v>
+      </c>
+      <c r="V179">
         <v>2.05</v>
       </c>
-      <c r="T179">
-        <v>2.5</v>
-      </c>
-      <c r="U179">
-        <v>1.84</v>
-      </c>
-      <c r="V179">
-        <v>2.06</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X179">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>1.05</v>
-      </c>
-      <c r="AB179">
-        <v>-1</v>
-      </c>
-      <c r="AC179">
-        <v>1.06</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16758,7 +16758,7 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
         <v>37</v>
@@ -17203,7 +17203,7 @@
         <v>45053.65625</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
         <v>44</v>
@@ -17280,7 +17280,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6594274</v>
+        <v>5559357</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17292,58 +17292,58 @@
         <v>45054.5625</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G189" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>2</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>54</v>
       </c>
       <c r="K189">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L189">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N189">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O189">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P189">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q189">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="S189">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="T189">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>2.03</v>
+        <v>2.025</v>
       </c>
       <c r="V189">
-        <v>1.87</v>
+        <v>1.775</v>
       </c>
       <c r="W189">
-        <v>0.45</v>
+        <v>1.2</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17352,16 +17352,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1.07</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC189">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>5559357</v>
+        <v>6594274</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17381,58 +17381,58 @@
         <v>45054.5625</v>
       </c>
       <c r="F190" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H190">
         <v>2</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>54</v>
       </c>
       <c r="K190">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L190">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M190">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N190">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O190">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P190">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R190">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="S190">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
-        <v>2.025</v>
+        <v>2.03</v>
       </c>
       <c r="V190">
-        <v>1.775</v>
+        <v>1.87</v>
       </c>
       <c r="W190">
-        <v>1.2</v>
+        <v>0.45</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17441,16 +17441,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8899999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17562,7 +17562,7 @@
         <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17992,7 +17992,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>5611962</v>
+        <v>5611967</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18004,10 +18004,10 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18019,43 +18019,43 @@
         <v>54</v>
       </c>
       <c r="K197">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="L197">
+        <v>3.6</v>
+      </c>
+      <c r="M197">
+        <v>4</v>
+      </c>
+      <c r="N197">
+        <v>1.75</v>
+      </c>
+      <c r="O197">
         <v>3.8</v>
       </c>
-      <c r="M197">
-        <v>1.65</v>
-      </c>
-      <c r="N197">
-        <v>3.2</v>
-      </c>
-      <c r="O197">
-        <v>3.3</v>
-      </c>
       <c r="P197">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q197">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R197">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="S197">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="W197">
-        <v>2.2</v>
+        <v>0.75</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18064,7 +18064,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.9399999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18073,7 +18073,7 @@
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.9199999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18081,7 +18081,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>5611967</v>
+        <v>5611962</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18093,10 +18093,10 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G198" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -18108,43 +18108,43 @@
         <v>54</v>
       </c>
       <c r="K198">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M198">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="N198">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="O198">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P198">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q198">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R198">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="S198">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="T198">
         <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="W198">
-        <v>0.75</v>
+        <v>2.2</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18153,7 +18153,7 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>1.03</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA198">
         <v>-1</v>
@@ -18162,7 +18162,7 @@
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>1</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18185,7 +18185,7 @@
         <v>45</v>
       </c>
       <c r="G199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18805,7 +18805,7 @@
         <v>45067.3125</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
         <v>31</v>
@@ -19161,7 +19161,7 @@
         <v>45068.5625</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
         <v>30</v>
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6682613</v>
+        <v>6682615</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,73 +19428,73 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G213" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J213" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K213">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L213">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M213">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N213">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="O213">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P213">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q213">
         <v>0</v>
       </c>
       <c r="R213">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U213">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="V213">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="W213">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z213">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB213">
-        <v>1.05</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6682615</v>
+        <v>6682613</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,73 +19517,73 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K214">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L214">
+        <v>3.5</v>
+      </c>
+      <c r="M214">
+        <v>2.5</v>
+      </c>
+      <c r="N214">
+        <v>2.8</v>
+      </c>
+      <c r="O214">
         <v>3.3</v>
       </c>
-      <c r="M214">
-        <v>2.9</v>
-      </c>
-      <c r="N214">
+      <c r="P214">
         <v>2.55</v>
-      </c>
-      <c r="O214">
-        <v>3.1</v>
-      </c>
-      <c r="P214">
-        <v>2.9</v>
       </c>
       <c r="Q214">
         <v>0</v>
       </c>
       <c r="R214">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="S214">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="V214">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA214">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8799999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19609,7 +19609,7 @@
         <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19965,7 +19965,7 @@
         <v>40</v>
       </c>
       <c r="G219" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20395,7 +20395,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5706212</v>
+        <v>5702696</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20407,40 +20407,40 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G224" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
         <v>2</v>
       </c>
-      <c r="I224">
-        <v>0</v>
-      </c>
       <c r="J224" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K224">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="L224">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N224">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="O224">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P224">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R224">
         <v>1.95</v>
@@ -20452,31 +20452,31 @@
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V224">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="W224">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z224">
+        <v>-1</v>
+      </c>
+      <c r="AA224">
         <v>0.95</v>
       </c>
-      <c r="AA224">
-        <v>-1</v>
-      </c>
       <c r="AB224">
         <v>-1</v>
       </c>
       <c r="AC224">
-        <v>0.9299999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5702696</v>
+        <v>5706212</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,40 +20496,40 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225">
         <v>0</v>
       </c>
-      <c r="I225">
-        <v>2</v>
-      </c>
       <c r="J225" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K225">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="L225">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M225">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N225">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="O225">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P225">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="Q225">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R225">
         <v>1.95</v>
@@ -20541,31 +20541,31 @@
         <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="V225">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA225">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
         <v>-1</v>
       </c>
       <c r="AC225">
-        <v>1.07</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5737535</v>
+        <v>5706213</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20677,70 +20677,70 @@
         <v>34</v>
       </c>
       <c r="G227" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H227">
         <v>2</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K227">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M227">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N227">
+        <v>2.45</v>
+      </c>
+      <c r="O227">
+        <v>3.5</v>
+      </c>
+      <c r="P227">
+        <v>2.75</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>1.87</v>
+      </c>
+      <c r="S227">
+        <v>2.03</v>
+      </c>
+      <c r="T227">
+        <v>2.5</v>
+      </c>
+      <c r="U227">
+        <v>2.07</v>
+      </c>
+      <c r="V227">
+        <v>1.83</v>
+      </c>
+      <c r="W227">
+        <v>-1</v>
+      </c>
+      <c r="X227">
+        <v>-1</v>
+      </c>
+      <c r="Y227">
         <v>1.75</v>
       </c>
-      <c r="O227">
-        <v>3.75</v>
-      </c>
-      <c r="P227">
-        <v>4.75</v>
-      </c>
-      <c r="Q227">
-        <v>-0.75</v>
-      </c>
-      <c r="R227">
-        <v>2.03</v>
-      </c>
-      <c r="S227">
-        <v>1.87</v>
-      </c>
-      <c r="T227">
-        <v>2.25</v>
-      </c>
-      <c r="U227">
-        <v>1.84</v>
-      </c>
-      <c r="V227">
-        <v>2.06</v>
-      </c>
-      <c r="W227">
-        <v>0.75</v>
-      </c>
-      <c r="X227">
-        <v>-1</v>
-      </c>
-      <c r="Y227">
-        <v>-1</v>
-      </c>
       <c r="Z227">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
       <c r="AB227">
-        <v>0.8400000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5706213</v>
+        <v>5706211</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,73 +20763,73 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G228" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H228">
+        <v>5</v>
+      </c>
+      <c r="I228">
         <v>2</v>
       </c>
-      <c r="I228">
+      <c r="J228" t="s">
+        <v>54</v>
+      </c>
+      <c r="K228">
+        <v>1.5</v>
+      </c>
+      <c r="L228">
+        <v>4.5</v>
+      </c>
+      <c r="M228">
+        <v>5.5</v>
+      </c>
+      <c r="N228">
+        <v>1.5</v>
+      </c>
+      <c r="O228">
+        <v>5</v>
+      </c>
+      <c r="P228">
+        <v>5.75</v>
+      </c>
+      <c r="Q228">
+        <v>-1.25</v>
+      </c>
+      <c r="R228">
+        <v>2.05</v>
+      </c>
+      <c r="S228">
+        <v>1.85</v>
+      </c>
+      <c r="T228">
         <v>3</v>
       </c>
-      <c r="J228" t="s">
-        <v>52</v>
-      </c>
-      <c r="K228">
-        <v>2.625</v>
-      </c>
-      <c r="L228">
-        <v>3.2</v>
-      </c>
-      <c r="M228">
-        <v>2.6</v>
-      </c>
-      <c r="N228">
-        <v>2.45</v>
-      </c>
-      <c r="O228">
-        <v>3.5</v>
-      </c>
-      <c r="P228">
-        <v>2.75</v>
-      </c>
-      <c r="Q228">
-        <v>0</v>
-      </c>
-      <c r="R228">
-        <v>1.87</v>
-      </c>
-      <c r="S228">
-        <v>2.03</v>
-      </c>
-      <c r="T228">
-        <v>2.5</v>
-      </c>
       <c r="U228">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="V228">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA228">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>1.07</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5706211</v>
+        <v>5713502</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,58 +20852,58 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G229" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H229">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
         <v>54</v>
       </c>
       <c r="K229">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L229">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M229">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N229">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O229">
+        <v>4</v>
+      </c>
+      <c r="P229">
         <v>5</v>
       </c>
-      <c r="P229">
-        <v>5.75</v>
-      </c>
       <c r="Q229">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V229">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>0.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20912,13 +20912,13 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>1.05</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.8799999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -21018,7 +21018,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>5713502</v>
+        <v>5737535</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21030,13 +21030,13 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231">
         <v>1</v>
@@ -21045,43 +21045,43 @@
         <v>54</v>
       </c>
       <c r="K231">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L231">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N231">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="O231">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P231">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q231">
         <v>-0.75</v>
       </c>
       <c r="R231">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="S231">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="T231">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="W231">
-        <v>0.6659999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21090,13 +21090,13 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.8799999999999999</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB231">
-        <v>0.95</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21107,7 +21107,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6868439</v>
+        <v>6868438</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21119,55 +21119,55 @@
         <v>45157.5625</v>
       </c>
       <c r="F232" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G232" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
         <v>1</v>
-      </c>
-      <c r="I232">
-        <v>3</v>
       </c>
       <c r="J232" t="s">
         <v>52</v>
       </c>
       <c r="K232">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="L232">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M232">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="N232">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O232">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P232">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q232">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U232">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V232">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -21176,19 +21176,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.55</v>
+        <v>2.25</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.95</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB232">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21196,7 +21196,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6868438</v>
+        <v>6868439</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21208,55 +21208,55 @@
         <v>45157.5625</v>
       </c>
       <c r="F233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G233" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
         <v>52</v>
       </c>
       <c r="K233">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="L233">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M233">
+        <v>1.4</v>
+      </c>
+      <c r="N233">
+        <v>6.5</v>
+      </c>
+      <c r="O233">
+        <v>4.333</v>
+      </c>
+      <c r="P233">
+        <v>1.55</v>
+      </c>
+      <c r="Q233">
+        <v>1</v>
+      </c>
+      <c r="R233">
+        <v>1.95</v>
+      </c>
+      <c r="S233">
+        <v>1.95</v>
+      </c>
+      <c r="T233">
         <v>2.75</v>
       </c>
-      <c r="N233">
-        <v>2.25</v>
-      </c>
-      <c r="O233">
-        <v>3.3</v>
-      </c>
-      <c r="P233">
-        <v>3.25</v>
-      </c>
-      <c r="Q233">
-        <v>-0.25</v>
-      </c>
-      <c r="R233">
-        <v>2.01</v>
-      </c>
-      <c r="S233">
-        <v>1.92</v>
-      </c>
-      <c r="T233">
-        <v>2.5</v>
-      </c>
       <c r="U233">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -21265,19 +21265,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.25</v>
+        <v>0.55</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.9199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC233">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21463,7 +21463,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6868443</v>
+        <v>6868444</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21475,76 +21475,76 @@
         <v>45158.5625</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236">
         <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K236">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M236">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N236">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O236">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P236">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q236">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
+        <v>1.98</v>
+      </c>
+      <c r="S236">
+        <v>1.92</v>
+      </c>
+      <c r="T236">
+        <v>2.75</v>
+      </c>
+      <c r="U236">
         <v>1.93</v>
       </c>
-      <c r="S236">
+      <c r="V236">
         <v>1.97</v>
       </c>
-      <c r="T236">
-        <v>2.25</v>
-      </c>
-      <c r="U236">
-        <v>1.97</v>
-      </c>
-      <c r="V236">
-        <v>1.93</v>
-      </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
         <v>0.97</v>
-      </c>
-      <c r="AB236">
-        <v>0.97</v>
-      </c>
-      <c r="AC236">
-        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21552,7 +21552,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6868444</v>
+        <v>6868443</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21564,76 +21564,76 @@
         <v>45158.5625</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237">
         <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K237">
+        <v>1.5</v>
+      </c>
+      <c r="L237">
+        <v>4</v>
+      </c>
+      <c r="M237">
+        <v>5.5</v>
+      </c>
+      <c r="N237">
+        <v>1.5</v>
+      </c>
+      <c r="O237">
+        <v>4</v>
+      </c>
+      <c r="P237">
+        <v>7.5</v>
+      </c>
+      <c r="Q237">
+        <v>-1</v>
+      </c>
+      <c r="R237">
+        <v>1.93</v>
+      </c>
+      <c r="S237">
+        <v>1.97</v>
+      </c>
+      <c r="T237">
+        <v>2.25</v>
+      </c>
+      <c r="U237">
+        <v>1.97</v>
+      </c>
+      <c r="V237">
+        <v>1.93</v>
+      </c>
+      <c r="W237">
+        <v>-1</v>
+      </c>
+      <c r="X237">
         <v>3</v>
       </c>
-      <c r="L237">
-        <v>3.3</v>
-      </c>
-      <c r="M237">
-        <v>2.2</v>
-      </c>
-      <c r="N237">
-        <v>3.25</v>
-      </c>
-      <c r="O237">
-        <v>3.5</v>
-      </c>
-      <c r="P237">
-        <v>2.2</v>
-      </c>
-      <c r="Q237">
-        <v>0.25</v>
-      </c>
-      <c r="R237">
-        <v>1.98</v>
-      </c>
-      <c r="S237">
-        <v>1.92</v>
-      </c>
-      <c r="T237">
-        <v>2.75</v>
-      </c>
-      <c r="U237">
-        <v>1.93</v>
-      </c>
-      <c r="V237">
-        <v>1.97</v>
-      </c>
-      <c r="W237">
-        <v>-1</v>
-      </c>
-      <c r="X237">
-        <v>-1</v>
-      </c>
       <c r="Y237">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.9199999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC237">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21653,7 +21653,7 @@
         <v>45158.65625</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G238" t="s">
         <v>41</v>
@@ -22175,7 +22175,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6868588</v>
+        <v>6868585</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22187,13 +22187,13 @@
         <v>45164.65625</v>
       </c>
       <c r="F244" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G244" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H244">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I244">
         <v>1</v>
@@ -22202,43 +22202,43 @@
         <v>54</v>
       </c>
       <c r="K244">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M244">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N244">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="O244">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P244">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q244">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R244">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="S244">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T244">
         <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="V244">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="W244">
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22247,13 +22247,13 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="AC244">
         <v>-1</v>
@@ -22264,7 +22264,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6868585</v>
+        <v>6868588</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22276,13 +22276,13 @@
         <v>45164.65625</v>
       </c>
       <c r="F245" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G245" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I245">
         <v>1</v>
@@ -22291,43 +22291,43 @@
         <v>54</v>
       </c>
       <c r="K245">
+        <v>1.571</v>
+      </c>
+      <c r="L245">
         <v>4</v>
       </c>
-      <c r="L245">
-        <v>3.5</v>
-      </c>
       <c r="M245">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N245">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O245">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P245">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="Q245">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R245">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="S245">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="T245">
         <v>2.25</v>
       </c>
       <c r="U245">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="V245">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="W245">
-        <v>3.5</v>
+        <v>0.75</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22336,13 +22336,13 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="AC245">
         <v>-1</v>
@@ -22368,7 +22368,7 @@
         <v>35</v>
       </c>
       <c r="G246" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H246">
         <v>2</v>
@@ -22988,7 +22988,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F253" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G253" t="s">
         <v>43</v>
@@ -23065,7 +23065,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6868601</v>
+        <v>6868593</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23077,76 +23077,76 @@
         <v>45171.5625</v>
       </c>
       <c r="F254" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G254" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K254">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="L254">
+        <v>3.75</v>
+      </c>
+      <c r="M254">
+        <v>5.25</v>
+      </c>
+      <c r="N254">
+        <v>1.75</v>
+      </c>
+      <c r="O254">
         <v>3.6</v>
       </c>
-      <c r="M254">
-        <v>4.333</v>
-      </c>
-      <c r="N254">
-        <v>1.909</v>
-      </c>
-      <c r="O254">
-        <v>3.5</v>
-      </c>
       <c r="P254">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q254">
+        <v>-0.75</v>
+      </c>
+      <c r="R254">
+        <v>2.05</v>
+      </c>
+      <c r="S254">
+        <v>1.88</v>
+      </c>
+      <c r="T254">
+        <v>2.75</v>
+      </c>
+      <c r="U254">
+        <v>2.04</v>
+      </c>
+      <c r="V254">
+        <v>1.86</v>
+      </c>
+      <c r="W254">
+        <v>0.75</v>
+      </c>
+      <c r="X254">
+        <v>-1</v>
+      </c>
+      <c r="Y254">
+        <v>-1</v>
+      </c>
+      <c r="Z254">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA254">
         <v>-0.5</v>
       </c>
-      <c r="R254">
-        <v>1.93</v>
-      </c>
-      <c r="S254">
-        <v>1.97</v>
-      </c>
-      <c r="T254">
-        <v>2.5</v>
-      </c>
-      <c r="U254">
-        <v>2.05</v>
-      </c>
-      <c r="V254">
-        <v>1.85</v>
-      </c>
-      <c r="W254">
-        <v>-1</v>
-      </c>
-      <c r="X254">
-        <v>2.5</v>
-      </c>
-      <c r="Y254">
-        <v>-1</v>
-      </c>
-      <c r="Z254">
-        <v>-1</v>
-      </c>
-      <c r="AA254">
-        <v>0.97</v>
-      </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AC254">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23154,7 +23154,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6868593</v>
+        <v>6868601</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23166,76 +23166,76 @@
         <v>45171.5625</v>
       </c>
       <c r="F255" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G255" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K255">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="L255">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M255">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="N255">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O255">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P255">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q255">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R255">
+        <v>1.93</v>
+      </c>
+      <c r="S255">
+        <v>1.97</v>
+      </c>
+      <c r="T255">
+        <v>2.5</v>
+      </c>
+      <c r="U255">
         <v>2.05</v>
       </c>
-      <c r="S255">
-        <v>1.88</v>
-      </c>
-      <c r="T255">
-        <v>2.75</v>
-      </c>
-      <c r="U255">
-        <v>2.04</v>
-      </c>
       <c r="V255">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W255">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X255">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB255">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23700,7 +23700,7 @@
         <v>45172.65625</v>
       </c>
       <c r="F261" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G261" t="s">
         <v>30</v>
@@ -24133,7 +24133,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6868609</v>
+        <v>6868604</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24145,76 +24145,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F266" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G266" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J266" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K266">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L266">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M266">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N266">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O266">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P266">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q266">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R266">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="S266">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="T266">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U266">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V266">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W266">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X266">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>-0.5</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA266">
-        <v>0.415</v>
+        <v>-1</v>
       </c>
       <c r="AB266">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC266">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24222,7 +24222,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6868604</v>
+        <v>6868609</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24234,76 +24234,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F267" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G267" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H267">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K267">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L267">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M267">
+        <v>3.5</v>
+      </c>
+      <c r="N267">
         <v>2.4</v>
       </c>
-      <c r="N267">
+      <c r="O267">
+        <v>3.3</v>
+      </c>
+      <c r="P267">
         <v>2.9</v>
       </c>
-      <c r="O267">
-        <v>3.6</v>
-      </c>
-      <c r="P267">
+      <c r="Q267">
+        <v>-0.25</v>
+      </c>
+      <c r="R267">
+        <v>2.07</v>
+      </c>
+      <c r="S267">
+        <v>1.83</v>
+      </c>
+      <c r="T267">
+        <v>2.25</v>
+      </c>
+      <c r="U267">
+        <v>1.86</v>
+      </c>
+      <c r="V267">
+        <v>2.04</v>
+      </c>
+      <c r="W267">
+        <v>-1</v>
+      </c>
+      <c r="X267">
         <v>2.3</v>
       </c>
-      <c r="Q267">
-        <v>0.25</v>
-      </c>
-      <c r="R267">
-        <v>1.86</v>
-      </c>
-      <c r="S267">
-        <v>2.04</v>
-      </c>
-      <c r="T267">
-        <v>2.75</v>
-      </c>
-      <c r="U267">
-        <v>1.9</v>
-      </c>
-      <c r="V267">
-        <v>2</v>
-      </c>
-      <c r="W267">
-        <v>1.9</v>
-      </c>
-      <c r="X267">
-        <v>-1</v>
-      </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.8600000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA267">
-        <v>-1</v>
+        <v>0.415</v>
       </c>
       <c r="AB267">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC267">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24412,7 +24412,7 @@
         <v>45186.65625</v>
       </c>
       <c r="F269" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G269" t="s">
         <v>48</v>
@@ -24768,7 +24768,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F273" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G273" t="s">
         <v>50</v>
@@ -25483,7 +25483,7 @@
         <v>32</v>
       </c>
       <c r="G281" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H281">
         <v>1</v>
@@ -25572,7 +25572,7 @@
         <v>39</v>
       </c>
       <c r="G282" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -25646,7 +25646,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6868626</v>
+        <v>6868623</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25658,76 +25658,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F283" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G283" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283">
         <v>0</v>
       </c>
-      <c r="I283">
-        <v>1</v>
-      </c>
       <c r="J283" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K283">
-        <v>4.7</v>
+        <v>2.25</v>
       </c>
       <c r="L283">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M283">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N283">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O283">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P283">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q283">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R283">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S283">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="T283">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U283">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="V283">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="W283">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X283">
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA283">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB283">
         <v>-1</v>
       </c>
       <c r="AC283">
-        <v>0.8400000000000001</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25824,7 +25824,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6868623</v>
+        <v>6868626</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25836,76 +25836,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F285" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G285" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
         <v>1</v>
       </c>
-      <c r="I285">
-        <v>0</v>
-      </c>
       <c r="J285" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K285">
-        <v>2.25</v>
+        <v>4.7</v>
       </c>
       <c r="L285">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M285">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N285">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O285">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P285">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q285">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R285">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S285">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="T285">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U285">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="V285">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="W285">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z285">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB285">
         <v>-1</v>
       </c>
       <c r="AC285">
-        <v>1.02</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25913,7 +25913,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6868631</v>
+        <v>6868629</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25925,58 +25925,58 @@
         <v>45196.65625</v>
       </c>
       <c r="F286" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G286" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H286">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="s">
         <v>54</v>
       </c>
       <c r="K286">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="L286">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M286">
-        <v>8.5</v>
+        <v>4.333</v>
       </c>
       <c r="N286">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O286">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P286">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q286">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R286">
+        <v>1.97</v>
+      </c>
+      <c r="S286">
         <v>1.93</v>
       </c>
-      <c r="S286">
-        <v>1.97</v>
-      </c>
       <c r="T286">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U286">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="V286">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="W286">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X286">
         <v>-1</v>
@@ -25985,16 +25985,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.9299999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AA286">
         <v>-1</v>
       </c>
       <c r="AB286">
-        <v>0.99</v>
+        <v>-0.5</v>
       </c>
       <c r="AC286">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26002,7 +26002,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6868629</v>
+        <v>6868627</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26014,76 +26014,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F287" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G287" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H287">
+        <v>1</v>
+      </c>
+      <c r="I287">
         <v>2</v>
       </c>
-      <c r="I287">
-        <v>0</v>
-      </c>
       <c r="J287" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K287">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="L287">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M287">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="N287">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="O287">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P287">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q287">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R287">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="S287">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="T287">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U287">
+        <v>1.85</v>
+      </c>
+      <c r="V287">
         <v>2.05</v>
       </c>
-      <c r="V287">
-        <v>1.85</v>
-      </c>
       <c r="W287">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X287">
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z287">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB287">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC287">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26091,7 +26091,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6868627</v>
+        <v>6868631</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26103,76 +26103,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F288" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G288" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H288">
+        <v>4</v>
+      </c>
+      <c r="I288">
         <v>1</v>
       </c>
-      <c r="I288">
-        <v>2</v>
-      </c>
       <c r="J288" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K288">
         <v>1.333</v>
       </c>
       <c r="L288">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M288">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="N288">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="O288">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="P288">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Q288">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R288">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S288">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="T288">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U288">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="V288">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X288">
         <v>-1</v>
       </c>
       <c r="Y288">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA288">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC288">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26284,7 +26284,7 @@
         <v>50</v>
       </c>
       <c r="G290" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H290">
         <v>4</v>
@@ -26370,7 +26370,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F291" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G291" t="s">
         <v>46</v>
@@ -26904,7 +26904,7 @@
         <v>45200.65625</v>
       </c>
       <c r="F297" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G297" t="s">
         <v>49</v>
@@ -26981,7 +26981,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6868639</v>
+        <v>6868640</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26993,76 +26993,76 @@
         <v>45201.5625</v>
       </c>
       <c r="F298" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G298" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H298">
         <v>0</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K298">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L298">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M298">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N298">
+        <v>1.7</v>
+      </c>
+      <c r="O298">
+        <v>3.5</v>
+      </c>
+      <c r="P298">
+        <v>5.5</v>
+      </c>
+      <c r="Q298">
+        <v>-0.75</v>
+      </c>
+      <c r="R298">
+        <v>1.99</v>
+      </c>
+      <c r="S298">
+        <v>1.91</v>
+      </c>
+      <c r="T298">
+        <v>2.25</v>
+      </c>
+      <c r="U298">
         <v>2.1</v>
       </c>
-      <c r="O298">
-        <v>3.8</v>
-      </c>
-      <c r="P298">
-        <v>3.2</v>
-      </c>
-      <c r="Q298">
-        <v>-0.25</v>
-      </c>
-      <c r="R298">
-        <v>1.88</v>
-      </c>
-      <c r="S298">
-        <v>2.02</v>
-      </c>
-      <c r="T298">
-        <v>3</v>
-      </c>
-      <c r="U298">
-        <v>1.97</v>
-      </c>
       <c r="V298">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y298">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z298">
         <v>-1</v>
       </c>
       <c r="AA298">
-        <v>1.02</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB298">
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.9299999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27070,7 +27070,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6868640</v>
+        <v>6868639</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27082,76 +27082,76 @@
         <v>45201.5625</v>
       </c>
       <c r="F299" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G299" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H299">
         <v>0</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K299">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L299">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M299">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N299">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O299">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P299">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q299">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R299">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="S299">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="T299">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U299">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="V299">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="W299">
         <v>-1</v>
       </c>
       <c r="X299">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y299">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z299">
         <v>-1</v>
       </c>
       <c r="AA299">
-        <v>0.9099999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AB299">
         <v>-1</v>
       </c>
       <c r="AC299">
-        <v>0.8</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27349,7 +27349,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F302" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G302" t="s">
         <v>29</v>
@@ -27975,7 +27975,7 @@
         <v>51</v>
       </c>
       <c r="G309" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -28417,7 +28417,7 @@
         <v>45221.3125</v>
       </c>
       <c r="F314" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G314" t="s">
         <v>40</v>
@@ -28865,7 +28865,7 @@
         <v>38</v>
       </c>
       <c r="G319" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -29218,7 +29218,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G323" t="s">
         <v>32</v>
@@ -29577,7 +29577,7 @@
         <v>37</v>
       </c>
       <c r="G327" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -30464,10 +30464,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F337" t="s">
+        <v>33</v>
+      </c>
+      <c r="G337" t="s">
         <v>34</v>
-      </c>
-      <c r="G337" t="s">
-        <v>33</v>
       </c>
       <c r="H337">
         <v>2</v>
@@ -30998,7 +30998,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F343" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G343" t="s">
         <v>43</v>
@@ -31535,7 +31535,7 @@
         <v>41</v>
       </c>
       <c r="G349" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H349">
         <v>0</v>
@@ -32244,7 +32244,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F357" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G357" t="s">
         <v>38</v>
@@ -32425,7 +32425,7 @@
         <v>44</v>
       </c>
       <c r="G359" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H359">
         <v>2</v>
@@ -32956,7 +32956,7 @@
         <v>45263.35416666666</v>
       </c>
       <c r="F365" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G365" t="s">
         <v>45</v>
@@ -33033,7 +33033,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6868707</v>
+        <v>6868716</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33045,76 +33045,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F366" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G366" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H366">
         <v>3</v>
       </c>
       <c r="I366">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J366" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K366">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L366">
+        <v>3.3</v>
+      </c>
+      <c r="M366">
+        <v>4.25</v>
+      </c>
+      <c r="N366">
+        <v>1.8</v>
+      </c>
+      <c r="O366">
+        <v>3.6</v>
+      </c>
+      <c r="P366">
         <v>4.5</v>
       </c>
-      <c r="M366">
-        <v>6.5</v>
-      </c>
-      <c r="N366">
-        <v>1.4</v>
-      </c>
-      <c r="O366">
-        <v>4.75</v>
-      </c>
-      <c r="P366">
-        <v>7.5</v>
-      </c>
       <c r="Q366">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R366">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="S366">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="T366">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U366">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V366">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W366">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X366">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y366">
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB366">
-        <v>0.51</v>
+        <v>1.04</v>
       </c>
       <c r="AC366">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33122,7 +33122,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6868716</v>
+        <v>6868707</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33134,76 +33134,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F367" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G367" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H367">
         <v>3</v>
       </c>
       <c r="I367">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K367">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L367">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M367">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="N367">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O367">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P367">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q367">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R367">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S367">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T367">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U367">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V367">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W367">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X367">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA367">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
-        <v>1.04</v>
+        <v>0.51</v>
       </c>
       <c r="AC367">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33226,7 +33226,7 @@
         <v>29</v>
       </c>
       <c r="G368" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -34113,7 +34113,7 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F378" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G378" t="s">
         <v>35</v>
@@ -34205,7 +34205,7 @@
         <v>48</v>
       </c>
       <c r="G379" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H379">
         <v>1</v>
@@ -34469,7 +34469,7 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F382" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G382" t="s">
         <v>49</v>
@@ -35006,7 +35006,7 @@
         <v>45</v>
       </c>
       <c r="G388" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H388">
         <v>2</v>
@@ -35258,7 +35258,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>6868738</v>
+        <v>6868745</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35270,13 +35270,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F391" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G391" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I391">
         <v>2</v>
@@ -35285,40 +35285,40 @@
         <v>52</v>
       </c>
       <c r="K391">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L391">
         <v>3.4</v>
       </c>
       <c r="M391">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="N391">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O391">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P391">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q391">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R391">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="S391">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="T391">
         <v>2.25</v>
       </c>
       <c r="U391">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V391">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W391">
         <v>-1</v>
@@ -35327,19 +35327,19 @@
         <v>-1</v>
       </c>
       <c r="Y391">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z391">
         <v>-1</v>
       </c>
       <c r="AA391">
-        <v>0.9199999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AB391">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="AC391">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35347,7 +35347,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>6868745</v>
+        <v>6868738</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35359,13 +35359,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F392" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G392" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392">
         <v>2</v>
@@ -35374,40 +35374,40 @@
         <v>52</v>
       </c>
       <c r="K392">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L392">
         <v>3.4</v>
       </c>
       <c r="M392">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="N392">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O392">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P392">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q392">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R392">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="S392">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="T392">
         <v>2.25</v>
       </c>
       <c r="U392">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V392">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="W392">
         <v>-1</v>
@@ -35416,19 +35416,19 @@
         <v>-1</v>
       </c>
       <c r="Y392">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z392">
         <v>-1</v>
       </c>
       <c r="AA392">
-        <v>1.11</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB392">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AC392">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -35985,7 +35985,7 @@
         <v>37</v>
       </c>
       <c r="G399" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H399">
         <v>2</v>
@@ -36071,7 +36071,7 @@
         <v>45283.69791666666</v>
       </c>
       <c r="F400" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G400" t="s">
         <v>46</v>
@@ -36148,7 +36148,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>6868755</v>
+        <v>6868749</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36160,76 +36160,76 @@
         <v>45289.60416666666</v>
       </c>
       <c r="F401" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G401" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I401">
         <v>0</v>
       </c>
       <c r="J401" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K401">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L401">
+        <v>3.4</v>
+      </c>
+      <c r="M401">
         <v>4</v>
       </c>
-      <c r="M401">
-        <v>8</v>
-      </c>
       <c r="N401">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O401">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P401">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q401">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R401">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="S401">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T401">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U401">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="V401">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="W401">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X401">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y401">
         <v>-1</v>
       </c>
       <c r="Z401">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA401">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB401">
         <v>-1</v>
       </c>
       <c r="AC401">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="402" spans="1:29">
@@ -36237,7 +36237,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>6868749</v>
+        <v>6868755</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36249,76 +36249,76 @@
         <v>45289.60416666666</v>
       </c>
       <c r="F402" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G402" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402">
         <v>0</v>
       </c>
       <c r="J402" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K402">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L402">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M402">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N402">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O402">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P402">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q402">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R402">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="S402">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T402">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U402">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="V402">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="W402">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X402">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y402">
         <v>-1</v>
       </c>
       <c r="Z402">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA402">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB402">
         <v>-1</v>
       </c>
       <c r="AC402">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="403" spans="1:29">
@@ -36326,7 +36326,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>6868750</v>
+        <v>6868753</v>
       </c>
       <c r="C403" t="s">
         <v>28</v>
@@ -36338,76 +36338,76 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F403" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G403" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I403">
         <v>1</v>
       </c>
       <c r="J403" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K403">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="L403">
         <v>4</v>
       </c>
       <c r="M403">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N403">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="O403">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P403">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="Q403">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R403">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="S403">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="T403">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U403">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V403">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="W403">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X403">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y403">
         <v>-1</v>
       </c>
       <c r="Z403">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AA403">
         <v>-1</v>
       </c>
       <c r="AB403">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC403">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404" spans="1:29">
@@ -36415,7 +36415,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>6868753</v>
+        <v>6868750</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36427,76 +36427,76 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F404" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G404" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H404">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I404">
         <v>1</v>
       </c>
       <c r="J404" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K404">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="L404">
         <v>4</v>
       </c>
       <c r="M404">
+        <v>1.533</v>
+      </c>
+      <c r="N404">
         <v>5.5</v>
       </c>
-      <c r="N404">
-        <v>1.571</v>
-      </c>
       <c r="O404">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P404">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="Q404">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R404">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="S404">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="T404">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U404">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="V404">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="W404">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X404">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y404">
         <v>-1</v>
       </c>
       <c r="Z404">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AA404">
         <v>-1</v>
       </c>
       <c r="AB404">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC404">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36519,7 +36519,7 @@
         <v>47</v>
       </c>
       <c r="G405" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H405">
         <v>1</v>
@@ -36964,7 +36964,7 @@
         <v>39</v>
       </c>
       <c r="G410" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H410">
         <v>1</v>
@@ -37317,7 +37317,7 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F414" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G414" t="s">
         <v>51</v>
@@ -37851,7 +37851,7 @@
         <v>45298.69791666666</v>
       </c>
       <c r="F420" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G420" t="s">
         <v>47</v>
@@ -37928,7 +37928,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>6868776</v>
+        <v>6868770</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37940,76 +37940,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F421" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G421" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J421" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K421">
-        <v>1.285</v>
+        <v>2.625</v>
       </c>
       <c r="L421">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M421">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="N421">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="O421">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P421">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q421">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R421">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="S421">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="T421">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U421">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="V421">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="W421">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X421">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y421">
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>-1</v>
+        <v>0.385</v>
       </c>
       <c r="AA421">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AB421">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AC421">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38017,7 +38017,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>6868770</v>
+        <v>6868776</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38029,76 +38029,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F422" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G422" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J422" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K422">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="L422">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M422">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="N422">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O422">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="P422">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q422">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R422">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="S422">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="T422">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U422">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V422">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W422">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X422">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>0.385</v>
+        <v>-1</v>
       </c>
       <c r="AA422">
+        <v>0.97</v>
+      </c>
+      <c r="AB422">
+        <v>0.46</v>
+      </c>
+      <c r="AC422">
         <v>-0.5</v>
-      </c>
-      <c r="AB422">
-        <v>-1</v>
-      </c>
-      <c r="AC422">
-        <v>1.05</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38299,7 +38299,7 @@
         <v>41</v>
       </c>
       <c r="G425" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H425">
         <v>1</v>
@@ -38566,7 +38566,7 @@
         <v>43</v>
       </c>
       <c r="G428" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H428">
         <v>3</v>
@@ -38830,7 +38830,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F431" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G431" t="s">
         <v>44</v>
@@ -39275,7 +39275,7 @@
         <v>45312.69791666666</v>
       </c>
       <c r="F436" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G436" t="s">
         <v>39</v>
@@ -39723,7 +39723,7 @@
         <v>50</v>
       </c>
       <c r="G441" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H441">
         <v>2</v>
@@ -40168,7 +40168,7 @@
         <v>30</v>
       </c>
       <c r="G446" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H446">
         <v>1</v>
@@ -40254,7 +40254,7 @@
         <v>45324.69791666666</v>
       </c>
       <c r="F447" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G447" t="s">
         <v>35</v>
@@ -40348,6 +40348,15 @@
       <c r="G448" t="s">
         <v>50</v>
       </c>
+      <c r="H448">
+        <v>0</v>
+      </c>
+      <c r="I448">
+        <v>0</v>
+      </c>
+      <c r="J448" t="s">
+        <v>53</v>
+      </c>
       <c r="K448">
         <v>2.9</v>
       </c>
@@ -40358,49 +40367,55 @@
         <v>2.6</v>
       </c>
       <c r="N448">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O448">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P448">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q448">
         <v>0</v>
       </c>
       <c r="R448">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
       <c r="S448">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="T448">
         <v>2</v>
       </c>
       <c r="U448">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="V448">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="W448">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X448">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="Y448">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z448">
         <v>0</v>
       </c>
       <c r="AA448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB448">
+        <v>-1</v>
+      </c>
+      <c r="AC448">
+        <v>0.8200000000000001</v>
+      </c>
+    </row>
+    <row r="449" spans="1:29">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -40422,6 +40437,15 @@
       <c r="G449" t="s">
         <v>40</v>
       </c>
+      <c r="H449">
+        <v>0</v>
+      </c>
+      <c r="I449">
+        <v>0</v>
+      </c>
+      <c r="J449" t="s">
+        <v>53</v>
+      </c>
       <c r="K449">
         <v>2.2</v>
       </c>
@@ -40432,49 +40456,55 @@
         <v>3.25</v>
       </c>
       <c r="N449">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O449">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P449">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q449">
         <v>-0.25</v>
       </c>
       <c r="R449">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="S449">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="T449">
         <v>2.25</v>
       </c>
       <c r="U449">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V449">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W449">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X449">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y449">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z449">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:27">
+        <v>0.5449999999999999</v>
+      </c>
+      <c r="AB449">
+        <v>-1</v>
+      </c>
+      <c r="AC449">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="450" spans="1:29">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -40496,6 +40526,15 @@
       <c r="G450" t="s">
         <v>43</v>
       </c>
+      <c r="H450">
+        <v>2</v>
+      </c>
+      <c r="I450">
+        <v>3</v>
+      </c>
+      <c r="J450" t="s">
+        <v>52</v>
+      </c>
       <c r="K450">
         <v>4.333</v>
       </c>
@@ -40506,49 +40545,55 @@
         <v>1.727</v>
       </c>
       <c r="N450">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O450">
         <v>4</v>
       </c>
       <c r="P450">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="Q450">
         <v>0.75</v>
       </c>
       <c r="R450">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S450">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="T450">
         <v>2.75</v>
       </c>
       <c r="U450">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V450">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="W450">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X450">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y450">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z450">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:27">
+        <v>0.5</v>
+      </c>
+      <c r="AB450">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AC450">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:29">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -40570,6 +40615,15 @@
       <c r="G451" t="s">
         <v>29</v>
       </c>
+      <c r="H451">
+        <v>4</v>
+      </c>
+      <c r="I451">
+        <v>2</v>
+      </c>
+      <c r="J451" t="s">
+        <v>54</v>
+      </c>
       <c r="K451">
         <v>1.833</v>
       </c>
@@ -40580,49 +40634,55 @@
         <v>4</v>
       </c>
       <c r="N451">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="O451">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P451">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q451">
         <v>-0.75</v>
       </c>
       <c r="R451">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="S451">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="T451">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U451">
-        <v>2.07</v>
+        <v>1.775</v>
       </c>
       <c r="V451">
-        <v>1.83</v>
+        <v>2.025</v>
       </c>
       <c r="W451">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="X451">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y451">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z451">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA451">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB451">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC451">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:29">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -40644,6 +40704,15 @@
       <c r="G452" t="s">
         <v>30</v>
       </c>
+      <c r="H452">
+        <v>0</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+      <c r="J452" t="s">
+        <v>53</v>
+      </c>
       <c r="K452">
         <v>1.444</v>
       </c>
@@ -40654,49 +40723,55 @@
         <v>7.5</v>
       </c>
       <c r="N452">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O452">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P452">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q452">
         <v>-1</v>
       </c>
       <c r="R452">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="S452">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="T452">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U452">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V452">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W452">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X452">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y452">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z452">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:27">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="AB452">
+        <v>-1</v>
+      </c>
+      <c r="AC452">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="453" spans="1:29">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -40718,6 +40793,15 @@
       <c r="G453" t="s">
         <v>44</v>
       </c>
+      <c r="H453">
+        <v>2</v>
+      </c>
+      <c r="I453">
+        <v>1</v>
+      </c>
+      <c r="J453" t="s">
+        <v>54</v>
+      </c>
       <c r="K453">
         <v>1.4</v>
       </c>
@@ -40728,49 +40812,55 @@
         <v>7</v>
       </c>
       <c r="N453">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O453">
         <v>4.5</v>
       </c>
       <c r="P453">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Q453">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R453">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S453">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="T453">
         <v>2.5</v>
       </c>
       <c r="U453">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V453">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W453">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X453">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y453">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z453">
         <v>0</v>
       </c>
       <c r="AA453">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB453">
+        <v>0.97</v>
+      </c>
+      <c r="AC453">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:29">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -40792,6 +40882,15 @@
       <c r="G454" t="s">
         <v>41</v>
       </c>
+      <c r="H454">
+        <v>3</v>
+      </c>
+      <c r="I454">
+        <v>1</v>
+      </c>
+      <c r="J454" t="s">
+        <v>54</v>
+      </c>
       <c r="K454">
         <v>1.95</v>
       </c>
@@ -40805,7 +40904,7 @@
         <v>2.05</v>
       </c>
       <c r="O454">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P454">
         <v>3.75</v>
@@ -40814,37 +40913,43 @@
         <v>-0.5</v>
       </c>
       <c r="R454">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="S454">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="T454">
         <v>2.25</v>
       </c>
       <c r="U454">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V454">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W454">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X454">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y454">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z454">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AA454">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB454">
+        <v>0.99</v>
+      </c>
+      <c r="AC454">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:29">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -40866,6 +40971,15 @@
       <c r="G455" t="s">
         <v>39</v>
       </c>
+      <c r="H455">
+        <v>1</v>
+      </c>
+      <c r="I455">
+        <v>0</v>
+      </c>
+      <c r="J455" t="s">
+        <v>54</v>
+      </c>
       <c r="K455">
         <v>1.833</v>
       </c>
@@ -40879,46 +40993,52 @@
         <v>1.8</v>
       </c>
       <c r="O455">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P455">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q455">
+        <v>-0.75</v>
+      </c>
+      <c r="R455">
+        <v>2.025</v>
+      </c>
+      <c r="S455">
+        <v>1.775</v>
+      </c>
+      <c r="T455">
+        <v>2</v>
+      </c>
+      <c r="U455">
+        <v>1.83</v>
+      </c>
+      <c r="V455">
+        <v>2.07</v>
+      </c>
+      <c r="W455">
+        <v>0.8</v>
+      </c>
+      <c r="X455">
+        <v>-1</v>
+      </c>
+      <c r="Y455">
+        <v>-1</v>
+      </c>
+      <c r="Z455">
+        <v>0.5125</v>
+      </c>
+      <c r="AA455">
         <v>-0.5</v>
       </c>
-      <c r="R455">
-        <v>1.85</v>
-      </c>
-      <c r="S455">
-        <v>2.08</v>
-      </c>
-      <c r="T455">
-        <v>2.25</v>
-      </c>
-      <c r="U455">
-        <v>2.04</v>
-      </c>
-      <c r="V455">
-        <v>1.86</v>
-      </c>
-      <c r="W455">
-        <v>0</v>
-      </c>
-      <c r="X455">
-        <v>0</v>
-      </c>
-      <c r="Y455">
-        <v>0</v>
-      </c>
-      <c r="Z455">
-        <v>0</v>
-      </c>
-      <c r="AA455">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:27">
+      <c r="AB455">
+        <v>-1</v>
+      </c>
+      <c r="AC455">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="456" spans="1:29">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -40935,11 +41055,20 @@
         <v>45327.69791666666</v>
       </c>
       <c r="F456" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G456" t="s">
         <v>51</v>
       </c>
+      <c r="H456">
+        <v>4</v>
+      </c>
+      <c r="I456">
+        <v>0</v>
+      </c>
+      <c r="J456" t="s">
+        <v>54</v>
+      </c>
       <c r="K456">
         <v>1.5</v>
       </c>
@@ -40950,49 +41079,55 @@
         <v>7.5</v>
       </c>
       <c r="N456">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="O456">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P456">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q456">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R456">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="S456">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T456">
         <v>2.5</v>
       </c>
       <c r="U456">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V456">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="W456">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X456">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y456">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z456">
-        <v>0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA456">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB456">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AC456">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:29">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -41027,28 +41162,28 @@
         <v>2.45</v>
       </c>
       <c r="O457">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P457">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q457">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R457">
-        <v>1.82</v>
+        <v>2.125</v>
       </c>
       <c r="S457">
-        <v>2.08</v>
+        <v>1.78</v>
       </c>
       <c r="T457">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U457">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="V457">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W457">
         <v>0</v>
@@ -41066,7 +41201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:27">
+    <row r="458" spans="1:29">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -41098,31 +41233,31 @@
         <v>2</v>
       </c>
       <c r="N458">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O458">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P458">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Q458">
         <v>0.25</v>
       </c>
       <c r="R458">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="S458">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="T458">
         <v>2.25</v>
       </c>
       <c r="U458">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="V458">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W458">
         <v>0</v>
@@ -41140,7 +41275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:27">
+    <row r="459" spans="1:29">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -41157,7 +41292,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F459" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G459" t="s">
         <v>37</v>
@@ -41172,31 +41307,31 @@
         <v>1.95</v>
       </c>
       <c r="N459">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O459">
         <v>3.5</v>
       </c>
       <c r="P459">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q459">
         <v>0.5</v>
       </c>
       <c r="R459">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S459">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="T459">
         <v>2.25</v>
       </c>
       <c r="U459">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V459">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W459">
         <v>0</v>
@@ -41214,7 +41349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:27">
+    <row r="460" spans="1:29">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -41246,7 +41381,7 @@
         <v>2.4</v>
       </c>
       <c r="N460">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O460">
         <v>3.3</v>
@@ -41258,19 +41393,19 @@
         <v>0.25</v>
       </c>
       <c r="R460">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="S460">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T460">
         <v>2.25</v>
       </c>
       <c r="U460">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="V460">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="W460">
         <v>0</v>
@@ -41285,6 +41420,524 @@
         <v>0</v>
       </c>
       <c r="AA460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:29">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>6868816</v>
+      </c>
+      <c r="C461" t="s">
+        <v>28</v>
+      </c>
+      <c r="D461" t="s">
+        <v>28</v>
+      </c>
+      <c r="E461" s="2">
+        <v>45333.35416666666</v>
+      </c>
+      <c r="F461" t="s">
+        <v>35</v>
+      </c>
+      <c r="G461" t="s">
+        <v>49</v>
+      </c>
+      <c r="K461">
+        <v>1.475</v>
+      </c>
+      <c r="L461">
+        <v>4.2</v>
+      </c>
+      <c r="M461">
+        <v>6.4</v>
+      </c>
+      <c r="N461">
+        <v>1.5</v>
+      </c>
+      <c r="O461">
+        <v>4.333</v>
+      </c>
+      <c r="P461">
+        <v>6.5</v>
+      </c>
+      <c r="Q461">
+        <v>-1</v>
+      </c>
+      <c r="R461">
+        <v>1.87</v>
+      </c>
+      <c r="S461">
+        <v>2.03</v>
+      </c>
+      <c r="T461">
+        <v>2.75</v>
+      </c>
+      <c r="U461">
+        <v>2.01</v>
+      </c>
+      <c r="V461">
+        <v>1.89</v>
+      </c>
+      <c r="W461">
+        <v>0</v>
+      </c>
+      <c r="X461">
+        <v>0</v>
+      </c>
+      <c r="Y461">
+        <v>0</v>
+      </c>
+      <c r="Z461">
+        <v>0</v>
+      </c>
+      <c r="AA461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:29">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>6868814</v>
+      </c>
+      <c r="C462" t="s">
+        <v>28</v>
+      </c>
+      <c r="D462" t="s">
+        <v>28</v>
+      </c>
+      <c r="E462" s="2">
+        <v>45333.45833333334</v>
+      </c>
+      <c r="F462" t="s">
+        <v>45</v>
+      </c>
+      <c r="G462" t="s">
+        <v>34</v>
+      </c>
+      <c r="K462">
+        <v>1.615</v>
+      </c>
+      <c r="L462">
+        <v>3.7</v>
+      </c>
+      <c r="M462">
+        <v>5.5</v>
+      </c>
+      <c r="N462">
+        <v>1.727</v>
+      </c>
+      <c r="O462">
+        <v>3.6</v>
+      </c>
+      <c r="P462">
+        <v>5.25</v>
+      </c>
+      <c r="Q462">
+        <v>-0.75</v>
+      </c>
+      <c r="R462">
+        <v>1.99</v>
+      </c>
+      <c r="S462">
+        <v>1.91</v>
+      </c>
+      <c r="T462">
+        <v>2.25</v>
+      </c>
+      <c r="U462">
+        <v>2.02</v>
+      </c>
+      <c r="V462">
+        <v>1.88</v>
+      </c>
+      <c r="W462">
+        <v>0</v>
+      </c>
+      <c r="X462">
+        <v>0</v>
+      </c>
+      <c r="Y462">
+        <v>0</v>
+      </c>
+      <c r="Z462">
+        <v>0</v>
+      </c>
+      <c r="AA462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:29">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>6868810</v>
+      </c>
+      <c r="C463" t="s">
+        <v>28</v>
+      </c>
+      <c r="D463" t="s">
+        <v>28</v>
+      </c>
+      <c r="E463" s="2">
+        <v>45333.45833333334</v>
+      </c>
+      <c r="F463" t="s">
+        <v>40</v>
+      </c>
+      <c r="G463" t="s">
+        <v>44</v>
+      </c>
+      <c r="K463">
+        <v>1.8</v>
+      </c>
+      <c r="L463">
+        <v>3.5</v>
+      </c>
+      <c r="M463">
+        <v>4.333</v>
+      </c>
+      <c r="N463">
+        <v>2.05</v>
+      </c>
+      <c r="O463">
+        <v>3.4</v>
+      </c>
+      <c r="P463">
+        <v>3.75</v>
+      </c>
+      <c r="Q463">
+        <v>-0.5</v>
+      </c>
+      <c r="R463">
+        <v>2.09</v>
+      </c>
+      <c r="S463">
+        <v>1.81</v>
+      </c>
+      <c r="T463">
+        <v>2.25</v>
+      </c>
+      <c r="U463">
+        <v>1.97</v>
+      </c>
+      <c r="V463">
+        <v>1.93</v>
+      </c>
+      <c r="W463">
+        <v>0</v>
+      </c>
+      <c r="X463">
+        <v>0</v>
+      </c>
+      <c r="Y463">
+        <v>0</v>
+      </c>
+      <c r="Z463">
+        <v>0</v>
+      </c>
+      <c r="AA463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:29">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>6868807</v>
+      </c>
+      <c r="C464" t="s">
+        <v>28</v>
+      </c>
+      <c r="D464" t="s">
+        <v>28</v>
+      </c>
+      <c r="E464" s="2">
+        <v>45333.58333333334</v>
+      </c>
+      <c r="F464" t="s">
+        <v>50</v>
+      </c>
+      <c r="G464" t="s">
+        <v>47</v>
+      </c>
+      <c r="K464">
+        <v>3.6</v>
+      </c>
+      <c r="L464">
+        <v>3.5</v>
+      </c>
+      <c r="M464">
+        <v>1.952</v>
+      </c>
+      <c r="N464">
+        <v>3.75</v>
+      </c>
+      <c r="O464">
+        <v>3.3</v>
+      </c>
+      <c r="P464">
+        <v>2.05</v>
+      </c>
+      <c r="Q464">
+        <v>0.5</v>
+      </c>
+      <c r="R464">
+        <v>1.82</v>
+      </c>
+      <c r="S464">
+        <v>2.08</v>
+      </c>
+      <c r="T464">
+        <v>2.25</v>
+      </c>
+      <c r="U464">
+        <v>1.99</v>
+      </c>
+      <c r="V464">
+        <v>1.91</v>
+      </c>
+      <c r="W464">
+        <v>0</v>
+      </c>
+      <c r="X464">
+        <v>0</v>
+      </c>
+      <c r="Y464">
+        <v>0</v>
+      </c>
+      <c r="Z464">
+        <v>0</v>
+      </c>
+      <c r="AA464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:27">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>6868809</v>
+      </c>
+      <c r="C465" t="s">
+        <v>28</v>
+      </c>
+      <c r="D465" t="s">
+        <v>28</v>
+      </c>
+      <c r="E465" s="2">
+        <v>45333.69791666666</v>
+      </c>
+      <c r="F465" t="s">
+        <v>43</v>
+      </c>
+      <c r="G465" t="s">
+        <v>46</v>
+      </c>
+      <c r="K465">
+        <v>1.952</v>
+      </c>
+      <c r="L465">
+        <v>3.5</v>
+      </c>
+      <c r="M465">
+        <v>3.6</v>
+      </c>
+      <c r="N465">
+        <v>1.95</v>
+      </c>
+      <c r="O465">
+        <v>3.6</v>
+      </c>
+      <c r="P465">
+        <v>3.8</v>
+      </c>
+      <c r="Q465">
+        <v>-0.5</v>
+      </c>
+      <c r="R465">
+        <v>1.99</v>
+      </c>
+      <c r="S465">
+        <v>1.91</v>
+      </c>
+      <c r="T465">
+        <v>2.75</v>
+      </c>
+      <c r="U465">
+        <v>2.04</v>
+      </c>
+      <c r="V465">
+        <v>1.86</v>
+      </c>
+      <c r="W465">
+        <v>0</v>
+      </c>
+      <c r="X465">
+        <v>0</v>
+      </c>
+      <c r="Y465">
+        <v>0</v>
+      </c>
+      <c r="Z465">
+        <v>0</v>
+      </c>
+      <c r="AA465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:27">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>6868808</v>
+      </c>
+      <c r="C466" t="s">
+        <v>28</v>
+      </c>
+      <c r="D466" t="s">
+        <v>28</v>
+      </c>
+      <c r="E466" s="2">
+        <v>45334.69791666666</v>
+      </c>
+      <c r="F466" t="s">
+        <v>39</v>
+      </c>
+      <c r="G466" t="s">
+        <v>38</v>
+      </c>
+      <c r="K466">
+        <v>1.3</v>
+      </c>
+      <c r="L466">
+        <v>5</v>
+      </c>
+      <c r="M466">
+        <v>9.5</v>
+      </c>
+      <c r="N466">
+        <v>1.444</v>
+      </c>
+      <c r="O466">
+        <v>4.5</v>
+      </c>
+      <c r="P466">
+        <v>8</v>
+      </c>
+      <c r="Q466">
+        <v>-1.25</v>
+      </c>
+      <c r="R466">
+        <v>2.04</v>
+      </c>
+      <c r="S466">
+        <v>1.86</v>
+      </c>
+      <c r="T466">
+        <v>2.5</v>
+      </c>
+      <c r="U466">
+        <v>2.04</v>
+      </c>
+      <c r="V466">
+        <v>1.86</v>
+      </c>
+      <c r="W466">
+        <v>0</v>
+      </c>
+      <c r="X466">
+        <v>0</v>
+      </c>
+      <c r="Y466">
+        <v>0</v>
+      </c>
+      <c r="Z466">
+        <v>0</v>
+      </c>
+      <c r="AA466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:27">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>6868777</v>
+      </c>
+      <c r="C467" t="s">
+        <v>28</v>
+      </c>
+      <c r="D467" t="s">
+        <v>28</v>
+      </c>
+      <c r="E467" s="2">
+        <v>45336.625</v>
+      </c>
+      <c r="F467" t="s">
+        <v>45</v>
+      </c>
+      <c r="G467" t="s">
+        <v>35</v>
+      </c>
+      <c r="K467">
+        <v>2.25</v>
+      </c>
+      <c r="L467">
+        <v>3.2</v>
+      </c>
+      <c r="M467">
+        <v>3.2</v>
+      </c>
+      <c r="N467">
+        <v>2.25</v>
+      </c>
+      <c r="O467">
+        <v>3.2</v>
+      </c>
+      <c r="P467">
+        <v>3.2</v>
+      </c>
+      <c r="Q467">
+        <v>-0.25</v>
+      </c>
+      <c r="R467">
+        <v>2.02</v>
+      </c>
+      <c r="S467">
+        <v>1.88</v>
+      </c>
+      <c r="T467">
+        <v>2.25</v>
+      </c>
+      <c r="U467">
+        <v>1.99</v>
+      </c>
+      <c r="V467">
+        <v>1.91</v>
+      </c>
+      <c r="W467">
+        <v>0</v>
+      </c>
+      <c r="X467">
+        <v>0</v>
+      </c>
+      <c r="Y467">
+        <v>0</v>
+      </c>
+      <c r="Z467">
+        <v>0</v>
+      </c>
+      <c r="AA467">
         <v>0</v>
       </c>
     </row>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>Torino</t>
   </si>
   <si>
-    <t>Lecce</t>
+    <t>Roma</t>
   </si>
   <si>
-    <t>Roma</t>
+    <t>Lecce</t>
   </si>
   <si>
     <t>Cremonese</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC479"/>
+  <dimension ref="A1:AC482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5208265</v>
+        <v>5208266</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1008,55 +1008,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>54</v>
       </c>
       <c r="K6">
-        <v>4.1</v>
+        <v>1.55</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="N6">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="O6">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="S6">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V6">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W6">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1065,16 +1065,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>1.08</v>
+        <v>0.485</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5208266</v>
+        <v>5208265</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1097,55 +1097,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>54</v>
       </c>
       <c r="K7">
-        <v>1.55</v>
+        <v>4.1</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="N7">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P7">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="S7">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V7">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W7">
-        <v>0.6659999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1154,16 +1154,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.485</v>
+        <v>1.08</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC7">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1987,7 +1987,7 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2607,7 +2607,7 @@
         <v>44940.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
@@ -3141,7 +3141,7 @@
         <v>44941.69791666666</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3322,7 +3322,7 @@
         <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3767,7 +3767,7 @@
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4298,7 +4298,7 @@
         <v>44953.69791666666</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4924,7 +4924,7 @@
         <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>44961.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
         <v>48</v>
@@ -6167,10 +6167,10 @@
         <v>44968.58333333334</v>
       </c>
       <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
         <v>33</v>
-      </c>
-      <c r="G64" t="s">
-        <v>34</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7591,7 +7591,7 @@
         <v>44976.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
         <v>44</v>
@@ -7858,7 +7858,7 @@
         <v>44982.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
         <v>30</v>
@@ -8484,7 +8484,7 @@
         <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -9196,7 +9196,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9282,7 +9282,7 @@
         <v>44990.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
         <v>39</v>
@@ -9905,7 +9905,7 @@
         <v>44997.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
         <v>32</v>
@@ -10172,7 +10172,7 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>30</v>
@@ -10976,7 +10976,7 @@
         <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11154,7 +11154,7 @@
         <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11863,7 +11863,7 @@
         <v>45018.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
         <v>42</v>
@@ -12044,7 +12044,7 @@
         <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12308,7 +12308,7 @@
         <v>45023.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
         <v>46</v>
@@ -12830,7 +12830,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6462418</v>
+        <v>5208381</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12842,76 +12842,76 @@
         <v>45024.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K139">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>2.5</v>
+      </c>
+      <c r="N139">
         <v>3.25</v>
       </c>
-      <c r="M139">
-        <v>2.75</v>
-      </c>
-      <c r="N139">
-        <v>2.45</v>
-      </c>
       <c r="O139">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P139">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="S139">
+        <v>2.155</v>
+      </c>
+      <c r="T139">
         <v>1.75</v>
       </c>
-      <c r="T139">
-        <v>2.5</v>
-      </c>
       <c r="U139">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="V139">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="W139">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z139">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>1.155</v>
       </c>
       <c r="AB139">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12919,7 +12919,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5208381</v>
+        <v>6462418</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12931,76 +12931,76 @@
         <v>45024.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K140">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M140">
+        <v>2.75</v>
+      </c>
+      <c r="N140">
+        <v>2.45</v>
+      </c>
+      <c r="O140">
+        <v>3.3</v>
+      </c>
+      <c r="P140">
+        <v>2.875</v>
+      </c>
+      <c r="Q140">
+        <v>-0.25</v>
+      </c>
+      <c r="R140">
+        <v>2.05</v>
+      </c>
+      <c r="S140">
+        <v>1.75</v>
+      </c>
+      <c r="T140">
         <v>2.5</v>
       </c>
-      <c r="N140">
-        <v>3.25</v>
-      </c>
-      <c r="O140">
-        <v>2.875</v>
-      </c>
-      <c r="P140">
-        <v>2.55</v>
-      </c>
-      <c r="Q140">
-        <v>0.25</v>
-      </c>
-      <c r="R140">
-        <v>1.76</v>
-      </c>
-      <c r="S140">
-        <v>2.155</v>
-      </c>
-      <c r="T140">
-        <v>1.75</v>
-      </c>
       <c r="U140">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="V140">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA140">
-        <v>1.155</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC140">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13554,7 +13554,7 @@
         <v>45032.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
         <v>42</v>
@@ -13821,7 +13821,7 @@
         <v>45032.65625</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
         <v>37</v>
@@ -14625,7 +14625,7 @@
         <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14803,7 +14803,7 @@
         <v>47</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14889,7 +14889,7 @@
         <v>45044.5625</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
         <v>37</v>
@@ -15067,7 +15067,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
         <v>43</v>
@@ -16049,7 +16049,7 @@
         <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16316,7 +16316,7 @@
         <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16758,7 +16758,7 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
         <v>38</v>
@@ -17203,7 +17203,7 @@
         <v>45053.65625</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
         <v>44</v>
@@ -17562,7 +17562,7 @@
         <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -18185,7 +18185,7 @@
         <v>45</v>
       </c>
       <c r="G199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18805,7 +18805,7 @@
         <v>45067.3125</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
         <v>31</v>
@@ -19161,7 +19161,7 @@
         <v>45068.5625</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
         <v>29</v>
@@ -19609,7 +19609,7 @@
         <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19876,7 +19876,7 @@
         <v>40</v>
       </c>
       <c r="G218" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -20395,7 +20395,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5702696</v>
+        <v>5706212</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20407,40 +20407,40 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G224" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K224">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="L224">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M224">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N224">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="O224">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P224">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="Q224">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R224">
         <v>1.95</v>
@@ -20452,31 +20452,31 @@
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="V224">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA224">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
         <v>-1</v>
       </c>
       <c r="AC224">
-        <v>1.07</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5706212</v>
+        <v>5702696</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,40 +20496,40 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
         <v>2</v>
       </c>
-      <c r="I225">
-        <v>0</v>
-      </c>
       <c r="J225" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K225">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="L225">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M225">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N225">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="O225">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P225">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R225">
         <v>1.95</v>
@@ -20541,31 +20541,31 @@
         <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V225">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="W225">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z225">
+        <v>-1</v>
+      </c>
+      <c r="AA225">
         <v>0.95</v>
       </c>
-      <c r="AA225">
-        <v>-1</v>
-      </c>
       <c r="AB225">
         <v>-1</v>
       </c>
       <c r="AC225">
-        <v>0.9299999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5737536</v>
+        <v>5706213</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,55 +20674,55 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G227" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J227" t="s">
         <v>52</v>
       </c>
       <c r="K227">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M227">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="N227">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O227">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P227">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="Q227">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R227">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S227">
-        <v>1.82</v>
+        <v>2.03</v>
       </c>
       <c r="T227">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="V227">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20731,19 +20731,19 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>0.615</v>
+        <v>1.75</v>
       </c>
       <c r="Z227">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.41</v>
+        <v>1.03</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC227">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5737535</v>
+        <v>5706211</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,58 +20763,58 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H228">
+        <v>5</v>
+      </c>
+      <c r="I228">
         <v>2</v>
-      </c>
-      <c r="I228">
-        <v>1</v>
       </c>
       <c r="J228" t="s">
         <v>54</v>
       </c>
       <c r="K228">
+        <v>1.5</v>
+      </c>
+      <c r="L228">
+        <v>4.5</v>
+      </c>
+      <c r="M228">
+        <v>5.5</v>
+      </c>
+      <c r="N228">
+        <v>1.5</v>
+      </c>
+      <c r="O228">
+        <v>5</v>
+      </c>
+      <c r="P228">
+        <v>5.75</v>
+      </c>
+      <c r="Q228">
+        <v>-1.25</v>
+      </c>
+      <c r="R228">
+        <v>2.05</v>
+      </c>
+      <c r="S228">
         <v>1.85</v>
       </c>
-      <c r="L228">
-        <v>3.6</v>
-      </c>
-      <c r="M228">
-        <v>4</v>
-      </c>
-      <c r="N228">
-        <v>1.75</v>
-      </c>
-      <c r="O228">
-        <v>3.75</v>
-      </c>
-      <c r="P228">
-        <v>4.75</v>
-      </c>
-      <c r="Q228">
-        <v>-0.75</v>
-      </c>
-      <c r="R228">
-        <v>2.03</v>
-      </c>
-      <c r="S228">
-        <v>1.87</v>
-      </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U228">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="V228">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="W228">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -20823,13 +20823,13 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.5149999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA228">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.8400000000000001</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5706211</v>
+        <v>5737536</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,76 +20852,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H229">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K229">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="L229">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M229">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N229">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O229">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P229">
-        <v>5.75</v>
+        <v>1.615</v>
       </c>
       <c r="Q229">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R229">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V229">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="W229">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z229">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.41</v>
       </c>
       <c r="AB229">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5706213</v>
+        <v>5737535</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20944,70 +20944,70 @@
         <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H230">
         <v>2</v>
       </c>
       <c r="I230">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K230">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="L230">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N230">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O230">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P230">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
+        <v>2.03</v>
+      </c>
+      <c r="S230">
         <v>1.87</v>
       </c>
-      <c r="S230">
-        <v>2.03</v>
-      </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>2.07</v>
+        <v>1.84</v>
       </c>
       <c r="V230">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AA230">
-        <v>1.03</v>
+        <v>-0.5</v>
       </c>
       <c r="AB230">
-        <v>1.07</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21107,7 +21107,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6868438</v>
+        <v>6868439</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21119,55 +21119,55 @@
         <v>45157.5625</v>
       </c>
       <c r="F232" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G232" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J232" t="s">
         <v>52</v>
       </c>
       <c r="K232">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="L232">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M232">
+        <v>1.4</v>
+      </c>
+      <c r="N232">
+        <v>6.5</v>
+      </c>
+      <c r="O232">
+        <v>4.333</v>
+      </c>
+      <c r="P232">
+        <v>1.55</v>
+      </c>
+      <c r="Q232">
+        <v>1</v>
+      </c>
+      <c r="R232">
+        <v>1.95</v>
+      </c>
+      <c r="S232">
+        <v>1.95</v>
+      </c>
+      <c r="T232">
         <v>2.75</v>
       </c>
-      <c r="N232">
-        <v>2.25</v>
-      </c>
-      <c r="O232">
-        <v>3.3</v>
-      </c>
-      <c r="P232">
-        <v>3.25</v>
-      </c>
-      <c r="Q232">
-        <v>-0.25</v>
-      </c>
-      <c r="R232">
-        <v>2.01</v>
-      </c>
-      <c r="S232">
-        <v>1.92</v>
-      </c>
-      <c r="T232">
-        <v>2.5</v>
-      </c>
       <c r="U232">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V232">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -21176,19 +21176,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>2.25</v>
+        <v>0.55</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.9199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC232">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21196,7 +21196,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6868439</v>
+        <v>6868438</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21208,55 +21208,55 @@
         <v>45157.5625</v>
       </c>
       <c r="F233" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G233" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
         <v>1</v>
-      </c>
-      <c r="I233">
-        <v>3</v>
       </c>
       <c r="J233" t="s">
         <v>52</v>
       </c>
       <c r="K233">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="L233">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M233">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="N233">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O233">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P233">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q233">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V233">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -21265,19 +21265,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0.55</v>
+        <v>2.25</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.95</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21564,7 +21564,7 @@
         <v>45158.5625</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
         <v>29</v>
@@ -21742,7 +21742,7 @@
         <v>45158.65625</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
         <v>41</v>
@@ -22190,7 +22190,7 @@
         <v>44</v>
       </c>
       <c r="G244" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22457,7 +22457,7 @@
         <v>36</v>
       </c>
       <c r="G247" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H247">
         <v>2</v>
@@ -22988,7 +22988,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F253" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G253" t="s">
         <v>43</v>
@@ -23421,7 +23421,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6868600</v>
+        <v>6868595</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23433,13 +23433,13 @@
         <v>45172.5625</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G258" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -23454,37 +23454,37 @@
         <v>3.6</v>
       </c>
       <c r="M258">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N258">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O258">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P258">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q258">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R258">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="S258">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="T258">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U258">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V258">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="W258">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X258">
         <v>-1</v>
@@ -23493,16 +23493,16 @@
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA258">
         <v>-1</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC258">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23510,7 +23510,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6868595</v>
+        <v>6868600</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23522,13 +23522,13 @@
         <v>45172.5625</v>
       </c>
       <c r="F259" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G259" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -23543,37 +23543,37 @@
         <v>3.6</v>
       </c>
       <c r="M259">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N259">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O259">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P259">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q259">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R259">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="S259">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="T259">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U259">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V259">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="W259">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="X259">
         <v>-1</v>
@@ -23582,16 +23582,16 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0.95</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA259">
         <v>-1</v>
       </c>
       <c r="AB259">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC259">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23611,7 +23611,7 @@
         <v>45172.65625</v>
       </c>
       <c r="F260" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G260" t="s">
         <v>29</v>
@@ -24148,7 +24148,7 @@
         <v>40</v>
       </c>
       <c r="G266" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -24412,7 +24412,7 @@
         <v>45186.65625</v>
       </c>
       <c r="F269" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G269" t="s">
         <v>48</v>
@@ -24768,7 +24768,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F273" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G273" t="s">
         <v>50</v>
@@ -25483,7 +25483,7 @@
         <v>32</v>
       </c>
       <c r="G281" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H281">
         <v>1</v>
@@ -25572,7 +25572,7 @@
         <v>39</v>
       </c>
       <c r="G282" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -26284,7 +26284,7 @@
         <v>50</v>
       </c>
       <c r="G290" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H290">
         <v>4</v>
@@ -26370,7 +26370,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F291" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G291" t="s">
         <v>46</v>
@@ -26904,7 +26904,7 @@
         <v>45200.65625</v>
       </c>
       <c r="F297" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G297" t="s">
         <v>49</v>
@@ -26981,7 +26981,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6868639</v>
+        <v>6868640</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26993,76 +26993,76 @@
         <v>45201.5625</v>
       </c>
       <c r="F298" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G298" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H298">
         <v>0</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K298">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L298">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M298">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N298">
+        <v>1.7</v>
+      </c>
+      <c r="O298">
+        <v>3.5</v>
+      </c>
+      <c r="P298">
+        <v>5.5</v>
+      </c>
+      <c r="Q298">
+        <v>-0.75</v>
+      </c>
+      <c r="R298">
+        <v>1.99</v>
+      </c>
+      <c r="S298">
+        <v>1.91</v>
+      </c>
+      <c r="T298">
+        <v>2.25</v>
+      </c>
+      <c r="U298">
         <v>2.1</v>
       </c>
-      <c r="O298">
-        <v>3.8</v>
-      </c>
-      <c r="P298">
-        <v>3.2</v>
-      </c>
-      <c r="Q298">
-        <v>-0.25</v>
-      </c>
-      <c r="R298">
-        <v>1.88</v>
-      </c>
-      <c r="S298">
-        <v>2.02</v>
-      </c>
-      <c r="T298">
-        <v>3</v>
-      </c>
-      <c r="U298">
-        <v>1.97</v>
-      </c>
       <c r="V298">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y298">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z298">
         <v>-1</v>
       </c>
       <c r="AA298">
-        <v>1.02</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB298">
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.9299999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27070,7 +27070,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6868640</v>
+        <v>6868639</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27082,76 +27082,76 @@
         <v>45201.5625</v>
       </c>
       <c r="F299" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G299" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H299">
         <v>0</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K299">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L299">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M299">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N299">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O299">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P299">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q299">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R299">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="S299">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="T299">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U299">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="V299">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="W299">
         <v>-1</v>
       </c>
       <c r="X299">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y299">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z299">
         <v>-1</v>
       </c>
       <c r="AA299">
-        <v>0.9099999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AB299">
         <v>-1</v>
       </c>
       <c r="AC299">
-        <v>0.8</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27349,7 +27349,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F302" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G302" t="s">
         <v>30</v>
@@ -27782,7 +27782,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6868648</v>
+        <v>6868644</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27794,58 +27794,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G307" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H307">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J307" t="s">
         <v>54</v>
       </c>
       <c r="K307">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L307">
         <v>3.4</v>
       </c>
       <c r="M307">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N307">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O307">
+        <v>3.4</v>
+      </c>
+      <c r="P307">
         <v>3.3</v>
       </c>
-      <c r="P307">
-        <v>2.45</v>
-      </c>
       <c r="Q307">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R307">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="S307">
-        <v>2.125</v>
+        <v>2.01</v>
       </c>
       <c r="T307">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U307">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="V307">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="W307">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27854,13 +27854,13 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0.78</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA307">
         <v>-1</v>
       </c>
       <c r="AB307">
-        <v>0.9199999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AC307">
         <v>-1</v>
@@ -27871,7 +27871,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6868644</v>
+        <v>6868648</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27883,58 +27883,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G308" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H308">
+        <v>3</v>
+      </c>
+      <c r="I308">
         <v>2</v>
-      </c>
-      <c r="I308">
-        <v>1</v>
       </c>
       <c r="J308" t="s">
         <v>54</v>
       </c>
       <c r="K308">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L308">
         <v>3.4</v>
       </c>
       <c r="M308">
+        <v>2.625</v>
+      </c>
+      <c r="N308">
+        <v>2.9</v>
+      </c>
+      <c r="O308">
         <v>3.3</v>
       </c>
-      <c r="N308">
-        <v>2.2</v>
-      </c>
-      <c r="O308">
-        <v>3.4</v>
-      </c>
       <c r="P308">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q308">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R308">
+        <v>1.78</v>
+      </c>
+      <c r="S308">
+        <v>2.125</v>
+      </c>
+      <c r="T308">
+        <v>2.25</v>
+      </c>
+      <c r="U308">
         <v>1.92</v>
       </c>
-      <c r="S308">
-        <v>2.01</v>
-      </c>
-      <c r="T308">
-        <v>2.5</v>
-      </c>
-      <c r="U308">
-        <v>1.99</v>
-      </c>
       <c r="V308">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W308">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -27943,13 +27943,13 @@
         <v>-1</v>
       </c>
       <c r="Z308">
+        <v>0.78</v>
+      </c>
+      <c r="AA308">
+        <v>-1</v>
+      </c>
+      <c r="AB308">
         <v>0.9199999999999999</v>
-      </c>
-      <c r="AA308">
-        <v>-1</v>
-      </c>
-      <c r="AB308">
-        <v>0.99</v>
       </c>
       <c r="AC308">
         <v>-1</v>
@@ -27975,7 +27975,7 @@
         <v>51</v>
       </c>
       <c r="G309" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -28417,7 +28417,7 @@
         <v>45221.3125</v>
       </c>
       <c r="F314" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G314" t="s">
         <v>40</v>
@@ -28865,7 +28865,7 @@
         <v>37</v>
       </c>
       <c r="G319" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -29218,7 +29218,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G323" t="s">
         <v>32</v>
@@ -29577,7 +29577,7 @@
         <v>38</v>
       </c>
       <c r="G327" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -30464,10 +30464,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F337" t="s">
+        <v>33</v>
+      </c>
+      <c r="G337" t="s">
         <v>34</v>
-      </c>
-      <c r="G337" t="s">
-        <v>33</v>
       </c>
       <c r="H337">
         <v>2</v>
@@ -30998,7 +30998,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F343" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G343" t="s">
         <v>43</v>
@@ -31535,7 +31535,7 @@
         <v>41</v>
       </c>
       <c r="G349" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H349">
         <v>0</v>
@@ -32244,7 +32244,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F357" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G357" t="s">
         <v>37</v>
@@ -32425,7 +32425,7 @@
         <v>44</v>
       </c>
       <c r="G359" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H359">
         <v>2</v>
@@ -32956,7 +32956,7 @@
         <v>45263.35416666666</v>
       </c>
       <c r="F365" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G365" t="s">
         <v>45</v>
@@ -33226,7 +33226,7 @@
         <v>30</v>
       </c>
       <c r="G368" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -34113,7 +34113,7 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F378" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G378" t="s">
         <v>36</v>
@@ -34205,7 +34205,7 @@
         <v>48</v>
       </c>
       <c r="G379" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H379">
         <v>1</v>
@@ -34469,7 +34469,7 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F382" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G382" t="s">
         <v>49</v>
@@ -35006,7 +35006,7 @@
         <v>45</v>
       </c>
       <c r="G388" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H388">
         <v>2</v>
@@ -35881,7 +35881,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>6868740</v>
+        <v>6868741</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35893,10 +35893,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F398" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G398" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H398">
         <v>2</v>
@@ -35908,43 +35908,43 @@
         <v>54</v>
       </c>
       <c r="K398">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="L398">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M398">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="N398">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O398">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P398">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="Q398">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R398">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="S398">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="T398">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U398">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V398">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W398">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X398">
         <v>-1</v>
@@ -35953,16 +35953,16 @@
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="AA398">
         <v>-1</v>
       </c>
       <c r="AB398">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC398">
-        <v>0.475</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -35970,7 +35970,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>6868741</v>
+        <v>6868740</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35982,10 +35982,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F399" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G399" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H399">
         <v>2</v>
@@ -35997,43 +35997,43 @@
         <v>54</v>
       </c>
       <c r="K399">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="L399">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M399">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="N399">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O399">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P399">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q399">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R399">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S399">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T399">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U399">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V399">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W399">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X399">
         <v>-1</v>
@@ -36042,16 +36042,16 @@
         <v>-1</v>
       </c>
       <c r="Z399">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="AA399">
         <v>-1</v>
       </c>
       <c r="AB399">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC399">
-        <v>1.04</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -36071,7 +36071,7 @@
         <v>45283.69791666666</v>
       </c>
       <c r="F400" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G400" t="s">
         <v>46</v>
@@ -36148,7 +36148,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>6868755</v>
+        <v>6868749</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36160,76 +36160,76 @@
         <v>45289.60416666666</v>
       </c>
       <c r="F401" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G401" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I401">
         <v>0</v>
       </c>
       <c r="J401" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K401">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L401">
+        <v>3.4</v>
+      </c>
+      <c r="M401">
         <v>4</v>
       </c>
-      <c r="M401">
-        <v>8</v>
-      </c>
       <c r="N401">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O401">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P401">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q401">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R401">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="S401">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T401">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U401">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="V401">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="W401">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X401">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y401">
         <v>-1</v>
       </c>
       <c r="Z401">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA401">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB401">
         <v>-1</v>
       </c>
       <c r="AC401">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="402" spans="1:29">
@@ -36237,7 +36237,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>6868749</v>
+        <v>6868755</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36249,76 +36249,76 @@
         <v>45289.60416666666</v>
       </c>
       <c r="F402" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G402" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402">
         <v>0</v>
       </c>
       <c r="J402" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K402">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L402">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M402">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N402">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O402">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P402">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q402">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R402">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="S402">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T402">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U402">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="V402">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="W402">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X402">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y402">
         <v>-1</v>
       </c>
       <c r="Z402">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA402">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB402">
         <v>-1</v>
       </c>
       <c r="AC402">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="403" spans="1:29">
@@ -36519,7 +36519,7 @@
         <v>47</v>
       </c>
       <c r="G405" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H405">
         <v>1</v>
@@ -36593,7 +36593,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6868748</v>
+        <v>6868756</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36605,76 +36605,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F406" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G406" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I406">
         <v>0</v>
       </c>
       <c r="J406" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K406">
+        <v>2.8</v>
+      </c>
+      <c r="L406">
+        <v>3.2</v>
+      </c>
+      <c r="M406">
+        <v>2.5</v>
+      </c>
+      <c r="N406">
+        <v>3.6</v>
+      </c>
+      <c r="O406">
+        <v>3</v>
+      </c>
+      <c r="P406">
+        <v>2.25</v>
+      </c>
+      <c r="Q406">
+        <v>0.25</v>
+      </c>
+      <c r="R406">
+        <v>1.9</v>
+      </c>
+      <c r="S406">
         <v>2</v>
       </c>
-      <c r="L406">
-        <v>3.4</v>
-      </c>
-      <c r="M406">
-        <v>3.75</v>
-      </c>
-      <c r="N406">
+      <c r="T406">
         <v>2</v>
       </c>
-      <c r="O406">
-        <v>3.5</v>
-      </c>
-      <c r="P406">
-        <v>3.75</v>
-      </c>
-      <c r="Q406">
-        <v>-0.5</v>
-      </c>
-      <c r="R406">
-        <v>2.05</v>
-      </c>
-      <c r="S406">
-        <v>1.85</v>
-      </c>
-      <c r="T406">
-        <v>2.5</v>
-      </c>
       <c r="U406">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V406">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W406">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X406">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y406">
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA406">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC406">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36682,7 +36682,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6868756</v>
+        <v>6868748</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36694,76 +36694,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F407" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G407" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H407">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407">
         <v>0</v>
       </c>
       <c r="J407" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K407">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L407">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M407">
+        <v>3.75</v>
+      </c>
+      <c r="N407">
+        <v>2</v>
+      </c>
+      <c r="O407">
+        <v>3.5</v>
+      </c>
+      <c r="P407">
+        <v>3.75</v>
+      </c>
+      <c r="Q407">
+        <v>-0.5</v>
+      </c>
+      <c r="R407">
+        <v>2.05</v>
+      </c>
+      <c r="S407">
+        <v>1.85</v>
+      </c>
+      <c r="T407">
         <v>2.5</v>
       </c>
-      <c r="N407">
-        <v>3.6</v>
-      </c>
-      <c r="O407">
-        <v>3</v>
-      </c>
-      <c r="P407">
-        <v>2.25</v>
-      </c>
-      <c r="Q407">
-        <v>0.25</v>
-      </c>
-      <c r="R407">
-        <v>1.9</v>
-      </c>
-      <c r="S407">
-        <v>2</v>
-      </c>
-      <c r="T407">
-        <v>2</v>
-      </c>
       <c r="U407">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V407">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W407">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X407">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y407">
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA407">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB407">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC407">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36771,7 +36771,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>6868751</v>
+        <v>6868754</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36783,76 +36783,76 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F408" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G408" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J408" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K408">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L408">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M408">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N408">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O408">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P408">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q408">
+        <v>-1.25</v>
+      </c>
+      <c r="R408">
+        <v>2.09</v>
+      </c>
+      <c r="S408">
+        <v>1.84</v>
+      </c>
+      <c r="T408">
+        <v>3.25</v>
+      </c>
+      <c r="U408">
+        <v>1.95</v>
+      </c>
+      <c r="V408">
+        <v>1.95</v>
+      </c>
+      <c r="W408">
+        <v>0.5</v>
+      </c>
+      <c r="X408">
+        <v>-1</v>
+      </c>
+      <c r="Y408">
+        <v>-1</v>
+      </c>
+      <c r="Z408">
         <v>-0.5</v>
       </c>
-      <c r="R408">
-        <v>1.93</v>
-      </c>
-      <c r="S408">
-        <v>1.97</v>
-      </c>
-      <c r="T408">
-        <v>2.25</v>
-      </c>
-      <c r="U408">
-        <v>1.775</v>
-      </c>
-      <c r="V408">
-        <v>2.025</v>
-      </c>
-      <c r="W408">
-        <v>-1</v>
-      </c>
-      <c r="X408">
-        <v>-1</v>
-      </c>
-      <c r="Y408">
-        <v>3.2</v>
-      </c>
-      <c r="Z408">
-        <v>-1</v>
-      </c>
       <c r="AA408">
-        <v>0.97</v>
+        <v>0.42</v>
       </c>
       <c r="AB408">
         <v>-1</v>
       </c>
       <c r="AC408">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36860,7 +36860,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>6868754</v>
+        <v>6868751</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36872,76 +36872,76 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F409" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G409" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H409">
+        <v>0</v>
+      </c>
+      <c r="I409">
         <v>1</v>
       </c>
-      <c r="I409">
-        <v>0</v>
-      </c>
       <c r="J409" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K409">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L409">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M409">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N409">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O409">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P409">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q409">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R409">
-        <v>2.09</v>
+        <v>1.93</v>
       </c>
       <c r="S409">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="T409">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U409">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V409">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W409">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X409">
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z409">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA409">
-        <v>0.42</v>
+        <v>0.97</v>
       </c>
       <c r="AB409">
         <v>-1</v>
       </c>
       <c r="AC409">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -36964,7 +36964,7 @@
         <v>39</v>
       </c>
       <c r="G410" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H410">
         <v>1</v>
@@ -37317,7 +37317,7 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F414" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G414" t="s">
         <v>51</v>
@@ -37851,7 +37851,7 @@
         <v>45298.69791666666</v>
       </c>
       <c r="F420" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G420" t="s">
         <v>47</v>
@@ -38299,7 +38299,7 @@
         <v>41</v>
       </c>
       <c r="G425" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H425">
         <v>1</v>
@@ -38566,7 +38566,7 @@
         <v>43</v>
       </c>
       <c r="G428" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H428">
         <v>3</v>
@@ -38830,7 +38830,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F431" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G431" t="s">
         <v>44</v>
@@ -39275,7 +39275,7 @@
         <v>45312.69791666666</v>
       </c>
       <c r="F436" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G436" t="s">
         <v>39</v>
@@ -39723,7 +39723,7 @@
         <v>50</v>
       </c>
       <c r="G441" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H441">
         <v>2</v>
@@ -40168,7 +40168,7 @@
         <v>29</v>
       </c>
       <c r="G446" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H446">
         <v>1</v>
@@ -40254,7 +40254,7 @@
         <v>45324.69791666666</v>
       </c>
       <c r="F447" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G447" t="s">
         <v>36</v>
@@ -41055,7 +41055,7 @@
         <v>45327.69791666666</v>
       </c>
       <c r="F456" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G456" t="s">
         <v>51</v>
@@ -41322,7 +41322,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F459" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G459" t="s">
         <v>38</v>
@@ -41681,7 +41681,7 @@
         <v>45</v>
       </c>
       <c r="G463" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H463">
         <v>4</v>
@@ -42126,7 +42126,7 @@
         <v>32</v>
       </c>
       <c r="G468" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H468">
         <v>2</v>
@@ -42316,31 +42316,31 @@
         <v>5.5</v>
       </c>
       <c r="N470">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O470">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P470">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q470">
         <v>-0.75</v>
       </c>
       <c r="R470">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="S470">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="T470">
         <v>2.25</v>
       </c>
       <c r="U470">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="V470">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="W470">
         <v>0</v>
@@ -42390,31 +42390,31 @@
         <v>1.615</v>
       </c>
       <c r="N471">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="O471">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P471">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="Q471">
         <v>0.75</v>
       </c>
       <c r="R471">
+        <v>1.89</v>
+      </c>
+      <c r="S471">
+        <v>2.01</v>
+      </c>
+      <c r="T471">
         <v>2</v>
       </c>
-      <c r="S471">
-        <v>1.9</v>
-      </c>
-      <c r="T471">
-        <v>2.25</v>
-      </c>
       <c r="U471">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="V471">
-        <v>1.82</v>
+        <v>2.11</v>
       </c>
       <c r="W471">
         <v>0</v>
@@ -42464,31 +42464,31 @@
         <v>6.5</v>
       </c>
       <c r="N472">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O472">
         <v>5.5</v>
       </c>
       <c r="P472">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q472">
         <v>-1.5</v>
       </c>
       <c r="R472">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="S472">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="T472">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U472">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="V472">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="W472">
         <v>0</v>
@@ -42550,10 +42550,10 @@
         <v>-0.25</v>
       </c>
       <c r="R473">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="S473">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="T473">
         <v>2</v>
@@ -42624,10 +42624,10 @@
         <v>-0.5</v>
       </c>
       <c r="R474">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S474">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T474">
         <v>2.25</v>
@@ -42748,7 +42748,7 @@
         <v>49</v>
       </c>
       <c r="G476" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K476">
         <v>3.75</v>
@@ -42781,10 +42781,10 @@
         <v>2.75</v>
       </c>
       <c r="U476">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V476">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W476">
         <v>0</v>
@@ -42846,10 +42846,10 @@
         <v>0.75</v>
       </c>
       <c r="R477">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S477">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="T477">
         <v>2.5</v>
@@ -43021,6 +43021,228 @@
         <v>0</v>
       </c>
       <c r="AA479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:29">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>6868836</v>
+      </c>
+      <c r="C480" t="s">
+        <v>28</v>
+      </c>
+      <c r="D480" t="s">
+        <v>28</v>
+      </c>
+      <c r="E480" s="2">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F480" t="s">
+        <v>30</v>
+      </c>
+      <c r="G480" t="s">
+        <v>48</v>
+      </c>
+      <c r="K480">
+        <v>2</v>
+      </c>
+      <c r="L480">
+        <v>3.5</v>
+      </c>
+      <c r="M480">
+        <v>3.5</v>
+      </c>
+      <c r="N480">
+        <v>2</v>
+      </c>
+      <c r="O480">
+        <v>3.5</v>
+      </c>
+      <c r="P480">
+        <v>3.6</v>
+      </c>
+      <c r="Q480">
+        <v>-0.5</v>
+      </c>
+      <c r="R480">
+        <v>2.08</v>
+      </c>
+      <c r="S480">
+        <v>1.82</v>
+      </c>
+      <c r="T480">
+        <v>2.5</v>
+      </c>
+      <c r="U480">
+        <v>1.85</v>
+      </c>
+      <c r="V480">
+        <v>2.05</v>
+      </c>
+      <c r="W480">
+        <v>0</v>
+      </c>
+      <c r="X480">
+        <v>0</v>
+      </c>
+      <c r="Y480">
+        <v>0</v>
+      </c>
+      <c r="Z480">
+        <v>0</v>
+      </c>
+      <c r="AA480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:27">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>6868835</v>
+      </c>
+      <c r="C481" t="s">
+        <v>28</v>
+      </c>
+      <c r="D481" t="s">
+        <v>28</v>
+      </c>
+      <c r="E481" s="2">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F481" t="s">
+        <v>29</v>
+      </c>
+      <c r="G481" t="s">
+        <v>40</v>
+      </c>
+      <c r="K481">
+        <v>2.875</v>
+      </c>
+      <c r="L481">
+        <v>2.8</v>
+      </c>
+      <c r="M481">
+        <v>2.7</v>
+      </c>
+      <c r="N481">
+        <v>2.875</v>
+      </c>
+      <c r="O481">
+        <v>2.875</v>
+      </c>
+      <c r="P481">
+        <v>2.7</v>
+      </c>
+      <c r="Q481">
+        <v>0</v>
+      </c>
+      <c r="R481">
+        <v>1.95</v>
+      </c>
+      <c r="S481">
+        <v>1.95</v>
+      </c>
+      <c r="T481">
+        <v>2.25</v>
+      </c>
+      <c r="U481">
+        <v>1.93</v>
+      </c>
+      <c r="V481">
+        <v>1.97</v>
+      </c>
+      <c r="W481">
+        <v>0</v>
+      </c>
+      <c r="X481">
+        <v>0</v>
+      </c>
+      <c r="Y481">
+        <v>0</v>
+      </c>
+      <c r="Z481">
+        <v>0</v>
+      </c>
+      <c r="AA481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:27">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>6868830</v>
+      </c>
+      <c r="C482" t="s">
+        <v>28</v>
+      </c>
+      <c r="D482" t="s">
+        <v>28</v>
+      </c>
+      <c r="E482" s="2">
+        <v>45346.69791666666</v>
+      </c>
+      <c r="F482" t="s">
+        <v>50</v>
+      </c>
+      <c r="G482" t="s">
+        <v>37</v>
+      </c>
+      <c r="K482">
+        <v>2.25</v>
+      </c>
+      <c r="L482">
+        <v>2.875</v>
+      </c>
+      <c r="M482">
+        <v>3.5</v>
+      </c>
+      <c r="N482">
+        <v>2.25</v>
+      </c>
+      <c r="O482">
+        <v>3</v>
+      </c>
+      <c r="P482">
+        <v>3.5</v>
+      </c>
+      <c r="Q482">
+        <v>-0.25</v>
+      </c>
+      <c r="R482">
+        <v>2.01</v>
+      </c>
+      <c r="S482">
+        <v>1.89</v>
+      </c>
+      <c r="T482">
+        <v>2</v>
+      </c>
+      <c r="U482">
+        <v>1.9</v>
+      </c>
+      <c r="V482">
+        <v>2</v>
+      </c>
+      <c r="W482">
+        <v>0</v>
+      </c>
+      <c r="X482">
+        <v>0</v>
+      </c>
+      <c r="Y482">
+        <v>0</v>
+      </c>
+      <c r="Z482">
+        <v>0</v>
+      </c>
+      <c r="AA482">
         <v>0</v>
       </c>
     </row>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>Torino</t>
   </si>
   <si>
-    <t>Roma</t>
+    <t>Lecce</t>
   </si>
   <si>
-    <t>Lecce</t>
+    <t>Roma</t>
   </si>
   <si>
     <t>Cremonese</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC482"/>
+  <dimension ref="A1:AC479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5208266</v>
+        <v>5208265</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1008,55 +1008,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>54</v>
       </c>
       <c r="K6">
-        <v>1.55</v>
+        <v>4.1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="N6">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="S6">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V6">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W6">
-        <v>0.6659999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1065,16 +1065,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.485</v>
+        <v>1.08</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC6">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5208265</v>
+        <v>5208266</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1097,55 +1097,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>54</v>
       </c>
       <c r="K7">
-        <v>4.1</v>
+        <v>1.55</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="N7">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="S7">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V7">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W7">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1154,16 +1154,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>1.08</v>
+        <v>0.485</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1987,7 +1987,7 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2607,7 +2607,7 @@
         <v>44940.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
@@ -3141,7 +3141,7 @@
         <v>44941.69791666666</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3322,7 +3322,7 @@
         <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3767,7 +3767,7 @@
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4298,7 +4298,7 @@
         <v>44953.69791666666</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4924,7 +4924,7 @@
         <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>44961.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
         <v>48</v>
@@ -6167,10 +6167,10 @@
         <v>44968.58333333334</v>
       </c>
       <c r="F64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
         <v>34</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7591,7 +7591,7 @@
         <v>44976.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>44</v>
@@ -7858,7 +7858,7 @@
         <v>44982.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
         <v>30</v>
@@ -8484,7 +8484,7 @@
         <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -9196,7 +9196,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9282,7 +9282,7 @@
         <v>44990.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
         <v>39</v>
@@ -9905,7 +9905,7 @@
         <v>44997.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
         <v>32</v>
@@ -10172,7 +10172,7 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
         <v>30</v>
@@ -10976,7 +10976,7 @@
         <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11154,7 +11154,7 @@
         <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11863,7 +11863,7 @@
         <v>45018.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
         <v>42</v>
@@ -12044,7 +12044,7 @@
         <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12308,7 +12308,7 @@
         <v>45023.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>46</v>
@@ -12830,7 +12830,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5208381</v>
+        <v>6462418</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12842,76 +12842,76 @@
         <v>45024.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K139">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L139">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M139">
+        <v>2.75</v>
+      </c>
+      <c r="N139">
+        <v>2.45</v>
+      </c>
+      <c r="O139">
+        <v>3.3</v>
+      </c>
+      <c r="P139">
+        <v>2.875</v>
+      </c>
+      <c r="Q139">
+        <v>-0.25</v>
+      </c>
+      <c r="R139">
+        <v>2.05</v>
+      </c>
+      <c r="S139">
+        <v>1.75</v>
+      </c>
+      <c r="T139">
         <v>2.5</v>
       </c>
-      <c r="N139">
-        <v>3.25</v>
-      </c>
-      <c r="O139">
-        <v>2.875</v>
-      </c>
-      <c r="P139">
-        <v>2.55</v>
-      </c>
-      <c r="Q139">
-        <v>0.25</v>
-      </c>
-      <c r="R139">
-        <v>1.76</v>
-      </c>
-      <c r="S139">
-        <v>2.155</v>
-      </c>
-      <c r="T139">
-        <v>1.75</v>
-      </c>
       <c r="U139">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="V139">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA139">
-        <v>1.155</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC139">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12919,7 +12919,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6462418</v>
+        <v>5208381</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12931,76 +12931,76 @@
         <v>45024.5625</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K140">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>2.5</v>
+      </c>
+      <c r="N140">
         <v>3.25</v>
       </c>
-      <c r="M140">
-        <v>2.75</v>
-      </c>
-      <c r="N140">
-        <v>2.45</v>
-      </c>
       <c r="O140">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P140">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="S140">
+        <v>2.155</v>
+      </c>
+      <c r="T140">
         <v>1.75</v>
       </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
       <c r="U140">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="V140">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="W140">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z140">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>1.155</v>
       </c>
       <c r="AB140">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13554,7 +13554,7 @@
         <v>45032.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>42</v>
@@ -13821,7 +13821,7 @@
         <v>45032.65625</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
         <v>37</v>
@@ -14625,7 +14625,7 @@
         <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14803,7 +14803,7 @@
         <v>47</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14889,7 +14889,7 @@
         <v>45044.5625</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
         <v>37</v>
@@ -15067,7 +15067,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
         <v>43</v>
@@ -16049,7 +16049,7 @@
         <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5535044</v>
+        <v>5554079</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,49 +16135,49 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176" t="s">
+        <v>53</v>
+      </c>
+      <c r="K176">
+        <v>3.8</v>
+      </c>
+      <c r="L176">
+        <v>3.2</v>
+      </c>
+      <c r="M176">
+        <v>2.05</v>
+      </c>
+      <c r="N176">
+        <v>4</v>
+      </c>
+      <c r="O176">
+        <v>3.2</v>
+      </c>
+      <c r="P176">
+        <v>2.05</v>
+      </c>
+      <c r="Q176">
+        <v>0.5</v>
+      </c>
+      <c r="R176">
+        <v>1.84</v>
+      </c>
+      <c r="S176">
+        <v>2.06</v>
+      </c>
+      <c r="T176">
         <v>2</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176" t="s">
-        <v>54</v>
-      </c>
-      <c r="K176">
-        <v>1.7</v>
-      </c>
-      <c r="L176">
-        <v>3.75</v>
-      </c>
-      <c r="M176">
-        <v>5</v>
-      </c>
-      <c r="N176">
-        <v>1.666</v>
-      </c>
-      <c r="O176">
-        <v>4.2</v>
-      </c>
-      <c r="P176">
-        <v>5</v>
-      </c>
-      <c r="Q176">
-        <v>-0.75</v>
-      </c>
-      <c r="R176">
-        <v>1.87</v>
-      </c>
-      <c r="S176">
-        <v>2.03</v>
-      </c>
-      <c r="T176">
-        <v>2.75</v>
       </c>
       <c r="U176">
         <v>1.85</v>
@@ -16186,25 +16186,25 @@
         <v>2.05</v>
       </c>
       <c r="W176">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8700000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16212,7 +16212,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5554078</v>
+        <v>5535044</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16224,76 +16224,76 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K177">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="L177">
+        <v>3.75</v>
+      </c>
+      <c r="M177">
         <v>5</v>
       </c>
-      <c r="M177">
-        <v>9</v>
-      </c>
       <c r="N177">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O177">
+        <v>4.2</v>
+      </c>
+      <c r="P177">
         <v>5</v>
       </c>
-      <c r="P177">
-        <v>9.5</v>
-      </c>
       <c r="Q177">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S177">
+        <v>2.03</v>
+      </c>
+      <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
+        <v>1.85</v>
+      </c>
+      <c r="V177">
         <v>2.05</v>
       </c>
-      <c r="T177">
-        <v>2.5</v>
-      </c>
-      <c r="U177">
-        <v>1.84</v>
-      </c>
-      <c r="V177">
-        <v>2.06</v>
-      </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X177">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
         <v>1.05</v>
-      </c>
-      <c r="AB177">
-        <v>-1</v>
-      </c>
-      <c r="AC177">
-        <v>1.06</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16301,7 +16301,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5554079</v>
+        <v>5554078</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16313,10 +16313,10 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16328,61 +16328,61 @@
         <v>53</v>
       </c>
       <c r="K178">
-        <v>3.8</v>
+        <v>1.333</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M178">
+        <v>9</v>
+      </c>
+      <c r="N178">
+        <v>1.363</v>
+      </c>
+      <c r="O178">
+        <v>5</v>
+      </c>
+      <c r="P178">
+        <v>9.5</v>
+      </c>
+      <c r="Q178">
+        <v>-1.25</v>
+      </c>
+      <c r="R178">
+        <v>1.88</v>
+      </c>
+      <c r="S178">
         <v>2.05</v>
       </c>
-      <c r="N178">
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
+        <v>1.84</v>
+      </c>
+      <c r="V178">
+        <v>2.06</v>
+      </c>
+      <c r="W178">
+        <v>-1</v>
+      </c>
+      <c r="X178">
         <v>4</v>
       </c>
-      <c r="O178">
-        <v>3.2</v>
-      </c>
-      <c r="P178">
-        <v>2.05</v>
-      </c>
-      <c r="Q178">
-        <v>0.5</v>
-      </c>
-      <c r="R178">
-        <v>1.84</v>
-      </c>
-      <c r="S178">
-        <v>2.06</v>
-      </c>
-      <c r="T178">
-        <v>2</v>
-      </c>
-      <c r="U178">
-        <v>1.85</v>
-      </c>
-      <c r="V178">
-        <v>2.05</v>
-      </c>
-      <c r="W178">
-        <v>-1</v>
-      </c>
-      <c r="X178">
-        <v>2.2</v>
-      </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-0</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16758,7 +16758,7 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
         <v>38</v>
@@ -17203,7 +17203,7 @@
         <v>45053.65625</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
         <v>44</v>
@@ -17562,7 +17562,7 @@
         <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -18185,7 +18185,7 @@
         <v>45</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18805,7 +18805,7 @@
         <v>45067.3125</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
         <v>31</v>
@@ -19161,7 +19161,7 @@
         <v>45068.5625</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
         <v>29</v>
@@ -19609,7 +19609,7 @@
         <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19876,7 +19876,7 @@
         <v>40</v>
       </c>
       <c r="G218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -20395,7 +20395,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5706212</v>
+        <v>5702696</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20407,40 +20407,40 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
         <v>2</v>
       </c>
-      <c r="I224">
-        <v>0</v>
-      </c>
       <c r="J224" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K224">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="L224">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N224">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="O224">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P224">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R224">
         <v>1.95</v>
@@ -20452,31 +20452,31 @@
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V224">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="W224">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z224">
+        <v>-1</v>
+      </c>
+      <c r="AA224">
         <v>0.95</v>
       </c>
-      <c r="AA224">
-        <v>-1</v>
-      </c>
       <c r="AB224">
         <v>-1</v>
       </c>
       <c r="AC224">
-        <v>0.9299999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5702696</v>
+        <v>5706212</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,40 +20496,40 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225">
         <v>0</v>
       </c>
-      <c r="I225">
-        <v>2</v>
-      </c>
       <c r="J225" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K225">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="L225">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M225">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N225">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="O225">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P225">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="Q225">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R225">
         <v>1.95</v>
@@ -20541,31 +20541,31 @@
         <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="V225">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA225">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
         <v>-1</v>
       </c>
       <c r="AC225">
-        <v>1.07</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5706213</v>
+        <v>5737536</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,55 +20674,55 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G227" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
         <v>52</v>
       </c>
       <c r="K227">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L227">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M227">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="N227">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O227">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P227">
+        <v>1.615</v>
+      </c>
+      <c r="Q227">
+        <v>0.75</v>
+      </c>
+      <c r="R227">
+        <v>2.08</v>
+      </c>
+      <c r="S227">
+        <v>1.82</v>
+      </c>
+      <c r="T227">
         <v>2.75</v>
       </c>
-      <c r="Q227">
-        <v>0</v>
-      </c>
-      <c r="R227">
-        <v>1.87</v>
-      </c>
-      <c r="S227">
-        <v>2.03</v>
-      </c>
-      <c r="T227">
-        <v>2.5</v>
-      </c>
       <c r="U227">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="V227">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="W227">
         <v>-1</v>
@@ -20731,19 +20731,19 @@
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>1.75</v>
+        <v>0.615</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA227">
-        <v>1.03</v>
+        <v>0.41</v>
       </c>
       <c r="AB227">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5706211</v>
+        <v>5737535</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,58 +20763,58 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G228" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H228">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
         <v>54</v>
       </c>
       <c r="K228">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L228">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M228">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N228">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O228">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P228">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q228">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S228">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T228">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U228">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="V228">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="W228">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -20823,13 +20823,13 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1.05</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB228">
-        <v>0.8799999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5737536</v>
+        <v>5706211</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,76 +20852,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G229" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K229">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L229">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M229">
+        <v>5.5</v>
+      </c>
+      <c r="N229">
+        <v>1.5</v>
+      </c>
+      <c r="O229">
+        <v>5</v>
+      </c>
+      <c r="P229">
+        <v>5.75</v>
+      </c>
+      <c r="Q229">
+        <v>-1.25</v>
+      </c>
+      <c r="R229">
+        <v>2.05</v>
+      </c>
+      <c r="S229">
         <v>1.85</v>
       </c>
-      <c r="N229">
-        <v>5.25</v>
-      </c>
-      <c r="O229">
-        <v>4.2</v>
-      </c>
-      <c r="P229">
-        <v>1.615</v>
-      </c>
-      <c r="Q229">
-        <v>0.75</v>
-      </c>
-      <c r="R229">
-        <v>2.08</v>
-      </c>
-      <c r="S229">
-        <v>1.82</v>
-      </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U229">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V229">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA229">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC229">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5737535</v>
+        <v>5706213</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20944,70 +20944,70 @@
         <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H230">
         <v>2</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K230">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M230">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N230">
+        <v>2.45</v>
+      </c>
+      <c r="O230">
+        <v>3.5</v>
+      </c>
+      <c r="P230">
+        <v>2.75</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>1.87</v>
+      </c>
+      <c r="S230">
+        <v>2.03</v>
+      </c>
+      <c r="T230">
+        <v>2.5</v>
+      </c>
+      <c r="U230">
+        <v>2.07</v>
+      </c>
+      <c r="V230">
+        <v>1.83</v>
+      </c>
+      <c r="W230">
+        <v>-1</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
         <v>1.75</v>
       </c>
-      <c r="O230">
-        <v>3.75</v>
-      </c>
-      <c r="P230">
-        <v>4.75</v>
-      </c>
-      <c r="Q230">
-        <v>-0.75</v>
-      </c>
-      <c r="R230">
-        <v>2.03</v>
-      </c>
-      <c r="S230">
-        <v>1.87</v>
-      </c>
-      <c r="T230">
-        <v>2.25</v>
-      </c>
-      <c r="U230">
-        <v>1.84</v>
-      </c>
-      <c r="V230">
-        <v>2.06</v>
-      </c>
-      <c r="W230">
-        <v>0.75</v>
-      </c>
-      <c r="X230">
-        <v>-1</v>
-      </c>
-      <c r="Y230">
-        <v>-1</v>
-      </c>
       <c r="Z230">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
       <c r="AB230">
-        <v>0.8400000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21107,7 +21107,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6868439</v>
+        <v>6868438</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21119,55 +21119,55 @@
         <v>45157.5625</v>
       </c>
       <c r="F232" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G232" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
         <v>1</v>
-      </c>
-      <c r="I232">
-        <v>3</v>
       </c>
       <c r="J232" t="s">
         <v>52</v>
       </c>
       <c r="K232">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="L232">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M232">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="N232">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O232">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P232">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q232">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U232">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V232">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -21176,19 +21176,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.55</v>
+        <v>2.25</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.95</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB232">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21196,7 +21196,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6868438</v>
+        <v>6868439</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21208,55 +21208,55 @@
         <v>45157.5625</v>
       </c>
       <c r="F233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G233" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
         <v>52</v>
       </c>
       <c r="K233">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="L233">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M233">
+        <v>1.4</v>
+      </c>
+      <c r="N233">
+        <v>6.5</v>
+      </c>
+      <c r="O233">
+        <v>4.333</v>
+      </c>
+      <c r="P233">
+        <v>1.55</v>
+      </c>
+      <c r="Q233">
+        <v>1</v>
+      </c>
+      <c r="R233">
+        <v>1.95</v>
+      </c>
+      <c r="S233">
+        <v>1.95</v>
+      </c>
+      <c r="T233">
         <v>2.75</v>
       </c>
-      <c r="N233">
-        <v>2.25</v>
-      </c>
-      <c r="O233">
-        <v>3.3</v>
-      </c>
-      <c r="P233">
-        <v>3.25</v>
-      </c>
-      <c r="Q233">
-        <v>-0.25</v>
-      </c>
-      <c r="R233">
-        <v>2.01</v>
-      </c>
-      <c r="S233">
-        <v>1.92</v>
-      </c>
-      <c r="T233">
-        <v>2.5</v>
-      </c>
       <c r="U233">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -21265,19 +21265,19 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.25</v>
+        <v>0.55</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.9199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC233">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21564,7 +21564,7 @@
         <v>45158.5625</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G237" t="s">
         <v>29</v>
@@ -21742,7 +21742,7 @@
         <v>45158.65625</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
         <v>41</v>
@@ -21997,7 +21997,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6868589</v>
+        <v>6868584</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22009,76 +22009,76 @@
         <v>45164.5625</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G242" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H242">
         <v>2</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="s">
         <v>54</v>
       </c>
       <c r="K242">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L242">
         <v>3.6</v>
       </c>
       <c r="M242">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N242">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="O242">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P242">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q242">
+        <v>1</v>
+      </c>
+      <c r="R242">
+        <v>1.84</v>
+      </c>
+      <c r="S242">
+        <v>2.06</v>
+      </c>
+      <c r="T242">
+        <v>2.75</v>
+      </c>
+      <c r="U242">
+        <v>1.92</v>
+      </c>
+      <c r="V242">
+        <v>1.98</v>
+      </c>
+      <c r="W242">
+        <v>4.25</v>
+      </c>
+      <c r="X242">
+        <v>-1</v>
+      </c>
+      <c r="Y242">
+        <v>-1</v>
+      </c>
+      <c r="Z242">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AA242">
+        <v>-1</v>
+      </c>
+      <c r="AB242">
+        <v>0.46</v>
+      </c>
+      <c r="AC242">
         <v>-0.5</v>
-      </c>
-      <c r="R242">
-        <v>1.93</v>
-      </c>
-      <c r="S242">
-        <v>1.97</v>
-      </c>
-      <c r="T242">
-        <v>2.5</v>
-      </c>
-      <c r="U242">
-        <v>1.9</v>
-      </c>
-      <c r="V242">
-        <v>2</v>
-      </c>
-      <c r="W242">
-        <v>0.909</v>
-      </c>
-      <c r="X242">
-        <v>-1</v>
-      </c>
-      <c r="Y242">
-        <v>-1</v>
-      </c>
-      <c r="Z242">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="AA242">
-        <v>-1</v>
-      </c>
-      <c r="AB242">
-        <v>-1</v>
-      </c>
-      <c r="AC242">
-        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22086,7 +22086,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6868584</v>
+        <v>6868589</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22098,76 +22098,76 @@
         <v>45164.5625</v>
       </c>
       <c r="F243" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G243" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H243">
         <v>2</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
         <v>54</v>
       </c>
       <c r="K243">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="L243">
         <v>3.6</v>
       </c>
       <c r="M243">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N243">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="O243">
+        <v>3.6</v>
+      </c>
+      <c r="P243">
         <v>4</v>
       </c>
-      <c r="P243">
-        <v>1.6</v>
-      </c>
       <c r="Q243">
+        <v>-0.5</v>
+      </c>
+      <c r="R243">
+        <v>1.93</v>
+      </c>
+      <c r="S243">
+        <v>1.97</v>
+      </c>
+      <c r="T243">
+        <v>2.5</v>
+      </c>
+      <c r="U243">
+        <v>1.9</v>
+      </c>
+      <c r="V243">
+        <v>2</v>
+      </c>
+      <c r="W243">
+        <v>0.909</v>
+      </c>
+      <c r="X243">
+        <v>-1</v>
+      </c>
+      <c r="Y243">
+        <v>-1</v>
+      </c>
+      <c r="Z243">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AA243">
+        <v>-1</v>
+      </c>
+      <c r="AB243">
+        <v>-1</v>
+      </c>
+      <c r="AC243">
         <v>1</v>
-      </c>
-      <c r="R243">
-        <v>1.84</v>
-      </c>
-      <c r="S243">
-        <v>2.06</v>
-      </c>
-      <c r="T243">
-        <v>2.75</v>
-      </c>
-      <c r="U243">
-        <v>1.92</v>
-      </c>
-      <c r="V243">
-        <v>1.98</v>
-      </c>
-      <c r="W243">
-        <v>4.25</v>
-      </c>
-      <c r="X243">
-        <v>-1</v>
-      </c>
-      <c r="Y243">
-        <v>-1</v>
-      </c>
-      <c r="Z243">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="AA243">
-        <v>-1</v>
-      </c>
-      <c r="AB243">
-        <v>0.46</v>
-      </c>
-      <c r="AC243">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22175,7 +22175,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6868585</v>
+        <v>6868588</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22187,13 +22187,13 @@
         <v>45164.65625</v>
       </c>
       <c r="F244" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G244" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I244">
         <v>1</v>
@@ -22202,43 +22202,43 @@
         <v>54</v>
       </c>
       <c r="K244">
+        <v>1.571</v>
+      </c>
+      <c r="L244">
         <v>4</v>
       </c>
-      <c r="L244">
-        <v>3.5</v>
-      </c>
       <c r="M244">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N244">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O244">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P244">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="Q244">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R244">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="S244">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="T244">
         <v>2.25</v>
       </c>
       <c r="U244">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="V244">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="W244">
-        <v>3.5</v>
+        <v>0.75</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22247,13 +22247,13 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="AC244">
         <v>-1</v>
@@ -22264,7 +22264,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6868588</v>
+        <v>6868585</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22276,13 +22276,13 @@
         <v>45164.65625</v>
       </c>
       <c r="F245" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G245" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H245">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I245">
         <v>1</v>
@@ -22291,43 +22291,43 @@
         <v>54</v>
       </c>
       <c r="K245">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M245">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N245">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="O245">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P245">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q245">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R245">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="S245">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T245">
         <v>2.25</v>
       </c>
       <c r="U245">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="V245">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="W245">
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22336,13 +22336,13 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AA245">
         <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="AC245">
         <v>-1</v>
@@ -22353,7 +22353,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6868586</v>
+        <v>6868583</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22365,16 +22365,16 @@
         <v>45165.5625</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G246" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J246" t="s">
         <v>53</v>
@@ -22389,10 +22389,10 @@
         <v>6</v>
       </c>
       <c r="N246">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O246">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P246">
         <v>5</v>
@@ -22401,25 +22401,25 @@
         <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S246">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="T246">
         <v>2.5</v>
       </c>
       <c r="U246">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="V246">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22428,13 +22428,13 @@
         <v>-1</v>
       </c>
       <c r="AA246">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="AB246">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC246">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22442,7 +22442,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6868583</v>
+        <v>6868586</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22454,16 +22454,16 @@
         <v>45165.5625</v>
       </c>
       <c r="F247" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
         <v>53</v>
@@ -22478,10 +22478,10 @@
         <v>6</v>
       </c>
       <c r="N247">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O247">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P247">
         <v>5</v>
@@ -22490,25 +22490,25 @@
         <v>-0.75</v>
       </c>
       <c r="R247">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S247">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="T247">
         <v>2.5</v>
       </c>
       <c r="U247">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="V247">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W247">
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -22517,13 +22517,13 @@
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="AB247">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22988,7 +22988,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F253" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G253" t="s">
         <v>43</v>
@@ -23421,7 +23421,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6868595</v>
+        <v>6868600</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23433,13 +23433,13 @@
         <v>45172.5625</v>
       </c>
       <c r="F258" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G258" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H258">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -23454,37 +23454,37 @@
         <v>3.6</v>
       </c>
       <c r="M258">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N258">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O258">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P258">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q258">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R258">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="S258">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="T258">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U258">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V258">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="W258">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="X258">
         <v>-1</v>
@@ -23493,16 +23493,16 @@
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>0.95</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA258">
         <v>-1</v>
       </c>
       <c r="AB258">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23510,7 +23510,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6868600</v>
+        <v>6868595</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23522,13 +23522,13 @@
         <v>45172.5625</v>
       </c>
       <c r="F259" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G259" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -23543,37 +23543,37 @@
         <v>3.6</v>
       </c>
       <c r="M259">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N259">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O259">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P259">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q259">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R259">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="S259">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="T259">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V259">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="W259">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X259">
         <v>-1</v>
@@ -23582,16 +23582,16 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA259">
         <v>-1</v>
       </c>
       <c r="AB259">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC259">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23611,7 +23611,7 @@
         <v>45172.65625</v>
       </c>
       <c r="F260" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G260" t="s">
         <v>29</v>
@@ -24148,7 +24148,7 @@
         <v>40</v>
       </c>
       <c r="G266" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -24412,7 +24412,7 @@
         <v>45186.65625</v>
       </c>
       <c r="F269" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G269" t="s">
         <v>48</v>
@@ -24768,7 +24768,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F273" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G273" t="s">
         <v>50</v>
@@ -25483,7 +25483,7 @@
         <v>32</v>
       </c>
       <c r="G281" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H281">
         <v>1</v>
@@ -25572,7 +25572,7 @@
         <v>39</v>
       </c>
       <c r="G282" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -26284,7 +26284,7 @@
         <v>50</v>
       </c>
       <c r="G290" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H290">
         <v>4</v>
@@ -26370,7 +26370,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F291" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G291" t="s">
         <v>46</v>
@@ -26904,7 +26904,7 @@
         <v>45200.65625</v>
       </c>
       <c r="F297" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G297" t="s">
         <v>49</v>
@@ -26981,7 +26981,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6868640</v>
+        <v>6868639</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26993,76 +26993,76 @@
         <v>45201.5625</v>
       </c>
       <c r="F298" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G298" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H298">
         <v>0</v>
       </c>
       <c r="I298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K298">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L298">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M298">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N298">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O298">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P298">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q298">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R298">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="S298">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="T298">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U298">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="V298">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z298">
         <v>-1</v>
       </c>
       <c r="AA298">
-        <v>0.9099999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AB298">
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.8</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27070,7 +27070,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6868639</v>
+        <v>6868640</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27082,76 +27082,76 @@
         <v>45201.5625</v>
       </c>
       <c r="F299" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G299" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H299">
         <v>0</v>
       </c>
       <c r="I299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K299">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L299">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M299">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N299">
+        <v>1.7</v>
+      </c>
+      <c r="O299">
+        <v>3.5</v>
+      </c>
+      <c r="P299">
+        <v>5.5</v>
+      </c>
+      <c r="Q299">
+        <v>-0.75</v>
+      </c>
+      <c r="R299">
+        <v>1.99</v>
+      </c>
+      <c r="S299">
+        <v>1.91</v>
+      </c>
+      <c r="T299">
+        <v>2.25</v>
+      </c>
+      <c r="U299">
         <v>2.1</v>
       </c>
-      <c r="O299">
-        <v>3.8</v>
-      </c>
-      <c r="P299">
-        <v>3.2</v>
-      </c>
-      <c r="Q299">
-        <v>-0.25</v>
-      </c>
-      <c r="R299">
-        <v>1.88</v>
-      </c>
-      <c r="S299">
-        <v>2.02</v>
-      </c>
-      <c r="T299">
-        <v>3</v>
-      </c>
-      <c r="U299">
-        <v>1.97</v>
-      </c>
       <c r="V299">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="W299">
         <v>-1</v>
       </c>
       <c r="X299">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y299">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z299">
         <v>-1</v>
       </c>
       <c r="AA299">
-        <v>1.02</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB299">
         <v>-1</v>
       </c>
       <c r="AC299">
-        <v>0.9299999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27349,7 +27349,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F302" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G302" t="s">
         <v>30</v>
@@ -27782,7 +27782,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6868644</v>
+        <v>6868648</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27794,58 +27794,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G307" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H307">
+        <v>3</v>
+      </c>
+      <c r="I307">
         <v>2</v>
-      </c>
-      <c r="I307">
-        <v>1</v>
       </c>
       <c r="J307" t="s">
         <v>54</v>
       </c>
       <c r="K307">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L307">
         <v>3.4</v>
       </c>
       <c r="M307">
+        <v>2.625</v>
+      </c>
+      <c r="N307">
+        <v>2.9</v>
+      </c>
+      <c r="O307">
         <v>3.3</v>
       </c>
-      <c r="N307">
-        <v>2.2</v>
-      </c>
-      <c r="O307">
-        <v>3.4</v>
-      </c>
       <c r="P307">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q307">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R307">
+        <v>1.78</v>
+      </c>
+      <c r="S307">
+        <v>2.125</v>
+      </c>
+      <c r="T307">
+        <v>2.25</v>
+      </c>
+      <c r="U307">
         <v>1.92</v>
       </c>
-      <c r="S307">
-        <v>2.01</v>
-      </c>
-      <c r="T307">
-        <v>2.5</v>
-      </c>
-      <c r="U307">
-        <v>1.99</v>
-      </c>
       <c r="V307">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W307">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -27854,13 +27854,13 @@
         <v>-1</v>
       </c>
       <c r="Z307">
+        <v>0.78</v>
+      </c>
+      <c r="AA307">
+        <v>-1</v>
+      </c>
+      <c r="AB307">
         <v>0.9199999999999999</v>
-      </c>
-      <c r="AA307">
-        <v>-1</v>
-      </c>
-      <c r="AB307">
-        <v>0.99</v>
       </c>
       <c r="AC307">
         <v>-1</v>
@@ -27871,7 +27871,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6868648</v>
+        <v>6868644</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27883,58 +27883,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G308" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H308">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J308" t="s">
         <v>54</v>
       </c>
       <c r="K308">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L308">
         <v>3.4</v>
       </c>
       <c r="M308">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N308">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O308">
+        <v>3.4</v>
+      </c>
+      <c r="P308">
         <v>3.3</v>
       </c>
-      <c r="P308">
-        <v>2.45</v>
-      </c>
       <c r="Q308">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R308">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="S308">
-        <v>2.125</v>
+        <v>2.01</v>
       </c>
       <c r="T308">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U308">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="V308">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="W308">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -27943,13 +27943,13 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0.78</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA308">
         <v>-1</v>
       </c>
       <c r="AB308">
-        <v>0.9199999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AC308">
         <v>-1</v>
@@ -27975,7 +27975,7 @@
         <v>51</v>
       </c>
       <c r="G309" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -28417,7 +28417,7 @@
         <v>45221.3125</v>
       </c>
       <c r="F314" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G314" t="s">
         <v>40</v>
@@ -28865,7 +28865,7 @@
         <v>37</v>
       </c>
       <c r="G319" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -29218,7 +29218,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G323" t="s">
         <v>32</v>
@@ -29577,7 +29577,7 @@
         <v>38</v>
       </c>
       <c r="G327" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -30464,10 +30464,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F337" t="s">
+        <v>34</v>
+      </c>
+      <c r="G337" t="s">
         <v>33</v>
-      </c>
-      <c r="G337" t="s">
-        <v>34</v>
       </c>
       <c r="H337">
         <v>2</v>
@@ -30998,7 +30998,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F343" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G343" t="s">
         <v>43</v>
@@ -31535,7 +31535,7 @@
         <v>41</v>
       </c>
       <c r="G349" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H349">
         <v>0</v>
@@ -32244,7 +32244,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F357" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G357" t="s">
         <v>37</v>
@@ -32425,7 +32425,7 @@
         <v>44</v>
       </c>
       <c r="G359" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H359">
         <v>2</v>
@@ -32956,7 +32956,7 @@
         <v>45263.35416666666</v>
       </c>
       <c r="F365" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G365" t="s">
         <v>45</v>
@@ -33226,7 +33226,7 @@
         <v>30</v>
       </c>
       <c r="G368" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -34113,7 +34113,7 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F378" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G378" t="s">
         <v>36</v>
@@ -34205,7 +34205,7 @@
         <v>48</v>
       </c>
       <c r="G379" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H379">
         <v>1</v>
@@ -34469,7 +34469,7 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F382" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G382" t="s">
         <v>49</v>
@@ -35006,7 +35006,7 @@
         <v>45</v>
       </c>
       <c r="G388" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H388">
         <v>2</v>
@@ -35258,7 +35258,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>6868738</v>
+        <v>6868745</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35270,13 +35270,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F391" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G391" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I391">
         <v>2</v>
@@ -35285,40 +35285,40 @@
         <v>52</v>
       </c>
       <c r="K391">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L391">
         <v>3.4</v>
       </c>
       <c r="M391">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="N391">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O391">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P391">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q391">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R391">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="S391">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="T391">
         <v>2.25</v>
       </c>
       <c r="U391">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V391">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W391">
         <v>-1</v>
@@ -35327,19 +35327,19 @@
         <v>-1</v>
       </c>
       <c r="Y391">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z391">
         <v>-1</v>
       </c>
       <c r="AA391">
-        <v>0.9199999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AB391">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="AC391">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35347,7 +35347,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>6868745</v>
+        <v>6868738</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35359,13 +35359,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F392" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G392" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392">
         <v>2</v>
@@ -35374,40 +35374,40 @@
         <v>52</v>
       </c>
       <c r="K392">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L392">
         <v>3.4</v>
       </c>
       <c r="M392">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="N392">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O392">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P392">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q392">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R392">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="S392">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="T392">
         <v>2.25</v>
       </c>
       <c r="U392">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V392">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="W392">
         <v>-1</v>
@@ -35416,19 +35416,19 @@
         <v>-1</v>
       </c>
       <c r="Y392">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z392">
         <v>-1</v>
       </c>
       <c r="AA392">
-        <v>1.11</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB392">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AC392">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -35436,7 +35436,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>6868742</v>
+        <v>6868744</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35448,76 +35448,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F393" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G393" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393">
+        <v>2</v>
+      </c>
+      <c r="J393" t="s">
+        <v>53</v>
+      </c>
+      <c r="K393">
+        <v>5.75</v>
+      </c>
+      <c r="L393">
+        <v>4</v>
+      </c>
+      <c r="M393">
+        <v>1.533</v>
+      </c>
+      <c r="N393">
+        <v>6.5</v>
+      </c>
+      <c r="O393">
+        <v>4</v>
+      </c>
+      <c r="P393">
+        <v>1.5</v>
+      </c>
+      <c r="Q393">
         <v>1</v>
       </c>
-      <c r="J393" t="s">
-        <v>52</v>
-      </c>
-      <c r="K393">
-        <v>2.8</v>
-      </c>
-      <c r="L393">
-        <v>3.5</v>
-      </c>
-      <c r="M393">
-        <v>2.375</v>
-      </c>
-      <c r="N393">
-        <v>2.8</v>
-      </c>
-      <c r="O393">
-        <v>3.25</v>
-      </c>
-      <c r="P393">
-        <v>2.6</v>
-      </c>
-      <c r="Q393">
-        <v>0</v>
-      </c>
       <c r="R393">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S393">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T393">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U393">
-        <v>2.025</v>
+        <v>1.89</v>
       </c>
       <c r="V393">
-        <v>1.775</v>
+        <v>2.01</v>
       </c>
       <c r="W393">
         <v>-1</v>
       </c>
       <c r="X393">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y393">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z393">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA393">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB393">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC393">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394" spans="1:29">
@@ -35525,7 +35525,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>6868744</v>
+        <v>6868742</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35537,76 +35537,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F394" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G394" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J394" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K394">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="L394">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M394">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N394">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O394">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P394">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R394">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="S394">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T394">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U394">
-        <v>1.89</v>
+        <v>2.025</v>
       </c>
       <c r="V394">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="W394">
         <v>-1</v>
       </c>
       <c r="X394">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y394">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z394">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA394">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB394">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC394">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -35881,7 +35881,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>6868741</v>
+        <v>6868740</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35893,10 +35893,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F398" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G398" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H398">
         <v>2</v>
@@ -35908,43 +35908,43 @@
         <v>54</v>
       </c>
       <c r="K398">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="L398">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M398">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="N398">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O398">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P398">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q398">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R398">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S398">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T398">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U398">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V398">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W398">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X398">
         <v>-1</v>
@@ -35953,16 +35953,16 @@
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="AA398">
         <v>-1</v>
       </c>
       <c r="AB398">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC398">
-        <v>1.04</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -35970,7 +35970,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>6868740</v>
+        <v>6868741</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35982,10 +35982,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F399" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G399" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H399">
         <v>2</v>
@@ -35997,43 +35997,43 @@
         <v>54</v>
       </c>
       <c r="K399">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="L399">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M399">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="N399">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O399">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P399">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="Q399">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R399">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="S399">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="T399">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U399">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V399">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W399">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X399">
         <v>-1</v>
@@ -36042,16 +36042,16 @@
         <v>-1</v>
       </c>
       <c r="Z399">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="AA399">
         <v>-1</v>
       </c>
       <c r="AB399">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC399">
-        <v>0.475</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -36071,7 +36071,7 @@
         <v>45283.69791666666</v>
       </c>
       <c r="F400" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G400" t="s">
         <v>46</v>
@@ -36519,7 +36519,7 @@
         <v>47</v>
       </c>
       <c r="G405" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H405">
         <v>1</v>
@@ -36593,7 +36593,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6868756</v>
+        <v>6868748</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36605,76 +36605,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F406" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G406" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H406">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406">
         <v>0</v>
       </c>
       <c r="J406" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K406">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L406">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M406">
+        <v>3.75</v>
+      </c>
+      <c r="N406">
+        <v>2</v>
+      </c>
+      <c r="O406">
+        <v>3.5</v>
+      </c>
+      <c r="P406">
+        <v>3.75</v>
+      </c>
+      <c r="Q406">
+        <v>-0.5</v>
+      </c>
+      <c r="R406">
+        <v>2.05</v>
+      </c>
+      <c r="S406">
+        <v>1.85</v>
+      </c>
+      <c r="T406">
         <v>2.5</v>
       </c>
-      <c r="N406">
-        <v>3.6</v>
-      </c>
-      <c r="O406">
-        <v>3</v>
-      </c>
-      <c r="P406">
-        <v>2.25</v>
-      </c>
-      <c r="Q406">
-        <v>0.25</v>
-      </c>
-      <c r="R406">
-        <v>1.9</v>
-      </c>
-      <c r="S406">
-        <v>2</v>
-      </c>
-      <c r="T406">
-        <v>2</v>
-      </c>
       <c r="U406">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V406">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W406">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X406">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y406">
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA406">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB406">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC406">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36682,7 +36682,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6868748</v>
+        <v>6868756</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36694,76 +36694,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F407" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G407" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I407">
         <v>0</v>
       </c>
       <c r="J407" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K407">
+        <v>2.8</v>
+      </c>
+      <c r="L407">
+        <v>3.2</v>
+      </c>
+      <c r="M407">
+        <v>2.5</v>
+      </c>
+      <c r="N407">
+        <v>3.6</v>
+      </c>
+      <c r="O407">
+        <v>3</v>
+      </c>
+      <c r="P407">
+        <v>2.25</v>
+      </c>
+      <c r="Q407">
+        <v>0.25</v>
+      </c>
+      <c r="R407">
+        <v>1.9</v>
+      </c>
+      <c r="S407">
         <v>2</v>
       </c>
-      <c r="L407">
-        <v>3.4</v>
-      </c>
-      <c r="M407">
-        <v>3.75</v>
-      </c>
-      <c r="N407">
+      <c r="T407">
         <v>2</v>
       </c>
-      <c r="O407">
-        <v>3.5</v>
-      </c>
-      <c r="P407">
-        <v>3.75</v>
-      </c>
-      <c r="Q407">
-        <v>-0.5</v>
-      </c>
-      <c r="R407">
-        <v>2.05</v>
-      </c>
-      <c r="S407">
-        <v>1.85</v>
-      </c>
-      <c r="T407">
-        <v>2.5</v>
-      </c>
       <c r="U407">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V407">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W407">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X407">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y407">
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA407">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB407">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC407">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36771,7 +36771,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>6868754</v>
+        <v>6868751</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36783,76 +36783,76 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F408" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G408" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H408">
+        <v>0</v>
+      </c>
+      <c r="I408">
         <v>1</v>
       </c>
-      <c r="I408">
-        <v>0</v>
-      </c>
       <c r="J408" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K408">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L408">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M408">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N408">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O408">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P408">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q408">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R408">
-        <v>2.09</v>
+        <v>1.93</v>
       </c>
       <c r="S408">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="T408">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U408">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V408">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W408">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z408">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA408">
-        <v>0.42</v>
+        <v>0.97</v>
       </c>
       <c r="AB408">
         <v>-1</v>
       </c>
       <c r="AC408">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36860,7 +36860,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>6868751</v>
+        <v>6868754</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36872,76 +36872,76 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F409" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G409" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H409">
+        <v>1</v>
+      </c>
+      <c r="I409">
         <v>0</v>
       </c>
-      <c r="I409">
-        <v>1</v>
-      </c>
       <c r="J409" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K409">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L409">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M409">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N409">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O409">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P409">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q409">
+        <v>-1.25</v>
+      </c>
+      <c r="R409">
+        <v>2.09</v>
+      </c>
+      <c r="S409">
+        <v>1.84</v>
+      </c>
+      <c r="T409">
+        <v>3.25</v>
+      </c>
+      <c r="U409">
+        <v>1.95</v>
+      </c>
+      <c r="V409">
+        <v>1.95</v>
+      </c>
+      <c r="W409">
+        <v>0.5</v>
+      </c>
+      <c r="X409">
+        <v>-1</v>
+      </c>
+      <c r="Y409">
+        <v>-1</v>
+      </c>
+      <c r="Z409">
         <v>-0.5</v>
       </c>
-      <c r="R409">
-        <v>1.93</v>
-      </c>
-      <c r="S409">
-        <v>1.97</v>
-      </c>
-      <c r="T409">
-        <v>2.25</v>
-      </c>
-      <c r="U409">
-        <v>1.775</v>
-      </c>
-      <c r="V409">
-        <v>2.025</v>
-      </c>
-      <c r="W409">
-        <v>-1</v>
-      </c>
-      <c r="X409">
-        <v>-1</v>
-      </c>
-      <c r="Y409">
-        <v>3.2</v>
-      </c>
-      <c r="Z409">
-        <v>-1</v>
-      </c>
       <c r="AA409">
-        <v>0.97</v>
+        <v>0.42</v>
       </c>
       <c r="AB409">
         <v>-1</v>
       </c>
       <c r="AC409">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -36964,7 +36964,7 @@
         <v>39</v>
       </c>
       <c r="G410" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H410">
         <v>1</v>
@@ -37317,7 +37317,7 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F414" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G414" t="s">
         <v>51</v>
@@ -37851,7 +37851,7 @@
         <v>45298.69791666666</v>
       </c>
       <c r="F420" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G420" t="s">
         <v>47</v>
@@ -38299,7 +38299,7 @@
         <v>41</v>
       </c>
       <c r="G425" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H425">
         <v>1</v>
@@ -38566,7 +38566,7 @@
         <v>43</v>
       </c>
       <c r="G428" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H428">
         <v>3</v>
@@ -38830,7 +38830,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F431" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G431" t="s">
         <v>44</v>
@@ -39275,7 +39275,7 @@
         <v>45312.69791666666</v>
       </c>
       <c r="F436" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G436" t="s">
         <v>39</v>
@@ -39723,7 +39723,7 @@
         <v>50</v>
       </c>
       <c r="G441" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H441">
         <v>2</v>
@@ -40168,7 +40168,7 @@
         <v>29</v>
       </c>
       <c r="G446" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H446">
         <v>1</v>
@@ -40254,7 +40254,7 @@
         <v>45324.69791666666</v>
       </c>
       <c r="F447" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G447" t="s">
         <v>36</v>
@@ -41055,7 +41055,7 @@
         <v>45327.69791666666</v>
       </c>
       <c r="F456" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G456" t="s">
         <v>51</v>
@@ -41322,7 +41322,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F459" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G459" t="s">
         <v>38</v>
@@ -41681,7 +41681,7 @@
         <v>45</v>
       </c>
       <c r="G463" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H463">
         <v>4</v>
@@ -42126,7 +42126,7 @@
         <v>32</v>
       </c>
       <c r="G468" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H468">
         <v>2</v>
@@ -42289,7 +42289,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>6868824</v>
+        <v>6868822</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42298,49 +42298,49 @@
         <v>28</v>
       </c>
       <c r="E470" s="2">
-        <v>45339.45833333334</v>
+        <v>45340.35416666666</v>
       </c>
       <c r="F470" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G470" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K470">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L470">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M470">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N470">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O470">
+        <v>3.1</v>
+      </c>
+      <c r="P470">
         <v>3.4</v>
       </c>
-      <c r="P470">
-        <v>5</v>
-      </c>
       <c r="Q470">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R470">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="S470">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="T470">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U470">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="V470">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="W470">
         <v>0</v>
@@ -42363,7 +42363,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>6868820</v>
+        <v>6868826</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42372,49 +42372,49 @@
         <v>28</v>
       </c>
       <c r="E471" s="2">
-        <v>45339.58333333334</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F471" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G471" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="K471">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="L471">
+        <v>3.4</v>
+      </c>
+      <c r="M471">
+        <v>3.2</v>
+      </c>
+      <c r="N471">
+        <v>1.85</v>
+      </c>
+      <c r="O471">
         <v>3.6</v>
       </c>
-      <c r="M471">
-        <v>1.615</v>
-      </c>
-      <c r="N471">
-        <v>5.25</v>
-      </c>
-      <c r="O471">
-        <v>3.4</v>
-      </c>
       <c r="P471">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q471">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R471">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S471">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="T471">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U471">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="V471">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="W471">
         <v>0</v>
@@ -42437,7 +42437,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>6868817</v>
+        <v>6868818</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42446,49 +42446,49 @@
         <v>28</v>
       </c>
       <c r="E472" s="2">
-        <v>45339.69791666666</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F472" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G472" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K472">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="L472">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M472">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="N472">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="O472">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P472">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q472">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R472">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="S472">
-        <v>1.89</v>
+        <v>2.11</v>
       </c>
       <c r="T472">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U472">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V472">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W472">
         <v>0</v>
@@ -42511,7 +42511,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>6868822</v>
+        <v>6868819</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42520,49 +42520,49 @@
         <v>28</v>
       </c>
       <c r="E473" s="2">
-        <v>45340.35416666666</v>
+        <v>45340.58333333334</v>
       </c>
       <c r="F473" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G473" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K473">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="L473">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M473">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N473">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="O473">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P473">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q473">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R473">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="S473">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="T473">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U473">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V473">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="W473">
         <v>0</v>
@@ -42585,7 +42585,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>6868826</v>
+        <v>6868823</v>
       </c>
       <c r="C474" t="s">
         <v>28</v>
@@ -42594,49 +42594,49 @@
         <v>28</v>
       </c>
       <c r="E474" s="2">
-        <v>45340.45833333334</v>
+        <v>45340.69791666666</v>
       </c>
       <c r="F474" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G474" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K474">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="L474">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M474">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="N474">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O474">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P474">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="Q474">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R474">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S474">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T474">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U474">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V474">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W474">
         <v>0</v>
@@ -42659,7 +42659,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>6868818</v>
+        <v>6868785</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42668,49 +42668,49 @@
         <v>28</v>
       </c>
       <c r="E475" s="2">
-        <v>45340.45833333334</v>
+        <v>45344.69791666666</v>
       </c>
       <c r="F475" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G475" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K475">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L475">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M475">
+        <v>3.25</v>
+      </c>
+      <c r="N475">
+        <v>2.4</v>
+      </c>
+      <c r="O475">
+        <v>2.9</v>
+      </c>
+      <c r="P475">
+        <v>3.25</v>
+      </c>
+      <c r="Q475">
+        <v>-0.25</v>
+      </c>
+      <c r="R475">
+        <v>2.125</v>
+      </c>
+      <c r="S475">
+        <v>1.78</v>
+      </c>
+      <c r="T475">
         <v>2</v>
       </c>
-      <c r="N475">
-        <v>3.75</v>
-      </c>
-      <c r="O475">
-        <v>3.3</v>
-      </c>
-      <c r="P475">
-        <v>2.05</v>
-      </c>
-      <c r="Q475">
-        <v>0.25</v>
-      </c>
-      <c r="R475">
-        <v>2.08</v>
-      </c>
-      <c r="S475">
-        <v>1.82</v>
-      </c>
-      <c r="T475">
-        <v>2.25</v>
-      </c>
       <c r="U475">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="V475">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="W475">
         <v>0</v>
@@ -42733,7 +42733,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>6868819</v>
+        <v>6868827</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42742,49 +42742,49 @@
         <v>28</v>
       </c>
       <c r="E476" s="2">
-        <v>45340.58333333334</v>
+        <v>45345.69791666666</v>
       </c>
       <c r="F476" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G476" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K476">
-        <v>3.75</v>
+        <v>1.615</v>
       </c>
       <c r="L476">
         <v>3.5</v>
       </c>
       <c r="M476">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="N476">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="O476">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P476">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q476">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R476">
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
       <c r="S476">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="T476">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U476">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V476">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W476">
         <v>0</v>
@@ -42807,7 +42807,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>6868823</v>
+        <v>6868836</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42816,49 +42816,49 @@
         <v>28</v>
       </c>
       <c r="E477" s="2">
-        <v>45340.69791666666</v>
+        <v>45346.45833333334</v>
       </c>
       <c r="F477" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G477" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K477">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L477">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M477">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="N477">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="O477">
         <v>3.5</v>
       </c>
       <c r="P477">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q477">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R477">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="S477">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="T477">
         <v>2.5</v>
       </c>
       <c r="U477">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="V477">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="W477">
         <v>0</v>
@@ -42881,7 +42881,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>6868785</v>
+        <v>6868835</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -42890,49 +42890,49 @@
         <v>28</v>
       </c>
       <c r="E478" s="2">
-        <v>45344.69791666666</v>
+        <v>45346.58333333334</v>
       </c>
       <c r="F478" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G478" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K478">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L478">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M478">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="N478">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O478">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P478">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q478">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R478">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="S478">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="T478">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U478">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V478">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="W478">
         <v>0</v>
@@ -42955,7 +42955,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>6868827</v>
+        <v>6868830</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -42964,49 +42964,49 @@
         <v>28</v>
       </c>
       <c r="E479" s="2">
-        <v>45345.69791666666</v>
+        <v>45346.69791666666</v>
       </c>
       <c r="F479" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G479" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K479">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L479">
+        <v>2.875</v>
+      </c>
+      <c r="M479">
         <v>3.5</v>
       </c>
-      <c r="M479">
-        <v>5.75</v>
-      </c>
       <c r="N479">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O479">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P479">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q479">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R479">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="S479">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="T479">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U479">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V479">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W479">
         <v>0</v>
@@ -43021,228 +43021,6 @@
         <v>0</v>
       </c>
       <c r="AA479">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="1:29">
-      <c r="A480" s="1">
-        <v>478</v>
-      </c>
-      <c r="B480">
-        <v>6868836</v>
-      </c>
-      <c r="C480" t="s">
-        <v>28</v>
-      </c>
-      <c r="D480" t="s">
-        <v>28</v>
-      </c>
-      <c r="E480" s="2">
-        <v>45346.45833333334</v>
-      </c>
-      <c r="F480" t="s">
-        <v>30</v>
-      </c>
-      <c r="G480" t="s">
-        <v>48</v>
-      </c>
-      <c r="K480">
-        <v>2</v>
-      </c>
-      <c r="L480">
-        <v>3.5</v>
-      </c>
-      <c r="M480">
-        <v>3.5</v>
-      </c>
-      <c r="N480">
-        <v>2</v>
-      </c>
-      <c r="O480">
-        <v>3.5</v>
-      </c>
-      <c r="P480">
-        <v>3.6</v>
-      </c>
-      <c r="Q480">
-        <v>-0.5</v>
-      </c>
-      <c r="R480">
-        <v>2.08</v>
-      </c>
-      <c r="S480">
-        <v>1.82</v>
-      </c>
-      <c r="T480">
-        <v>2.5</v>
-      </c>
-      <c r="U480">
-        <v>1.85</v>
-      </c>
-      <c r="V480">
-        <v>2.05</v>
-      </c>
-      <c r="W480">
-        <v>0</v>
-      </c>
-      <c r="X480">
-        <v>0</v>
-      </c>
-      <c r="Y480">
-        <v>0</v>
-      </c>
-      <c r="Z480">
-        <v>0</v>
-      </c>
-      <c r="AA480">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="1:27">
-      <c r="A481" s="1">
-        <v>479</v>
-      </c>
-      <c r="B481">
-        <v>6868835</v>
-      </c>
-      <c r="C481" t="s">
-        <v>28</v>
-      </c>
-      <c r="D481" t="s">
-        <v>28</v>
-      </c>
-      <c r="E481" s="2">
-        <v>45346.58333333334</v>
-      </c>
-      <c r="F481" t="s">
-        <v>29</v>
-      </c>
-      <c r="G481" t="s">
-        <v>40</v>
-      </c>
-      <c r="K481">
-        <v>2.875</v>
-      </c>
-      <c r="L481">
-        <v>2.8</v>
-      </c>
-      <c r="M481">
-        <v>2.7</v>
-      </c>
-      <c r="N481">
-        <v>2.875</v>
-      </c>
-      <c r="O481">
-        <v>2.875</v>
-      </c>
-      <c r="P481">
-        <v>2.7</v>
-      </c>
-      <c r="Q481">
-        <v>0</v>
-      </c>
-      <c r="R481">
-        <v>1.95</v>
-      </c>
-      <c r="S481">
-        <v>1.95</v>
-      </c>
-      <c r="T481">
-        <v>2.25</v>
-      </c>
-      <c r="U481">
-        <v>1.93</v>
-      </c>
-      <c r="V481">
-        <v>1.97</v>
-      </c>
-      <c r="W481">
-        <v>0</v>
-      </c>
-      <c r="X481">
-        <v>0</v>
-      </c>
-      <c r="Y481">
-        <v>0</v>
-      </c>
-      <c r="Z481">
-        <v>0</v>
-      </c>
-      <c r="AA481">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:27">
-      <c r="A482" s="1">
-        <v>480</v>
-      </c>
-      <c r="B482">
-        <v>6868830</v>
-      </c>
-      <c r="C482" t="s">
-        <v>28</v>
-      </c>
-      <c r="D482" t="s">
-        <v>28</v>
-      </c>
-      <c r="E482" s="2">
-        <v>45346.69791666666</v>
-      </c>
-      <c r="F482" t="s">
-        <v>50</v>
-      </c>
-      <c r="G482" t="s">
-        <v>37</v>
-      </c>
-      <c r="K482">
-        <v>2.25</v>
-      </c>
-      <c r="L482">
-        <v>2.875</v>
-      </c>
-      <c r="M482">
-        <v>3.5</v>
-      </c>
-      <c r="N482">
-        <v>2.25</v>
-      </c>
-      <c r="O482">
-        <v>3</v>
-      </c>
-      <c r="P482">
-        <v>3.5</v>
-      </c>
-      <c r="Q482">
-        <v>-0.25</v>
-      </c>
-      <c r="R482">
-        <v>2.01</v>
-      </c>
-      <c r="S482">
-        <v>1.89</v>
-      </c>
-      <c r="T482">
-        <v>2</v>
-      </c>
-      <c r="U482">
-        <v>1.9</v>
-      </c>
-      <c r="V482">
-        <v>2</v>
-      </c>
-      <c r="W482">
-        <v>0</v>
-      </c>
-      <c r="X482">
-        <v>0</v>
-      </c>
-      <c r="Y482">
-        <v>0</v>
-      </c>
-      <c r="Z482">
-        <v>0</v>
-      </c>
-      <c r="AA482">
         <v>0</v>
       </c>
     </row>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -115,16 +115,16 @@
     <t>Torino</t>
   </si>
   <si>
+    <t>Lecce</t>
+  </si>
+  <si>
     <t>Roma</t>
   </si>
   <si>
-    <t>Lecce</t>
+    <t>Fiorentina</t>
   </si>
   <si>
     <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
   </si>
   <si>
     <t>Inter Milan</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC490"/>
+  <dimension ref="A1:AC491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5208266</v>
+        <v>5208265</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1008,55 +1008,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>54</v>
       </c>
       <c r="K6">
-        <v>1.55</v>
+        <v>4.1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="N6">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="S6">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V6">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W6">
-        <v>0.6659999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1065,16 +1065,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.485</v>
+        <v>1.08</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC6">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5208265</v>
+        <v>5208266</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1097,55 +1097,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>54</v>
       </c>
       <c r="K7">
-        <v>4.1</v>
+        <v>1.55</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="N7">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="S7">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V7">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W7">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1154,16 +1154,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>1.08</v>
+        <v>0.485</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1171,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5209934</v>
+        <v>5209933</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1186,73 +1186,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="L8">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="N8">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
+        <v>1.85</v>
+      </c>
+      <c r="S8">
         <v>2.05</v>
       </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>1.03</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1260,7 +1260,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5209933</v>
+        <v>5209934</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1275,73 +1275,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M9">
+        <v>1.65</v>
+      </c>
+      <c r="N9">
         <v>4.75</v>
       </c>
-      <c r="N9">
-        <v>1.833</v>
-      </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
+        <v>2.05</v>
+      </c>
+      <c r="S9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>2.05</v>
-      </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.95</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1539,7 +1539,7 @@
         <v>44933.45833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
@@ -1898,7 +1898,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2254,7 +2254,7 @@
         <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2518,7 +2518,7 @@
         <v>44940.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
         <v>40</v>
@@ -2607,7 +2607,7 @@
         <v>44940.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
@@ -3141,10 +3141,10 @@
         <v>44941.69791666666</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3322,7 +3322,7 @@
         <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3497,7 +3497,7 @@
         <v>44947.69791666666</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -3767,7 +3767,7 @@
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4298,7 +4298,7 @@
         <v>44953.69791666666</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
         <v>30</v>
@@ -4476,7 +4476,7 @@
         <v>44954.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4835,7 +4835,7 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4924,7 +4924,7 @@
         <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5099,10 +5099,10 @@
         <v>44961.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>44961.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
         <v>48</v>
@@ -5544,7 +5544,7 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -6167,10 +6167,10 @@
         <v>44968.58333333334</v>
       </c>
       <c r="F64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
         <v>34</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6526,7 +6526,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6615,7 +6615,7 @@
         <v>46</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -7238,7 +7238,7 @@
         <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7312,7 +7312,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5208326</v>
+        <v>5208323</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7324,76 +7324,76 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K77">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="L77">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M77">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="N77">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="O77">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="Q77">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
         <v>2.5</v>
       </c>
       <c r="U77">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="V77">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y77">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>1.04</v>
+        <v>0.95</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.8400000000000001</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5208323</v>
+        <v>5208326</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7413,76 +7413,76 @@
         <v>44976.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K78">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="N78">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="O78">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P78">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="V78">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.9299999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7591,7 +7591,7 @@
         <v>44976.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>44</v>
@@ -7683,7 +7683,7 @@
         <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7858,7 +7858,7 @@
         <v>44982.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
         <v>29</v>
@@ -8306,7 +8306,7 @@
         <v>44</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>44985.60416666666</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8926,7 +8926,7 @@
         <v>44989.69791666666</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
         <v>43</v>
@@ -9196,7 +9196,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9282,7 +9282,7 @@
         <v>44990.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
         <v>39</v>
@@ -9374,7 +9374,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9905,7 +9905,7 @@
         <v>44997.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
         <v>32</v>
@@ -9982,7 +9982,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5209914</v>
+        <v>5209915</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9994,76 +9994,76 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K107">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="N107">
+        <v>4.75</v>
+      </c>
+      <c r="O107">
+        <v>3.75</v>
+      </c>
+      <c r="P107">
+        <v>1.8</v>
+      </c>
+      <c r="Q107">
+        <v>0.75</v>
+      </c>
+      <c r="R107">
+        <v>1.89</v>
+      </c>
+      <c r="S107">
+        <v>2.01</v>
+      </c>
+      <c r="T107">
         <v>2.5</v>
       </c>
-      <c r="O107">
-        <v>3.2</v>
-      </c>
-      <c r="P107">
-        <v>3</v>
-      </c>
-      <c r="Q107">
-        <v>-0.25</v>
-      </c>
-      <c r="R107">
-        <v>2.125</v>
-      </c>
-      <c r="S107">
-        <v>1.78</v>
-      </c>
-      <c r="T107">
-        <v>2.25</v>
-      </c>
       <c r="U107">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="V107">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.39</v>
+        <v>1.01</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.415</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10071,7 +10071,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5209915</v>
+        <v>5209914</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10083,76 +10083,76 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K108">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="L108">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="N108">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="O108">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.89</v>
+        <v>2.125</v>
       </c>
       <c r="S108">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="V108">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>1.01</v>
+        <v>0.39</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>0.9199999999999999</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10172,7 +10172,7 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -10620,7 +10620,7 @@
         <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -11062,10 +11062,10 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11154,7 +11154,7 @@
         <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11329,7 +11329,7 @@
         <v>45017.41666666666</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>47</v>
@@ -11421,7 +11421,7 @@
         <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11673,7 +11673,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5208373</v>
+        <v>5209911</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11685,40 +11685,40 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L126">
         <v>3.3</v>
       </c>
       <c r="M126">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N126">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="O126">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P126">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
         <v>2.05</v>
@@ -11730,31 +11730,31 @@
         <v>2.25</v>
       </c>
       <c r="U126">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="V126">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
         <v>-0.5</v>
       </c>
       <c r="AC126">
-        <v>0.4399999999999999</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11762,7 +11762,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5209911</v>
+        <v>5208373</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11774,40 +11774,40 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K127">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L127">
         <v>3.3</v>
       </c>
       <c r="M127">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N127">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="O127">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P127">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
         <v>2.05</v>
@@ -11819,31 +11819,31 @@
         <v>2.25</v>
       </c>
       <c r="U127">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="V127">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y127">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB127">
         <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>0.415</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11863,7 +11863,7 @@
         <v>45018.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
         <v>42</v>
@@ -12044,7 +12044,7 @@
         <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12308,7 +12308,7 @@
         <v>45023.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>46</v>
@@ -12575,7 +12575,7 @@
         <v>45024.39583333334</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>31</v>
@@ -12667,7 +12667,7 @@
         <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12845,7 +12845,7 @@
         <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>45030.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
         <v>48</v>
@@ -13554,7 +13554,7 @@
         <v>45032.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>42</v>
@@ -13821,7 +13821,7 @@
         <v>45032.65625</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13910,7 +13910,7 @@
         <v>45033.65625</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>47</v>
@@ -14447,7 +14447,7 @@
         <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14536,7 +14536,7 @@
         <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H158">
         <v>3</v>
@@ -14625,7 +14625,7 @@
         <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14803,7 +14803,7 @@
         <v>47</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14889,7 +14889,7 @@
         <v>45044.5625</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
         <v>38</v>
@@ -15067,7 +15067,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
         <v>43</v>
@@ -15411,7 +15411,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5499736</v>
+        <v>5505897</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15423,10 +15423,10 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15438,61 +15438,61 @@
         <v>53</v>
       </c>
       <c r="K168">
-        <v>1.222</v>
+        <v>2.625</v>
       </c>
       <c r="L168">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M168">
-        <v>11</v>
+        <v>2.625</v>
       </c>
       <c r="N168">
-        <v>1.181</v>
+        <v>3.2</v>
       </c>
       <c r="O168">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="P168">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q168">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="T168">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V168">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA168">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC168">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5505897</v>
+        <v>5499736</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15512,10 +15512,10 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15527,61 +15527,61 @@
         <v>53</v>
       </c>
       <c r="K169">
-        <v>2.625</v>
+        <v>1.222</v>
       </c>
       <c r="L169">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M169">
-        <v>2.625</v>
+        <v>11</v>
       </c>
       <c r="N169">
-        <v>3.2</v>
+        <v>1.181</v>
       </c>
       <c r="O169">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="P169">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q169">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R169">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S169">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U169">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.4399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15601,7 +15601,7 @@
         <v>45046.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
         <v>42</v>
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5545303</v>
+        <v>5545304</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,73 +15779,73 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K172">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M172">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="N172">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O172">
         <v>3.8</v>
       </c>
       <c r="P172">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q172">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R172">
-        <v>2.11</v>
+        <v>2.07</v>
       </c>
       <c r="S172">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V172">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="W172">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AA172">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.8999999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5545300</v>
+        <v>5545303</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,58 +15868,58 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F173" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>54</v>
       </c>
       <c r="K173">
-        <v>1.363</v>
+        <v>1.55</v>
       </c>
       <c r="L173">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N173">
-        <v>1.363</v>
+        <v>1.55</v>
       </c>
       <c r="O173">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P173">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R173">
-        <v>1.88</v>
+        <v>2.11</v>
       </c>
       <c r="S173">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U173">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W173">
-        <v>0.363</v>
+        <v>0.55</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15928,13 +15928,13 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA173">
-        <v>0.51</v>
+        <v>-0</v>
       </c>
       <c r="AB173">
-        <v>0.9099999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15945,7 +15945,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5559355</v>
+        <v>5545300</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15957,76 +15957,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I174">
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K174">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M174">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="N174">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P174">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q174">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R174">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S174">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U174">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="V174">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>1.07</v>
+        <v>0.51</v>
       </c>
       <c r="AB174">
-        <v>-0.5</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC174">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16034,7 +16034,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5545304</v>
+        <v>5559355</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16046,76 +16046,76 @@
         <v>45049.54166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K175">
+        <v>3.8</v>
+      </c>
+      <c r="L175">
+        <v>3.3</v>
+      </c>
+      <c r="M175">
+        <v>1.95</v>
+      </c>
+      <c r="N175">
         <v>4.75</v>
       </c>
-      <c r="L175">
-        <v>3.6</v>
-      </c>
-      <c r="M175">
-        <v>1.727</v>
-      </c>
-      <c r="N175">
-        <v>4.5</v>
-      </c>
       <c r="O175">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q175">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R175">
+        <v>1.83</v>
+      </c>
+      <c r="S175">
         <v>2.07</v>
       </c>
-      <c r="S175">
-        <v>1.86</v>
-      </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="V175">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z175">
+        <v>-1</v>
+      </c>
+      <c r="AA175">
         <v>1.07</v>
       </c>
-      <c r="AA175">
-        <v>-1</v>
-      </c>
       <c r="AB175">
-        <v>0.9299999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16138,7 +16138,7 @@
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16301,7 +16301,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5554079</v>
+        <v>5535044</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16313,49 +16313,49 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K178">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N178">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P178">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q178">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="S178">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="T178">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
         <v>1.85</v>
@@ -16364,25 +16364,25 @@
         <v>2.05</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X178">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8400000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5535044</v>
+        <v>5554079</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,49 +16402,49 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="s">
+        <v>53</v>
+      </c>
+      <c r="K179">
+        <v>3.8</v>
+      </c>
+      <c r="L179">
+        <v>3.2</v>
+      </c>
+      <c r="M179">
+        <v>2.05</v>
+      </c>
+      <c r="N179">
+        <v>4</v>
+      </c>
+      <c r="O179">
+        <v>3.2</v>
+      </c>
+      <c r="P179">
+        <v>2.05</v>
+      </c>
+      <c r="Q179">
+        <v>0.5</v>
+      </c>
+      <c r="R179">
+        <v>1.84</v>
+      </c>
+      <c r="S179">
+        <v>2.06</v>
+      </c>
+      <c r="T179">
         <v>2</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-      <c r="J179" t="s">
-        <v>54</v>
-      </c>
-      <c r="K179">
-        <v>1.7</v>
-      </c>
-      <c r="L179">
-        <v>3.75</v>
-      </c>
-      <c r="M179">
-        <v>5</v>
-      </c>
-      <c r="N179">
-        <v>1.666</v>
-      </c>
-      <c r="O179">
-        <v>4.2</v>
-      </c>
-      <c r="P179">
-        <v>5</v>
-      </c>
-      <c r="Q179">
-        <v>-0.75</v>
-      </c>
-      <c r="R179">
-        <v>1.87</v>
-      </c>
-      <c r="S179">
-        <v>2.03</v>
-      </c>
-      <c r="T179">
-        <v>2.75</v>
       </c>
       <c r="U179">
         <v>1.85</v>
@@ -16453,25 +16453,25 @@
         <v>2.05</v>
       </c>
       <c r="W179">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8700000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC179">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5545301</v>
+        <v>5559356</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,76 +16491,76 @@
         <v>45050.65625</v>
       </c>
       <c r="F180" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K180">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M180">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N180">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="O180">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P180">
+        <v>1.6</v>
+      </c>
+      <c r="Q180">
+        <v>0.75</v>
+      </c>
+      <c r="R180">
+        <v>2.09</v>
+      </c>
+      <c r="S180">
+        <v>1.81</v>
+      </c>
+      <c r="T180">
+        <v>2.5</v>
+      </c>
+      <c r="U180">
+        <v>1.95</v>
+      </c>
+      <c r="V180">
+        <v>1.95</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
         <v>2.8</v>
       </c>
-      <c r="Q180">
-        <v>0</v>
-      </c>
-      <c r="R180">
-        <v>1.95</v>
-      </c>
-      <c r="S180">
-        <v>1.95</v>
-      </c>
-      <c r="T180">
-        <v>2.25</v>
-      </c>
-      <c r="U180">
-        <v>2.04</v>
-      </c>
-      <c r="V180">
-        <v>1.86</v>
-      </c>
-      <c r="W180">
-        <v>1.75</v>
-      </c>
-      <c r="X180">
-        <v>-1</v>
-      </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
+        <v>1.09</v>
+      </c>
+      <c r="AA180">
+        <v>-1</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
         <v>0.95</v>
-      </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
-      <c r="AB180">
-        <v>1.04</v>
-      </c>
-      <c r="AC180">
-        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5559356</v>
+        <v>5545301</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45050.65625</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K181">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="L181">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M181">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N181">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="O181">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P181">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q181">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R181">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V181">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X181">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC181">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16758,7 +16758,7 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
         <v>37</v>
@@ -16847,7 +16847,7 @@
         <v>45052.65625</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
         <v>31</v>
@@ -17117,7 +17117,7 @@
         <v>46</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17203,7 +17203,7 @@
         <v>45053.65625</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
         <v>44</v>
@@ -17562,7 +17562,7 @@
         <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -18004,7 +18004,7 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
         <v>38</v>
@@ -18185,7 +18185,7 @@
         <v>45</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18274,7 +18274,7 @@
         <v>39</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18538,7 +18538,7 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>45</v>
@@ -18805,7 +18805,7 @@
         <v>45067.3125</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
         <v>31</v>
@@ -18897,7 +18897,7 @@
         <v>32</v>
       </c>
       <c r="G207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -19161,7 +19161,7 @@
         <v>45068.5625</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
         <v>30</v>
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6682613</v>
+        <v>6682615</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,73 +19428,73 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G213" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J213" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K213">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L213">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M213">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N213">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="O213">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P213">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q213">
         <v>0</v>
       </c>
       <c r="R213">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U213">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="V213">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="W213">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z213">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB213">
-        <v>1.05</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6682615</v>
+        <v>6682613</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,73 +19517,73 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K214">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L214">
+        <v>3.5</v>
+      </c>
+      <c r="M214">
+        <v>2.5</v>
+      </c>
+      <c r="N214">
+        <v>2.8</v>
+      </c>
+      <c r="O214">
         <v>3.3</v>
       </c>
-      <c r="M214">
-        <v>2.9</v>
-      </c>
-      <c r="N214">
+      <c r="P214">
         <v>2.55</v>
-      </c>
-      <c r="O214">
-        <v>3.1</v>
-      </c>
-      <c r="P214">
-        <v>2.9</v>
       </c>
       <c r="Q214">
         <v>0</v>
       </c>
       <c r="R214">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="S214">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="V214">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA214">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8799999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19606,10 +19606,10 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>5706687</v>
+        <v>5634849</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,76 +19873,76 @@
         <v>45074.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G218" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K218">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L218">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M218">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="N218">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="O218">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P218">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="Q218">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="S218">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="T218">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U218">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="V218">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="W218">
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z218">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB218">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19950,7 +19950,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5634849</v>
+        <v>5706687</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19962,76 +19962,76 @@
         <v>45074.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K219">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L219">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M219">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N219">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="O219">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P219">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q219">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R219">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="S219">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="V219">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="W219">
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y219">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA219">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC219">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20054,7 +20054,7 @@
         <v>41</v>
       </c>
       <c r="G220" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -20232,7 +20232,7 @@
         <v>29</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20395,7 +20395,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>5706212</v>
+        <v>5702696</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20407,40 +20407,40 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F224" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G224" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
         <v>2</v>
       </c>
-      <c r="I224">
-        <v>0</v>
-      </c>
       <c r="J224" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K224">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="L224">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N224">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="O224">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P224">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R224">
         <v>1.95</v>
@@ -20452,31 +20452,31 @@
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V224">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="W224">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z224">
+        <v>-1</v>
+      </c>
+      <c r="AA224">
         <v>0.95</v>
       </c>
-      <c r="AA224">
-        <v>-1</v>
-      </c>
       <c r="AB224">
         <v>-1</v>
       </c>
       <c r="AC224">
-        <v>0.9299999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20484,7 +20484,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>5702696</v>
+        <v>5706212</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20496,40 +20496,40 @@
         <v>45080.66666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225">
         <v>0</v>
       </c>
-      <c r="I225">
-        <v>2</v>
-      </c>
       <c r="J225" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K225">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="L225">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M225">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N225">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="O225">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P225">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="Q225">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R225">
         <v>1.95</v>
@@ -20541,31 +20541,31 @@
         <v>2.75</v>
       </c>
       <c r="U225">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="V225">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA225">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
         <v>-1</v>
       </c>
       <c r="AC225">
-        <v>1.07</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5706211</v>
+        <v>5713502</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,58 +20674,58 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G227" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H227">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
         <v>54</v>
       </c>
       <c r="K227">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L227">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M227">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N227">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O227">
+        <v>4</v>
+      </c>
+      <c r="P227">
         <v>5</v>
       </c>
-      <c r="P227">
-        <v>5.75</v>
-      </c>
       <c r="Q227">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R227">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="S227">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="T227">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V227">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W227">
-        <v>0.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X227">
         <v>-1</v>
@@ -20734,13 +20734,13 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>1.05</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA227">
         <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.8799999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20763,7 +20763,7 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G228" t="s">
         <v>45</v>
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5737536</v>
+        <v>5706211</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,76 +20852,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G229" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K229">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L229">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M229">
+        <v>5.5</v>
+      </c>
+      <c r="N229">
+        <v>1.5</v>
+      </c>
+      <c r="O229">
+        <v>5</v>
+      </c>
+      <c r="P229">
+        <v>5.75</v>
+      </c>
+      <c r="Q229">
+        <v>-1.25</v>
+      </c>
+      <c r="R229">
+        <v>2.05</v>
+      </c>
+      <c r="S229">
         <v>1.85</v>
       </c>
-      <c r="N229">
-        <v>5.25</v>
-      </c>
-      <c r="O229">
-        <v>4.2</v>
-      </c>
-      <c r="P229">
-        <v>1.615</v>
-      </c>
-      <c r="Q229">
-        <v>0.75</v>
-      </c>
-      <c r="R229">
-        <v>2.08</v>
-      </c>
-      <c r="S229">
-        <v>1.82</v>
-      </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U229">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V229">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA229">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC229">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5713502</v>
+        <v>5737535</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,13 +20941,13 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230">
         <v>1</v>
@@ -20956,43 +20956,43 @@
         <v>54</v>
       </c>
       <c r="K230">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L230">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N230">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="O230">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P230">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q230">
         <v>-0.75</v>
       </c>
       <c r="R230">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="S230">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="W230">
-        <v>0.6659999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -21001,13 +21001,13 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.8799999999999999</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB230">
-        <v>0.95</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21018,7 +21018,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>5737535</v>
+        <v>5737536</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21030,76 +21030,76 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G231" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231">
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K231">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="L231">
         <v>3.6</v>
       </c>
       <c r="M231">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="N231">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="O231">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P231">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="Q231">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R231">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S231">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="T231">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V231">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W231">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z231">
-        <v>0.5149999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA231">
-        <v>-0.5</v>
+        <v>0.41</v>
       </c>
       <c r="AB231">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21389,7 +21389,7 @@
         <v>50</v>
       </c>
       <c r="G235" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21463,7 +21463,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6868443</v>
+        <v>6868444</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21475,76 +21475,76 @@
         <v>45158.5625</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236">
         <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K236">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M236">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N236">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O236">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P236">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q236">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
+        <v>1.98</v>
+      </c>
+      <c r="S236">
+        <v>1.92</v>
+      </c>
+      <c r="T236">
+        <v>2.75</v>
+      </c>
+      <c r="U236">
         <v>1.93</v>
       </c>
-      <c r="S236">
+      <c r="V236">
         <v>1.97</v>
       </c>
-      <c r="T236">
-        <v>2.25</v>
-      </c>
-      <c r="U236">
-        <v>1.97</v>
-      </c>
-      <c r="V236">
-        <v>1.93</v>
-      </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
         <v>0.97</v>
-      </c>
-      <c r="AB236">
-        <v>0.97</v>
-      </c>
-      <c r="AC236">
-        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21552,7 +21552,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6868444</v>
+        <v>6868443</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21564,76 +21564,76 @@
         <v>45158.5625</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237">
         <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K237">
+        <v>1.5</v>
+      </c>
+      <c r="L237">
+        <v>4</v>
+      </c>
+      <c r="M237">
+        <v>5.5</v>
+      </c>
+      <c r="N237">
+        <v>1.5</v>
+      </c>
+      <c r="O237">
+        <v>4</v>
+      </c>
+      <c r="P237">
+        <v>7.5</v>
+      </c>
+      <c r="Q237">
+        <v>-1</v>
+      </c>
+      <c r="R237">
+        <v>1.93</v>
+      </c>
+      <c r="S237">
+        <v>1.97</v>
+      </c>
+      <c r="T237">
+        <v>2.25</v>
+      </c>
+      <c r="U237">
+        <v>1.97</v>
+      </c>
+      <c r="V237">
+        <v>1.93</v>
+      </c>
+      <c r="W237">
+        <v>-1</v>
+      </c>
+      <c r="X237">
         <v>3</v>
       </c>
-      <c r="L237">
-        <v>3.3</v>
-      </c>
-      <c r="M237">
-        <v>2.2</v>
-      </c>
-      <c r="N237">
-        <v>3.25</v>
-      </c>
-      <c r="O237">
-        <v>3.5</v>
-      </c>
-      <c r="P237">
-        <v>2.2</v>
-      </c>
-      <c r="Q237">
-        <v>0.25</v>
-      </c>
-      <c r="R237">
-        <v>1.98</v>
-      </c>
-      <c r="S237">
-        <v>1.92</v>
-      </c>
-      <c r="T237">
-        <v>2.75</v>
-      </c>
-      <c r="U237">
-        <v>1.93</v>
-      </c>
-      <c r="V237">
-        <v>1.97</v>
-      </c>
-      <c r="W237">
-        <v>-1</v>
-      </c>
-      <c r="X237">
-        <v>-1</v>
-      </c>
       <c r="Y237">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.9199999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC237">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21653,7 +21653,7 @@
         <v>45158.65625</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
         <v>41</v>
@@ -22190,7 +22190,7 @@
         <v>44</v>
       </c>
       <c r="G244" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -22353,7 +22353,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6868583</v>
+        <v>6868586</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22365,16 +22365,16 @@
         <v>45165.5625</v>
       </c>
       <c r="F246" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G246" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J246" t="s">
         <v>53</v>
@@ -22389,10 +22389,10 @@
         <v>6</v>
       </c>
       <c r="N246">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O246">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P246">
         <v>5</v>
@@ -22401,25 +22401,25 @@
         <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S246">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="T246">
         <v>2.5</v>
       </c>
       <c r="U246">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="V246">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22428,13 +22428,13 @@
         <v>-1</v>
       </c>
       <c r="AA246">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="AB246">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC246">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22442,7 +22442,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6868586</v>
+        <v>6868583</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22454,16 +22454,16 @@
         <v>45165.5625</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G247" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
         <v>53</v>
@@ -22478,10 +22478,10 @@
         <v>6</v>
       </c>
       <c r="N247">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O247">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P247">
         <v>5</v>
@@ -22490,25 +22490,25 @@
         <v>-0.75</v>
       </c>
       <c r="R247">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S247">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="T247">
         <v>2.5</v>
       </c>
       <c r="U247">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="V247">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W247">
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -22517,13 +22517,13 @@
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC247">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22531,7 +22531,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6868587</v>
+        <v>6868590</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22543,49 +22543,49 @@
         <v>45165.65625</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G248" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H248">
+        <v>2</v>
+      </c>
+      <c r="I248">
         <v>0</v>
       </c>
-      <c r="I248">
-        <v>1</v>
-      </c>
       <c r="J248" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K248">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L248">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M248">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="N248">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="O248">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P248">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q248">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R248">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="S248">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U248">
         <v>1.95</v>
@@ -22594,19 +22594,19 @@
         <v>1.95</v>
       </c>
       <c r="W248">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA248">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
         <v>-1</v>
@@ -22620,7 +22620,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6868590</v>
+        <v>6868587</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22632,49 +22632,49 @@
         <v>45165.65625</v>
       </c>
       <c r="F249" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G249" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249" t="s">
+        <v>52</v>
+      </c>
+      <c r="K249">
+        <v>1.5</v>
+      </c>
+      <c r="L249">
+        <v>4.333</v>
+      </c>
+      <c r="M249">
+        <v>6.5</v>
+      </c>
+      <c r="N249">
+        <v>1.727</v>
+      </c>
+      <c r="O249">
+        <v>3.8</v>
+      </c>
+      <c r="P249">
+        <v>4.5</v>
+      </c>
+      <c r="Q249">
+        <v>-0.75</v>
+      </c>
+      <c r="R249">
         <v>2</v>
       </c>
-      <c r="I249">
-        <v>0</v>
-      </c>
-      <c r="J249" t="s">
-        <v>54</v>
-      </c>
-      <c r="K249">
-        <v>1.3</v>
-      </c>
-      <c r="L249">
-        <v>5.5</v>
-      </c>
-      <c r="M249">
-        <v>9</v>
-      </c>
-      <c r="N249">
-        <v>1.333</v>
-      </c>
-      <c r="O249">
-        <v>5.5</v>
-      </c>
-      <c r="P249">
-        <v>8.5</v>
-      </c>
-      <c r="Q249">
-        <v>-1.5</v>
-      </c>
-      <c r="R249">
-        <v>1.92</v>
-      </c>
       <c r="S249">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T249">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U249">
         <v>1.95</v>
@@ -22683,19 +22683,19 @@
         <v>1.95</v>
       </c>
       <c r="W249">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X249">
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z249">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA249">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB249">
         <v>-1</v>
@@ -22988,7 +22988,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F253" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G253" t="s">
         <v>43</v>
@@ -23243,7 +23243,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6868592</v>
+        <v>6868597</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23255,73 +23255,73 @@
         <v>45171.65625</v>
       </c>
       <c r="F256" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G256" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H256">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J256" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K256">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M256">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N256">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="O256">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P256">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q256">
         <v>-0.75</v>
       </c>
       <c r="R256">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="S256">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="V256">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="W256">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z256">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB256">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="AC256">
         <v>-0.5</v>
@@ -23332,7 +23332,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6868597</v>
+        <v>6868592</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23344,73 +23344,73 @@
         <v>45171.65625</v>
       </c>
       <c r="F257" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G257" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I257">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K257">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L257">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M257">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N257">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O257">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P257">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q257">
         <v>-0.75</v>
       </c>
       <c r="R257">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="S257">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T257">
         <v>2.75</v>
       </c>
       <c r="U257">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="V257">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="W257">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X257">
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA257">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="AC257">
         <v>-0.5</v>
@@ -23421,7 +23421,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6868600</v>
+        <v>6868595</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23433,13 +23433,13 @@
         <v>45172.5625</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G258" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -23454,37 +23454,37 @@
         <v>3.6</v>
       </c>
       <c r="M258">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N258">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O258">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P258">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q258">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R258">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="S258">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="T258">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U258">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V258">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="W258">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X258">
         <v>-1</v>
@@ -23493,16 +23493,16 @@
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA258">
         <v>-1</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC258">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23510,7 +23510,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6868595</v>
+        <v>6868600</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23522,13 +23522,13 @@
         <v>45172.5625</v>
       </c>
       <c r="F259" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G259" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -23543,37 +23543,37 @@
         <v>3.6</v>
       </c>
       <c r="M259">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N259">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O259">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P259">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q259">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R259">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="S259">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="T259">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U259">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V259">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="W259">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="X259">
         <v>-1</v>
@@ -23582,16 +23582,16 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0.95</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA259">
         <v>-1</v>
       </c>
       <c r="AB259">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC259">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23599,7 +23599,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6868594</v>
+        <v>6868596</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23611,76 +23611,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F260" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G260" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H260">
+        <v>2</v>
+      </c>
+      <c r="I260">
         <v>0</v>
       </c>
-      <c r="I260">
+      <c r="J260" t="s">
+        <v>54</v>
+      </c>
+      <c r="K260">
+        <v>1.95</v>
+      </c>
+      <c r="L260">
+        <v>3.2</v>
+      </c>
+      <c r="M260">
+        <v>4.2</v>
+      </c>
+      <c r="N260">
+        <v>1.909</v>
+      </c>
+      <c r="O260">
+        <v>3.25</v>
+      </c>
+      <c r="P260">
+        <v>4.333</v>
+      </c>
+      <c r="Q260">
+        <v>-0.5</v>
+      </c>
+      <c r="R260">
         <v>2</v>
       </c>
-      <c r="J260" t="s">
-        <v>52</v>
-      </c>
-      <c r="K260">
-        <v>5</v>
-      </c>
-      <c r="L260">
-        <v>3.75</v>
-      </c>
-      <c r="M260">
-        <v>1.666</v>
-      </c>
-      <c r="N260">
-        <v>5.25</v>
-      </c>
-      <c r="O260">
-        <v>4</v>
-      </c>
-      <c r="P260">
-        <v>1.65</v>
-      </c>
-      <c r="Q260">
-        <v>0.75</v>
-      </c>
-      <c r="R260">
-        <v>2.07</v>
-      </c>
       <c r="S260">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T260">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U260">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="V260">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA260">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC260">
-        <v>1</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23688,7 +23688,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6868596</v>
+        <v>6868594</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23700,76 +23700,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F261" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G261" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
         <v>2</v>
       </c>
-      <c r="I261">
-        <v>0</v>
-      </c>
       <c r="J261" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K261">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="L261">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M261">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N261">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="O261">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P261">
-        <v>4.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q261">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R261">
+        <v>2.07</v>
+      </c>
+      <c r="S261">
+        <v>1.83</v>
+      </c>
+      <c r="T261">
+        <v>2.5</v>
+      </c>
+      <c r="U261">
+        <v>1.9</v>
+      </c>
+      <c r="V261">
         <v>2</v>
       </c>
-      <c r="S261">
-        <v>1.9</v>
-      </c>
-      <c r="T261">
-        <v>2.25</v>
-      </c>
-      <c r="U261">
-        <v>2.01</v>
-      </c>
-      <c r="V261">
-        <v>1.89</v>
-      </c>
       <c r="W261">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z261">
+        <v>-1</v>
+      </c>
+      <c r="AA261">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="AB261">
+        <v>-1</v>
+      </c>
+      <c r="AC261">
         <v>1</v>
-      </c>
-      <c r="AA261">
-        <v>-1</v>
-      </c>
-      <c r="AB261">
-        <v>-0.5</v>
-      </c>
-      <c r="AC261">
-        <v>0.445</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -24237,7 +24237,7 @@
         <v>40</v>
       </c>
       <c r="G267" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H267">
         <v>1</v>
@@ -24323,7 +24323,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F268" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G268" t="s">
         <v>47</v>
@@ -24412,7 +24412,7 @@
         <v>45186.65625</v>
       </c>
       <c r="F269" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G269" t="s">
         <v>48</v>
@@ -24768,7 +24768,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F273" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G273" t="s">
         <v>50</v>
@@ -25201,7 +25201,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>6868621</v>
+        <v>6868612</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25213,76 +25213,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F278" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G278" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H278">
+        <v>2</v>
+      </c>
+      <c r="I278">
         <v>0</v>
       </c>
-      <c r="I278">
-        <v>2</v>
-      </c>
       <c r="J278" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K278">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="L278">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M278">
-        <v>2.25</v>
+        <v>10</v>
       </c>
       <c r="N278">
-        <v>3.2</v>
+        <v>1.444</v>
       </c>
       <c r="O278">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P278">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q278">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R278">
+        <v>2.01</v>
+      </c>
+      <c r="S278">
         <v>1.89</v>
       </c>
-      <c r="S278">
-        <v>2.01</v>
-      </c>
       <c r="T278">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U278">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V278">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AA278">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>0.5149999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25290,7 +25290,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6868612</v>
+        <v>6868621</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25302,76 +25302,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F279" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G279" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
         <v>2</v>
       </c>
-      <c r="I279">
-        <v>0</v>
-      </c>
       <c r="J279" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K279">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="L279">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M279">
-        <v>10</v>
+        <v>2.25</v>
       </c>
       <c r="N279">
-        <v>1.444</v>
+        <v>3.2</v>
       </c>
       <c r="O279">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P279">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q279">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R279">
+        <v>1.89</v>
+      </c>
+      <c r="S279">
         <v>2.01</v>
       </c>
-      <c r="S279">
-        <v>1.89</v>
-      </c>
       <c r="T279">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U279">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="V279">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="W279">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z279">
+        <v>-1</v>
+      </c>
+      <c r="AA279">
         <v>1.01</v>
       </c>
-      <c r="AA279">
-        <v>-1</v>
-      </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC279">
-        <v>0.9299999999999999</v>
+        <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25483,7 +25483,7 @@
         <v>32</v>
       </c>
       <c r="G281" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H281">
         <v>1</v>
@@ -25572,7 +25572,7 @@
         <v>39</v>
       </c>
       <c r="G282" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -25646,7 +25646,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6868622</v>
+        <v>6868623</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25658,76 +25658,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F283" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G283" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H283">
         <v>1</v>
       </c>
       <c r="I283">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J283" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K283">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L283">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M283">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N283">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="O283">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P283">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q283">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R283">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S283">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="T283">
         <v>2.25</v>
       </c>
       <c r="U283">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="V283">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="W283">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X283">
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA283">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB283">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25735,7 +25735,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6868623</v>
+        <v>6868622</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25747,76 +25747,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F284" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G284" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H284">
         <v>1</v>
       </c>
       <c r="I284">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J284" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K284">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L284">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M284">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="N284">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="O284">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P284">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q284">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R284">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S284">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="T284">
         <v>2.25</v>
       </c>
       <c r="U284">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="V284">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="W284">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z284">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC284">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -26195,7 +26195,7 @@
         <v>49</v>
       </c>
       <c r="G289" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -26284,7 +26284,7 @@
         <v>50</v>
       </c>
       <c r="G290" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H290">
         <v>4</v>
@@ -26370,7 +26370,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F291" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G291" t="s">
         <v>46</v>
@@ -26904,7 +26904,7 @@
         <v>45200.65625</v>
       </c>
       <c r="F297" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G297" t="s">
         <v>49</v>
@@ -26981,7 +26981,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6868640</v>
+        <v>6868639</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26993,76 +26993,76 @@
         <v>45201.5625</v>
       </c>
       <c r="F298" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G298" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H298">
         <v>0</v>
       </c>
       <c r="I298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K298">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L298">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M298">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N298">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O298">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P298">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q298">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R298">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="S298">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="T298">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U298">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="V298">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z298">
         <v>-1</v>
       </c>
       <c r="AA298">
-        <v>0.9099999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AB298">
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.8</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27070,7 +27070,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6868639</v>
+        <v>6868640</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27082,76 +27082,76 @@
         <v>45201.5625</v>
       </c>
       <c r="F299" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G299" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H299">
         <v>0</v>
       </c>
       <c r="I299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K299">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L299">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M299">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N299">
+        <v>1.7</v>
+      </c>
+      <c r="O299">
+        <v>3.5</v>
+      </c>
+      <c r="P299">
+        <v>5.5</v>
+      </c>
+      <c r="Q299">
+        <v>-0.75</v>
+      </c>
+      <c r="R299">
+        <v>1.99</v>
+      </c>
+      <c r="S299">
+        <v>1.91</v>
+      </c>
+      <c r="T299">
+        <v>2.25</v>
+      </c>
+      <c r="U299">
         <v>2.1</v>
       </c>
-      <c r="O299">
-        <v>3.8</v>
-      </c>
-      <c r="P299">
-        <v>3.2</v>
-      </c>
-      <c r="Q299">
-        <v>-0.25</v>
-      </c>
-      <c r="R299">
-        <v>1.88</v>
-      </c>
-      <c r="S299">
-        <v>2.02</v>
-      </c>
-      <c r="T299">
-        <v>3</v>
-      </c>
-      <c r="U299">
-        <v>1.97</v>
-      </c>
       <c r="V299">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="W299">
         <v>-1</v>
       </c>
       <c r="X299">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y299">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z299">
         <v>-1</v>
       </c>
       <c r="AA299">
-        <v>1.02</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB299">
         <v>-1</v>
       </c>
       <c r="AC299">
-        <v>0.9299999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27171,7 +27171,7 @@
         <v>45201.65625</v>
       </c>
       <c r="F300" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G300" t="s">
         <v>51</v>
@@ -27349,7 +27349,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F302" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G302" t="s">
         <v>29</v>
@@ -27975,7 +27975,7 @@
         <v>51</v>
       </c>
       <c r="G309" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -28064,7 +28064,7 @@
         <v>46</v>
       </c>
       <c r="G310" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -28417,7 +28417,7 @@
         <v>45221.3125</v>
       </c>
       <c r="F314" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G314" t="s">
         <v>40</v>
@@ -28494,7 +28494,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6868653</v>
+        <v>6868658</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28506,73 +28506,73 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F315" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G315" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H315">
         <v>2</v>
       </c>
       <c r="I315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J315" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K315">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="L315">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M315">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N315">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O315">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P315">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q315">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R315">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S315">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T315">
         <v>2.5</v>
       </c>
       <c r="U315">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="V315">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="W315">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X315">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA315">
-        <v>-0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AB315">
-        <v>0.8500000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="AC315">
         <v>-1</v>
@@ -28583,7 +28583,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6868658</v>
+        <v>6868653</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28595,73 +28595,73 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F316" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G316" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H316">
         <v>2</v>
       </c>
       <c r="I316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K316">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L316">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M316">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N316">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O316">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P316">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q316">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R316">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S316">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T316">
         <v>2.5</v>
       </c>
       <c r="U316">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="V316">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="W316">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X316">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
+        <v>0.475</v>
+      </c>
+      <c r="AA316">
         <v>-0.5</v>
       </c>
-      <c r="AA316">
-        <v>0.46</v>
-      </c>
       <c r="AB316">
-        <v>0.98</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC316">
         <v>-1</v>
@@ -28865,7 +28865,7 @@
         <v>38</v>
       </c>
       <c r="G319" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -28951,7 +28951,7 @@
         <v>45222.65625</v>
       </c>
       <c r="F320" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G320" t="s">
         <v>48</v>
@@ -29218,7 +29218,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G323" t="s">
         <v>32</v>
@@ -29577,7 +29577,7 @@
         <v>37</v>
       </c>
       <c r="G327" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -29844,7 +29844,7 @@
         <v>41</v>
       </c>
       <c r="G330" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H330">
         <v>1</v>
@@ -30464,10 +30464,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F337" t="s">
+        <v>34</v>
+      </c>
+      <c r="G337" t="s">
         <v>33</v>
-      </c>
-      <c r="G337" t="s">
-        <v>34</v>
       </c>
       <c r="H337">
         <v>2</v>
@@ -30553,7 +30553,7 @@
         <v>45235.69791666666</v>
       </c>
       <c r="F338" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G338" t="s">
         <v>39</v>
@@ -30998,7 +30998,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F343" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G343" t="s">
         <v>43</v>
@@ -31354,7 +31354,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F347" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G347" t="s">
         <v>45</v>
@@ -31535,7 +31535,7 @@
         <v>41</v>
       </c>
       <c r="G349" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H349">
         <v>0</v>
@@ -31891,7 +31891,7 @@
         <v>43</v>
       </c>
       <c r="G353" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H353">
         <v>1</v>
@@ -32244,7 +32244,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F357" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G357" t="s">
         <v>38</v>
@@ -32425,7 +32425,7 @@
         <v>44</v>
       </c>
       <c r="G359" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H359">
         <v>2</v>
@@ -32956,7 +32956,7 @@
         <v>45263.35416666666</v>
       </c>
       <c r="F365" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G365" t="s">
         <v>45</v>
@@ -33134,7 +33134,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F367" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G367" t="s">
         <v>30</v>
@@ -33226,7 +33226,7 @@
         <v>29</v>
       </c>
       <c r="G368" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -34113,10 +34113,10 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F378" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G378" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H378">
         <v>1</v>
@@ -34205,7 +34205,7 @@
         <v>48</v>
       </c>
       <c r="G379" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H379">
         <v>1</v>
@@ -34469,7 +34469,7 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F382" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G382" t="s">
         <v>49</v>
@@ -34813,7 +34813,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>6868736</v>
+        <v>6868729</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34825,61 +34825,61 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F386" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G386" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I386">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J386" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K386">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L386">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M386">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="N386">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O386">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P386">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q386">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R386">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S386">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T386">
         <v>2.5</v>
       </c>
       <c r="U386">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V386">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W386">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X386">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y386">
         <v>-1</v>
@@ -34891,10 +34891,10 @@
         <v>-0</v>
       </c>
       <c r="AB386">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC386">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -34902,7 +34902,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>6868729</v>
+        <v>6868736</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34914,61 +34914,61 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F387" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G387" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I387">
+        <v>2</v>
+      </c>
+      <c r="J387" t="s">
+        <v>53</v>
+      </c>
+      <c r="K387">
+        <v>2.15</v>
+      </c>
+      <c r="L387">
+        <v>3.2</v>
+      </c>
+      <c r="M387">
+        <v>3.3</v>
+      </c>
+      <c r="N387">
+        <v>2.5</v>
+      </c>
+      <c r="O387">
+        <v>3.3</v>
+      </c>
+      <c r="P387">
+        <v>2.8</v>
+      </c>
+      <c r="Q387">
         <v>0</v>
       </c>
-      <c r="J387" t="s">
-        <v>54</v>
-      </c>
-      <c r="K387">
-        <v>1.5</v>
-      </c>
-      <c r="L387">
-        <v>4.5</v>
-      </c>
-      <c r="M387">
-        <v>5.5</v>
-      </c>
-      <c r="N387">
-        <v>1.45</v>
-      </c>
-      <c r="O387">
-        <v>4.75</v>
-      </c>
-      <c r="P387">
-        <v>6</v>
-      </c>
-      <c r="Q387">
-        <v>-1</v>
-      </c>
       <c r="R387">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S387">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T387">
         <v>2.5</v>
       </c>
       <c r="U387">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V387">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W387">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X387">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y387">
         <v>-1</v>
@@ -34980,10 +34980,10 @@
         <v>-0</v>
       </c>
       <c r="AB387">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC387">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -35006,7 +35006,7 @@
         <v>45</v>
       </c>
       <c r="G388" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H388">
         <v>2</v>
@@ -35258,7 +35258,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>6868738</v>
+        <v>6868745</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35270,13 +35270,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F391" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G391" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I391">
         <v>2</v>
@@ -35285,40 +35285,40 @@
         <v>52</v>
       </c>
       <c r="K391">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L391">
         <v>3.4</v>
       </c>
       <c r="M391">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="N391">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O391">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P391">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q391">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R391">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="S391">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="T391">
         <v>2.25</v>
       </c>
       <c r="U391">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V391">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W391">
         <v>-1</v>
@@ -35327,19 +35327,19 @@
         <v>-1</v>
       </c>
       <c r="Y391">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z391">
         <v>-1</v>
       </c>
       <c r="AA391">
-        <v>0.9199999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AB391">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="AC391">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35347,7 +35347,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>6868745</v>
+        <v>6868738</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35359,13 +35359,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F392" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G392" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392">
         <v>2</v>
@@ -35374,40 +35374,40 @@
         <v>52</v>
       </c>
       <c r="K392">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L392">
         <v>3.4</v>
       </c>
       <c r="M392">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="N392">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O392">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P392">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q392">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R392">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="S392">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="T392">
         <v>2.25</v>
       </c>
       <c r="U392">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V392">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="W392">
         <v>-1</v>
@@ -35416,19 +35416,19 @@
         <v>-1</v>
       </c>
       <c r="Y392">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z392">
         <v>-1</v>
       </c>
       <c r="AA392">
-        <v>1.11</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB392">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AC392">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -35436,7 +35436,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>6868742</v>
+        <v>6868744</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35448,76 +35448,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F393" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G393" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393">
+        <v>2</v>
+      </c>
+      <c r="J393" t="s">
+        <v>53</v>
+      </c>
+      <c r="K393">
+        <v>5.75</v>
+      </c>
+      <c r="L393">
+        <v>4</v>
+      </c>
+      <c r="M393">
+        <v>1.533</v>
+      </c>
+      <c r="N393">
+        <v>6.5</v>
+      </c>
+      <c r="O393">
+        <v>4</v>
+      </c>
+      <c r="P393">
+        <v>1.5</v>
+      </c>
+      <c r="Q393">
         <v>1</v>
       </c>
-      <c r="J393" t="s">
-        <v>52</v>
-      </c>
-      <c r="K393">
-        <v>2.8</v>
-      </c>
-      <c r="L393">
-        <v>3.5</v>
-      </c>
-      <c r="M393">
-        <v>2.375</v>
-      </c>
-      <c r="N393">
-        <v>2.8</v>
-      </c>
-      <c r="O393">
-        <v>3.25</v>
-      </c>
-      <c r="P393">
-        <v>2.6</v>
-      </c>
-      <c r="Q393">
-        <v>0</v>
-      </c>
       <c r="R393">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S393">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T393">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U393">
-        <v>2.025</v>
+        <v>1.89</v>
       </c>
       <c r="V393">
-        <v>1.775</v>
+        <v>2.01</v>
       </c>
       <c r="W393">
         <v>-1</v>
       </c>
       <c r="X393">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y393">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z393">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA393">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB393">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC393">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394" spans="1:29">
@@ -35525,7 +35525,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>6868744</v>
+        <v>6868742</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35537,76 +35537,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F394" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G394" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J394" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K394">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="L394">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M394">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N394">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O394">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P394">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R394">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="S394">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T394">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U394">
-        <v>1.89</v>
+        <v>2.025</v>
       </c>
       <c r="V394">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="W394">
         <v>-1</v>
       </c>
       <c r="X394">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y394">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z394">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA394">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB394">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC394">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -35703,7 +35703,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>6868746</v>
+        <v>6868737</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35715,76 +35715,76 @@
         <v>45283.45833333334</v>
       </c>
       <c r="F396" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G396" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H396">
         <v>1</v>
       </c>
       <c r="I396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J396" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K396">
+        <v>2.7</v>
+      </c>
+      <c r="L396">
+        <v>3.25</v>
+      </c>
+      <c r="M396">
+        <v>2.45</v>
+      </c>
+      <c r="N396">
+        <v>2.8</v>
+      </c>
+      <c r="O396">
+        <v>3</v>
+      </c>
+      <c r="P396">
+        <v>2.75</v>
+      </c>
+      <c r="Q396">
+        <v>0</v>
+      </c>
+      <c r="R396">
+        <v>1.95</v>
+      </c>
+      <c r="S396">
+        <v>1.95</v>
+      </c>
+      <c r="T396">
+        <v>2</v>
+      </c>
+      <c r="U396">
         <v>1.85</v>
       </c>
-      <c r="L396">
-        <v>3.3</v>
-      </c>
-      <c r="M396">
-        <v>4.2</v>
-      </c>
-      <c r="N396">
-        <v>1.65</v>
-      </c>
-      <c r="O396">
-        <v>3.75</v>
-      </c>
-      <c r="P396">
-        <v>5.5</v>
-      </c>
-      <c r="Q396">
-        <v>-0.75</v>
-      </c>
-      <c r="R396">
-        <v>1.85</v>
-      </c>
-      <c r="S396">
+      <c r="V396">
         <v>2.05</v>
       </c>
-      <c r="T396">
-        <v>2.25</v>
-      </c>
-      <c r="U396">
-        <v>1.99</v>
-      </c>
-      <c r="V396">
-        <v>1.91</v>
-      </c>
       <c r="W396">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X396">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y396">
         <v>-1</v>
       </c>
       <c r="Z396">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA396">
+        <v>-1</v>
+      </c>
+      <c r="AB396">
+        <v>-1</v>
+      </c>
+      <c r="AC396">
         <v>1.05</v>
-      </c>
-      <c r="AB396">
-        <v>-0.5</v>
-      </c>
-      <c r="AC396">
-        <v>0.455</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -35792,7 +35792,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>6868737</v>
+        <v>6868746</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35804,76 +35804,76 @@
         <v>45283.45833333334</v>
       </c>
       <c r="F397" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G397" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H397">
         <v>1</v>
       </c>
       <c r="I397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J397" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K397">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="L397">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M397">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N397">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O397">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P397">
+        <v>5.5</v>
+      </c>
+      <c r="Q397">
+        <v>-0.75</v>
+      </c>
+      <c r="R397">
+        <v>1.85</v>
+      </c>
+      <c r="S397">
+        <v>2.05</v>
+      </c>
+      <c r="T397">
+        <v>2.25</v>
+      </c>
+      <c r="U397">
+        <v>1.99</v>
+      </c>
+      <c r="V397">
+        <v>1.91</v>
+      </c>
+      <c r="W397">
+        <v>-1</v>
+      </c>
+      <c r="X397">
         <v>2.75</v>
       </c>
-      <c r="Q397">
-        <v>0</v>
-      </c>
-      <c r="R397">
-        <v>1.95</v>
-      </c>
-      <c r="S397">
-        <v>1.95</v>
-      </c>
-      <c r="T397">
-        <v>2</v>
-      </c>
-      <c r="U397">
-        <v>1.85</v>
-      </c>
-      <c r="V397">
-        <v>2.05</v>
-      </c>
-      <c r="W397">
-        <v>1.8</v>
-      </c>
-      <c r="X397">
-        <v>-1</v>
-      </c>
       <c r="Y397">
         <v>-1</v>
       </c>
       <c r="Z397">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA397">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB397">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC397">
-        <v>1.05</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35881,7 +35881,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>6868741</v>
+        <v>6868740</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35893,10 +35893,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F398" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G398" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H398">
         <v>2</v>
@@ -35908,43 +35908,43 @@
         <v>54</v>
       </c>
       <c r="K398">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="L398">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M398">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="N398">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O398">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P398">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q398">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R398">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S398">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T398">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U398">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V398">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W398">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X398">
         <v>-1</v>
@@ -35953,16 +35953,16 @@
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="AA398">
         <v>-1</v>
       </c>
       <c r="AB398">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC398">
-        <v>1.04</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -35970,7 +35970,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>6868740</v>
+        <v>6868741</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35982,10 +35982,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F399" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G399" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H399">
         <v>2</v>
@@ -35997,43 +35997,43 @@
         <v>54</v>
       </c>
       <c r="K399">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="L399">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M399">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="N399">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O399">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P399">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="Q399">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R399">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="S399">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="T399">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U399">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V399">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W399">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X399">
         <v>-1</v>
@@ -36042,16 +36042,16 @@
         <v>-1</v>
       </c>
       <c r="Z399">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="AA399">
         <v>-1</v>
       </c>
       <c r="AB399">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC399">
-        <v>0.475</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -36071,7 +36071,7 @@
         <v>45283.69791666666</v>
       </c>
       <c r="F400" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G400" t="s">
         <v>46</v>
@@ -36148,7 +36148,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>6868755</v>
+        <v>6868749</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36160,76 +36160,76 @@
         <v>45289.60416666666</v>
       </c>
       <c r="F401" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G401" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I401">
         <v>0</v>
       </c>
       <c r="J401" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K401">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L401">
+        <v>3.4</v>
+      </c>
+      <c r="M401">
         <v>4</v>
       </c>
-      <c r="M401">
-        <v>8</v>
-      </c>
       <c r="N401">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O401">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P401">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q401">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R401">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="S401">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T401">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U401">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="V401">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="W401">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X401">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y401">
         <v>-1</v>
       </c>
       <c r="Z401">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA401">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB401">
         <v>-1</v>
       </c>
       <c r="AC401">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="402" spans="1:29">
@@ -36237,7 +36237,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>6868749</v>
+        <v>6868755</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36249,76 +36249,76 @@
         <v>45289.60416666666</v>
       </c>
       <c r="F402" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G402" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402">
         <v>0</v>
       </c>
       <c r="J402" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K402">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L402">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M402">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N402">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O402">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P402">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q402">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R402">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="S402">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T402">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U402">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="V402">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="W402">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X402">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y402">
         <v>-1</v>
       </c>
       <c r="Z402">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA402">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB402">
         <v>-1</v>
       </c>
       <c r="AC402">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="403" spans="1:29">
@@ -36519,7 +36519,7 @@
         <v>47</v>
       </c>
       <c r="G405" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H405">
         <v>1</v>
@@ -36593,7 +36593,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6868756</v>
+        <v>6868748</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36605,76 +36605,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F406" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G406" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H406">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406">
         <v>0</v>
       </c>
       <c r="J406" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K406">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L406">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M406">
+        <v>3.75</v>
+      </c>
+      <c r="N406">
+        <v>2</v>
+      </c>
+      <c r="O406">
+        <v>3.5</v>
+      </c>
+      <c r="P406">
+        <v>3.75</v>
+      </c>
+      <c r="Q406">
+        <v>-0.5</v>
+      </c>
+      <c r="R406">
+        <v>2.05</v>
+      </c>
+      <c r="S406">
+        <v>1.85</v>
+      </c>
+      <c r="T406">
         <v>2.5</v>
       </c>
-      <c r="N406">
-        <v>3.6</v>
-      </c>
-      <c r="O406">
-        <v>3</v>
-      </c>
-      <c r="P406">
-        <v>2.25</v>
-      </c>
-      <c r="Q406">
-        <v>0.25</v>
-      </c>
-      <c r="R406">
-        <v>1.9</v>
-      </c>
-      <c r="S406">
-        <v>2</v>
-      </c>
-      <c r="T406">
-        <v>2</v>
-      </c>
       <c r="U406">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V406">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W406">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X406">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y406">
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA406">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB406">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC406">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36682,7 +36682,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6868748</v>
+        <v>6868756</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36694,76 +36694,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F407" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G407" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I407">
         <v>0</v>
       </c>
       <c r="J407" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K407">
+        <v>2.8</v>
+      </c>
+      <c r="L407">
+        <v>3.2</v>
+      </c>
+      <c r="M407">
+        <v>2.5</v>
+      </c>
+      <c r="N407">
+        <v>3.6</v>
+      </c>
+      <c r="O407">
+        <v>3</v>
+      </c>
+      <c r="P407">
+        <v>2.25</v>
+      </c>
+      <c r="Q407">
+        <v>0.25</v>
+      </c>
+      <c r="R407">
+        <v>1.9</v>
+      </c>
+      <c r="S407">
         <v>2</v>
       </c>
-      <c r="L407">
-        <v>3.4</v>
-      </c>
-      <c r="M407">
-        <v>3.75</v>
-      </c>
-      <c r="N407">
+      <c r="T407">
         <v>2</v>
       </c>
-      <c r="O407">
-        <v>3.5</v>
-      </c>
-      <c r="P407">
-        <v>3.75</v>
-      </c>
-      <c r="Q407">
-        <v>-0.5</v>
-      </c>
-      <c r="R407">
-        <v>2.05</v>
-      </c>
-      <c r="S407">
-        <v>1.85</v>
-      </c>
-      <c r="T407">
-        <v>2.5</v>
-      </c>
       <c r="U407">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V407">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W407">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X407">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y407">
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA407">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB407">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC407">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36771,7 +36771,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>6868751</v>
+        <v>6868754</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36783,76 +36783,76 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F408" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G408" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H408">
+        <v>1</v>
+      </c>
+      <c r="I408">
         <v>0</v>
       </c>
-      <c r="I408">
-        <v>1</v>
-      </c>
       <c r="J408" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K408">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L408">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M408">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N408">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O408">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P408">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q408">
+        <v>-1.25</v>
+      </c>
+      <c r="R408">
+        <v>2.09</v>
+      </c>
+      <c r="S408">
+        <v>1.84</v>
+      </c>
+      <c r="T408">
+        <v>3.25</v>
+      </c>
+      <c r="U408">
+        <v>1.95</v>
+      </c>
+      <c r="V408">
+        <v>1.95</v>
+      </c>
+      <c r="W408">
+        <v>0.5</v>
+      </c>
+      <c r="X408">
+        <v>-1</v>
+      </c>
+      <c r="Y408">
+        <v>-1</v>
+      </c>
+      <c r="Z408">
         <v>-0.5</v>
       </c>
-      <c r="R408">
-        <v>1.93</v>
-      </c>
-      <c r="S408">
-        <v>1.97</v>
-      </c>
-      <c r="T408">
-        <v>2.25</v>
-      </c>
-      <c r="U408">
-        <v>1.775</v>
-      </c>
-      <c r="V408">
-        <v>2.025</v>
-      </c>
-      <c r="W408">
-        <v>-1</v>
-      </c>
-      <c r="X408">
-        <v>-1</v>
-      </c>
-      <c r="Y408">
-        <v>3.2</v>
-      </c>
-      <c r="Z408">
-        <v>-1</v>
-      </c>
       <c r="AA408">
-        <v>0.97</v>
+        <v>0.42</v>
       </c>
       <c r="AB408">
         <v>-1</v>
       </c>
       <c r="AC408">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36860,7 +36860,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>6868754</v>
+        <v>6868751</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36872,76 +36872,76 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F409" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G409" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H409">
+        <v>0</v>
+      </c>
+      <c r="I409">
         <v>1</v>
       </c>
-      <c r="I409">
-        <v>0</v>
-      </c>
       <c r="J409" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K409">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L409">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M409">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N409">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O409">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P409">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q409">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R409">
-        <v>2.09</v>
+        <v>1.93</v>
       </c>
       <c r="S409">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="T409">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U409">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V409">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W409">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X409">
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z409">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA409">
-        <v>0.42</v>
+        <v>0.97</v>
       </c>
       <c r="AB409">
         <v>-1</v>
       </c>
       <c r="AC409">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -36964,7 +36964,7 @@
         <v>39</v>
       </c>
       <c r="G410" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H410">
         <v>1</v>
@@ -37317,7 +37317,7 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F414" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G414" t="s">
         <v>51</v>
@@ -37409,7 +37409,7 @@
         <v>29</v>
       </c>
       <c r="G415" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H415">
         <v>1</v>
@@ -37572,7 +37572,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>6868765</v>
+        <v>6868766</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37584,73 +37584,73 @@
         <v>45298.45833333334</v>
       </c>
       <c r="F417" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G417" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H417">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I417">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J417" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K417">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L417">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M417">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N417">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O417">
         <v>3.1</v>
       </c>
       <c r="P417">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q417">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R417">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S417">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="T417">
         <v>2.25</v>
       </c>
       <c r="U417">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="V417">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W417">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X417">
         <v>-1</v>
       </c>
       <c r="Y417">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z417">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA417">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB417">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AC417">
         <v>-1</v>
@@ -37661,7 +37661,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>6868766</v>
+        <v>6868765</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37673,73 +37673,73 @@
         <v>45298.45833333334</v>
       </c>
       <c r="F418" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G418" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I418">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J418" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K418">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="L418">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M418">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="N418">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O418">
         <v>3.1</v>
       </c>
       <c r="P418">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q418">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R418">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S418">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="T418">
         <v>2.25</v>
       </c>
       <c r="U418">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="V418">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W418">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X418">
         <v>-1</v>
       </c>
       <c r="Y418">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z418">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA418">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB418">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AC418">
         <v>-1</v>
@@ -37851,7 +37851,7 @@
         <v>45298.69791666666</v>
       </c>
       <c r="F420" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G420" t="s">
         <v>47</v>
@@ -38299,7 +38299,7 @@
         <v>41</v>
       </c>
       <c r="G425" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H425">
         <v>1</v>
@@ -38474,7 +38474,7 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F427" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G427" t="s">
         <v>38</v>
@@ -38566,7 +38566,7 @@
         <v>43</v>
       </c>
       <c r="G428" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H428">
         <v>3</v>
@@ -38830,7 +38830,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F431" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G431" t="s">
         <v>44</v>
@@ -39275,7 +39275,7 @@
         <v>45312.69791666666</v>
       </c>
       <c r="F436" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G436" t="s">
         <v>39</v>
@@ -39723,7 +39723,7 @@
         <v>50</v>
       </c>
       <c r="G441" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H441">
         <v>2</v>
@@ -39797,7 +39797,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>6868791</v>
+        <v>6868795</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39809,76 +39809,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F442" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G442" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H442">
         <v>1</v>
       </c>
       <c r="I442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J442" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K442">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L442">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M442">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="N442">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O442">
         <v>3.3</v>
       </c>
       <c r="P442">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q442">
         <v>-0.25</v>
       </c>
       <c r="R442">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S442">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="T442">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U442">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="V442">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W442">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X442">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y442">
         <v>-1</v>
       </c>
       <c r="Z442">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA442">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AB442">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC442">
-        <v>0.5</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="443" spans="1:29">
@@ -39886,7 +39886,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>6868795</v>
+        <v>6868791</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39898,76 +39898,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F443" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G443" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H443">
         <v>1</v>
       </c>
       <c r="I443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J443" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K443">
+        <v>2.1</v>
+      </c>
+      <c r="L443">
+        <v>3.25</v>
+      </c>
+      <c r="M443">
+        <v>3.7</v>
+      </c>
+      <c r="N443">
         <v>2.15</v>
-      </c>
-      <c r="L443">
-        <v>3.4</v>
-      </c>
-      <c r="M443">
-        <v>3.4</v>
-      </c>
-      <c r="N443">
-        <v>2.2</v>
       </c>
       <c r="O443">
         <v>3.3</v>
       </c>
       <c r="P443">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q443">
         <v>-0.25</v>
       </c>
       <c r="R443">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S443">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T443">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U443">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="V443">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W443">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X443">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y443">
         <v>-1</v>
       </c>
       <c r="Z443">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA443">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AB443">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC443">
-        <v>0.9099999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -40076,7 +40076,7 @@
         <v>45319.69791666666</v>
       </c>
       <c r="F445" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G445" t="s">
         <v>37</v>
@@ -40168,7 +40168,7 @@
         <v>30</v>
       </c>
       <c r="G446" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H446">
         <v>1</v>
@@ -40254,10 +40254,10 @@
         <v>45324.69791666666</v>
       </c>
       <c r="F447" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G447" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H447">
         <v>3</v>
@@ -41055,7 +41055,7 @@
         <v>45327.69791666666</v>
       </c>
       <c r="F456" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G456" t="s">
         <v>51</v>
@@ -41322,7 +41322,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F459" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G459" t="s">
         <v>37</v>
@@ -41500,7 +41500,7 @@
         <v>45333.35416666666</v>
       </c>
       <c r="F461" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G461" t="s">
         <v>49</v>
@@ -41577,7 +41577,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>6868814</v>
+        <v>6868810</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41589,76 +41589,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F462" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G462" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H462">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I462">
         <v>0</v>
       </c>
       <c r="J462" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K462">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L462">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M462">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N462">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O462">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P462">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q462">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R462">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="S462">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="T462">
         <v>2.25</v>
       </c>
       <c r="U462">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="V462">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="W462">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X462">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y462">
         <v>-1</v>
       </c>
       <c r="Z462">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA462">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AB462">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC462">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41666,7 +41666,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>6868810</v>
+        <v>6868814</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41678,76 +41678,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F463" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G463" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I463">
         <v>0</v>
       </c>
       <c r="J463" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K463">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L463">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="M463">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N463">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O463">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P463">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q463">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R463">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="S463">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="T463">
         <v>2.25</v>
       </c>
       <c r="U463">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="V463">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="W463">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X463">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y463">
         <v>-1</v>
       </c>
       <c r="Z463">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA463">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AB463">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC463">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -42037,7 +42037,7 @@
         <v>45</v>
       </c>
       <c r="G467" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H467">
         <v>2</v>
@@ -42126,7 +42126,7 @@
         <v>32</v>
       </c>
       <c r="G468" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H468">
         <v>2</v>
@@ -42645,7 +42645,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>6868826</v>
+        <v>6868818</v>
       </c>
       <c r="C474" t="s">
         <v>28</v>
@@ -42657,10 +42657,10 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F474" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G474" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H474">
         <v>1</v>
@@ -42672,61 +42672,61 @@
         <v>53</v>
       </c>
       <c r="K474">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L474">
         <v>3.4</v>
       </c>
       <c r="M474">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N474">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="O474">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P474">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q474">
+        <v>0.25</v>
+      </c>
+      <c r="R474">
+        <v>2.05</v>
+      </c>
+      <c r="S474">
+        <v>1.85</v>
+      </c>
+      <c r="T474">
+        <v>2.25</v>
+      </c>
+      <c r="U474">
+        <v>2.01</v>
+      </c>
+      <c r="V474">
+        <v>1.89</v>
+      </c>
+      <c r="W474">
+        <v>-1</v>
+      </c>
+      <c r="X474">
+        <v>2.25</v>
+      </c>
+      <c r="Y474">
+        <v>-1</v>
+      </c>
+      <c r="Z474">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA474">
         <v>-0.5</v>
       </c>
-      <c r="R474">
-        <v>1.87</v>
-      </c>
-      <c r="S474">
-        <v>2.03</v>
-      </c>
-      <c r="T474">
-        <v>2.5</v>
-      </c>
-      <c r="U474">
-        <v>2.07</v>
-      </c>
-      <c r="V474">
-        <v>1.83</v>
-      </c>
-      <c r="W474">
-        <v>-1</v>
-      </c>
-      <c r="X474">
-        <v>2.5</v>
-      </c>
-      <c r="Y474">
-        <v>-1</v>
-      </c>
-      <c r="Z474">
-        <v>-1</v>
-      </c>
-      <c r="AA474">
-        <v>1.03</v>
-      </c>
       <c r="AB474">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC474">
-        <v>0.8300000000000001</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="475" spans="1:29">
@@ -42734,7 +42734,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>6868818</v>
+        <v>6868826</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42746,10 +42746,10 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F475" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G475" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H475">
         <v>1</v>
@@ -42761,61 +42761,61 @@
         <v>53</v>
       </c>
       <c r="K475">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L475">
         <v>3.4</v>
       </c>
       <c r="M475">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N475">
+        <v>1.833</v>
+      </c>
+      <c r="O475">
         <v>3.5</v>
       </c>
-      <c r="O475">
-        <v>3.25</v>
-      </c>
       <c r="P475">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q475">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R475">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S475">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="T475">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U475">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="V475">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="W475">
         <v>-1</v>
       </c>
       <c r="X475">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y475">
         <v>-1</v>
       </c>
       <c r="Z475">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA475">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
       <c r="AB475">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC475">
-        <v>0.445</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="476" spans="1:29">
@@ -42838,7 +42838,7 @@
         <v>49</v>
       </c>
       <c r="G476" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H476">
         <v>0</v>
@@ -43018,6 +43018,15 @@
       <c r="G478" t="s">
         <v>41</v>
       </c>
+      <c r="H478">
+        <v>0</v>
+      </c>
+      <c r="I478">
+        <v>2</v>
+      </c>
+      <c r="J478" t="s">
+        <v>52</v>
+      </c>
       <c r="K478">
         <v>2.375</v>
       </c>
@@ -43028,46 +43037,52 @@
         <v>3.25</v>
       </c>
       <c r="N478">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O478">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P478">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q478">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R478">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="S478">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="T478">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U478">
-        <v>2.09</v>
+        <v>1.75</v>
       </c>
       <c r="V478">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="W478">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X478">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y478">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Z478">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA478">
-        <v>0</v>
+        <v>1.03</v>
+      </c>
+      <c r="AB478">
+        <v>0.375</v>
+      </c>
+      <c r="AC478">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -43105,28 +43120,28 @@
         <v>1.55</v>
       </c>
       <c r="O479">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P479">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q479">
         <v>-1</v>
       </c>
       <c r="R479">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="S479">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T479">
         <v>2.25</v>
       </c>
       <c r="U479">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V479">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="W479">
         <v>0</v>
@@ -43176,31 +43191,31 @@
         <v>3.5</v>
       </c>
       <c r="N480">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O480">
         <v>3.4</v>
       </c>
       <c r="P480">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q480">
         <v>-0.25</v>
       </c>
       <c r="R480">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S480">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T480">
         <v>2.5</v>
       </c>
       <c r="U480">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="V480">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="W480">
         <v>0</v>
@@ -43250,31 +43265,31 @@
         <v>2.7</v>
       </c>
       <c r="N481">
+        <v>3</v>
+      </c>
+      <c r="O481">
         <v>3.1</v>
       </c>
-      <c r="O481">
-        <v>2.875</v>
-      </c>
       <c r="P481">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q481">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R481">
-        <v>2.155</v>
+        <v>1.78</v>
       </c>
       <c r="S481">
-        <v>1.76</v>
+        <v>2.125</v>
       </c>
       <c r="T481">
         <v>2.25</v>
       </c>
       <c r="U481">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V481">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="W481">
         <v>0</v>
@@ -43330,7 +43345,7 @@
         <v>3</v>
       </c>
       <c r="P482">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q482">
         <v>-0.25</v>
@@ -43345,10 +43360,10 @@
         <v>2</v>
       </c>
       <c r="U482">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V482">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W482">
         <v>0</v>
@@ -43410,19 +43425,19 @@
         <v>-1.5</v>
       </c>
       <c r="R483">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="S483">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="T483">
         <v>2.75</v>
       </c>
       <c r="U483">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V483">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="W483">
         <v>0</v>
@@ -43472,10 +43487,10 @@
         <v>1.909</v>
       </c>
       <c r="N484">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O484">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P484">
         <v>1.833</v>
@@ -43484,10 +43499,10 @@
         <v>0.5</v>
       </c>
       <c r="R484">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="S484">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T484">
         <v>2.5</v>
@@ -43531,7 +43546,7 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F485" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G485" t="s">
         <v>37</v>
@@ -43620,22 +43635,22 @@
         <v>3</v>
       </c>
       <c r="N486">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O486">
         <v>3.4</v>
       </c>
       <c r="P486">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q486">
         <v>-0.25</v>
       </c>
       <c r="R486">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="S486">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="T486">
         <v>2.75</v>
@@ -43679,7 +43694,7 @@
         <v>45348.60416666666</v>
       </c>
       <c r="F487" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G487" t="s">
         <v>32</v>
@@ -43697,7 +43712,7 @@
         <v>1.909</v>
       </c>
       <c r="O487">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P487">
         <v>4.5</v>
@@ -43715,10 +43730,10 @@
         <v>2</v>
       </c>
       <c r="U487">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V487">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="W487">
         <v>0</v>
@@ -43753,7 +43768,7 @@
         <v>45348.69791666666</v>
       </c>
       <c r="F488" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G488" t="s">
         <v>41</v>
@@ -43768,22 +43783,22 @@
         <v>3.2</v>
       </c>
       <c r="N488">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O488">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P488">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q488">
         <v>-0.25</v>
       </c>
       <c r="R488">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S488">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T488">
         <v>2.25</v>
@@ -43842,31 +43857,31 @@
         <v>2</v>
       </c>
       <c r="N489">
+        <v>4</v>
+      </c>
+      <c r="O489">
         <v>3.6</v>
       </c>
-      <c r="O489">
-        <v>3.5</v>
-      </c>
       <c r="P489">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q489">
         <v>0.5</v>
       </c>
       <c r="R489">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S489">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T489">
         <v>2.75</v>
       </c>
       <c r="U489">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V489">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W489">
         <v>0</v>
@@ -43916,22 +43931,22 @@
         <v>5</v>
       </c>
       <c r="N490">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O490">
         <v>3.6</v>
       </c>
       <c r="P490">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q490">
         <v>-0.75</v>
       </c>
       <c r="R490">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="S490">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="T490">
         <v>2.75</v>
@@ -43955,6 +43970,80 @@
         <v>0</v>
       </c>
       <c r="AA490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:27">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>6868842</v>
+      </c>
+      <c r="C491" t="s">
+        <v>28</v>
+      </c>
+      <c r="D491" t="s">
+        <v>28</v>
+      </c>
+      <c r="E491" s="2">
+        <v>45352.69791666666</v>
+      </c>
+      <c r="F491" t="s">
+        <v>41</v>
+      </c>
+      <c r="G491" t="s">
+        <v>43</v>
+      </c>
+      <c r="K491">
+        <v>2.7</v>
+      </c>
+      <c r="L491">
+        <v>3.2</v>
+      </c>
+      <c r="M491">
+        <v>2.7</v>
+      </c>
+      <c r="N491">
+        <v>2.75</v>
+      </c>
+      <c r="O491">
+        <v>3.2</v>
+      </c>
+      <c r="P491">
+        <v>2.6</v>
+      </c>
+      <c r="Q491">
+        <v>0</v>
+      </c>
+      <c r="R491">
+        <v>2.06</v>
+      </c>
+      <c r="S491">
+        <v>1.84</v>
+      </c>
+      <c r="T491">
+        <v>2.25</v>
+      </c>
+      <c r="U491">
+        <v>1.87</v>
+      </c>
+      <c r="V491">
+        <v>2.03</v>
+      </c>
+      <c r="W491">
+        <v>0</v>
+      </c>
+      <c r="X491">
+        <v>0</v>
+      </c>
+      <c r="Y491">
+        <v>0</v>
+      </c>
+      <c r="Z491">
+        <v>0</v>
+      </c>
+      <c r="AA491">
         <v>0</v>
       </c>
     </row>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -109,16 +109,16 @@
     <t>Salernitana</t>
   </si>
   <si>
+    <t>Torino</t>
+  </si>
+  <si>
     <t>Spezia</t>
   </si>
   <si>
-    <t>Torino</t>
+    <t>Lecce</t>
   </si>
   <si>
     <t>Roma</t>
-  </si>
-  <si>
-    <t>Lecce</t>
   </si>
   <si>
     <t>Cremonese</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC491"/>
+  <dimension ref="A1:AC493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5208269</v>
+        <v>5208270</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -830,73 +830,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>53</v>
       </c>
       <c r="K4">
+        <v>1.8</v>
+      </c>
+      <c r="L4">
+        <v>3.5</v>
+      </c>
+      <c r="M4">
         <v>4.5</v>
       </c>
-      <c r="L4">
-        <v>3.75</v>
-      </c>
-      <c r="M4">
-        <v>1.75</v>
-      </c>
       <c r="N4">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="O4">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>1.727</v>
+        <v>5.75</v>
       </c>
       <c r="Q4">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R4">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="S4">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="V4">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.9299999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.5349999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5208270</v>
+        <v>5208269</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -919,73 +919,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>53</v>
       </c>
       <c r="K5">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N5">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R5">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="S5">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="V5">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.5349999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5208266</v>
+        <v>5208265</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1008,55 +1008,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>54</v>
       </c>
       <c r="K6">
-        <v>1.55</v>
+        <v>4.1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="N6">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="S6">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V6">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W6">
-        <v>0.6659999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1065,16 +1065,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.485</v>
+        <v>1.08</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC6">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5208265</v>
+        <v>5208266</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1097,55 +1097,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>54</v>
       </c>
       <c r="K7">
-        <v>4.1</v>
+        <v>1.55</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>1.85</v>
+        <v>5.75</v>
       </c>
       <c r="N7">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="S7">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V7">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W7">
-        <v>2.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1154,16 +1154,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>1.08</v>
+        <v>0.485</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1809,7 +1809,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1984,10 +1984,10 @@
         <v>44934.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2607,7 +2607,7 @@
         <v>44940.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
@@ -2963,10 +2963,10 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
         <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>44941.69791666666</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>36</v>
@@ -3322,7 +3322,7 @@
         <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3500,7 +3500,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3764,10 +3764,10 @@
         <v>44948.58333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>45</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4298,7 +4298,7 @@
         <v>44953.69791666666</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
         <v>30</v>
@@ -4390,7 +4390,7 @@
         <v>48</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4924,7 +4924,7 @@
         <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5188,7 +5188,7 @@
         <v>44961.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
         <v>48</v>
@@ -5366,7 +5366,7 @@
         <v>44962.35416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5455,7 +5455,7 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>38</v>
@@ -5992,7 +5992,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6081,7 +6081,7 @@
         <v>48</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6167,10 +6167,10 @@
         <v>44968.58333333334</v>
       </c>
       <c r="F64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
         <v>34</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7502,7 +7502,7 @@
         <v>44976.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>39</v>
@@ -7591,7 +7591,7 @@
         <v>44976.69791666666</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>44</v>
@@ -7680,7 +7680,7 @@
         <v>44977.69791666666</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>35</v>
@@ -7858,7 +7858,7 @@
         <v>44982.69791666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
         <v>29</v>
@@ -8128,7 +8128,7 @@
         <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8484,7 +8484,7 @@
         <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8573,7 +8573,7 @@
         <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>4</v>
@@ -9015,7 +9015,7 @@
         <v>44990.35416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>44</v>
@@ -9196,7 +9196,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9282,7 +9282,7 @@
         <v>44990.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
         <v>39</v>
@@ -9460,7 +9460,7 @@
         <v>44991.69791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
         <v>45</v>
@@ -9549,7 +9549,7 @@
         <v>44995.69791666666</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>37</v>
@@ -9905,10 +9905,10 @@
         <v>44997.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -10172,7 +10172,7 @@
         <v>44997.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -10442,7 +10442,7 @@
         <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10973,7 +10973,7 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>46</v>
@@ -11065,7 +11065,7 @@
         <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11154,7 +11154,7 @@
         <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11685,7 +11685,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
         <v>30</v>
@@ -11863,7 +11863,7 @@
         <v>45018.54166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
         <v>42</v>
@@ -12044,7 +12044,7 @@
         <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12133,7 +12133,7 @@
         <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12308,7 +12308,7 @@
         <v>45023.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>46</v>
@@ -12578,7 +12578,7 @@
         <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12842,10 +12842,10 @@
         <v>45024.5625</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -13198,7 +13198,7 @@
         <v>45030.65625</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
         <v>41</v>
@@ -13554,7 +13554,7 @@
         <v>45032.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>42</v>
@@ -13643,7 +13643,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
         <v>30</v>
@@ -13821,7 +13821,7 @@
         <v>45032.65625</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -14180,7 +14180,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14269,7 +14269,7 @@
         <v>42</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14625,7 +14625,7 @@
         <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14803,7 +14803,7 @@
         <v>47</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14889,7 +14889,7 @@
         <v>45044.5625</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
         <v>38</v>
@@ -14978,7 +14978,7 @@
         <v>45044.65625</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
         <v>40</v>
@@ -15067,7 +15067,7 @@
         <v>45045.54166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
         <v>43</v>
@@ -15156,7 +15156,7 @@
         <v>45045.65625</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
         <v>47</v>
@@ -15782,7 +15782,7 @@
         <v>47</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -15871,7 +15871,7 @@
         <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -16049,7 +16049,7 @@
         <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5554079</v>
+        <v>5545302</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,76 +16135,76 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>6</v>
+      </c>
+      <c r="J176" t="s">
+        <v>52</v>
+      </c>
+      <c r="K176">
+        <v>5</v>
+      </c>
+      <c r="L176">
+        <v>3.6</v>
+      </c>
+      <c r="M176">
+        <v>1.7</v>
+      </c>
+      <c r="N176">
+        <v>5.75</v>
+      </c>
+      <c r="O176">
+        <v>4</v>
+      </c>
+      <c r="P176">
+        <v>1.6</v>
+      </c>
+      <c r="Q176">
         <v>1</v>
       </c>
-      <c r="I176">
-        <v>1</v>
-      </c>
-      <c r="J176" t="s">
-        <v>53</v>
-      </c>
-      <c r="K176">
-        <v>3.8</v>
-      </c>
-      <c r="L176">
-        <v>3.2</v>
-      </c>
-      <c r="M176">
-        <v>2.05</v>
-      </c>
-      <c r="N176">
-        <v>4</v>
-      </c>
-      <c r="O176">
-        <v>3.2</v>
-      </c>
-      <c r="P176">
-        <v>2.05</v>
-      </c>
-      <c r="Q176">
-        <v>0.5</v>
-      </c>
       <c r="R176">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="S176">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V176">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z176">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AB176">
-        <v>0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC176">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16212,7 +16212,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5545302</v>
+        <v>5554078</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16224,76 +16224,76 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K177">
+        <v>1.333</v>
+      </c>
+      <c r="L177">
         <v>5</v>
       </c>
-      <c r="L177">
-        <v>3.6</v>
-      </c>
       <c r="M177">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="N177">
-        <v>5.75</v>
+        <v>1.363</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P177">
-        <v>1.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q177">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R177">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="S177">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="T177">
         <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="V177">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y177">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AB177">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16301,7 +16301,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5554078</v>
+        <v>5554079</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16313,10 +16313,10 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16328,61 +16328,61 @@
         <v>53</v>
       </c>
       <c r="K178">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="L178">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M178">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="N178">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="O178">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P178">
-        <v>9.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R178">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="S178">
+        <v>2.06</v>
+      </c>
+      <c r="T178">
+        <v>2</v>
+      </c>
+      <c r="U178">
+        <v>1.85</v>
+      </c>
+      <c r="V178">
         <v>2.05</v>
       </c>
-      <c r="T178">
-        <v>2.5</v>
-      </c>
-      <c r="U178">
-        <v>1.84</v>
-      </c>
-      <c r="V178">
-        <v>2.06</v>
-      </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA178">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC178">
-        <v>1.06</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16758,7 +16758,7 @@
         <v>45052.54166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
         <v>37</v>
@@ -16850,7 +16850,7 @@
         <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17025,7 +17025,7 @@
         <v>45053.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
         <v>40</v>
@@ -17203,7 +17203,7 @@
         <v>45053.65625</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
         <v>44</v>
@@ -17280,7 +17280,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>5559357</v>
+        <v>6594274</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17292,58 +17292,58 @@
         <v>45054.5625</v>
       </c>
       <c r="F189" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H189">
         <v>2</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>54</v>
       </c>
       <c r="K189">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L189">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M189">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N189">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O189">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P189">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R189">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="S189">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>2.025</v>
+        <v>2.03</v>
       </c>
       <c r="V189">
-        <v>1.775</v>
+        <v>1.87</v>
       </c>
       <c r="W189">
-        <v>1.2</v>
+        <v>0.45</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17352,16 +17352,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8899999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6594274</v>
+        <v>5559357</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17381,58 +17381,58 @@
         <v>45054.5625</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G190" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H190">
         <v>2</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>54</v>
       </c>
       <c r="K190">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L190">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M190">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N190">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O190">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P190">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q190">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="S190">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>2.03</v>
+        <v>2.025</v>
       </c>
       <c r="V190">
-        <v>1.87</v>
+        <v>1.775</v>
       </c>
       <c r="W190">
-        <v>0.45</v>
+        <v>1.2</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17441,16 +17441,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>1.07</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC190">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17562,7 +17562,7 @@
         <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17737,7 +17737,7 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
         <v>43</v>
@@ -17918,7 +17918,7 @@
         <v>44</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18185,7 +18185,7 @@
         <v>45</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18805,10 +18805,10 @@
         <v>45067.3125</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -18894,7 +18894,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
         <v>36</v>
@@ -19161,7 +19161,7 @@
         <v>45068.5625</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
         <v>30</v>
@@ -19517,10 +19517,10 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F214" t="s">
+        <v>32</v>
+      </c>
+      <c r="G214" t="s">
         <v>31</v>
-      </c>
-      <c r="G214" t="s">
-        <v>32</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19609,7 +19609,7 @@
         <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19965,7 +19965,7 @@
         <v>40</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20318,7 +20318,7 @@
         <v>45080.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G223" t="s">
         <v>37</v>
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5713502</v>
+        <v>5737535</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,13 +20852,13 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229">
         <v>1</v>
@@ -20867,43 +20867,43 @@
         <v>54</v>
       </c>
       <c r="K229">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L229">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M229">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N229">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="O229">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P229">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q229">
         <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="S229">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="W229">
-        <v>0.6659999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20912,13 +20912,13 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.8799999999999999</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB229">
-        <v>0.95</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5737535</v>
+        <v>5706213</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20944,70 +20944,70 @@
         <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H230">
         <v>2</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K230">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M230">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N230">
+        <v>2.45</v>
+      </c>
+      <c r="O230">
+        <v>3.5</v>
+      </c>
+      <c r="P230">
+        <v>2.75</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>1.87</v>
+      </c>
+      <c r="S230">
+        <v>2.03</v>
+      </c>
+      <c r="T230">
+        <v>2.5</v>
+      </c>
+      <c r="U230">
+        <v>2.07</v>
+      </c>
+      <c r="V230">
+        <v>1.83</v>
+      </c>
+      <c r="W230">
+        <v>-1</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
         <v>1.75</v>
       </c>
-      <c r="O230">
-        <v>3.75</v>
-      </c>
-      <c r="P230">
-        <v>4.75</v>
-      </c>
-      <c r="Q230">
-        <v>-0.75</v>
-      </c>
-      <c r="R230">
-        <v>2.03</v>
-      </c>
-      <c r="S230">
-        <v>1.87</v>
-      </c>
-      <c r="T230">
-        <v>2.25</v>
-      </c>
-      <c r="U230">
-        <v>1.84</v>
-      </c>
-      <c r="V230">
-        <v>2.06</v>
-      </c>
-      <c r="W230">
-        <v>0.75</v>
-      </c>
-      <c r="X230">
-        <v>-1</v>
-      </c>
-      <c r="Y230">
-        <v>-1</v>
-      </c>
       <c r="Z230">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
       <c r="AB230">
-        <v>0.8400000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21018,7 +21018,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>5706213</v>
+        <v>5713502</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21030,73 +21030,73 @@
         <v>45081.66666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G231" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I231">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K231">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L231">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M231">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N231">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O231">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P231">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R231">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S231">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA231">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21285,7 +21285,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6868440</v>
+        <v>6868441</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21297,76 +21297,76 @@
         <v>45157.65625</v>
       </c>
       <c r="F234" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G234" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K234">
+        <v>1.444</v>
+      </c>
+      <c r="L234">
+        <v>4.2</v>
+      </c>
+      <c r="M234">
+        <v>6</v>
+      </c>
+      <c r="N234">
+        <v>1.4</v>
+      </c>
+      <c r="O234">
+        <v>5</v>
+      </c>
+      <c r="P234">
+        <v>7</v>
+      </c>
+      <c r="Q234">
+        <v>-1.25</v>
+      </c>
+      <c r="R234">
+        <v>1.91</v>
+      </c>
+      <c r="S234">
+        <v>1.99</v>
+      </c>
+      <c r="T234">
         <v>3</v>
       </c>
-      <c r="L234">
-        <v>3.3</v>
-      </c>
-      <c r="M234">
-        <v>2.2</v>
-      </c>
-      <c r="N234">
-        <v>3.3</v>
-      </c>
-      <c r="O234">
-        <v>3.25</v>
-      </c>
-      <c r="P234">
-        <v>2.2</v>
-      </c>
-      <c r="Q234">
-        <v>0</v>
-      </c>
-      <c r="R234">
-        <v>2.11</v>
-      </c>
-      <c r="S234">
-        <v>1.79</v>
-      </c>
-      <c r="T234">
-        <v>2.25</v>
-      </c>
       <c r="U234">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="V234">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA234">
-        <v>0.79</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21374,7 +21374,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6868441</v>
+        <v>6868440</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21386,76 +21386,76 @@
         <v>45157.65625</v>
       </c>
       <c r="F235" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G235" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J235" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K235">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L235">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M235">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N235">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="O235">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P235">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q235">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R235">
+        <v>2.11</v>
+      </c>
+      <c r="S235">
+        <v>1.79</v>
+      </c>
+      <c r="T235">
+        <v>2.25</v>
+      </c>
+      <c r="U235">
+        <v>1.99</v>
+      </c>
+      <c r="V235">
         <v>1.91</v>
       </c>
-      <c r="S235">
-        <v>1.99</v>
-      </c>
-      <c r="T235">
-        <v>3</v>
-      </c>
-      <c r="U235">
-        <v>2.01</v>
-      </c>
-      <c r="V235">
-        <v>1.89</v>
-      </c>
       <c r="W235">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z235">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.79</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC235">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21475,7 +21475,7 @@
         <v>45158.5625</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G236" t="s">
         <v>30</v>
@@ -21653,7 +21653,7 @@
         <v>45158.65625</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
         <v>41</v>
@@ -21831,7 +21831,7 @@
         <v>45159.5625</v>
       </c>
       <c r="F240" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
         <v>51</v>
@@ -22190,7 +22190,7 @@
         <v>43</v>
       </c>
       <c r="G244" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H244">
         <v>4</v>
@@ -22279,7 +22279,7 @@
         <v>44</v>
       </c>
       <c r="G245" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H245">
         <v>2</v>
@@ -22353,7 +22353,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6868586</v>
+        <v>6868583</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22365,16 +22365,16 @@
         <v>45165.5625</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G246" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J246" t="s">
         <v>53</v>
@@ -22389,10 +22389,10 @@
         <v>6</v>
       </c>
       <c r="N246">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O246">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P246">
         <v>5</v>
@@ -22401,25 +22401,25 @@
         <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S246">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="T246">
         <v>2.5</v>
       </c>
       <c r="U246">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="V246">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22428,13 +22428,13 @@
         <v>-1</v>
       </c>
       <c r="AA246">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="AB246">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC246">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22442,7 +22442,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6868583</v>
+        <v>6868586</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22454,16 +22454,16 @@
         <v>45165.5625</v>
       </c>
       <c r="F247" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
         <v>53</v>
@@ -22478,10 +22478,10 @@
         <v>6</v>
       </c>
       <c r="N247">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O247">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P247">
         <v>5</v>
@@ -22490,25 +22490,25 @@
         <v>-0.75</v>
       </c>
       <c r="R247">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S247">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="T247">
         <v>2.5</v>
       </c>
       <c r="U247">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="V247">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W247">
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -22517,13 +22517,13 @@
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="AB247">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22988,7 +22988,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F253" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G253" t="s">
         <v>43</v>
@@ -23433,7 +23433,7 @@
         <v>45172.5625</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G258" t="s">
         <v>50</v>
@@ -23611,7 +23611,7 @@
         <v>45172.65625</v>
       </c>
       <c r="F260" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G260" t="s">
         <v>30</v>
@@ -24148,7 +24148,7 @@
         <v>40</v>
       </c>
       <c r="G266" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -24412,7 +24412,7 @@
         <v>45186.65625</v>
       </c>
       <c r="F269" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G269" t="s">
         <v>48</v>
@@ -24504,7 +24504,7 @@
         <v>30</v>
       </c>
       <c r="G270" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -24768,7 +24768,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F273" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G273" t="s">
         <v>50</v>
@@ -25480,10 +25480,10 @@
         <v>45193.65625</v>
       </c>
       <c r="F281" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G281" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H281">
         <v>1</v>
@@ -25572,7 +25572,7 @@
         <v>39</v>
       </c>
       <c r="G282" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -26106,7 +26106,7 @@
         <v>41</v>
       </c>
       <c r="G288" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H288">
         <v>2</v>
@@ -26284,7 +26284,7 @@
         <v>50</v>
       </c>
       <c r="G290" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H290">
         <v>4</v>
@@ -26370,7 +26370,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F291" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G291" t="s">
         <v>46</v>
@@ -26904,7 +26904,7 @@
         <v>45200.65625</v>
       </c>
       <c r="F297" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G297" t="s">
         <v>49</v>
@@ -26993,7 +26993,7 @@
         <v>45201.5625</v>
       </c>
       <c r="F298" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G298" t="s">
         <v>44</v>
@@ -27349,7 +27349,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F302" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G302" t="s">
         <v>29</v>
@@ -27530,7 +27530,7 @@
         <v>39</v>
       </c>
       <c r="G304" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H304">
         <v>2</v>
@@ -27975,7 +27975,7 @@
         <v>51</v>
       </c>
       <c r="G309" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -28239,7 +28239,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F312" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G312" t="s">
         <v>37</v>
@@ -28417,7 +28417,7 @@
         <v>45221.3125</v>
       </c>
       <c r="F314" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G314" t="s">
         <v>40</v>
@@ -28865,7 +28865,7 @@
         <v>38</v>
       </c>
       <c r="G319" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -29218,10 +29218,10 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G323" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H323">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>37</v>
       </c>
       <c r="G327" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -30464,10 +30464,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F337" t="s">
+        <v>34</v>
+      </c>
+      <c r="G337" t="s">
         <v>33</v>
-      </c>
-      <c r="G337" t="s">
-        <v>34</v>
       </c>
       <c r="H337">
         <v>2</v>
@@ -30731,7 +30731,7 @@
         <v>45236.69791666666</v>
       </c>
       <c r="F340" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G340" t="s">
         <v>29</v>
@@ -30998,7 +30998,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F343" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G343" t="s">
         <v>43</v>
@@ -31179,7 +31179,7 @@
         <v>40</v>
       </c>
       <c r="G345" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H345">
         <v>1</v>
@@ -31342,7 +31342,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6868696</v>
+        <v>6868687</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31354,76 +31354,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F347" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G347" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347">
         <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K347">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="L347">
+        <v>3.5</v>
+      </c>
+      <c r="M347">
         <v>3.4</v>
       </c>
-      <c r="M347">
-        <v>2.2</v>
-      </c>
       <c r="N347">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O347">
         <v>3.4</v>
       </c>
       <c r="P347">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q347">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R347">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S347">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="T347">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U347">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="V347">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="W347">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X347">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.51</v>
+        <v>1.04</v>
       </c>
       <c r="AA347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC347">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31431,7 +31431,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6868687</v>
+        <v>6868696</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31443,76 +31443,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F348" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G348" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348">
         <v>1</v>
       </c>
       <c r="J348" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K348">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="L348">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M348">
+        <v>2.2</v>
+      </c>
+      <c r="N348">
         <v>3.4</v>
-      </c>
-      <c r="N348">
-        <v>2</v>
       </c>
       <c r="O348">
         <v>3.4</v>
       </c>
       <c r="P348">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q348">
+        <v>0.25</v>
+      </c>
+      <c r="R348">
+        <v>2.02</v>
+      </c>
+      <c r="S348">
+        <v>1.88</v>
+      </c>
+      <c r="T348">
+        <v>2.5</v>
+      </c>
+      <c r="U348">
+        <v>2</v>
+      </c>
+      <c r="V348">
+        <v>1.9</v>
+      </c>
+      <c r="W348">
+        <v>-1</v>
+      </c>
+      <c r="X348">
+        <v>2.4</v>
+      </c>
+      <c r="Y348">
+        <v>-1</v>
+      </c>
+      <c r="Z348">
+        <v>0.51</v>
+      </c>
+      <c r="AA348">
         <v>-0.5</v>
       </c>
-      <c r="R348">
-        <v>2.04</v>
-      </c>
-      <c r="S348">
-        <v>1.86</v>
-      </c>
-      <c r="T348">
-        <v>2.25</v>
-      </c>
-      <c r="U348">
-        <v>1.89</v>
-      </c>
-      <c r="V348">
-        <v>2.01</v>
-      </c>
-      <c r="W348">
-        <v>1</v>
-      </c>
-      <c r="X348">
-        <v>-1</v>
-      </c>
-      <c r="Y348">
-        <v>-1</v>
-      </c>
-      <c r="Z348">
-        <v>1.04</v>
-      </c>
-      <c r="AA348">
-        <v>-1</v>
-      </c>
       <c r="AB348">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31535,7 +31535,7 @@
         <v>41</v>
       </c>
       <c r="G349" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H349">
         <v>0</v>
@@ -32244,7 +32244,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F357" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G357" t="s">
         <v>38</v>
@@ -32425,7 +32425,7 @@
         <v>44</v>
       </c>
       <c r="G359" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H359">
         <v>2</v>
@@ -32514,7 +32514,7 @@
         <v>45</v>
       </c>
       <c r="G360" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H360">
         <v>2</v>
@@ -32956,7 +32956,7 @@
         <v>45263.35416666666</v>
       </c>
       <c r="F365" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G365" t="s">
         <v>45</v>
@@ -33033,7 +33033,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6868707</v>
+        <v>6868716</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33045,76 +33045,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F366" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G366" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H366">
         <v>3</v>
       </c>
       <c r="I366">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J366" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K366">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L366">
+        <v>3.3</v>
+      </c>
+      <c r="M366">
+        <v>4.25</v>
+      </c>
+      <c r="N366">
+        <v>1.8</v>
+      </c>
+      <c r="O366">
+        <v>3.6</v>
+      </c>
+      <c r="P366">
         <v>4.5</v>
       </c>
-      <c r="M366">
-        <v>6.5</v>
-      </c>
-      <c r="N366">
-        <v>1.4</v>
-      </c>
-      <c r="O366">
-        <v>4.75</v>
-      </c>
-      <c r="P366">
-        <v>7.5</v>
-      </c>
       <c r="Q366">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R366">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="S366">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="T366">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U366">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V366">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W366">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X366">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y366">
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB366">
-        <v>0.51</v>
+        <v>1.04</v>
       </c>
       <c r="AC366">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33122,7 +33122,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6868716</v>
+        <v>6868707</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33134,76 +33134,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F367" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G367" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H367">
         <v>3</v>
       </c>
       <c r="I367">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K367">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L367">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M367">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="N367">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O367">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P367">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q367">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R367">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S367">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T367">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U367">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V367">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W367">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X367">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA367">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
-        <v>1.04</v>
+        <v>0.51</v>
       </c>
       <c r="AC367">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33226,7 +33226,7 @@
         <v>29</v>
       </c>
       <c r="G368" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -33401,7 +33401,7 @@
         <v>45264.69791666666</v>
       </c>
       <c r="F370" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G370" t="s">
         <v>47</v>
@@ -33849,7 +33849,7 @@
         <v>49</v>
       </c>
       <c r="G375" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H375">
         <v>0</v>
@@ -34113,7 +34113,7 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F378" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G378" t="s">
         <v>36</v>
@@ -34205,7 +34205,7 @@
         <v>48</v>
       </c>
       <c r="G379" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H379">
         <v>1</v>
@@ -34469,7 +34469,7 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F382" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G382" t="s">
         <v>49</v>
@@ -34647,7 +34647,7 @@
         <v>45276.69791666666</v>
       </c>
       <c r="F384" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G384" t="s">
         <v>48</v>
@@ -34813,7 +34813,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>6868729</v>
+        <v>6868736</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34825,61 +34825,61 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F386" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G386" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I386">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J386" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K386">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L386">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M386">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N386">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O386">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P386">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q386">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R386">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S386">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T386">
         <v>2.5</v>
       </c>
       <c r="U386">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V386">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W386">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X386">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y386">
         <v>-1</v>
@@ -34891,10 +34891,10 @@
         <v>-0</v>
       </c>
       <c r="AB386">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC386">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -34902,7 +34902,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>6868736</v>
+        <v>6868729</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34914,61 +34914,61 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F387" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G387" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J387" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K387">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L387">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M387">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="N387">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O387">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P387">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q387">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R387">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S387">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T387">
         <v>2.5</v>
       </c>
       <c r="U387">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V387">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W387">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X387">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y387">
         <v>-1</v>
@@ -34980,10 +34980,10 @@
         <v>-0</v>
       </c>
       <c r="AB387">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC387">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -35006,7 +35006,7 @@
         <v>45</v>
       </c>
       <c r="G388" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H388">
         <v>2</v>
@@ -35258,7 +35258,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>6868738</v>
+        <v>6868745</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35270,13 +35270,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F391" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G391" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I391">
         <v>2</v>
@@ -35285,40 +35285,40 @@
         <v>52</v>
       </c>
       <c r="K391">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L391">
         <v>3.4</v>
       </c>
       <c r="M391">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="N391">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O391">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P391">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q391">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R391">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="S391">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="T391">
         <v>2.25</v>
       </c>
       <c r="U391">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V391">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W391">
         <v>-1</v>
@@ -35327,19 +35327,19 @@
         <v>-1</v>
       </c>
       <c r="Y391">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z391">
         <v>-1</v>
       </c>
       <c r="AA391">
-        <v>0.9199999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AB391">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="AC391">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35347,7 +35347,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>6868745</v>
+        <v>6868738</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35359,13 +35359,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F392" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G392" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392">
         <v>2</v>
@@ -35374,40 +35374,40 @@
         <v>52</v>
       </c>
       <c r="K392">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L392">
         <v>3.4</v>
       </c>
       <c r="M392">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="N392">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O392">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P392">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q392">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R392">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="S392">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="T392">
         <v>2.25</v>
       </c>
       <c r="U392">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V392">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="W392">
         <v>-1</v>
@@ -35416,19 +35416,19 @@
         <v>-1</v>
       </c>
       <c r="Y392">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z392">
         <v>-1</v>
       </c>
       <c r="AA392">
-        <v>1.11</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB392">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AC392">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -35436,7 +35436,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>6868742</v>
+        <v>6868744</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35448,76 +35448,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F393" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G393" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393">
+        <v>2</v>
+      </c>
+      <c r="J393" t="s">
+        <v>53</v>
+      </c>
+      <c r="K393">
+        <v>5.75</v>
+      </c>
+      <c r="L393">
+        <v>4</v>
+      </c>
+      <c r="M393">
+        <v>1.533</v>
+      </c>
+      <c r="N393">
+        <v>6.5</v>
+      </c>
+      <c r="O393">
+        <v>4</v>
+      </c>
+      <c r="P393">
+        <v>1.5</v>
+      </c>
+      <c r="Q393">
         <v>1</v>
       </c>
-      <c r="J393" t="s">
-        <v>52</v>
-      </c>
-      <c r="K393">
-        <v>2.8</v>
-      </c>
-      <c r="L393">
-        <v>3.5</v>
-      </c>
-      <c r="M393">
-        <v>2.375</v>
-      </c>
-      <c r="N393">
-        <v>2.8</v>
-      </c>
-      <c r="O393">
-        <v>3.25</v>
-      </c>
-      <c r="P393">
-        <v>2.6</v>
-      </c>
-      <c r="Q393">
-        <v>0</v>
-      </c>
       <c r="R393">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S393">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T393">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U393">
-        <v>2.025</v>
+        <v>1.89</v>
       </c>
       <c r="V393">
-        <v>1.775</v>
+        <v>2.01</v>
       </c>
       <c r="W393">
         <v>-1</v>
       </c>
       <c r="X393">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y393">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z393">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA393">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB393">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC393">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394" spans="1:29">
@@ -35525,7 +35525,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>6868744</v>
+        <v>6868742</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35537,76 +35537,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F394" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G394" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J394" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K394">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="L394">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M394">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N394">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O394">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P394">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R394">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="S394">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T394">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U394">
-        <v>1.89</v>
+        <v>2.025</v>
       </c>
       <c r="V394">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="W394">
         <v>-1</v>
       </c>
       <c r="X394">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y394">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z394">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA394">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB394">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC394">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -35804,7 +35804,7 @@
         <v>45283.45833333334</v>
       </c>
       <c r="F397" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G397" t="s">
         <v>38</v>
@@ -35896,7 +35896,7 @@
         <v>37</v>
       </c>
       <c r="G398" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H398">
         <v>2</v>
@@ -36071,7 +36071,7 @@
         <v>45283.69791666666</v>
       </c>
       <c r="F400" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G400" t="s">
         <v>46</v>
@@ -36252,7 +36252,7 @@
         <v>36</v>
       </c>
       <c r="G402" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H402">
         <v>1</v>
@@ -36519,7 +36519,7 @@
         <v>47</v>
       </c>
       <c r="G405" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H405">
         <v>1</v>
@@ -36964,7 +36964,7 @@
         <v>39</v>
       </c>
       <c r="G410" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H410">
         <v>1</v>
@@ -37317,7 +37317,7 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F414" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G414" t="s">
         <v>51</v>
@@ -37572,7 +37572,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>6868765</v>
+        <v>6868766</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37584,73 +37584,73 @@
         <v>45298.45833333334</v>
       </c>
       <c r="F417" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G417" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H417">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I417">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J417" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K417">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L417">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M417">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N417">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O417">
         <v>3.1</v>
       </c>
       <c r="P417">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q417">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R417">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S417">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="T417">
         <v>2.25</v>
       </c>
       <c r="U417">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="V417">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W417">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X417">
         <v>-1</v>
       </c>
       <c r="Y417">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z417">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA417">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB417">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AC417">
         <v>-1</v>
@@ -37661,7 +37661,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>6868766</v>
+        <v>6868765</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37673,73 +37673,73 @@
         <v>45298.45833333334</v>
       </c>
       <c r="F418" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G418" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I418">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J418" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K418">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="L418">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M418">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="N418">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O418">
         <v>3.1</v>
       </c>
       <c r="P418">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q418">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R418">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S418">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="T418">
         <v>2.25</v>
       </c>
       <c r="U418">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="V418">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W418">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X418">
         <v>-1</v>
       </c>
       <c r="Y418">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z418">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA418">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB418">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AC418">
         <v>-1</v>
@@ -37851,7 +37851,7 @@
         <v>45298.69791666666</v>
       </c>
       <c r="F420" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G420" t="s">
         <v>47</v>
@@ -37928,7 +37928,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>6868770</v>
+        <v>6868776</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37940,76 +37940,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F421" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G421" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K421">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="L421">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M421">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="N421">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O421">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="P421">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q421">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R421">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="S421">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="T421">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U421">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V421">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W421">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X421">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y421">
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>0.385</v>
+        <v>-1</v>
       </c>
       <c r="AA421">
+        <v>0.97</v>
+      </c>
+      <c r="AB421">
+        <v>0.46</v>
+      </c>
+      <c r="AC421">
         <v>-0.5</v>
-      </c>
-      <c r="AB421">
-        <v>-1</v>
-      </c>
-      <c r="AC421">
-        <v>1.05</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -38017,7 +38017,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>6868776</v>
+        <v>6868770</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38029,76 +38029,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F422" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G422" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J422" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K422">
-        <v>1.285</v>
+        <v>2.625</v>
       </c>
       <c r="L422">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M422">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="N422">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="O422">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P422">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q422">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R422">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="S422">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="T422">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U422">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="V422">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="W422">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X422">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
-        <v>-1</v>
+        <v>0.385</v>
       </c>
       <c r="AA422">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AB422">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AC422">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="423" spans="1:29">
@@ -38299,7 +38299,7 @@
         <v>41</v>
       </c>
       <c r="G425" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H425">
         <v>1</v>
@@ -38566,7 +38566,7 @@
         <v>43</v>
       </c>
       <c r="G428" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H428">
         <v>3</v>
@@ -38830,7 +38830,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F431" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G431" t="s">
         <v>44</v>
@@ -39275,7 +39275,7 @@
         <v>45312.69791666666</v>
       </c>
       <c r="F436" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G436" t="s">
         <v>39</v>
@@ -39367,7 +39367,7 @@
         <v>51</v>
       </c>
       <c r="G437" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H437">
         <v>1</v>
@@ -39723,7 +39723,7 @@
         <v>50</v>
       </c>
       <c r="G441" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H441">
         <v>2</v>
@@ -40168,7 +40168,7 @@
         <v>30</v>
       </c>
       <c r="G446" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H446">
         <v>1</v>
@@ -40254,7 +40254,7 @@
         <v>45324.69791666666</v>
       </c>
       <c r="F447" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G447" t="s">
         <v>36</v>
@@ -40699,7 +40699,7 @@
         <v>45326.35416666666</v>
       </c>
       <c r="F452" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G452" t="s">
         <v>30</v>
@@ -41055,7 +41055,7 @@
         <v>45327.69791666666</v>
       </c>
       <c r="F456" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G456" t="s">
         <v>51</v>
@@ -41322,7 +41322,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F459" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G459" t="s">
         <v>37</v>
@@ -41414,7 +41414,7 @@
         <v>29</v>
       </c>
       <c r="G460" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H460">
         <v>1</v>
@@ -41592,7 +41592,7 @@
         <v>45</v>
       </c>
       <c r="G462" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H462">
         <v>4</v>
@@ -42123,10 +42123,10 @@
         <v>45338.625</v>
       </c>
       <c r="F468" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G468" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H468">
         <v>2</v>
@@ -42645,7 +42645,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>6868818</v>
+        <v>6868826</v>
       </c>
       <c r="C474" t="s">
         <v>28</v>
@@ -42657,10 +42657,10 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F474" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G474" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H474">
         <v>1</v>
@@ -42672,61 +42672,61 @@
         <v>53</v>
       </c>
       <c r="K474">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L474">
         <v>3.4</v>
       </c>
       <c r="M474">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N474">
+        <v>1.833</v>
+      </c>
+      <c r="O474">
         <v>3.5</v>
       </c>
-      <c r="O474">
-        <v>3.25</v>
-      </c>
       <c r="P474">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q474">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R474">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S474">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="T474">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U474">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="V474">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="W474">
         <v>-1</v>
       </c>
       <c r="X474">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y474">
         <v>-1</v>
       </c>
       <c r="Z474">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA474">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
       <c r="AB474">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC474">
-        <v>0.445</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="475" spans="1:29">
@@ -42734,7 +42734,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>6868826</v>
+        <v>6868818</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42746,10 +42746,10 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F475" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G475" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H475">
         <v>1</v>
@@ -42761,61 +42761,61 @@
         <v>53</v>
       </c>
       <c r="K475">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L475">
         <v>3.4</v>
       </c>
       <c r="M475">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N475">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="O475">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P475">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q475">
+        <v>0.25</v>
+      </c>
+      <c r="R475">
+        <v>2.05</v>
+      </c>
+      <c r="S475">
+        <v>1.85</v>
+      </c>
+      <c r="T475">
+        <v>2.25</v>
+      </c>
+      <c r="U475">
+        <v>2.01</v>
+      </c>
+      <c r="V475">
+        <v>1.89</v>
+      </c>
+      <c r="W475">
+        <v>-1</v>
+      </c>
+      <c r="X475">
+        <v>2.25</v>
+      </c>
+      <c r="Y475">
+        <v>-1</v>
+      </c>
+      <c r="Z475">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA475">
         <v>-0.5</v>
       </c>
-      <c r="R475">
-        <v>1.87</v>
-      </c>
-      <c r="S475">
-        <v>2.03</v>
-      </c>
-      <c r="T475">
-        <v>2.5</v>
-      </c>
-      <c r="U475">
-        <v>2.07</v>
-      </c>
-      <c r="V475">
-        <v>1.83</v>
-      </c>
-      <c r="W475">
-        <v>-1</v>
-      </c>
-      <c r="X475">
-        <v>2.5</v>
-      </c>
-      <c r="Y475">
-        <v>-1</v>
-      </c>
-      <c r="Z475">
-        <v>-1</v>
-      </c>
-      <c r="AA475">
-        <v>1.03</v>
-      </c>
       <c r="AB475">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC475">
-        <v>0.8300000000000001</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="476" spans="1:29">
@@ -42838,7 +42838,7 @@
         <v>49</v>
       </c>
       <c r="G476" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H476">
         <v>0</v>
@@ -43013,7 +43013,7 @@
         <v>45344.69791666666</v>
       </c>
       <c r="F478" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G478" t="s">
         <v>41</v>
@@ -43179,7 +43179,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>6868836</v>
+        <v>6868835</v>
       </c>
       <c r="C480" t="s">
         <v>28</v>
@@ -43188,34 +43188,34 @@
         <v>28</v>
       </c>
       <c r="E480" s="2">
-        <v>45346.45833333334</v>
+        <v>45346.58333333334</v>
       </c>
       <c r="F480" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G480" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K480">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L480">
+        <v>2.8</v>
+      </c>
+      <c r="M480">
+        <v>2.7</v>
+      </c>
+      <c r="N480">
         <v>3.5</v>
       </c>
-      <c r="M480">
-        <v>3.5</v>
-      </c>
-      <c r="N480">
-        <v>2.2</v>
-      </c>
       <c r="O480">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P480">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q480">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R480">
         <v>1.95</v>
@@ -43224,13 +43224,13 @@
         <v>1.95</v>
       </c>
       <c r="T480">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U480">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="V480">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="W480">
         <v>0</v>
@@ -43253,7 +43253,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>6868835</v>
+        <v>6868830</v>
       </c>
       <c r="C481" t="s">
         <v>28</v>
@@ -43262,49 +43262,49 @@
         <v>28</v>
       </c>
       <c r="E481" s="2">
-        <v>45346.58333333334</v>
+        <v>45346.69791666666</v>
       </c>
       <c r="F481" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G481" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K481">
+        <v>2.25</v>
+      </c>
+      <c r="L481">
         <v>2.875</v>
       </c>
-      <c r="L481">
-        <v>2.8</v>
-      </c>
       <c r="M481">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N481">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O481">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P481">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q481">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R481">
-        <v>1.78</v>
+        <v>2.14</v>
       </c>
       <c r="S481">
-        <v>2.125</v>
+        <v>1.77</v>
       </c>
       <c r="T481">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U481">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="V481">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="W481">
         <v>0</v>
@@ -43327,7 +43327,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>6868830</v>
+        <v>6868831</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43336,49 +43336,49 @@
         <v>28</v>
       </c>
       <c r="E482" s="2">
-        <v>45346.69791666666</v>
+        <v>45347.35416666666</v>
       </c>
       <c r="F482" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G482" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K482">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L482">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="M482">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="N482">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O482">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P482">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q482">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R482">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="S482">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="T482">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U482">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="V482">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="W482">
         <v>0</v>
@@ -43401,7 +43401,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>6868831</v>
+        <v>6868828</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43410,49 +43410,49 @@
         <v>28</v>
       </c>
       <c r="E483" s="2">
-        <v>45347.35416666666</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F483" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G483" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K483">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="L483">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M483">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="N483">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="O483">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P483">
-        <v>9.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q483">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R483">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S483">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="T483">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U483">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V483">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="W483">
         <v>0</v>
@@ -43475,7 +43475,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>6868828</v>
+        <v>6868832</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43484,49 +43484,49 @@
         <v>28</v>
       </c>
       <c r="E484" s="2">
-        <v>45347.45833333334</v>
+        <v>45347.58333333334</v>
       </c>
       <c r="F484" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G484" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K484">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="L484">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M484">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="N484">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="O484">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P484">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="Q484">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R484">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="S484">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="T484">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U484">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="V484">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="W484">
         <v>0</v>
@@ -43549,7 +43549,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>6868832</v>
+        <v>6868833</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43558,49 +43558,49 @@
         <v>28</v>
       </c>
       <c r="E485" s="2">
-        <v>45347.58333333334</v>
+        <v>45347.69791666666</v>
       </c>
       <c r="F485" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G485" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K485">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L485">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M485">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="N485">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="O485">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P485">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="Q485">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R485">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="S485">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="T485">
         <v>2.75</v>
       </c>
       <c r="U485">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V485">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W485">
         <v>0</v>
@@ -43623,7 +43623,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>6868833</v>
+        <v>6868834</v>
       </c>
       <c r="C486" t="s">
         <v>28</v>
@@ -43632,49 +43632,49 @@
         <v>28</v>
       </c>
       <c r="E486" s="2">
-        <v>45347.69791666666</v>
+        <v>45348.60416666666</v>
       </c>
       <c r="F486" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G486" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="K486">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L486">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M486">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N486">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O486">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P486">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q486">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R486">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="S486">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="T486">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U486">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="V486">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="W486">
         <v>0</v>
@@ -43697,7 +43697,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>6868834</v>
+        <v>6868829</v>
       </c>
       <c r="C487" t="s">
         <v>28</v>
@@ -43706,34 +43706,34 @@
         <v>28</v>
       </c>
       <c r="E487" s="2">
-        <v>45348.60416666666</v>
+        <v>45348.69791666666</v>
       </c>
       <c r="F487" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G487" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K487">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L487">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M487">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N487">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O487">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P487">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q487">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R487">
         <v>1.95</v>
@@ -43742,13 +43742,13 @@
         <v>1.95</v>
       </c>
       <c r="T487">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U487">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="V487">
-        <v>2.09</v>
+        <v>1.89</v>
       </c>
       <c r="W487">
         <v>0</v>
@@ -43771,7 +43771,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>6868829</v>
+        <v>6868784</v>
       </c>
       <c r="C488" t="s">
         <v>28</v>
@@ -43780,49 +43780,49 @@
         <v>28</v>
       </c>
       <c r="E488" s="2">
-        <v>45348.69791666666</v>
+        <v>45350.58333333334</v>
       </c>
       <c r="F488" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G488" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K488">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L488">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M488">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N488">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="O488">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P488">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q488">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R488">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S488">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T488">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U488">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="V488">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="W488">
         <v>0</v>
@@ -43845,7 +43845,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>6868784</v>
+        <v>7647946</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43854,49 +43854,49 @@
         <v>28</v>
       </c>
       <c r="E489" s="2">
-        <v>45350.58333333334</v>
+        <v>45350.69791666666</v>
       </c>
       <c r="F489" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G489" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K489">
+        <v>1.7</v>
+      </c>
+      <c r="L489">
         <v>3.6</v>
       </c>
-      <c r="L489">
-        <v>3.5</v>
-      </c>
       <c r="M489">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N489">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O489">
         <v>3.6</v>
       </c>
       <c r="P489">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="Q489">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R489">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S489">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="T489">
         <v>2.75</v>
       </c>
       <c r="U489">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="V489">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="W489">
         <v>0</v>
@@ -43919,7 +43919,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>7647946</v>
+        <v>6868842</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -43928,49 +43928,49 @@
         <v>28</v>
       </c>
       <c r="E490" s="2">
-        <v>45350.69791666666</v>
+        <v>45352.69791666666</v>
       </c>
       <c r="F490" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G490" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K490">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="L490">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M490">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N490">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O490">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P490">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q490">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R490">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="S490">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="T490">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U490">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="V490">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="W490">
         <v>0</v>
@@ -43993,7 +43993,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>6868842</v>
+        <v>6868846</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -44002,63 +44002,211 @@
         <v>28</v>
       </c>
       <c r="E491" s="2">
-        <v>45352.69791666666</v>
+        <v>45353.45833333334</v>
       </c>
       <c r="F491" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G491" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K491">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="L491">
+        <v>3.5</v>
+      </c>
+      <c r="M491">
+        <v>4.75</v>
+      </c>
+      <c r="N491">
+        <v>1.75</v>
+      </c>
+      <c r="O491">
+        <v>3.5</v>
+      </c>
+      <c r="P491">
+        <v>4.75</v>
+      </c>
+      <c r="Q491">
+        <v>-0.75</v>
+      </c>
+      <c r="R491">
+        <v>2.04</v>
+      </c>
+      <c r="S491">
+        <v>1.86</v>
+      </c>
+      <c r="T491">
+        <v>2.5</v>
+      </c>
+      <c r="U491">
+        <v>2.02</v>
+      </c>
+      <c r="V491">
+        <v>1.88</v>
+      </c>
+      <c r="W491">
+        <v>0</v>
+      </c>
+      <c r="X491">
+        <v>0</v>
+      </c>
+      <c r="Y491">
+        <v>0</v>
+      </c>
+      <c r="Z491">
+        <v>0</v>
+      </c>
+      <c r="AA491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:27">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>6868843</v>
+      </c>
+      <c r="C492" t="s">
+        <v>28</v>
+      </c>
+      <c r="D492" t="s">
+        <v>28</v>
+      </c>
+      <c r="E492" s="2">
+        <v>45353.58333333334</v>
+      </c>
+      <c r="F492" t="s">
+        <v>40</v>
+      </c>
+      <c r="G492" t="s">
+        <v>34</v>
+      </c>
+      <c r="K492">
+        <v>3.8</v>
+      </c>
+      <c r="L492">
+        <v>3.5</v>
+      </c>
+      <c r="M492">
+        <v>1.95</v>
+      </c>
+      <c r="N492">
+        <v>3.8</v>
+      </c>
+      <c r="O492">
+        <v>3.5</v>
+      </c>
+      <c r="P492">
+        <v>1.95</v>
+      </c>
+      <c r="Q492">
+        <v>0.5</v>
+      </c>
+      <c r="R492">
+        <v>1.86</v>
+      </c>
+      <c r="S492">
+        <v>2.04</v>
+      </c>
+      <c r="T492">
+        <v>2.5</v>
+      </c>
+      <c r="U492">
+        <v>2.04</v>
+      </c>
+      <c r="V492">
+        <v>1.86</v>
+      </c>
+      <c r="W492">
+        <v>0</v>
+      </c>
+      <c r="X492">
+        <v>0</v>
+      </c>
+      <c r="Y492">
+        <v>0</v>
+      </c>
+      <c r="Z492">
+        <v>0</v>
+      </c>
+      <c r="AA492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:27">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>6868845</v>
+      </c>
+      <c r="C493" t="s">
+        <v>28</v>
+      </c>
+      <c r="D493" t="s">
+        <v>28</v>
+      </c>
+      <c r="E493" s="2">
+        <v>45353.69791666666</v>
+      </c>
+      <c r="F493" t="s">
+        <v>31</v>
+      </c>
+      <c r="G493" t="s">
+        <v>36</v>
+      </c>
+      <c r="K493">
+        <v>2.3</v>
+      </c>
+      <c r="L493">
+        <v>3.1</v>
+      </c>
+      <c r="M493">
         <v>3.2</v>
       </c>
-      <c r="M491">
-        <v>2.7</v>
-      </c>
-      <c r="N491">
-        <v>2.75</v>
-      </c>
-      <c r="O491">
-        <v>3.2</v>
-      </c>
-      <c r="P491">
-        <v>2.6</v>
-      </c>
-      <c r="Q491">
-        <v>0</v>
-      </c>
-      <c r="R491">
-        <v>2.06</v>
-      </c>
-      <c r="S491">
-        <v>1.84</v>
-      </c>
-      <c r="T491">
-        <v>2.25</v>
-      </c>
-      <c r="U491">
-        <v>1.87</v>
-      </c>
-      <c r="V491">
-        <v>2.03</v>
-      </c>
-      <c r="W491">
-        <v>0</v>
-      </c>
-      <c r="X491">
-        <v>0</v>
-      </c>
-      <c r="Y491">
-        <v>0</v>
-      </c>
-      <c r="Z491">
-        <v>0</v>
-      </c>
-      <c r="AA491">
+      <c r="N493">
+        <v>2.375</v>
+      </c>
+      <c r="O493">
+        <v>3.1</v>
+      </c>
+      <c r="P493">
+        <v>3.1</v>
+      </c>
+      <c r="Q493">
+        <v>-0.25</v>
+      </c>
+      <c r="R493">
+        <v>2.1</v>
+      </c>
+      <c r="S493">
+        <v>1.8</v>
+      </c>
+      <c r="T493">
+        <v>2</v>
+      </c>
+      <c r="U493">
+        <v>1.85</v>
+      </c>
+      <c r="V493">
+        <v>2.05</v>
+      </c>
+      <c r="W493">
+        <v>0</v>
+      </c>
+      <c r="X493">
+        <v>0</v>
+      </c>
+      <c r="Y493">
+        <v>0</v>
+      </c>
+      <c r="Z493">
+        <v>0</v>
+      </c>
+      <c r="AA493">
         <v>0</v>
       </c>
     </row>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -43485,10 +43485,10 @@
         <v>-1.5</v>
       </c>
       <c r="R483">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S483">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T483">
         <v>2.75</v>
@@ -43633,10 +43633,10 @@
         <v>1.25</v>
       </c>
       <c r="R485">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S485">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T485">
         <v>2.75</v>
@@ -43716,10 +43716,10 @@
         <v>2.75</v>
       </c>
       <c r="U486">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V486">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W486">
         <v>0</v>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -109,22 +109,19 @@
     <t>Torino</t>
   </si>
   <si>
-    <t>Empoli</t>
+    <t>Cremonese</t>
   </si>
   <si>
-    <t>Cremonese</t>
+    <t>Empoli</t>
   </si>
   <si>
     <t>Napoli</t>
   </si>
   <si>
-    <t>Udinese</t>
+    <t>Lecce</t>
   </si>
   <si>
     <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Lecce</t>
   </si>
   <si>
     <t>AC Milan</t>
@@ -133,13 +130,16 @@
     <t>Roma</t>
   </si>
   <si>
+    <t>Udinese</t>
+  </si>
+  <si>
     <t>Frosinone</t>
   </si>
   <si>
-    <t>Genoa</t>
+    <t>Inter Milan</t>
   </si>
   <si>
-    <t>Inter Milan</t>
+    <t>Genoa</t>
   </si>
   <si>
     <t>Bologna</t>
@@ -741,7 +741,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5702696</v>
+        <v>5706212</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -830,37 +830,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>1.95</v>
@@ -872,31 +872,31 @@
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="V4">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>1.07</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5706212</v>
+        <v>5702696</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -919,37 +919,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K5">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N5">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
         <v>1.95</v>
@@ -961,31 +961,31 @@
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V5">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="W5">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z5">
+        <v>-1</v>
+      </c>
+      <c r="AA5">
         <v>0.95</v>
       </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.9299999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5737536</v>
+        <v>5706213</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1097,52 +1097,52 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
         <v>52</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="N7">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O7">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="Q7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S7">
-        <v>1.82</v>
+        <v>2.03</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="V7">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1151,19 +1151,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.615</v>
+        <v>1.75</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.41</v>
+        <v>1.03</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC7">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1260,7 +1260,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5706213</v>
+        <v>5713502</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1275,70 +1275,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M9">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N9">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S9">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA9">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5713502</v>
+        <v>5737535</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1364,10 +1364,10 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1376,43 +1376,43 @@
         <v>53</v>
       </c>
       <c r="K10">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L10">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q10">
         <v>-0.75</v>
       </c>
       <c r="R10">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="S10">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="V10">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="W10">
-        <v>0.6659999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1421,13 +1421,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8799999999999999</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5737535</v>
+        <v>5737536</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1453,73 +1453,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="L11">
         <v>3.6</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="N11">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="O11">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R11">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S11">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V11">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W11">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z11">
-        <v>0.5149999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>0.41</v>
       </c>
       <c r="AB11">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1539,7 +1539,7 @@
         <v>45157.5625</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -1705,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6868440</v>
+        <v>6868441</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,73 +1720,73 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
+        <v>1.444</v>
+      </c>
+      <c r="L14">
+        <v>4.2</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>1.4</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>-1.25</v>
+      </c>
+      <c r="R14">
+        <v>1.91</v>
+      </c>
+      <c r="S14">
+        <v>1.99</v>
+      </c>
+      <c r="T14">
         <v>3</v>
       </c>
-      <c r="L14">
-        <v>3.3</v>
-      </c>
-      <c r="M14">
-        <v>2.2</v>
-      </c>
-      <c r="N14">
-        <v>3.3</v>
-      </c>
-      <c r="O14">
-        <v>3.25</v>
-      </c>
-      <c r="P14">
-        <v>2.2</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>2.11</v>
-      </c>
-      <c r="S14">
-        <v>1.79</v>
-      </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
       <c r="U14">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="V14">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA14">
-        <v>0.79</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6868441</v>
+        <v>6868440</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,73 +1809,73 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N15">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P15">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q15">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
+        <v>2.11</v>
+      </c>
+      <c r="S15">
+        <v>1.79</v>
+      </c>
+      <c r="T15">
+        <v>2.25</v>
+      </c>
+      <c r="U15">
+        <v>1.99</v>
+      </c>
+      <c r="V15">
         <v>1.91</v>
       </c>
-      <c r="S15">
-        <v>1.99</v>
-      </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15">
-        <v>2.01</v>
-      </c>
-      <c r="V15">
-        <v>1.89</v>
-      </c>
       <c r="W15">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z15">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.79</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC15">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1883,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6868443</v>
+        <v>6868444</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1895,76 +1895,76 @@
         <v>45158.5625</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N16">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
+        <v>1.98</v>
+      </c>
+      <c r="S16">
+        <v>1.92</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
         <v>1.93</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>1.97</v>
       </c>
-      <c r="T16">
-        <v>2.25</v>
-      </c>
-      <c r="U16">
-        <v>1.97</v>
-      </c>
-      <c r="V16">
-        <v>1.93</v>
-      </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
         <v>0.97</v>
-      </c>
-      <c r="AB16">
-        <v>0.97</v>
-      </c>
-      <c r="AC16">
-        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1972,7 +1972,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6868444</v>
+        <v>6868443</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,76 +1984,76 @@
         <v>45158.5625</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K17">
+        <v>1.5</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>5.5</v>
+      </c>
+      <c r="N17">
+        <v>1.5</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>7.5</v>
+      </c>
+      <c r="Q17">
+        <v>-1</v>
+      </c>
+      <c r="R17">
+        <v>1.93</v>
+      </c>
+      <c r="S17">
+        <v>1.97</v>
+      </c>
+      <c r="T17">
+        <v>2.25</v>
+      </c>
+      <c r="U17">
+        <v>1.97</v>
+      </c>
+      <c r="V17">
+        <v>1.93</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
         <v>3</v>
       </c>
-      <c r="L17">
-        <v>3.3</v>
-      </c>
-      <c r="M17">
-        <v>2.2</v>
-      </c>
-      <c r="N17">
-        <v>3.25</v>
-      </c>
-      <c r="O17">
-        <v>3.5</v>
-      </c>
-      <c r="P17">
-        <v>2.2</v>
-      </c>
-      <c r="Q17">
-        <v>0.25</v>
-      </c>
-      <c r="R17">
-        <v>1.98</v>
-      </c>
-      <c r="S17">
-        <v>1.92</v>
-      </c>
-      <c r="T17">
-        <v>2.75</v>
-      </c>
-      <c r="U17">
-        <v>1.93</v>
-      </c>
-      <c r="V17">
-        <v>1.97</v>
-      </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
       <c r="Y17">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.9199999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC17">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2061,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6868442</v>
+        <v>6868446</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2073,73 +2073,73 @@
         <v>45158.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L18">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N18">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O18">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P18">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z18">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB18">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2150,7 +2150,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6868446</v>
+        <v>6868442</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2165,70 +2165,70 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O19">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P19">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AA19">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2343,7 +2343,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2610,7 +2610,7 @@
         <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2696,7 +2696,7 @@
         <v>45164.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -2877,7 +2877,7 @@
         <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2951,7 +2951,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6868587</v>
+        <v>6868590</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2963,49 +2963,49 @@
         <v>45165.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L28">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M28">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="N28">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P28">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U28">
         <v>1.95</v>
@@ -3014,19 +3014,19 @@
         <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
@@ -3040,7 +3040,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6868590</v>
+        <v>6868587</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3052,49 +3052,49 @@
         <v>45165.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29">
+        <v>1.5</v>
+      </c>
+      <c r="L29">
+        <v>4.333</v>
+      </c>
+      <c r="M29">
+        <v>6.5</v>
+      </c>
+      <c r="N29">
+        <v>1.727</v>
+      </c>
+      <c r="O29">
+        <v>3.8</v>
+      </c>
+      <c r="P29">
+        <v>4.5</v>
+      </c>
+      <c r="Q29">
+        <v>-0.75</v>
+      </c>
+      <c r="R29">
         <v>2</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29">
-        <v>1.3</v>
-      </c>
-      <c r="L29">
-        <v>5.5</v>
-      </c>
-      <c r="M29">
-        <v>9</v>
-      </c>
-      <c r="N29">
-        <v>1.333</v>
-      </c>
-      <c r="O29">
-        <v>5.5</v>
-      </c>
-      <c r="P29">
-        <v>8.5</v>
-      </c>
-      <c r="Q29">
-        <v>-1.5</v>
-      </c>
-      <c r="R29">
-        <v>1.92</v>
-      </c>
       <c r="S29">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
         <v>1.95</v>
@@ -3103,19 +3103,19 @@
         <v>1.95</v>
       </c>
       <c r="W29">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z29">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB29">
         <v>-1</v>
@@ -3144,7 +3144,7 @@
         <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6868601</v>
+        <v>6868593</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,76 +3497,76 @@
         <v>45171.5625</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="L34">
+        <v>3.75</v>
+      </c>
+      <c r="M34">
+        <v>5.25</v>
+      </c>
+      <c r="N34">
+        <v>1.75</v>
+      </c>
+      <c r="O34">
         <v>3.6</v>
       </c>
-      <c r="M34">
-        <v>4.333</v>
-      </c>
-      <c r="N34">
-        <v>1.909</v>
-      </c>
-      <c r="O34">
-        <v>3.5</v>
-      </c>
       <c r="P34">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q34">
+        <v>-0.75</v>
+      </c>
+      <c r="R34">
+        <v>2.05</v>
+      </c>
+      <c r="S34">
+        <v>1.88</v>
+      </c>
+      <c r="T34">
+        <v>2.75</v>
+      </c>
+      <c r="U34">
+        <v>2.04</v>
+      </c>
+      <c r="V34">
+        <v>1.86</v>
+      </c>
+      <c r="W34">
+        <v>0.75</v>
+      </c>
+      <c r="X34">
+        <v>-1</v>
+      </c>
+      <c r="Y34">
+        <v>-1</v>
+      </c>
+      <c r="Z34">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA34">
         <v>-0.5</v>
       </c>
-      <c r="R34">
-        <v>1.93</v>
-      </c>
-      <c r="S34">
-        <v>1.97</v>
-      </c>
-      <c r="T34">
-        <v>2.5</v>
-      </c>
-      <c r="U34">
-        <v>2.05</v>
-      </c>
-      <c r="V34">
-        <v>1.85</v>
-      </c>
-      <c r="W34">
-        <v>-1</v>
-      </c>
-      <c r="X34">
-        <v>2.5</v>
-      </c>
-      <c r="Y34">
-        <v>-1</v>
-      </c>
-      <c r="Z34">
-        <v>-1</v>
-      </c>
-      <c r="AA34">
-        <v>0.97</v>
-      </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3574,7 +3574,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6868593</v>
+        <v>6868601</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3586,76 +3586,76 @@
         <v>45171.5625</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="L35">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="N35">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
+        <v>1.93</v>
+      </c>
+      <c r="S35">
+        <v>1.97</v>
+      </c>
+      <c r="T35">
+        <v>2.5</v>
+      </c>
+      <c r="U35">
         <v>2.05</v>
       </c>
-      <c r="S35">
-        <v>1.88</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>2.04</v>
-      </c>
       <c r="V35">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB35">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3841,7 +3841,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6868595</v>
+        <v>6868600</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3853,13 +3853,13 @@
         <v>45172.5625</v>
       </c>
       <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
         <v>41</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
       <c r="H38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3874,37 +3874,37 @@
         <v>3.6</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N38">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O38">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V38">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3913,16 +3913,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6868600</v>
+        <v>6868595</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3942,13 +3942,13 @@
         <v>45172.5625</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3963,37 +3963,37 @@
         <v>3.6</v>
       </c>
       <c r="M39">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N39">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="W39">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4002,16 +4002,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4019,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6868594</v>
+        <v>6868596</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4031,76 +4031,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40">
+        <v>1.95</v>
+      </c>
+      <c r="L40">
+        <v>3.2</v>
+      </c>
+      <c r="M40">
+        <v>4.2</v>
+      </c>
+      <c r="N40">
+        <v>1.909</v>
+      </c>
+      <c r="O40">
+        <v>3.25</v>
+      </c>
+      <c r="P40">
+        <v>4.333</v>
+      </c>
+      <c r="Q40">
+        <v>-0.5</v>
+      </c>
+      <c r="R40">
         <v>2</v>
       </c>
-      <c r="J40" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40">
-        <v>5</v>
-      </c>
-      <c r="L40">
-        <v>3.75</v>
-      </c>
-      <c r="M40">
-        <v>1.666</v>
-      </c>
-      <c r="N40">
-        <v>5.25</v>
-      </c>
-      <c r="O40">
-        <v>4</v>
-      </c>
-      <c r="P40">
-        <v>1.65</v>
-      </c>
-      <c r="Q40">
-        <v>0.75</v>
-      </c>
-      <c r="R40">
-        <v>2.07</v>
-      </c>
       <c r="S40">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA40">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4108,7 +4108,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6868596</v>
+        <v>6868594</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4120,76 +4120,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>2</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
       <c r="J41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="L41">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N41">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="O41">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>4.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R41">
+        <v>2.07</v>
+      </c>
+      <c r="S41">
+        <v>1.83</v>
+      </c>
+      <c r="T41">
+        <v>2.5</v>
+      </c>
+      <c r="U41">
+        <v>1.9</v>
+      </c>
+      <c r="V41">
         <v>2</v>
       </c>
-      <c r="S41">
-        <v>1.9</v>
-      </c>
-      <c r="T41">
-        <v>2.25</v>
-      </c>
-      <c r="U41">
-        <v>2.01</v>
-      </c>
-      <c r="V41">
-        <v>1.89</v>
-      </c>
       <c r="W41">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
         <v>1</v>
-      </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
-      <c r="AB41">
-        <v>-0.5</v>
-      </c>
-      <c r="AC41">
-        <v>0.445</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4298,10 +4298,10 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>5</v>
@@ -4387,7 +4387,7 @@
         <v>45185.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4479,7 +4479,7 @@
         <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6868609</v>
+        <v>6868604</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,76 +4565,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N46">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O46">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="S46">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X46">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.415</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC46">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4642,7 +4642,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6868604</v>
+        <v>6868609</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4654,76 +4654,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K47">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M47">
+        <v>3.5</v>
+      </c>
+      <c r="N47">
         <v>2.4</v>
       </c>
-      <c r="N47">
+      <c r="O47">
+        <v>3.3</v>
+      </c>
+      <c r="P47">
         <v>2.9</v>
       </c>
-      <c r="O47">
-        <v>3.6</v>
-      </c>
-      <c r="P47">
+      <c r="Q47">
+        <v>-0.25</v>
+      </c>
+      <c r="R47">
+        <v>2.07</v>
+      </c>
+      <c r="S47">
+        <v>1.83</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
+        <v>1.86</v>
+      </c>
+      <c r="V47">
+        <v>2.04</v>
+      </c>
+      <c r="W47">
+        <v>-1</v>
+      </c>
+      <c r="X47">
         <v>2.3</v>
       </c>
-      <c r="Q47">
-        <v>0.25</v>
-      </c>
-      <c r="R47">
-        <v>1.86</v>
-      </c>
-      <c r="S47">
-        <v>2.04</v>
-      </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.9</v>
-      </c>
-      <c r="V47">
-        <v>2</v>
-      </c>
-      <c r="W47">
-        <v>1.9</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8600000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.415</v>
       </c>
       <c r="AB47">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4832,10 +4832,10 @@
         <v>45186.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H49">
         <v>7</v>
@@ -5188,10 +5188,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5277,7 +5277,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5544,10 +5544,10 @@
         <v>45193.3125</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5621,7 +5621,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6868621</v>
+        <v>6868612</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5633,76 +5633,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K58">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="L58">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M58">
-        <v>2.25</v>
+        <v>10</v>
       </c>
       <c r="N58">
-        <v>3.2</v>
+        <v>1.444</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P58">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R58">
+        <v>2.01</v>
+      </c>
+      <c r="S58">
         <v>1.89</v>
       </c>
-      <c r="S58">
-        <v>2.01</v>
-      </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V58">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AA58">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.5149999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6868612</v>
+        <v>6868621</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5722,76 +5722,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>2</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
       <c r="J59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K59">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="L59">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M59">
-        <v>10</v>
+        <v>2.25</v>
       </c>
       <c r="N59">
-        <v>1.444</v>
+        <v>3.2</v>
       </c>
       <c r="O59">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q59">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
+        <v>1.89</v>
+      </c>
+      <c r="S59">
         <v>2.01</v>
       </c>
-      <c r="S59">
-        <v>1.89</v>
-      </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="V59">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="W59">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
         <v>1.01</v>
       </c>
-      <c r="AA59">
-        <v>-1</v>
-      </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>0.9299999999999999</v>
+        <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5903,7 +5903,7 @@
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5992,7 +5992,7 @@
         <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6066,7 +6066,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6868623</v>
+        <v>6868622</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6078,76 +6078,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K63">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L63">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="N63">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S63">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="T63">
         <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="V63">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="W63">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z63">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC63">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6155,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6868626</v>
+        <v>6868623</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6167,76 +6167,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K64">
-        <v>4.7</v>
+        <v>2.25</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M64">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N64">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P64">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S64">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="V64">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA64">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8400000000000001</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6868622</v>
+        <v>6868626</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,31 +6256,31 @@
         <v>45196.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>1</v>
-      </c>
-      <c r="I65">
-        <v>3</v>
       </c>
       <c r="J65" t="s">
         <v>52</v>
       </c>
       <c r="K65">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="L65">
         <v>4</v>
       </c>
       <c r="M65">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="N65">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O65">
         <v>3.5</v>
@@ -6298,13 +6298,13 @@
         <v>1.92</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="V65">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6322,10 +6322,10 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="AB65">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6333,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6868631</v>
+        <v>6868627</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6345,76 +6345,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K66">
         <v>1.333</v>
       </c>
       <c r="L66">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M66">
+        <v>7.5</v>
+      </c>
+      <c r="N66">
+        <v>1.25</v>
+      </c>
+      <c r="O66">
+        <v>6.5</v>
+      </c>
+      <c r="P66">
         <v>8.5</v>
       </c>
-      <c r="N66">
-        <v>1.4</v>
-      </c>
-      <c r="O66">
-        <v>5</v>
-      </c>
-      <c r="P66">
-        <v>7</v>
-      </c>
       <c r="Q66">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R66">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="S66">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U66">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W66">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z66">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB66">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6422,7 +6422,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6868627</v>
+        <v>6868629</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6434,76 +6434,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K67">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="L67">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="N67">
+        <v>2.25</v>
+      </c>
+      <c r="O67">
+        <v>3.2</v>
+      </c>
+      <c r="P67">
+        <v>3.4</v>
+      </c>
+      <c r="Q67">
+        <v>-0.25</v>
+      </c>
+      <c r="R67">
+        <v>1.97</v>
+      </c>
+      <c r="S67">
+        <v>1.93</v>
+      </c>
+      <c r="T67">
+        <v>2.25</v>
+      </c>
+      <c r="U67">
+        <v>2.05</v>
+      </c>
+      <c r="V67">
+        <v>1.85</v>
+      </c>
+      <c r="W67">
         <v>1.25</v>
       </c>
-      <c r="O67">
-        <v>6.5</v>
-      </c>
-      <c r="P67">
-        <v>8.5</v>
-      </c>
-      <c r="Q67">
-        <v>-1.75</v>
-      </c>
-      <c r="R67">
-        <v>1.89</v>
-      </c>
-      <c r="S67">
-        <v>2.01</v>
-      </c>
-      <c r="T67">
-        <v>3.75</v>
-      </c>
-      <c r="U67">
-        <v>1.85</v>
-      </c>
-      <c r="V67">
-        <v>2.05</v>
-      </c>
-      <c r="W67">
-        <v>-1</v>
-      </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA67">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC67">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6511,7 +6511,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6868629</v>
+        <v>6868631</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6523,58 +6523,58 @@
         <v>45196.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>53</v>
       </c>
       <c r="K68">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>8.5</v>
       </c>
       <c r="N68">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O68">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R68">
+        <v>1.93</v>
+      </c>
+      <c r="S68">
         <v>1.97</v>
       </c>
-      <c r="S68">
-        <v>1.93</v>
-      </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="W68">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6583,16 +6583,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AC68">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6701,10 +6701,10 @@
         <v>45197.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6790,7 +6790,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -6879,7 +6879,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>47</v>
@@ -6971,7 +6971,7 @@
         <v>48</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7060,7 +7060,7 @@
         <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7146,10 +7146,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7324,7 +7324,7 @@
         <v>45200.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
         <v>39</v>
@@ -7680,10 +7680,10 @@
         <v>45205.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -7858,7 +7858,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
         <v>42</v>
@@ -8036,10 +8036,10 @@
         <v>45206.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6868648</v>
+        <v>6868644</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8214,58 +8214,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>53</v>
       </c>
       <c r="K87">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L87">
         <v>3.4</v>
       </c>
       <c r="M87">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N87">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O87">
+        <v>3.4</v>
+      </c>
+      <c r="P87">
         <v>3.3</v>
       </c>
-      <c r="P87">
-        <v>2.45</v>
-      </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="S87">
-        <v>2.125</v>
+        <v>2.01</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="V87">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="W87">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8274,13 +8274,13 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.78</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.9199999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8291,7 +8291,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6868644</v>
+        <v>6868648</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8303,58 +8303,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G88" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
         <v>2</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>53</v>
       </c>
       <c r="K88">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
+        <v>2.625</v>
+      </c>
+      <c r="N88">
+        <v>2.9</v>
+      </c>
+      <c r="O88">
         <v>3.3</v>
       </c>
-      <c r="N88">
-        <v>2.2</v>
-      </c>
-      <c r="O88">
-        <v>3.4</v>
-      </c>
       <c r="P88">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
+        <v>1.78</v>
+      </c>
+      <c r="S88">
+        <v>2.125</v>
+      </c>
+      <c r="T88">
+        <v>2.25</v>
+      </c>
+      <c r="U88">
         <v>1.92</v>
       </c>
-      <c r="S88">
-        <v>2.01</v>
-      </c>
-      <c r="T88">
-        <v>2.5</v>
-      </c>
-      <c r="U88">
-        <v>1.99</v>
-      </c>
       <c r="V88">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W88">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8363,13 +8363,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
+        <v>0.78</v>
+      </c>
+      <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
         <v>0.9199999999999999</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>0.99</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8395,7 +8395,7 @@
         <v>49</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8662,7 +8662,7 @@
         <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>45221.3125</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -8914,7 +8914,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6868653</v>
+        <v>6868658</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8926,73 +8926,73 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G95" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K95">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M95">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N95">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P95">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="V95">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="W95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AB95">
-        <v>0.8500000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6868658</v>
+        <v>6868653</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,73 +9015,73 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K96">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L96">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N96">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O96">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X96">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
+        <v>0.475</v>
+      </c>
+      <c r="AA96">
         <v>-0.5</v>
       </c>
-      <c r="AA96">
-        <v>0.46</v>
-      </c>
       <c r="AB96">
-        <v>0.98</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9107,7 +9107,7 @@
         <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9193,7 +9193,7 @@
         <v>45221.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>45</v>
@@ -9282,10 +9282,10 @@
         <v>45222.5625</v>
       </c>
       <c r="F99" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99" t="s">
         <v>34</v>
-      </c>
-      <c r="G99" t="s">
-        <v>36</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9374,7 +9374,7 @@
         <v>46</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
         <v>48</v>
@@ -9638,7 +9638,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9908,7 +9908,7 @@
         <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9994,10 +9994,10 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10086,7 +10086,7 @@
         <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10172,7 +10172,7 @@
         <v>45229.60416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>35</v>
@@ -10531,7 +10531,7 @@
         <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10617,10 +10617,10 @@
         <v>45234.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10798,7 +10798,7 @@
         <v>49</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10884,10 +10884,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11065,7 +11065,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11329,7 +11329,7 @@
         <v>45240.69791666666</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s">
         <v>44</v>
@@ -11418,10 +11418,10 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F123" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" t="s">
         <v>36</v>
-      </c>
-      <c r="G123" t="s">
-        <v>37</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11688,7 +11688,7 @@
         <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11774,7 +11774,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
         <v>35</v>
@@ -11955,7 +11955,7 @@
         <v>47</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12041,7 +12041,7 @@
         <v>45242.69791666666</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
         <v>39</v>
@@ -12308,7 +12308,7 @@
         <v>45255.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>46</v>
@@ -12474,7 +12474,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6868701</v>
+        <v>6868700</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12486,73 +12486,73 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K135">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L135">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="N135">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P135">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W135">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z135">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB135">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6868700</v>
+        <v>6868701</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,73 +12575,73 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>53</v>
+      </c>
+      <c r="K136">
+        <v>2.4</v>
+      </c>
+      <c r="L136">
+        <v>3.25</v>
+      </c>
+      <c r="M136">
+        <v>2.9</v>
+      </c>
+      <c r="N136">
+        <v>2.375</v>
+      </c>
+      <c r="O136">
+        <v>3.25</v>
+      </c>
+      <c r="P136">
         <v>3</v>
       </c>
-      <c r="I136">
-        <v>4</v>
-      </c>
-      <c r="J136" t="s">
-        <v>52</v>
-      </c>
-      <c r="K136">
-        <v>2.9</v>
-      </c>
-      <c r="L136">
-        <v>3.4</v>
-      </c>
-      <c r="M136">
-        <v>2.375</v>
-      </c>
-      <c r="N136">
-        <v>2.625</v>
-      </c>
-      <c r="O136">
-        <v>3.5</v>
-      </c>
-      <c r="P136">
-        <v>2.6</v>
-      </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
+        <v>2.09</v>
+      </c>
+      <c r="S136">
+        <v>1.81</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
         <v>1.95</v>
       </c>
-      <c r="S136">
+      <c r="V136">
         <v>1.95</v>
       </c>
-      <c r="T136">
-        <v>2.75</v>
-      </c>
-      <c r="U136">
-        <v>1.85</v>
-      </c>
-      <c r="V136">
-        <v>2.05</v>
-      </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
         <v>0.95</v>
-      </c>
-      <c r="AB136">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12664,10 +12664,10 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F137" t="s">
+        <v>37</v>
+      </c>
+      <c r="G137" t="s">
         <v>38</v>
-      </c>
-      <c r="G137" t="s">
-        <v>34</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12756,7 +12756,7 @@
         <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12845,7 +12845,7 @@
         <v>44</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13109,10 +13109,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13287,7 +13287,7 @@
         <v>45262.69791666666</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
         <v>39</v>
@@ -13376,7 +13376,7 @@
         <v>45263.35416666666</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13554,7 +13554,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
         <v>44</v>
@@ -13646,7 +13646,7 @@
         <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13735,7 +13735,7 @@
         <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -14091,7 +14091,7 @@
         <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14177,10 +14177,10 @@
         <v>45269.69791666666</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H154">
         <v>4</v>
@@ -14358,7 +14358,7 @@
         <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14533,7 +14533,7 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
         <v>46</v>
@@ -14622,10 +14622,10 @@
         <v>45271.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14800,7 +14800,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
         <v>45</v>
@@ -14889,7 +14889,7 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
         <v>39</v>
@@ -15070,7 +15070,7 @@
         <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15156,7 +15156,7 @@
         <v>45277.35416666666</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
         <v>43</v>
@@ -15233,7 +15233,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6868736</v>
+        <v>6868729</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15245,61 +15245,61 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K166">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M166">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="N166">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O166">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P166">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R166">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S166">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V166">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X166">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
@@ -15311,10 +15311,10 @@
         <v>-0</v>
       </c>
       <c r="AB166">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15322,7 +15322,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6868729</v>
+        <v>6868736</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15334,61 +15334,61 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K167">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L167">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M167">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N167">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O167">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q167">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S167">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V167">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W167">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y167">
         <v>-1</v>
@@ -15400,10 +15400,10 @@
         <v>-0</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC167">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15426,7 +15426,7 @@
         <v>42</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15515,7 +15515,7 @@
         <v>47</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15693,7 +15693,7 @@
         <v>29</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15779,7 +15779,7 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
         <v>47</v>
@@ -15871,7 +15871,7 @@
         <v>48</v>
       </c>
       <c r="G173" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6868737</v>
+        <v>6868746</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,76 +16135,76 @@
         <v>45283.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K176">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="L176">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N176">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="O176">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P176">
+        <v>5.5</v>
+      </c>
+      <c r="Q176">
+        <v>-0.75</v>
+      </c>
+      <c r="R176">
+        <v>1.85</v>
+      </c>
+      <c r="S176">
+        <v>2.05</v>
+      </c>
+      <c r="T176">
+        <v>2.25</v>
+      </c>
+      <c r="U176">
+        <v>1.99</v>
+      </c>
+      <c r="V176">
+        <v>1.91</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
         <v>2.75</v>
       </c>
-      <c r="Q176">
-        <v>0</v>
-      </c>
-      <c r="R176">
-        <v>1.95</v>
-      </c>
-      <c r="S176">
-        <v>1.95</v>
-      </c>
-      <c r="T176">
-        <v>2</v>
-      </c>
-      <c r="U176">
-        <v>1.85</v>
-      </c>
-      <c r="V176">
-        <v>2.05</v>
-      </c>
-      <c r="W176">
-        <v>1.8</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC176">
-        <v>1.05</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16212,7 +16212,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6868746</v>
+        <v>6868737</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16224,76 +16224,76 @@
         <v>45283.45833333334</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K177">
+        <v>2.7</v>
+      </c>
+      <c r="L177">
+        <v>3.25</v>
+      </c>
+      <c r="M177">
+        <v>2.45</v>
+      </c>
+      <c r="N177">
+        <v>2.8</v>
+      </c>
+      <c r="O177">
+        <v>3</v>
+      </c>
+      <c r="P177">
+        <v>2.75</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>1.95</v>
+      </c>
+      <c r="S177">
+        <v>1.95</v>
+      </c>
+      <c r="T177">
+        <v>2</v>
+      </c>
+      <c r="U177">
         <v>1.85</v>
       </c>
-      <c r="L177">
-        <v>3.3</v>
-      </c>
-      <c r="M177">
-        <v>4.2</v>
-      </c>
-      <c r="N177">
-        <v>1.65</v>
-      </c>
-      <c r="O177">
-        <v>3.75</v>
-      </c>
-      <c r="P177">
-        <v>5.5</v>
-      </c>
-      <c r="Q177">
-        <v>-0.75</v>
-      </c>
-      <c r="R177">
-        <v>1.85</v>
-      </c>
-      <c r="S177">
+      <c r="V177">
         <v>2.05</v>
       </c>
-      <c r="T177">
-        <v>2.25</v>
-      </c>
-      <c r="U177">
-        <v>1.99</v>
-      </c>
-      <c r="V177">
-        <v>1.91</v>
-      </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X177">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
         <v>1.05</v>
-      </c>
-      <c r="AB177">
-        <v>-0.5</v>
-      </c>
-      <c r="AC177">
-        <v>0.455</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16301,7 +16301,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6868741</v>
+        <v>6868740</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16313,10 +16313,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16328,43 +16328,43 @@
         <v>53</v>
       </c>
       <c r="K178">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="L178">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M178">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="N178">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O178">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P178">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q178">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S178">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16373,16 +16373,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC178">
-        <v>1.04</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6868740</v>
+        <v>6868741</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,10 +16402,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16417,43 +16417,43 @@
         <v>53</v>
       </c>
       <c r="K179">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M179">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="N179">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O179">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P179">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R179">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="S179">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W179">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16462,16 +16462,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.475</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16491,7 +16491,7 @@
         <v>45283.69791666666</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
         <v>33</v>
@@ -16758,10 +16758,10 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F183" t="s">
+        <v>41</v>
+      </c>
+      <c r="G183" t="s">
         <v>40</v>
-      </c>
-      <c r="G183" t="s">
-        <v>41</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16939,7 +16939,7 @@
         <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17013,7 +17013,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6868756</v>
+        <v>6868748</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17025,76 +17025,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K186">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L186">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
+        <v>3.75</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186">
+        <v>3.5</v>
+      </c>
+      <c r="P186">
+        <v>3.75</v>
+      </c>
+      <c r="Q186">
+        <v>-0.5</v>
+      </c>
+      <c r="R186">
+        <v>2.05</v>
+      </c>
+      <c r="S186">
+        <v>1.85</v>
+      </c>
+      <c r="T186">
         <v>2.5</v>
       </c>
-      <c r="N186">
-        <v>3.6</v>
-      </c>
-      <c r="O186">
-        <v>3</v>
-      </c>
-      <c r="P186">
-        <v>2.25</v>
-      </c>
-      <c r="Q186">
-        <v>0.25</v>
-      </c>
-      <c r="R186">
-        <v>1.9</v>
-      </c>
-      <c r="S186">
-        <v>2</v>
-      </c>
-      <c r="T186">
-        <v>2</v>
-      </c>
       <c r="U186">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V186">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W186">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB186">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17102,7 +17102,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6868748</v>
+        <v>6868756</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17114,76 +17114,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K187">
+        <v>2.8</v>
+      </c>
+      <c r="L187">
+        <v>3.2</v>
+      </c>
+      <c r="M187">
+        <v>2.5</v>
+      </c>
+      <c r="N187">
+        <v>3.6</v>
+      </c>
+      <c r="O187">
+        <v>3</v>
+      </c>
+      <c r="P187">
+        <v>2.25</v>
+      </c>
+      <c r="Q187">
+        <v>0.25</v>
+      </c>
+      <c r="R187">
+        <v>1.9</v>
+      </c>
+      <c r="S187">
         <v>2</v>
       </c>
-      <c r="L187">
-        <v>3.4</v>
-      </c>
-      <c r="M187">
-        <v>3.75</v>
-      </c>
-      <c r="N187">
+      <c r="T187">
         <v>2</v>
       </c>
-      <c r="O187">
-        <v>3.5</v>
-      </c>
-      <c r="P187">
-        <v>3.75</v>
-      </c>
-      <c r="Q187">
-        <v>-0.5</v>
-      </c>
-      <c r="R187">
-        <v>2.05</v>
-      </c>
-      <c r="S187">
-        <v>1.85</v>
-      </c>
-      <c r="T187">
-        <v>2.5</v>
-      </c>
       <c r="U187">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V187">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X187">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA187">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC187">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17203,7 +17203,7 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
         <v>29</v>
@@ -17384,7 +17384,7 @@
         <v>45</v>
       </c>
       <c r="G190" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17473,7 +17473,7 @@
         <v>42</v>
       </c>
       <c r="G191" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17559,7 +17559,7 @@
         <v>45297.35416666666</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G192" t="s">
         <v>44</v>
@@ -17737,7 +17737,7 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
         <v>49</v>
@@ -17915,10 +17915,10 @@
         <v>45298.35416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18004,7 +18004,7 @@
         <v>45298.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G197" t="s">
         <v>47</v>
@@ -18271,7 +18271,7 @@
         <v>45298.69791666666</v>
       </c>
       <c r="F200" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G200" t="s">
         <v>35</v>
@@ -18348,7 +18348,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6868770</v>
+        <v>6868776</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18360,76 +18360,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K201">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="L201">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M201">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="N201">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O201">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="P201">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R201">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="S201">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="T201">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U201">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V201">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X201">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.385</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
+        <v>0.97</v>
+      </c>
+      <c r="AB201">
+        <v>0.46</v>
+      </c>
+      <c r="AC201">
         <v>-0.5</v>
-      </c>
-      <c r="AB201">
-        <v>-1</v>
-      </c>
-      <c r="AC201">
-        <v>1.05</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6868776</v>
+        <v>6868770</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,76 +18449,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K202">
-        <v>1.285</v>
+        <v>2.625</v>
       </c>
       <c r="L202">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M202">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="N202">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="O202">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P202">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q202">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R202">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="S202">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="T202">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U202">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="V202">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="W202">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.385</v>
       </c>
       <c r="AA202">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AB202">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18541,7 +18541,7 @@
         <v>44</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18630,7 +18630,7 @@
         <v>43</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18719,7 +18719,7 @@
         <v>47</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18897,7 +18897,7 @@
         <v>46</v>
       </c>
       <c r="G207" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -18983,10 +18983,10 @@
         <v>45305.69791666666</v>
       </c>
       <c r="F208" t="s">
+        <v>36</v>
+      </c>
+      <c r="G208" t="s">
         <v>37</v>
-      </c>
-      <c r="G208" t="s">
-        <v>38</v>
       </c>
       <c r="H208">
         <v>3</v>
@@ -19250,7 +19250,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G211" t="s">
         <v>44</v>
@@ -19339,10 +19339,10 @@
         <v>45311.69791666666</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19517,7 +19517,7 @@
         <v>45312.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
         <v>43</v>
@@ -19609,7 +19609,7 @@
         <v>48</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19695,7 +19695,7 @@
         <v>45312.69791666666</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G216" t="s">
         <v>45</v>
@@ -19876,7 +19876,7 @@
         <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -19965,7 +19965,7 @@
         <v>45</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20051,7 +20051,7 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F220" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G220" t="s">
         <v>42</v>
@@ -20140,10 +20140,10 @@
         <v>45319.35416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20499,7 +20499,7 @@
         <v>46</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -20588,7 +20588,7 @@
         <v>48</v>
       </c>
       <c r="G226" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -20674,7 +20674,7 @@
         <v>45324.69791666666</v>
       </c>
       <c r="F227" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G227" t="s">
         <v>46</v>
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6868806</v>
+        <v>6868799</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,10 +20763,10 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G228" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20778,61 +20778,61 @@
         <v>54</v>
       </c>
       <c r="K228">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L228">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M228">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N228">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O228">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P228">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q228">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="S228">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U228">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V228">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA228">
-        <v>0.5449999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.8999999999999999</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6868799</v>
+        <v>6868806</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,10 +20852,10 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G229" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20867,61 +20867,61 @@
         <v>54</v>
       </c>
       <c r="K229">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L229">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M229">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N229">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O229">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P229">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="S229">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="T229">
+        <v>2.25</v>
+      </c>
+      <c r="U229">
         <v>2</v>
       </c>
-      <c r="U229">
-        <v>2.08</v>
-      </c>
       <c r="V229">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>-0</v>
+        <v>0.5449999999999999</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.8200000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20944,7 +20944,7 @@
         <v>39</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21386,7 +21386,7 @@
         <v>45326.69791666666</v>
       </c>
       <c r="F235" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G235" t="s">
         <v>45</v>
@@ -21475,7 +21475,7 @@
         <v>45327.69791666666</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G236" t="s">
         <v>49</v>
@@ -21567,7 +21567,7 @@
         <v>48</v>
       </c>
       <c r="G237" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H237">
         <v>1</v>
@@ -21742,10 +21742,10 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G239" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H239">
         <v>2</v>
@@ -21997,7 +21997,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6868814</v>
+        <v>6868810</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22009,76 +22009,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F242" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G242" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H242">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I242">
         <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K242">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L242">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M242">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N242">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O242">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P242">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q242">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R242">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="S242">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="T242">
         <v>2.25</v>
       </c>
       <c r="U242">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="V242">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="W242">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AB242">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22086,7 +22086,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6868810</v>
+        <v>6868814</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22098,76 +22098,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G243" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I243">
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K243">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L243">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="M243">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N243">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O243">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P243">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q243">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R243">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="S243">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="T243">
         <v>2.25</v>
       </c>
       <c r="U243">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="V243">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X243">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA243">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC243">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22187,7 +22187,7 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G244" t="s">
         <v>35</v>
@@ -22276,7 +22276,7 @@
         <v>45333.69791666666</v>
       </c>
       <c r="F245" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G245" t="s">
         <v>33</v>
@@ -22368,7 +22368,7 @@
         <v>45</v>
       </c>
       <c r="G246" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         <v>30</v>
       </c>
       <c r="G248" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -22632,7 +22632,7 @@
         <v>45338.70833333334</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G249" t="s">
         <v>48</v>
@@ -22724,7 +22724,7 @@
         <v>33</v>
       </c>
       <c r="G250" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -23077,7 +23077,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F254" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G254" t="s">
         <v>49</v>
@@ -23166,7 +23166,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G255" t="s">
         <v>46</v>
@@ -23258,7 +23258,7 @@
         <v>39</v>
       </c>
       <c r="G256" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -23347,7 +23347,7 @@
         <v>43</v>
       </c>
       <c r="G257" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H257">
         <v>4</v>
@@ -23614,7 +23614,7 @@
         <v>29</v>
       </c>
       <c r="G260" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H260">
         <v>2</v>
@@ -23789,10 +23789,10 @@
         <v>45346.69791666666</v>
       </c>
       <c r="F262" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G262" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H262">
         <v>2</v>
@@ -24056,10 +24056,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G265" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>45347.69791666666</v>
       </c>
       <c r="F266" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G266" t="s">
         <v>35</v>
@@ -24234,11 +24234,20 @@
         <v>45348.60416666666</v>
       </c>
       <c r="F267" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G267" t="s">
         <v>30</v>
       </c>
+      <c r="H267">
+        <v>3</v>
+      </c>
+      <c r="I267">
+        <v>2</v>
+      </c>
+      <c r="J267" t="s">
+        <v>53</v>
+      </c>
       <c r="K267">
         <v>2</v>
       </c>
@@ -24249,46 +24258,52 @@
         <v>4</v>
       </c>
       <c r="N267">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O267">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P267">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q267">
         <v>-0.5</v>
       </c>
       <c r="R267">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="S267">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="T267">
         <v>2</v>
       </c>
       <c r="U267">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="V267">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="W267">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA267">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB267">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AC267">
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24313,6 +24328,15 @@
       <c r="G268" t="s">
         <v>47</v>
       </c>
+      <c r="H268">
+        <v>2</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268" t="s">
+        <v>53</v>
+      </c>
       <c r="K268">
         <v>2.375</v>
       </c>
@@ -24323,46 +24347,52 @@
         <v>3.2</v>
       </c>
       <c r="N268">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O268">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P268">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q268">
         <v>-0.25</v>
       </c>
       <c r="R268">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S268">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="V268">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="W268">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA268">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB268">
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="AC268">
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24403,25 +24433,25 @@
         <v>3.8</v>
       </c>
       <c r="P269">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="Q269">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R269">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="S269">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="T269">
         <v>2.75</v>
       </c>
       <c r="U269">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V269">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W269">
         <v>0</v>
@@ -24456,7 +24486,7 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F270" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G270" t="s">
         <v>35</v>
@@ -24483,19 +24513,19 @@
         <v>-0.75</v>
       </c>
       <c r="R270">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="S270">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="T270">
         <v>2.75</v>
       </c>
       <c r="U270">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="V270">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W270">
         <v>0</v>
@@ -24533,7 +24563,7 @@
         <v>47</v>
       </c>
       <c r="G271" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K271">
         <v>2.7</v>
@@ -24545,31 +24575,31 @@
         <v>2.7</v>
       </c>
       <c r="N271">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O271">
         <v>3.2</v>
       </c>
       <c r="P271">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q271">
         <v>0.25</v>
       </c>
       <c r="R271">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="S271">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
       <c r="T271">
         <v>2.25</v>
       </c>
       <c r="U271">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V271">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="W271">
         <v>0</v>
@@ -24604,7 +24634,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F272" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G272" t="s">
         <v>48</v>
@@ -24619,22 +24649,22 @@
         <v>4.75</v>
       </c>
       <c r="N272">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O272">
         <v>3.5</v>
       </c>
       <c r="P272">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q272">
         <v>-0.75</v>
       </c>
       <c r="R272">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S272">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T272">
         <v>2.5</v>
@@ -24681,7 +24711,7 @@
         <v>43</v>
       </c>
       <c r="G273" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K273">
         <v>3.8</v>
@@ -24705,19 +24735,19 @@
         <v>0.5</v>
       </c>
       <c r="R273">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S273">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T273">
         <v>2.5</v>
       </c>
       <c r="U273">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="V273">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="W273">
         <v>0</v>
@@ -24767,31 +24797,31 @@
         <v>3.2</v>
       </c>
       <c r="N274">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O274">
         <v>3.1</v>
       </c>
       <c r="P274">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q274">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R274">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S274">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T274">
         <v>2</v>
       </c>
       <c r="U274">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V274">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W274">
         <v>0</v>
@@ -24853,10 +24883,10 @@
         <v>-0.25</v>
       </c>
       <c r="R275">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="S275">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="T275">
         <v>2.5</v>
@@ -24900,7 +24930,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G276" t="s">
         <v>49</v>
@@ -24977,7 +25007,7 @@
         <v>39</v>
       </c>
       <c r="G277" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K277">
         <v>2.2</v>
@@ -24989,31 +25019,31 @@
         <v>3.25</v>
       </c>
       <c r="N277">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O277">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P277">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q277">
         <v>-0.25</v>
       </c>
       <c r="R277">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S277">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T277">
         <v>2.5</v>
       </c>
       <c r="U277">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V277">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W277">
         <v>0</v>
@@ -25137,7 +25167,7 @@
         <v>2.75</v>
       </c>
       <c r="N279">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O279">
         <v>3.2</v>
@@ -25149,19 +25179,19 @@
         <v>0</v>
       </c>
       <c r="R279">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S279">
-        <v>2.125</v>
+        <v>2.1</v>
       </c>
       <c r="T279">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U279">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="V279">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="W279">
         <v>0</v>
@@ -25196,10 +25226,10 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F280" t="s">
+        <v>40</v>
+      </c>
+      <c r="G280" t="s">
         <v>41</v>
-      </c>
-      <c r="G280" t="s">
-        <v>40</v>
       </c>
       <c r="K280">
         <v>1.285</v>
@@ -25223,19 +25253,19 @@
         <v>-1.5</v>
       </c>
       <c r="R280">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S280">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T280">
         <v>2.75</v>
       </c>
       <c r="U280">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="V280">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="W280">
         <v>0</v>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -109,28 +109,28 @@
     <t>Torino</t>
   </si>
   <si>
-    <t>Cremonese</t>
+    <t>Empoli</t>
   </si>
   <si>
-    <t>Empoli</t>
+    <t>Cremonese</t>
   </si>
   <si>
     <t>Napoli</t>
   </si>
   <si>
-    <t>Lecce</t>
+    <t>Roma</t>
   </si>
   <si>
     <t>Atalanta</t>
   </si>
   <si>
-    <t>AC Milan</t>
-  </si>
-  <si>
-    <t>Roma</t>
+    <t>Lecce</t>
   </si>
   <si>
     <t>Udinese</t>
+  </si>
+  <si>
+    <t>AC Milan</t>
   </si>
   <si>
     <t>Frosinone</t>
@@ -151,10 +151,10 @@
     <t>Verona</t>
   </si>
   <si>
-    <t>Juventus</t>
+    <t>Fiorentina</t>
   </si>
   <si>
-    <t>Fiorentina</t>
+    <t>Juventus</t>
   </si>
   <si>
     <t>Lazio</t>
@@ -652,7 +652,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5706212</v>
+        <v>5702696</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -830,37 +830,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N4">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
         <v>1.95</v>
@@ -872,31 +872,31 @@
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V4">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="W4">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z4">
+        <v>-1</v>
+      </c>
+      <c r="AA4">
         <v>0.95</v>
       </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.9299999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5702696</v>
+        <v>5706212</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -919,37 +919,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>1.95</v>
@@ -961,31 +961,31 @@
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="V5">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1.07</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5706213</v>
+        <v>5737535</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1097,70 +1097,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
+        <v>2.03</v>
+      </c>
+      <c r="S7">
         <v>1.87</v>
       </c>
-      <c r="S7">
-        <v>2.03</v>
-      </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>2.07</v>
+        <v>1.84</v>
       </c>
       <c r="V7">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AA7">
-        <v>1.03</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>1.07</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1260,7 +1260,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5713502</v>
+        <v>5706213</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1275,70 +1275,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L9">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N9">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q9">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S9">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W9">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z9">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>1.07</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5737535</v>
+        <v>5737536</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1364,73 +1364,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="L10">
         <v>3.6</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="N10">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="O10">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="Q10">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S10">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V10">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W10">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z10">
-        <v>0.5149999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>0.41</v>
       </c>
       <c r="AB10">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5737536</v>
+        <v>5713502</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1453,73 +1453,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11">
+        <v>1.727</v>
+      </c>
+      <c r="L11">
+        <v>3.8</v>
+      </c>
+      <c r="M11">
+        <v>4.333</v>
+      </c>
+      <c r="N11">
+        <v>1.666</v>
+      </c>
+      <c r="O11">
         <v>4</v>
       </c>
-      <c r="L11">
-        <v>3.6</v>
-      </c>
-      <c r="M11">
-        <v>1.85</v>
-      </c>
-      <c r="N11">
-        <v>5.25</v>
-      </c>
-      <c r="O11">
-        <v>4.2</v>
-      </c>
       <c r="P11">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="S11">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA11">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC11">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1527,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6868438</v>
+        <v>6868439</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1539,55 +1539,55 @@
         <v>45157.5625</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
         <v>52</v>
       </c>
       <c r="K12">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M12">
+        <v>1.4</v>
+      </c>
+      <c r="N12">
+        <v>6.5</v>
+      </c>
+      <c r="O12">
+        <v>4.333</v>
+      </c>
+      <c r="P12">
+        <v>1.55</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1.95</v>
+      </c>
+      <c r="S12">
+        <v>1.95</v>
+      </c>
+      <c r="T12">
         <v>2.75</v>
       </c>
-      <c r="N12">
-        <v>2.25</v>
-      </c>
-      <c r="O12">
-        <v>3.3</v>
-      </c>
-      <c r="P12">
-        <v>3.25</v>
-      </c>
-      <c r="Q12">
-        <v>-0.25</v>
-      </c>
-      <c r="R12">
-        <v>2.01</v>
-      </c>
-      <c r="S12">
-        <v>1.92</v>
-      </c>
-      <c r="T12">
-        <v>2.5</v>
-      </c>
       <c r="U12">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1596,19 +1596,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>2.25</v>
+        <v>0.55</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.9199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1616,7 +1616,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6868439</v>
+        <v>6868438</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1628,55 +1628,55 @@
         <v>45157.5625</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>1</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
       </c>
       <c r="J13" t="s">
         <v>52</v>
       </c>
       <c r="K13">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M13">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="N13">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O13">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P13">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S13">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1685,19 +1685,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.55</v>
+        <v>2.25</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.95</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1809,7 +1809,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6868444</v>
+        <v>6868443</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1895,76 +1895,76 @@
         <v>45158.5625</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K16">
+        <v>1.5</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>5.5</v>
+      </c>
+      <c r="N16">
+        <v>1.5</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <v>7.5</v>
+      </c>
+      <c r="Q16">
+        <v>-1</v>
+      </c>
+      <c r="R16">
+        <v>1.93</v>
+      </c>
+      <c r="S16">
+        <v>1.97</v>
+      </c>
+      <c r="T16">
+        <v>2.25</v>
+      </c>
+      <c r="U16">
+        <v>1.97</v>
+      </c>
+      <c r="V16">
+        <v>1.93</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
         <v>3</v>
       </c>
-      <c r="L16">
-        <v>3.3</v>
-      </c>
-      <c r="M16">
-        <v>2.2</v>
-      </c>
-      <c r="N16">
-        <v>3.25</v>
-      </c>
-      <c r="O16">
-        <v>3.5</v>
-      </c>
-      <c r="P16">
-        <v>2.2</v>
-      </c>
-      <c r="Q16">
-        <v>0.25</v>
-      </c>
-      <c r="R16">
-        <v>1.98</v>
-      </c>
-      <c r="S16">
-        <v>1.92</v>
-      </c>
-      <c r="T16">
-        <v>2.75</v>
-      </c>
-      <c r="U16">
-        <v>1.93</v>
-      </c>
-      <c r="V16">
-        <v>1.97</v>
-      </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
       <c r="Y16">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.9199999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC16">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1972,7 +1972,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6868443</v>
+        <v>6868444</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,76 +1984,76 @@
         <v>45158.5625</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M17">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N17">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
+        <v>1.98</v>
+      </c>
+      <c r="S17">
+        <v>1.92</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
         <v>1.93</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.97</v>
       </c>
-      <c r="T17">
-        <v>2.25</v>
-      </c>
-      <c r="U17">
-        <v>1.97</v>
-      </c>
-      <c r="V17">
-        <v>1.93</v>
-      </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>0.97</v>
-      </c>
-      <c r="AB17">
-        <v>0.97</v>
-      </c>
-      <c r="AC17">
-        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2073,10 +2073,10 @@
         <v>45158.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>45158.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
         <v>47</v>
@@ -2343,7 +2343,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6868584</v>
+        <v>6868589</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2429,76 +2429,76 @@
         <v>45164.5625</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>53</v>
       </c>
       <c r="K22">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="L22">
         <v>3.6</v>
       </c>
       <c r="M22">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N22">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="O22">
+        <v>3.6</v>
+      </c>
+      <c r="P22">
         <v>4</v>
       </c>
-      <c r="P22">
-        <v>1.6</v>
-      </c>
       <c r="Q22">
+        <v>-0.5</v>
+      </c>
+      <c r="R22">
+        <v>1.93</v>
+      </c>
+      <c r="S22">
+        <v>1.97</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>1.9</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>0.909</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>1</v>
-      </c>
-      <c r="R22">
-        <v>1.84</v>
-      </c>
-      <c r="S22">
-        <v>2.06</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.92</v>
-      </c>
-      <c r="V22">
-        <v>1.98</v>
-      </c>
-      <c r="W22">
-        <v>4.25</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>0.46</v>
-      </c>
-      <c r="AC22">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2506,7 +2506,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6868589</v>
+        <v>6868584</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2518,76 +2518,76 @@
         <v>45164.5625</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>53</v>
       </c>
       <c r="K23">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L23">
         <v>3.6</v>
       </c>
       <c r="M23">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N23">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1.84</v>
+      </c>
+      <c r="S23">
+        <v>2.06</v>
+      </c>
+      <c r="T23">
+        <v>2.75</v>
+      </c>
+      <c r="U23">
+        <v>1.92</v>
+      </c>
+      <c r="V23">
+        <v>1.98</v>
+      </c>
+      <c r="W23">
+        <v>4.25</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
+        <v>0.46</v>
+      </c>
+      <c r="AC23">
         <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.93</v>
-      </c>
-      <c r="S23">
-        <v>1.97</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.9</v>
-      </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
-      <c r="W23">
-        <v>0.909</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2610,7 +2610,7 @@
         <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2696,7 +2696,7 @@
         <v>45164.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -2773,7 +2773,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6868586</v>
+        <v>6868583</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2788,13 +2788,13 @@
         <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>54</v>
@@ -2809,10 +2809,10 @@
         <v>6</v>
       </c>
       <c r="N26">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O26">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P26">
         <v>5</v>
@@ -2821,25 +2821,25 @@
         <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S26">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="V26">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y26">
         <v>-1</v>
@@ -2848,13 +2848,13 @@
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC26">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2862,7 +2862,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6868583</v>
+        <v>6868586</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2877,13 +2877,13 @@
         <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>54</v>
@@ -2898,10 +2898,10 @@
         <v>6</v>
       </c>
       <c r="N27">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
         <v>5</v>
@@ -2910,25 +2910,25 @@
         <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S27">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="V27">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y27">
         <v>-1</v>
@@ -2937,13 +2937,13 @@
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="AB27">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3144,7 +3144,7 @@
         <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3408,10 +3408,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3586,7 +3586,7 @@
         <v>45171.5625</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -3663,7 +3663,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6868597</v>
+        <v>6868592</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3675,73 +3675,73 @@
         <v>45171.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N36">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O36">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P36">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q36">
         <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA36">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="AC36">
         <v>-0.5</v>
@@ -3752,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6868592</v>
+        <v>6868597</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3764,73 +3764,73 @@
         <v>45171.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N37">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="O37">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q37">
         <v>-0.75</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB37">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="AC37">
         <v>-0.5</v>
@@ -3841,7 +3841,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6868600</v>
+        <v>6868595</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3853,13 +3853,13 @@
         <v>45172.5625</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3874,37 +3874,37 @@
         <v>3.6</v>
       </c>
       <c r="M38">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N38">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="W38">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3913,16 +3913,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6868595</v>
+        <v>6868600</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3942,13 +3942,13 @@
         <v>45172.5625</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3963,37 +3963,37 @@
         <v>3.6</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N39">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O39">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V39">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4002,16 +4002,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.95</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4019,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6868596</v>
+        <v>6868594</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4031,76 +4031,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>2</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N40">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="O40">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>4.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R40">
+        <v>2.07</v>
+      </c>
+      <c r="S40">
+        <v>1.83</v>
+      </c>
+      <c r="T40">
+        <v>2.5</v>
+      </c>
+      <c r="U40">
+        <v>1.9</v>
+      </c>
+      <c r="V40">
         <v>2</v>
       </c>
-      <c r="S40">
-        <v>1.9</v>
-      </c>
-      <c r="T40">
-        <v>2.25</v>
-      </c>
-      <c r="U40">
-        <v>2.01</v>
-      </c>
-      <c r="V40">
-        <v>1.89</v>
-      </c>
       <c r="W40">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z40">
+        <v>-1</v>
+      </c>
+      <c r="AA40">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="AB40">
+        <v>-1</v>
+      </c>
+      <c r="AC40">
         <v>1</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>-0.5</v>
-      </c>
-      <c r="AC40">
-        <v>0.445</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4108,7 +4108,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6868594</v>
+        <v>6868596</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4120,76 +4120,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41">
+        <v>1.95</v>
+      </c>
+      <c r="L41">
+        <v>3.2</v>
+      </c>
+      <c r="M41">
+        <v>4.2</v>
+      </c>
+      <c r="N41">
+        <v>1.909</v>
+      </c>
+      <c r="O41">
+        <v>3.25</v>
+      </c>
+      <c r="P41">
+        <v>4.333</v>
+      </c>
+      <c r="Q41">
+        <v>-0.5</v>
+      </c>
+      <c r="R41">
         <v>2</v>
       </c>
-      <c r="J41" t="s">
-        <v>52</v>
-      </c>
-      <c r="K41">
-        <v>5</v>
-      </c>
-      <c r="L41">
-        <v>3.75</v>
-      </c>
-      <c r="M41">
-        <v>1.666</v>
-      </c>
-      <c r="N41">
-        <v>5.25</v>
-      </c>
-      <c r="O41">
-        <v>4</v>
-      </c>
-      <c r="P41">
-        <v>1.65</v>
-      </c>
-      <c r="Q41">
-        <v>0.75</v>
-      </c>
-      <c r="R41">
-        <v>2.07</v>
-      </c>
       <c r="S41">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA41">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4209,7 +4209,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
         <v>47</v>
@@ -4301,7 +4301,7 @@
         <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H43">
         <v>5</v>
@@ -4479,7 +4479,7 @@
         <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6868604</v>
+        <v>6868609</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,76 +4565,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K46">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
+        <v>3.5</v>
+      </c>
+      <c r="N46">
         <v>2.4</v>
       </c>
-      <c r="N46">
+      <c r="O46">
+        <v>3.3</v>
+      </c>
+      <c r="P46">
         <v>2.9</v>
       </c>
-      <c r="O46">
-        <v>3.6</v>
-      </c>
-      <c r="P46">
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
+        <v>2.07</v>
+      </c>
+      <c r="S46">
+        <v>1.83</v>
+      </c>
+      <c r="T46">
+        <v>2.25</v>
+      </c>
+      <c r="U46">
+        <v>1.86</v>
+      </c>
+      <c r="V46">
+        <v>2.04</v>
+      </c>
+      <c r="W46">
+        <v>-1</v>
+      </c>
+      <c r="X46">
         <v>2.3</v>
       </c>
-      <c r="Q46">
-        <v>0.25</v>
-      </c>
-      <c r="R46">
-        <v>1.86</v>
-      </c>
-      <c r="S46">
-        <v>2.04</v>
-      </c>
-      <c r="T46">
-        <v>2.75</v>
-      </c>
-      <c r="U46">
-        <v>1.9</v>
-      </c>
-      <c r="V46">
-        <v>2</v>
-      </c>
-      <c r="W46">
-        <v>1.9</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.8600000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.415</v>
       </c>
       <c r="AB46">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4642,7 +4642,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6868609</v>
+        <v>6868604</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4654,76 +4654,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K47">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N47">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="S47">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X47">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.415</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC47">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4743,7 +4743,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s">
         <v>35</v>
@@ -4832,10 +4832,10 @@
         <v>45186.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>7</v>
@@ -5188,7 +5188,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
         <v>41</v>
@@ -5277,7 +5277,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5369,7 +5369,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55">
         <v>4</v>
@@ -5544,7 +5544,7 @@
         <v>45193.3125</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
         <v>40</v>
@@ -5722,10 +5722,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5989,10 +5989,10 @@
         <v>45195.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6081,7 +6081,7 @@
         <v>49</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6155,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6868623</v>
+        <v>6868626</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6167,76 +6167,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K64">
-        <v>2.25</v>
+        <v>4.7</v>
       </c>
       <c r="L64">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N64">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O64">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R64">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S64">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="V64">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="W64">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z64">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>1.02</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6868626</v>
+        <v>6868623</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,76 +6256,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K65">
-        <v>4.7</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M65">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N65">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P65">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q65">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S65">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="V65">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA65">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8400000000000001</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6333,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6868627</v>
+        <v>6868629</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6345,76 +6345,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K66">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="L66">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="N66">
+        <v>2.25</v>
+      </c>
+      <c r="O66">
+        <v>3.2</v>
+      </c>
+      <c r="P66">
+        <v>3.4</v>
+      </c>
+      <c r="Q66">
+        <v>-0.25</v>
+      </c>
+      <c r="R66">
+        <v>1.97</v>
+      </c>
+      <c r="S66">
+        <v>1.93</v>
+      </c>
+      <c r="T66">
+        <v>2.25</v>
+      </c>
+      <c r="U66">
+        <v>2.05</v>
+      </c>
+      <c r="V66">
+        <v>1.85</v>
+      </c>
+      <c r="W66">
         <v>1.25</v>
       </c>
-      <c r="O66">
-        <v>6.5</v>
-      </c>
-      <c r="P66">
-        <v>8.5</v>
-      </c>
-      <c r="Q66">
-        <v>-1.75</v>
-      </c>
-      <c r="R66">
-        <v>1.89</v>
-      </c>
-      <c r="S66">
-        <v>2.01</v>
-      </c>
-      <c r="T66">
-        <v>3.75</v>
-      </c>
-      <c r="U66">
-        <v>1.85</v>
-      </c>
-      <c r="V66">
-        <v>2.05</v>
-      </c>
-      <c r="W66">
-        <v>-1</v>
-      </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA66">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC66">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6422,7 +6422,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6868629</v>
+        <v>6868631</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6434,58 +6434,58 @@
         <v>45196.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>53</v>
       </c>
       <c r="K67">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M67">
-        <v>4.333</v>
+        <v>8.5</v>
       </c>
       <c r="N67">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O67">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R67">
+        <v>1.93</v>
+      </c>
+      <c r="S67">
         <v>1.97</v>
       </c>
-      <c r="S67">
-        <v>1.93</v>
-      </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="W67">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6494,16 +6494,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AC67">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6511,7 +6511,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6868631</v>
+        <v>6868627</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6523,76 +6523,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K68">
         <v>1.333</v>
       </c>
       <c r="L68">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M68">
+        <v>7.5</v>
+      </c>
+      <c r="N68">
+        <v>1.25</v>
+      </c>
+      <c r="O68">
+        <v>6.5</v>
+      </c>
+      <c r="P68">
         <v>8.5</v>
       </c>
-      <c r="N68">
-        <v>1.4</v>
-      </c>
-      <c r="O68">
-        <v>5</v>
-      </c>
-      <c r="P68">
-        <v>7</v>
-      </c>
       <c r="Q68">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R68">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="S68">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U68">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W68">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z68">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB68">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6615,7 +6615,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6704,7 +6704,7 @@
         <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6790,7 +6790,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -6879,7 +6879,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>47</v>
@@ -7060,7 +7060,7 @@
         <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7146,7 +7146,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
         <v>41</v>
@@ -7238,7 +7238,7 @@
         <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>45200.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>39</v>
@@ -7591,7 +7591,7 @@
         <v>45201.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s">
         <v>49</v>
@@ -7680,10 +7680,10 @@
         <v>45205.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -7947,7 +7947,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G84" t="s">
         <v>30</v>
@@ -8039,7 +8039,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8395,7 +8395,7 @@
         <v>49</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8484,7 +8484,7 @@
         <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8837,7 +8837,7 @@
         <v>45221.3125</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -9193,10 +9193,10 @@
         <v>45221.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9282,10 +9282,10 @@
         <v>45222.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9371,10 +9371,10 @@
         <v>45222.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9727,7 +9727,7 @@
         <v>45227.65625</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G104" t="s">
         <v>44</v>
@@ -9908,7 +9908,7 @@
         <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9997,7 +9997,7 @@
         <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10086,7 +10086,7 @@
         <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10172,7 +10172,7 @@
         <v>45229.60416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
         <v>35</v>
@@ -10264,7 +10264,7 @@
         <v>47</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10617,10 +10617,10 @@
         <v>45234.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10884,10 +10884,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10973,10 +10973,10 @@
         <v>45235.69791666666</v>
       </c>
       <c r="F118" t="s">
+        <v>45</v>
+      </c>
+      <c r="G118" t="s">
         <v>46</v>
-      </c>
-      <c r="G118" t="s">
-        <v>45</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11418,10 +11418,10 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11507,7 +11507,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G124" t="s">
         <v>49</v>
@@ -11688,7 +11688,7 @@
         <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11774,7 +11774,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
         <v>35</v>
@@ -11863,7 +11863,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G128" t="s">
         <v>42</v>
@@ -11955,7 +11955,7 @@
         <v>47</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12308,10 +12308,10 @@
         <v>45255.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12474,7 +12474,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6868700</v>
+        <v>6868701</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12486,73 +12486,73 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>53</v>
+      </c>
+      <c r="K135">
+        <v>2.4</v>
+      </c>
+      <c r="L135">
+        <v>3.25</v>
+      </c>
+      <c r="M135">
+        <v>2.9</v>
+      </c>
+      <c r="N135">
+        <v>2.375</v>
+      </c>
+      <c r="O135">
+        <v>3.25</v>
+      </c>
+      <c r="P135">
         <v>3</v>
       </c>
-      <c r="I135">
-        <v>4</v>
-      </c>
-      <c r="J135" t="s">
-        <v>52</v>
-      </c>
-      <c r="K135">
-        <v>2.9</v>
-      </c>
-      <c r="L135">
-        <v>3.4</v>
-      </c>
-      <c r="M135">
-        <v>2.375</v>
-      </c>
-      <c r="N135">
-        <v>2.625</v>
-      </c>
-      <c r="O135">
-        <v>3.5</v>
-      </c>
-      <c r="P135">
-        <v>2.6</v>
-      </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
+        <v>2.09</v>
+      </c>
+      <c r="S135">
+        <v>1.81</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
         <v>1.95</v>
       </c>
-      <c r="S135">
+      <c r="V135">
         <v>1.95</v>
       </c>
-      <c r="T135">
-        <v>2.75</v>
-      </c>
-      <c r="U135">
-        <v>1.85</v>
-      </c>
-      <c r="V135">
-        <v>2.05</v>
-      </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AA135">
+        <v>-1</v>
+      </c>
+      <c r="AB135">
         <v>0.95</v>
-      </c>
-      <c r="AB135">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6868701</v>
+        <v>6868700</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,73 +12575,73 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K136">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L136">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M136">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="N136">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="O136">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W136">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z136">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12664,10 +12664,10 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F137" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" t="s">
         <v>37</v>
-      </c>
-      <c r="G137" t="s">
-        <v>38</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12753,7 +12753,7 @@
         <v>45256.69791666666</v>
       </c>
       <c r="F138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G138" t="s">
         <v>40</v>
@@ -12845,7 +12845,7 @@
         <v>44</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13023,7 +13023,7 @@
         <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13112,7 +13112,7 @@
         <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13287,7 +13287,7 @@
         <v>45262.69791666666</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
         <v>39</v>
@@ -13376,7 +13376,7 @@
         <v>45263.35416666666</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13453,7 +13453,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6868707</v>
+        <v>6868716</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13465,76 +13465,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F146" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H146">
         <v>3</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J146" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K146">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L146">
+        <v>3.3</v>
+      </c>
+      <c r="M146">
+        <v>4.25</v>
+      </c>
+      <c r="N146">
+        <v>1.8</v>
+      </c>
+      <c r="O146">
+        <v>3.6</v>
+      </c>
+      <c r="P146">
         <v>4.5</v>
       </c>
-      <c r="M146">
-        <v>6.5</v>
-      </c>
-      <c r="N146">
-        <v>1.4</v>
-      </c>
-      <c r="O146">
-        <v>4.75</v>
-      </c>
-      <c r="P146">
-        <v>7.5</v>
-      </c>
       <c r="Q146">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V146">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W146">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB146">
-        <v>0.51</v>
+        <v>1.04</v>
       </c>
       <c r="AC146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13542,7 +13542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6868716</v>
+        <v>6868707</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13554,76 +13554,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H147">
         <v>3</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K147">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L147">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M147">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="N147">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P147">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q147">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R147">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V147">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X147">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA147">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>1.04</v>
+        <v>0.51</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13646,7 +13646,7 @@
         <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13910,7 +13910,7 @@
         <v>45268.69791666666</v>
       </c>
       <c r="F151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G151" t="s">
         <v>33</v>
@@ -14091,7 +14091,7 @@
         <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14180,7 +14180,7 @@
         <v>40</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H154">
         <v>4</v>
@@ -14533,10 +14533,10 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14622,10 +14622,10 @@
         <v>45271.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14803,7 +14803,7 @@
         <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14889,7 +14889,7 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
         <v>39</v>
@@ -15070,7 +15070,7 @@
         <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15156,7 +15156,7 @@
         <v>45277.35416666666</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
         <v>43</v>
@@ -15233,7 +15233,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6868729</v>
+        <v>6868736</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15245,61 +15245,61 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K166">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L166">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M166">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N166">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O166">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q166">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S166">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V166">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W166">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y166">
         <v>-1</v>
@@ -15311,10 +15311,10 @@
         <v>-0</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC166">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15322,7 +15322,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6868736</v>
+        <v>6868729</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15334,61 +15334,61 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K167">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M167">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="N167">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P167">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R167">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S167">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V167">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X167">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
@@ -15400,10 +15400,10 @@
         <v>-0</v>
       </c>
       <c r="AB167">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15426,7 +15426,7 @@
         <v>42</v>
       </c>
       <c r="G168" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15678,7 +15678,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6868745</v>
+        <v>6868738</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15690,13 +15690,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>2</v>
@@ -15705,40 +15705,40 @@
         <v>52</v>
       </c>
       <c r="K171">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L171">
         <v>3.4</v>
       </c>
       <c r="M171">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="N171">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O171">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P171">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R171">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="S171">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="T171">
         <v>2.25</v>
       </c>
       <c r="U171">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V171">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15747,19 +15747,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>1.11</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB171">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6868738</v>
+        <v>6868745</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,13 +15779,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>2</v>
@@ -15794,40 +15794,40 @@
         <v>52</v>
       </c>
       <c r="K172">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L172">
         <v>3.4</v>
       </c>
       <c r="M172">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="N172">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O172">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P172">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q172">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="S172">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="T172">
         <v>2.25</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15836,19 +15836,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.9199999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AB172">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="AC172">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6868744</v>
+        <v>6868742</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,76 +15868,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F173" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K173">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M173">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N173">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P173">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="S173">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
-        <v>1.89</v>
+        <v>2.025</v>
       </c>
       <c r="V173">
-        <v>2.01</v>
+        <v>1.775</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z173">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB173">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15945,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6868742</v>
+        <v>6868744</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15957,76 +15957,76 @@
         <v>45282.69791666666</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G174" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174" t="s">
+        <v>54</v>
+      </c>
+      <c r="K174">
+        <v>5.75</v>
+      </c>
+      <c r="L174">
+        <v>4</v>
+      </c>
+      <c r="M174">
+        <v>1.533</v>
+      </c>
+      <c r="N174">
+        <v>6.5</v>
+      </c>
+      <c r="O174">
+        <v>4</v>
+      </c>
+      <c r="P174">
+        <v>1.5</v>
+      </c>
+      <c r="Q174">
         <v>1</v>
       </c>
-      <c r="J174" t="s">
-        <v>52</v>
-      </c>
-      <c r="K174">
-        <v>2.8</v>
-      </c>
-      <c r="L174">
-        <v>3.5</v>
-      </c>
-      <c r="M174">
-        <v>2.375</v>
-      </c>
-      <c r="N174">
-        <v>2.8</v>
-      </c>
-      <c r="O174">
-        <v>3.25</v>
-      </c>
-      <c r="P174">
-        <v>2.6</v>
-      </c>
-      <c r="Q174">
-        <v>0</v>
-      </c>
       <c r="R174">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S174">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U174">
-        <v>2.025</v>
+        <v>1.89</v>
       </c>
       <c r="V174">
-        <v>1.775</v>
+        <v>2.01</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y174">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA174">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC174">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16049,7 +16049,7 @@
         <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16138,7 +16138,7 @@
         <v>30</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16301,7 +16301,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6868740</v>
+        <v>6868741</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16313,10 +16313,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16328,43 +16328,43 @@
         <v>53</v>
       </c>
       <c r="K178">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="L178">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M178">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="N178">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P178">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R178">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="S178">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W178">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16373,16 +16373,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.475</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6868741</v>
+        <v>6868740</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,10 +16402,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16417,43 +16417,43 @@
         <v>53</v>
       </c>
       <c r="K179">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="L179">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M179">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="N179">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O179">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q179">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S179">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16462,16 +16462,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC179">
-        <v>1.04</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16491,7 +16491,7 @@
         <v>45283.69791666666</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
         <v>33</v>
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6868749</v>
+        <v>6868755</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45289.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K181">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M181">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N181">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O181">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R181">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="S181">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="V181">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="W181">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6868755</v>
+        <v>6868749</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16669,76 +16669,76 @@
         <v>45289.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G182" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K182">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L182">
+        <v>3.4</v>
+      </c>
+      <c r="M182">
         <v>4</v>
       </c>
-      <c r="M182">
-        <v>8</v>
-      </c>
       <c r="N182">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O182">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P182">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R182">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U182">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="V182">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X182">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA182">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16939,7 +16939,7 @@
         <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17013,7 +17013,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6868748</v>
+        <v>6868756</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17025,76 +17025,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G186" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K186">
+        <v>2.8</v>
+      </c>
+      <c r="L186">
+        <v>3.2</v>
+      </c>
+      <c r="M186">
+        <v>2.5</v>
+      </c>
+      <c r="N186">
+        <v>3.6</v>
+      </c>
+      <c r="O186">
+        <v>3</v>
+      </c>
+      <c r="P186">
+        <v>2.25</v>
+      </c>
+      <c r="Q186">
+        <v>0.25</v>
+      </c>
+      <c r="R186">
+        <v>1.9</v>
+      </c>
+      <c r="S186">
         <v>2</v>
       </c>
-      <c r="L186">
-        <v>3.4</v>
-      </c>
-      <c r="M186">
-        <v>3.75</v>
-      </c>
-      <c r="N186">
+      <c r="T186">
         <v>2</v>
       </c>
-      <c r="O186">
-        <v>3.5</v>
-      </c>
-      <c r="P186">
-        <v>3.75</v>
-      </c>
-      <c r="Q186">
-        <v>-0.5</v>
-      </c>
-      <c r="R186">
-        <v>2.05</v>
-      </c>
-      <c r="S186">
-        <v>1.85</v>
-      </c>
-      <c r="T186">
-        <v>2.5</v>
-      </c>
       <c r="U186">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V186">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X186">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA186">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC186">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17102,7 +17102,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6868756</v>
+        <v>6868748</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17114,76 +17114,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K187">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L187">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M187">
+        <v>3.75</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187">
+        <v>3.5</v>
+      </c>
+      <c r="P187">
+        <v>3.75</v>
+      </c>
+      <c r="Q187">
+        <v>-0.5</v>
+      </c>
+      <c r="R187">
+        <v>2.05</v>
+      </c>
+      <c r="S187">
+        <v>1.85</v>
+      </c>
+      <c r="T187">
         <v>2.5</v>
       </c>
-      <c r="N187">
-        <v>3.6</v>
-      </c>
-      <c r="O187">
-        <v>3</v>
-      </c>
-      <c r="P187">
-        <v>2.25</v>
-      </c>
-      <c r="Q187">
-        <v>0.25</v>
-      </c>
-      <c r="R187">
-        <v>1.9</v>
-      </c>
-      <c r="S187">
-        <v>2</v>
-      </c>
-      <c r="T187">
-        <v>2</v>
-      </c>
       <c r="U187">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V187">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W187">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB187">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17203,7 +17203,7 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G188" t="s">
         <v>29</v>
@@ -17381,10 +17381,10 @@
         <v>45290.69791666666</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17737,7 +17737,7 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
         <v>49</v>
@@ -17829,7 +17829,7 @@
         <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17915,10 +17915,10 @@
         <v>45298.35416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18004,7 +18004,7 @@
         <v>45298.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
         <v>47</v>
@@ -18185,7 +18185,7 @@
         <v>48</v>
       </c>
       <c r="G199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18271,7 +18271,7 @@
         <v>45298.69791666666</v>
       </c>
       <c r="F200" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G200" t="s">
         <v>35</v>
@@ -18541,7 +18541,7 @@
         <v>44</v>
       </c>
       <c r="G203" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18719,7 +18719,7 @@
         <v>47</v>
       </c>
       <c r="G205" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18894,10 +18894,10 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F207" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G207" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -18983,10 +18983,10 @@
         <v>45305.69791666666</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H208">
         <v>3</v>
@@ -19161,7 +19161,7 @@
         <v>45307.69791666666</v>
       </c>
       <c r="F210" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G210" t="s">
         <v>29</v>
@@ -19250,7 +19250,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
         <v>44</v>
@@ -19339,10 +19339,10 @@
         <v>45311.69791666666</v>
       </c>
       <c r="F212" t="s">
+        <v>37</v>
+      </c>
+      <c r="G212" t="s">
         <v>38</v>
-      </c>
-      <c r="G212" t="s">
-        <v>36</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19517,7 +19517,7 @@
         <v>45312.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G214" t="s">
         <v>43</v>
@@ -19695,10 +19695,10 @@
         <v>45312.69791666666</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19876,7 +19876,7 @@
         <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -19962,10 +19962,10 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G219" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20051,7 +20051,7 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G220" t="s">
         <v>42</v>
@@ -20143,7 +20143,7 @@
         <v>41</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20496,7 +20496,7 @@
         <v>45319.69791666666</v>
       </c>
       <c r="F225" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G225" t="s">
         <v>40</v>
@@ -20588,7 +20588,7 @@
         <v>48</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -20674,10 +20674,10 @@
         <v>45324.69791666666</v>
       </c>
       <c r="F227" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H227">
         <v>3</v>
@@ -20763,7 +20763,7 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
         <v>41</v>
@@ -20852,7 +20852,7 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
         <v>43</v>
@@ -20944,7 +20944,7 @@
         <v>39</v>
       </c>
       <c r="G230" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21389,7 +21389,7 @@
         <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21475,7 +21475,7 @@
         <v>45327.69791666666</v>
       </c>
       <c r="F236" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G236" t="s">
         <v>49</v>
@@ -21567,7 +21567,7 @@
         <v>48</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H237">
         <v>1</v>
@@ -21742,7 +21742,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
         <v>40</v>
@@ -21920,7 +21920,7 @@
         <v>45333.35416666666</v>
       </c>
       <c r="F241" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G241" t="s">
         <v>39</v>
@@ -21997,7 +21997,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6868810</v>
+        <v>6868814</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22009,76 +22009,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F242" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G242" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I242">
         <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K242">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L242">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="M242">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N242">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O242">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P242">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q242">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R242">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="S242">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="T242">
         <v>2.25</v>
       </c>
       <c r="U242">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="V242">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="W242">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X242">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA242">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC242">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22086,7 +22086,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6868814</v>
+        <v>6868810</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22098,76 +22098,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G243" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H243">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I243">
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K243">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L243">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M243">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N243">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O243">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P243">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q243">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="S243">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="T243">
         <v>2.25</v>
       </c>
       <c r="U243">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="V243">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="W243">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AB243">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22276,7 +22276,7 @@
         <v>45333.69791666666</v>
       </c>
       <c r="F245" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G245" t="s">
         <v>33</v>
@@ -22365,10 +22365,10 @@
         <v>45334.69791666666</v>
       </c>
       <c r="F246" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G246" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -22457,7 +22457,7 @@
         <v>42</v>
       </c>
       <c r="G247" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H247">
         <v>2</v>
@@ -22546,7 +22546,7 @@
         <v>30</v>
       </c>
       <c r="G248" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -22813,7 +22813,7 @@
         <v>44</v>
       </c>
       <c r="G251" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H251">
         <v>2</v>
@@ -23077,7 +23077,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F254" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G254" t="s">
         <v>49</v>
@@ -23166,10 +23166,10 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G255" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -23258,7 +23258,7 @@
         <v>39</v>
       </c>
       <c r="G256" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -23347,7 +23347,7 @@
         <v>43</v>
       </c>
       <c r="G257" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H257">
         <v>4</v>
@@ -23614,7 +23614,7 @@
         <v>29</v>
       </c>
       <c r="G260" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H260">
         <v>2</v>
@@ -23792,7 +23792,7 @@
         <v>41</v>
       </c>
       <c r="G262" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H262">
         <v>2</v>
@@ -23878,7 +23878,7 @@
         <v>45347.35416666666</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G263" t="s">
         <v>39</v>
@@ -24056,7 +24056,7 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G265" t="s">
         <v>40</v>
@@ -24145,7 +24145,7 @@
         <v>45347.69791666666</v>
       </c>
       <c r="F266" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G266" t="s">
         <v>35</v>
@@ -24234,7 +24234,7 @@
         <v>45348.60416666666</v>
       </c>
       <c r="F267" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G267" t="s">
         <v>30</v>
@@ -24323,7 +24323,7 @@
         <v>45348.69791666666</v>
       </c>
       <c r="F268" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G268" t="s">
         <v>47</v>
@@ -24417,6 +24417,15 @@
       <c r="G269" t="s">
         <v>33</v>
       </c>
+      <c r="H269">
+        <v>1</v>
+      </c>
+      <c r="I269">
+        <v>6</v>
+      </c>
+      <c r="J269" t="s">
+        <v>52</v>
+      </c>
       <c r="K269">
         <v>3.6</v>
       </c>
@@ -24427,46 +24436,52 @@
         <v>2</v>
       </c>
       <c r="N269">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O269">
         <v>3.8</v>
       </c>
       <c r="P269">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q269">
         <v>0.75</v>
       </c>
       <c r="R269">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="S269">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="T269">
         <v>2.75</v>
       </c>
       <c r="U269">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V269">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W269">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X269">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z269">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>0</v>
+        <v>1.03</v>
+      </c>
+      <c r="AB269">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="AC269">
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24491,6 +24506,15 @@
       <c r="G270" t="s">
         <v>35</v>
       </c>
+      <c r="H270">
+        <v>4</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270" t="s">
+        <v>53</v>
+      </c>
       <c r="K270">
         <v>1.7</v>
       </c>
@@ -24507,40 +24531,46 @@
         <v>4</v>
       </c>
       <c r="P270">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q270">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R270">
-        <v>1.81</v>
+        <v>2.11</v>
       </c>
       <c r="S270">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="T270">
         <v>2.75</v>
       </c>
       <c r="U270">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="V270">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W270">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="X270">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AA270">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB270">
+        <v>1</v>
+      </c>
+      <c r="AC270">
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24563,7 +24593,7 @@
         <v>47</v>
       </c>
       <c r="G271" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K271">
         <v>2.7</v>
@@ -24575,13 +24605,13 @@
         <v>2.7</v>
       </c>
       <c r="N271">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O271">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P271">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q271">
         <v>0.25</v>
@@ -24596,10 +24626,10 @@
         <v>2.25</v>
       </c>
       <c r="U271">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V271">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="W271">
         <v>0</v>
@@ -24634,7 +24664,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F272" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G272" t="s">
         <v>48</v>
@@ -24649,10 +24679,10 @@
         <v>4.75</v>
       </c>
       <c r="N272">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="O272">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P272">
         <v>5.5</v>
@@ -24661,19 +24691,19 @@
         <v>-0.75</v>
       </c>
       <c r="R272">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S272">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T272">
         <v>2.5</v>
       </c>
       <c r="U272">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="V272">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W272">
         <v>0</v>
@@ -24711,7 +24741,7 @@
         <v>43</v>
       </c>
       <c r="G273" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K273">
         <v>3.8</v>
@@ -24729,16 +24759,16 @@
         <v>3.4</v>
       </c>
       <c r="P273">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q273">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R273">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="S273">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="T273">
         <v>2.5</v>
@@ -24785,7 +24815,7 @@
         <v>30</v>
       </c>
       <c r="G274" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K274">
         <v>2.3</v>
@@ -24797,31 +24827,31 @@
         <v>3.2</v>
       </c>
       <c r="N274">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O274">
         <v>3.1</v>
       </c>
       <c r="P274">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q274">
         <v>0</v>
       </c>
       <c r="R274">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S274">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="T274">
         <v>2</v>
       </c>
       <c r="U274">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="V274">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="W274">
         <v>0</v>
@@ -24871,7 +24901,7 @@
         <v>3.3</v>
       </c>
       <c r="N275">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O275">
         <v>3.3</v>
@@ -24883,19 +24913,19 @@
         <v>-0.25</v>
       </c>
       <c r="R275">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S275">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T275">
         <v>2.5</v>
       </c>
       <c r="U275">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="V275">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W275">
         <v>0</v>
@@ -24918,7 +24948,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6868838</v>
+        <v>6868839</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -24930,46 +24960,46 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G276" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K276">
         <v>2.2</v>
       </c>
       <c r="L276">
+        <v>3.4</v>
+      </c>
+      <c r="M276">
         <v>3.25</v>
       </c>
-      <c r="M276">
+      <c r="N276">
+        <v>2.2</v>
+      </c>
+      <c r="O276">
         <v>3.3</v>
       </c>
-      <c r="N276">
-        <v>2.1</v>
-      </c>
-      <c r="O276">
-        <v>3.2</v>
-      </c>
       <c r="P276">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q276">
         <v>-0.25</v>
       </c>
       <c r="R276">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="S276">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="T276">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U276">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="V276">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="W276">
         <v>0</v>
@@ -24992,7 +25022,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6868839</v>
+        <v>6868838</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25004,46 +25034,46 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G277" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K277">
         <v>2.2</v>
       </c>
       <c r="L277">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M277">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N277">
         <v>2.15</v>
       </c>
       <c r="O277">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P277">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q277">
         <v>-0.25</v>
       </c>
       <c r="R277">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="S277">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="T277">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U277">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="V277">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="W277">
         <v>0</v>
@@ -25093,31 +25123,31 @@
         <v>4.333</v>
       </c>
       <c r="N278">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O278">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P278">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q278">
         <v>-0.5</v>
       </c>
       <c r="R278">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="S278">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="T278">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U278">
+        <v>1.87</v>
+      </c>
+      <c r="V278">
         <v>2.03</v>
-      </c>
-      <c r="V278">
-        <v>1.87</v>
       </c>
       <c r="W278">
         <v>0</v>
@@ -25155,7 +25185,7 @@
         <v>33</v>
       </c>
       <c r="G279" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K279">
         <v>2.55</v>
@@ -25167,31 +25197,31 @@
         <v>2.75</v>
       </c>
       <c r="N279">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O279">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P279">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="Q279">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R279">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S279">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T279">
         <v>2</v>
       </c>
       <c r="U279">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V279">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="W279">
         <v>0</v>
@@ -25241,7 +25271,7 @@
         <v>9</v>
       </c>
       <c r="N280">
-        <v>1.285</v>
+        <v>1.3</v>
       </c>
       <c r="O280">
         <v>5.75</v>
@@ -25253,19 +25283,19 @@
         <v>-1.5</v>
       </c>
       <c r="R280">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S280">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T280">
         <v>2.75</v>
       </c>
       <c r="U280">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="V280">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="W280">
         <v>0</v>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -109,13 +109,19 @@
     <t>Torino</t>
   </si>
   <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
     <t>Empoli</t>
   </si>
   <si>
-    <t>Cremonese</t>
+    <t>Napoli</t>
   </si>
   <si>
-    <t>Napoli</t>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>AC Milan</t>
   </si>
   <si>
     <t>Roma</t>
@@ -124,22 +130,16 @@
     <t>Atalanta</t>
   </si>
   <si>
-    <t>Lecce</t>
-  </si>
-  <si>
     <t>Udinese</t>
-  </si>
-  <si>
-    <t>AC Milan</t>
   </si>
   <si>
     <t>Frosinone</t>
   </si>
   <si>
-    <t>Inter Milan</t>
+    <t>Genoa</t>
   </si>
   <si>
-    <t>Genoa</t>
+    <t>Inter Milan</t>
   </si>
   <si>
     <t>Bologna</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC280"/>
+  <dimension ref="A1:AC285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,7 +741,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5702696</v>
+        <v>5706212</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -830,37 +830,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>1.95</v>
@@ -872,31 +872,31 @@
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="V4">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>1.07</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5706212</v>
+        <v>5702696</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -919,37 +919,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K5">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N5">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
         <v>1.95</v>
@@ -961,31 +961,31 @@
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V5">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="W5">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z5">
+        <v>-1</v>
+      </c>
+      <c r="AA5">
         <v>0.95</v>
       </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.9299999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5737535</v>
+        <v>5706213</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1097,70 +1097,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N7">
+        <v>2.45</v>
+      </c>
+      <c r="O7">
+        <v>3.5</v>
+      </c>
+      <c r="P7">
+        <v>2.75</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1.87</v>
+      </c>
+      <c r="S7">
+        <v>2.03</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
+        <v>2.07</v>
+      </c>
+      <c r="V7">
+        <v>1.83</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
         <v>1.75</v>
       </c>
-      <c r="O7">
-        <v>3.75</v>
-      </c>
-      <c r="P7">
-        <v>4.75</v>
-      </c>
-      <c r="Q7">
-        <v>-0.75</v>
-      </c>
-      <c r="R7">
-        <v>2.03</v>
-      </c>
-      <c r="S7">
-        <v>1.87</v>
-      </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>1.84</v>
-      </c>
-      <c r="V7">
-        <v>2.06</v>
-      </c>
-      <c r="W7">
-        <v>0.75</v>
-      </c>
-      <c r="X7">
-        <v>-1</v>
-      </c>
-      <c r="Y7">
-        <v>-1</v>
-      </c>
       <c r="Z7">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
       <c r="AB7">
-        <v>0.8400000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1171,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5706211</v>
+        <v>5713502</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1186,55 +1186,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>53</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L8">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M8">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N8">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
         <v>5</v>
       </c>
-      <c r="P8">
-        <v>5.75</v>
-      </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>0.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1243,13 +1243,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8799999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1260,7 +1260,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5706213</v>
+        <v>5737535</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1275,70 +1275,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
+        <v>2.03</v>
+      </c>
+      <c r="S9">
         <v>1.87</v>
       </c>
-      <c r="S9">
-        <v>2.03</v>
-      </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2.07</v>
+        <v>1.84</v>
       </c>
       <c r="V9">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AA9">
-        <v>1.03</v>
+        <v>-0.5</v>
       </c>
       <c r="AB9">
-        <v>1.07</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5737536</v>
+        <v>5706211</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1364,73 +1364,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
+        <v>5.5</v>
+      </c>
+      <c r="N10">
+        <v>1.5</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>5.75</v>
+      </c>
+      <c r="Q10">
+        <v>-1.25</v>
+      </c>
+      <c r="R10">
+        <v>2.05</v>
+      </c>
+      <c r="S10">
         <v>1.85</v>
       </c>
-      <c r="N10">
-        <v>5.25</v>
-      </c>
-      <c r="O10">
-        <v>4.2</v>
-      </c>
-      <c r="P10">
-        <v>1.615</v>
-      </c>
-      <c r="Q10">
-        <v>0.75</v>
-      </c>
-      <c r="R10">
-        <v>2.08</v>
-      </c>
-      <c r="S10">
-        <v>1.82</v>
-      </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U10">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V10">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA10">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5713502</v>
+        <v>5737536</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1453,73 +1453,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="N11">
-        <v>1.666</v>
+        <v>5.25</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R11">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="S11">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W11">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z11">
-        <v>0.8799999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.41</v>
       </c>
       <c r="AB11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1628,7 +1628,7 @@
         <v>45157.5625</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>44</v>
@@ -1705,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6868441</v>
+        <v>6868440</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,73 +1720,73 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N14">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P14">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R14">
+        <v>2.11</v>
+      </c>
+      <c r="S14">
+        <v>1.79</v>
+      </c>
+      <c r="T14">
+        <v>2.25</v>
+      </c>
+      <c r="U14">
+        <v>1.99</v>
+      </c>
+      <c r="V14">
         <v>1.91</v>
       </c>
-      <c r="S14">
-        <v>1.99</v>
-      </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
-      <c r="U14">
-        <v>2.01</v>
-      </c>
-      <c r="V14">
-        <v>1.89</v>
-      </c>
       <c r="W14">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z14">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.79</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC14">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6868440</v>
+        <v>6868441</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,73 +1809,73 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15">
+        <v>1.444</v>
+      </c>
+      <c r="L15">
+        <v>4.2</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>1.4</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>-1.25</v>
+      </c>
+      <c r="R15">
+        <v>1.91</v>
+      </c>
+      <c r="S15">
+        <v>1.99</v>
+      </c>
+      <c r="T15">
         <v>3</v>
       </c>
-      <c r="L15">
-        <v>3.3</v>
-      </c>
-      <c r="M15">
-        <v>2.2</v>
-      </c>
-      <c r="N15">
-        <v>3.3</v>
-      </c>
-      <c r="O15">
-        <v>3.25</v>
-      </c>
-      <c r="P15">
-        <v>2.2</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>2.11</v>
-      </c>
-      <c r="S15">
-        <v>1.79</v>
-      </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
       <c r="U15">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="V15">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA15">
-        <v>0.79</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1895,7 +1895,7 @@
         <v>45158.5625</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>48</v>
@@ -1987,7 +1987,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6868446</v>
+        <v>6868442</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2073,73 +2073,73 @@
         <v>45158.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M18">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O18">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P18">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="S18">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AA18">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2150,7 +2150,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6868442</v>
+        <v>6868446</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2162,73 +2162,73 @@
         <v>45158.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N19">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O19">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P19">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z19">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB19">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2343,7 +2343,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6868589</v>
+        <v>6868584</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2429,76 +2429,76 @@
         <v>45164.5625</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>53</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L22">
         <v>3.6</v>
       </c>
       <c r="M22">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N22">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1.84</v>
+      </c>
+      <c r="S22">
+        <v>2.06</v>
+      </c>
+      <c r="T22">
+        <v>2.75</v>
+      </c>
+      <c r="U22">
+        <v>1.92</v>
+      </c>
+      <c r="V22">
+        <v>1.98</v>
+      </c>
+      <c r="W22">
+        <v>4.25</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
+        <v>0.46</v>
+      </c>
+      <c r="AC22">
         <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.93</v>
-      </c>
-      <c r="S22">
-        <v>1.97</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
-      <c r="U22">
-        <v>1.9</v>
-      </c>
-      <c r="V22">
-        <v>2</v>
-      </c>
-      <c r="W22">
-        <v>0.909</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
-      <c r="AC22">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2506,7 +2506,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6868584</v>
+        <v>6868589</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2518,76 +2518,76 @@
         <v>45164.5625</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>53</v>
       </c>
       <c r="K23">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="L23">
         <v>3.6</v>
       </c>
       <c r="M23">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N23">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="O23">
+        <v>3.6</v>
+      </c>
+      <c r="P23">
         <v>4</v>
       </c>
-      <c r="P23">
-        <v>1.6</v>
-      </c>
       <c r="Q23">
+        <v>-0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.93</v>
+      </c>
+      <c r="S23">
+        <v>1.97</v>
+      </c>
+      <c r="T23">
+        <v>2.5</v>
+      </c>
+      <c r="U23">
+        <v>1.9</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>0.909</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>1</v>
-      </c>
-      <c r="R23">
-        <v>1.84</v>
-      </c>
-      <c r="S23">
-        <v>2.06</v>
-      </c>
-      <c r="T23">
-        <v>2.75</v>
-      </c>
-      <c r="U23">
-        <v>1.92</v>
-      </c>
-      <c r="V23">
-        <v>1.98</v>
-      </c>
-      <c r="W23">
-        <v>4.25</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>0.46</v>
-      </c>
-      <c r="AC23">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2610,7 +2610,7 @@
         <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2696,7 +2696,7 @@
         <v>45164.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -2788,7 +2788,7 @@
         <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -3055,7 +3055,7 @@
         <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3586,7 +3586,7 @@
         <v>45171.5625</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -3675,7 +3675,7 @@
         <v>45171.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
         <v>43</v>
@@ -3841,7 +3841,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6868595</v>
+        <v>6868600</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3853,13 +3853,13 @@
         <v>45172.5625</v>
       </c>
       <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
         <v>40</v>
       </c>
-      <c r="G38" t="s">
-        <v>45</v>
-      </c>
       <c r="H38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3874,37 +3874,37 @@
         <v>3.6</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N38">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O38">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V38">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3913,16 +3913,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6868600</v>
+        <v>6868595</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3942,13 +3942,13 @@
         <v>45172.5625</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3963,37 +3963,37 @@
         <v>3.6</v>
       </c>
       <c r="M39">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N39">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="W39">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4002,16 +4002,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4031,7 +4031,7 @@
         <v>45172.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4120,7 +4120,7 @@
         <v>45172.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
         <v>48</v>
@@ -4298,10 +4298,10 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>5</v>
@@ -4387,7 +4387,7 @@
         <v>45185.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4479,7 +4479,7 @@
         <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6868609</v>
+        <v>6868604</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,76 +4565,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K46">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N46">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O46">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="S46">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X46">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.415</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC46">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4642,7 +4642,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6868604</v>
+        <v>6868609</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4654,76 +4654,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K47">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M47">
+        <v>3.5</v>
+      </c>
+      <c r="N47">
         <v>2.4</v>
       </c>
-      <c r="N47">
+      <c r="O47">
+        <v>3.3</v>
+      </c>
+      <c r="P47">
         <v>2.9</v>
       </c>
-      <c r="O47">
-        <v>3.6</v>
-      </c>
-      <c r="P47">
+      <c r="Q47">
+        <v>-0.25</v>
+      </c>
+      <c r="R47">
+        <v>2.07</v>
+      </c>
+      <c r="S47">
+        <v>1.83</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
+        <v>1.86</v>
+      </c>
+      <c r="V47">
+        <v>2.04</v>
+      </c>
+      <c r="W47">
+        <v>-1</v>
+      </c>
+      <c r="X47">
         <v>2.3</v>
       </c>
-      <c r="Q47">
-        <v>0.25</v>
-      </c>
-      <c r="R47">
-        <v>1.86</v>
-      </c>
-      <c r="S47">
-        <v>2.04</v>
-      </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.9</v>
-      </c>
-      <c r="V47">
-        <v>2</v>
-      </c>
-      <c r="W47">
-        <v>1.9</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8600000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.415</v>
       </c>
       <c r="AB47">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4746,7 +4746,7 @@
         <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4832,10 +4832,10 @@
         <v>45186.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H49">
         <v>7</v>
@@ -5188,10 +5188,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5277,7 +5277,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5544,10 +5544,10 @@
         <v>45193.3125</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5633,7 +5633,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
         <v>49</v>
@@ -5722,7 +5722,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5903,7 +5903,7 @@
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5992,7 +5992,7 @@
         <v>46</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6066,7 +6066,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6868622</v>
+        <v>6868623</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6078,76 +6078,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K63">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M63">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N63">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P63">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S63">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="T63">
         <v>2.25</v>
       </c>
       <c r="U63">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="V63">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA63">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6170,7 +6170,7 @@
         <v>44</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6868623</v>
+        <v>6868622</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,76 +6256,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K65">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L65">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="N65">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="O65">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R65">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S65">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="T65">
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="V65">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="W65">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z65">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC65">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6437,7 +6437,7 @@
         <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -6523,7 +6523,7 @@
         <v>45196.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -6701,10 +6701,10 @@
         <v>45197.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6790,7 +6790,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -6879,7 +6879,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
         <v>47</v>
@@ -6971,7 +6971,7 @@
         <v>48</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7060,7 +7060,7 @@
         <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7146,10 +7146,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7235,7 +7235,7 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
         <v>46</v>
@@ -7324,7 +7324,7 @@
         <v>45200.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
         <v>39</v>
@@ -7680,10 +7680,10 @@
         <v>45205.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -7858,7 +7858,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
         <v>42</v>
@@ -8036,10 +8036,10 @@
         <v>45206.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6868644</v>
+        <v>6868648</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8214,58 +8214,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
         <v>2</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>53</v>
       </c>
       <c r="K87">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L87">
         <v>3.4</v>
       </c>
       <c r="M87">
+        <v>2.625</v>
+      </c>
+      <c r="N87">
+        <v>2.9</v>
+      </c>
+      <c r="O87">
         <v>3.3</v>
       </c>
-      <c r="N87">
-        <v>2.2</v>
-      </c>
-      <c r="O87">
-        <v>3.4</v>
-      </c>
       <c r="P87">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
+        <v>1.78</v>
+      </c>
+      <c r="S87">
+        <v>2.125</v>
+      </c>
+      <c r="T87">
+        <v>2.25</v>
+      </c>
+      <c r="U87">
         <v>1.92</v>
       </c>
-      <c r="S87">
-        <v>2.01</v>
-      </c>
-      <c r="T87">
-        <v>2.5</v>
-      </c>
-      <c r="U87">
-        <v>1.99</v>
-      </c>
       <c r="V87">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W87">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8274,13 +8274,13 @@
         <v>-1</v>
       </c>
       <c r="Z87">
+        <v>0.78</v>
+      </c>
+      <c r="AA87">
+        <v>-1</v>
+      </c>
+      <c r="AB87">
         <v>0.9199999999999999</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>0.99</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8291,7 +8291,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6868648</v>
+        <v>6868644</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8303,58 +8303,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>53</v>
       </c>
       <c r="K88">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N88">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O88">
+        <v>3.4</v>
+      </c>
+      <c r="P88">
         <v>3.3</v>
       </c>
-      <c r="P88">
-        <v>2.45</v>
-      </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="S88">
-        <v>2.125</v>
+        <v>2.01</v>
       </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="V88">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="W88">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8363,13 +8363,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.78</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.9199999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8395,7 +8395,7 @@
         <v>49</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8662,7 +8662,7 @@
         <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>45221.3125</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -9104,10 +9104,10 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9193,7 +9193,7 @@
         <v>45221.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>46</v>
@@ -9282,10 +9282,10 @@
         <v>45222.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9374,7 +9374,7 @@
         <v>45</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
         <v>48</v>
@@ -9638,7 +9638,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9908,7 +9908,7 @@
         <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9994,10 +9994,10 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10086,7 +10086,7 @@
         <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10172,10 +10172,10 @@
         <v>45229.60416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10528,10 +10528,10 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10617,10 +10617,10 @@
         <v>45234.69791666666</v>
       </c>
       <c r="F114" t="s">
+        <v>35</v>
+      </c>
+      <c r="G114" t="s">
         <v>38</v>
-      </c>
-      <c r="G114" t="s">
-        <v>37</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10798,7 +10798,7 @@
         <v>49</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10884,10 +10884,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F117" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117" t="s">
         <v>34</v>
-      </c>
-      <c r="G117" t="s">
-        <v>36</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11065,7 +11065,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11329,7 +11329,7 @@
         <v>45240.69791666666</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
         <v>44</v>
@@ -11418,10 +11418,10 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11688,7 +11688,7 @@
         <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11774,10 +11774,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F127" t="s">
+        <v>38</v>
+      </c>
+      <c r="G127" t="s">
         <v>37</v>
-      </c>
-      <c r="G127" t="s">
-        <v>35</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11955,7 +11955,7 @@
         <v>47</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12041,7 +12041,7 @@
         <v>45242.69791666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G130" t="s">
         <v>39</v>
@@ -12219,7 +12219,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
         <v>33</v>
@@ -12308,7 +12308,7 @@
         <v>45255.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>45</v>
@@ -12489,7 +12489,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12575,7 +12575,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
         <v>29</v>
@@ -12664,10 +12664,10 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12756,7 +12756,7 @@
         <v>46</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12845,7 +12845,7 @@
         <v>44</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13109,10 +13109,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13287,7 +13287,7 @@
         <v>45262.69791666666</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
         <v>39</v>
@@ -13376,7 +13376,7 @@
         <v>45263.35416666666</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13453,7 +13453,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6868716</v>
+        <v>6868707</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13465,76 +13465,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G146" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H146">
         <v>3</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K146">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L146">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M146">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="N146">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P146">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R146">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S146">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V146">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X146">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA146">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>1.04</v>
+        <v>0.51</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13542,7 +13542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6868707</v>
+        <v>6868716</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13554,76 +13554,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H147">
         <v>3</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K147">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L147">
+        <v>3.3</v>
+      </c>
+      <c r="M147">
+        <v>4.25</v>
+      </c>
+      <c r="N147">
+        <v>1.8</v>
+      </c>
+      <c r="O147">
+        <v>3.6</v>
+      </c>
+      <c r="P147">
         <v>4.5</v>
       </c>
-      <c r="M147">
-        <v>6.5</v>
-      </c>
-      <c r="N147">
-        <v>1.4</v>
-      </c>
-      <c r="O147">
-        <v>4.75</v>
-      </c>
-      <c r="P147">
-        <v>7.5</v>
-      </c>
       <c r="Q147">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V147">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W147">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB147">
-        <v>0.51</v>
+        <v>1.04</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13646,7 +13646,7 @@
         <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13735,7 +13735,7 @@
         <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13824,7 +13824,7 @@
         <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -14088,10 +14088,10 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G153" t="s">
         <v>35</v>
-      </c>
-      <c r="G153" t="s">
-        <v>38</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14177,10 +14177,10 @@
         <v>45269.69791666666</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H154">
         <v>4</v>
@@ -14358,7 +14358,7 @@
         <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14533,7 +14533,7 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
         <v>45</v>
@@ -14622,10 +14622,10 @@
         <v>45271.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14800,7 +14800,7 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
         <v>46</v>
@@ -14889,7 +14889,7 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
         <v>39</v>
@@ -15070,7 +15070,7 @@
         <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15156,7 +15156,7 @@
         <v>45277.35416666666</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
         <v>43</v>
@@ -15245,7 +15245,7 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
         <v>29</v>
@@ -15426,7 +15426,7 @@
         <v>42</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15515,7 +15515,7 @@
         <v>47</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15601,7 +15601,7 @@
         <v>45278.69791666666</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
         <v>48</v>
@@ -15678,7 +15678,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6868738</v>
+        <v>6868745</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15690,13 +15690,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G171" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
         <v>2</v>
@@ -15705,40 +15705,40 @@
         <v>52</v>
       </c>
       <c r="K171">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L171">
         <v>3.4</v>
       </c>
       <c r="M171">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="N171">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O171">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P171">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q171">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="S171">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="T171">
         <v>2.25</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V171">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15747,19 +15747,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.9199999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AB171">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="AC171">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6868745</v>
+        <v>6868738</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,13 +15779,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>2</v>
@@ -15794,40 +15794,40 @@
         <v>52</v>
       </c>
       <c r="K172">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L172">
         <v>3.4</v>
       </c>
       <c r="M172">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="N172">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O172">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P172">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R172">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="S172">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="T172">
         <v>2.25</v>
       </c>
       <c r="U172">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15836,19 +15836,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>1.11</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB172">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15960,7 +15960,7 @@
         <v>48</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16138,7 +16138,7 @@
         <v>30</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16227,7 +16227,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16301,7 +16301,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6868741</v>
+        <v>6868740</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16313,10 +16313,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16328,43 +16328,43 @@
         <v>53</v>
       </c>
       <c r="K178">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="L178">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M178">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="N178">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O178">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P178">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q178">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S178">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V178">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16373,16 +16373,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC178">
-        <v>1.04</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6868740</v>
+        <v>6868741</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,10 +16402,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16417,43 +16417,43 @@
         <v>53</v>
       </c>
       <c r="K179">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M179">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="N179">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O179">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P179">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R179">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="S179">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W179">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16462,16 +16462,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.475</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16491,7 +16491,7 @@
         <v>45283.69791666666</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
         <v>33</v>
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6868755</v>
+        <v>6868749</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45289.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K181">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L181">
+        <v>3.4</v>
+      </c>
+      <c r="M181">
         <v>4</v>
       </c>
-      <c r="M181">
-        <v>8</v>
-      </c>
       <c r="N181">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P181">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U181">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="V181">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X181">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA181">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6868749</v>
+        <v>6868755</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16669,76 +16669,76 @@
         <v>45289.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K182">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M182">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N182">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O182">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P182">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R182">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="S182">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="V182">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="W182">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB182">
         <v>-1</v>
       </c>
       <c r="AC182">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16746,7 +16746,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6868750</v>
+        <v>6868753</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16758,76 +16758,76 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K183">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="L183">
         <v>4</v>
       </c>
       <c r="M183">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N183">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="O183">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P183">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="Q183">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R183">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="S183">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U183">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V183">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X183">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AA183">
         <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC183">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16835,7 +16835,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6868753</v>
+        <v>6868750</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16847,76 +16847,76 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F184" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K184">
-        <v>1.571</v>
+        <v>6</v>
       </c>
       <c r="L184">
         <v>4</v>
       </c>
       <c r="M184">
+        <v>1.533</v>
+      </c>
+      <c r="N184">
         <v>5.5</v>
       </c>
-      <c r="N184">
-        <v>1.571</v>
-      </c>
       <c r="O184">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P184">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="Q184">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R184">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="S184">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="W184">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16936,10 +16936,10 @@
         <v>45290.35416666666</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17013,7 +17013,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6868756</v>
+        <v>6868748</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17025,76 +17025,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K186">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L186">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
+        <v>3.75</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186">
+        <v>3.5</v>
+      </c>
+      <c r="P186">
+        <v>3.75</v>
+      </c>
+      <c r="Q186">
+        <v>-0.5</v>
+      </c>
+      <c r="R186">
+        <v>2.05</v>
+      </c>
+      <c r="S186">
+        <v>1.85</v>
+      </c>
+      <c r="T186">
         <v>2.5</v>
       </c>
-      <c r="N186">
-        <v>3.6</v>
-      </c>
-      <c r="O186">
-        <v>3</v>
-      </c>
-      <c r="P186">
-        <v>2.25</v>
-      </c>
-      <c r="Q186">
-        <v>0.25</v>
-      </c>
-      <c r="R186">
-        <v>1.9</v>
-      </c>
-      <c r="S186">
-        <v>2</v>
-      </c>
-      <c r="T186">
-        <v>2</v>
-      </c>
       <c r="U186">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V186">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W186">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB186">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17102,7 +17102,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6868748</v>
+        <v>6868756</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17114,76 +17114,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K187">
+        <v>2.8</v>
+      </c>
+      <c r="L187">
+        <v>3.2</v>
+      </c>
+      <c r="M187">
+        <v>2.5</v>
+      </c>
+      <c r="N187">
+        <v>3.6</v>
+      </c>
+      <c r="O187">
+        <v>3</v>
+      </c>
+      <c r="P187">
+        <v>2.25</v>
+      </c>
+      <c r="Q187">
+        <v>0.25</v>
+      </c>
+      <c r="R187">
+        <v>1.9</v>
+      </c>
+      <c r="S187">
         <v>2</v>
       </c>
-      <c r="L187">
-        <v>3.4</v>
-      </c>
-      <c r="M187">
-        <v>3.75</v>
-      </c>
-      <c r="N187">
+      <c r="T187">
         <v>2</v>
       </c>
-      <c r="O187">
-        <v>3.5</v>
-      </c>
-      <c r="P187">
-        <v>3.75</v>
-      </c>
-      <c r="Q187">
-        <v>-0.5</v>
-      </c>
-      <c r="R187">
-        <v>2.05</v>
-      </c>
-      <c r="S187">
-        <v>1.85</v>
-      </c>
-      <c r="T187">
-        <v>2.5</v>
-      </c>
       <c r="U187">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V187">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X187">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA187">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC187">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17191,7 +17191,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6868754</v>
+        <v>6868751</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17203,76 +17203,76 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
         <v>1</v>
       </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
       <c r="J188" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K188">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L188">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M188">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N188">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O188">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q188">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>2.09</v>
+        <v>1.93</v>
       </c>
       <c r="S188">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="T188">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W188">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.42</v>
+        <v>0.97</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17280,7 +17280,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6868751</v>
+        <v>6868754</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17292,76 +17292,76 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K189">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L189">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M189">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N189">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P189">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q189">
+        <v>-1.25</v>
+      </c>
+      <c r="R189">
+        <v>2.09</v>
+      </c>
+      <c r="S189">
+        <v>1.84</v>
+      </c>
+      <c r="T189">
+        <v>3.25</v>
+      </c>
+      <c r="U189">
+        <v>1.95</v>
+      </c>
+      <c r="V189">
+        <v>1.95</v>
+      </c>
+      <c r="W189">
+        <v>0.5</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
+        <v>-1</v>
+      </c>
+      <c r="Z189">
         <v>-0.5</v>
       </c>
-      <c r="R189">
-        <v>1.93</v>
-      </c>
-      <c r="S189">
-        <v>1.97</v>
-      </c>
-      <c r="T189">
-        <v>2.25</v>
-      </c>
-      <c r="U189">
-        <v>1.775</v>
-      </c>
-      <c r="V189">
-        <v>2.025</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>3.2</v>
-      </c>
-      <c r="Z189">
-        <v>-1</v>
-      </c>
       <c r="AA189">
-        <v>0.97</v>
+        <v>0.42</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17384,7 +17384,7 @@
         <v>46</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17473,7 +17473,7 @@
         <v>42</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17559,7 +17559,7 @@
         <v>45297.35416666666</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G192" t="s">
         <v>44</v>
@@ -17737,7 +17737,7 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
         <v>49</v>
@@ -17915,10 +17915,10 @@
         <v>45298.35416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18004,7 +18004,7 @@
         <v>45298.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G197" t="s">
         <v>47</v>
@@ -18271,10 +18271,10 @@
         <v>45298.69791666666</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18348,7 +18348,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6868776</v>
+        <v>6868770</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18360,76 +18360,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K201">
-        <v>1.285</v>
+        <v>2.625</v>
       </c>
       <c r="L201">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M201">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="N201">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="O201">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P201">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q201">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="S201">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U201">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="V201">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="W201">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.385</v>
       </c>
       <c r="AA201">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6868770</v>
+        <v>6868776</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,76 +18449,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K202">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="L202">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M202">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="N202">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O202">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="P202">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q202">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R202">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="S202">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="T202">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V202">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X202">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.385</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
+        <v>0.97</v>
+      </c>
+      <c r="AB202">
+        <v>0.46</v>
+      </c>
+      <c r="AC202">
         <v>-0.5</v>
-      </c>
-      <c r="AB202">
-        <v>-1</v>
-      </c>
-      <c r="AC202">
-        <v>1.05</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18541,7 +18541,7 @@
         <v>44</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18630,7 +18630,7 @@
         <v>43</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18719,7 +18719,7 @@
         <v>47</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18897,7 +18897,7 @@
         <v>45</v>
       </c>
       <c r="G207" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -18983,10 +18983,10 @@
         <v>45305.69791666666</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H208">
         <v>3</v>
@@ -19072,7 +19072,7 @@
         <v>45306.69791666666</v>
       </c>
       <c r="F209" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
         <v>39</v>
@@ -19250,7 +19250,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G211" t="s">
         <v>44</v>
@@ -19339,10 +19339,10 @@
         <v>45311.69791666666</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19517,7 +19517,7 @@
         <v>45312.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
         <v>43</v>
@@ -19609,7 +19609,7 @@
         <v>48</v>
       </c>
       <c r="G215" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19695,7 +19695,7 @@
         <v>45312.69791666666</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G216" t="s">
         <v>46</v>
@@ -19873,10 +19873,10 @@
         <v>45318.45833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G218" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -19965,7 +19965,7 @@
         <v>46</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20051,7 +20051,7 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
         <v>42</v>
@@ -20140,10 +20140,10 @@
         <v>45319.35416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20499,7 +20499,7 @@
         <v>45</v>
       </c>
       <c r="G225" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -20588,7 +20588,7 @@
         <v>48</v>
       </c>
       <c r="G226" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -20674,7 +20674,7 @@
         <v>45324.69791666666</v>
       </c>
       <c r="F227" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G227" t="s">
         <v>45</v>
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6868799</v>
+        <v>6868806</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,10 +20763,10 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G228" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20778,61 +20778,61 @@
         <v>54</v>
       </c>
       <c r="K228">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L228">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M228">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N228">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O228">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P228">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="S228">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="T228">
+        <v>2.25</v>
+      </c>
+      <c r="U228">
         <v>2</v>
       </c>
-      <c r="U228">
-        <v>2.08</v>
-      </c>
       <c r="V228">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA228">
-        <v>-0</v>
+        <v>0.5449999999999999</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.8200000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6868806</v>
+        <v>6868799</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,10 +20852,10 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20867,61 +20867,61 @@
         <v>54</v>
       </c>
       <c r="K229">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L229">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M229">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N229">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O229">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P229">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="S229">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U229">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA229">
-        <v>0.5449999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.8999999999999999</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20944,7 +20944,7 @@
         <v>39</v>
       </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21297,7 +21297,7 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G234" t="s">
         <v>47</v>
@@ -21386,7 +21386,7 @@
         <v>45326.69791666666</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G235" t="s">
         <v>46</v>
@@ -21475,7 +21475,7 @@
         <v>45327.69791666666</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G236" t="s">
         <v>49</v>
@@ -21567,7 +21567,7 @@
         <v>48</v>
       </c>
       <c r="G237" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H237">
         <v>1</v>
@@ -21742,10 +21742,10 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H239">
         <v>2</v>
@@ -22012,7 +22012,7 @@
         <v>42</v>
       </c>
       <c r="G242" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H242">
         <v>4</v>
@@ -22187,10 +22187,10 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G244" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22276,7 +22276,7 @@
         <v>45333.69791666666</v>
       </c>
       <c r="F245" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G245" t="s">
         <v>33</v>
@@ -22368,7 +22368,7 @@
         <v>46</v>
       </c>
       <c r="G246" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         <v>30</v>
       </c>
       <c r="G248" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -22632,7 +22632,7 @@
         <v>45338.70833333334</v>
       </c>
       <c r="F249" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G249" t="s">
         <v>48</v>
@@ -22724,7 +22724,7 @@
         <v>33</v>
       </c>
       <c r="G250" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -22899,7 +22899,7 @@
         <v>45339.69791666666</v>
       </c>
       <c r="F252" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G252" t="s">
         <v>29</v>
@@ -23077,7 +23077,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F254" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G254" t="s">
         <v>49</v>
@@ -23166,7 +23166,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G255" t="s">
         <v>45</v>
@@ -23258,7 +23258,7 @@
         <v>39</v>
       </c>
       <c r="G256" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -23347,7 +23347,7 @@
         <v>43</v>
       </c>
       <c r="G257" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H257">
         <v>4</v>
@@ -23614,7 +23614,7 @@
         <v>29</v>
       </c>
       <c r="G260" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H260">
         <v>2</v>
@@ -23789,10 +23789,10 @@
         <v>45346.69791666666</v>
       </c>
       <c r="F262" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G262" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H262">
         <v>2</v>
@@ -24056,10 +24056,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G265" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -24145,10 +24145,10 @@
         <v>45347.69791666666</v>
       </c>
       <c r="F266" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G266" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -24234,7 +24234,7 @@
         <v>45348.60416666666</v>
       </c>
       <c r="F267" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G267" t="s">
         <v>30</v>
@@ -24501,10 +24501,10 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F270" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G270" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H270">
         <v>4</v>
@@ -24593,7 +24593,16 @@
         <v>47</v>
       </c>
       <c r="G271" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271" t="s">
+        <v>52</v>
       </c>
       <c r="K271">
         <v>2.7</v>
@@ -24608,43 +24617,49 @@
         <v>3.4</v>
       </c>
       <c r="O271">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P271">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q271">
         <v>0.25</v>
       </c>
       <c r="R271">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="S271">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="T271">
         <v>2.25</v>
       </c>
       <c r="U271">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V271">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W271">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X271">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y271">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z271">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
-        <v>0</v>
+        <v>1.04</v>
+      </c>
+      <c r="AB271">
+        <v>-1</v>
+      </c>
+      <c r="AC271">
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24664,7 +24679,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F272" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G272" t="s">
         <v>48</v>
@@ -24679,31 +24694,31 @@
         <v>4.75</v>
       </c>
       <c r="N272">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="O272">
         <v>3.75</v>
       </c>
       <c r="P272">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q272">
         <v>-0.75</v>
       </c>
       <c r="R272">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S272">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T272">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U272">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="V272">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="W272">
         <v>0</v>
@@ -24741,7 +24756,7 @@
         <v>43</v>
       </c>
       <c r="G273" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K273">
         <v>3.8</v>
@@ -24753,31 +24768,31 @@
         <v>1.95</v>
       </c>
       <c r="N273">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O273">
         <v>3.4</v>
       </c>
       <c r="P273">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q273">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R273">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="S273">
-        <v>1.81</v>
+        <v>2.07</v>
       </c>
       <c r="T273">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U273">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="V273">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="W273">
         <v>0</v>
@@ -24827,31 +24842,31 @@
         <v>3.2</v>
       </c>
       <c r="N274">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O274">
+        <v>3</v>
+      </c>
+      <c r="P274">
         <v>3.1</v>
       </c>
-      <c r="P274">
-        <v>2.875</v>
-      </c>
       <c r="Q274">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R274">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="S274">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="T274">
         <v>2</v>
       </c>
       <c r="U274">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="V274">
-        <v>2.09</v>
+        <v>1.99</v>
       </c>
       <c r="W274">
         <v>0</v>
@@ -24901,13 +24916,13 @@
         <v>3.3</v>
       </c>
       <c r="N275">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O275">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P275">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q275">
         <v>-0.25</v>
@@ -24922,10 +24937,10 @@
         <v>2.5</v>
       </c>
       <c r="U275">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="V275">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="W275">
         <v>0</v>
@@ -24948,7 +24963,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6868839</v>
+        <v>6868838</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -24960,46 +24975,46 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G276" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="K276">
         <v>2.2</v>
       </c>
       <c r="L276">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M276">
+        <v>3.3</v>
+      </c>
+      <c r="N276">
+        <v>2.15</v>
+      </c>
+      <c r="O276">
         <v>3.25</v>
       </c>
-      <c r="N276">
-        <v>2.2</v>
-      </c>
-      <c r="O276">
-        <v>3.3</v>
-      </c>
       <c r="P276">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q276">
         <v>-0.25</v>
       </c>
       <c r="R276">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="S276">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="T276">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V276">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="W276">
         <v>0</v>
@@ -25022,7 +25037,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6868838</v>
+        <v>6868839</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25034,46 +25049,46 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G277" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="K277">
         <v>2.2</v>
       </c>
       <c r="L277">
+        <v>3.4</v>
+      </c>
+      <c r="M277">
         <v>3.25</v>
       </c>
-      <c r="M277">
+      <c r="N277">
+        <v>2.25</v>
+      </c>
+      <c r="O277">
         <v>3.3</v>
       </c>
-      <c r="N277">
-        <v>2.15</v>
-      </c>
-      <c r="O277">
-        <v>3.25</v>
-      </c>
       <c r="P277">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q277">
         <v>-0.25</v>
       </c>
       <c r="R277">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="S277">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="T277">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U277">
+        <v>2</v>
+      </c>
+      <c r="V277">
         <v>1.9</v>
-      </c>
-      <c r="V277">
-        <v>2</v>
       </c>
       <c r="W277">
         <v>0</v>
@@ -25108,7 +25123,7 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F278" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G278" t="s">
         <v>42</v>
@@ -25123,7 +25138,7 @@
         <v>4.333</v>
       </c>
       <c r="N278">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O278">
         <v>3.4</v>
@@ -25135,19 +25150,19 @@
         <v>-0.5</v>
       </c>
       <c r="R278">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S278">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="T278">
         <v>2.25</v>
       </c>
       <c r="U278">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V278">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="W278">
         <v>0</v>
@@ -25203,25 +25218,25 @@
         <v>3.1</v>
       </c>
       <c r="P279">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q279">
         <v>-0.25</v>
       </c>
       <c r="R279">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="S279">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T279">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U279">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="V279">
-        <v>2.11</v>
+        <v>1.8</v>
       </c>
       <c r="W279">
         <v>0</v>
@@ -25256,10 +25271,10 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F280" t="s">
+        <v>41</v>
+      </c>
+      <c r="G280" t="s">
         <v>40</v>
-      </c>
-      <c r="G280" t="s">
-        <v>41</v>
       </c>
       <c r="K280">
         <v>1.285</v>
@@ -25271,45 +25286,415 @@
         <v>9</v>
       </c>
       <c r="N280">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="O280">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P280">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Q280">
         <v>-1.5</v>
       </c>
       <c r="R280">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="S280">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="T280">
         <v>2.75</v>
       </c>
       <c r="U280">
+        <v>2.02</v>
+      </c>
+      <c r="V280">
+        <v>1.88</v>
+      </c>
+      <c r="W280">
+        <v>0</v>
+      </c>
+      <c r="X280">
+        <v>0</v>
+      </c>
+      <c r="Y280">
+        <v>0</v>
+      </c>
+      <c r="Z280">
+        <v>0</v>
+      </c>
+      <c r="AA280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:27">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>6868854</v>
+      </c>
+      <c r="C281" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45359.69791666666</v>
+      </c>
+      <c r="F281" t="s">
+        <v>33</v>
+      </c>
+      <c r="G281" t="s">
+        <v>30</v>
+      </c>
+      <c r="K281">
+        <v>1.95</v>
+      </c>
+      <c r="L281">
+        <v>3.4</v>
+      </c>
+      <c r="M281">
+        <v>3.8</v>
+      </c>
+      <c r="N281">
+        <v>2</v>
+      </c>
+      <c r="O281">
+        <v>3.4</v>
+      </c>
+      <c r="P281">
+        <v>3.8</v>
+      </c>
+      <c r="Q281">
+        <v>-0.5</v>
+      </c>
+      <c r="R281">
+        <v>2.06</v>
+      </c>
+      <c r="S281">
+        <v>1.84</v>
+      </c>
+      <c r="T281">
+        <v>2</v>
+      </c>
+      <c r="U281">
+        <v>1.79</v>
+      </c>
+      <c r="V281">
+        <v>2.11</v>
+      </c>
+      <c r="W281">
+        <v>0</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+      <c r="Y281">
+        <v>0</v>
+      </c>
+      <c r="Z281">
+        <v>0</v>
+      </c>
+      <c r="AA281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:27">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>6868855</v>
+      </c>
+      <c r="C282" t="s">
+        <v>28</v>
+      </c>
+      <c r="D282" t="s">
+        <v>28</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F282" t="s">
+        <v>29</v>
+      </c>
+      <c r="G282" t="s">
+        <v>39</v>
+      </c>
+      <c r="K282">
+        <v>2.2</v>
+      </c>
+      <c r="L282">
+        <v>3.6</v>
+      </c>
+      <c r="M282">
+        <v>3.1</v>
+      </c>
+      <c r="N282">
+        <v>2.1</v>
+      </c>
+      <c r="O282">
+        <v>3.6</v>
+      </c>
+      <c r="P282">
+        <v>3.25</v>
+      </c>
+      <c r="Q282">
+        <v>-0.25</v>
+      </c>
+      <c r="R282">
+        <v>1.86</v>
+      </c>
+      <c r="S282">
         <v>2.04</v>
       </c>
-      <c r="V280">
+      <c r="T282">
+        <v>3</v>
+      </c>
+      <c r="U282">
+        <v>1.99</v>
+      </c>
+      <c r="V282">
+        <v>1.91</v>
+      </c>
+      <c r="W282">
+        <v>0</v>
+      </c>
+      <c r="X282">
+        <v>0</v>
+      </c>
+      <c r="Y282">
+        <v>0</v>
+      </c>
+      <c r="Z282">
+        <v>0</v>
+      </c>
+      <c r="AA282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:27">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>6868848</v>
+      </c>
+      <c r="C283" t="s">
+        <v>28</v>
+      </c>
+      <c r="D283" t="s">
+        <v>28</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F283" t="s">
+        <v>49</v>
+      </c>
+      <c r="G283" t="s">
+        <v>48</v>
+      </c>
+      <c r="K283">
+        <v>1.833</v>
+      </c>
+      <c r="L283">
+        <v>3.6</v>
+      </c>
+      <c r="M283">
+        <v>4.2</v>
+      </c>
+      <c r="N283">
+        <v>1.833</v>
+      </c>
+      <c r="O283">
+        <v>3.6</v>
+      </c>
+      <c r="P283">
+        <v>4.2</v>
+      </c>
+      <c r="Q283">
+        <v>-0.5</v>
+      </c>
+      <c r="R283">
         <v>1.86</v>
       </c>
-      <c r="W280">
-        <v>0</v>
-      </c>
-      <c r="X280">
-        <v>0</v>
-      </c>
-      <c r="Y280">
-        <v>0</v>
-      </c>
-      <c r="Z280">
-        <v>0</v>
-      </c>
-      <c r="AA280">
+      <c r="S283">
+        <v>2.04</v>
+      </c>
+      <c r="T283">
+        <v>2.5</v>
+      </c>
+      <c r="U283">
+        <v>1.98</v>
+      </c>
+      <c r="V283">
+        <v>1.92</v>
+      </c>
+      <c r="W283">
+        <v>0</v>
+      </c>
+      <c r="X283">
+        <v>0</v>
+      </c>
+      <c r="Y283">
+        <v>0</v>
+      </c>
+      <c r="Z283">
+        <v>0</v>
+      </c>
+      <c r="AA283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:27">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>6868847</v>
+      </c>
+      <c r="C284" t="s">
+        <v>28</v>
+      </c>
+      <c r="D284" t="s">
+        <v>28</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45360.58333333334</v>
+      </c>
+      <c r="F284" t="s">
+        <v>42</v>
+      </c>
+      <c r="G284" t="s">
+        <v>41</v>
+      </c>
+      <c r="K284">
+        <v>4</v>
+      </c>
+      <c r="L284">
+        <v>3.5</v>
+      </c>
+      <c r="M284">
+        <v>1.909</v>
+      </c>
+      <c r="N284">
+        <v>4</v>
+      </c>
+      <c r="O284">
+        <v>3.5</v>
+      </c>
+      <c r="P284">
+        <v>1.909</v>
+      </c>
+      <c r="Q284">
+        <v>0.5</v>
+      </c>
+      <c r="R284">
+        <v>1.95</v>
+      </c>
+      <c r="S284">
+        <v>1.95</v>
+      </c>
+      <c r="T284">
+        <v>2.5</v>
+      </c>
+      <c r="U284">
+        <v>2.05</v>
+      </c>
+      <c r="V284">
+        <v>1.85</v>
+      </c>
+      <c r="W284">
+        <v>0</v>
+      </c>
+      <c r="X284">
+        <v>0</v>
+      </c>
+      <c r="Y284">
+        <v>0</v>
+      </c>
+      <c r="Z284">
+        <v>0</v>
+      </c>
+      <c r="AA284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:27">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>6868850</v>
+      </c>
+      <c r="C285" t="s">
+        <v>28</v>
+      </c>
+      <c r="D285" t="s">
+        <v>28</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45360.69791666666</v>
+      </c>
+      <c r="F285" t="s">
+        <v>40</v>
+      </c>
+      <c r="G285" t="s">
+        <v>43</v>
+      </c>
+      <c r="K285">
+        <v>2.1</v>
+      </c>
+      <c r="L285">
+        <v>3.2</v>
+      </c>
+      <c r="M285">
+        <v>3.6</v>
+      </c>
+      <c r="N285">
+        <v>2.1</v>
+      </c>
+      <c r="O285">
+        <v>3.2</v>
+      </c>
+      <c r="P285">
+        <v>3.6</v>
+      </c>
+      <c r="Q285">
+        <v>-0.25</v>
+      </c>
+      <c r="R285">
+        <v>1.86</v>
+      </c>
+      <c r="S285">
+        <v>2.04</v>
+      </c>
+      <c r="T285">
+        <v>2</v>
+      </c>
+      <c r="U285">
+        <v>1.86</v>
+      </c>
+      <c r="V285">
+        <v>2.04</v>
+      </c>
+      <c r="W285">
+        <v>0</v>
+      </c>
+      <c r="X285">
+        <v>0</v>
+      </c>
+      <c r="Y285">
+        <v>0</v>
+      </c>
+      <c r="Z285">
+        <v>0</v>
+      </c>
+      <c r="AA285">
         <v>0</v>
       </c>
     </row>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>Torino</t>
   </si>
   <si>
-    <t>Cremonese</t>
+    <t>Empoli</t>
   </si>
   <si>
-    <t>Empoli</t>
+    <t>Cremonese</t>
   </si>
   <si>
     <t>Napoli</t>
@@ -121,13 +121,13 @@
     <t>Lecce</t>
   </si>
   <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
     <t>AC Milan</t>
   </si>
   <si>
     <t>Roma</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
   </si>
   <si>
     <t>Udinese</t>
@@ -136,10 +136,10 @@
     <t>Frosinone</t>
   </si>
   <si>
-    <t>Genoa</t>
+    <t>Inter Milan</t>
   </si>
   <si>
-    <t>Inter Milan</t>
+    <t>Genoa</t>
   </si>
   <si>
     <t>Bologna</t>
@@ -151,10 +151,10 @@
     <t>Verona</t>
   </si>
   <si>
-    <t>Fiorentina</t>
+    <t>Juventus</t>
   </si>
   <si>
-    <t>Juventus</t>
+    <t>Fiorentina</t>
   </si>
   <si>
     <t>Lazio</t>
@@ -652,7 +652,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5706212</v>
+        <v>5702696</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -830,37 +830,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N4">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
         <v>1.95</v>
@@ -872,31 +872,31 @@
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V4">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="W4">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z4">
+        <v>-1</v>
+      </c>
+      <c r="AA4">
         <v>0.95</v>
       </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.9299999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5702696</v>
+        <v>5706212</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -919,37 +919,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>1.95</v>
@@ -961,31 +961,31 @@
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="V5">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1.07</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1171,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5713502</v>
+        <v>5706211</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1186,55 +1186,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>53</v>
       </c>
       <c r="K8">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M8">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N8">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>1.85</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
         <v>1.88</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>2.02</v>
       </c>
-      <c r="T8">
-        <v>2.5</v>
-      </c>
-      <c r="U8">
-        <v>1.95</v>
-      </c>
-      <c r="V8">
-        <v>1.95</v>
-      </c>
       <c r="W8">
-        <v>0.6659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1243,13 +1243,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>1.05</v>
+      </c>
+      <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.8799999999999999</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>0.95</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1260,7 +1260,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5737535</v>
+        <v>5713502</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1275,10 +1275,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1287,43 +1287,43 @@
         <v>53</v>
       </c>
       <c r="K9">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M9">
+        <v>4.333</v>
+      </c>
+      <c r="N9">
+        <v>1.666</v>
+      </c>
+      <c r="O9">
         <v>4</v>
       </c>
-      <c r="N9">
-        <v>1.75</v>
-      </c>
-      <c r="O9">
-        <v>3.75</v>
-      </c>
       <c r="P9">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q9">
         <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="S9">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1332,13 +1332,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.5149999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8400000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5706211</v>
+        <v>5737535</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1364,55 +1364,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>53</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M10">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P10">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R10">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="V10">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="W10">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1421,13 +1421,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1.05</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB10">
-        <v>0.8799999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1453,7 +1453,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>45157.5625</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>44</v>
@@ -1705,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6868440</v>
+        <v>6868441</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1720,73 +1720,73 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
+        <v>1.444</v>
+      </c>
+      <c r="L14">
+        <v>4.2</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>1.4</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>-1.25</v>
+      </c>
+      <c r="R14">
+        <v>1.91</v>
+      </c>
+      <c r="S14">
+        <v>1.99</v>
+      </c>
+      <c r="T14">
         <v>3</v>
       </c>
-      <c r="L14">
-        <v>3.3</v>
-      </c>
-      <c r="M14">
-        <v>2.2</v>
-      </c>
-      <c r="N14">
-        <v>3.3</v>
-      </c>
-      <c r="O14">
-        <v>3.25</v>
-      </c>
-      <c r="P14">
-        <v>2.2</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>2.11</v>
-      </c>
-      <c r="S14">
-        <v>1.79</v>
-      </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
       <c r="U14">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="V14">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA14">
-        <v>0.79</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6868441</v>
+        <v>6868440</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1809,73 +1809,73 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N15">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P15">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q15">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
+        <v>2.11</v>
+      </c>
+      <c r="S15">
+        <v>1.79</v>
+      </c>
+      <c r="T15">
+        <v>2.25</v>
+      </c>
+      <c r="U15">
+        <v>1.99</v>
+      </c>
+      <c r="V15">
         <v>1.91</v>
       </c>
-      <c r="S15">
-        <v>1.99</v>
-      </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15">
-        <v>2.01</v>
-      </c>
-      <c r="V15">
-        <v>1.89</v>
-      </c>
       <c r="W15">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z15">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.79</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC15">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1883,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6868443</v>
+        <v>6868444</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1895,76 +1895,76 @@
         <v>45158.5625</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N16">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
+        <v>1.98</v>
+      </c>
+      <c r="S16">
+        <v>1.92</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
         <v>1.93</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>1.97</v>
       </c>
-      <c r="T16">
-        <v>2.25</v>
-      </c>
-      <c r="U16">
-        <v>1.97</v>
-      </c>
-      <c r="V16">
-        <v>1.93</v>
-      </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
         <v>0.97</v>
-      </c>
-      <c r="AB16">
-        <v>0.97</v>
-      </c>
-      <c r="AC16">
-        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1972,7 +1972,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6868444</v>
+        <v>6868443</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,76 +1984,76 @@
         <v>45158.5625</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K17">
+        <v>1.5</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>5.5</v>
+      </c>
+      <c r="N17">
+        <v>1.5</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>7.5</v>
+      </c>
+      <c r="Q17">
+        <v>-1</v>
+      </c>
+      <c r="R17">
+        <v>1.93</v>
+      </c>
+      <c r="S17">
+        <v>1.97</v>
+      </c>
+      <c r="T17">
+        <v>2.25</v>
+      </c>
+      <c r="U17">
+        <v>1.97</v>
+      </c>
+      <c r="V17">
+        <v>1.93</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
         <v>3</v>
       </c>
-      <c r="L17">
-        <v>3.3</v>
-      </c>
-      <c r="M17">
-        <v>2.2</v>
-      </c>
-      <c r="N17">
-        <v>3.25</v>
-      </c>
-      <c r="O17">
-        <v>3.5</v>
-      </c>
-      <c r="P17">
-        <v>2.2</v>
-      </c>
-      <c r="Q17">
-        <v>0.25</v>
-      </c>
-      <c r="R17">
-        <v>1.98</v>
-      </c>
-      <c r="S17">
-        <v>1.92</v>
-      </c>
-      <c r="T17">
-        <v>2.75</v>
-      </c>
-      <c r="U17">
-        <v>1.93</v>
-      </c>
-      <c r="V17">
-        <v>1.97</v>
-      </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
       <c r="Y17">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.9199999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC17">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2165,7 +2165,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6868584</v>
+        <v>6868589</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2429,76 +2429,76 @@
         <v>45164.5625</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>53</v>
       </c>
       <c r="K22">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="L22">
         <v>3.6</v>
       </c>
       <c r="M22">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N22">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="O22">
+        <v>3.6</v>
+      </c>
+      <c r="P22">
         <v>4</v>
       </c>
-      <c r="P22">
-        <v>1.6</v>
-      </c>
       <c r="Q22">
+        <v>-0.5</v>
+      </c>
+      <c r="R22">
+        <v>1.93</v>
+      </c>
+      <c r="S22">
+        <v>1.97</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>1.9</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>0.909</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>1</v>
-      </c>
-      <c r="R22">
-        <v>1.84</v>
-      </c>
-      <c r="S22">
-        <v>2.06</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.92</v>
-      </c>
-      <c r="V22">
-        <v>1.98</v>
-      </c>
-      <c r="W22">
-        <v>4.25</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>0.46</v>
-      </c>
-      <c r="AC22">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2506,7 +2506,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6868589</v>
+        <v>6868584</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2518,76 +2518,76 @@
         <v>45164.5625</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>53</v>
       </c>
       <c r="K23">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L23">
         <v>3.6</v>
       </c>
       <c r="M23">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N23">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1.84</v>
+      </c>
+      <c r="S23">
+        <v>2.06</v>
+      </c>
+      <c r="T23">
+        <v>2.75</v>
+      </c>
+      <c r="U23">
+        <v>1.92</v>
+      </c>
+      <c r="V23">
+        <v>1.98</v>
+      </c>
+      <c r="W23">
+        <v>4.25</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
+        <v>0.46</v>
+      </c>
+      <c r="AC23">
         <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.93</v>
-      </c>
-      <c r="S23">
-        <v>1.97</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.9</v>
-      </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
-      <c r="W23">
-        <v>0.909</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2610,7 +2610,7 @@
         <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2696,7 +2696,7 @@
         <v>45164.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -2773,7 +2773,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6868583</v>
+        <v>6868586</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2788,13 +2788,13 @@
         <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>54</v>
@@ -2809,10 +2809,10 @@
         <v>6</v>
       </c>
       <c r="N26">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P26">
         <v>5</v>
@@ -2821,25 +2821,25 @@
         <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S26">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="V26">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y26">
         <v>-1</v>
@@ -2848,13 +2848,13 @@
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="AB26">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2862,7 +2862,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6868586</v>
+        <v>6868583</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2877,13 +2877,13 @@
         <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
         <v>54</v>
@@ -2898,10 +2898,10 @@
         <v>6</v>
       </c>
       <c r="N27">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O27">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P27">
         <v>5</v>
@@ -2910,25 +2910,25 @@
         <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S27">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="V27">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y27">
         <v>-1</v>
@@ -2937,13 +2937,13 @@
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC27">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3055,7 +3055,7 @@
         <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
         <v>36</v>
-      </c>
-      <c r="G33" t="s">
-        <v>35</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6868593</v>
+        <v>6868601</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,76 +3497,76 @@
         <v>45171.5625</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="L34">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="N34">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P34">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q34">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
+        <v>1.93</v>
+      </c>
+      <c r="S34">
+        <v>1.97</v>
+      </c>
+      <c r="T34">
+        <v>2.5</v>
+      </c>
+      <c r="U34">
         <v>2.05</v>
       </c>
-      <c r="S34">
-        <v>1.88</v>
-      </c>
-      <c r="T34">
-        <v>2.75</v>
-      </c>
-      <c r="U34">
-        <v>2.04</v>
-      </c>
       <c r="V34">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W34">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB34">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3574,7 +3574,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6868601</v>
+        <v>6868593</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3586,76 +3586,76 @@
         <v>45171.5625</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="L35">
+        <v>3.75</v>
+      </c>
+      <c r="M35">
+        <v>5.25</v>
+      </c>
+      <c r="N35">
+        <v>1.75</v>
+      </c>
+      <c r="O35">
         <v>3.6</v>
       </c>
-      <c r="M35">
-        <v>4.333</v>
-      </c>
-      <c r="N35">
-        <v>1.909</v>
-      </c>
-      <c r="O35">
-        <v>3.5</v>
-      </c>
       <c r="P35">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q35">
+        <v>-0.75</v>
+      </c>
+      <c r="R35">
+        <v>2.05</v>
+      </c>
+      <c r="S35">
+        <v>1.88</v>
+      </c>
+      <c r="T35">
+        <v>2.75</v>
+      </c>
+      <c r="U35">
+        <v>2.04</v>
+      </c>
+      <c r="V35">
+        <v>1.86</v>
+      </c>
+      <c r="W35">
+        <v>0.75</v>
+      </c>
+      <c r="X35">
+        <v>-1</v>
+      </c>
+      <c r="Y35">
+        <v>-1</v>
+      </c>
+      <c r="Z35">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA35">
         <v>-0.5</v>
       </c>
-      <c r="R35">
-        <v>1.93</v>
-      </c>
-      <c r="S35">
-        <v>1.97</v>
-      </c>
-      <c r="T35">
-        <v>2.5</v>
-      </c>
-      <c r="U35">
-        <v>2.05</v>
-      </c>
-      <c r="V35">
-        <v>1.85</v>
-      </c>
-      <c r="W35">
-        <v>-1</v>
-      </c>
-      <c r="X35">
-        <v>2.5</v>
-      </c>
-      <c r="Y35">
-        <v>-1</v>
-      </c>
-      <c r="Z35">
-        <v>-1</v>
-      </c>
-      <c r="AA35">
-        <v>0.97</v>
-      </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3663,7 +3663,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6868592</v>
+        <v>6868597</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3675,73 +3675,73 @@
         <v>45171.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N36">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="O36">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P36">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q36">
         <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB36">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="AC36">
         <v>-0.5</v>
@@ -3752,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6868597</v>
+        <v>6868592</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3764,73 +3764,73 @@
         <v>45171.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N37">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P37">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q37">
         <v>-0.75</v>
       </c>
       <c r="R37">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="V37">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="AC37">
         <v>-0.5</v>
@@ -3856,7 +3856,7 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3942,10 +3942,10 @@
         <v>45172.5625</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39">
         <v>4</v>
@@ -4031,10 +4031,10 @@
         <v>45172.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4209,7 +4209,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s">
         <v>47</v>
@@ -4298,10 +4298,10 @@
         <v>45185.54166666666</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>5</v>
@@ -4387,7 +4387,7 @@
         <v>45185.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4743,10 +4743,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4832,10 +4832,10 @@
         <v>45186.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>7</v>
@@ -5191,7 +5191,7 @@
         <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5277,7 +5277,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5369,7 +5369,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55">
         <v>4</v>
@@ -5544,10 +5544,10 @@
         <v>45193.3125</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5633,7 +5633,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
         <v>49</v>
@@ -5725,7 +5725,7 @@
         <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5989,7 +5989,7 @@
         <v>45195.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G62" t="s">
         <v>34</v>
@@ -6066,7 +6066,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6868623</v>
+        <v>6868626</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6078,76 +6078,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
       <c r="J63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K63">
-        <v>2.25</v>
+        <v>4.7</v>
       </c>
       <c r="L63">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N63">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S63">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="V63">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="W63">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z63">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>1.02</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6155,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6868626</v>
+        <v>6868623</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6167,76 +6167,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K64">
-        <v>4.7</v>
+        <v>2.25</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M64">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N64">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P64">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S64">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="V64">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA64">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8400000000000001</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6259,7 +6259,7 @@
         <v>49</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6333,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6868629</v>
+        <v>6868631</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6345,58 +6345,58 @@
         <v>45196.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
         <v>53</v>
       </c>
       <c r="K66">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M66">
-        <v>4.333</v>
+        <v>8.5</v>
       </c>
       <c r="N66">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O66">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P66">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
+        <v>1.93</v>
+      </c>
+      <c r="S66">
         <v>1.97</v>
       </c>
-      <c r="S66">
-        <v>1.93</v>
-      </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U66">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="W66">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6405,16 +6405,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AC66">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6422,7 +6422,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6868631</v>
+        <v>6868629</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6434,58 +6434,58 @@
         <v>45196.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>53</v>
       </c>
       <c r="K67">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="L67">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>8.5</v>
+        <v>4.333</v>
       </c>
       <c r="N67">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P67">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q67">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
+        <v>1.97</v>
+      </c>
+      <c r="S67">
         <v>1.93</v>
       </c>
-      <c r="S67">
-        <v>1.97</v>
-      </c>
       <c r="T67">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="V67">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="W67">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6494,16 +6494,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.9299999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.99</v>
+        <v>-0.5</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6523,7 +6523,7 @@
         <v>45196.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -6615,7 +6615,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6701,10 +6701,10 @@
         <v>45197.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6879,7 +6879,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>47</v>
@@ -6971,7 +6971,7 @@
         <v>48</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7060,7 +7060,7 @@
         <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7149,7 +7149,7 @@
         <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7235,10 +7235,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>45200.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
         <v>39</v>
@@ -7591,7 +7591,7 @@
         <v>45201.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G80" t="s">
         <v>49</v>
@@ -7680,7 +7680,7 @@
         <v>45205.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>38</v>
@@ -7858,7 +7858,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
         <v>42</v>
@@ -7947,7 +7947,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G84" t="s">
         <v>30</v>
@@ -8036,10 +8036,10 @@
         <v>45206.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8217,7 +8217,7 @@
         <v>47</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -8395,7 +8395,7 @@
         <v>49</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8484,7 +8484,7 @@
         <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8662,7 +8662,7 @@
         <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>45221.3125</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -8914,7 +8914,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6868658</v>
+        <v>6868653</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8926,73 +8926,73 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K95">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L95">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N95">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O95">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X95">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
+        <v>0.475</v>
+      </c>
+      <c r="AA95">
         <v>-0.5</v>
       </c>
-      <c r="AA95">
-        <v>0.46</v>
-      </c>
       <c r="AB95">
-        <v>0.98</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6868653</v>
+        <v>6868658</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,73 +9015,73 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K96">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M96">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N96">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P96">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S96">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="V96">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="W96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9104,10 +9104,10 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9193,10 +9193,10 @@
         <v>45221.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9371,10 +9371,10 @@
         <v>45222.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
         <v>48</v>
@@ -9727,7 +9727,7 @@
         <v>45227.65625</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G104" t="s">
         <v>44</v>
@@ -9994,10 +9994,10 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10086,7 +10086,7 @@
         <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10172,10 +10172,10 @@
         <v>45229.60416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10264,7 +10264,7 @@
         <v>47</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10528,10 +10528,10 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10617,7 +10617,7 @@
         <v>45234.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10798,7 +10798,7 @@
         <v>49</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10884,7 +10884,7 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
         <v>34</v>
@@ -10973,10 +10973,10 @@
         <v>45235.69791666666</v>
       </c>
       <c r="F118" t="s">
+        <v>46</v>
+      </c>
+      <c r="G118" t="s">
         <v>45</v>
-      </c>
-      <c r="G118" t="s">
-        <v>46</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11329,7 +11329,7 @@
         <v>45240.69791666666</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s">
         <v>44</v>
@@ -11421,7 +11421,7 @@
         <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11507,7 +11507,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G124" t="s">
         <v>49</v>
@@ -11688,7 +11688,7 @@
         <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11762,7 +11762,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6868696</v>
+        <v>6868687</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11774,76 +11774,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K127">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="L127">
+        <v>3.5</v>
+      </c>
+      <c r="M127">
         <v>3.4</v>
       </c>
-      <c r="M127">
-        <v>2.2</v>
-      </c>
       <c r="N127">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O127">
         <v>3.4</v>
       </c>
       <c r="P127">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S127">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X127">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.51</v>
+        <v>1.04</v>
       </c>
       <c r="AA127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC127">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11851,7 +11851,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6868687</v>
+        <v>6868696</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11863,76 +11863,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K128">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
+        <v>2.2</v>
+      </c>
+      <c r="N128">
         <v>3.4</v>
-      </c>
-      <c r="N128">
-        <v>2</v>
       </c>
       <c r="O128">
         <v>3.4</v>
       </c>
       <c r="P128">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q128">
+        <v>0.25</v>
+      </c>
+      <c r="R128">
+        <v>2.02</v>
+      </c>
+      <c r="S128">
+        <v>1.88</v>
+      </c>
+      <c r="T128">
+        <v>2.5</v>
+      </c>
+      <c r="U128">
+        <v>2</v>
+      </c>
+      <c r="V128">
+        <v>1.9</v>
+      </c>
+      <c r="W128">
+        <v>-1</v>
+      </c>
+      <c r="X128">
+        <v>2.4</v>
+      </c>
+      <c r="Y128">
+        <v>-1</v>
+      </c>
+      <c r="Z128">
+        <v>0.51</v>
+      </c>
+      <c r="AA128">
         <v>-0.5</v>
       </c>
-      <c r="R128">
-        <v>2.04</v>
-      </c>
-      <c r="S128">
-        <v>1.86</v>
-      </c>
-      <c r="T128">
-        <v>2.25</v>
-      </c>
-      <c r="U128">
-        <v>1.89</v>
-      </c>
-      <c r="V128">
-        <v>2.01</v>
-      </c>
-      <c r="W128">
-        <v>1</v>
-      </c>
-      <c r="X128">
-        <v>-1</v>
-      </c>
-      <c r="Y128">
-        <v>-1</v>
-      </c>
-      <c r="Z128">
-        <v>1.04</v>
-      </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
       <c r="AB128">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11955,7 +11955,7 @@
         <v>47</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12041,7 +12041,7 @@
         <v>45242.69791666666</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
         <v>39</v>
@@ -12219,7 +12219,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
         <v>33</v>
@@ -12308,10 +12308,10 @@
         <v>45255.69791666666</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12489,7 +12489,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12575,7 +12575,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
         <v>29</v>
@@ -12664,7 +12664,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -12753,10 +12753,10 @@
         <v>45256.69791666666</v>
       </c>
       <c r="F138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -13023,7 +13023,7 @@
         <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13109,10 +13109,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13287,7 +13287,7 @@
         <v>45262.69791666666</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
         <v>39</v>
@@ -13465,7 +13465,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G146" t="s">
         <v>48</v>
@@ -13646,7 +13646,7 @@
         <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13735,7 +13735,7 @@
         <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13824,7 +13824,7 @@
         <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13910,7 +13910,7 @@
         <v>45268.69791666666</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G151" t="s">
         <v>33</v>
@@ -14088,10 +14088,10 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14177,7 +14177,7 @@
         <v>45269.69791666666</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G154" t="s">
         <v>38</v>
@@ -14358,7 +14358,7 @@
         <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14533,10 +14533,10 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14622,7 +14622,7 @@
         <v>45271.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
         <v>34</v>
@@ -14800,10 +14800,10 @@
         <v>45275.69791666666</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15070,7 +15070,7 @@
         <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15156,7 +15156,7 @@
         <v>45277.35416666666</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
         <v>43</v>
@@ -15233,7 +15233,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6868736</v>
+        <v>6868729</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15245,61 +15245,61 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K166">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M166">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="N166">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O166">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P166">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R166">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S166">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V166">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X166">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
@@ -15311,10 +15311,10 @@
         <v>-0</v>
       </c>
       <c r="AB166">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15322,7 +15322,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6868729</v>
+        <v>6868736</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15334,61 +15334,61 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K167">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L167">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M167">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N167">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O167">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q167">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S167">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V167">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W167">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y167">
         <v>-1</v>
@@ -15400,10 +15400,10 @@
         <v>-0</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC167">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15426,7 +15426,7 @@
         <v>42</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15515,7 +15515,7 @@
         <v>47</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15601,7 +15601,7 @@
         <v>45278.69791666666</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
         <v>48</v>
@@ -15678,7 +15678,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6868745</v>
+        <v>6868738</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15690,13 +15690,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>2</v>
@@ -15705,40 +15705,40 @@
         <v>52</v>
       </c>
       <c r="K171">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L171">
         <v>3.4</v>
       </c>
       <c r="M171">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="N171">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O171">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P171">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R171">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="S171">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="T171">
         <v>2.25</v>
       </c>
       <c r="U171">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V171">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15747,19 +15747,19 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>1.11</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB171">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6868738</v>
+        <v>6868745</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,13 +15779,13 @@
         <v>45282.60416666666</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>2</v>
@@ -15794,40 +15794,40 @@
         <v>52</v>
       </c>
       <c r="K172">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L172">
         <v>3.4</v>
       </c>
       <c r="M172">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="N172">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O172">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P172">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q172">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="S172">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="T172">
         <v>2.25</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15836,19 +15836,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.9199999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AB172">
-        <v>-0.5</v>
+        <v>1.02</v>
       </c>
       <c r="AC172">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15871,7 +15871,7 @@
         <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -15960,7 +15960,7 @@
         <v>48</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16049,7 +16049,7 @@
         <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16227,7 +16227,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16402,7 +16402,7 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
         <v>34</v>
@@ -16491,7 +16491,7 @@
         <v>45283.69791666666</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
         <v>33</v>
@@ -16580,7 +16580,7 @@
         <v>45289.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G181" t="s">
         <v>30</v>
@@ -16847,10 +16847,10 @@
         <v>45289.69791666666</v>
       </c>
       <c r="F184" t="s">
+        <v>41</v>
+      </c>
+      <c r="G184" t="s">
         <v>40</v>
-      </c>
-      <c r="G184" t="s">
-        <v>41</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16936,7 +16936,7 @@
         <v>45290.35416666666</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
         <v>34</v>
@@ -17028,7 +17028,7 @@
         <v>49</v>
       </c>
       <c r="G186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17191,7 +17191,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6868751</v>
+        <v>6868754</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17203,76 +17203,76 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K188">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L188">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M188">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N188">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P188">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q188">
+        <v>-1.25</v>
+      </c>
+      <c r="R188">
+        <v>2.09</v>
+      </c>
+      <c r="S188">
+        <v>1.84</v>
+      </c>
+      <c r="T188">
+        <v>3.25</v>
+      </c>
+      <c r="U188">
+        <v>1.95</v>
+      </c>
+      <c r="V188">
+        <v>1.95</v>
+      </c>
+      <c r="W188">
+        <v>0.5</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
         <v>-0.5</v>
       </c>
-      <c r="R188">
-        <v>1.93</v>
-      </c>
-      <c r="S188">
-        <v>1.97</v>
-      </c>
-      <c r="T188">
-        <v>2.25</v>
-      </c>
-      <c r="U188">
-        <v>1.775</v>
-      </c>
-      <c r="V188">
-        <v>2.025</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>3.2</v>
-      </c>
-      <c r="Z188">
-        <v>-1</v>
-      </c>
       <c r="AA188">
-        <v>0.97</v>
+        <v>0.42</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17280,7 +17280,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6868754</v>
+        <v>6868751</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17292,76 +17292,76 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
         <v>1</v>
       </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
       <c r="J189" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K189">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L189">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M189">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N189">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O189">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q189">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>2.09</v>
+        <v>1.93</v>
       </c>
       <c r="S189">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="T189">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W189">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z189">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.42</v>
+        <v>0.97</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17381,10 +17381,10 @@
         <v>45290.69791666666</v>
       </c>
       <c r="F190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17473,7 +17473,7 @@
         <v>42</v>
       </c>
       <c r="G191" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17559,7 +17559,7 @@
         <v>45297.35416666666</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G192" t="s">
         <v>44</v>
@@ -17829,7 +17829,7 @@
         <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17915,10 +17915,10 @@
         <v>45298.35416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17992,7 +17992,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6868766</v>
+        <v>6868765</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18004,73 +18004,73 @@
         <v>45298.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G197" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K197">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="L197">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M197">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="N197">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O197">
         <v>3.1</v>
       </c>
       <c r="P197">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q197">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R197">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S197">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="T197">
         <v>2.25</v>
       </c>
       <c r="U197">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="V197">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA197">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -18081,7 +18081,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6868765</v>
+        <v>6868766</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18093,73 +18093,73 @@
         <v>45298.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K198">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L198">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M198">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N198">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O198">
         <v>3.1</v>
       </c>
       <c r="P198">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S198">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="T198">
         <v>2.25</v>
       </c>
       <c r="U198">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="V198">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W198">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z198">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB198">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18185,7 +18185,7 @@
         <v>48</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18271,10 +18271,10 @@
         <v>45298.69791666666</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18348,7 +18348,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6868770</v>
+        <v>6868776</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18360,76 +18360,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K201">
-        <v>2.625</v>
+        <v>1.285</v>
       </c>
       <c r="L201">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M201">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="N201">
-        <v>3.1</v>
+        <v>1.333</v>
       </c>
       <c r="O201">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="P201">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R201">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="S201">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="T201">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U201">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V201">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X201">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.385</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
+        <v>0.97</v>
+      </c>
+      <c r="AB201">
+        <v>0.46</v>
+      </c>
+      <c r="AC201">
         <v>-0.5</v>
-      </c>
-      <c r="AB201">
-        <v>-1</v>
-      </c>
-      <c r="AC201">
-        <v>1.05</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6868776</v>
+        <v>6868770</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,76 +18449,76 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K202">
-        <v>1.285</v>
+        <v>2.625</v>
       </c>
       <c r="L202">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M202">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="N202">
-        <v>1.333</v>
+        <v>3.1</v>
       </c>
       <c r="O202">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="P202">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q202">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R202">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="S202">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="T202">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U202">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="V202">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="W202">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.385</v>
       </c>
       <c r="AA202">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AB202">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18541,7 +18541,7 @@
         <v>44</v>
       </c>
       <c r="G203" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18630,7 +18630,7 @@
         <v>43</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18894,7 +18894,7 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G207" t="s">
         <v>38</v>
@@ -18983,10 +18983,10 @@
         <v>45305.69791666666</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G208" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H208">
         <v>3</v>
@@ -19072,7 +19072,7 @@
         <v>45306.69791666666</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G209" t="s">
         <v>39</v>
@@ -19161,7 +19161,7 @@
         <v>45307.69791666666</v>
       </c>
       <c r="F210" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G210" t="s">
         <v>29</v>
@@ -19250,7 +19250,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G211" t="s">
         <v>44</v>
@@ -19342,7 +19342,7 @@
         <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -19517,7 +19517,7 @@
         <v>45312.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G214" t="s">
         <v>43</v>
@@ -19609,7 +19609,7 @@
         <v>48</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19698,7 +19698,7 @@
         <v>34</v>
       </c>
       <c r="G216" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19873,7 +19873,7 @@
         <v>45318.45833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
         <v>38</v>
@@ -19962,10 +19962,10 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G219" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20051,7 +20051,7 @@
         <v>45318.69791666666</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G220" t="s">
         <v>42</v>
@@ -20140,7 +20140,7 @@
         <v>45319.35416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G221" t="s">
         <v>34</v>
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6868791</v>
+        <v>6868795</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,76 +20229,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G222" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K222">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L222">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="N222">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O222">
         <v>3.3</v>
       </c>
       <c r="P222">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q222">
         <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S222">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="T222">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="V222">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X222">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA222">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.5</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6868795</v>
+        <v>6868791</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,76 +20318,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G223" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H223">
         <v>1</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K223">
+        <v>2.1</v>
+      </c>
+      <c r="L223">
+        <v>3.25</v>
+      </c>
+      <c r="M223">
+        <v>3.7</v>
+      </c>
+      <c r="N223">
         <v>2.15</v>
-      </c>
-      <c r="L223">
-        <v>3.4</v>
-      </c>
-      <c r="M223">
-        <v>3.4</v>
-      </c>
-      <c r="N223">
-        <v>2.2</v>
       </c>
       <c r="O223">
         <v>3.3</v>
       </c>
       <c r="P223">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q223">
         <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S223">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="V223">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W223">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC223">
-        <v>0.9099999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20496,10 +20496,10 @@
         <v>45319.69791666666</v>
       </c>
       <c r="F225" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -20588,7 +20588,7 @@
         <v>48</v>
       </c>
       <c r="G226" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -20677,7 +20677,7 @@
         <v>34</v>
       </c>
       <c r="G227" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H227">
         <v>3</v>
@@ -20852,10 +20852,10 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20944,7 +20944,7 @@
         <v>39</v>
       </c>
       <c r="G230" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21297,7 +21297,7 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G234" t="s">
         <v>47</v>
@@ -21386,10 +21386,10 @@
         <v>45326.69791666666</v>
       </c>
       <c r="F235" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21475,7 +21475,7 @@
         <v>45327.69791666666</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G236" t="s">
         <v>49</v>
@@ -21567,7 +21567,7 @@
         <v>48</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H237">
         <v>1</v>
@@ -21742,10 +21742,10 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G239" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H239">
         <v>2</v>
@@ -21920,7 +21920,7 @@
         <v>45333.35416666666</v>
       </c>
       <c r="F241" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G241" t="s">
         <v>39</v>
@@ -21997,7 +21997,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6868814</v>
+        <v>6868810</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22009,76 +22009,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F242" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G242" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H242">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I242">
         <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K242">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L242">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M242">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N242">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O242">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P242">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q242">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R242">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="S242">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="T242">
         <v>2.25</v>
       </c>
       <c r="U242">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="V242">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="W242">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AB242">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22086,7 +22086,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6868810</v>
+        <v>6868814</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22098,76 +22098,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G243" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I243">
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K243">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L243">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="M243">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N243">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O243">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P243">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q243">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R243">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="S243">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="T243">
         <v>2.25</v>
       </c>
       <c r="U243">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="V243">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X243">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA243">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC243">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22187,10 +22187,10 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G244" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22276,7 +22276,7 @@
         <v>45333.69791666666</v>
       </c>
       <c r="F245" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G245" t="s">
         <v>33</v>
@@ -22365,7 +22365,7 @@
         <v>45334.69791666666</v>
       </c>
       <c r="F246" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G246" t="s">
         <v>38</v>
@@ -22457,7 +22457,7 @@
         <v>42</v>
       </c>
       <c r="G247" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H247">
         <v>2</v>
@@ -22632,7 +22632,7 @@
         <v>45338.70833333334</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G249" t="s">
         <v>48</v>
@@ -22724,7 +22724,7 @@
         <v>33</v>
       </c>
       <c r="G250" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -22813,7 +22813,7 @@
         <v>44</v>
       </c>
       <c r="G251" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H251">
         <v>2</v>
@@ -22899,7 +22899,7 @@
         <v>45339.69791666666</v>
       </c>
       <c r="F252" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G252" t="s">
         <v>29</v>
@@ -23065,7 +23065,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6868826</v>
+        <v>6868818</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23077,10 +23077,10 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F254" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G254" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H254">
         <v>1</v>
@@ -23092,61 +23092,61 @@
         <v>54</v>
       </c>
       <c r="K254">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L254">
         <v>3.4</v>
       </c>
       <c r="M254">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N254">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="O254">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P254">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q254">
+        <v>0.25</v>
+      </c>
+      <c r="R254">
+        <v>2.05</v>
+      </c>
+      <c r="S254">
+        <v>1.85</v>
+      </c>
+      <c r="T254">
+        <v>2.25</v>
+      </c>
+      <c r="U254">
+        <v>2.01</v>
+      </c>
+      <c r="V254">
+        <v>1.89</v>
+      </c>
+      <c r="W254">
+        <v>-1</v>
+      </c>
+      <c r="X254">
+        <v>2.25</v>
+      </c>
+      <c r="Y254">
+        <v>-1</v>
+      </c>
+      <c r="Z254">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA254">
         <v>-0.5</v>
       </c>
-      <c r="R254">
-        <v>1.87</v>
-      </c>
-      <c r="S254">
-        <v>2.03</v>
-      </c>
-      <c r="T254">
-        <v>2.5</v>
-      </c>
-      <c r="U254">
-        <v>2.07</v>
-      </c>
-      <c r="V254">
-        <v>1.83</v>
-      </c>
-      <c r="W254">
-        <v>-1</v>
-      </c>
-      <c r="X254">
-        <v>2.5</v>
-      </c>
-      <c r="Y254">
-        <v>-1</v>
-      </c>
-      <c r="Z254">
-        <v>-1</v>
-      </c>
-      <c r="AA254">
-        <v>1.03</v>
-      </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC254">
-        <v>0.8300000000000001</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23154,7 +23154,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6868818</v>
+        <v>6868826</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23166,10 +23166,10 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G255" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -23181,61 +23181,61 @@
         <v>54</v>
       </c>
       <c r="K255">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="L255">
         <v>3.4</v>
       </c>
       <c r="M255">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N255">
+        <v>1.833</v>
+      </c>
+      <c r="O255">
         <v>3.5</v>
       </c>
-      <c r="O255">
-        <v>3.25</v>
-      </c>
       <c r="P255">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q255">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R255">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S255">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="T255">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U255">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="V255">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="W255">
         <v>-1</v>
       </c>
       <c r="X255">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
       <c r="AB255">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC255">
-        <v>0.445</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23258,7 +23258,7 @@
         <v>39</v>
       </c>
       <c r="G256" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -23347,7 +23347,7 @@
         <v>43</v>
       </c>
       <c r="G257" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H257">
         <v>4</v>
@@ -23614,7 +23614,7 @@
         <v>29</v>
       </c>
       <c r="G260" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H260">
         <v>2</v>
@@ -23789,7 +23789,7 @@
         <v>45346.69791666666</v>
       </c>
       <c r="F262" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G262" t="s">
         <v>38</v>
@@ -23878,7 +23878,7 @@
         <v>45347.35416666666</v>
       </c>
       <c r="F263" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G263" t="s">
         <v>39</v>
@@ -24059,7 +24059,7 @@
         <v>34</v>
       </c>
       <c r="G265" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -24145,10 +24145,10 @@
         <v>45347.69791666666</v>
       </c>
       <c r="F266" t="s">
+        <v>36</v>
+      </c>
+      <c r="G266" t="s">
         <v>35</v>
-      </c>
-      <c r="G266" t="s">
-        <v>37</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -24234,7 +24234,7 @@
         <v>45348.60416666666</v>
       </c>
       <c r="F267" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G267" t="s">
         <v>30</v>
@@ -24323,7 +24323,7 @@
         <v>45348.69791666666</v>
       </c>
       <c r="F268" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G268" t="s">
         <v>47</v>
@@ -24501,10 +24501,10 @@
         <v>45350.69791666666</v>
       </c>
       <c r="F270" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G270" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H270">
         <v>4</v>
@@ -24593,7 +24593,7 @@
         <v>47</v>
       </c>
       <c r="G271" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -24684,6 +24684,15 @@
       <c r="G272" t="s">
         <v>48</v>
       </c>
+      <c r="H272">
+        <v>1</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272" t="s">
+        <v>54</v>
+      </c>
       <c r="K272">
         <v>1.75</v>
       </c>
@@ -24694,49 +24703,55 @@
         <v>4.75</v>
       </c>
       <c r="N272">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O272">
         <v>3.75</v>
       </c>
       <c r="P272">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q272">
         <v>-0.75</v>
       </c>
       <c r="R272">
+        <v>1.86</v>
+      </c>
+      <c r="S272">
+        <v>2.04</v>
+      </c>
+      <c r="T272">
+        <v>2.5</v>
+      </c>
+      <c r="U272">
+        <v>2.02</v>
+      </c>
+      <c r="V272">
         <v>1.88</v>
       </c>
-      <c r="S272">
-        <v>2.02</v>
-      </c>
-      <c r="T272">
-        <v>2.25</v>
-      </c>
-      <c r="U272">
-        <v>1.85</v>
-      </c>
-      <c r="V272">
-        <v>2.05</v>
-      </c>
       <c r="W272">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X272">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y272">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:27">
+        <v>1.04</v>
+      </c>
+      <c r="AB272">
+        <v>-1</v>
+      </c>
+      <c r="AC272">
+        <v>0.8799999999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:29">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -24756,7 +24771,16 @@
         <v>43</v>
       </c>
       <c r="G273" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>4</v>
+      </c>
+      <c r="J273" t="s">
+        <v>52</v>
       </c>
       <c r="K273">
         <v>3.8</v>
@@ -24768,7 +24792,7 @@
         <v>1.95</v>
       </c>
       <c r="N273">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O273">
         <v>3.4</v>
@@ -24780,37 +24804,43 @@
         <v>0.5</v>
       </c>
       <c r="R273">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="S273">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="T273">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U273">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="V273">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="W273">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X273">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y273">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z273">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:27">
+        <v>1.09</v>
+      </c>
+      <c r="AB273">
+        <v>0.99</v>
+      </c>
+      <c r="AC273">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:29">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -24830,7 +24860,16 @@
         <v>30</v>
       </c>
       <c r="G274" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274" t="s">
+        <v>54</v>
       </c>
       <c r="K274">
         <v>2.3</v>
@@ -24854,37 +24893,43 @@
         <v>-0.25</v>
       </c>
       <c r="R274">
-        <v>2.1</v>
+        <v>2.075</v>
       </c>
       <c r="S274">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T274">
         <v>2</v>
       </c>
       <c r="U274">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V274">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="W274">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X274">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y274">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z274">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:27">
+        <v>0.3625</v>
+      </c>
+      <c r="AB274">
+        <v>-1</v>
+      </c>
+      <c r="AC274">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="275" spans="1:29">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -24937,10 +24982,10 @@
         <v>2.5</v>
       </c>
       <c r="U275">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="V275">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W275">
         <v>0</v>
@@ -24958,7 +25003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:27">
+    <row r="276" spans="1:29">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -24975,7 +25020,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G276" t="s">
         <v>49</v>
@@ -25002,10 +25047,10 @@
         <v>-0.25</v>
       </c>
       <c r="R276">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S276">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T276">
         <v>2.25</v>
@@ -25032,7 +25077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:27">
+    <row r="277" spans="1:29">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -25076,19 +25121,19 @@
         <v>-0.25</v>
       </c>
       <c r="R277">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S277">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T277">
         <v>2.5</v>
       </c>
       <c r="U277">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V277">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W277">
         <v>0</v>
@@ -25106,7 +25151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:27">
+    <row r="278" spans="1:29">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -25123,7 +25168,7 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F278" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G278" t="s">
         <v>42</v>
@@ -25159,10 +25204,10 @@
         <v>2.25</v>
       </c>
       <c r="U278">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V278">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="W278">
         <v>0</v>
@@ -25180,7 +25225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:27">
+    <row r="279" spans="1:29">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -25200,7 +25245,7 @@
         <v>33</v>
       </c>
       <c r="G279" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K279">
         <v>2.55</v>
@@ -25224,10 +25269,10 @@
         <v>-0.25</v>
       </c>
       <c r="R279">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S279">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="T279">
         <v>2.25</v>
@@ -25254,7 +25299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:27">
+    <row r="280" spans="1:29">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -25271,10 +25316,10 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F280" t="s">
+        <v>40</v>
+      </c>
+      <c r="G280" t="s">
         <v>41</v>
-      </c>
-      <c r="G280" t="s">
-        <v>40</v>
       </c>
       <c r="K280">
         <v>1.285</v>
@@ -25298,19 +25343,19 @@
         <v>-1.5</v>
       </c>
       <c r="R280">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S280">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="T280">
         <v>2.75</v>
       </c>
       <c r="U280">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="V280">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="W280">
         <v>0</v>
@@ -25328,7 +25373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:27">
+    <row r="281" spans="1:29">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -25372,19 +25417,19 @@
         <v>-0.5</v>
       </c>
       <c r="R281">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="S281">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="T281">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U281">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="V281">
-        <v>2.11</v>
+        <v>1.8</v>
       </c>
       <c r="W281">
         <v>0</v>
@@ -25402,7 +25447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:27">
+    <row r="282" spans="1:29">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -25476,7 +25521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:27">
+    <row r="283" spans="1:29">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -25520,10 +25565,10 @@
         <v>-0.5</v>
       </c>
       <c r="R283">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S283">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T283">
         <v>2.5</v>
@@ -25550,7 +25595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:27">
+    <row r="284" spans="1:29">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -25570,7 +25615,7 @@
         <v>42</v>
       </c>
       <c r="G284" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K284">
         <v>4</v>
@@ -25624,7 +25669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:27">
+    <row r="285" spans="1:29">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -25641,7 +25686,7 @@
         <v>45360.69791666666</v>
       </c>
       <c r="F285" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G285" t="s">
         <v>43</v>
@@ -25668,19 +25713,19 @@
         <v>-0.25</v>
       </c>
       <c r="R285">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S285">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="T285">
         <v>2</v>
       </c>
       <c r="U285">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V285">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="W285">
         <v>0</v>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -118,19 +118,19 @@
     <t>Napoli</t>
   </si>
   <si>
-    <t>Lecce</t>
+    <t>Atalanta</t>
   </si>
   <si>
-    <t>Atalanta</t>
+    <t>Roma</t>
   </si>
   <si>
     <t>AC Milan</t>
   </si>
   <si>
-    <t>Roma</t>
+    <t>Udinese</t>
   </si>
   <si>
-    <t>Udinese</t>
+    <t>Lecce</t>
   </si>
   <si>
     <t>Frosinone</t>
@@ -151,10 +151,10 @@
     <t>Verona</t>
   </si>
   <si>
-    <t>Juventus</t>
+    <t>Fiorentina</t>
   </si>
   <si>
-    <t>Fiorentina</t>
+    <t>Juventus</t>
   </si>
   <si>
     <t>Lazio</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC285"/>
+  <dimension ref="A1:AC290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,7 +652,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5706213</v>
+        <v>5706211</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1097,70 +1097,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="I7">
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7">
+        <v>1.5</v>
+      </c>
+      <c r="L7">
+        <v>4.5</v>
+      </c>
+      <c r="M7">
+        <v>5.5</v>
+      </c>
+      <c r="N7">
+        <v>1.5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>5.75</v>
+      </c>
+      <c r="Q7">
+        <v>-1.25</v>
+      </c>
+      <c r="R7">
+        <v>2.05</v>
+      </c>
+      <c r="S7">
+        <v>1.85</v>
+      </c>
+      <c r="T7">
         <v>3</v>
       </c>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7">
-        <v>2.625</v>
-      </c>
-      <c r="L7">
-        <v>3.2</v>
-      </c>
-      <c r="M7">
-        <v>2.6</v>
-      </c>
-      <c r="N7">
-        <v>2.45</v>
-      </c>
-      <c r="O7">
-        <v>3.5</v>
-      </c>
-      <c r="P7">
-        <v>2.75</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1.87</v>
-      </c>
-      <c r="S7">
-        <v>2.03</v>
-      </c>
-      <c r="T7">
-        <v>2.5</v>
-      </c>
       <c r="U7">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="V7">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA7">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>1.07</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1171,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5706211</v>
+        <v>5737535</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1186,55 +1186,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>53</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L8">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="V8">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="W8">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1243,13 +1243,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>0.8799999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5737535</v>
+        <v>5737536</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1364,73 +1364,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="L10">
         <v>3.6</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="N10">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="O10">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>4.75</v>
+        <v>1.615</v>
       </c>
       <c r="Q10">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S10">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="V10">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="W10">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z10">
-        <v>0.5149999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>0.41</v>
       </c>
       <c r="AB10">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5737536</v>
+        <v>5706213</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1453,52 +1453,52 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
         <v>52</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="N11">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="Q11">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S11">
-        <v>1.82</v>
+        <v>2.03</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="V11">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1507,19 +1507,19 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.615</v>
+        <v>1.75</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.41</v>
+        <v>1.03</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC11">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1809,7 +1809,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6868444</v>
+        <v>6868443</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1895,76 +1895,76 @@
         <v>45158.5625</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K16">
+        <v>1.5</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>5.5</v>
+      </c>
+      <c r="N16">
+        <v>1.5</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <v>7.5</v>
+      </c>
+      <c r="Q16">
+        <v>-1</v>
+      </c>
+      <c r="R16">
+        <v>1.93</v>
+      </c>
+      <c r="S16">
+        <v>1.97</v>
+      </c>
+      <c r="T16">
+        <v>2.25</v>
+      </c>
+      <c r="U16">
+        <v>1.97</v>
+      </c>
+      <c r="V16">
+        <v>1.93</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
         <v>3</v>
       </c>
-      <c r="L16">
-        <v>3.3</v>
-      </c>
-      <c r="M16">
-        <v>2.2</v>
-      </c>
-      <c r="N16">
-        <v>3.25</v>
-      </c>
-      <c r="O16">
-        <v>3.5</v>
-      </c>
-      <c r="P16">
-        <v>2.2</v>
-      </c>
-      <c r="Q16">
-        <v>0.25</v>
-      </c>
-      <c r="R16">
-        <v>1.98</v>
-      </c>
-      <c r="S16">
-        <v>1.92</v>
-      </c>
-      <c r="T16">
-        <v>2.75</v>
-      </c>
-      <c r="U16">
-        <v>1.93</v>
-      </c>
-      <c r="V16">
-        <v>1.97</v>
-      </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
       <c r="Y16">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.9199999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC16">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1972,7 +1972,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6868443</v>
+        <v>6868444</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,76 +1984,76 @@
         <v>45158.5625</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M17">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N17">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
+        <v>1.98</v>
+      </c>
+      <c r="S17">
+        <v>1.92</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
         <v>1.93</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.97</v>
       </c>
-      <c r="T17">
-        <v>2.25</v>
-      </c>
-      <c r="U17">
-        <v>1.97</v>
-      </c>
-      <c r="V17">
-        <v>1.93</v>
-      </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>0.97</v>
-      </c>
-      <c r="AB17">
-        <v>0.97</v>
-      </c>
-      <c r="AC17">
-        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2061,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6868442</v>
+        <v>6868446</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2073,73 +2073,73 @@
         <v>45158.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L18">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N18">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O18">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P18">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z18">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB18">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2150,7 +2150,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6868446</v>
+        <v>6868442</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2165,70 +2165,70 @@
         <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O19">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P19">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AA19">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6868589</v>
+        <v>6868584</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2429,76 +2429,76 @@
         <v>45164.5625</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>53</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L22">
         <v>3.6</v>
       </c>
       <c r="M22">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N22">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1.84</v>
+      </c>
+      <c r="S22">
+        <v>2.06</v>
+      </c>
+      <c r="T22">
+        <v>2.75</v>
+      </c>
+      <c r="U22">
+        <v>1.92</v>
+      </c>
+      <c r="V22">
+        <v>1.98</v>
+      </c>
+      <c r="W22">
+        <v>4.25</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
+        <v>0.46</v>
+      </c>
+      <c r="AC22">
         <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.93</v>
-      </c>
-      <c r="S22">
-        <v>1.97</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
-      <c r="U22">
-        <v>1.9</v>
-      </c>
-      <c r="V22">
-        <v>2</v>
-      </c>
-      <c r="W22">
-        <v>0.909</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
-      <c r="AC22">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2506,7 +2506,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6868584</v>
+        <v>6868589</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2518,76 +2518,76 @@
         <v>45164.5625</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>53</v>
       </c>
       <c r="K23">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="L23">
         <v>3.6</v>
       </c>
       <c r="M23">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N23">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="O23">
+        <v>3.6</v>
+      </c>
+      <c r="P23">
         <v>4</v>
       </c>
-      <c r="P23">
-        <v>1.6</v>
-      </c>
       <c r="Q23">
+        <v>-0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.93</v>
+      </c>
+      <c r="S23">
+        <v>1.97</v>
+      </c>
+      <c r="T23">
+        <v>2.5</v>
+      </c>
+      <c r="U23">
+        <v>1.9</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>0.909</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>1</v>
-      </c>
-      <c r="R23">
-        <v>1.84</v>
-      </c>
-      <c r="S23">
-        <v>2.06</v>
-      </c>
-      <c r="T23">
-        <v>2.75</v>
-      </c>
-      <c r="U23">
-        <v>1.92</v>
-      </c>
-      <c r="V23">
-        <v>1.98</v>
-      </c>
-      <c r="W23">
-        <v>4.25</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>0.46</v>
-      </c>
-      <c r="AC23">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2610,7 +2610,7 @@
         <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2773,7 +2773,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6868586</v>
+        <v>6868583</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2788,13 +2788,13 @@
         <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>54</v>
@@ -2809,10 +2809,10 @@
         <v>6</v>
       </c>
       <c r="N26">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O26">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P26">
         <v>5</v>
@@ -2821,25 +2821,25 @@
         <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S26">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="V26">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y26">
         <v>-1</v>
@@ -2848,13 +2848,13 @@
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC26">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2862,7 +2862,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6868583</v>
+        <v>6868586</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2877,13 +2877,13 @@
         <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>54</v>
@@ -2898,10 +2898,10 @@
         <v>6</v>
       </c>
       <c r="N27">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
         <v>5</v>
@@ -2910,25 +2910,25 @@
         <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S27">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="V27">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y27">
         <v>-1</v>
@@ -2937,13 +2937,13 @@
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="AB27">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3144,7 +3144,7 @@
         <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3408,7 +3408,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6868601</v>
+        <v>6868593</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,76 +3497,76 @@
         <v>45171.5625</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="L34">
+        <v>3.75</v>
+      </c>
+      <c r="M34">
+        <v>5.25</v>
+      </c>
+      <c r="N34">
+        <v>1.75</v>
+      </c>
+      <c r="O34">
         <v>3.6</v>
       </c>
-      <c r="M34">
-        <v>4.333</v>
-      </c>
-      <c r="N34">
-        <v>1.909</v>
-      </c>
-      <c r="O34">
-        <v>3.5</v>
-      </c>
       <c r="P34">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q34">
+        <v>-0.75</v>
+      </c>
+      <c r="R34">
+        <v>2.05</v>
+      </c>
+      <c r="S34">
+        <v>1.88</v>
+      </c>
+      <c r="T34">
+        <v>2.75</v>
+      </c>
+      <c r="U34">
+        <v>2.04</v>
+      </c>
+      <c r="V34">
+        <v>1.86</v>
+      </c>
+      <c r="W34">
+        <v>0.75</v>
+      </c>
+      <c r="X34">
+        <v>-1</v>
+      </c>
+      <c r="Y34">
+        <v>-1</v>
+      </c>
+      <c r="Z34">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA34">
         <v>-0.5</v>
       </c>
-      <c r="R34">
-        <v>1.93</v>
-      </c>
-      <c r="S34">
-        <v>1.97</v>
-      </c>
-      <c r="T34">
-        <v>2.5</v>
-      </c>
-      <c r="U34">
-        <v>2.05</v>
-      </c>
-      <c r="V34">
-        <v>1.85</v>
-      </c>
-      <c r="W34">
-        <v>-1</v>
-      </c>
-      <c r="X34">
-        <v>2.5</v>
-      </c>
-      <c r="Y34">
-        <v>-1</v>
-      </c>
-      <c r="Z34">
-        <v>-1</v>
-      </c>
-      <c r="AA34">
-        <v>0.97</v>
-      </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3574,7 +3574,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6868593</v>
+        <v>6868601</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3586,76 +3586,76 @@
         <v>45171.5625</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="L35">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="N35">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
+        <v>1.93</v>
+      </c>
+      <c r="S35">
+        <v>1.97</v>
+      </c>
+      <c r="T35">
+        <v>2.5</v>
+      </c>
+      <c r="U35">
         <v>2.05</v>
       </c>
-      <c r="S35">
-        <v>1.88</v>
-      </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>2.04</v>
-      </c>
       <c r="V35">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB35">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3663,7 +3663,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6868597</v>
+        <v>6868592</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3675,73 +3675,73 @@
         <v>45171.65625</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N36">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O36">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P36">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q36">
         <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA36">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="AC36">
         <v>-0.5</v>
@@ -3752,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6868592</v>
+        <v>6868597</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3764,73 +3764,73 @@
         <v>45171.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N37">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="O37">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q37">
         <v>-0.75</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB37">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="AC37">
         <v>-0.5</v>
@@ -3945,7 +3945,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39">
         <v>4</v>
@@ -4019,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6868594</v>
+        <v>6868596</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4031,76 +4031,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40">
+        <v>1.95</v>
+      </c>
+      <c r="L40">
+        <v>3.2</v>
+      </c>
+      <c r="M40">
+        <v>4.2</v>
+      </c>
+      <c r="N40">
+        <v>1.909</v>
+      </c>
+      <c r="O40">
+        <v>3.25</v>
+      </c>
+      <c r="P40">
+        <v>4.333</v>
+      </c>
+      <c r="Q40">
+        <v>-0.5</v>
+      </c>
+      <c r="R40">
         <v>2</v>
       </c>
-      <c r="J40" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40">
-        <v>5</v>
-      </c>
-      <c r="L40">
-        <v>3.75</v>
-      </c>
-      <c r="M40">
-        <v>1.666</v>
-      </c>
-      <c r="N40">
-        <v>5.25</v>
-      </c>
-      <c r="O40">
-        <v>4</v>
-      </c>
-      <c r="P40">
-        <v>1.65</v>
-      </c>
-      <c r="Q40">
-        <v>0.75</v>
-      </c>
-      <c r="R40">
-        <v>2.07</v>
-      </c>
       <c r="S40">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA40">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4108,7 +4108,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6868596</v>
+        <v>6868594</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4120,76 +4120,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>2</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
       <c r="J41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="L41">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N41">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="O41">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>4.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q41">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R41">
+        <v>2.07</v>
+      </c>
+      <c r="S41">
+        <v>1.83</v>
+      </c>
+      <c r="T41">
+        <v>2.5</v>
+      </c>
+      <c r="U41">
+        <v>1.9</v>
+      </c>
+      <c r="V41">
         <v>2</v>
       </c>
-      <c r="S41">
-        <v>1.9</v>
-      </c>
-      <c r="T41">
-        <v>2.25</v>
-      </c>
-      <c r="U41">
-        <v>2.01</v>
-      </c>
-      <c r="V41">
-        <v>1.89</v>
-      </c>
       <c r="W41">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
         <v>1</v>
-      </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
-      <c r="AB41">
-        <v>-0.5</v>
-      </c>
-      <c r="AC41">
-        <v>0.445</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4209,7 +4209,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
         <v>47</v>
@@ -4479,7 +4479,7 @@
         <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4743,10 +4743,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4832,7 +4832,7 @@
         <v>45186.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -5188,7 +5188,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
         <v>41</v>
@@ -5369,7 +5369,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55">
         <v>4</v>
@@ -5633,7 +5633,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
         <v>49</v>
@@ -5722,10 +5722,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5903,7 +5903,7 @@
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5989,10 +5989,10 @@
         <v>45195.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6081,7 +6081,7 @@
         <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6155,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6868623</v>
+        <v>6868622</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6167,76 +6167,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G64" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K64">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L64">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="N64">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="O64">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R64">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S64">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="T64">
         <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="V64">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="W64">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z64">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC64">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6868622</v>
+        <v>6868623</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,76 +6256,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K65">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M65">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N65">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P65">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q65">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S65">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="T65">
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="V65">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA65">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6333,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6868631</v>
+        <v>6868627</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6345,76 +6345,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K66">
         <v>1.333</v>
       </c>
       <c r="L66">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M66">
+        <v>7.5</v>
+      </c>
+      <c r="N66">
+        <v>1.25</v>
+      </c>
+      <c r="O66">
+        <v>6.5</v>
+      </c>
+      <c r="P66">
         <v>8.5</v>
       </c>
-      <c r="N66">
-        <v>1.4</v>
-      </c>
-      <c r="O66">
-        <v>5</v>
-      </c>
-      <c r="P66">
-        <v>7</v>
-      </c>
       <c r="Q66">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R66">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="S66">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U66">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W66">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z66">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB66">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6511,7 +6511,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6868627</v>
+        <v>6868631</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6523,76 +6523,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68">
         <v>1</v>
       </c>
-      <c r="I68">
-        <v>2</v>
-      </c>
       <c r="J68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K68">
         <v>1.333</v>
       </c>
       <c r="L68">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M68">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="N68">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="O68">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Q68">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R68">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S68">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="T68">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="V68">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA68">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6615,7 +6615,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6704,7 +6704,7 @@
         <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6790,7 +6790,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -7146,7 +7146,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
         <v>41</v>
@@ -7235,10 +7235,10 @@
         <v>45200.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>45200.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
         <v>39</v>
@@ -7401,7 +7401,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6868640</v>
+        <v>6868639</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7413,76 +7413,76 @@
         <v>45201.5625</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K78">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="S78">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.9099999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7490,7 +7490,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6868639</v>
+        <v>6868640</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7502,76 +7502,76 @@
         <v>45201.5625</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K79">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L79">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N79">
+        <v>1.7</v>
+      </c>
+      <c r="O79">
+        <v>3.5</v>
+      </c>
+      <c r="P79">
+        <v>5.5</v>
+      </c>
+      <c r="Q79">
+        <v>-0.75</v>
+      </c>
+      <c r="R79">
+        <v>1.99</v>
+      </c>
+      <c r="S79">
+        <v>1.91</v>
+      </c>
+      <c r="T79">
+        <v>2.25</v>
+      </c>
+      <c r="U79">
         <v>2.1</v>
       </c>
-      <c r="O79">
-        <v>3.8</v>
-      </c>
-      <c r="P79">
-        <v>3.2</v>
-      </c>
-      <c r="Q79">
-        <v>-0.25</v>
-      </c>
-      <c r="R79">
-        <v>1.88</v>
-      </c>
-      <c r="S79">
-        <v>2.02</v>
-      </c>
-      <c r="T79">
-        <v>3</v>
-      </c>
-      <c r="U79">
-        <v>1.97</v>
-      </c>
       <c r="V79">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y79">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1.02</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.9299999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7591,7 +7591,7 @@
         <v>45201.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s">
         <v>49</v>
@@ -7683,7 +7683,7 @@
         <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -7947,7 +7947,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G84" t="s">
         <v>30</v>
@@ -8202,7 +8202,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6868648</v>
+        <v>6868644</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8214,58 +8214,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>53</v>
       </c>
       <c r="K87">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L87">
         <v>3.4</v>
       </c>
       <c r="M87">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N87">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O87">
+        <v>3.4</v>
+      </c>
+      <c r="P87">
         <v>3.3</v>
       </c>
-      <c r="P87">
-        <v>2.45</v>
-      </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="S87">
-        <v>2.125</v>
+        <v>2.01</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="V87">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="W87">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8274,13 +8274,13 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.78</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.9199999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8291,7 +8291,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6868644</v>
+        <v>6868648</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8303,58 +8303,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G88" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
         <v>2</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>53</v>
       </c>
       <c r="K88">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
+        <v>2.625</v>
+      </c>
+      <c r="N88">
+        <v>2.9</v>
+      </c>
+      <c r="O88">
         <v>3.3</v>
       </c>
-      <c r="N88">
-        <v>2.2</v>
-      </c>
-      <c r="O88">
-        <v>3.4</v>
-      </c>
       <c r="P88">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
+        <v>1.78</v>
+      </c>
+      <c r="S88">
+        <v>2.125</v>
+      </c>
+      <c r="T88">
+        <v>2.25</v>
+      </c>
+      <c r="U88">
         <v>1.92</v>
       </c>
-      <c r="S88">
-        <v>2.01</v>
-      </c>
-      <c r="T88">
-        <v>2.5</v>
-      </c>
-      <c r="U88">
-        <v>1.99</v>
-      </c>
       <c r="V88">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W88">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8363,13 +8363,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
+        <v>0.78</v>
+      </c>
+      <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
         <v>0.9199999999999999</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>0.99</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8395,7 +8395,7 @@
         <v>49</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8484,7 +8484,7 @@
         <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8837,7 +8837,7 @@
         <v>45221.3125</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -8914,7 +8914,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6868653</v>
+        <v>6868658</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8926,73 +8926,73 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G95" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K95">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M95">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N95">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P95">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="V95">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="W95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AB95">
-        <v>0.8500000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6868658</v>
+        <v>6868653</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,73 +9015,73 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K96">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L96">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N96">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O96">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X96">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
+        <v>0.475</v>
+      </c>
+      <c r="AA96">
         <v>-0.5</v>
       </c>
-      <c r="AA96">
-        <v>0.46</v>
-      </c>
       <c r="AB96">
-        <v>0.98</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9104,7 +9104,7 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9196,7 +9196,7 @@
         <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9282,10 +9282,10 @@
         <v>45222.5625</v>
       </c>
       <c r="F99" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" t="s">
         <v>38</v>
-      </c>
-      <c r="G99" t="s">
-        <v>34</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9371,7 +9371,7 @@
         <v>45222.65625</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G100" t="s">
         <v>31</v>
@@ -9638,7 +9638,7 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9727,7 +9727,7 @@
         <v>45227.65625</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G104" t="s">
         <v>44</v>
@@ -9908,7 +9908,7 @@
         <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9997,7 +9997,7 @@
         <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10175,7 +10175,7 @@
         <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10264,7 +10264,7 @@
         <v>47</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10528,7 +10528,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
         <v>40</v>
@@ -10620,7 +10620,7 @@
         <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10884,10 +10884,10 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10973,10 +10973,10 @@
         <v>45235.69791666666</v>
       </c>
       <c r="F118" t="s">
+        <v>45</v>
+      </c>
+      <c r="G118" t="s">
         <v>46</v>
-      </c>
-      <c r="G118" t="s">
-        <v>45</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11418,7 +11418,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
         <v>36</v>
@@ -11507,7 +11507,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G124" t="s">
         <v>49</v>
@@ -11774,7 +11774,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G127" t="s">
         <v>42</v>
@@ -11863,10 +11863,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11955,7 +11955,7 @@
         <v>47</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12219,7 +12219,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
         <v>33</v>
@@ -12311,7 +12311,7 @@
         <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12664,10 +12664,10 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F137" t="s">
+        <v>35</v>
+      </c>
+      <c r="G137" t="s">
         <v>37</v>
-      </c>
-      <c r="G137" t="s">
-        <v>38</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12753,7 +12753,7 @@
         <v>45256.69791666666</v>
       </c>
       <c r="F138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G138" t="s">
         <v>40</v>
@@ -12845,7 +12845,7 @@
         <v>44</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13023,7 +13023,7 @@
         <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13376,7 +13376,7 @@
         <v>45263.35416666666</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
         <v>42</v>
@@ -13453,7 +13453,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6868707</v>
+        <v>6868716</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13465,76 +13465,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F146" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H146">
         <v>3</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J146" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K146">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L146">
+        <v>3.3</v>
+      </c>
+      <c r="M146">
+        <v>4.25</v>
+      </c>
+      <c r="N146">
+        <v>1.8</v>
+      </c>
+      <c r="O146">
+        <v>3.6</v>
+      </c>
+      <c r="P146">
         <v>4.5</v>
       </c>
-      <c r="M146">
-        <v>6.5</v>
-      </c>
-      <c r="N146">
-        <v>1.4</v>
-      </c>
-      <c r="O146">
-        <v>4.75</v>
-      </c>
-      <c r="P146">
-        <v>7.5</v>
-      </c>
       <c r="Q146">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V146">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W146">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB146">
-        <v>0.51</v>
+        <v>1.04</v>
       </c>
       <c r="AC146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13542,7 +13542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6868716</v>
+        <v>6868707</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13554,76 +13554,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H147">
         <v>3</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K147">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L147">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M147">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="N147">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P147">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q147">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R147">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V147">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X147">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA147">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>1.04</v>
+        <v>0.51</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13646,7 +13646,7 @@
         <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13824,7 +13824,7 @@
         <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13910,7 +13910,7 @@
         <v>45268.69791666666</v>
       </c>
       <c r="F151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G151" t="s">
         <v>33</v>
@@ -14088,7 +14088,7 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
         <v>36</v>
@@ -14180,7 +14180,7 @@
         <v>40</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H154">
         <v>4</v>
@@ -14533,10 +14533,10 @@
         <v>45270.69791666666</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14625,7 +14625,7 @@
         <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14803,7 +14803,7 @@
         <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14889,7 +14889,7 @@
         <v>45276.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
         <v>39</v>
@@ -15233,7 +15233,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6868729</v>
+        <v>6868736</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15245,61 +15245,61 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K166">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L166">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M166">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="N166">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O166">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q166">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S166">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T166">
         <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V166">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="W166">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y166">
         <v>-1</v>
@@ -15311,10 +15311,10 @@
         <v>-0</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC166">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15322,7 +15322,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6868736</v>
+        <v>6868729</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15334,61 +15334,61 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K167">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M167">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="N167">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O167">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P167">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R167">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S167">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T167">
         <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V167">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X167">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
@@ -15400,10 +15400,10 @@
         <v>-0</v>
       </c>
       <c r="AB167">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15426,7 +15426,7 @@
         <v>42</v>
       </c>
       <c r="G168" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15601,7 +15601,7 @@
         <v>45278.69791666666</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
         <v>48</v>
@@ -15871,7 +15871,7 @@
         <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16049,7 +16049,7 @@
         <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16138,7 +16138,7 @@
         <v>30</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16227,7 +16227,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16301,7 +16301,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6868740</v>
+        <v>6868741</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16313,10 +16313,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16328,43 +16328,43 @@
         <v>53</v>
       </c>
       <c r="K178">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="L178">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M178">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="N178">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P178">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R178">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="S178">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="W178">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16373,16 +16373,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>0.475</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6868741</v>
+        <v>6868740</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,10 +16402,10 @@
         <v>45283.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16417,43 +16417,43 @@
         <v>53</v>
       </c>
       <c r="K179">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="L179">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M179">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="N179">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O179">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q179">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S179">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16462,16 +16462,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC179">
-        <v>1.04</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16491,7 +16491,7 @@
         <v>45283.69791666666</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
         <v>33</v>
@@ -16580,7 +16580,7 @@
         <v>45289.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G181" t="s">
         <v>30</v>
@@ -16936,10 +16936,10 @@
         <v>45290.35416666666</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17114,7 +17114,7 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
         <v>42</v>
@@ -17191,7 +17191,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6868754</v>
+        <v>6868751</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17203,76 +17203,76 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
         <v>1</v>
       </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
       <c r="J188" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K188">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L188">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M188">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N188">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O188">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q188">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>2.09</v>
+        <v>1.93</v>
       </c>
       <c r="S188">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="T188">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W188">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.42</v>
+        <v>0.97</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17280,7 +17280,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6868751</v>
+        <v>6868754</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17292,76 +17292,76 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K189">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L189">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M189">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N189">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P189">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q189">
+        <v>-1.25</v>
+      </c>
+      <c r="R189">
+        <v>2.09</v>
+      </c>
+      <c r="S189">
+        <v>1.84</v>
+      </c>
+      <c r="T189">
+        <v>3.25</v>
+      </c>
+      <c r="U189">
+        <v>1.95</v>
+      </c>
+      <c r="V189">
+        <v>1.95</v>
+      </c>
+      <c r="W189">
+        <v>0.5</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
+        <v>-1</v>
+      </c>
+      <c r="Z189">
         <v>-0.5</v>
       </c>
-      <c r="R189">
-        <v>1.93</v>
-      </c>
-      <c r="S189">
-        <v>1.97</v>
-      </c>
-      <c r="T189">
-        <v>2.25</v>
-      </c>
-      <c r="U189">
-        <v>1.775</v>
-      </c>
-      <c r="V189">
-        <v>2.025</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>3.2</v>
-      </c>
-      <c r="Z189">
-        <v>-1</v>
-      </c>
       <c r="AA189">
-        <v>0.97</v>
+        <v>0.42</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17381,10 +17381,10 @@
         <v>45290.69791666666</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17737,7 +17737,7 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G194" t="s">
         <v>49</v>
@@ -17829,7 +17829,7 @@
         <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -18093,7 +18093,7 @@
         <v>45298.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G198" t="s">
         <v>47</v>
@@ -18185,7 +18185,7 @@
         <v>48</v>
       </c>
       <c r="G199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18271,10 +18271,10 @@
         <v>45298.69791666666</v>
       </c>
       <c r="F200" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18719,7 +18719,7 @@
         <v>47</v>
       </c>
       <c r="G205" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18894,10 +18894,10 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F207" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G207" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -18986,7 +18986,7 @@
         <v>36</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H208">
         <v>3</v>
@@ -19072,7 +19072,7 @@
         <v>45306.69791666666</v>
       </c>
       <c r="F209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
         <v>39</v>
@@ -19161,7 +19161,7 @@
         <v>45307.69791666666</v>
       </c>
       <c r="F210" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G210" t="s">
         <v>29</v>
@@ -19250,7 +19250,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
         <v>44</v>
@@ -19339,7 +19339,7 @@
         <v>45311.69791666666</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G212" t="s">
         <v>36</v>
@@ -19695,10 +19695,10 @@
         <v>45312.69791666666</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G216" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19873,10 +19873,10 @@
         <v>45318.45833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G218" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -19962,7 +19962,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G219" t="s">
         <v>31</v>
@@ -20143,7 +20143,7 @@
         <v>41</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6868795</v>
+        <v>6868791</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,76 +20229,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G222" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K222">
+        <v>2.1</v>
+      </c>
+      <c r="L222">
+        <v>3.25</v>
+      </c>
+      <c r="M222">
+        <v>3.7</v>
+      </c>
+      <c r="N222">
         <v>2.15</v>
-      </c>
-      <c r="L222">
-        <v>3.4</v>
-      </c>
-      <c r="M222">
-        <v>3.4</v>
-      </c>
-      <c r="N222">
-        <v>2.2</v>
       </c>
       <c r="O222">
         <v>3.3</v>
       </c>
       <c r="P222">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q222">
         <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S222">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="V222">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W222">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC222">
-        <v>0.9099999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6868791</v>
+        <v>6868795</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,76 +20318,76 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G223" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H223">
         <v>1</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K223">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L223">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M223">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="N223">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O223">
         <v>3.3</v>
       </c>
       <c r="P223">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q223">
         <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S223">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="V223">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X223">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA223">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>0.5</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20496,7 +20496,7 @@
         <v>45319.69791666666</v>
       </c>
       <c r="F225" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G225" t="s">
         <v>40</v>
@@ -20588,7 +20588,7 @@
         <v>48</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -20674,10 +20674,10 @@
         <v>45324.69791666666</v>
       </c>
       <c r="F227" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H227">
         <v>3</v>
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6868806</v>
+        <v>6868799</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,10 +20763,10 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20778,61 +20778,61 @@
         <v>54</v>
       </c>
       <c r="K228">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L228">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M228">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N228">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O228">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P228">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q228">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="S228">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U228">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V228">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA228">
-        <v>0.5449999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.8999999999999999</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6868799</v>
+        <v>6868806</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,10 +20852,10 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20867,61 +20867,61 @@
         <v>54</v>
       </c>
       <c r="K229">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L229">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M229">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N229">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O229">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P229">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="S229">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="T229">
+        <v>2.25</v>
+      </c>
+      <c r="U229">
         <v>2</v>
       </c>
-      <c r="U229">
-        <v>2.08</v>
-      </c>
       <c r="V229">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>-0</v>
+        <v>0.5449999999999999</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.8200000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21297,7 +21297,7 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G234" t="s">
         <v>47</v>
@@ -21389,7 +21389,7 @@
         <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21475,7 +21475,7 @@
         <v>45327.69791666666</v>
       </c>
       <c r="F236" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G236" t="s">
         <v>49</v>
@@ -21742,7 +21742,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G239" t="s">
         <v>40</v>
@@ -21920,7 +21920,7 @@
         <v>45333.35416666666</v>
       </c>
       <c r="F241" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G241" t="s">
         <v>39</v>
@@ -21997,7 +21997,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6868810</v>
+        <v>6868814</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22009,76 +22009,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F242" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G242" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I242">
         <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K242">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L242">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="M242">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N242">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O242">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P242">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q242">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R242">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="S242">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="T242">
         <v>2.25</v>
       </c>
       <c r="U242">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="V242">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="W242">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X242">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA242">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC242">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22086,7 +22086,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6868814</v>
+        <v>6868810</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22098,76 +22098,76 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G243" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H243">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I243">
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K243">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L243">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M243">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N243">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O243">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P243">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q243">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="S243">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="T243">
         <v>2.25</v>
       </c>
       <c r="U243">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="V243">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="W243">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>0.46</v>
       </c>
       <c r="AB243">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22190,7 +22190,7 @@
         <v>41</v>
       </c>
       <c r="G244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22365,10 +22365,10 @@
         <v>45334.69791666666</v>
       </c>
       <c r="F246" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G246" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -22457,7 +22457,7 @@
         <v>42</v>
       </c>
       <c r="G247" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H247">
         <v>2</v>
@@ -22546,7 +22546,7 @@
         <v>30</v>
       </c>
       <c r="G248" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -22813,7 +22813,7 @@
         <v>44</v>
       </c>
       <c r="G251" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H251">
         <v>2</v>
@@ -22899,7 +22899,7 @@
         <v>45339.69791666666</v>
       </c>
       <c r="F252" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G252" t="s">
         <v>29</v>
@@ -23080,7 +23080,7 @@
         <v>31</v>
       </c>
       <c r="G254" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H254">
         <v>1</v>
@@ -23166,7 +23166,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G255" t="s">
         <v>49</v>
@@ -23258,7 +23258,7 @@
         <v>39</v>
       </c>
       <c r="G256" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>41</v>
       </c>
       <c r="G262" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H262">
         <v>2</v>
@@ -23878,7 +23878,7 @@
         <v>45347.35416666666</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G263" t="s">
         <v>39</v>
@@ -24056,7 +24056,7 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G265" t="s">
         <v>40</v>
@@ -24148,7 +24148,7 @@
         <v>36</v>
       </c>
       <c r="G266" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -24234,7 +24234,7 @@
         <v>45348.60416666666</v>
       </c>
       <c r="F267" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G267" t="s">
         <v>30</v>
@@ -24323,7 +24323,7 @@
         <v>45348.69791666666</v>
       </c>
       <c r="F268" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G268" t="s">
         <v>47</v>
@@ -24504,7 +24504,7 @@
         <v>40</v>
       </c>
       <c r="G270" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H270">
         <v>4</v>
@@ -24679,7 +24679,7 @@
         <v>45353.45833333334</v>
       </c>
       <c r="F272" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G272" t="s">
         <v>48</v>
@@ -24771,7 +24771,7 @@
         <v>43</v>
       </c>
       <c r="G273" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H273">
         <v>1</v>
@@ -24860,7 +24860,7 @@
         <v>30</v>
       </c>
       <c r="G274" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -24951,6 +24951,15 @@
       <c r="G275" t="s">
         <v>29</v>
       </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275" t="s">
+        <v>53</v>
+      </c>
       <c r="K275">
         <v>2.2</v>
       </c>
@@ -24961,46 +24970,52 @@
         <v>3.3</v>
       </c>
       <c r="N275">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O275">
         <v>3.4</v>
       </c>
       <c r="P275">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q275">
         <v>-0.25</v>
       </c>
       <c r="R275">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="S275">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T275">
         <v>2.5</v>
       </c>
       <c r="U275">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="V275">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="W275">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X275">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AA275">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB275">
+        <v>-1</v>
+      </c>
+      <c r="AC275">
+        <v>0.95</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25025,6 +25040,15 @@
       <c r="G276" t="s">
         <v>49</v>
       </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276" t="s">
+        <v>52</v>
+      </c>
       <c r="K276">
         <v>2.2</v>
       </c>
@@ -25035,46 +25059,52 @@
         <v>3.3</v>
       </c>
       <c r="N276">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O276">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P276">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q276">
         <v>-0.25</v>
       </c>
       <c r="R276">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="S276">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="T276">
         <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.91</v>
+        <v>1.775</v>
       </c>
       <c r="V276">
-        <v>1.99</v>
+        <v>2.025</v>
       </c>
       <c r="W276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Z276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0</v>
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="AB276">
+        <v>-1</v>
+      </c>
+      <c r="AC276">
+        <v>1.025</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25097,7 +25127,16 @@
         <v>39</v>
       </c>
       <c r="G277" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277" t="s">
+        <v>54</v>
       </c>
       <c r="K277">
         <v>2.2</v>
@@ -25112,7 +25151,7 @@
         <v>2.25</v>
       </c>
       <c r="O277">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P277">
         <v>3.3</v>
@@ -25121,34 +25160,40 @@
         <v>-0.25</v>
       </c>
       <c r="R277">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S277">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T277">
         <v>2.5</v>
       </c>
       <c r="U277">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V277">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W277">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X277">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y277">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA277">
-        <v>0</v>
+        <v>0.465</v>
+      </c>
+      <c r="AB277">
+        <v>-1</v>
+      </c>
+      <c r="AC277">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25168,11 +25213,20 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F278" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G278" t="s">
         <v>42</v>
       </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>2</v>
+      </c>
+      <c r="J278" t="s">
+        <v>52</v>
+      </c>
       <c r="K278">
         <v>1.833</v>
       </c>
@@ -25183,46 +25237,52 @@
         <v>4.333</v>
       </c>
       <c r="N278">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O278">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P278">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q278">
         <v>-0.5</v>
       </c>
       <c r="R278">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="S278">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="T278">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U278">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="V278">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="W278">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X278">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y278">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Z278">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>0</v>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="AB278">
+        <v>1.04</v>
+      </c>
+      <c r="AC278">
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25245,7 +25305,16 @@
         <v>33</v>
       </c>
       <c r="G279" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="H279">
+        <v>2</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279" t="s">
+        <v>53</v>
       </c>
       <c r="K279">
         <v>2.55</v>
@@ -25257,22 +25326,22 @@
         <v>2.75</v>
       </c>
       <c r="N279">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O279">
         <v>3.1</v>
       </c>
       <c r="P279">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q279">
         <v>-0.25</v>
       </c>
       <c r="R279">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="S279">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="T279">
         <v>2.25</v>
@@ -25284,19 +25353,25 @@
         <v>1.8</v>
       </c>
       <c r="W279">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
-        <v>0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA279">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB279">
+        <v>1.1</v>
+      </c>
+      <c r="AC279">
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25321,6 +25396,15 @@
       <c r="G280" t="s">
         <v>41</v>
       </c>
+      <c r="H280">
+        <v>2</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280" t="s">
+        <v>53</v>
+      </c>
       <c r="K280">
         <v>1.285</v>
       </c>
@@ -25343,34 +25427,40 @@
         <v>-1.5</v>
       </c>
       <c r="R280">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="S280">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="T280">
         <v>2.75</v>
       </c>
       <c r="U280">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="V280">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="W280">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA280">
-        <v>0</v>
+        <v>1.01</v>
+      </c>
+      <c r="AB280">
+        <v>0.475</v>
+      </c>
+      <c r="AC280">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25405,31 +25495,31 @@
         <v>3.8</v>
       </c>
       <c r="N281">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O281">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P281">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q281">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R281">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="S281">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="T281">
         <v>2.25</v>
       </c>
       <c r="U281">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="V281">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W281">
         <v>0</v>
@@ -25479,31 +25569,31 @@
         <v>3.1</v>
       </c>
       <c r="N282">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O282">
         <v>3.6</v>
       </c>
       <c r="P282">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q282">
         <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="S282">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="T282">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U282">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="V282">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="W282">
         <v>0</v>
@@ -25553,7 +25643,7 @@
         <v>4.2</v>
       </c>
       <c r="N283">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O283">
         <v>3.6</v>
@@ -25565,19 +25655,19 @@
         <v>-0.5</v>
       </c>
       <c r="R283">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="S283">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T283">
         <v>2.5</v>
       </c>
       <c r="U283">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="V283">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="W283">
         <v>0</v>
@@ -25627,31 +25717,31 @@
         <v>1.909</v>
       </c>
       <c r="N284">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O284">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P284">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q284">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R284">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="S284">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="T284">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U284">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="V284">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="W284">
         <v>0</v>
@@ -25722,10 +25812,10 @@
         <v>2</v>
       </c>
       <c r="U285">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V285">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="W285">
         <v>0</v>
@@ -25740,6 +25830,376 @@
         <v>0</v>
       </c>
       <c r="AA285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:29">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>6868852</v>
+      </c>
+      <c r="C286" t="s">
+        <v>28</v>
+      </c>
+      <c r="D286" t="s">
+        <v>28</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45361.35416666666</v>
+      </c>
+      <c r="F286" t="s">
+        <v>38</v>
+      </c>
+      <c r="G286" t="s">
+        <v>44</v>
+      </c>
+      <c r="K286">
+        <v>2.05</v>
+      </c>
+      <c r="L286">
+        <v>3.25</v>
+      </c>
+      <c r="M286">
+        <v>3.8</v>
+      </c>
+      <c r="N286">
+        <v>2.25</v>
+      </c>
+      <c r="O286">
+        <v>3.25</v>
+      </c>
+      <c r="P286">
+        <v>3.25</v>
+      </c>
+      <c r="Q286">
+        <v>-0.25</v>
+      </c>
+      <c r="R286">
+        <v>1.92</v>
+      </c>
+      <c r="S286">
+        <v>1.98</v>
+      </c>
+      <c r="T286">
+        <v>2.25</v>
+      </c>
+      <c r="U286">
+        <v>2.08</v>
+      </c>
+      <c r="V286">
+        <v>1.82</v>
+      </c>
+      <c r="W286">
+        <v>0</v>
+      </c>
+      <c r="X286">
+        <v>0</v>
+      </c>
+      <c r="Y286">
+        <v>0</v>
+      </c>
+      <c r="Z286">
+        <v>0</v>
+      </c>
+      <c r="AA286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:29">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>6868853</v>
+      </c>
+      <c r="C287" t="s">
+        <v>28</v>
+      </c>
+      <c r="D287" t="s">
+        <v>28</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F287" t="s">
+        <v>36</v>
+      </c>
+      <c r="G287" t="s">
+        <v>31</v>
+      </c>
+      <c r="K287">
+        <v>1.4</v>
+      </c>
+      <c r="L287">
+        <v>4.75</v>
+      </c>
+      <c r="M287">
+        <v>7</v>
+      </c>
+      <c r="N287">
+        <v>1.363</v>
+      </c>
+      <c r="O287">
+        <v>5</v>
+      </c>
+      <c r="P287">
+        <v>8</v>
+      </c>
+      <c r="Q287">
+        <v>-1.25</v>
+      </c>
+      <c r="R287">
+        <v>2.01</v>
+      </c>
+      <c r="S287">
+        <v>1.89</v>
+      </c>
+      <c r="T287">
+        <v>2.75</v>
+      </c>
+      <c r="U287">
+        <v>1.95</v>
+      </c>
+      <c r="V287">
+        <v>1.95</v>
+      </c>
+      <c r="W287">
+        <v>0</v>
+      </c>
+      <c r="X287">
+        <v>0</v>
+      </c>
+      <c r="Y287">
+        <v>0</v>
+      </c>
+      <c r="Z287">
+        <v>0</v>
+      </c>
+      <c r="AA287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:29">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>6957790</v>
+      </c>
+      <c r="C288" t="s">
+        <v>28</v>
+      </c>
+      <c r="D288" t="s">
+        <v>28</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45361.58333333334</v>
+      </c>
+      <c r="F288" t="s">
+        <v>46</v>
+      </c>
+      <c r="G288" t="s">
+        <v>34</v>
+      </c>
+      <c r="K288">
+        <v>2.05</v>
+      </c>
+      <c r="L288">
+        <v>3.4</v>
+      </c>
+      <c r="M288">
+        <v>3.6</v>
+      </c>
+      <c r="N288">
+        <v>2.2</v>
+      </c>
+      <c r="O288">
+        <v>3.3</v>
+      </c>
+      <c r="P288">
+        <v>3.4</v>
+      </c>
+      <c r="Q288">
+        <v>-0.25</v>
+      </c>
+      <c r="R288">
+        <v>1.95</v>
+      </c>
+      <c r="S288">
+        <v>1.95</v>
+      </c>
+      <c r="T288">
+        <v>2.25</v>
+      </c>
+      <c r="U288">
+        <v>1.92</v>
+      </c>
+      <c r="V288">
+        <v>1.98</v>
+      </c>
+      <c r="W288">
+        <v>0</v>
+      </c>
+      <c r="X288">
+        <v>0</v>
+      </c>
+      <c r="Y288">
+        <v>0</v>
+      </c>
+      <c r="Z288">
+        <v>0</v>
+      </c>
+      <c r="AA288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>6868849</v>
+      </c>
+      <c r="C289" t="s">
+        <v>28</v>
+      </c>
+      <c r="D289" t="s">
+        <v>28</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45361.69791666666</v>
+      </c>
+      <c r="F289" t="s">
+        <v>45</v>
+      </c>
+      <c r="G289" t="s">
+        <v>35</v>
+      </c>
+      <c r="K289">
+        <v>2.375</v>
+      </c>
+      <c r="L289">
+        <v>3.3</v>
+      </c>
+      <c r="M289">
+        <v>3</v>
+      </c>
+      <c r="N289">
+        <v>2.55</v>
+      </c>
+      <c r="O289">
+        <v>3.25</v>
+      </c>
+      <c r="P289">
+        <v>2.75</v>
+      </c>
+      <c r="Q289">
+        <v>0</v>
+      </c>
+      <c r="R289">
+        <v>1.86</v>
+      </c>
+      <c r="S289">
+        <v>2.04</v>
+      </c>
+      <c r="T289">
+        <v>2.5</v>
+      </c>
+      <c r="U289">
+        <v>2.06</v>
+      </c>
+      <c r="V289">
+        <v>1.84</v>
+      </c>
+      <c r="W289">
+        <v>0</v>
+      </c>
+      <c r="X289">
+        <v>0</v>
+      </c>
+      <c r="Y289">
+        <v>0</v>
+      </c>
+      <c r="Z289">
+        <v>0</v>
+      </c>
+      <c r="AA289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>6868851</v>
+      </c>
+      <c r="C290" t="s">
+        <v>28</v>
+      </c>
+      <c r="D290" t="s">
+        <v>28</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45362.69791666666</v>
+      </c>
+      <c r="F290" t="s">
+        <v>47</v>
+      </c>
+      <c r="G290" t="s">
+        <v>37</v>
+      </c>
+      <c r="K290">
+        <v>1.75</v>
+      </c>
+      <c r="L290">
+        <v>3.5</v>
+      </c>
+      <c r="M290">
+        <v>4.75</v>
+      </c>
+      <c r="N290">
+        <v>1.909</v>
+      </c>
+      <c r="O290">
+        <v>3.4</v>
+      </c>
+      <c r="P290">
+        <v>4</v>
+      </c>
+      <c r="Q290">
+        <v>-0.5</v>
+      </c>
+      <c r="R290">
+        <v>1.95</v>
+      </c>
+      <c r="S290">
+        <v>1.95</v>
+      </c>
+      <c r="T290">
+        <v>2.25</v>
+      </c>
+      <c r="U290">
+        <v>1.98</v>
+      </c>
+      <c r="V290">
+        <v>1.92</v>
+      </c>
+      <c r="W290">
+        <v>0</v>
+      </c>
+      <c r="X290">
+        <v>0</v>
+      </c>
+      <c r="Y290">
+        <v>0</v>
+      </c>
+      <c r="Z290">
+        <v>0</v>
+      </c>
+      <c r="AA290">
         <v>0</v>
       </c>
     </row>

--- a/Italy Serie A/Italy Serie A.xlsx
+++ b/Italy Serie A/Italy Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -121,16 +121,16 @@
     <t>Atalanta</t>
   </si>
   <si>
+    <t>AC Milan</t>
+  </si>
+  <si>
     <t>Roma</t>
   </si>
   <si>
-    <t>AC Milan</t>
+    <t>Lecce</t>
   </si>
   <si>
     <t>Udinese</t>
-  </si>
-  <si>
-    <t>Lecce</t>
   </si>
   <si>
     <t>Frosinone</t>
@@ -151,10 +151,10 @@
     <t>Verona</t>
   </si>
   <si>
-    <t>Fiorentina</t>
+    <t>Juventus</t>
   </si>
   <si>
-    <t>Juventus</t>
+    <t>Fiorentina</t>
   </si>
   <si>
     <t>Lazio</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC290"/>
+  <dimension ref="A1:AC293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,7 +652,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5737535</v>
+        <v>5713502</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1186,10 +1186,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1198,43 +1198,43 @@
         <v>53</v>
       </c>
       <c r="K8">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M8">
+        <v>4.333</v>
+      </c>
+      <c r="N8">
+        <v>1.666</v>
+      </c>
+      <c r="O8">
         <v>4</v>
       </c>
-      <c r="N8">
-        <v>1.75</v>
-      </c>
-      <c r="O8">
-        <v>3.75</v>
-      </c>
       <c r="P8">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q8">
         <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="S8">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>0.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1243,13 +1243,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.5149999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8400000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1260,7 +1260,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5713502</v>
+        <v>5737535</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1275,10 +1275,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1287,43 +1287,43 @@
         <v>53</v>
       </c>
       <c r="K9">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L9">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q9">
         <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="S9">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="W9">
-        <v>0.6659999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1332,13 +1332,13 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8799999999999999</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5737536</v>
+        <v>5706213</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1364,52 +1364,52 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>52</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L10">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="N10">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P10">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S10">
-        <v>1.82</v>
+        <v>2.03</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="V10">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1418,19 +1418,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.615</v>
+        <v>1.75</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.41</v>
+        <v>1.03</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AC10">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5706213</v>
+        <v>5737536</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1453,52 +1453,52 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>52</v>
       </c>
       <c r="K11">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="N11">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
+        <v>1.615</v>
+      </c>
+      <c r="Q11">
+        <v>0.75</v>
+      </c>
+      <c r="R11">
+        <v>2.08</v>
+      </c>
+      <c r="S11">
+        <v>1.82</v>
+      </c>
+      <c r="T11">
         <v>2.75</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>1.87</v>
-      </c>
-      <c r="S11">
-        <v>2.03</v>
-      </c>
-      <c r="T11">
-        <v>2.5</v>
-      </c>
       <c r="U11">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="V11">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1507,19 +1507,19 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.75</v>
+        <v>0.615</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>1.03</v>
+        <v>0.41</v>
       </c>
       <c r="AB11">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1527,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6868439</v>
+        <v>6868438</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1539,55 +1539,55 @@
         <v>45157.5625</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>1</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
       </c>
       <c r="J12" t="s">
         <v>52</v>
       </c>
       <c r="K12">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="L12">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M12">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="N12">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1596,19 +1596,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.55</v>
+        <v>2.25</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1616,7 +1616,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6868438</v>
+        <v>6868439</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1628,55 +1628,55 @@
         <v>45157.5625</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
         <v>52</v>
       </c>
       <c r="K13">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="L13">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
+        <v>1.4</v>
+      </c>
+      <c r="N13">
+        <v>6.5</v>
+      </c>
+      <c r="O13">
+        <v>4.333</v>
+      </c>
+      <c r="P13">
+        <v>1.55</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1.95</v>
+      </c>
+      <c r="S13">
+        <v>1.95</v>
+      </c>
+      <c r="T13">
         <v>2.75</v>
       </c>
-      <c r="N13">
-        <v>2.25</v>
-      </c>
-      <c r="O13">
-        <v>3.3</v>
-      </c>
-      <c r="P13">
-        <v>3.25</v>
-      </c>
-      <c r="Q13">
-        <v>-0.25</v>
-      </c>
-      <c r="R13">
-        <v>2.01</v>
-      </c>
-      <c r="S13">
-        <v>1.92</v>
-      </c>
-      <c r="T13">
-        <v>2.5</v>
-      </c>
       <c r="U13">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1685,19 +1685,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>2.25</v>
+        <v>0.55</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.9199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1809,7 +1809,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1895,7 +1895,7 @@
         <v>45158.5625</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>48</v>
@@ -2061,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6868446</v>
+        <v>6868442</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2076,70 +2076,70 @@
         <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M18">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O18">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P18">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="S18">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AA18">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2150,7 +2150,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6868442</v>
+        <v>6868446</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2165,70 +2165,70 @@
         <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N19">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O19">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P19">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z19">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB19">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2343,7 +2343,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6868584</v>
+        <v>6868589</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2429,76 +2429,76 @@
         <v>45164.5625</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>53</v>
       </c>
       <c r="K22">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="L22">
         <v>3.6</v>
       </c>
       <c r="M22">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="N22">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="O22">
+        <v>3.6</v>
+      </c>
+      <c r="P22">
         <v>4</v>
       </c>
-      <c r="P22">
-        <v>1.6</v>
-      </c>
       <c r="Q22">
+        <v>-0.5</v>
+      </c>
+      <c r="R22">
+        <v>1.93</v>
+      </c>
+      <c r="S22">
+        <v>1.97</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>1.9</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>0.909</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>1</v>
-      </c>
-      <c r="R22">
-        <v>1.84</v>
-      </c>
-      <c r="S22">
-        <v>2.06</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.92</v>
-      </c>
-      <c r="V22">
-        <v>1.98</v>
-      </c>
-      <c r="W22">
-        <v>4.25</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>0.46</v>
-      </c>
-      <c r="AC22">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2506,7 +2506,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6868589</v>
+        <v>6868584</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2518,76 +2518,76 @@
         <v>45164.5625</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>53</v>
       </c>
       <c r="K23">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="L23">
         <v>3.6</v>
       </c>
       <c r="M23">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N23">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1.84</v>
+      </c>
+      <c r="S23">
+        <v>2.06</v>
+      </c>
+      <c r="T23">
+        <v>2.75</v>
+      </c>
+      <c r="U23">
+        <v>1.92</v>
+      </c>
+      <c r="V23">
+        <v>1.98</v>
+      </c>
+      <c r="W23">
+        <v>4.25</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
+        <v>0.46</v>
+      </c>
+      <c r="AC23">
         <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.93</v>
-      </c>
-      <c r="S23">
-        <v>1.97</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.9</v>
-      </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
-      <c r="W23">
-        <v>0.909</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2610,7 +2610,7 @@
         <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2696,7 +2696,7 @@
         <v>45164.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -2773,7 +2773,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6868583</v>
+        <v>6868586</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2788,13 +2788,13 @@
         <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>54</v>
@@ -2809,10 +2809,10 @@
         <v>6</v>
       </c>
       <c r="N26">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P26">
         <v>5</v>
@@ -2821,25 +2821,25 @@
         <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S26">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="V26">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y26">
         <v>-1</v>
@@ -2848,13 +2848,13 @@
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="AB26">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2862,7 +2862,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6868586</v>
+        <v>6868583</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2877,13 +2877,13 @@
         <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
         <v>54</v>
@@ -2898,10 +2898,10 @@
         <v>6</v>
       </c>
       <c r="N27">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O27">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P27">
         <v>5</v>
@@ -2910,25 +2910,25 @@
         <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S27">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="V27">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y27">
         <v>-1</v>
@@ -2937,13 +2937,13 @@
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC27">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3144,7 +3144,7 @@
         <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3408,10 +3408,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
         <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6868593</v>
+        <v>6868601</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,76 +3497,76 @@
         <v>45171.5625</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="L34">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="N34">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P34">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q34">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
+        <v>1.93</v>
+      </c>
+      <c r="S34">
+        <v>1.97</v>
+      </c>
+      <c r="T34">
+        <v>2.5</v>
+      </c>
+      <c r="U34">
         <v>2.05</v>
       </c>
-      <c r="S34">
-        <v>1.88</v>
-      </c>
-      <c r="T34">
-        <v>2.75</v>
-      </c>
-      <c r="U34">
-        <v>2.04</v>
-      </c>
       <c r="V34">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W34">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB34">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3574,7 +3574,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6868601</v>
+        <v>6868593</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3586,76 +3586,76 @@
         <v>45171.5625</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="L35">
+        <v>3.75</v>
+      </c>
+      <c r="M35">
+        <v>5.25</v>
+      </c>
+      <c r="N35">
+        <v>1.75</v>
+      </c>
+      <c r="O35">
         <v>3.6</v>
       </c>
-      <c r="M35">
-        <v>4.333</v>
-      </c>
-      <c r="N35">
-        <v>1.909</v>
-      </c>
-      <c r="O35">
-        <v>3.5</v>
-      </c>
       <c r="P35">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q35">
+        <v>-0.75</v>
+      </c>
+      <c r="R35">
+        <v>2.05</v>
+      </c>
+      <c r="S35">
+        <v>1.88</v>
+      </c>
+      <c r="T35">
+        <v>2.75</v>
+      </c>
+      <c r="U35">
+        <v>2.04</v>
+      </c>
+      <c r="V35">
+        <v>1.86</v>
+      </c>
+      <c r="W35">
+        <v>0.75</v>
+      </c>
+      <c r="X35">
+        <v>-1</v>
+      </c>
+      <c r="Y35">
+        <v>-1</v>
+      </c>
+      <c r="Z35">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA35">
         <v>-0.5</v>
       </c>
-      <c r="R35">
-        <v>1.93</v>
-      </c>
-      <c r="S35">
-        <v>1.97</v>
-      </c>
-      <c r="T35">
-        <v>2.5</v>
-      </c>
-      <c r="U35">
-        <v>2.05</v>
-      </c>
-      <c r="V35">
-        <v>1.85</v>
-      </c>
-      <c r="W35">
-        <v>-1</v>
-      </c>
-      <c r="X35">
-        <v>2.5</v>
-      </c>
-      <c r="Y35">
-        <v>-1</v>
-      </c>
-      <c r="Z35">
-        <v>-1</v>
-      </c>
-      <c r="AA35">
-        <v>0.97</v>
-      </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3841,7 +3841,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6868600</v>
+        <v>6868595</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3853,13 +3853,13 @@
         <v>45172.5625</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3874,37 +3874,37 @@
         <v>3.6</v>
       </c>
       <c r="M38">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N38">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="W38">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3913,16 +3913,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6868595</v>
+        <v>6868600</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3942,13 +3942,13 @@
         <v>45172.5625</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3963,37 +3963,37 @@
         <v>3.6</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N39">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O39">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V39">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4002,16 +4002,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.95</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4019,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6868596</v>
+        <v>6868594</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4031,76 +4031,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>2</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N40">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="O40">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>4.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R40">
+        <v>2.07</v>
+      </c>
+      <c r="S40">
+        <v>1.83</v>
+      </c>
+      <c r="T40">
+        <v>2.5</v>
+      </c>
+      <c r="U40">
+        <v>1.9</v>
+      </c>
+      <c r="V40">
         <v>2</v>
       </c>
-      <c r="S40">
-        <v>1.9</v>
-      </c>
-      <c r="T40">
-        <v>2.25</v>
-      </c>
-      <c r="U40">
-        <v>2.01</v>
-      </c>
-      <c r="V40">
-        <v>1.89</v>
-      </c>
       <c r="W40">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z40">
+        <v>-1</v>
+      </c>
+      <c r="AA40">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="AB40">
+        <v>-1</v>
+      </c>
+      <c r="AC40">
         <v>1</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>-0.5</v>
-      </c>
-      <c r="AC40">
-        <v>0.445</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4108,7 +4108,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6868594</v>
+        <v>6868596</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4120,76 +4120,76 @@
         <v>45172.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41">
+        <v>1.95</v>
+      </c>
+      <c r="L41">
+        <v>3.2</v>
+      </c>
+      <c r="M41">
+        <v>4.2</v>
+      </c>
+      <c r="N41">
+        <v>1.909</v>
+      </c>
+      <c r="O41">
+        <v>3.25</v>
+      </c>
+      <c r="P41">
+        <v>4.333</v>
+      </c>
+      <c r="Q41">
+        <v>-0.5</v>
+      </c>
+      <c r="R41">
         <v>2</v>
       </c>
-      <c r="J41" t="s">
-        <v>52</v>
-      </c>
-      <c r="K41">
-        <v>5</v>
-      </c>
-      <c r="L41">
-        <v>3.75</v>
-      </c>
-      <c r="M41">
-        <v>1.666</v>
-      </c>
-      <c r="N41">
-        <v>5.25</v>
-      </c>
-      <c r="O41">
-        <v>4</v>
-      </c>
-      <c r="P41">
-        <v>1.65</v>
-      </c>
-      <c r="Q41">
-        <v>0.75</v>
-      </c>
-      <c r="R41">
-        <v>2.07</v>
-      </c>
       <c r="S41">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA41">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4209,7 +4209,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s">
         <v>47</v>
@@ -4301,7 +4301,7 @@
         <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>5</v>
@@ -4479,7 +4479,7 @@
         <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6868604</v>
+        <v>6868609</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,76 +4565,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K46">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
+        <v>3.5</v>
+      </c>
+      <c r="N46">
         <v>2.4</v>
       </c>
-      <c r="N46">
+      <c r="O46">
+        <v>3.3</v>
+      </c>
+      <c r="P46">
         <v>2.9</v>
       </c>
-      <c r="O46">
-        <v>3.6</v>
-      </c>
-      <c r="P46">
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
+        <v>2.07</v>
+      </c>
+      <c r="S46">
+        <v>1.83</v>
+      </c>
+      <c r="T46">
+        <v>2.25</v>
+      </c>
+      <c r="U46">
+        <v>1.86</v>
+      </c>
+      <c r="V46">
+        <v>2.04</v>
+      </c>
+      <c r="W46">
+        <v>-1</v>
+      </c>
+      <c r="X46">
         <v>2.3</v>
       </c>
-      <c r="Q46">
-        <v>0.25</v>
-      </c>
-      <c r="R46">
-        <v>1.86</v>
-      </c>
-      <c r="S46">
-        <v>2.04</v>
-      </c>
-      <c r="T46">
-        <v>2.75</v>
-      </c>
-      <c r="U46">
-        <v>1.9</v>
-      </c>
-      <c r="V46">
-        <v>2</v>
-      </c>
-      <c r="W46">
-        <v>1.9</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.8600000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.415</v>
       </c>
       <c r="AB46">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4642,7 +4642,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6868609</v>
+        <v>6868604</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4654,76 +4654,76 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K47">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N47">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="S47">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X47">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.415</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC47">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4743,7 +4743,7 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
         <v>34</v>
@@ -4832,7 +4832,7 @@
         <v>45186.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -5188,7 +5188,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
         <v>41</v>
@@ -5277,7 +5277,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5369,7 +5369,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55">
         <v>4</v>
@@ -5621,7 +5621,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6868612</v>
+        <v>6868621</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5633,76 +5633,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>2</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K58">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="L58">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M58">
-        <v>10</v>
+        <v>2.25</v>
       </c>
       <c r="N58">
-        <v>1.444</v>
+        <v>3.2</v>
       </c>
       <c r="O58">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q58">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
+        <v>1.89</v>
+      </c>
+      <c r="S58">
         <v>2.01</v>
       </c>
-      <c r="S58">
-        <v>1.89</v>
-      </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="V58">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="W58">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z58">
+        <v>-1</v>
+      </c>
+      <c r="AA58">
         <v>1.01</v>
       </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>0.9299999999999999</v>
+        <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6868621</v>
+        <v>6868612</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5722,76 +5722,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K59">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="L59">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M59">
-        <v>2.25</v>
+        <v>10</v>
       </c>
       <c r="N59">
-        <v>3.2</v>
+        <v>1.444</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R59">
+        <v>2.01</v>
+      </c>
+      <c r="S59">
         <v>1.89</v>
       </c>
-      <c r="S59">
-        <v>2.01</v>
-      </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V59">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AA59">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.5149999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5903,7 +5903,7 @@
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5989,10 +5989,10 @@
         <v>45195.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6066,7 +6066,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6868626</v>
+        <v>6868622</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6078,31 +6078,31 @@
         <v>45196.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
         <v>52</v>
       </c>
       <c r="K63">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="L63">
         <v>4</v>
       </c>
       <c r="M63">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="N63">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O63">
         <v>3.5</v>
@@ -6120,13 +6120,13 @@
         <v>1.92</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="V63">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6144,10 +6144,10 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC63">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6155,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6868622</v>
+        <v>6868623</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6167,76 +6167,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K64">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M64">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="N64">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P64">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S64">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="T64">
         <v>2.25</v>
       </c>
       <c r="U64">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="V64">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA64">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6868623</v>
+        <v>6868626</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,76 +6256,76 @@
         <v>45196.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K65">
-        <v>2.25</v>
+        <v>4.7</v>
       </c>
       <c r="L65">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N65">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O65">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R65">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S65">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="V65">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="W65">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z65">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>1.02</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6333,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6868627</v>
+        <v>6868631</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6345,76 +6345,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>2</v>
-      </c>
       <c r="J66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K66">
         <v>1.333</v>
       </c>
       <c r="L66">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M66">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="N66">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="O66">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="P66">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Q66">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S66">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="T66">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="V66">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA66">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC66">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6511,7 +6511,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6868631</v>
+        <v>6868627</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6523,76 +6523,76 @@
         <v>45196.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K68">
         <v>1.333</v>
       </c>
       <c r="L68">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M68">
+        <v>7.5</v>
+      </c>
+      <c r="N68">
+        <v>1.25</v>
+      </c>
+      <c r="O68">
+        <v>6.5</v>
+      </c>
+      <c r="P68">
         <v>8.5</v>
       </c>
-      <c r="N68">
-        <v>1.4</v>
-      </c>
-      <c r="O68">
-        <v>5</v>
-      </c>
-      <c r="P68">
-        <v>7</v>
-      </c>
       <c r="Q68">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R68">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="S68">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U68">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W68">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z68">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB68">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6615,7 +6615,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6704,7 +6704,7 @@
         <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6790,7 +6790,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -6879,7 +6879,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
         <v>47</v>
@@ -7146,7 +7146,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
         <v>41</v>
@@ -7238,7 +7238,7 @@
         <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>45200.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
         <v>39</v>
@@ -7591,7 +7591,7 @@
         <v>45201.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G80" t="s">
         <v>49</v>
@@ -7683,7 +7683,7 @@
         <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -7947,7 +7947,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G84" t="s">
         <v>30</v>
@@ -8039,7 +8039,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6868644</v>
+        <v>6868648</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8214,58 +8214,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
         <v>2</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>53</v>
       </c>
       <c r="K87">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L87">
         <v>3.4</v>
       </c>
       <c r="M87">
+        <v>2.625</v>
+      </c>
+      <c r="N87">
+        <v>2.9</v>
+      </c>
+      <c r="O87">
         <v>3.3</v>
       </c>
-      <c r="N87">
-        <v>2.2</v>
-      </c>
-      <c r="O87">
-        <v>3.4</v>
-      </c>
       <c r="P87">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
+        <v>1.78</v>
+      </c>
+      <c r="S87">
+        <v>2.125</v>
+      </c>
+      <c r="T87">
+        <v>2.25</v>
+      </c>
+      <c r="U87">
         <v>1.92</v>
       </c>
-      <c r="S87">
-        <v>2.01</v>
-      </c>
-      <c r="T87">
-        <v>2.5</v>
-      </c>
-      <c r="U87">
-        <v>1.99</v>
-      </c>
       <c r="V87">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W87">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r